--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -491,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1283241500496</v>
+        <v>13.1283241780761</v>
       </c>
       <c r="D2" t="n">
-        <v>38.8320659138189</v>
+        <v>38.8320668970215</v>
       </c>
       <c r="E2" t="n">
-        <v>17.8017317434622</v>
+        <v>17.8017319451571</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>23166.294657725</v>
+        <v>23166.2947929067</v>
       </c>
       <c r="D3" t="n">
-        <v>70971.6548638664</v>
+        <v>70971.6575192442</v>
       </c>
       <c r="E3" t="n">
-        <v>36809.147160786</v>
+        <v>36809.1481612736</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.29362796993694</v>
+        <v>0.29362797149107</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07081279851948</v>
+        <v>1.07081284392489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.419524549165381</v>
+        <v>0.419524557032948</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -551,13 +551,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.960072539212161</v>
+        <v>0.960072538527291</v>
       </c>
       <c r="D5" t="n">
-        <v>0.661543807858348</v>
+        <v>0.661543782351705</v>
       </c>
       <c r="E5" t="n">
-        <v>0.899692718399302</v>
+        <v>0.899692712591748</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -571,13 +571,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>37.5110104191305</v>
+        <v>37.3484409880238</v>
       </c>
       <c r="D6" t="n">
-        <v>43.2637088847515</v>
+        <v>42.8657672967679</v>
       </c>
       <c r="E6" t="n">
-        <v>38.469793496734</v>
+        <v>38.2679953728145</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -591,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>55051.7090362285</v>
+        <v>54896.0555609153</v>
       </c>
       <c r="D7" t="n">
-        <v>64877.1469479021</v>
+        <v>63577.4404628668</v>
       </c>
       <c r="E7" t="n">
-        <v>56807.4196080458</v>
+        <v>56435.7680857109</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -611,13 +611,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.654146914995997</v>
+        <v>0.650820849148826</v>
       </c>
       <c r="D8" t="n">
-        <v>1.08912174338792</v>
+        <v>1.07970189791137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.835107137499997</v>
+        <v>0.831388338624533</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -631,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.775479851984465</v>
+        <v>0.77681246370738</v>
       </c>
       <c r="D9" t="n">
-        <v>0.789584332650026</v>
+        <v>0.79120859756396</v>
       </c>
       <c r="E9" t="n">
-        <v>0.767903514673827</v>
+        <v>0.770638158476929</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>18.7193956752364</v>
+        <v>18.6647469328998</v>
       </c>
       <c r="D18" t="n">
-        <v>35.7947665689014</v>
+        <v>36.0477177718934</v>
       </c>
       <c r="E18" t="n">
-        <v>21.8240085649936</v>
+        <v>21.8252870854441</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>36961.1045019266</v>
+        <v>36930.5010869094</v>
       </c>
       <c r="D19" t="n">
-        <v>52387.0811359985</v>
+        <v>52741.388982845</v>
       </c>
       <c r="E19" t="n">
-        <v>40208.4588046758</v>
+        <v>40269.6201964746</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.405755152422225</v>
+        <v>0.406170666925393</v>
       </c>
       <c r="D20" t="n">
-        <v>0.915933056121054</v>
+        <v>0.926080716236071</v>
       </c>
       <c r="E20" t="n">
-        <v>0.509123053604494</v>
+        <v>0.510871576956314</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.896641520510639</v>
+        <v>0.896797497240655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.835797882559435</v>
+        <v>0.834499793045689</v>
       </c>
       <c r="E21" t="n">
-        <v>0.880955759909147</v>
+        <v>0.880600439752209</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -891,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>34.9385065841412</v>
+        <v>34.5890461592782</v>
       </c>
       <c r="D22" t="n">
-        <v>36.581873460605</v>
+        <v>64.9800835773157</v>
       </c>
       <c r="E22" t="n">
-        <v>35.2124010635519</v>
+        <v>39.6542190622845</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -911,13 +911,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>55741.0030760804</v>
+        <v>55537.4900432309</v>
       </c>
       <c r="D23" t="n">
-        <v>67751.1576068542</v>
+        <v>98552.7460379541</v>
       </c>
       <c r="E23" t="n">
-        <v>57915.9109927298</v>
+        <v>64723.395761156</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -931,13 +931,13 @@
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>0.682366205117288</v>
+        <v>0.673665455194299</v>
       </c>
       <c r="D24" t="n">
-        <v>1.12353198444444</v>
+        <v>1.79949246666767</v>
       </c>
       <c r="E24" t="n">
-        <v>0.795371158606952</v>
+        <v>0.854755712134987</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -951,13 +951,13 @@
         <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>0.773157650206298</v>
+        <v>0.776128141627733</v>
       </c>
       <c r="D25" t="n">
-        <v>0.777031931633225</v>
+        <v>0.808892773963043</v>
       </c>
       <c r="E25" t="n">
-        <v>0.758333892324393</v>
+        <v>0.710153929452941</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -971,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>6.55439326091081</v>
+        <v>6.55439238661371</v>
       </c>
       <c r="D26" t="n">
-        <v>23.08685991291</v>
+        <v>23.0868607233375</v>
       </c>
       <c r="E26" t="n">
-        <v>9.56029628854703</v>
+        <v>9.56029572056349</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -991,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>6985.4417063788</v>
+        <v>6985.44190310258</v>
       </c>
       <c r="D27" t="n">
-        <v>32542.3649612375</v>
+        <v>32542.3712429969</v>
       </c>
       <c r="E27" t="n">
-        <v>15246.9925411231</v>
+        <v>15246.9950525838</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1011,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>0.390049917841602</v>
+        <v>0.390049881780331</v>
       </c>
       <c r="D28" t="n">
-        <v>1.76364743482076</v>
+        <v>1.76364650569467</v>
       </c>
       <c r="E28" t="n">
-        <v>0.690671825224728</v>
+        <v>0.690671776728275</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1031,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>0.931265916924973</v>
+        <v>0.931265937364164</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211849835695004</v>
+        <v>0.211850042163499</v>
       </c>
       <c r="E29" t="n">
-        <v>0.791140795815701</v>
+        <v>0.791140725665705</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1051,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.1302494360982</v>
+        <v>15.1306196141532</v>
       </c>
       <c r="D30" t="n">
-        <v>16.0181125059867</v>
+        <v>16.0171668787124</v>
       </c>
       <c r="E30" t="n">
-        <v>15.2782266144129</v>
+        <v>15.2783774915797</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1071,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>15061.200989079</v>
+        <v>15061.2224569675</v>
       </c>
       <c r="D31" t="n">
-        <v>26531.6596092055</v>
+        <v>26530.7202650591</v>
       </c>
       <c r="E31" t="n">
-        <v>17502.9894484053</v>
+        <v>17502.7675300895</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1091,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.757611205866012</v>
+        <v>0.757632369459625</v>
       </c>
       <c r="D32" t="n">
-        <v>1.56325296322275</v>
+        <v>1.56319226456649</v>
       </c>
       <c r="E32" t="n">
-        <v>1.05460725068384</v>
+        <v>1.05462583971718</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1111,13 +1111,13 @@
         <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>0.667411337950311</v>
+        <v>0.66741036880016</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0509375256844814</v>
+        <v>0.0509411061001936</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6302698847662</v>
+        <v>0.630280215913968</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1211,13 +1211,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>10.371073130209</v>
+        <v>10.3710731301461</v>
       </c>
       <c r="D38" t="n">
-        <v>9.04555838798604</v>
+        <v>9.04555838792873</v>
       </c>
       <c r="E38" t="n">
-        <v>10.1501540065052</v>
+        <v>10.1501540064432</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>12083.4912200888</v>
+        <v>12083.4912200585</v>
       </c>
       <c r="D39" t="n">
-        <v>15076.3483420702</v>
+        <v>15076.3483417645</v>
       </c>
       <c r="E39" t="n">
-        <v>12631.6406935208</v>
+        <v>12631.6406934358</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -1251,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.585971909024456</v>
+        <v>0.585971909024129</v>
       </c>
       <c r="D40" t="n">
-        <v>0.501656941995452</v>
+        <v>0.501656941993601</v>
       </c>
       <c r="E40" t="n">
-        <v>0.563490713518437</v>
+        <v>0.563490713517815</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -1271,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>0.785940402575611</v>
+        <v>0.785940402576688</v>
       </c>
       <c r="D41" t="n">
-        <v>0.631796652806191</v>
+        <v>0.631796652813638</v>
       </c>
       <c r="E41" t="n">
-        <v>0.807134545370721</v>
+        <v>0.807134545372922</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.39445204407864</v>
+        <v>9.47032937860337</v>
       </c>
       <c r="D42" t="n">
-        <v>19.5832308833253</v>
+        <v>12.7397815916647</v>
       </c>
       <c r="E42" t="n">
-        <v>11.246957287578</v>
+        <v>10.0647752355236</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10438.1751895249</v>
+        <v>10423.6232454695</v>
       </c>
       <c r="D43" t="n">
-        <v>26264.0968884348</v>
+        <v>19375.838488545</v>
       </c>
       <c r="E43" t="n">
-        <v>14648.0066354532</v>
+        <v>12536.1786563377</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48603083622448</v>
+        <v>0.48960775426915</v>
       </c>
       <c r="D44" t="n">
-        <v>1.45783619992711</v>
+        <v>0.93663499600851</v>
       </c>
       <c r="E44" t="n">
-        <v>0.773996879544746</v>
+        <v>0.663749167411825</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.841119547439863</v>
+        <v>0.841560171710211</v>
       </c>
       <c r="D45" t="n">
-        <v>0.457688339109423</v>
+        <v>0.475219246745935</v>
       </c>
       <c r="E45" t="n">
-        <v>0.78367106491215</v>
+        <v>0.815899643528054</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1371,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>15.0412306129198</v>
+        <v>15.323872805703</v>
       </c>
       <c r="D46" t="n">
-        <v>44.1119266636278</v>
+        <v>52.148692686561</v>
       </c>
       <c r="E46" t="n">
-        <v>19.8863466213711</v>
+        <v>21.461342785846</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -1391,13 +1391,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>16864.3677965169</v>
+        <v>16986.5406593124</v>
       </c>
       <c r="D47" t="n">
-        <v>63556.5021174907</v>
+        <v>80925.4179569499</v>
       </c>
       <c r="E47" t="n">
-        <v>30170.248776158</v>
+        <v>36495.7442481526</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -1411,13 +1411,13 @@
         <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>0.784688119514293</v>
+        <v>0.799734736207509</v>
       </c>
       <c r="D48" t="n">
-        <v>5.65944456065998</v>
+        <v>6.23970788024277</v>
       </c>
       <c r="E48" t="n">
-        <v>1.6150717848085</v>
+        <v>1.79013235771872</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -1431,13 +1431,13 @@
         <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>0.592840371266614</v>
+        <v>0.588203940438076</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0455579064520692</v>
+        <v>0.0236944566401056</v>
       </c>
       <c r="E49" t="n">
-        <v>0.518442554776888</v>
+        <v>0.47370851844627</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -1451,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>5.96609398848419</v>
+        <v>5.96612150320673</v>
       </c>
       <c r="D50" t="n">
-        <v>12.0652086252214</v>
+        <v>12.0650357737712</v>
       </c>
       <c r="E50" t="n">
-        <v>7.07502392243641</v>
+        <v>7.07501500694572</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -1471,13 +1471,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>1341.80663566684</v>
+        <v>1341.81057863601</v>
       </c>
       <c r="D51" t="n">
-        <v>1165.43004760824</v>
+        <v>1165.41559402518</v>
       </c>
       <c r="E51" t="n">
-        <v>1311.50364153698</v>
+        <v>1311.50460693225</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -1491,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258504423257619</v>
+        <v>0.258505789495154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.550346464891999</v>
+        <v>0.550339743131557</v>
       </c>
       <c r="E52" t="n">
-        <v>0.287006030332347</v>
+        <v>0.28700657757612</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -1511,13 +1511,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>0.979256030793599</v>
+        <v>0.979255869961295</v>
       </c>
       <c r="D53" t="n">
-        <v>0.979105341098286</v>
+        <v>0.979105405266156</v>
       </c>
       <c r="E53" t="n">
-        <v>0.979750849977752</v>
+        <v>0.979750756527463</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -1531,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>25.4836901376521</v>
+        <v>25.9014609074869</v>
       </c>
       <c r="D54" t="n">
-        <v>108.032840236786</v>
+        <v>108.655514765514</v>
       </c>
       <c r="E54" t="n">
-        <v>39.2418818208412</v>
+        <v>39.693803217158</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -1551,13 +1551,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>3405.83073092964</v>
+        <v>3405.67494324724</v>
       </c>
       <c r="D55" t="n">
-        <v>5430.37046441232</v>
+        <v>5471.87297722535</v>
       </c>
       <c r="E55" t="n">
-        <v>3818.53676643042</v>
+        <v>3828.28296964839</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -1571,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>0.682190425492008</v>
+        <v>0.685110902253993</v>
       </c>
       <c r="D56" t="n">
-        <v>1.2612314029724</v>
+        <v>1.27172084471108</v>
       </c>
       <c r="E56" t="n">
-        <v>0.789028246003934</v>
+        <v>0.793389788448982</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -1591,13 +1591,13 @@
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>0.890762682115951</v>
+        <v>0.890777593585843</v>
       </c>
       <c r="D57" t="n">
-        <v>0.973423722309008</v>
+        <v>0.974595111242064</v>
       </c>
       <c r="E57" t="n">
-        <v>0.867214382083596</v>
+        <v>0.867487196789009</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -1611,13 +1611,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>4.49978093730607</v>
+        <v>4.49978093731095</v>
       </c>
       <c r="D58" t="n">
-        <v>4.4841038148045</v>
+        <v>4.48410381480368</v>
       </c>
       <c r="E58" t="n">
-        <v>4.49716808355581</v>
+        <v>4.49716808355974</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -1631,13 +1631,13 @@
         <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>1253.25847870124</v>
+        <v>1253.258478701</v>
       </c>
       <c r="D59" t="n">
-        <v>425.255658898757</v>
+        <v>425.255658898937</v>
       </c>
       <c r="E59" t="n">
-        <v>1157.16078165541</v>
+        <v>1157.1607816552</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -1651,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.198384932382178</v>
+        <v>0.198384932382305</v>
       </c>
       <c r="D60" t="n">
-        <v>0.246366581386701</v>
+        <v>0.24636658138684</v>
       </c>
       <c r="E60" t="n">
-        <v>0.210725219467769</v>
+        <v>0.210725219467906</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -1671,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>0.985611337895209</v>
+        <v>0.985611337895217</v>
       </c>
       <c r="D61" t="n">
         <v>0.981650185993087</v>
       </c>
       <c r="E61" t="n">
-        <v>0.987294682562369</v>
+        <v>0.987294682562374</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -1691,13 +1691,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>4.92255109853523</v>
+        <v>4.92255109845518</v>
       </c>
       <c r="D62" t="n">
-        <v>8.69595308732262</v>
+        <v>8.69595307973058</v>
       </c>
       <c r="E62" t="n">
-        <v>5.5514514299998</v>
+        <v>5.55145142866774</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -1711,13 +1711,13 @@
         <v>9</v>
       </c>
       <c r="C63" t="n">
-        <v>1202.90683397632</v>
+        <v>1202.90683422761</v>
       </c>
       <c r="D63" t="n">
-        <v>776.69114026282</v>
+        <v>776.691139432709</v>
       </c>
       <c r="E63" t="n">
-        <v>1142.96204249437</v>
+        <v>1142.96204262074</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -1731,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217094003661892</v>
+        <v>0.217094003675794</v>
       </c>
       <c r="D64" t="n">
-        <v>0.427319226073264</v>
+        <v>0.427319225703538</v>
       </c>
       <c r="E64" t="n">
-        <v>0.233285348863193</v>
+        <v>0.233285348846284</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -1751,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>0.987262230103331</v>
+        <v>0.987262230096519</v>
       </c>
       <c r="D65" t="n">
-        <v>0.989222200277595</v>
+        <v>0.989222200266557</v>
       </c>
       <c r="E65" t="n">
-        <v>0.988224315563252</v>
+        <v>0.988224315559102</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>5.13027343769251</v>
+        <v>5.12950128701695</v>
       </c>
       <c r="D66" t="n">
-        <v>13.0443939985214</v>
+        <v>13.1427859743345</v>
       </c>
       <c r="E66" t="n">
-        <v>6.56920444875231</v>
+        <v>6.58646213925651</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1069.44955660682</v>
+        <v>1067.09068207993</v>
       </c>
       <c r="D67" t="n">
-        <v>1800.20912340347</v>
+        <v>1794.60572238571</v>
       </c>
       <c r="E67" t="n">
-        <v>1234.90915982103</v>
+        <v>1231.75270952616</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21246791809623</v>
+        <v>0.212235789551058</v>
       </c>
       <c r="D68" t="n">
-        <v>0.609661327553951</v>
+        <v>0.609800789356968</v>
       </c>
       <c r="E68" t="n">
-        <v>0.255279082293994</v>
+        <v>0.255135203262699</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.986884090519388</v>
+        <v>0.986943093319962</v>
       </c>
       <c r="D69" t="n">
-        <v>0.976511014545258</v>
+        <v>0.976890277772616</v>
       </c>
       <c r="E69" t="n">
-        <v>0.982438186884999</v>
+        <v>0.982525041869737</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>17.6948440718607</v>
+        <v>17.8291025623218</v>
       </c>
       <c r="D70" t="n">
-        <v>116.350156437245</v>
+        <v>123.021388679522</v>
       </c>
       <c r="E70" t="n">
-        <v>34.1373961327581</v>
+        <v>35.3611502485218</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -1871,13 +1871,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>4869.6319836434</v>
+        <v>4875.0231429054</v>
       </c>
       <c r="D71" t="n">
-        <v>26569.8541202197</v>
+        <v>32607.3104825472</v>
       </c>
       <c r="E71" t="n">
-        <v>11722.6541807616</v>
+        <v>14036.0604048082</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -1891,13 +1891,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.709965003516009</v>
+        <v>0.711712001056447</v>
       </c>
       <c r="D72" t="n">
-        <v>5.87916603685306</v>
+        <v>6.97832542523075</v>
       </c>
       <c r="E72" t="n">
-        <v>1.45090693963229</v>
+        <v>1.66216025477497</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -1911,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>0.813199307059063</v>
+        <v>0.812476183813466</v>
       </c>
       <c r="D73" t="n">
-        <v>0.329019937338885</v>
+        <v>0.203048518168104</v>
       </c>
       <c r="E73" t="n">
-        <v>0.316151915430178</v>
+        <v>0.209394242318273</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -1931,13 +1931,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>2.31409197994451</v>
+        <v>2.31409196873631</v>
       </c>
       <c r="D74" t="n">
-        <v>16.0022181488354</v>
+        <v>16.002218112422</v>
       </c>
       <c r="E74" t="n">
-        <v>4.8218402856955</v>
+        <v>4.82184026986956</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -1951,13 +1951,13 @@
         <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>543.351235533408</v>
+        <v>543.351489760836</v>
       </c>
       <c r="D75" t="n">
-        <v>681.982513470549</v>
+        <v>681.982512076643</v>
       </c>
       <c r="E75" t="n">
-        <v>571.272010717107</v>
+        <v>571.272207914758</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -1971,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0292450033679202</v>
+        <v>0.0292450085719206</v>
       </c>
       <c r="D76" t="n">
-        <v>2.00587275086897</v>
+        <v>2.00587274784148</v>
       </c>
       <c r="E76" t="n">
-        <v>0.054513517159735</v>
+        <v>0.0545135226051104</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -1991,13 +1991,13 @@
         <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>0.999833059506962</v>
+        <v>0.999833059484233</v>
       </c>
       <c r="D77" t="n">
-        <v>0.691226624344446</v>
+        <v>0.691226626695986</v>
       </c>
       <c r="E77" t="n">
-        <v>0.999641576797832</v>
+        <v>0.999641576775113</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2011,13 +2011,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>84.5722789594825</v>
+        <v>83.0428580598454</v>
       </c>
       <c r="D78" t="n">
-        <v>170.089223689849</v>
+        <v>168.502493760253</v>
       </c>
       <c r="E78" t="n">
-        <v>98.8251030812103</v>
+        <v>97.28613067658</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2031,13 +2031,13 @@
         <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>19467.6831730127</v>
+        <v>19467.7474683953</v>
       </c>
       <c r="D79" t="n">
-        <v>6921.67638161297</v>
+        <v>6906.04544989655</v>
       </c>
       <c r="E79" t="n">
-        <v>17994.7355475418</v>
+        <v>17993.7925464223</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2051,13 +2051,13 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>1.22019459093216</v>
+        <v>1.21749623723667</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09014758636842</v>
+        <v>1.07936711431003</v>
       </c>
       <c r="E80" t="n">
-        <v>1.21278487762753</v>
+        <v>1.20927938605373</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2071,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>0.113935683205731</v>
+        <v>0.113919432838802</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0102400218600112</v>
+        <v>0.0102082037319277</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0959217892979483</v>
+        <v>0.0959209021756579</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2091,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>22.7619460526565</v>
+        <v>22.7619460526528</v>
       </c>
       <c r="D82" t="n">
-        <v>30.1535213033786</v>
+        <v>30.1535213033783</v>
       </c>
       <c r="E82" t="n">
-        <v>23.9938752611102</v>
+        <v>23.9938752611071</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2111,13 +2111,13 @@
         <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>20016.5644520724</v>
+        <v>20016.5644520722</v>
       </c>
       <c r="D83" t="n">
-        <v>2443.01385982736</v>
+        <v>2443.01385982774</v>
       </c>
       <c r="E83" t="n">
-        <v>18299.7385183466</v>
+        <v>18299.7385183465</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -2131,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>0.629354604213288</v>
+        <v>0.629354604213268</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07675930519526</v>
+        <v>1.07675930519517</v>
       </c>
       <c r="E84" t="n">
-        <v>2.22451637077736</v>
+        <v>2.22451637077711</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -2151,13 +2151,13 @@
         <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0897512138427545</v>
+        <v>0.0897512138427897</v>
       </c>
       <c r="D85" t="n">
-        <v>0.430144765421345</v>
+        <v>0.430144765421159</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0767079908466453</v>
+        <v>0.0767079908466726</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -2171,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>20.5496093475978</v>
+        <v>20.5495833840905</v>
       </c>
       <c r="D86" t="n">
-        <v>18.7880530818871</v>
+        <v>18.7872106353941</v>
       </c>
       <c r="E86" t="n">
-        <v>20.256016636646</v>
+        <v>20.2558545926411</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -2191,13 +2191,13 @@
         <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>19596.491533203</v>
+        <v>19596.5023202209</v>
       </c>
       <c r="D87" t="n">
-        <v>750.791361776775</v>
+        <v>750.754421466596</v>
       </c>
       <c r="E87" t="n">
-        <v>17891.6930898271</v>
+        <v>17891.7026771884</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -2211,13 +2211,13 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>2.39161036144393</v>
+        <v>2.39161927196005</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37770039037058</v>
+        <v>1.37764519816664</v>
       </c>
       <c r="E88" t="n">
-        <v>2.31149856155614</v>
+        <v>2.31150290723116</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -2231,13 +2231,13 @@
         <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>0.371914209374478</v>
+        <v>0.371910675357318</v>
       </c>
       <c r="D89" t="n">
-        <v>0.907062878776598</v>
+        <v>0.90706288844803</v>
       </c>
       <c r="E89" t="n">
-        <v>0.335319991692103</v>
+        <v>0.33531802798723</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>31.2105654393754</v>
+        <v>32.2053978544294</v>
       </c>
       <c r="D90" t="n">
-        <v>124.48801532968</v>
+        <v>57.7451745827542</v>
       </c>
       <c r="E90" t="n">
-        <v>48.1701017830672</v>
+        <v>36.8489936232157</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>16068.2875640733</v>
+        <v>16067.5334723152</v>
       </c>
       <c r="D91" t="n">
-        <v>9575.92926315626</v>
+        <v>7487.56624918127</v>
       </c>
       <c r="E91" t="n">
-        <v>15096.9763067784</v>
+        <v>14880.1820114341</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.663628311345608</v>
+        <v>0.665272709602981</v>
       </c>
       <c r="D92" t="n">
-        <v>1.33501433993528</v>
+        <v>1.29170113324158</v>
       </c>
       <c r="E92" t="n">
-        <v>1.10480447862718</v>
+        <v>1.05390094159976</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.668503099867713</v>
+        <v>0.67818988448979</v>
       </c>
       <c r="D93" t="n">
-        <v>0.000311629703502084</v>
+        <v>0.172285115133304</v>
       </c>
       <c r="E93" t="n">
-        <v>0.519626520872313</v>
+        <v>0.567291771475916</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2331,13 +2331,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>109.188911599794</v>
+        <v>119.921898327384</v>
       </c>
       <c r="D94" t="n">
-        <v>148.073253979843</v>
+        <v>145.031967246838</v>
       </c>
       <c r="E94" t="n">
-        <v>115.669635329802</v>
+        <v>124.10690981396</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -2351,13 +2351,13 @@
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>23260.4731304106</v>
+        <v>23230.5284978359</v>
       </c>
       <c r="D95" t="n">
-        <v>7834.34974039554</v>
+        <v>7742.52363893271</v>
       </c>
       <c r="E95" t="n">
-        <v>21473.3365172858</v>
+        <v>21440.7475916896</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
@@ -2371,13 +2371,13 @@
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>1.79774206940172</v>
+        <v>1.82248385450416</v>
       </c>
       <c r="D96" t="n">
-        <v>0.703279655973983</v>
+        <v>0.808526779578453</v>
       </c>
       <c r="E96" t="n">
-        <v>1.3412040835598</v>
+        <v>1.37135075623412</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -2391,13 +2391,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00082019000890631</v>
+        <v>0.00146001108544047</v>
       </c>
       <c r="D97" t="n">
-        <v>0.021594071972694</v>
+        <v>0.0217967914342895</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00104798780459874</v>
+        <v>0.00172468353970069</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -2411,13 +2411,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>0.981010177181362</v>
+        <v>0.981010172166566</v>
       </c>
       <c r="D98" t="n">
-        <v>11.4691532334302</v>
+        <v>11.4691534918662</v>
       </c>
       <c r="E98" t="n">
-        <v>2.88794527831752</v>
+        <v>2.88794532120287</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -2431,13 +2431,13 @@
         <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>30.9562023827697</v>
+        <v>30.9562023266075</v>
       </c>
       <c r="D99" t="n">
-        <v>322.843351584733</v>
+        <v>322.843358588286</v>
       </c>
       <c r="E99" t="n">
-        <v>140.479774512721</v>
+        <v>140.479777428996</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -2451,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0679217606152755</v>
+        <v>0.0679217600242411</v>
       </c>
       <c r="D100" t="n">
-        <v>1.03404288349458</v>
+        <v>1.03404290405461</v>
       </c>
       <c r="E100" t="n">
-        <v>0.218936749771943</v>
+        <v>0.21893675284298</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
@@ -2471,13 +2471,13 @@
         <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>0.997199306892687</v>
+        <v>0.997199306891788</v>
       </c>
       <c r="D101" t="n">
-        <v>0.424125668055212</v>
+        <v>0.42412565380898</v>
       </c>
       <c r="E101" t="n">
-        <v>0.934899773241407</v>
+        <v>0.934899770750161</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
@@ -2491,13 +2491,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>7.32431576298245</v>
+        <v>7.39417150355755</v>
       </c>
       <c r="D102" t="n">
-        <v>8.01764903850421</v>
+        <v>7.72192702108494</v>
       </c>
       <c r="E102" t="n">
-        <v>7.43987130890274</v>
+        <v>7.44879742314545</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
@@ -2511,13 +2511,13 @@
         <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>220.323916730427</v>
+        <v>223.622384921337</v>
       </c>
       <c r="D103" t="n">
-        <v>258.237232867609</v>
+        <v>254.143117979431</v>
       </c>
       <c r="E103" t="n">
-        <v>227.082807897728</v>
+        <v>228.991841050375</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -2531,13 +2531,13 @@
         <v>10</v>
       </c>
       <c r="C104" t="n">
-        <v>0.505396480713007</v>
+        <v>0.51086321902928</v>
       </c>
       <c r="D104" t="n">
-        <v>0.671202979836585</v>
+        <v>0.649760742396729</v>
       </c>
       <c r="E104" t="n">
-        <v>0.580210373040406</v>
+        <v>0.583161174941603</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
@@ -2551,13 +2551,13 @@
         <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>0.861898746167072</v>
+        <v>0.857852970153896</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7462299844624</v>
+        <v>0.750593107816147</v>
       </c>
       <c r="E105" t="n">
-        <v>0.84234597230826</v>
+        <v>0.83936919672567</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -2731,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.11561604108407</v>
+        <v>5.097191398718</v>
       </c>
       <c r="D114" t="n">
-        <v>7.19796172526662</v>
+        <v>7.11835462241237</v>
       </c>
       <c r="E114" t="n">
-        <v>5.49422434729907</v>
+        <v>5.46467562120789</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -2751,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>166.392672375446</v>
+        <v>167.258510706784</v>
       </c>
       <c r="D115" t="n">
-        <v>222.374591748793</v>
+        <v>220.742322220622</v>
       </c>
       <c r="E115" t="n">
-        <v>177.886483438958</v>
+        <v>178.180967832086</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -2771,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>0.354075402045097</v>
+        <v>0.353813686502574</v>
       </c>
       <c r="D116" t="n">
-        <v>0.723257399704912</v>
+        <v>0.713002036359962</v>
       </c>
       <c r="E116" t="n">
-        <v>0.444330811598781</v>
+        <v>0.442118507323346</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.915339419241011</v>
+        <v>0.91446162051889</v>
       </c>
       <c r="D117" t="n">
-        <v>0.755065656488103</v>
+        <v>0.753994095963811</v>
       </c>
       <c r="E117" t="n">
-        <v>0.895518120991512</v>
+        <v>0.89513782903613</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -2811,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>9.97600379695658</v>
+        <v>10.0337035658491</v>
       </c>
       <c r="D118" t="n">
-        <v>9.12361800705177</v>
+        <v>8.67653125460299</v>
       </c>
       <c r="E118" t="n">
-        <v>9.83393949863911</v>
+        <v>9.80750818064143</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
@@ -2831,13 +2831,13 @@
         <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>307.542232557001</v>
+        <v>308.887982064409</v>
       </c>
       <c r="D119" t="n">
-        <v>317.069089802561</v>
+        <v>301.301215912224</v>
       </c>
       <c r="E119" t="n">
-        <v>309.15043041076</v>
+        <v>307.636514420644</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
@@ -2851,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="C120" t="n">
-        <v>0.656748723024391</v>
+        <v>0.65962282770886</v>
       </c>
       <c r="D120" t="n">
-        <v>0.800850815277476</v>
+        <v>0.750184226087751</v>
       </c>
       <c r="E120" t="n">
-        <v>0.716759384054286</v>
+        <v>0.698401156077226</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
@@ -2871,13 +2871,13 @@
         <v>11</v>
       </c>
       <c r="C121" t="n">
-        <v>0.758846066781888</v>
+        <v>0.757749998003069</v>
       </c>
       <c r="D121" t="n">
-        <v>0.728944746964339</v>
+        <v>0.723692209112963</v>
       </c>
       <c r="E121" t="n">
-        <v>0.753671282344655</v>
+        <v>0.754181058493619</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -2891,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>8.39027959798016</v>
+        <v>8.39027955964933</v>
       </c>
       <c r="D122" t="n">
-        <v>14.4372774109699</v>
+        <v>14.4372774231928</v>
       </c>
       <c r="E122" t="n">
-        <v>9.48973374579647</v>
+        <v>9.48973371665724</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
@@ -2911,13 +2911,13 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>263.66437460644</v>
+        <v>263.664374301903</v>
       </c>
       <c r="D123" t="n">
-        <v>270.955705340189</v>
+        <v>270.955705470455</v>
       </c>
       <c r="E123" t="n">
-        <v>265.004993167752</v>
+        <v>265.004992944063</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29440115960628</v>
+        <v>1.29440111571537</v>
       </c>
       <c r="D124" t="n">
-        <v>8.51888038109516</v>
+        <v>8.51888035163761</v>
       </c>
       <c r="E124" t="n">
-        <v>1.55681490414394</v>
+        <v>1.55681485567161</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
@@ -2951,13 +2951,13 @@
         <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>0.872784279574687</v>
+        <v>0.872784279219149</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0015739036482764</v>
+        <v>0.00157390471826995</v>
       </c>
       <c r="E125" t="n">
-        <v>0.87474140734735</v>
+        <v>0.874741406968688</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
@@ -2971,13 +2971,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>10.6281048511773</v>
+        <v>10.6305878461296</v>
       </c>
       <c r="D126" t="n">
-        <v>15.6669483493022</v>
+        <v>15.6606030715951</v>
       </c>
       <c r="E126" t="n">
-        <v>11.4679121008648</v>
+        <v>11.4689237170405</v>
       </c>
       <c r="F126" t="s">
         <v>21</v>
@@ -2991,13 +2991,13 @@
         <v>9</v>
       </c>
       <c r="C127" t="n">
-        <v>357.7573139655</v>
+        <v>357.824937832704</v>
       </c>
       <c r="D127" t="n">
-        <v>287.442955919732</v>
+        <v>287.413776937276</v>
       </c>
       <c r="E127" t="n">
-        <v>347.029040904581</v>
+        <v>347.083109607349</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
@@ -3011,13 +3011,13 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>1.00754068960236</v>
+        <v>1.00789474288422</v>
       </c>
       <c r="D128" t="n">
-        <v>1.51792715062102</v>
+        <v>1.51846826592802</v>
       </c>
       <c r="E128" t="n">
-        <v>1.46169885210551</v>
+        <v>1.46304151718104</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -3031,13 +3031,13 @@
         <v>11</v>
       </c>
       <c r="C129" t="n">
-        <v>0.886433259995757</v>
+        <v>0.886386893483781</v>
       </c>
       <c r="D129" t="n">
-        <v>0.136727119310148</v>
+        <v>0.136555661006709</v>
       </c>
       <c r="E129" t="n">
-        <v>0.891404427628244</v>
+        <v>0.89136257757607</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
@@ -3051,13 +3051,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>6.94116082997981</v>
+        <v>6.94116082996718</v>
       </c>
       <c r="D130" t="n">
-        <v>13.4657343225171</v>
+        <v>13.4657343225172</v>
       </c>
       <c r="E130" t="n">
-        <v>8.0285897454027</v>
+        <v>8.02858974539219</v>
       </c>
       <c r="F130" t="s">
         <v>21</v>
@@ -3071,13 +3071,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>264.304416984428</v>
+        <v>264.304416984321</v>
       </c>
       <c r="D131" t="n">
-        <v>292.026566439258</v>
+        <v>292.02656643926</v>
       </c>
       <c r="E131" t="n">
-        <v>269.123156347205</v>
+        <v>269.123156347118</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
@@ -3091,13 +3091,13 @@
         <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>0.70505509056503</v>
+        <v>0.705055090562599</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72052461055441</v>
+        <v>2.72052461055445</v>
       </c>
       <c r="E132" t="n">
-        <v>0.857857120018508</v>
+        <v>0.857857120014631</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -3111,13 +3111,13 @@
         <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>0.937897868672022</v>
+        <v>0.937897868672108</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0599827335312586</v>
+        <v>0.0599827335312671</v>
       </c>
       <c r="E133" t="n">
-        <v>0.936246951968812</v>
+        <v>0.93624695196891</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>0.943838585385531</v>
+        <v>0.943838585385532</v>
       </c>
       <c r="D137" t="n">
         <v>0.00195289482737922</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>5.84724084013474</v>
+        <v>5.80882907330204</v>
       </c>
       <c r="D138" t="n">
-        <v>15.5593138170191</v>
+        <v>15.1742113520435</v>
       </c>
       <c r="E138" t="n">
-        <v>7.61307229047736</v>
+        <v>7.51162585125504</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>188.437020641326</v>
+        <v>187.7709095373</v>
       </c>
       <c r="D139" t="n">
-        <v>339.852141239396</v>
+        <v>332.380314458608</v>
       </c>
       <c r="E139" t="n">
-        <v>223.723764849671</v>
+        <v>221.21042575615</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.572828212144533</v>
+        <v>0.569359078027702</v>
       </c>
       <c r="D140" t="n">
-        <v>2.39852693010048</v>
+        <v>2.34385203173424</v>
       </c>
       <c r="E140" t="n">
-        <v>0.880052954594957</v>
+        <v>0.870924958139888</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.934558428448737</v>
+        <v>0.935018094702464</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00324295634360718</v>
+        <v>0.00557988532418443</v>
       </c>
       <c r="E141" t="n">
-        <v>0.915555710696233</v>
+        <v>0.916953896671213</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3291,13 +3291,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="n">
-        <v>11.0765418615698</v>
+        <v>10.8290099400941</v>
       </c>
       <c r="D142" t="n">
-        <v>32.3928760711735</v>
+        <v>20.471550373075</v>
       </c>
       <c r="E142" t="n">
-        <v>14.6292642298371</v>
+        <v>12.4361000122576</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -3311,13 +3311,13 @@
         <v>9</v>
       </c>
       <c r="C143" t="n">
-        <v>407.920675285016</v>
+        <v>408.826842225962</v>
       </c>
       <c r="D143" t="n">
-        <v>537.140349229521</v>
+        <v>398.945718376541</v>
       </c>
       <c r="E143" t="n">
-        <v>432.148921359935</v>
+        <v>407.19663980957</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -3331,13 +3331,13 @@
         <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>1.06342855448248</v>
+        <v>1.04726496232252</v>
       </c>
       <c r="D144" t="n">
-        <v>2.51230378180152</v>
+        <v>1.77628815379407</v>
       </c>
       <c r="E144" t="n">
-        <v>0.973778057074995</v>
+        <v>0.876937290322865</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -3351,13 +3351,13 @@
         <v>11</v>
       </c>
       <c r="C145" t="n">
-        <v>0.880631161043181</v>
+        <v>0.879254671074142</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0115754965493183</v>
+        <v>0.0638645778586714</v>
       </c>
       <c r="E145" t="n">
-        <v>0.880089334745724</v>
+        <v>0.885159769400674</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -3371,13 +3371,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>8.50769506393026</v>
+        <v>8.50769429179373</v>
       </c>
       <c r="D146" t="n">
-        <v>12.7608133178993</v>
+        <v>12.7608136173166</v>
       </c>
       <c r="E146" t="n">
-        <v>9.28098929192462</v>
+        <v>9.28098871461606</v>
       </c>
       <c r="F146" t="s">
         <v>22</v>
@@ -3391,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>118.600740396852</v>
+        <v>118.600729098456</v>
       </c>
       <c r="D147" t="n">
-        <v>142.537915101005</v>
+        <v>142.537925952914</v>
       </c>
       <c r="E147" t="n">
-        <v>123.299094992924</v>
+        <v>123.299088381974</v>
       </c>
       <c r="F147" t="s">
         <v>22</v>
@@ -3411,13 +3411,13 @@
         <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>0.570723726820718</v>
+        <v>0.57072365542926</v>
       </c>
       <c r="D148" t="n">
-        <v>0.893016704969936</v>
+        <v>0.893016652070549</v>
       </c>
       <c r="E148" t="n">
-        <v>0.620878514180466</v>
+        <v>0.62087844950034</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
@@ -3431,13 +3431,13 @@
         <v>11</v>
       </c>
       <c r="C149" t="n">
-        <v>0.89761339490884</v>
+        <v>0.897613413109337</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7222944503088</v>
+        <v>0.722294437609753</v>
       </c>
       <c r="E149" t="n">
-        <v>0.882582670823293</v>
+        <v>0.882582682112442</v>
       </c>
       <c r="F149" t="s">
         <v>22</v>
@@ -3451,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>12.0373486351914</v>
+        <v>12.0379196898419</v>
       </c>
       <c r="D150" t="n">
-        <v>18.8895142082473</v>
+        <v>18.8933188108265</v>
       </c>
       <c r="E150" t="n">
-        <v>13.1793762307008</v>
+        <v>13.180486210006</v>
       </c>
       <c r="F150" t="s">
         <v>22</v>
@@ -3471,13 +3471,13 @@
         <v>9</v>
       </c>
       <c r="C151" t="n">
-        <v>156.997720603042</v>
+        <v>156.9977378848</v>
       </c>
       <c r="D151" t="n">
-        <v>180.260489058733</v>
+        <v>180.269706420155</v>
       </c>
       <c r="E151" t="n">
-        <v>161.108278955721</v>
+        <v>161.110011874666</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -3491,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>0.704009870209795</v>
+        <v>0.704012523862613</v>
       </c>
       <c r="D152" t="n">
-        <v>0.853066883929977</v>
+        <v>0.853095211739721</v>
       </c>
       <c r="E152" t="n">
-        <v>0.769272865918531</v>
+        <v>0.76928727012971</v>
       </c>
       <c r="F152" t="s">
         <v>22</v>
@@ -3511,13 +3511,13 @@
         <v>11</v>
       </c>
       <c r="C153" t="n">
-        <v>0.835255956132524</v>
+        <v>0.835255812806831</v>
       </c>
       <c r="D153" t="n">
-        <v>0.707944311874919</v>
+        <v>0.707953644621593</v>
       </c>
       <c r="E153" t="n">
-        <v>0.822439426012456</v>
+        <v>0.822441011978446</v>
       </c>
       <c r="F153" t="s">
         <v>22</v>
@@ -3611,13 +3611,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>9.42874514363102</v>
+        <v>9.42874513615647</v>
       </c>
       <c r="D158" t="n">
-        <v>12.747780363469</v>
+        <v>12.7477803537015</v>
       </c>
       <c r="E158" t="n">
-        <v>9.98191768027069</v>
+        <v>9.98191767241398</v>
       </c>
       <c r="F158" t="s">
         <v>22</v>
@@ -3631,13 +3631,13 @@
         <v>9</v>
       </c>
       <c r="C159" t="n">
-        <v>148.397422460842</v>
+        <v>148.397422447356</v>
       </c>
       <c r="D159" t="n">
-        <v>131.3169413749</v>
+        <v>131.316941247514</v>
       </c>
       <c r="E159" t="n">
-        <v>145.689804068534</v>
+        <v>145.689804037951</v>
       </c>
       <c r="F159" t="s">
         <v>22</v>
@@ -3651,13 +3651,13 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.611938475734191</v>
+        <v>0.611938475306052</v>
       </c>
       <c r="D160" t="n">
-        <v>0.95832444642335</v>
+        <v>0.958324446292938</v>
       </c>
       <c r="E160" t="n">
-        <v>0.652421488187184</v>
+        <v>0.652421487782511</v>
       </c>
       <c r="F160" t="s">
         <v>22</v>
@@ -3671,13 +3671,13 @@
         <v>11</v>
       </c>
       <c r="C161" t="n">
-        <v>0.857926815265263</v>
+        <v>0.857926815344758</v>
       </c>
       <c r="D161" t="n">
-        <v>0.726418524246863</v>
+        <v>0.726418524544251</v>
       </c>
       <c r="E161" t="n">
-        <v>0.855472396012971</v>
+        <v>0.855472396131257</v>
       </c>
       <c r="F161" t="s">
         <v>22</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>7.22797838771571</v>
+        <v>7.22174167475994</v>
       </c>
       <c r="D162" t="n">
-        <v>12.8002761418172</v>
+        <v>12.8070274596593</v>
       </c>
       <c r="E162" t="n">
-        <v>8.24112343391598</v>
+        <v>8.23724818110528</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>93.8626429714563</v>
+        <v>94.1460553496573</v>
       </c>
       <c r="D163" t="n">
-        <v>146.314155244011</v>
+        <v>145.595901881643</v>
       </c>
       <c r="E163" t="n">
-        <v>105.359741215868</v>
+        <v>105.385720496644</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.428665567078689</v>
+        <v>0.42879166559448</v>
       </c>
       <c r="D164" t="n">
-        <v>0.881292496549736</v>
+        <v>0.885587653546739</v>
       </c>
       <c r="E164" t="n">
-        <v>0.512321233251191</v>
+        <v>0.513092979738163</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.934441960137514</v>
+        <v>0.93404524993158</v>
       </c>
       <c r="D165" t="n">
-        <v>0.699397962733133</v>
+        <v>0.700490989279469</v>
       </c>
       <c r="E165" t="n">
-        <v>0.914349053099686</v>
+        <v>0.914289879796763</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -3771,13 +3771,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>12.6575407178341</v>
+        <v>12.7435513642867</v>
       </c>
       <c r="D166" t="n">
-        <v>17.399361962659</v>
+        <v>17.6241512131018</v>
       </c>
       <c r="E166" t="n">
-        <v>13.4478442586383</v>
+        <v>13.5569846724226</v>
       </c>
       <c r="F166" t="s">
         <v>22</v>
@@ -3791,13 +3791,13 @@
         <v>9</v>
       </c>
       <c r="C167" t="n">
-        <v>205.974269469969</v>
+        <v>205.333415235662</v>
       </c>
       <c r="D167" t="n">
-        <v>181.170282161164</v>
+        <v>203.742297474827</v>
       </c>
       <c r="E167" t="n">
-        <v>202.051837225332</v>
+        <v>205.069086262014</v>
       </c>
       <c r="F167" t="s">
         <v>22</v>
@@ -3811,13 +3811,13 @@
         <v>10</v>
       </c>
       <c r="C168" t="n">
-        <v>0.73305381014195</v>
+        <v>0.739389089150135</v>
       </c>
       <c r="D168" t="n">
-        <v>0.878435930785485</v>
+        <v>0.95600535051495</v>
       </c>
       <c r="E168" t="n">
-        <v>0.695450365657215</v>
+        <v>0.715576323016741</v>
       </c>
       <c r="F168" t="s">
         <v>22</v>
@@ -3831,13 +3831,13 @@
         <v>11</v>
       </c>
       <c r="C169" t="n">
-        <v>0.777582198439127</v>
+        <v>0.778868282354185</v>
       </c>
       <c r="D169" t="n">
-        <v>0.687525859058227</v>
+        <v>0.648802616181464</v>
       </c>
       <c r="E169" t="n">
-        <v>0.779391052272196</v>
+        <v>0.771099244166617</v>
       </c>
       <c r="F169" t="s">
         <v>22</v>
@@ -3851,13 +3851,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="n">
-        <v>0.710744832226485</v>
+        <v>0.710744831186639</v>
       </c>
       <c r="D170" t="n">
-        <v>10.5476736669453</v>
+        <v>10.5476736664067</v>
       </c>
       <c r="E170" t="n">
-        <v>2.49927734762991</v>
+        <v>2.49927734668119</v>
       </c>
       <c r="F170" t="s">
         <v>23</v>
@@ -3871,13 +3871,13 @@
         <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>1042.84980608083</v>
+        <v>1042.84980524364</v>
       </c>
       <c r="D171" t="n">
-        <v>12621.7730537715</v>
+        <v>12621.773052878</v>
       </c>
       <c r="E171" t="n">
-        <v>5463.98232647388</v>
+        <v>5463.98232596788</v>
       </c>
       <c r="F171" t="s">
         <v>23</v>
@@ -3891,13 +3891,13 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0977265221910217</v>
+        <v>0.0977265220463755</v>
       </c>
       <c r="D172" t="n">
-        <v>1.61182249070218</v>
+        <v>1.61182249166592</v>
       </c>
       <c r="E172" t="n">
-        <v>0.346424089393207</v>
+        <v>0.346424089284516</v>
       </c>
       <c r="F172" t="s">
         <v>23</v>
@@ -3911,13 +3911,13 @@
         <v>11</v>
       </c>
       <c r="C173" t="n">
-        <v>0.992421285150356</v>
+        <v>0.992421285169717</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0215708513978378</v>
+        <v>0.0215708513680655</v>
       </c>
       <c r="E173" t="n">
-        <v>0.753507894906202</v>
+        <v>0.753507894961158</v>
       </c>
       <c r="F173" t="s">
         <v>23</v>
@@ -3931,13 +3931,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>4.50886798010741</v>
+        <v>4.50886443175681</v>
       </c>
       <c r="D174" t="n">
-        <v>5.58963232029386</v>
+        <v>5.58965935854699</v>
       </c>
       <c r="E174" t="n">
-        <v>4.68899537013848</v>
+        <v>4.68899691955518</v>
       </c>
       <c r="F174" t="s">
         <v>23</v>
@@ -3951,13 +3951,13 @@
         <v>9</v>
       </c>
       <c r="C175" t="n">
-        <v>6373.5932129008</v>
+        <v>6373.59204234111</v>
       </c>
       <c r="D175" t="n">
-        <v>7132.87767065645</v>
+        <v>7132.89891731115</v>
       </c>
       <c r="E175" t="n">
-        <v>6506.29689969936</v>
+        <v>6506.29982626516</v>
       </c>
       <c r="F175" t="s">
         <v>23</v>
@@ -3971,13 +3971,13 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.54326548582075</v>
+        <v>0.54326506511005</v>
       </c>
       <c r="D176" t="n">
-        <v>1.05751240181227</v>
+        <v>1.05751815718681</v>
       </c>
       <c r="E176" t="n">
-        <v>0.870910892397969</v>
+        <v>0.87091197648653</v>
       </c>
       <c r="F176" t="s">
         <v>23</v>
@@ -3991,13 +3991,13 @@
         <v>11</v>
       </c>
       <c r="C177" t="n">
-        <v>0.674652382376437</v>
+        <v>0.674652487023776</v>
       </c>
       <c r="D177" t="n">
-        <v>0.672807392082756</v>
+        <v>0.672807451798318</v>
       </c>
       <c r="E177" t="n">
-        <v>0.640910804144788</v>
+        <v>0.640910764722278</v>
       </c>
       <c r="F177" t="s">
         <v>23</v>
@@ -4169,13 +4169,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>3.22653183778583</v>
+        <v>3.22606257821903</v>
       </c>
       <c r="D186" t="n">
-        <v>6.22709841978665</v>
+        <v>6.08193879165204</v>
       </c>
       <c r="E186" t="n">
-        <v>3.77208939814962</v>
+        <v>3.74531279884321</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>4820.37151373421</v>
+        <v>4831.46846452479</v>
       </c>
       <c r="D187" t="n">
-        <v>7811.50425500009</v>
+        <v>7696.12784392601</v>
       </c>
       <c r="E187" t="n">
-        <v>5486.86888046486</v>
+        <v>5465.16701311284</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
@@ -4209,13 +4209,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0.398401751895516</v>
+        <v>0.398370130374461</v>
       </c>
       <c r="D188" t="n">
-        <v>1.49525282873559</v>
+        <v>1.30996682068308</v>
       </c>
       <c r="E188" t="n">
-        <v>0.811828254065003</v>
+        <v>0.793243736997084</v>
       </c>
       <c r="F188" t="s">
         <v>23</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0.798217354383792</v>
+        <v>0.797251346317149</v>
       </c>
       <c r="D189" t="n">
-        <v>0.44639928728488</v>
+        <v>0.527926522908445</v>
       </c>
       <c r="E189" t="n">
-        <v>0.726998808173608</v>
+        <v>0.729798381821381</v>
       </c>
       <c r="F189" t="s">
         <v>23</v>
@@ -4249,13 +4249,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="n">
-        <v>5.41431018441629</v>
+        <v>5.35496029334089</v>
       </c>
       <c r="D190" t="n">
-        <v>3.43043986045065</v>
+        <v>4.51986871541602</v>
       </c>
       <c r="E190" t="n">
-        <v>5.08366513042202</v>
+        <v>5.21577836368674</v>
       </c>
       <c r="F190" t="s">
         <v>23</v>
@@ -4269,13 +4269,13 @@
         <v>9</v>
       </c>
       <c r="C191" t="n">
-        <v>8376.60784320271</v>
+        <v>8381.14849161211</v>
       </c>
       <c r="D191" t="n">
-        <v>4952.78004164473</v>
+        <v>5365.90542425014</v>
       </c>
       <c r="E191" t="n">
-        <v>7909.57041537803</v>
+        <v>7958.34144377517</v>
       </c>
       <c r="F191" t="s">
         <v>23</v>
@@ -4289,13 +4289,13 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0.652907056056505</v>
+        <v>0.645342211079142</v>
       </c>
       <c r="D192" t="n">
-        <v>0.641448450972561</v>
+        <v>0.910845675021037</v>
       </c>
       <c r="E192" t="n">
-        <v>0.818153552337997</v>
+        <v>0.834759539182961</v>
       </c>
       <c r="F192" t="s">
         <v>23</v>
@@ -4309,13 +4309,13 @@
         <v>11</v>
       </c>
       <c r="C193" t="n">
-        <v>0.535540852405983</v>
+        <v>0.542534522416014</v>
       </c>
       <c r="D193" t="n">
-        <v>0.69936620905426</v>
+        <v>0.583831665275599</v>
       </c>
       <c r="E193" t="n">
-        <v>0.538644083443025</v>
+        <v>0.54946129008426</v>
       </c>
       <c r="F193" t="s">
         <v>23</v>
@@ -4329,13 +4329,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>5.12592753944002</v>
+        <v>5.12592749008773</v>
       </c>
       <c r="D194" t="n">
-        <v>8.43181085545165</v>
+        <v>8.43181091550925</v>
       </c>
       <c r="E194" t="n">
-        <v>5.72699723326031</v>
+        <v>5.72699720380073</v>
       </c>
       <c r="F194" t="s">
         <v>24</v>
@@ -4349,13 +4349,13 @@
         <v>9</v>
       </c>
       <c r="C195" t="n">
-        <v>2281.29210114295</v>
+        <v>2281.2920419054</v>
       </c>
       <c r="D195" t="n">
-        <v>4500.74000716911</v>
+        <v>4500.73988889213</v>
       </c>
       <c r="E195" t="n">
-        <v>2817.99354926838</v>
+        <v>2817.99347568568</v>
       </c>
       <c r="F195" t="s">
         <v>24</v>
@@ -4369,13 +4369,13 @@
         <v>10</v>
       </c>
       <c r="C196" t="n">
-        <v>0.789972626989648</v>
+        <v>0.789972429127839</v>
       </c>
       <c r="D196" t="n">
-        <v>1.63203804976513</v>
+        <v>1.63203881117623</v>
       </c>
       <c r="E196" t="n">
-        <v>0.939437639713639</v>
+        <v>0.939437538465427</v>
       </c>
       <c r="F196" t="s">
         <v>24</v>
@@ -4389,13 +4389,13 @@
         <v>11</v>
       </c>
       <c r="C197" t="n">
-        <v>0.844701281526997</v>
+        <v>0.844701286032304</v>
       </c>
       <c r="D197" t="n">
-        <v>0.417877225957635</v>
+        <v>0.417877399887763</v>
       </c>
       <c r="E197" t="n">
-        <v>0.84992171495954</v>
+        <v>0.849921727067796</v>
       </c>
       <c r="F197" t="s">
         <v>24</v>
@@ -4409,13 +4409,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="n">
-        <v>4.04140664317872</v>
+        <v>4.0459468774387</v>
       </c>
       <c r="D198" t="n">
-        <v>8.04018622579467</v>
+        <v>8.0221353822427</v>
       </c>
       <c r="E198" t="n">
-        <v>4.70786990694804</v>
+        <v>4.7086449615727</v>
       </c>
       <c r="F198" t="s">
         <v>24</v>
@@ -4429,13 +4429,13 @@
         <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>1745.29119707308</v>
+        <v>1746.37457724283</v>
       </c>
       <c r="D199" t="n">
-        <v>4232.61619696776</v>
+        <v>4223.23578599983</v>
       </c>
       <c r="E199" t="n">
-        <v>2350.36332949248</v>
+        <v>2348.22064992304</v>
       </c>
       <c r="F199" t="s">
         <v>24</v>
@@ -4449,13 +4449,13 @@
         <v>10</v>
       </c>
       <c r="C200" t="n">
-        <v>0.411353844690814</v>
+        <v>0.411891378963103</v>
       </c>
       <c r="D200" t="n">
-        <v>1.6547826971844</v>
+        <v>1.65144502877476</v>
       </c>
       <c r="E200" t="n">
-        <v>0.742462951548481</v>
+        <v>0.742682089928564</v>
       </c>
       <c r="F200" t="s">
         <v>24</v>
@@ -4469,13 +4469,13 @@
         <v>11</v>
       </c>
       <c r="C201" t="n">
-        <v>0.934244474196764</v>
+        <v>0.934151019887513</v>
       </c>
       <c r="D201" t="n">
-        <v>0.760762337701985</v>
+        <v>0.760910476175683</v>
       </c>
       <c r="E201" t="n">
-        <v>0.926745991111149</v>
+        <v>0.926758172754067</v>
       </c>
       <c r="F201" t="s">
         <v>24</v>
@@ -4489,13 +4489,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="n">
-        <v>4.45464501715049</v>
+        <v>4.45464501715062</v>
       </c>
       <c r="D202" t="n">
-        <v>5.23526564554059</v>
+        <v>5.23526564552834</v>
       </c>
       <c r="E202" t="n">
-        <v>4.58474845521551</v>
+        <v>4.58474845521357</v>
       </c>
       <c r="F202" t="s">
         <v>24</v>
@@ -4509,13 +4509,13 @@
         <v>9</v>
       </c>
       <c r="C203" t="n">
-        <v>1865.63767289355</v>
+        <v>1865.63767289353</v>
       </c>
       <c r="D203" t="n">
-        <v>2945.74979219697</v>
+        <v>2945.74979218901</v>
       </c>
       <c r="E203" t="n">
-        <v>2084.88454799567</v>
+        <v>2084.88454799379</v>
       </c>
       <c r="F203" t="s">
         <v>24</v>
@@ -4529,13 +4529,13 @@
         <v>10</v>
       </c>
       <c r="C204" t="n">
-        <v>0.453201060760564</v>
+        <v>0.453201060760559</v>
       </c>
       <c r="D204" t="n">
-        <v>0.974242872794366</v>
+        <v>0.974242872791813</v>
       </c>
       <c r="E204" t="n">
-        <v>0.697860963799763</v>
+        <v>0.69786096379924</v>
       </c>
       <c r="F204" t="s">
         <v>24</v>
@@ -4549,13 +4549,13 @@
         <v>11</v>
       </c>
       <c r="C205" t="n">
-        <v>0.925049135859354</v>
+        <v>0.92504913585936</v>
       </c>
       <c r="D205" t="n">
-        <v>0.780823317286371</v>
+        <v>0.780823317286304</v>
       </c>
       <c r="E205" t="n">
-        <v>0.935035198609772</v>
+        <v>0.935035198609832</v>
       </c>
       <c r="F205" t="s">
         <v>24</v>
@@ -4569,13 +4569,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>4.29744185965721</v>
+        <v>4.29744186144488</v>
       </c>
       <c r="D206" t="n">
-        <v>5.39893274997297</v>
+        <v>5.3989327573107</v>
       </c>
       <c r="E206" t="n">
-        <v>4.48102367470984</v>
+        <v>4.48102367742251</v>
       </c>
       <c r="F206" t="s">
         <v>24</v>
@@ -4589,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="C207" t="n">
-        <v>1943.44941721301</v>
+        <v>1943.44941688946</v>
       </c>
       <c r="D207" t="n">
-        <v>2973.29621095097</v>
+        <v>2973.29621623438</v>
       </c>
       <c r="E207" t="n">
-        <v>2149.63053199006</v>
+        <v>2149.63053296427</v>
       </c>
       <c r="F207" t="s">
         <v>24</v>
@@ -4609,13 +4609,13 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.573635610267954</v>
+        <v>0.573635610173356</v>
       </c>
       <c r="D208" t="n">
-        <v>0.840621723050717</v>
+        <v>0.840621724628649</v>
       </c>
       <c r="E208" t="n">
-        <v>0.622224975109859</v>
+        <v>0.622224975252291</v>
       </c>
       <c r="F208" t="s">
         <v>24</v>
@@ -4629,13 +4629,13 @@
         <v>11</v>
       </c>
       <c r="C209" t="n">
-        <v>0.919420745144708</v>
+        <v>0.919420745173991</v>
       </c>
       <c r="D209" t="n">
-        <v>0.784628732295344</v>
+        <v>0.78462873207725</v>
       </c>
       <c r="E209" t="n">
-        <v>0.929758973585499</v>
+        <v>0.929758973536246</v>
       </c>
       <c r="F209" t="s">
         <v>24</v>
@@ -4649,13 +4649,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.20531332219108</v>
+        <v>4.23165876451634</v>
       </c>
       <c r="D210" t="n">
-        <v>5.10871309187079</v>
+        <v>5.04812666276106</v>
       </c>
       <c r="E210" t="n">
-        <v>4.36956782576921</v>
+        <v>4.3801074732881</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4669,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1842.27114674923</v>
+        <v>1851.98258725082</v>
       </c>
       <c r="D211" t="n">
-        <v>2852.31128803928</v>
+        <v>2809.73071565427</v>
       </c>
       <c r="E211" t="n">
-        <v>2063.03012296906</v>
+        <v>2059.51735123248</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4689,13 +4689,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.43881062049537</v>
+        <v>0.441385745238136</v>
       </c>
       <c r="D212" t="n">
-        <v>1.05076491118608</v>
+        <v>1.03956439498212</v>
       </c>
       <c r="E212" t="n">
-        <v>0.713666309133752</v>
+        <v>0.717066460564372</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.899041030617775</v>
+        <v>0.897963697505588</v>
       </c>
       <c r="D213" t="n">
-        <v>0.742711312365331</v>
+        <v>0.751070948369159</v>
       </c>
       <c r="E213" t="n">
-        <v>0.916808399293756</v>
+        <v>0.917136003965508</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -4729,13 +4729,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="n">
-        <v>5.83953448203722</v>
+        <v>5.84756756992668</v>
       </c>
       <c r="D214" t="n">
-        <v>4.76882904753066</v>
+        <v>4.86330066317552</v>
       </c>
       <c r="E214" t="n">
-        <v>5.66108357628613</v>
+        <v>5.68352308546816</v>
       </c>
       <c r="F214" t="s">
         <v>24</v>
@@ -4749,13 +4749,13 @@
         <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>2461.39741857321</v>
+        <v>2469.88521136913</v>
       </c>
       <c r="D215" t="n">
-        <v>2653.99398470766</v>
+        <v>2717.46765170006</v>
       </c>
       <c r="E215" t="n">
-        <v>2494.52969286994</v>
+        <v>2512.84351630896</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
@@ -4769,13 +4769,13 @@
         <v>10</v>
       </c>
       <c r="C216" t="n">
-        <v>0.574499826397568</v>
+        <v>0.576048117908449</v>
       </c>
       <c r="D216" t="n">
-        <v>1.02404342783381</v>
+        <v>0.992121428975884</v>
       </c>
       <c r="E216" t="n">
-        <v>0.873154043296221</v>
+        <v>0.871304753480341</v>
       </c>
       <c r="F216" t="s">
         <v>24</v>
@@ -4789,13 +4789,13 @@
         <v>11</v>
       </c>
       <c r="C217" t="n">
-        <v>0.869733130096029</v>
+        <v>0.869012182347133</v>
       </c>
       <c r="D217" t="n">
-        <v>0.813975039343023</v>
+        <v>0.802102384037138</v>
       </c>
       <c r="E217" t="n">
-        <v>0.90531002715627</v>
+        <v>0.904307501163815</v>
       </c>
       <c r="F217" t="s">
         <v>24</v>
@@ -4809,13 +4809,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="n">
-        <v>5.75154665489001</v>
+        <v>5.75154672702801</v>
       </c>
       <c r="D218" t="n">
-        <v>6.8878143037596</v>
+        <v>6.88781442872548</v>
       </c>
       <c r="E218" t="n">
-        <v>5.9581407728663</v>
+        <v>5.95814085460937</v>
       </c>
       <c r="F218" t="s">
         <v>25</v>
@@ -4829,13 +4829,13 @@
         <v>9</v>
       </c>
       <c r="C219" t="n">
-        <v>1312.88380279439</v>
+        <v>1312.88380891231</v>
       </c>
       <c r="D219" t="n">
-        <v>1933.96644788132</v>
+        <v>1933.96644677982</v>
       </c>
       <c r="E219" t="n">
-        <v>1445.79098702594</v>
+        <v>1445.79099130348</v>
       </c>
       <c r="F219" t="s">
         <v>25</v>
@@ -4849,13 +4849,13 @@
         <v>10</v>
       </c>
       <c r="C220" t="n">
-        <v>0.988858080741855</v>
+        <v>0.988858109344305</v>
       </c>
       <c r="D220" t="n">
-        <v>0.876618715805625</v>
+        <v>0.876618744150888</v>
       </c>
       <c r="E220" t="n">
-        <v>0.957283890068018</v>
+        <v>0.957283919305342</v>
       </c>
       <c r="F220" t="s">
         <v>25</v>
@@ -4869,13 +4869,13 @@
         <v>11</v>
       </c>
       <c r="C221" t="n">
-        <v>0.833618507945864</v>
+        <v>0.833618507215234</v>
       </c>
       <c r="D221" t="n">
-        <v>0.235221164383153</v>
+        <v>0.235221188055285</v>
       </c>
       <c r="E221" t="n">
-        <v>0.824174486603257</v>
+        <v>0.824174487859821</v>
       </c>
       <c r="F221" t="s">
         <v>25</v>
@@ -4889,13 +4889,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="n">
-        <v>4.50204540996586</v>
+        <v>4.5008904696669</v>
       </c>
       <c r="D222" t="n">
-        <v>5.41312537934043</v>
+        <v>5.42295243853894</v>
       </c>
       <c r="E222" t="n">
-        <v>4.65389207152829</v>
+        <v>4.65456746447891</v>
       </c>
       <c r="F222" t="s">
         <v>25</v>
@@ -4909,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="C223" t="n">
-        <v>1007.6325797629</v>
+        <v>1006.90756092279</v>
       </c>
       <c r="D223" t="n">
-        <v>1379.98953001629</v>
+        <v>1381.92344968364</v>
       </c>
       <c r="E223" t="n">
-        <v>1078.65565882976</v>
+        <v>1078.50410306768</v>
       </c>
       <c r="F223" t="s">
         <v>25</v>
@@ -4929,13 +4929,13 @@
         <v>10</v>
       </c>
       <c r="C224" t="n">
-        <v>0.439016221620201</v>
+        <v>0.438662258807544</v>
       </c>
       <c r="D224" t="n">
-        <v>0.933629414451087</v>
+        <v>0.935385708643343</v>
       </c>
       <c r="E224" t="n">
-        <v>0.663602660895358</v>
+        <v>0.663530449100956</v>
       </c>
       <c r="F224" t="s">
         <v>25</v>
@@ -4949,13 +4949,13 @@
         <v>11</v>
       </c>
       <c r="C225" t="n">
-        <v>0.929287013640417</v>
+        <v>0.929360124865117</v>
       </c>
       <c r="D225" t="n">
-        <v>0.69141603484519</v>
+        <v>0.691006691381562</v>
       </c>
       <c r="E225" t="n">
-        <v>0.928959421041838</v>
+        <v>0.928906765352787</v>
       </c>
       <c r="F225" t="s">
         <v>25</v>
@@ -4972,10 +4972,10 @@
         <v>4.85022743502207</v>
       </c>
       <c r="D226" t="n">
-        <v>5.73692989345897</v>
+        <v>5.73692989345924</v>
       </c>
       <c r="E226" t="n">
-        <v>4.99801117809488</v>
+        <v>4.99801117809493</v>
       </c>
       <c r="F226" t="s">
         <v>25</v>
@@ -4989,13 +4989,13 @@
         <v>9</v>
       </c>
       <c r="C227" t="n">
-        <v>1062.57985464942</v>
+        <v>1062.5798546494</v>
       </c>
       <c r="D227" t="n">
-        <v>1478.36410990042</v>
+        <v>1478.36410990054</v>
       </c>
       <c r="E227" t="n">
-        <v>1142.43454801399</v>
+        <v>1142.434548014</v>
       </c>
       <c r="F227" t="s">
         <v>25</v>
@@ -5009,13 +5009,13 @@
         <v>10</v>
       </c>
       <c r="C228" t="n">
-        <v>0.47593072350366</v>
+        <v>0.475930723503653</v>
       </c>
       <c r="D228" t="n">
-        <v>0.730699557954611</v>
+        <v>0.730699557954651</v>
       </c>
       <c r="E228" t="n">
-        <v>0.647800862056487</v>
+        <v>0.6478008620565</v>
       </c>
       <c r="F228" t="s">
         <v>25</v>
@@ -5029,13 +5029,13 @@
         <v>11</v>
       </c>
       <c r="C229" t="n">
-        <v>0.922262162904774</v>
+        <v>0.922262162904773</v>
       </c>
       <c r="D229" t="n">
-        <v>0.677560262114719</v>
+        <v>0.67756026211483</v>
       </c>
       <c r="E229" t="n">
-        <v>0.922882524272518</v>
+        <v>0.922882524272516</v>
       </c>
       <c r="F229" t="s">
         <v>25</v>
@@ -5049,13 +5049,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="n">
-        <v>4.6117751182844</v>
+        <v>4.6117751127961</v>
       </c>
       <c r="D230" t="n">
-        <v>4.10962681581788</v>
+        <v>4.10962687297463</v>
       </c>
       <c r="E230" t="n">
-        <v>4.52808373453998</v>
+        <v>4.52808373949252</v>
       </c>
       <c r="F230" t="s">
         <v>25</v>
@@ -5069,13 +5069,13 @@
         <v>9</v>
       </c>
       <c r="C231" t="n">
-        <v>1076.36705842321</v>
+        <v>1076.3670576048</v>
       </c>
       <c r="D231" t="n">
-        <v>1059.43885561627</v>
+        <v>1059.43886524825</v>
       </c>
       <c r="E231" t="n">
-        <v>1073.56422809589</v>
+        <v>1073.5642289963</v>
       </c>
       <c r="F231" t="s">
         <v>25</v>
@@ -5089,13 +5089,13 @@
         <v>10</v>
       </c>
       <c r="C232" t="n">
-        <v>0.61366121250046</v>
+        <v>0.613661211946842</v>
       </c>
       <c r="D232" t="n">
-        <v>0.489263855550591</v>
+        <v>0.48926386325874</v>
       </c>
       <c r="E232" t="n">
-        <v>0.59031068881005</v>
+        <v>0.590310690103958</v>
       </c>
       <c r="F232" t="s">
         <v>25</v>
@@ -5109,13 +5109,13 @@
         <v>11</v>
       </c>
       <c r="C233" t="n">
-        <v>0.929770994629934</v>
+        <v>0.92977099486963</v>
       </c>
       <c r="D233" t="n">
-        <v>0.767359578459112</v>
+        <v>0.76735957859399</v>
       </c>
       <c r="E233" t="n">
-        <v>0.936007620738117</v>
+        <v>0.936007621015798</v>
       </c>
       <c r="F233" t="s">
         <v>25</v>
@@ -5129,13 +5129,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>4.56072188120741</v>
+        <v>4.55177314874862</v>
       </c>
       <c r="D234" t="n">
-        <v>4.60774462623614</v>
+        <v>4.5057141185544</v>
       </c>
       <c r="E234" t="n">
-        <v>4.56927147121264</v>
+        <v>4.5433987796224</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -5149,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1058.34731946335</v>
+        <v>1052.63585889239</v>
       </c>
       <c r="D235" t="n">
-        <v>1274.66558564782</v>
+        <v>1286.40358364318</v>
       </c>
       <c r="E235" t="n">
-        <v>1100.84414502554</v>
+        <v>1098.84437738658</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -5169,13 +5169,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>0.448027842504437</v>
+        <v>0.446986071797718</v>
       </c>
       <c r="D236" t="n">
-        <v>0.738556161050191</v>
+        <v>0.792321231555124</v>
       </c>
       <c r="E236" t="n">
-        <v>0.746709108208437</v>
+        <v>0.757754035006981</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -5189,13 +5189,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0.891631672404528</v>
+        <v>0.892800058092655</v>
       </c>
       <c r="D237" t="n">
-        <v>0.631056635649206</v>
+        <v>0.64510085291507</v>
       </c>
       <c r="E237" t="n">
-        <v>0.896492321887907</v>
+        <v>0.897317344545277</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -5209,13 +5209,13 @@
         <v>7</v>
       </c>
       <c r="C238" t="n">
-        <v>6.27811202085642</v>
+        <v>6.26201093843812</v>
       </c>
       <c r="D238" t="n">
-        <v>4.25051080272199</v>
+        <v>4.42075952998143</v>
       </c>
       <c r="E238" t="n">
-        <v>5.94017848450069</v>
+        <v>5.95513570369534</v>
       </c>
       <c r="F238" t="s">
         <v>25</v>
@@ -5229,13 +5229,13 @@
         <v>9</v>
       </c>
       <c r="C239" t="n">
-        <v>1329.26400739448</v>
+        <v>1336.63162392345</v>
       </c>
       <c r="D239" t="n">
-        <v>1191.45879468548</v>
+        <v>1208.47144678516</v>
       </c>
       <c r="E239" t="n">
-        <v>1307.30563030772</v>
+        <v>1316.1385266539</v>
       </c>
       <c r="F239" t="s">
         <v>25</v>
@@ -5249,13 +5249,13 @@
         <v>10</v>
       </c>
       <c r="C240" t="n">
-        <v>0.595567774243519</v>
+        <v>0.592380609883058</v>
       </c>
       <c r="D240" t="n">
-        <v>0.757782124069943</v>
+        <v>0.733624723900513</v>
       </c>
       <c r="E240" t="n">
-        <v>1.01134015011839</v>
+        <v>0.944745839131332</v>
       </c>
       <c r="F240" t="s">
         <v>25</v>
@@ -5269,13 +5269,13 @@
         <v>11</v>
       </c>
       <c r="C241" t="n">
-        <v>0.877454891420691</v>
+        <v>0.876086148871147</v>
       </c>
       <c r="D241" t="n">
-        <v>0.708811826378901</v>
+        <v>0.697884744849002</v>
       </c>
       <c r="E241" t="n">
-        <v>0.892637313432925</v>
+        <v>0.891694908306393</v>
       </c>
       <c r="F241" t="s">
         <v>25</v>
@@ -5289,13 +5289,13 @@
         <v>7</v>
       </c>
       <c r="C242" t="n">
-        <v>6.20951359993548</v>
+        <v>6.20951412972645</v>
       </c>
       <c r="D242" t="n">
-        <v>14.2423157895552</v>
+        <v>14.2423232599542</v>
       </c>
       <c r="E242" t="n">
-        <v>7.67002308895725</v>
+        <v>7.67002488067695</v>
       </c>
       <c r="F242" t="s">
         <v>26</v>
@@ -5309,13 +5309,13 @@
         <v>9</v>
       </c>
       <c r="C243" t="n">
-        <v>768.478432857553</v>
+        <v>768.478421363198</v>
       </c>
       <c r="D243" t="n">
-        <v>1740.43760481123</v>
+        <v>1740.43823499733</v>
       </c>
       <c r="E243" t="n">
-        <v>1016.82563215971</v>
+        <v>1016.82582117047</v>
       </c>
       <c r="F243" t="s">
         <v>26</v>
@@ -5329,13 +5329,13 @@
         <v>10</v>
       </c>
       <c r="C244" t="n">
-        <v>0.921266503555602</v>
+        <v>0.921266643673257</v>
       </c>
       <c r="D244" t="n">
-        <v>11.5561656398523</v>
+        <v>11.5561751028255</v>
       </c>
       <c r="E244" t="n">
-        <v>1.39225695930606</v>
+        <v>1.39225742062054</v>
       </c>
       <c r="F244" t="s">
         <v>26</v>
@@ -5349,13 +5349,13 @@
         <v>11</v>
       </c>
       <c r="C245" t="n">
-        <v>0.764584287942721</v>
+        <v>0.764584312593304</v>
       </c>
       <c r="D245" t="n">
-        <v>0.00204668863106808</v>
+        <v>0.00204668528239663</v>
       </c>
       <c r="E245" t="n">
-        <v>0.631870300554069</v>
+        <v>0.631870245181503</v>
       </c>
       <c r="F245" t="s">
         <v>26</v>
@@ -5369,13 +5369,13 @@
         <v>7</v>
       </c>
       <c r="C246" t="n">
-        <v>4.05119778560293</v>
+        <v>4.06061540316126</v>
       </c>
       <c r="D246" t="n">
-        <v>27.300761005882</v>
+        <v>27.173314016751</v>
       </c>
       <c r="E246" t="n">
-        <v>7.92612498898277</v>
+        <v>7.91273183875955</v>
       </c>
       <c r="F246" t="s">
         <v>26</v>
@@ -5389,13 +5389,13 @@
         <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>471.530424498494</v>
+        <v>472.500158958166</v>
       </c>
       <c r="D247" t="n">
-        <v>3697.52442643206</v>
+        <v>3677.85913472901</v>
       </c>
       <c r="E247" t="n">
-        <v>1569.68104988457</v>
+        <v>1562.20622923624</v>
       </c>
       <c r="F247" t="s">
         <v>26</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C248" t="n">
-        <v>0.471980014065323</v>
+        <v>0.473101466781144</v>
       </c>
       <c r="D248" t="n">
-        <v>5.17891633925492</v>
+        <v>5.14860020600864</v>
       </c>
       <c r="E248" t="n">
-        <v>1.38025358615694</v>
+        <v>1.3748627796634</v>
       </c>
       <c r="F248" t="s">
         <v>26</v>
@@ -5429,13 +5429,13 @@
         <v>11</v>
       </c>
       <c r="C249" t="n">
-        <v>0.920135160132448</v>
+        <v>0.919808708260931</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0838073029072508</v>
+        <v>0.085027934611516</v>
       </c>
       <c r="E249" t="n">
-        <v>0.600156033400464</v>
+        <v>0.601712222887425</v>
       </c>
       <c r="F249" t="s">
         <v>26</v>
@@ -5449,13 +5449,13 @@
         <v>7</v>
       </c>
       <c r="C250" t="n">
-        <v>4.51284350220274</v>
+        <v>4.51284350220558</v>
       </c>
       <c r="D250" t="n">
-        <v>26.0082488432785</v>
+        <v>26.00824884328</v>
       </c>
       <c r="E250" t="n">
-        <v>8.0954110590487</v>
+        <v>8.0954110590513</v>
       </c>
       <c r="F250" t="s">
         <v>26</v>
@@ -5469,13 +5469,13 @@
         <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>528.791681581925</v>
+        <v>528.791681582357</v>
       </c>
       <c r="D251" t="n">
-        <v>3631.3324520902</v>
+        <v>3631.33245209039</v>
       </c>
       <c r="E251" t="n">
-        <v>1559.09581649935</v>
+        <v>1559.09581649954</v>
       </c>
       <c r="F251" t="s">
         <v>26</v>
@@ -5489,13 +5489,13 @@
         <v>10</v>
       </c>
       <c r="C252" t="n">
-        <v>0.524829813146145</v>
+        <v>0.524829813146617</v>
       </c>
       <c r="D252" t="n">
-        <v>3.44702052401319</v>
+        <v>3.44702052401376</v>
       </c>
       <c r="E252" t="n">
-        <v>1.25835841738524</v>
+        <v>1.25835841738594</v>
       </c>
       <c r="F252" t="s">
         <v>26</v>
@@ -5509,13 +5509,13 @@
         <v>11</v>
       </c>
       <c r="C253" t="n">
-        <v>0.903995642813543</v>
+        <v>0.903995642813379</v>
       </c>
       <c r="D253" t="n">
-        <v>0.167129550729466</v>
+        <v>0.167129550729424</v>
       </c>
       <c r="E253" t="n">
-        <v>0.629655896609875</v>
+        <v>0.629655896609753</v>
       </c>
       <c r="F253" t="s">
         <v>26</v>
@@ -5609,13 +5609,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>3.9290305441569</v>
+        <v>3.94241348218251</v>
       </c>
       <c r="D258" t="n">
-        <v>14.8023857856271</v>
+        <v>15.280361703537</v>
       </c>
       <c r="E258" t="n">
-        <v>5.9060042244242</v>
+        <v>6.00385861333788</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>456.140486938991</v>
+        <v>453.946608184271</v>
       </c>
       <c r="D259" t="n">
-        <v>1903.20797303106</v>
+        <v>1957.94332216834</v>
       </c>
       <c r="E259" t="n">
-        <v>910.393444997694</v>
+        <v>930.380753601118</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5649,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.479387806172532</v>
+        <v>0.479872666981619</v>
       </c>
       <c r="D260" t="n">
-        <v>3.43162449490736</v>
+        <v>3.64106963381711</v>
       </c>
       <c r="E260" t="n">
-        <v>1.01069191620318</v>
+        <v>1.03756098947897</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.919066110314093</v>
+        <v>0.919875634679029</v>
       </c>
       <c r="D261" t="n">
-        <v>0.277554517308413</v>
+        <v>0.278224462159447</v>
       </c>
       <c r="E261" t="n">
-        <v>0.776596809746967</v>
+        <v>0.771822810687581</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -5689,13 +5689,13 @@
         <v>7</v>
       </c>
       <c r="C262" t="n">
-        <v>5.79599629648422</v>
+        <v>5.78052863817986</v>
       </c>
       <c r="D262" t="n">
-        <v>26.6467834107296</v>
+        <v>25.1648973973491</v>
       </c>
       <c r="E262" t="n">
-        <v>9.27112748219178</v>
+        <v>9.01125676470807</v>
       </c>
       <c r="F262" t="s">
         <v>26</v>
@@ -5709,13 +5709,13 @@
         <v>9</v>
       </c>
       <c r="C263" t="n">
-        <v>804.535667617636</v>
+        <v>803.897150011591</v>
       </c>
       <c r="D263" t="n">
-        <v>3582.51438859317</v>
+        <v>3352.88107046029</v>
       </c>
       <c r="E263" t="n">
-        <v>1636.60204625426</v>
+        <v>1553.11861596996</v>
       </c>
       <c r="F263" t="s">
         <v>26</v>
@@ -5729,13 +5729,13 @@
         <v>10</v>
       </c>
       <c r="C264" t="n">
-        <v>0.670877679262385</v>
+        <v>0.666484137024589</v>
       </c>
       <c r="D264" t="n">
-        <v>5.29904625961354</v>
+        <v>4.98604293390558</v>
       </c>
       <c r="E264" t="n">
-        <v>1.43504452717324</v>
+        <v>1.36903291860051</v>
       </c>
       <c r="F264" t="s">
         <v>26</v>
@@ -5749,13 +5749,13 @@
         <v>11</v>
       </c>
       <c r="C265" t="n">
-        <v>0.782718039712578</v>
+        <v>0.783122920289974</v>
       </c>
       <c r="D265" t="n">
-        <v>0.106362068450061</v>
+        <v>0.125170729744322</v>
       </c>
       <c r="E265" t="n">
-        <v>0.572246237292866</v>
+        <v>0.59037657570823</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -5769,13 +5769,13 @@
         <v>7</v>
       </c>
       <c r="C266" t="n">
-        <v>12.6859576997725</v>
+        <v>12.6859449493</v>
       </c>
       <c r="D266" t="n">
-        <v>16.5403724766718</v>
+        <v>16.5402998442641</v>
       </c>
       <c r="E266" t="n">
-        <v>13.3867603864814</v>
+        <v>13.3867367483844</v>
       </c>
       <c r="F266" t="s">
         <v>27</v>
@@ -5789,13 +5789,13 @@
         <v>9</v>
       </c>
       <c r="C267" t="n">
-        <v>596.070113894616</v>
+        <v>596.070155666719</v>
       </c>
       <c r="D267" t="n">
-        <v>1073.55790562428</v>
+        <v>1073.55390036624</v>
       </c>
       <c r="E267" t="n">
-        <v>707.283495916971</v>
+        <v>707.282419371501</v>
       </c>
       <c r="F267" t="s">
         <v>27</v>
@@ -5809,13 +5809,13 @@
         <v>10</v>
       </c>
       <c r="C268" t="n">
-        <v>0.68717194345275</v>
+        <v>0.687170798086037</v>
       </c>
       <c r="D268" t="n">
-        <v>1.55327034109717</v>
+        <v>1.55325461101898</v>
       </c>
       <c r="E268" t="n">
-        <v>0.810201444379611</v>
+        <v>0.81019853743968</v>
       </c>
       <c r="F268" t="s">
         <v>27</v>
@@ -5829,13 +5829,13 @@
         <v>11</v>
       </c>
       <c r="C269" t="n">
-        <v>0.812837557715353</v>
+        <v>0.812837485719918</v>
       </c>
       <c r="D269" t="n">
-        <v>0.813437937926446</v>
+        <v>0.813438404172281</v>
       </c>
       <c r="E269" t="n">
-        <v>0.822365652704564</v>
+        <v>0.822365783494852</v>
       </c>
       <c r="F269" t="s">
         <v>27</v>
@@ -5849,13 +5849,13 @@
         <v>7</v>
       </c>
       <c r="C270" t="n">
-        <v>19.4209184685181</v>
+        <v>19.422095112634</v>
       </c>
       <c r="D270" t="n">
-        <v>13.495077555369</v>
+        <v>13.5474555658732</v>
       </c>
       <c r="E270" t="n">
-        <v>18.4332783163266</v>
+        <v>18.4429885215072</v>
       </c>
       <c r="F270" t="s">
         <v>27</v>
@@ -5869,13 +5869,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="n">
-        <v>574.774908647564</v>
+        <v>573.111130509081</v>
       </c>
       <c r="D271" t="n">
-        <v>891.276640913005</v>
+        <v>895.333797542588</v>
       </c>
       <c r="E271" t="n">
-        <v>638.514555914905</v>
+        <v>638.214233700698</v>
       </c>
       <c r="F271" t="s">
         <v>27</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C272" t="n">
-        <v>0.538188868093164</v>
+        <v>0.536721811771442</v>
       </c>
       <c r="D272" t="n">
-        <v>1.16340562761187</v>
+        <v>1.16141230050131</v>
       </c>
       <c r="E272" t="n">
-        <v>0.701056533659579</v>
+        <v>0.699787778886668</v>
       </c>
       <c r="F272" t="s">
         <v>27</v>
@@ -5909,13 +5909,13 @@
         <v>11</v>
       </c>
       <c r="C273" t="n">
-        <v>0.860653888486269</v>
+        <v>0.861400272063226</v>
       </c>
       <c r="D273" t="n">
-        <v>0.795449460250227</v>
+        <v>0.792252112484766</v>
       </c>
       <c r="E273" t="n">
-        <v>0.873213464358383</v>
+        <v>0.873294406243647</v>
       </c>
       <c r="F273" t="s">
         <v>27</v>
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
-        <v>10.648939285784</v>
+        <v>10.7610853539534</v>
       </c>
       <c r="D282" t="n">
-        <v>10.5845087191843</v>
+        <v>10.3319804007076</v>
       </c>
       <c r="E282" t="n">
-        <v>10.6372246373113</v>
+        <v>10.6830662715451</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -6109,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>487.793627074582</v>
+        <v>490.375725100816</v>
       </c>
       <c r="D283" t="n">
-        <v>728.328268379978</v>
+        <v>719.343819144711</v>
       </c>
       <c r="E283" t="n">
-        <v>539.562763774685</v>
+        <v>539.286247670917</v>
       </c>
       <c r="F283" t="s">
         <v>27</v>
@@ -6129,13 +6129,13 @@
         <v>10</v>
       </c>
       <c r="C284" t="n">
-        <v>0.391583242208516</v>
+        <v>0.393573371403374</v>
       </c>
       <c r="D284" t="n">
-        <v>0.760766434500255</v>
+        <v>0.782654995029804</v>
       </c>
       <c r="E284" t="n">
-        <v>0.529095496715231</v>
+        <v>0.533937640881359</v>
       </c>
       <c r="F284" t="s">
         <v>27</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="n">
-        <v>0.874053604951344</v>
+        <v>0.872716294830806</v>
       </c>
       <c r="D285" t="n">
-        <v>0.817439560373375</v>
+        <v>0.824659677139631</v>
       </c>
       <c r="E285" t="n">
-        <v>0.888156261187261</v>
+        <v>0.888096852530873</v>
       </c>
       <c r="F285" t="s">
         <v>27</v>
@@ -6169,13 +6169,13 @@
         <v>7</v>
       </c>
       <c r="C286" t="n">
-        <v>13.4796061716971</v>
+        <v>13.889768968416</v>
       </c>
       <c r="D286" t="n">
-        <v>8.89121220678315</v>
+        <v>9.70553700438712</v>
       </c>
       <c r="E286" t="n">
-        <v>12.7148738442115</v>
+        <v>13.1923969744112</v>
       </c>
       <c r="F286" t="s">
         <v>27</v>
@@ -6189,13 +6189,13 @@
         <v>9</v>
       </c>
       <c r="C287" t="n">
-        <v>610.874415702868</v>
+        <v>612.217040554994</v>
       </c>
       <c r="D287" t="n">
-        <v>614.952517578205</v>
+        <v>659.407824356978</v>
       </c>
       <c r="E287" t="n">
-        <v>611.555987853575</v>
+        <v>620.3315246104</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -6209,13 +6209,13 @@
         <v>10</v>
       </c>
       <c r="C288" t="n">
-        <v>0.513389652298581</v>
+        <v>0.531315127906869</v>
       </c>
       <c r="D288" t="n">
-        <v>0.596713579786768</v>
+        <v>0.510637520105913</v>
       </c>
       <c r="E288" t="n">
-        <v>0.652773537264569</v>
+        <v>0.580024734367635</v>
       </c>
       <c r="F288" t="s">
         <v>27</v>
@@ -6229,13 +6229,13 @@
         <v>11</v>
       </c>
       <c r="C289" t="n">
-        <v>0.842772521864703</v>
+        <v>0.84369319892132</v>
       </c>
       <c r="D289" t="n">
-        <v>0.824670373303409</v>
+        <v>0.780761727747995</v>
       </c>
       <c r="E289" t="n">
-        <v>0.875423592370911</v>
+        <v>0.871575266319556</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -6249,13 +6249,13 @@
         <v>7</v>
       </c>
       <c r="C290" t="n">
-        <v>3.60019617162797</v>
+        <v>3.60020058879081</v>
       </c>
       <c r="D290" t="n">
-        <v>8.56188222778573</v>
+        <v>8.56187119518429</v>
       </c>
       <c r="E290" t="n">
-        <v>4.5023209091112</v>
+        <v>4.50232251722599</v>
       </c>
       <c r="F290" t="s">
         <v>28</v>
@@ -6269,13 +6269,13 @@
         <v>9</v>
       </c>
       <c r="C291" t="n">
-        <v>5030.27623542563</v>
+        <v>5030.28239527659</v>
       </c>
       <c r="D291" t="n">
-        <v>9071.85070712589</v>
+        <v>9071.84497820698</v>
       </c>
       <c r="E291" t="n">
-        <v>5972.13272052297</v>
+        <v>5972.13538331676</v>
       </c>
       <c r="F291" t="s">
         <v>28</v>
@@ -6289,13 +6289,13 @@
         <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>0.654598095953487</v>
+        <v>0.654595377350082</v>
       </c>
       <c r="D292" t="n">
-        <v>3.27086478520901</v>
+        <v>3.27081050546989</v>
       </c>
       <c r="E292" t="n">
-        <v>0.865791124556025</v>
+        <v>0.865785997284643</v>
       </c>
       <c r="F292" t="s">
         <v>28</v>
@@ -6309,13 +6309,13 @@
         <v>11</v>
       </c>
       <c r="C293" t="n">
-        <v>0.900034645685581</v>
+        <v>0.900034265711722</v>
       </c>
       <c r="D293" t="n">
-        <v>0.368927385275289</v>
+        <v>0.368926560098504</v>
       </c>
       <c r="E293" t="n">
-        <v>0.866472399418125</v>
+        <v>0.866472227804252</v>
       </c>
       <c r="F293" t="s">
         <v>28</v>
@@ -6329,13 +6329,13 @@
         <v>7</v>
       </c>
       <c r="C294" t="n">
-        <v>4.19868672154414</v>
+        <v>4.19980427500164</v>
       </c>
       <c r="D294" t="n">
-        <v>5.88550401659324</v>
+        <v>5.91119681407479</v>
       </c>
       <c r="E294" t="n">
-        <v>4.47982293738566</v>
+        <v>4.48503636484717</v>
       </c>
       <c r="F294" t="s">
         <v>28</v>
@@ -6349,13 +6349,13 @@
         <v>9</v>
       </c>
       <c r="C295" t="n">
-        <v>6212.03548479775</v>
+        <v>6212.31024684318</v>
       </c>
       <c r="D295" t="n">
-        <v>7120.75574479213</v>
+        <v>7142.67793940436</v>
       </c>
       <c r="E295" t="n">
-        <v>6372.49410486091</v>
+        <v>6376.80485772744</v>
       </c>
       <c r="F295" t="s">
         <v>28</v>
@@ -6369,13 +6369,13 @@
         <v>10</v>
       </c>
       <c r="C296" t="n">
-        <v>0.483358574512043</v>
+        <v>0.483434692639561</v>
       </c>
       <c r="D296" t="n">
-        <v>0.820204841070551</v>
+        <v>0.823700665787516</v>
       </c>
       <c r="E296" t="n">
-        <v>0.718747291126935</v>
+        <v>0.71947561601549</v>
       </c>
       <c r="F296" t="s">
         <v>28</v>
@@ -6389,13 +6389,13 @@
         <v>11</v>
       </c>
       <c r="C297" t="n">
-        <v>0.864872498821682</v>
+        <v>0.864858862366277</v>
       </c>
       <c r="D297" t="n">
-        <v>0.688342654349682</v>
+        <v>0.688396393738673</v>
       </c>
       <c r="E297" t="n">
-        <v>0.871282513504717</v>
+        <v>0.871250166279653</v>
       </c>
       <c r="F297" t="s">
         <v>28</v>
@@ -6569,13 +6569,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.11613250326287</v>
+        <v>3.11066135577775</v>
       </c>
       <c r="D306" t="n">
-        <v>6.28118953395956</v>
+        <v>5.84832796956775</v>
       </c>
       <c r="E306" t="n">
-        <v>3.691597417935</v>
+        <v>3.60841892192139</v>
       </c>
       <c r="F306" t="s">
         <v>28</v>
@@ -6589,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>4755.04720949083</v>
+        <v>4737.3966124833</v>
       </c>
       <c r="D307" t="n">
-        <v>6802.05919700832</v>
+        <v>6294.68606441401</v>
       </c>
       <c r="E307" t="n">
-        <v>5187.66267494848</v>
+        <v>5056.34152035181</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>10</v>
       </c>
       <c r="C308" t="n">
-        <v>0.373335816458747</v>
+        <v>0.372508100214999</v>
       </c>
       <c r="D308" t="n">
-        <v>0.868920243688484</v>
+        <v>0.869312908425409</v>
       </c>
       <c r="E308" t="n">
-        <v>0.568107238323914</v>
+        <v>0.563652145105536</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -6629,13 +6629,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.907846140032968</v>
+        <v>0.908508269425044</v>
       </c>
       <c r="D309" t="n">
-        <v>0.572135220754797</v>
+        <v>0.629538337621719</v>
       </c>
       <c r="E309" t="n">
-        <v>0.897882800621046</v>
+        <v>0.902818192636364</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -6649,13 +6649,13 @@
         <v>7</v>
       </c>
       <c r="C310" t="n">
-        <v>6.30107880175211</v>
+        <v>6.3418409033855</v>
       </c>
       <c r="D310" t="n">
-        <v>5.39302037361567</v>
+        <v>5.22486673686394</v>
       </c>
       <c r="E310" t="n">
-        <v>6.14973573039603</v>
+        <v>6.15567854229857</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -6669,13 +6669,13 @@
         <v>9</v>
       </c>
       <c r="C311" t="n">
-        <v>10801.5480383561</v>
+        <v>10818.7476952589</v>
       </c>
       <c r="D311" t="n">
-        <v>6343.39079838465</v>
+        <v>6471.69616203458</v>
       </c>
       <c r="E311" t="n">
-        <v>10194.8173675452</v>
+        <v>10223.4156040765</v>
       </c>
       <c r="F311" t="s">
         <v>28</v>
@@ -6689,13 +6689,13 @@
         <v>10</v>
       </c>
       <c r="C312" t="n">
-        <v>0.756750248632185</v>
+        <v>0.760574317117922</v>
       </c>
       <c r="D312" t="n">
-        <v>0.780270079077429</v>
+        <v>0.717265900566781</v>
       </c>
       <c r="E312" t="n">
-        <v>0.792382785698389</v>
+        <v>0.789594081313331</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -6709,13 +6709,13 @@
         <v>11</v>
       </c>
       <c r="C313" t="n">
-        <v>0.70762011127897</v>
+        <v>0.706721768806432</v>
       </c>
       <c r="D313" t="n">
-        <v>0.660089767686177</v>
+        <v>0.654480850158796</v>
       </c>
       <c r="E313" t="n">
-        <v>0.743012033011923</v>
+        <v>0.742505264666877</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -6729,13 +6729,13 @@
         <v>7</v>
       </c>
       <c r="C314" t="n">
-        <v>17.242857040516</v>
+        <v>17.242986737406</v>
       </c>
       <c r="D314" t="n">
-        <v>24.8485213887071</v>
+        <v>24.8514228928462</v>
       </c>
       <c r="E314" t="n">
-        <v>18.6257051038234</v>
+        <v>18.6263387656678</v>
       </c>
       <c r="F314" t="s">
         <v>29</v>
@@ -6749,13 +6749,13 @@
         <v>9</v>
       </c>
       <c r="C315" t="n">
-        <v>6262.62404573817</v>
+        <v>6262.74158058871</v>
       </c>
       <c r="D315" t="n">
-        <v>7847.19910287483</v>
+        <v>7847.89198905201</v>
       </c>
       <c r="E315" t="n">
-        <v>6579.17656470115</v>
+        <v>6579.41836535976</v>
       </c>
       <c r="F315" t="s">
         <v>29</v>
@@ -6769,13 +6769,13 @@
         <v>10</v>
       </c>
       <c r="C316" t="n">
-        <v>0.847410443439508</v>
+        <v>0.847424716257541</v>
       </c>
       <c r="D316" t="n">
-        <v>2.93018614513025</v>
+        <v>2.93104413331271</v>
       </c>
       <c r="E316" t="n">
-        <v>1.00777827510088</v>
+        <v>1.00783053641807</v>
       </c>
       <c r="F316" t="s">
         <v>29</v>
@@ -6789,13 +6789,13 @@
         <v>11</v>
       </c>
       <c r="C317" t="n">
-        <v>0.803331702542294</v>
+        <v>0.803325589707618</v>
       </c>
       <c r="D317" t="n">
-        <v>0.115256804820592</v>
+        <v>0.115233257030642</v>
       </c>
       <c r="E317" t="n">
-        <v>0.754627681823747</v>
+        <v>0.754615300401004</v>
       </c>
       <c r="F317" t="s">
         <v>29</v>
@@ -6809,13 +6809,13 @@
         <v>7</v>
       </c>
       <c r="C318" t="n">
-        <v>27.5057034939073</v>
+        <v>27.5057051283336</v>
       </c>
       <c r="D318" t="n">
-        <v>72.5561982808041</v>
+        <v>72.5562429754194</v>
       </c>
       <c r="E318" t="n">
-        <v>35.0141192917234</v>
+        <v>35.0141281028479</v>
       </c>
       <c r="F318" t="s">
         <v>29</v>
@@ -6829,13 +6829,13 @@
         <v>9</v>
       </c>
       <c r="C319" t="n">
-        <v>8694.82762854745</v>
+        <v>8694.8276315237</v>
       </c>
       <c r="D319" t="n">
-        <v>11301.7893805533</v>
+        <v>11301.7936345991</v>
       </c>
       <c r="E319" t="n">
-        <v>9180.87305809518</v>
+        <v>9180.87393324301</v>
       </c>
       <c r="F319" t="s">
         <v>29</v>
@@ -6849,13 +6849,13 @@
         <v>10</v>
       </c>
       <c r="C320" t="n">
-        <v>1.01235494711489</v>
+        <v>1.01235495358161</v>
       </c>
       <c r="D320" t="n">
-        <v>1.58147800369661</v>
+        <v>1.58147862674886</v>
       </c>
       <c r="E320" t="n">
-        <v>1.12070263753273</v>
+        <v>1.12070271691996</v>
       </c>
       <c r="F320" t="s">
         <v>29</v>
@@ -6869,13 +6869,13 @@
         <v>11</v>
       </c>
       <c r="C321" t="n">
-        <v>0.584237549702843</v>
+        <v>0.584237546470019</v>
       </c>
       <c r="D321" t="n">
-        <v>0.756452289516437</v>
+        <v>0.756452267279381</v>
       </c>
       <c r="E321" t="n">
-        <v>0.510048512219591</v>
+        <v>0.510048483993896</v>
       </c>
       <c r="F321" t="s">
         <v>29</v>
@@ -6889,13 +6889,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="n">
-        <v>12.8632422009784</v>
+        <v>12.8632422009799</v>
       </c>
       <c r="D322" t="n">
-        <v>21.2994574843577</v>
+        <v>21.2994574843673</v>
       </c>
       <c r="E322" t="n">
-        <v>14.2692780815416</v>
+        <v>14.2692780815444</v>
       </c>
       <c r="F322" t="s">
         <v>29</v>
@@ -6909,13 +6909,13 @@
         <v>9</v>
       </c>
       <c r="C323" t="n">
-        <v>6437.99611270157</v>
+        <v>6437.99611270026</v>
       </c>
       <c r="D323" t="n">
-        <v>8451.66672543502</v>
+        <v>8451.66672543682</v>
       </c>
       <c r="E323" t="n">
-        <v>6815.05245973485</v>
+        <v>6815.05245973419</v>
       </c>
       <c r="F323" t="s">
         <v>29</v>
@@ -6929,13 +6929,13 @@
         <v>10</v>
       </c>
       <c r="C324" t="n">
-        <v>0.564894281584559</v>
+        <v>0.564894281585037</v>
       </c>
       <c r="D324" t="n">
-        <v>0.787661273774047</v>
+        <v>0.78766127377429</v>
       </c>
       <c r="E324" t="n">
-        <v>0.594772032948671</v>
+        <v>0.594772032949199</v>
       </c>
       <c r="F324" t="s">
         <v>29</v>
@@ -6949,13 +6949,13 @@
         <v>11</v>
       </c>
       <c r="C325" t="n">
-        <v>0.86176585580303</v>
+        <v>0.861765855803072</v>
       </c>
       <c r="D325" t="n">
-        <v>0.89906543138163</v>
+        <v>0.899065431381687</v>
       </c>
       <c r="E325" t="n">
-        <v>0.840723164590774</v>
+        <v>0.84072316459076</v>
       </c>
       <c r="F325" t="s">
         <v>29</v>
@@ -7049,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>9.79046433665132</v>
+        <v>10.0434848607599</v>
       </c>
       <c r="D330" t="n">
-        <v>12.5564774644222</v>
+        <v>12.1950621866232</v>
       </c>
       <c r="E330" t="n">
-        <v>10.2933758144279</v>
+        <v>10.4346807381896</v>
       </c>
       <c r="F330" t="s">
         <v>29</v>
@@ -7069,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>2705.89879375238</v>
+        <v>2709.07061707289</v>
       </c>
       <c r="D331" t="n">
-        <v>3379.11812818947</v>
+        <v>3190.21990407904</v>
       </c>
       <c r="E331" t="n">
-        <v>2840.19642705463</v>
+        <v>2802.70289262077</v>
       </c>
       <c r="F331" t="s">
         <v>29</v>
@@ -7089,13 +7089,13 @@
         <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.337276022497382</v>
+        <v>0.341090508896476</v>
       </c>
       <c r="D332" t="n">
-        <v>0.630598687454816</v>
+        <v>0.58690700104904</v>
       </c>
       <c r="E332" t="n">
-        <v>0.370735016397777</v>
+        <v>0.36688872070541</v>
       </c>
       <c r="F332" t="s">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="C333" t="n">
-        <v>0.96114595269836</v>
+        <v>0.961056650157613</v>
       </c>
       <c r="D333" t="n">
-        <v>0.810346340465449</v>
+        <v>0.818238110193003</v>
       </c>
       <c r="E333" t="n">
-        <v>0.951023596304161</v>
+        <v>0.952180105952989</v>
       </c>
       <c r="F333" t="s">
         <v>29</v>
@@ -7129,13 +7129,13 @@
         <v>7</v>
       </c>
       <c r="C334" t="n">
-        <v>28.1758405191222</v>
+        <v>27.8864058256364</v>
       </c>
       <c r="D334" t="n">
-        <v>11.1311151263216</v>
+        <v>14.4864701408381</v>
       </c>
       <c r="E334" t="n">
-        <v>25.3350529536554</v>
+        <v>25.6530832115034</v>
       </c>
       <c r="F334" t="s">
         <v>29</v>
@@ -7149,13 +7149,13 @@
         <v>9</v>
       </c>
       <c r="C335" t="n">
-        <v>6676.57035182883</v>
+        <v>6631.06983831648</v>
       </c>
       <c r="D335" t="n">
-        <v>3516.83182271259</v>
+        <v>3784.70698659925</v>
       </c>
       <c r="E335" t="n">
-        <v>6261.66996340756</v>
+        <v>6247.39202891316</v>
       </c>
       <c r="F335" t="s">
         <v>29</v>
@@ -7169,13 +7169,13 @@
         <v>10</v>
       </c>
       <c r="C336" t="n">
-        <v>0.780108932804444</v>
+        <v>0.774584362703504</v>
       </c>
       <c r="D336" t="n">
-        <v>0.436260453367206</v>
+        <v>0.486874284815633</v>
       </c>
       <c r="E336" t="n">
-        <v>0.648643602526102</v>
+        <v>0.653320446943171</v>
       </c>
       <c r="F336" t="s">
         <v>29</v>
@@ -7189,13 +7189,13 @@
         <v>11</v>
       </c>
       <c r="C337" t="n">
-        <v>0.774700501882128</v>
+        <v>0.77779018585485</v>
       </c>
       <c r="D337" t="n">
-        <v>0.88867301742473</v>
+        <v>0.782949434881103</v>
       </c>
       <c r="E337" t="n">
-        <v>0.778423470030831</v>
+        <v>0.777821015225084</v>
       </c>
       <c r="F337" t="s">
         <v>29</v>
@@ -7209,13 +7209,13 @@
         <v>7</v>
       </c>
       <c r="C338" t="n">
-        <v>29.9208565166323</v>
+        <v>29.9209431222724</v>
       </c>
       <c r="D338" t="n">
-        <v>32.528874156104</v>
+        <v>32.5289670669957</v>
       </c>
       <c r="E338" t="n">
-        <v>30.3950415419908</v>
+        <v>30.3951292940403</v>
       </c>
       <c r="F338" t="s">
         <v>30</v>
@@ -7229,13 +7229,13 @@
         <v>9</v>
       </c>
       <c r="C339" t="n">
-        <v>1558.41854624811</v>
+        <v>1558.41903501855</v>
       </c>
       <c r="D339" t="n">
-        <v>2408.54375149448</v>
+        <v>2408.54859622071</v>
       </c>
       <c r="E339" t="n">
-        <v>1744.08562376697</v>
+        <v>1744.08719754612</v>
       </c>
       <c r="F339" t="s">
         <v>30</v>
@@ -7249,13 +7249,13 @@
         <v>10</v>
       </c>
       <c r="C340" t="n">
-        <v>0.83829127909729</v>
+        <v>0.838302965208005</v>
       </c>
       <c r="D340" t="n">
-        <v>1.6143566735591</v>
+        <v>1.61439331738577</v>
       </c>
       <c r="E340" t="n">
-        <v>0.969005404209063</v>
+        <v>0.969020848280954</v>
       </c>
       <c r="F340" t="s">
         <v>30</v>
@@ -7269,13 +7269,13 @@
         <v>11</v>
       </c>
       <c r="C341" t="n">
-        <v>0.670406656483058</v>
+        <v>0.670406522599832</v>
       </c>
       <c r="D341" t="n">
-        <v>0.606535927392685</v>
+        <v>0.606547524216419</v>
       </c>
       <c r="E341" t="n">
-        <v>0.669958224953657</v>
+        <v>0.669959446942578</v>
       </c>
       <c r="F341" t="s">
         <v>30</v>
@@ -7289,13 +7289,13 @@
         <v>7</v>
       </c>
       <c r="C342" t="n">
-        <v>37.4278600994819</v>
+        <v>37.4329219957157</v>
       </c>
       <c r="D342" t="n">
-        <v>25.2490309154697</v>
+        <v>25.2445781878149</v>
       </c>
       <c r="E342" t="n">
-        <v>35.3980552354798</v>
+        <v>35.4015313610656</v>
       </c>
       <c r="F342" t="s">
         <v>30</v>
@@ -7309,13 +7309,13 @@
         <v>9</v>
       </c>
       <c r="C343" t="n">
-        <v>1374.65668588217</v>
+        <v>1374.66312487943</v>
       </c>
       <c r="D343" t="n">
-        <v>1735.82285740942</v>
+        <v>1735.93498135188</v>
       </c>
       <c r="E343" t="n">
-        <v>1441.15035142693</v>
+        <v>1441.17797848367</v>
       </c>
       <c r="F343" t="s">
         <v>30</v>
@@ -7329,13 +7329,13 @@
         <v>10</v>
       </c>
       <c r="C344" t="n">
-        <v>0.634330016145539</v>
+        <v>0.634302881401579</v>
       </c>
       <c r="D344" t="n">
-        <v>0.890426950806726</v>
+        <v>0.890382340535954</v>
       </c>
       <c r="E344" t="n">
-        <v>0.686269790293486</v>
+        <v>0.686254377586835</v>
       </c>
       <c r="F344" t="s">
         <v>30</v>
@@ -7349,13 +7349,13 @@
         <v>11</v>
       </c>
       <c r="C345" t="n">
-        <v>0.725178995500194</v>
+        <v>0.725179085055195</v>
       </c>
       <c r="D345" t="n">
-        <v>0.884377982444192</v>
+        <v>0.884388304276112</v>
       </c>
       <c r="E345" t="n">
-        <v>0.76551947963803</v>
+        <v>0.765522328072531</v>
       </c>
       <c r="F345" t="s">
         <v>30</v>
@@ -7369,13 +7369,13 @@
         <v>7</v>
       </c>
       <c r="C346" t="n">
-        <v>10.9950439586598</v>
+        <v>10.9950439586625</v>
       </c>
       <c r="D346" t="n">
-        <v>18.6920415211116</v>
+        <v>18.6920415211192</v>
       </c>
       <c r="E346" t="n">
-        <v>12.2778768857351</v>
+        <v>12.2778768857386</v>
       </c>
       <c r="F346" t="s">
         <v>30</v>
@@ -7389,13 +7389,13 @@
         <v>9</v>
       </c>
       <c r="C347" t="n">
-        <v>510.894061262349</v>
+        <v>510.894061262302</v>
       </c>
       <c r="D347" t="n">
-        <v>1332.81389502431</v>
+        <v>1332.81389502484</v>
       </c>
       <c r="E347" t="n">
-        <v>716.642238490909</v>
+        <v>716.642238491043</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
@@ -7409,13 +7409,13 @@
         <v>10</v>
       </c>
       <c r="C348" t="n">
-        <v>0.214324195493694</v>
+        <v>0.21432419549372</v>
       </c>
       <c r="D348" t="n">
-        <v>0.418670359761516</v>
+        <v>0.418670359761679</v>
       </c>
       <c r="E348" t="n">
-        <v>0.267139064266505</v>
+        <v>0.267139064266601</v>
       </c>
       <c r="F348" t="s">
         <v>30</v>
@@ -7429,13 +7429,13 @@
         <v>11</v>
       </c>
       <c r="C349" t="n">
-        <v>0.962565843517137</v>
+        <v>0.962565843517147</v>
       </c>
       <c r="D349" t="n">
-        <v>0.870012067864958</v>
+        <v>0.870012067864855</v>
       </c>
       <c r="E349" t="n">
-        <v>0.941973101722328</v>
+        <v>0.941973101722306</v>
       </c>
       <c r="F349" t="s">
         <v>30</v>
@@ -7449,13 +7449,13 @@
         <v>7</v>
       </c>
       <c r="C350" t="n">
-        <v>10.4220708563844</v>
+        <v>10.4220708565682</v>
       </c>
       <c r="D350" t="n">
-        <v>16.3065157739117</v>
+        <v>16.3065158056758</v>
       </c>
       <c r="E350" t="n">
-        <v>11.4028116759723</v>
+        <v>11.4028116814194</v>
       </c>
       <c r="F350" t="s">
         <v>30</v>
@@ -7469,13 +7469,13 @@
         <v>9</v>
       </c>
       <c r="C351" t="n">
-        <v>572.95775417604</v>
+        <v>572.957754100364</v>
       </c>
       <c r="D351" t="n">
-        <v>1233.43324326046</v>
+        <v>1233.43324609367</v>
       </c>
       <c r="E351" t="n">
-        <v>726.034951630233</v>
+        <v>726.03495238267</v>
       </c>
       <c r="F351" t="s">
         <v>30</v>
@@ -7489,13 +7489,13 @@
         <v>10</v>
       </c>
       <c r="C352" t="n">
-        <v>0.235554781624745</v>
+        <v>0.23555478164204</v>
       </c>
       <c r="D352" t="n">
-        <v>0.322803361525021</v>
+        <v>0.322803361787258</v>
       </c>
       <c r="E352" t="n">
-        <v>0.260178834591874</v>
+        <v>0.260178834691716</v>
       </c>
       <c r="F352" t="s">
         <v>30</v>
@@ -7509,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="C353" t="n">
-        <v>0.954793673915148</v>
+        <v>0.954793673932119</v>
       </c>
       <c r="D353" t="n">
-        <v>0.921638955307168</v>
+        <v>0.921638955448381</v>
       </c>
       <c r="E353" t="n">
-        <v>0.941207371915455</v>
+        <v>0.941207371833663</v>
       </c>
       <c r="F353" t="s">
         <v>30</v>
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>12.9524732344517</v>
+        <v>12.9908488122027</v>
       </c>
       <c r="D354" t="n">
-        <v>18.578459736755</v>
+        <v>18.3493673860336</v>
       </c>
       <c r="E354" t="n">
-        <v>13.9911168964154</v>
+        <v>13.9801137796792</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -7549,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>509.082940910874</v>
+        <v>509.769249488013</v>
       </c>
       <c r="D355" t="n">
-        <v>1479.53616030166</v>
+        <v>1466.81140130247</v>
       </c>
       <c r="E355" t="n">
-        <v>784.504697776637</v>
+        <v>780.446190854362</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -7569,13 +7569,13 @@
         <v>10</v>
       </c>
       <c r="C356" t="n">
-        <v>0.217100531402291</v>
+        <v>0.217470909541856</v>
       </c>
       <c r="D356" t="n">
-        <v>0.488718579813609</v>
+        <v>0.482735453202014</v>
       </c>
       <c r="E356" t="n">
-        <v>0.285642677887644</v>
+        <v>0.284467159853197</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -7589,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="C357" t="n">
-        <v>0.965621065467338</v>
+        <v>0.96550812335551</v>
       </c>
       <c r="D357" t="n">
-        <v>0.828423425470175</v>
+        <v>0.831909921339055</v>
       </c>
       <c r="E357" t="n">
-        <v>0.934344370610239</v>
+        <v>0.93514521675096</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -7609,13 +7609,13 @@
         <v>7</v>
       </c>
       <c r="C358" t="n">
-        <v>29.1571368055045</v>
+        <v>28.9553864991147</v>
       </c>
       <c r="D358" t="n">
-        <v>41.5656548247829</v>
+        <v>40.5467492500739</v>
       </c>
       <c r="E358" t="n">
-        <v>31.2252231420509</v>
+        <v>30.8872802909412</v>
       </c>
       <c r="F358" t="s">
         <v>30</v>
@@ -7629,13 +7629,13 @@
         <v>9</v>
       </c>
       <c r="C359" t="n">
-        <v>1181.04909724387</v>
+        <v>1171.59686189698</v>
       </c>
       <c r="D359" t="n">
-        <v>2937.20821360808</v>
+        <v>2831.51620037302</v>
       </c>
       <c r="E359" t="n">
-        <v>1612.53304568669</v>
+        <v>1574.83755918979</v>
       </c>
       <c r="F359" t="s">
         <v>30</v>
@@ -7649,13 +7649,13 @@
         <v>10</v>
       </c>
       <c r="C360" t="n">
-        <v>0.520848808696237</v>
+        <v>0.515606452789548</v>
       </c>
       <c r="D360" t="n">
-        <v>1.58425284249025</v>
+        <v>1.5164390137169</v>
       </c>
       <c r="E360" t="n">
-        <v>0.809023305700864</v>
+        <v>0.780455271267611</v>
       </c>
       <c r="F360" t="s">
         <v>30</v>
@@ -7669,13 +7669,13 @@
         <v>11</v>
       </c>
       <c r="C361" t="n">
-        <v>0.797375226574292</v>
+        <v>0.800816674360155</v>
       </c>
       <c r="D361" t="n">
-        <v>0.85553791369325</v>
+        <v>0.917222678462876</v>
       </c>
       <c r="E361" t="n">
-        <v>0.741278527069318</v>
+        <v>0.7516654786348</v>
       </c>
       <c r="F361" t="s">
         <v>30</v>
@@ -7689,13 +7689,13 @@
         <v>7</v>
       </c>
       <c r="C362" t="n">
-        <v>22.1363719048232</v>
+        <v>22.1365994437297</v>
       </c>
       <c r="D362" t="n">
-        <v>128.745137655495</v>
+        <v>87.3298262387432</v>
       </c>
       <c r="E362" t="n">
-        <v>41.5197838594908</v>
+        <v>28.655922123231</v>
       </c>
       <c r="F362" t="s">
         <v>31</v>
@@ -7709,13 +7709,13 @@
         <v>9</v>
       </c>
       <c r="C363" t="n">
-        <v>1573.71584926643</v>
+        <v>1573.63337746917</v>
       </c>
       <c r="D363" t="n">
-        <v>2812.30403050991</v>
+        <v>316.30656932699</v>
       </c>
       <c r="E363" t="n">
-        <v>1861.26403989175</v>
+        <v>1496.22685131515</v>
       </c>
       <c r="F363" t="s">
         <v>31</v>
@@ -7729,13 +7729,13 @@
         <v>10</v>
       </c>
       <c r="C364" t="n">
-        <v>0.588387356556146</v>
+        <v>0.588348903409009</v>
       </c>
       <c r="D364" t="n">
-        <v>104.622922083102</v>
+        <v>12.6082851496153</v>
       </c>
       <c r="E364" t="n">
-        <v>0.887218808472449</v>
+        <v>0.612696487391582</v>
       </c>
       <c r="F364" t="s">
         <v>31</v>
@@ -7749,13 +7749,13 @@
         <v>11</v>
       </c>
       <c r="C365" t="n">
-        <v>0.857002962040229</v>
+        <v>0.856996507334539</v>
       </c>
       <c r="D365" t="n">
-        <v>0.00300041890208008</v>
+        <v>0.285242671734034</v>
       </c>
       <c r="E365" t="n">
-        <v>0.774991320349134</v>
+        <v>0.860493578852857</v>
       </c>
       <c r="F365" t="s">
         <v>31</v>
@@ -7769,13 +7769,13 @@
         <v>7</v>
       </c>
       <c r="C366" t="n">
-        <v>100.312480611621</v>
+        <v>100.30809052994</v>
       </c>
       <c r="D366" t="n">
-        <v>181.136917838487</v>
+        <v>184.111554560089</v>
       </c>
       <c r="E366" t="n">
-        <v>113.783220149432</v>
+        <v>107.926587259953</v>
       </c>
       <c r="F366" t="s">
         <v>31</v>
@@ -7789,13 +7789,13 @@
         <v>9</v>
       </c>
       <c r="C367" t="n">
-        <v>3846.08993095466</v>
+        <v>3846.06951963402</v>
       </c>
       <c r="D367" t="n">
-        <v>4937.85884802572</v>
+        <v>3976.43140880166</v>
       </c>
       <c r="E367" t="n">
-        <v>4048.54889205132</v>
+        <v>3858.10262184409</v>
       </c>
       <c r="F367" t="s">
         <v>31</v>
@@ -7809,13 +7809,13 @@
         <v>10</v>
       </c>
       <c r="C368" t="n">
-        <v>1.44547895047888</v>
+        <v>1.44543747244537</v>
       </c>
       <c r="D368" t="n">
-        <v>2.6657413738787</v>
+        <v>2.04427588542192</v>
       </c>
       <c r="E368" t="n">
-        <v>1.65953639821929</v>
+        <v>1.51179205344113</v>
       </c>
       <c r="F368" t="s">
         <v>31</v>
@@ -7829,13 +7829,13 @@
         <v>11</v>
       </c>
       <c r="C369" t="n">
-        <v>0.562211332810851</v>
+        <v>0.562215699095901</v>
       </c>
       <c r="D369" t="n">
-        <v>0.293614023128782</v>
+        <v>0.263936075700912</v>
       </c>
       <c r="E369" t="n">
-        <v>0.487982373472142</v>
+        <v>0.533671241126247</v>
       </c>
       <c r="F369" t="s">
         <v>31</v>
@@ -7852,10 +7852,10 @@
         <v>15.1006386644619</v>
       </c>
       <c r="D370" t="n">
-        <v>110.435780592259</v>
+        <v>58.3577854560326</v>
       </c>
       <c r="E370" t="n">
-        <v>30.9898289857614</v>
+        <v>19.0331065546047</v>
       </c>
       <c r="F370" t="s">
         <v>31</v>
@@ -7872,10 +7872,10 @@
         <v>1391.54022519969</v>
       </c>
       <c r="D371" t="n">
-        <v>2718.31760229109</v>
+        <v>234.869192035101</v>
       </c>
       <c r="E371" t="n">
-        <v>1686.77066108929</v>
+        <v>1328.67006373274</v>
       </c>
       <c r="F371" t="s">
         <v>31</v>
@@ -7889,13 +7889,13 @@
         <v>10</v>
       </c>
       <c r="C372" t="n">
-        <v>0.331879477176645</v>
+        <v>0.331879477176647</v>
       </c>
       <c r="D372" t="n">
-        <v>21.7110249936775</v>
+        <v>2.1257489545032</v>
       </c>
       <c r="E372" t="n">
-        <v>0.512702758330354</v>
+        <v>0.356535898103588</v>
       </c>
       <c r="F372" t="s">
         <v>31</v>
@@ -7909,13 +7909,13 @@
         <v>11</v>
       </c>
       <c r="C373" t="n">
-        <v>0.943561267243627</v>
+        <v>0.943561267243628</v>
       </c>
       <c r="D373" t="n">
-        <v>0.157859097844022</v>
+        <v>0.202726000801501</v>
       </c>
       <c r="E373" t="n">
-        <v>0.908218262209881</v>
+        <v>0.944729031208936</v>
       </c>
       <c r="F373" t="s">
         <v>31</v>
@@ -7932,10 +7932,10 @@
         <v>14.7908131546709</v>
       </c>
       <c r="D374" t="n">
-        <v>113.773380399864</v>
+        <v>62.8657785196361</v>
       </c>
       <c r="E374" t="n">
-        <v>31.2879076955364</v>
+        <v>19.1612645514859</v>
       </c>
       <c r="F374" t="s">
         <v>31</v>
@@ -7952,10 +7952,10 @@
         <v>1058.91436256811</v>
       </c>
       <c r="D375" t="n">
-        <v>2734.35129861259</v>
+        <v>243.116190818459</v>
       </c>
       <c r="E375" t="n">
-        <v>1476.66150265215</v>
+        <v>1012.2927062667</v>
       </c>
       <c r="F375" t="s">
         <v>31</v>
@@ -7972,10 +7972,10 @@
         <v>0.233948127059452</v>
       </c>
       <c r="D376" t="n">
-        <v>24.4934109234241</v>
+        <v>2.55153942563376</v>
       </c>
       <c r="E376" t="n">
-        <v>0.383667256829623</v>
+        <v>0.242755129972914</v>
       </c>
       <c r="F376" t="s">
         <v>31</v>
@@ -7992,10 +7992,10 @@
         <v>0.966973024237349</v>
       </c>
       <c r="D377" t="n">
-        <v>0.140920266136186</v>
+        <v>0.197489746569691</v>
       </c>
       <c r="E377" t="n">
-        <v>0.929176239239928</v>
+        <v>0.967592589101964</v>
       </c>
       <c r="F377" t="s">
         <v>31</v>
@@ -8009,13 +8009,13 @@
         <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>45.1678163866023</v>
+        <v>45.4684283741638</v>
       </c>
       <c r="D378" t="n">
-        <v>163.719413901535</v>
+        <v>134.491363699794</v>
       </c>
       <c r="E378" t="n">
-        <v>66.7226522984082</v>
+        <v>54.3707219067268</v>
       </c>
       <c r="F378" t="s">
         <v>31</v>
@@ -8029,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>901.094642264179</v>
+        <v>901.629921660943</v>
       </c>
       <c r="D379" t="n">
-        <v>2727.67128054305</v>
+        <v>430.45216917463</v>
       </c>
       <c r="E379" t="n">
-        <v>1420.24726458758</v>
+        <v>866.124570177755</v>
       </c>
       <c r="F379" t="s">
         <v>31</v>
@@ -8049,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>0.398329808437149</v>
+        <v>0.400594251903166</v>
       </c>
       <c r="D380" t="n">
-        <v>6.89929703370263</v>
+        <v>1.47565944630191</v>
       </c>
       <c r="E380" t="n">
-        <v>0.58742795446572</v>
+        <v>0.372574616179063</v>
       </c>
       <c r="F380" t="s">
         <v>31</v>
@@ -8069,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="C381" t="n">
-        <v>0.951579662352796</v>
+        <v>0.951607643313927</v>
       </c>
       <c r="D381" t="n">
-        <v>0.215628787506762</v>
+        <v>0.245911484660137</v>
       </c>
       <c r="E381" t="n">
-        <v>0.870842681454214</v>
+        <v>0.952083040663351</v>
       </c>
       <c r="F381" t="s">
         <v>31</v>
@@ -8089,13 +8089,13 @@
         <v>7</v>
       </c>
       <c r="C382" t="n">
-        <v>98.48506642476</v>
+        <v>111.029964627614</v>
       </c>
       <c r="D382" t="n">
-        <v>148.921123701988</v>
+        <v>176.401352457849</v>
       </c>
       <c r="E382" t="n">
-        <v>106.891075970965</v>
+        <v>116.972818066727</v>
       </c>
       <c r="F382" t="s">
         <v>31</v>
@@ -8109,13 +8109,13 @@
         <v>9</v>
       </c>
       <c r="C383" t="n">
-        <v>5191.85373826034</v>
+        <v>5302.93192836449</v>
       </c>
       <c r="D383" t="n">
-        <v>2524.56016837791</v>
+        <v>3056.49235125808</v>
       </c>
       <c r="E383" t="n">
-        <v>4850.25996281299</v>
+        <v>5139.44652009405</v>
       </c>
       <c r="F383" t="s">
         <v>31</v>
@@ -8129,13 +8129,13 @@
         <v>10</v>
       </c>
       <c r="C384" t="n">
-        <v>1.68089955799498</v>
+        <v>1.80456281052753</v>
       </c>
       <c r="D384" t="n">
-        <v>0.994151746460476</v>
+        <v>2.25896788234034</v>
       </c>
       <c r="E384" t="n">
-        <v>0.933282597598485</v>
+        <v>0.957573752965529</v>
       </c>
       <c r="F384" t="s">
         <v>31</v>
@@ -8149,13 +8149,13 @@
         <v>11</v>
       </c>
       <c r="C385" t="n">
-        <v>0.527090876766937</v>
+        <v>0.514555031940437</v>
       </c>
       <c r="D385" t="n">
-        <v>0.367421013909852</v>
+        <v>0.0151159206100066</v>
       </c>
       <c r="E385" t="n">
-        <v>0.525813500984611</v>
+        <v>0.510891316927365</v>
       </c>
       <c r="F385" t="s">
         <v>31</v>
@@ -8169,13 +8169,13 @@
         <v>7</v>
       </c>
       <c r="C386" t="n">
-        <v>12.8135182207168</v>
+        <v>12.8135181166212</v>
       </c>
       <c r="D386" t="n">
-        <v>85.9402101817036</v>
+        <v>85.940204612145</v>
       </c>
       <c r="E386" t="n">
-        <v>26.1092803954417</v>
+        <v>26.1092792976256</v>
       </c>
       <c r="F386" t="s">
         <v>32</v>
@@ -8189,13 +8189,13 @@
         <v>9</v>
       </c>
       <c r="C387" t="n">
-        <v>70.7056715138959</v>
+        <v>70.7056709950536</v>
       </c>
       <c r="D387" t="n">
-        <v>1737.34517886793</v>
+        <v>1737.34512937095</v>
       </c>
       <c r="E387" t="n">
-        <v>743.562075963912</v>
+        <v>743.562054896178</v>
       </c>
       <c r="F387" t="s">
         <v>32</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C388" t="n">
-        <v>0.677009924668486</v>
+        <v>0.677009915119137</v>
       </c>
       <c r="D388" t="n">
-        <v>70.4990241048047</v>
+        <v>70.4990025436893</v>
       </c>
       <c r="E388" t="n">
-        <v>5.2151915378636</v>
+        <v>5.21519123162381</v>
       </c>
       <c r="F388" t="s">
         <v>32</v>
@@ -8229,13 +8229,13 @@
         <v>11</v>
       </c>
       <c r="C389" t="n">
-        <v>0.940128322032667</v>
+        <v>0.940128322269267</v>
       </c>
       <c r="D389" t="n">
-        <v>0.205149601382975</v>
+        <v>0.205149591044685</v>
       </c>
       <c r="E389" t="n">
-        <v>0.533625501395044</v>
+        <v>0.533625544311352</v>
       </c>
       <c r="F389" t="s">
         <v>32</v>
@@ -8249,13 +8249,13 @@
         <v>7</v>
       </c>
       <c r="C390" t="n">
-        <v>29.5077666223269</v>
+        <v>29.633363775787</v>
       </c>
       <c r="D390" t="n">
-        <v>65.752299685604</v>
+        <v>65.6253537111077</v>
       </c>
       <c r="E390" t="n">
-        <v>35.5485221328731</v>
+        <v>35.6320287650071</v>
       </c>
       <c r="F390" t="s">
         <v>32</v>
@@ -8269,13 +8269,13 @@
         <v>9</v>
       </c>
       <c r="C391" t="n">
-        <v>118.822268034182</v>
+        <v>118.779191817113</v>
       </c>
       <c r="D391" t="n">
-        <v>1490.06012602888</v>
+        <v>1488.58612332821</v>
       </c>
       <c r="E391" t="n">
-        <v>617.909491226281</v>
+        <v>617.310177113707</v>
       </c>
       <c r="F391" t="s">
         <v>32</v>
@@ -8289,13 +8289,13 @@
         <v>10</v>
       </c>
       <c r="C392" t="n">
-        <v>1.13967587599684</v>
+        <v>1.13923068611736</v>
       </c>
       <c r="D392" t="n">
-        <v>17.729641010079</v>
+        <v>17.724337274582</v>
       </c>
       <c r="E392" t="n">
-        <v>4.22881549154991</v>
+        <v>4.22983113298807</v>
       </c>
       <c r="F392" t="s">
         <v>32</v>
@@ -8309,13 +8309,13 @@
         <v>11</v>
       </c>
       <c r="C393" t="n">
-        <v>0.813225222605607</v>
+        <v>0.813207711935091</v>
       </c>
       <c r="D393" t="n">
-        <v>0.842827228689564</v>
+        <v>0.84208412065329</v>
       </c>
       <c r="E393" t="n">
-        <v>0.747191943330484</v>
+        <v>0.747029887016989</v>
       </c>
       <c r="F393" t="s">
         <v>32</v>
@@ -8409,13 +8409,13 @@
         <v>7</v>
       </c>
       <c r="C398" t="n">
-        <v>13.8555526072807</v>
+        <v>13.8554720240299</v>
       </c>
       <c r="D398" t="n">
-        <v>54.6030552575836</v>
+        <v>54.6060861794313</v>
       </c>
       <c r="E398" t="n">
-        <v>20.6468030489979</v>
+        <v>20.6472410499301</v>
       </c>
       <c r="F398" t="s">
         <v>32</v>
@@ -8429,13 +8429,13 @@
         <v>9</v>
       </c>
       <c r="C399" t="n">
-        <v>59.6315429361818</v>
+        <v>59.6321871150697</v>
       </c>
       <c r="D399" t="n">
-        <v>1221.93285968508</v>
+        <v>1221.97482354699</v>
       </c>
       <c r="E399" t="n">
-        <v>501.813298306401</v>
+        <v>501.83039267654</v>
       </c>
       <c r="F399" t="s">
         <v>32</v>
@@ -8449,13 +8449,13 @@
         <v>10</v>
       </c>
       <c r="C400" t="n">
-        <v>0.542651324060497</v>
+        <v>0.542643293538058</v>
       </c>
       <c r="D400" t="n">
-        <v>4.8678279898011</v>
+        <v>4.86819136874354</v>
       </c>
       <c r="E400" t="n">
-        <v>2.13936170228032</v>
+        <v>2.13943309772735</v>
       </c>
       <c r="F400" t="s">
         <v>32</v>
@@ -8469,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="C401" t="n">
-        <v>0.953383082679236</v>
+        <v>0.953382284535659</v>
       </c>
       <c r="D401" t="n">
-        <v>0.909168164358377</v>
+        <v>0.909176497044955</v>
       </c>
       <c r="E401" t="n">
-        <v>0.88775122106087</v>
+        <v>0.887741866638879</v>
       </c>
       <c r="F401" t="s">
         <v>32</v>
@@ -8489,13 +8489,13 @@
         <v>7</v>
       </c>
       <c r="C402" t="n">
-        <v>15.0044489223306</v>
+        <v>14.8271597209622</v>
       </c>
       <c r="D402" t="n">
-        <v>64.1316783573578</v>
+        <v>67.0848213942963</v>
       </c>
       <c r="E402" t="n">
-        <v>23.9366724559719</v>
+        <v>24.3285527524775</v>
       </c>
       <c r="F402" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="n">
-        <v>56.1720259352365</v>
+        <v>55.4619158149276</v>
       </c>
       <c r="D403" t="n">
-        <v>1425.04066336019</v>
+        <v>1462.71065993304</v>
       </c>
       <c r="E403" t="n">
-        <v>609.759971623644</v>
+        <v>625.716256222802</v>
       </c>
       <c r="F403" t="s">
         <v>32</v>
@@ -8529,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="C404" t="n">
-        <v>0.517773822055925</v>
+        <v>0.511975984342482</v>
       </c>
       <c r="D404" t="n">
-        <v>9.34533047491672</v>
+        <v>8.62465975625513</v>
       </c>
       <c r="E404" t="n">
-        <v>3.28713522439574</v>
+        <v>3.24812629327412</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -8549,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="C405" t="n">
-        <v>0.962803315278649</v>
+        <v>0.963789375087691</v>
       </c>
       <c r="D405" t="n">
-        <v>0.856221009586152</v>
+        <v>0.666256568790227</v>
       </c>
       <c r="E405" t="n">
-        <v>0.799803739599685</v>
+        <v>0.768485576092935</v>
       </c>
       <c r="F405" t="s">
         <v>32</v>
@@ -8569,13 +8569,13 @@
         <v>7</v>
       </c>
       <c r="C406" t="n">
-        <v>23.345447221582</v>
+        <v>23.5294377810929</v>
       </c>
       <c r="D406" t="n">
-        <v>186.55506441314</v>
+        <v>187.048216533344</v>
       </c>
       <c r="E406" t="n">
-        <v>50.5470500868417</v>
+        <v>50.7825675731348</v>
       </c>
       <c r="F406" t="s">
         <v>32</v>
@@ -8589,13 +8589,13 @@
         <v>9</v>
       </c>
       <c r="C407" t="n">
-        <v>90.868074419849</v>
+        <v>90.8431057443971</v>
       </c>
       <c r="D407" t="n">
-        <v>3914.189712445</v>
+        <v>4006.62059985371</v>
       </c>
       <c r="E407" t="n">
-        <v>1600.11281580155</v>
+        <v>1637.79684233009</v>
       </c>
       <c r="F407" t="s">
         <v>32</v>
@@ -8609,13 +8609,13 @@
         <v>10</v>
       </c>
       <c r="C408" t="n">
-        <v>0.777160603531118</v>
+        <v>0.77765387748967</v>
       </c>
       <c r="D408" t="n">
-        <v>19.6874420523177</v>
+        <v>19.7828433468603</v>
       </c>
       <c r="E408" t="n">
-        <v>6.32045273701312</v>
+        <v>6.38159304281005</v>
       </c>
       <c r="F408" t="s">
         <v>32</v>
@@ -8629,13 +8629,13 @@
         <v>11</v>
       </c>
       <c r="C409" t="n">
-        <v>0.90356218284212</v>
+        <v>0.904036025042943</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0847488259645723</v>
+        <v>0.0876036355789778</v>
       </c>
       <c r="E409" t="n">
-        <v>0.375738090253878</v>
+        <v>0.388831195835004</v>
       </c>
       <c r="F409" t="s">
         <v>32</v>
@@ -8649,13 +8649,13 @@
         <v>7</v>
       </c>
       <c r="C410" t="n">
-        <v>12.1370066078653</v>
+        <v>12.1370066312168</v>
       </c>
       <c r="D410" t="n">
-        <v>14.4702696016563</v>
+        <v>14.4702699293296</v>
       </c>
       <c r="E410" t="n">
-        <v>12.5612362431</v>
+        <v>12.5612363217828</v>
       </c>
       <c r="F410" t="s">
         <v>33</v>
@@ -8669,13 +8669,13 @@
         <v>9</v>
       </c>
       <c r="C411" t="n">
-        <v>476.555432745532</v>
+        <v>476.555433975179</v>
       </c>
       <c r="D411" t="n">
-        <v>721.001092514018</v>
+        <v>721.001110982893</v>
       </c>
       <c r="E411" t="n">
-        <v>529.46206621149</v>
+        <v>529.462071689797</v>
       </c>
       <c r="F411" t="s">
         <v>33</v>
@@ -8689,13 +8689,13 @@
         <v>10</v>
       </c>
       <c r="C412" t="n">
-        <v>0.474682428391534</v>
+        <v>0.474682436370164</v>
       </c>
       <c r="D412" t="n">
-        <v>1.28945032279862</v>
+        <v>1.289450371421</v>
       </c>
       <c r="E412" t="n">
-        <v>0.556990296653327</v>
+        <v>0.556990309105171</v>
       </c>
       <c r="F412" t="s">
         <v>33</v>
@@ -8709,13 +8709,13 @@
         <v>11</v>
       </c>
       <c r="C413" t="n">
-        <v>0.928971140665825</v>
+        <v>0.928971141555038</v>
       </c>
       <c r="D413" t="n">
-        <v>0.807599205977393</v>
+        <v>0.807599193305181</v>
       </c>
       <c r="E413" t="n">
-        <v>0.905634394286971</v>
+        <v>0.905634395839654</v>
       </c>
       <c r="F413" t="s">
         <v>33</v>
@@ -8729,13 +8729,13 @@
         <v>7</v>
       </c>
       <c r="C414" t="n">
-        <v>11.1422405748136</v>
+        <v>10.8690951460455</v>
       </c>
       <c r="D414" t="n">
-        <v>28.1224702735372</v>
+        <v>28.9385393556268</v>
       </c>
       <c r="E414" t="n">
-        <v>13.9722788579342</v>
+        <v>13.8806691809757</v>
       </c>
       <c r="F414" t="s">
         <v>33</v>
@@ -8749,13 +8749,13 @@
         <v>9</v>
       </c>
       <c r="C415" t="n">
-        <v>508.541919703106</v>
+        <v>502.722715440352</v>
       </c>
       <c r="D415" t="n">
-        <v>878.218492034089</v>
+        <v>895.995632700706</v>
       </c>
       <c r="E415" t="n">
-        <v>586.563741950698</v>
+        <v>586.864381965338</v>
       </c>
       <c r="F415" t="s">
         <v>33</v>
@@ -8769,13 +8769,13 @@
         <v>10</v>
       </c>
       <c r="C416" t="n">
-        <v>0.464956567246775</v>
+        <v>0.457619252909675</v>
       </c>
       <c r="D416" t="n">
-        <v>0.953566922497034</v>
+        <v>0.959538349104766</v>
       </c>
       <c r="E416" t="n">
-        <v>0.576568011898643</v>
+        <v>0.571436111974462</v>
       </c>
       <c r="F416" t="s">
         <v>33</v>
@@ -8789,13 +8789,13 @@
         <v>11</v>
       </c>
       <c r="C417" t="n">
-        <v>0.91931637021824</v>
+        <v>0.921223636116575</v>
       </c>
       <c r="D417" t="n">
-        <v>0.819550664655906</v>
+        <v>0.816948904334704</v>
       </c>
       <c r="E417" t="n">
-        <v>0.886715142047782</v>
+        <v>0.886723670707375</v>
       </c>
       <c r="F417" t="s">
         <v>33</v>
@@ -8969,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>9.93774409304188</v>
+        <v>9.94655322692042</v>
       </c>
       <c r="D426" t="n">
-        <v>12.9111077237632</v>
+        <v>12.9341513041469</v>
       </c>
       <c r="E426" t="n">
-        <v>10.4783556622639</v>
+        <v>10.4897528773252</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8989,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>427.353024014774</v>
+        <v>427.310323018879</v>
       </c>
       <c r="D427" t="n">
-        <v>489.747401688151</v>
+        <v>490.535292397219</v>
       </c>
       <c r="E427" t="n">
-        <v>439.357019780222</v>
+        <v>439.482831974226</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9009,13 +9009,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.394829856606241</v>
+        <v>0.394957234367547</v>
       </c>
       <c r="D428" t="n">
-        <v>0.571996549049559</v>
+        <v>0.574887335966932</v>
       </c>
       <c r="E428" t="n">
-        <v>0.450913659569561</v>
+        <v>0.452151874886782</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9029,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.942710619888375</v>
+        <v>0.942718116089072</v>
       </c>
       <c r="D429" t="n">
-        <v>0.887326978411223</v>
+        <v>0.88834492649676</v>
       </c>
       <c r="E429" t="n">
-        <v>0.933753581618442</v>
+        <v>0.933715425129327</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9049,13 +9049,13 @@
         <v>7</v>
       </c>
       <c r="C430" t="n">
-        <v>15.1411458160386</v>
+        <v>15.361454810332</v>
       </c>
       <c r="D430" t="n">
-        <v>12.6081289150095</v>
+        <v>12.6071446911649</v>
       </c>
       <c r="E430" t="n">
-        <v>14.7189763325337</v>
+        <v>14.9024031238041</v>
       </c>
       <c r="F430" t="s">
         <v>33</v>
@@ -9069,13 +9069,13 @@
         <v>9</v>
       </c>
       <c r="C431" t="n">
-        <v>682.569990116582</v>
+        <v>683.379940125054</v>
       </c>
       <c r="D431" t="n">
-        <v>611.431899145049</v>
+        <v>583.400130724305</v>
       </c>
       <c r="E431" t="n">
-        <v>671.237405137069</v>
+        <v>667.756994891074</v>
       </c>
       <c r="F431" t="s">
         <v>33</v>
@@ -9089,13 +9089,13 @@
         <v>10</v>
       </c>
       <c r="C432" t="n">
-        <v>0.580440367870957</v>
+        <v>0.584939128071854</v>
       </c>
       <c r="D432" t="n">
-        <v>0.656721634304412</v>
+        <v>0.631849384395527</v>
       </c>
       <c r="E432" t="n">
-        <v>0.607823304191444</v>
+        <v>0.5995596934783</v>
       </c>
       <c r="F432" t="s">
         <v>33</v>
@@ -9109,13 +9109,13 @@
         <v>11</v>
       </c>
       <c r="C433" t="n">
-        <v>0.861641766366615</v>
+        <v>0.862000159772345</v>
       </c>
       <c r="D433" t="n">
-        <v>0.929513177522653</v>
+        <v>0.927462755182414</v>
       </c>
       <c r="E433" t="n">
-        <v>0.860340801379724</v>
+        <v>0.861772862726315</v>
       </c>
       <c r="F433" t="s">
         <v>33</v>
@@ -9129,13 +9129,13 @@
         <v>7</v>
       </c>
       <c r="C434" t="n">
-        <v>9.77599949326855</v>
+        <v>9.77600189981752</v>
       </c>
       <c r="D434" t="n">
-        <v>12.0505620859958</v>
+        <v>12.0505454965616</v>
       </c>
       <c r="E434" t="n">
-        <v>10.1895563283099</v>
+        <v>10.1895552810437</v>
       </c>
       <c r="F434" t="s">
         <v>34</v>
@@ -9149,13 +9149,13 @@
         <v>9</v>
       </c>
       <c r="C435" t="n">
-        <v>129.405163210238</v>
+        <v>129.405197277879</v>
       </c>
       <c r="D435" t="n">
-        <v>164.96118158401</v>
+        <v>164.960988489936</v>
       </c>
       <c r="E435" t="n">
-        <v>136.560226223517</v>
+        <v>136.560210227076</v>
       </c>
       <c r="F435" t="s">
         <v>34</v>
@@ -9169,13 +9169,13 @@
         <v>10</v>
       </c>
       <c r="C436" t="n">
-        <v>0.320143096906881</v>
+        <v>0.320143195092574</v>
       </c>
       <c r="D436" t="n">
-        <v>0.424276106190762</v>
+        <v>0.424275396941338</v>
       </c>
       <c r="E436" t="n">
-        <v>0.332657649530023</v>
+        <v>0.332657620854723</v>
       </c>
       <c r="F436" t="s">
         <v>34</v>
@@ -9189,13 +9189,13 @@
         <v>11</v>
       </c>
       <c r="C437" t="n">
-        <v>0.936432472918817</v>
+        <v>0.936432434158749</v>
       </c>
       <c r="D437" t="n">
-        <v>0.866684617807379</v>
+        <v>0.866684891543236</v>
       </c>
       <c r="E437" t="n">
-        <v>0.926038494222785</v>
+        <v>0.926038503361938</v>
       </c>
       <c r="F437" t="s">
         <v>34</v>
@@ -9209,13 +9209,13 @@
         <v>7</v>
       </c>
       <c r="C438" t="n">
-        <v>14.2628464463143</v>
+        <v>14.2418036707884</v>
       </c>
       <c r="D438" t="n">
-        <v>21.8662869234899</v>
+        <v>21.8071442798721</v>
       </c>
       <c r="E438" t="n">
-        <v>15.5300865258436</v>
+        <v>15.5026937723023</v>
       </c>
       <c r="F438" t="s">
         <v>34</v>
@@ -9229,13 +9229,13 @@
         <v>9</v>
       </c>
       <c r="C439" t="n">
-        <v>207.657294769416</v>
+        <v>207.634861757464</v>
       </c>
       <c r="D439" t="n">
-        <v>207.952512139438</v>
+        <v>207.665384080188</v>
       </c>
       <c r="E439" t="n">
-        <v>207.706526803189</v>
+        <v>207.639949122826</v>
       </c>
       <c r="F439" t="s">
         <v>34</v>
@@ -9249,13 +9249,13 @@
         <v>10</v>
       </c>
       <c r="C440" t="n">
-        <v>0.45410801842086</v>
+        <v>0.453822014036043</v>
       </c>
       <c r="D440" t="n">
-        <v>0.61904555825306</v>
+        <v>0.6178564911514</v>
       </c>
       <c r="E440" t="n">
-        <v>0.480615116095249</v>
+        <v>0.480154505860176</v>
       </c>
       <c r="F440" t="s">
         <v>34</v>
@@ -9269,13 +9269,13 @@
         <v>11</v>
       </c>
       <c r="C441" t="n">
-        <v>0.822570958421106</v>
+        <v>0.822613901950258</v>
       </c>
       <c r="D441" t="n">
-        <v>0.866487275171785</v>
+        <v>0.866536451821337</v>
       </c>
       <c r="E441" t="n">
-        <v>0.817123510307323</v>
+        <v>0.81710998979191</v>
       </c>
       <c r="F441" t="s">
         <v>34</v>
@@ -9289,13 +9289,13 @@
         <v>7</v>
       </c>
       <c r="C442" t="n">
-        <v>9.00443075598307</v>
+        <v>9.00443075598401</v>
       </c>
       <c r="D442" t="n">
-        <v>20.9082018119462</v>
+        <v>20.9082018119438</v>
       </c>
       <c r="E442" t="n">
-        <v>10.9883925986436</v>
+        <v>10.988392598644</v>
       </c>
       <c r="F442" t="s">
         <v>34</v>
@@ -9309,13 +9309,13 @@
         <v>9</v>
       </c>
       <c r="C443" t="n">
-        <v>140.56829882514</v>
+        <v>140.568298825148</v>
       </c>
       <c r="D443" t="n">
-        <v>300.893275031194</v>
+        <v>300.893275031163</v>
       </c>
       <c r="E443" t="n">
-        <v>177.639145522586</v>
+        <v>177.639145522582</v>
       </c>
       <c r="F443" t="s">
         <v>34</v>
@@ -9329,13 +9329,13 @@
         <v>10</v>
       </c>
       <c r="C444" t="n">
-        <v>0.288936034242531</v>
+        <v>0.288936034242561</v>
       </c>
       <c r="D444" t="n">
-        <v>0.580773883495017</v>
+        <v>0.580773883494976</v>
       </c>
       <c r="E444" t="n">
-        <v>0.341757034310383</v>
+        <v>0.341757034310407</v>
       </c>
       <c r="F444" t="s">
         <v>34</v>
@@ -9349,13 +9349,13 @@
         <v>11</v>
       </c>
       <c r="C445" t="n">
-        <v>0.918998715762223</v>
+        <v>0.918998715762213</v>
       </c>
       <c r="D445" t="n">
-        <v>0.839440226989617</v>
+        <v>0.839440226989618</v>
       </c>
       <c r="E445" t="n">
-        <v>0.874747038420595</v>
+        <v>0.874747038420594</v>
       </c>
       <c r="F445" t="s">
         <v>34</v>
@@ -9449,13 +9449,13 @@
         <v>7</v>
       </c>
       <c r="C450" t="n">
-        <v>8.27797693225454</v>
+        <v>8.11013204331137</v>
       </c>
       <c r="D450" t="n">
-        <v>23.3455666054858</v>
+        <v>22.9109597680512</v>
       </c>
       <c r="E450" t="n">
-        <v>11.0175386910239</v>
+        <v>10.8011916296277</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -9469,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>121.616559693901</v>
+        <v>119.112778530128</v>
       </c>
       <c r="D451" t="n">
-        <v>249.596700347777</v>
+        <v>240.591473891816</v>
       </c>
       <c r="E451" t="n">
-        <v>153.063360016521</v>
+        <v>148.770476268701</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -9489,13 +9489,13 @@
         <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>0.257763071143873</v>
+        <v>0.25223749060451</v>
       </c>
       <c r="D452" t="n">
-        <v>0.752139906821943</v>
+        <v>0.72935769896615</v>
       </c>
       <c r="E452" t="n">
-        <v>0.338548958071369</v>
+        <v>0.330123576720652</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -9509,13 +9509,13 @@
         <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>0.941319474140108</v>
+        <v>0.943764902170537</v>
       </c>
       <c r="D453" t="n">
-        <v>0.879221368169418</v>
+        <v>0.882413969612342</v>
       </c>
       <c r="E453" t="n">
-        <v>0.906577328613638</v>
+        <v>0.911311719379384</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -9529,13 +9529,13 @@
         <v>7</v>
       </c>
       <c r="C454" t="n">
-        <v>16.8388746095559</v>
+        <v>16.7746335202712</v>
       </c>
       <c r="D454" t="n">
-        <v>46.2882269189494</v>
+        <v>47.1585117608577</v>
       </c>
       <c r="E454" t="n">
-        <v>21.7470999944548</v>
+        <v>21.8386132270356</v>
       </c>
       <c r="F454" t="s">
         <v>34</v>
@@ -9549,13 +9549,13 @@
         <v>9</v>
       </c>
       <c r="C455" t="n">
-        <v>236.208774195654</v>
+        <v>235.533315585352</v>
       </c>
       <c r="D455" t="n">
-        <v>520.650555467189</v>
+        <v>541.452126285828</v>
       </c>
       <c r="E455" t="n">
-        <v>302.77877676156</v>
+        <v>308.369399371541</v>
       </c>
       <c r="F455" t="s">
         <v>34</v>
@@ -9569,13 +9569,13 @@
         <v>10</v>
       </c>
       <c r="C456" t="n">
-        <v>0.504177785293007</v>
+        <v>0.502433752538476</v>
       </c>
       <c r="D456" t="n">
-        <v>1.69314938199407</v>
+        <v>1.77135911263944</v>
       </c>
       <c r="E456" t="n">
-        <v>0.651348067073315</v>
+        <v>0.654489803781272</v>
       </c>
       <c r="F456" t="s">
         <v>34</v>
@@ -9589,13 +9589,13 @@
         <v>11</v>
       </c>
       <c r="C457" t="n">
-        <v>0.777137778008644</v>
+        <v>0.779157887424662</v>
       </c>
       <c r="D457" t="n">
-        <v>0.81385866978826</v>
+        <v>0.791783805852329</v>
       </c>
       <c r="E457" t="n">
-        <v>0.6772695109722</v>
+        <v>0.672088499737038</v>
       </c>
       <c r="F457" t="s">
         <v>34</v>
@@ -9629,7 +9629,7 @@
         <v>9</v>
       </c>
       <c r="C459" t="n">
-        <v>184602724798645239808</v>
+        <v>444779172856818761728</v>
       </c>
       <c r="D459" t="e">
         <v>#NUM!</v>
@@ -9649,7 +9649,7 @@
         <v>10</v>
       </c>
       <c r="C460" t="n">
-        <v>0.495342477337876</v>
+        <v>0.495328802188667</v>
       </c>
       <c r="D460" t="e">
         <v>#NUM!</v>
@@ -9669,7 +9669,7 @@
         <v>11</v>
       </c>
       <c r="C461" t="n">
-        <v>0.000665584776085126</v>
+        <v>0.000672125652083929</v>
       </c>
       <c r="D461" t="e">
         <v>#NUM!</v>
@@ -9689,13 +9689,13 @@
         <v>7</v>
       </c>
       <c r="C462" t="n">
-        <v>151.580530179002</v>
+        <v>150.378566031339</v>
       </c>
       <c r="D462" t="n">
-        <v>110.960874109823</v>
+        <v>109.439561916806</v>
       </c>
       <c r="E462" t="n">
-        <v>144.810587500806</v>
+        <v>143.555398678917</v>
       </c>
       <c r="F462" t="s">
         <v>35</v>
@@ -9709,13 +9709,13 @@
         <v>9</v>
       </c>
       <c r="C463" t="n">
-        <v>2733.44743937931</v>
+        <v>2733.36014895253</v>
       </c>
       <c r="D463" t="n">
-        <v>1410.4902613643</v>
+        <v>1408.81174261536</v>
       </c>
       <c r="E463" t="n">
-        <v>2560.86434941571</v>
+        <v>2560.63270324412</v>
       </c>
       <c r="F463" t="s">
         <v>35</v>
@@ -9729,13 +9729,13 @@
         <v>10</v>
       </c>
       <c r="C464" t="n">
-        <v>1.51003521558103</v>
+        <v>1.48347224618214</v>
       </c>
       <c r="D464" t="n">
-        <v>1.609542877599</v>
+        <v>1.56922103646721</v>
       </c>
       <c r="E464" t="n">
-        <v>1.53708480496393</v>
+        <v>1.51150415344671</v>
       </c>
       <c r="F464" t="s">
         <v>35</v>
@@ -9749,13 +9749,13 @@
         <v>11</v>
       </c>
       <c r="C465" t="n">
-        <v>0.135799586472155</v>
+        <v>0.135810692757802</v>
       </c>
       <c r="D465" t="n">
-        <v>0.532693104163648</v>
+        <v>0.530271657432086</v>
       </c>
       <c r="E465" t="n">
-        <v>0.170426503803193</v>
+        <v>0.170606442364187</v>
       </c>
       <c r="F465" t="s">
         <v>35</v>
@@ -9815,7 +9815,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E468" t="n">
-        <v>289128965216678645521971940563937709027126935552</v>
+        <v>289128965216678645520640884482444040886240684062</v>
       </c>
       <c r="F468" t="s">
         <v>35</v>
@@ -9850,7 +9850,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D470" t="n">
-        <v>199.969474680121</v>
+        <v>199.969447638746</v>
       </c>
       <c r="E470" t="e">
         <v>#NUM!</v>
@@ -9870,7 +9870,7 @@
         <v>#NUM!</v>
       </c>
       <c r="D471" t="n">
-        <v>219274805302992</v>
+        <v>218459382244460</v>
       </c>
       <c r="E471" t="e">
         <v>#NUM!</v>
@@ -9887,13 +9887,13 @@
         <v>10</v>
       </c>
       <c r="C472" t="n">
-        <v>0.502593898024867</v>
+        <v>0.502595907231941</v>
       </c>
       <c r="D472" t="n">
-        <v>0.975399448518848</v>
+        <v>0.975410354303478</v>
       </c>
       <c r="E472" t="n">
-        <v>0.50329781104731</v>
+        <v>0.503299823068401</v>
       </c>
       <c r="F472" t="s">
         <v>35</v>
@@ -9907,13 +9907,13 @@
         <v>11</v>
       </c>
       <c r="C473" t="n">
-        <v>0.000271907695406395</v>
+        <v>0.000271909902897107</v>
       </c>
       <c r="D473" t="n">
-        <v>0.0147341715622467</v>
+        <v>0.014734510227821</v>
       </c>
       <c r="E473" t="n">
-        <v>0.000351355600499514</v>
+        <v>0.000351358441262293</v>
       </c>
       <c r="F473" t="s">
         <v>35</v>
@@ -9927,13 +9927,13 @@
         <v>7</v>
       </c>
       <c r="C474" t="n">
-        <v>137.283084647374</v>
+        <v>135.696076072863</v>
       </c>
       <c r="D474" t="n">
-        <v>136.217289770531</v>
+        <v>112.271685034716</v>
       </c>
       <c r="E474" t="n">
-        <v>137.089303760676</v>
+        <v>131.437095884109</v>
       </c>
       <c r="F474" t="s">
         <v>35</v>
@@ -9947,13 +9947,13 @@
         <v>9</v>
       </c>
       <c r="C475" t="n">
-        <v>2157.25138492373</v>
+        <v>2132.96077420263</v>
       </c>
       <c r="D475" t="n">
-        <v>3705.30869689342</v>
+        <v>2714.90017868588</v>
       </c>
       <c r="E475" t="n">
-        <v>2510.74467255409</v>
+        <v>2249.99113006416</v>
       </c>
       <c r="F475" t="s">
         <v>35</v>
@@ -9967,13 +9967,13 @@
         <v>10</v>
       </c>
       <c r="C476" t="n">
-        <v>0.891368149256991</v>
+        <v>0.880618135587242</v>
       </c>
       <c r="D476" t="n">
-        <v>1.40609233855066</v>
+        <v>0.757686484629272</v>
       </c>
       <c r="E476" t="n">
-        <v>1.36217503250508</v>
+        <v>1.02589002437908</v>
       </c>
       <c r="F476" t="s">
         <v>35</v>
@@ -9987,13 +9987,13 @@
         <v>11</v>
       </c>
       <c r="C477" t="n">
-        <v>0.650020254702922</v>
+        <v>0.667958856592423</v>
       </c>
       <c r="D477" t="n">
-        <v>0.0252905316644799</v>
+        <v>0.254443669069998</v>
       </c>
       <c r="E477" t="n">
-        <v>0.271830174153663</v>
+        <v>0.412114348683349</v>
       </c>
       <c r="F477" t="s">
         <v>35</v>
@@ -10007,13 +10007,13 @@
         <v>7</v>
       </c>
       <c r="C478" t="n">
-        <v>120.881685625841</v>
+        <v>116.217579819072</v>
       </c>
       <c r="D478" t="n">
-        <v>150.468185742782</v>
+        <v>137.741993854922</v>
       </c>
       <c r="E478" t="n">
-        <v>125.812768978665</v>
+        <v>119.804982158381</v>
       </c>
       <c r="F478" t="s">
         <v>35</v>
@@ -10027,13 +10027,13 @@
         <v>9</v>
       </c>
       <c r="C479" t="n">
-        <v>2924.70062239132</v>
+        <v>2967.58612827091</v>
       </c>
       <c r="D479" t="n">
-        <v>1635.00677779051</v>
+        <v>1848.96486046378</v>
       </c>
       <c r="E479" t="n">
-        <v>2752.0482013857</v>
+        <v>2812.22059941841</v>
       </c>
       <c r="F479" t="s">
         <v>35</v>
@@ -10047,13 +10047,13 @@
         <v>10</v>
       </c>
       <c r="C480" t="n">
-        <v>1.42974421549462</v>
+        <v>1.2877381602743</v>
       </c>
       <c r="D480" t="n">
-        <v>1.37787900552648</v>
+        <v>1.34446084473301</v>
       </c>
       <c r="E480" t="n">
-        <v>2.10686087277947</v>
+        <v>1.17146041342861</v>
       </c>
       <c r="F480" t="s">
         <v>35</v>
@@ -10067,13 +10067,13 @@
         <v>11</v>
       </c>
       <c r="C481" t="n">
-        <v>0.0687938822940302</v>
+        <v>0.173386886160865</v>
       </c>
       <c r="D481" t="n">
-        <v>0.505934968385102</v>
+        <v>0.205871354807938</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0860069340173444</v>
+        <v>0.172110384343915</v>
       </c>
       <c r="F481" t="s">
         <v>35</v>
@@ -10087,13 +10087,13 @@
         <v>7</v>
       </c>
       <c r="C482" t="n">
-        <v>15.1791316400137</v>
+        <v>15.1800872759773</v>
       </c>
       <c r="D482" t="n">
-        <v>10.5817378689688</v>
+        <v>10.5860999016145</v>
       </c>
       <c r="E482" t="n">
-        <v>14.3432418634601</v>
+        <v>14.3448168442749</v>
       </c>
       <c r="F482" t="s">
         <v>36</v>
@@ -10107,13 +10107,13 @@
         <v>9</v>
       </c>
       <c r="C483" t="n">
-        <v>143.421516906377</v>
+        <v>143.437389283683</v>
       </c>
       <c r="D483" t="n">
-        <v>28.4559854704181</v>
+        <v>28.460883709478</v>
       </c>
       <c r="E483" t="n">
-        <v>130.295841635913</v>
+        <v>130.310330855273</v>
       </c>
       <c r="F483" t="s">
         <v>36</v>
@@ -10127,13 +10127,13 @@
         <v>10</v>
       </c>
       <c r="C484" t="n">
-        <v>0.914829778612754</v>
+        <v>0.915017724907726</v>
       </c>
       <c r="D484" t="n">
-        <v>3.20089508454599</v>
+        <v>3.20124713516179</v>
       </c>
       <c r="E484" t="n">
-        <v>0.960723861251227</v>
+        <v>0.960933707136617</v>
       </c>
       <c r="F484" t="s">
         <v>36</v>
@@ -10147,13 +10147,13 @@
         <v>11</v>
       </c>
       <c r="C485" t="n">
-        <v>0.891837254670458</v>
+        <v>0.891835538187489</v>
       </c>
       <c r="D485" t="n">
-        <v>0.0876547260712302</v>
+        <v>0.0876113753959687</v>
       </c>
       <c r="E485" t="n">
-        <v>0.895474162659105</v>
+        <v>0.895472459653891</v>
       </c>
       <c r="F485" t="s">
         <v>36</v>
@@ -10167,13 +10167,13 @@
         <v>7</v>
       </c>
       <c r="C486" t="n">
-        <v>81.3077994941264</v>
+        <v>81.5863096711343</v>
       </c>
       <c r="D486" t="n">
-        <v>133.302788440752</v>
+        <v>136.20090610941</v>
       </c>
       <c r="E486" t="n">
-        <v>89.9736309852306</v>
+        <v>90.6887424108469</v>
       </c>
       <c r="F486" t="s">
         <v>36</v>
@@ -10187,13 +10187,13 @@
         <v>9</v>
       </c>
       <c r="C487" t="n">
-        <v>603.184004293366</v>
+        <v>603.171730139725</v>
       </c>
       <c r="D487" t="n">
-        <v>438.843785004966</v>
+        <v>450.250647005576</v>
       </c>
       <c r="E487" t="n">
-        <v>579.042108833543</v>
+        <v>580.489208244174</v>
       </c>
       <c r="F487" t="s">
         <v>36</v>
@@ -10207,13 +10207,13 @@
         <v>10</v>
       </c>
       <c r="C488" t="n">
-        <v>2.36144581877318</v>
+        <v>2.36122410651148</v>
       </c>
       <c r="D488" t="n">
-        <v>2.47304641030564</v>
+        <v>2.53836043111557</v>
       </c>
       <c r="E488" t="n">
-        <v>2.70013531735147</v>
+        <v>2.70177346180746</v>
       </c>
       <c r="F488" t="s">
         <v>36</v>
@@ -10227,13 +10227,13 @@
         <v>11</v>
       </c>
       <c r="C489" t="n">
-        <v>0.50133832692883</v>
+        <v>0.500812962934225</v>
       </c>
       <c r="D489" t="n">
-        <v>0.0469337486042264</v>
+        <v>0.0485379133872112</v>
       </c>
       <c r="E489" t="n">
-        <v>0.470818350262633</v>
+        <v>0.470125413090749</v>
       </c>
       <c r="F489" t="s">
         <v>36</v>
@@ -10247,13 +10247,13 @@
         <v>7</v>
       </c>
       <c r="C490" t="n">
-        <v>18.0244880932431</v>
+        <v>18.0244880932429</v>
       </c>
       <c r="D490" t="n">
         <v>17.7349818298601</v>
       </c>
       <c r="E490" t="n">
-        <v>17.9762370493459</v>
+        <v>17.9762370493458</v>
       </c>
       <c r="F490" t="s">
         <v>36</v>
@@ -10267,13 +10267,13 @@
         <v>9</v>
       </c>
       <c r="C491" t="n">
-        <v>414.036834597023</v>
+        <v>414.036834597017</v>
       </c>
       <c r="D491" t="n">
-        <v>50.2088244671626</v>
+        <v>50.2088244671627</v>
       </c>
       <c r="E491" t="n">
-        <v>378.517597140473</v>
+        <v>378.517597140468</v>
       </c>
       <c r="F491" t="s">
         <v>36</v>
@@ -10287,13 +10287,13 @@
         <v>10</v>
       </c>
       <c r="C492" t="n">
-        <v>0.915157500626727</v>
+        <v>0.915157500626713</v>
       </c>
       <c r="D492" t="n">
         <v>1.51905845376515</v>
       </c>
       <c r="E492" t="n">
-        <v>1.14797100651334</v>
+        <v>1.14797100651332</v>
       </c>
       <c r="F492" t="s">
         <v>36</v>
@@ -10307,13 +10307,13 @@
         <v>11</v>
       </c>
       <c r="C493" t="n">
-        <v>0.853014480124246</v>
+        <v>0.853014480124248</v>
       </c>
       <c r="D493" t="n">
-        <v>0.0449009556818087</v>
+        <v>0.0449009556818084</v>
       </c>
       <c r="E493" t="n">
-        <v>0.856023180116969</v>
+        <v>0.856023180116971</v>
       </c>
       <c r="F493" t="s">
         <v>36</v>
@@ -10327,13 +10327,13 @@
         <v>7</v>
       </c>
       <c r="C494" t="n">
-        <v>12.4298174391564</v>
+        <v>12.4298168873277</v>
       </c>
       <c r="D494" t="n">
-        <v>15.3174118015175</v>
+        <v>15.3174124057162</v>
       </c>
       <c r="E494" t="n">
-        <v>12.9110831662166</v>
+        <v>12.9110828070591</v>
       </c>
       <c r="F494" t="s">
         <v>36</v>
@@ -10347,13 +10347,13 @@
         <v>9</v>
       </c>
       <c r="C495" t="n">
-        <v>108.421179155855</v>
+        <v>108.421187641585</v>
       </c>
       <c r="D495" t="n">
-        <v>39.9178066818675</v>
+        <v>39.9178086853887</v>
       </c>
       <c r="E495" t="n">
-        <v>100.307187959472</v>
+        <v>100.307195735818</v>
       </c>
       <c r="F495" t="s">
         <v>36</v>
@@ -10367,13 +10367,13 @@
         <v>10</v>
       </c>
       <c r="C496" t="n">
-        <v>0.328328900438586</v>
+        <v>0.328328919316867</v>
       </c>
       <c r="D496" t="n">
-        <v>1.5327898277157</v>
+        <v>1.53278979871605</v>
       </c>
       <c r="E496" t="n">
-        <v>0.357342026193248</v>
+        <v>0.357342047451744</v>
       </c>
       <c r="F496" t="s">
         <v>36</v>
@@ -10387,13 +10387,13 @@
         <v>11</v>
       </c>
       <c r="C497" t="n">
-        <v>0.983872468169296</v>
+        <v>0.983872465390001</v>
       </c>
       <c r="D497" t="n">
-        <v>0.108949189476168</v>
+        <v>0.108949170990784</v>
       </c>
       <c r="E497" t="n">
-        <v>0.984017193662332</v>
+        <v>0.984017190872208</v>
       </c>
       <c r="F497" t="s">
         <v>36</v>
@@ -10407,13 +10407,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="n">
-        <v>14.029328289225</v>
+        <v>14.0373798163983</v>
       </c>
       <c r="D498" t="n">
-        <v>19.6779381205651</v>
+        <v>20.2887098657312</v>
       </c>
       <c r="E498" t="n">
-        <v>15.0563482585596</v>
+        <v>15.1739852799134</v>
       </c>
       <c r="F498" t="s">
         <v>36</v>
@@ -10427,13 +10427,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="n">
-        <v>88.9619349641679</v>
+        <v>89.0622678063459</v>
       </c>
       <c r="D499" t="n">
-        <v>59.9485092929466</v>
+        <v>61.7986644355611</v>
       </c>
       <c r="E499" t="n">
-        <v>84.4316185851617</v>
+        <v>84.7600558653778</v>
       </c>
       <c r="F499" t="s">
         <v>36</v>
@@ -10447,13 +10447,13 @@
         <v>10</v>
       </c>
       <c r="C500" t="n">
-        <v>0.556570242129717</v>
+        <v>0.55743820250091</v>
       </c>
       <c r="D500" t="n">
-        <v>1.52715839718458</v>
+        <v>1.53479698620006</v>
       </c>
       <c r="E500" t="n">
-        <v>0.555349591510239</v>
+        <v>0.558558477432275</v>
       </c>
       <c r="F500" t="s">
         <v>36</v>
@@ -10467,13 +10467,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="n">
-        <v>0.957898694879645</v>
+        <v>0.957806812662914</v>
       </c>
       <c r="D501" t="n">
-        <v>0.0645715323557038</v>
+        <v>0.0676766361476914</v>
       </c>
       <c r="E501" t="n">
-        <v>0.955848311400611</v>
+        <v>0.955517070822774</v>
       </c>
       <c r="F501" t="s">
         <v>36</v>
@@ -10487,13 +10487,13 @@
         <v>7</v>
       </c>
       <c r="C502" t="n">
-        <v>68.2651677710986</v>
+        <v>68.7327339567441</v>
       </c>
       <c r="D502" t="n">
-        <v>157.043016982565</v>
+        <v>153.70223691662</v>
       </c>
       <c r="E502" t="n">
-        <v>83.0614759730097</v>
+        <v>82.89431778339</v>
       </c>
       <c r="F502" t="s">
         <v>36</v>
@@ -10507,13 +10507,13 @@
         <v>9</v>
       </c>
       <c r="C503" t="n">
-        <v>601.14110953725</v>
+        <v>595.78122180774</v>
       </c>
       <c r="D503" t="n">
-        <v>2873.49898521685</v>
+        <v>2665.32967295909</v>
       </c>
       <c r="E503" t="n">
-        <v>1295.10936384543</v>
+        <v>1216.46746681048</v>
       </c>
       <c r="F503" t="s">
         <v>36</v>
@@ -10527,13 +10527,13 @@
         <v>10</v>
       </c>
       <c r="C504" t="n">
-        <v>2.0257587471605</v>
+        <v>1.99515600712752</v>
       </c>
       <c r="D504" t="n">
-        <v>12.5800919221744</v>
+        <v>13.0327549229269</v>
       </c>
       <c r="E504" t="n">
-        <v>1.84668747251021</v>
+        <v>1.87771020366452</v>
       </c>
       <c r="F504" t="s">
         <v>36</v>
@@ -10547,13 +10547,13 @@
         <v>11</v>
       </c>
       <c r="C505" t="n">
-        <v>0.689317590081223</v>
+        <v>0.693533938026773</v>
       </c>
       <c r="D505" t="n">
-        <v>0.0128506877775891</v>
+        <v>0.0101462573413649</v>
       </c>
       <c r="E505" t="n">
-        <v>0.226789901400918</v>
+        <v>0.256673889798353</v>
       </c>
       <c r="F505" t="s">
         <v>36</v>
@@ -10567,13 +10567,13 @@
         <v>7</v>
       </c>
       <c r="C506" t="n">
-        <v>14.4189506402247</v>
+        <v>14.4189506071225</v>
       </c>
       <c r="D506" t="n">
-        <v>60.2199491393388</v>
+        <v>60.2199430893855</v>
       </c>
       <c r="E506" t="n">
-        <v>22.7464049127909</v>
+        <v>22.7464037857158</v>
       </c>
       <c r="F506" t="s">
         <v>37</v>
@@ -10587,13 +10587,13 @@
         <v>9</v>
       </c>
       <c r="C507" t="n">
-        <v>95.44938062632</v>
+        <v>95.4493807733968</v>
       </c>
       <c r="D507" t="n">
-        <v>478.232391113779</v>
+        <v>478.232510387159</v>
       </c>
       <c r="E507" t="n">
-        <v>221.443138233629</v>
+        <v>221.443185119104</v>
       </c>
       <c r="F507" t="s">
         <v>37</v>
@@ -10607,13 +10607,13 @@
         <v>10</v>
       </c>
       <c r="C508" t="n">
-        <v>1.28784754822152</v>
+        <v>1.28784759562273</v>
       </c>
       <c r="D508" t="n">
-        <v>1.30215625113683</v>
+        <v>1.30215522838941</v>
       </c>
       <c r="E508" t="n">
-        <v>1.28714267375351</v>
+        <v>1.2871421150248</v>
       </c>
       <c r="F508" t="s">
         <v>37</v>
@@ -10627,13 +10627,13 @@
         <v>11</v>
       </c>
       <c r="C509" t="n">
-        <v>0.657515959948536</v>
+        <v>0.657515956477429</v>
       </c>
       <c r="D509" t="n">
-        <v>0.0000110032104796705</v>
+        <v>0.0000110033386371078</v>
       </c>
       <c r="E509" t="n">
-        <v>0.157036513305037</v>
+        <v>0.157036446291473</v>
       </c>
       <c r="F509" t="s">
         <v>37</v>
@@ -10647,13 +10647,13 @@
         <v>7</v>
       </c>
       <c r="C510" t="n">
-        <v>19.6355080351064</v>
+        <v>19.5829014078623</v>
       </c>
       <c r="D510" t="n">
-        <v>19.5436480446864</v>
+        <v>19.147480319054</v>
       </c>
       <c r="E510" t="n">
-        <v>19.620198036703</v>
+        <v>19.5103312263943</v>
       </c>
       <c r="F510" t="s">
         <v>37</v>
@@ -10667,13 +10667,13 @@
         <v>9</v>
       </c>
       <c r="C511" t="n">
-        <v>112.311947159232</v>
+        <v>112.236005776844</v>
       </c>
       <c r="D511" t="n">
-        <v>110.104985515608</v>
+        <v>108.464156293255</v>
       </c>
       <c r="E511" t="n">
-        <v>111.947141700063</v>
+        <v>111.616216088961</v>
       </c>
       <c r="F511" t="s">
         <v>37</v>
@@ -10687,13 +10687,13 @@
         <v>10</v>
       </c>
       <c r="C512" t="n">
-        <v>0.734247216060643</v>
+        <v>0.733048504063852</v>
       </c>
       <c r="D512" t="n">
-        <v>1.20369453559257</v>
+        <v>1.17527127175553</v>
       </c>
       <c r="E512" t="n">
-        <v>0.988550871137867</v>
+        <v>0.981834171656697</v>
       </c>
       <c r="F512" t="s">
         <v>37</v>
@@ -10707,13 +10707,13 @@
         <v>11</v>
       </c>
       <c r="C513" t="n">
-        <v>0.443504831145018</v>
+        <v>0.44429862547509</v>
       </c>
       <c r="D513" t="n">
-        <v>0.303790113869164</v>
+        <v>0.30335680578873</v>
       </c>
       <c r="E513" t="n">
-        <v>0.405569902168432</v>
+        <v>0.406483406229025</v>
       </c>
       <c r="F513" t="s">
         <v>37</v>
@@ -10807,13 +10807,13 @@
         <v>7</v>
       </c>
       <c r="C518" t="n">
-        <v>19.2634114726541</v>
+        <v>19.263411473296</v>
       </c>
       <c r="D518" t="n">
-        <v>25.0148854226685</v>
+        <v>25.0148853266479</v>
       </c>
       <c r="E518" t="n">
-        <v>20.2219904643232</v>
+        <v>20.2219904488546</v>
       </c>
       <c r="F518" t="s">
         <v>37</v>
@@ -10827,13 +10827,13 @@
         <v>9</v>
       </c>
       <c r="C519" t="n">
-        <v>110.360392198078</v>
+        <v>110.360392231266</v>
       </c>
       <c r="D519" t="n">
-        <v>125.162880968409</v>
+        <v>125.162880456261</v>
       </c>
       <c r="E519" t="n">
-        <v>112.96225594041</v>
+        <v>112.962255872852</v>
       </c>
       <c r="F519" t="s">
         <v>37</v>
@@ -10847,13 +10847,13 @@
         <v>10</v>
       </c>
       <c r="C520" t="n">
-        <v>1.5112523029357</v>
+        <v>1.51125230468413</v>
       </c>
       <c r="D520" t="n">
-        <v>1.54284907832615</v>
+        <v>1.54284907477419</v>
       </c>
       <c r="E520" t="n">
-        <v>1.516686560468</v>
+        <v>1.51668656092782</v>
       </c>
       <c r="F520" t="s">
         <v>37</v>
@@ -10867,13 +10867,13 @@
         <v>11</v>
       </c>
       <c r="C521" t="n">
-        <v>0.51914491362275</v>
+        <v>0.519144913578747</v>
       </c>
       <c r="D521" t="n">
-        <v>0.509568664622982</v>
+        <v>0.509568664942274</v>
       </c>
       <c r="E521" t="n">
-        <v>0.398277173181692</v>
+        <v>0.398277173484392</v>
       </c>
       <c r="F521" t="s">
         <v>37</v>
@@ -10887,13 +10887,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>16.8059907349533</v>
+        <v>16.8118632744348</v>
       </c>
       <c r="D522" t="n">
-        <v>34.1569074491813</v>
+        <v>38.2726418686083</v>
       </c>
       <c r="E522" t="n">
-        <v>19.960702864813</v>
+        <v>20.71382301883</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10907,13 +10907,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>95.8653625286975</v>
+        <v>94.8405077474057</v>
       </c>
       <c r="D523" t="n">
-        <v>175.190546268481</v>
+        <v>200.781102878659</v>
       </c>
       <c r="E523" t="n">
-        <v>114.45323165481</v>
+        <v>121.198034687941</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10927,13 +10927,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.624334446496271</v>
+        <v>0.622447027575266</v>
       </c>
       <c r="D524" t="n">
-        <v>2.50213557394453</v>
+        <v>2.89873026219227</v>
       </c>
       <c r="E524" t="n">
-        <v>1.4224553370321</v>
+        <v>1.49825951132238</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10947,13 +10947,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.60641921311371</v>
+        <v>0.615275387893379</v>
       </c>
       <c r="D525" t="n">
-        <v>0.377144537737563</v>
+        <v>0.318474419146804</v>
       </c>
       <c r="E525" t="n">
-        <v>0.454690536417245</v>
+        <v>0.428936865886444</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -10967,13 +10967,13 @@
         <v>7</v>
       </c>
       <c r="C526" t="n">
-        <v>22.5150169378579</v>
+        <v>23.1511675747508</v>
       </c>
       <c r="D526" t="n">
-        <v>23.1188087711705</v>
+        <v>20.6915893762286</v>
       </c>
       <c r="E526" t="n">
-        <v>22.6156489100767</v>
+        <v>22.7412378749971</v>
       </c>
       <c r="F526" t="s">
         <v>37</v>
@@ -10987,13 +10987,13 @@
         <v>9</v>
       </c>
       <c r="C527" t="n">
-        <v>119.070486919132</v>
+        <v>119.460082899476</v>
       </c>
       <c r="D527" t="n">
-        <v>123.530170971558</v>
+        <v>117.684845120862</v>
       </c>
       <c r="E527" t="n">
-        <v>119.825294641865</v>
+        <v>119.166046480579</v>
       </c>
       <c r="F527" t="s">
         <v>37</v>
@@ -11007,13 +11007,13 @@
         <v>10</v>
       </c>
       <c r="C528" t="n">
-        <v>0.819625836421567</v>
+        <v>0.83308708423553</v>
       </c>
       <c r="D528" t="n">
-        <v>1.21175200253025</v>
+        <v>0.824132404462711</v>
       </c>
       <c r="E528" t="n">
-        <v>1.17273096557335</v>
+        <v>1.05779541960556</v>
       </c>
       <c r="F528" t="s">
         <v>37</v>
@@ -11027,13 +11027,13 @@
         <v>11</v>
       </c>
       <c r="C529" t="n">
-        <v>0.408094694088298</v>
+        <v>0.421641736974602</v>
       </c>
       <c r="D529" t="n">
-        <v>0.3893533675724</v>
+        <v>0.451508026482324</v>
       </c>
       <c r="E529" t="n">
-        <v>0.391813226281889</v>
+        <v>0.414436579574068</v>
       </c>
       <c r="F529" t="s">
         <v>37</v>
@@ -11047,13 +11047,13 @@
         <v>7</v>
       </c>
       <c r="C530" t="n">
-        <v>19.0530190767303</v>
+        <v>19.0530190923056</v>
       </c>
       <c r="D530" t="n">
-        <v>36.5102268516941</v>
+        <v>36.5102283948476</v>
       </c>
       <c r="E530" t="n">
-        <v>22.2270568539964</v>
+        <v>22.2270571473133</v>
       </c>
       <c r="F530" t="s">
         <v>38</v>
@@ -11067,13 +11067,13 @@
         <v>9</v>
       </c>
       <c r="C531" t="n">
-        <v>38.3365416349455</v>
+        <v>38.3365421881076</v>
       </c>
       <c r="D531" t="n">
-        <v>39.9935617087422</v>
+        <v>39.9935632779913</v>
       </c>
       <c r="E531" t="n">
-        <v>38.643103321001</v>
+        <v>38.6431040652868</v>
       </c>
       <c r="F531" t="s">
         <v>38</v>
@@ -11087,13 +11087,13 @@
         <v>10</v>
       </c>
       <c r="C532" t="n">
-        <v>1.08432696683681</v>
+        <v>1.08432708800286</v>
       </c>
       <c r="D532" t="n">
-        <v>4.03817209220813</v>
+        <v>4.03817350574344</v>
       </c>
       <c r="E532" t="n">
-        <v>1.25864261813145</v>
+        <v>1.2586427795935</v>
       </c>
       <c r="F532" t="s">
         <v>38</v>
@@ -11107,13 +11107,13 @@
         <v>11</v>
       </c>
       <c r="C533" t="n">
-        <v>0.752534576071965</v>
+        <v>0.752534575490962</v>
       </c>
       <c r="D533" t="n">
-        <v>0.501913864410587</v>
+        <v>0.501913723841164</v>
       </c>
       <c r="E533" t="n">
-        <v>0.751503176528438</v>
+        <v>0.751503169230305</v>
       </c>
       <c r="F533" t="s">
         <v>38</v>
@@ -11127,13 +11127,13 @@
         <v>7</v>
       </c>
       <c r="C534" t="n">
-        <v>32.1191913943437</v>
+        <v>32.8048787299076</v>
       </c>
       <c r="D534" t="n">
-        <v>72.9847586596952</v>
+        <v>73.2555211394176</v>
       </c>
       <c r="E534" t="n">
-        <v>38.9301192719022</v>
+        <v>39.5466524648259</v>
       </c>
       <c r="F534" t="s">
         <v>38</v>
@@ -11147,13 +11147,13 @@
         <v>9</v>
       </c>
       <c r="C535" t="n">
-        <v>61.2425869117423</v>
+        <v>60.2970501304429</v>
       </c>
       <c r="D535" t="n">
-        <v>40.0728044784198</v>
+        <v>41.4638535551466</v>
       </c>
       <c r="E535" t="n">
-        <v>58.2510399291681</v>
+        <v>57.5875021507971</v>
       </c>
       <c r="F535" t="s">
         <v>38</v>
@@ -11167,13 +11167,13 @@
         <v>10</v>
       </c>
       <c r="C536" t="n">
-        <v>0.824434069946993</v>
+        <v>0.824040374002428</v>
       </c>
       <c r="D536" t="n">
-        <v>0.954906464868292</v>
+        <v>1.07455319606991</v>
       </c>
       <c r="E536" t="n">
-        <v>0.948111819041702</v>
+        <v>0.938372279744182</v>
       </c>
       <c r="F536" t="s">
         <v>38</v>
@@ -11187,13 +11187,13 @@
         <v>11</v>
       </c>
       <c r="C537" t="n">
-        <v>0.628330116263417</v>
+        <v>0.639714098562498</v>
       </c>
       <c r="D537" t="n">
-        <v>0.801118559230016</v>
+        <v>0.772627891051758</v>
       </c>
       <c r="E537" t="n">
-        <v>0.643499423781484</v>
+        <v>0.652362353714274</v>
       </c>
       <c r="F537" t="s">
         <v>38</v>
@@ -11206,11 +11206,15 @@
       <c r="B538" t="s">
         <v>7</v>
       </c>
-      <c r="C538"/>
+      <c r="C538" t="n">
+        <v>45.2580583183113</v>
+      </c>
       <c r="D538" t="n">
-        <v>26.3195142572584</v>
-      </c>
-      <c r="E538"/>
+        <v>26.3195142572595</v>
+      </c>
+      <c r="E538" t="n">
+        <v>42.0795614129599</v>
+      </c>
       <c r="F538" t="s">
         <v>38</v>
       </c>
@@ -11222,11 +11226,15 @@
       <c r="B539" t="s">
         <v>9</v>
       </c>
-      <c r="C539"/>
+      <c r="C539" t="n">
+        <v>291.559828313115</v>
+      </c>
       <c r="D539" t="n">
-        <v>31.6388145872884</v>
-      </c>
-      <c r="E539"/>
+        <v>31.6388145872893</v>
+      </c>
+      <c r="E539" t="n">
+        <v>266.285944879262</v>
+      </c>
       <c r="F539" t="s">
         <v>38</v>
       </c>
@@ -11238,11 +11246,15 @@
       <c r="B540" t="s">
         <v>10</v>
       </c>
-      <c r="C540"/>
+      <c r="C540" t="n">
+        <v>2.73913231910392</v>
+      </c>
       <c r="D540" t="n">
-        <v>1.03679180960873</v>
-      </c>
-      <c r="E540"/>
+        <v>1.03679180960869</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.781682307348851</v>
+      </c>
       <c r="F540" t="s">
         <v>38</v>
       </c>
@@ -11254,11 +11266,15 @@
       <c r="B541" t="s">
         <v>11</v>
       </c>
-      <c r="C541"/>
+      <c r="C541" t="n">
+        <v>0.168327894447247</v>
+      </c>
       <c r="D541" t="n">
-        <v>0.486968497043046</v>
-      </c>
-      <c r="E541"/>
+        <v>0.486968497043024</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.195044976898273</v>
+      </c>
       <c r="F541" t="s">
         <v>38</v>
       </c>
@@ -11270,11 +11286,15 @@
       <c r="B542" t="s">
         <v>7</v>
       </c>
-      <c r="C542"/>
+      <c r="C542" t="n">
+        <v>42.8113527188474</v>
+      </c>
       <c r="D542" t="n">
-        <v>28.6743346044112</v>
-      </c>
-      <c r="E542"/>
+        <v>28.6892394996157</v>
+      </c>
+      <c r="E542" t="n">
+        <v>40.390419024122</v>
+      </c>
       <c r="F542" t="s">
         <v>38</v>
       </c>
@@ -11286,11 +11306,15 @@
       <c r="B543" t="s">
         <v>9</v>
       </c>
-      <c r="C543"/>
+      <c r="C543" t="n">
+        <v>119.494094586989</v>
+      </c>
       <c r="D543" t="n">
-        <v>28.1221285715524</v>
-      </c>
-      <c r="E543"/>
+        <v>28.1211423995311</v>
+      </c>
+      <c r="E543" t="n">
+        <v>109.391970519242</v>
+      </c>
       <c r="F543" t="s">
         <v>38</v>
       </c>
@@ -11302,11 +11326,15 @@
       <c r="B544" t="s">
         <v>10</v>
       </c>
-      <c r="C544"/>
+      <c r="C544" t="n">
+        <v>0.903809776103341</v>
+      </c>
       <c r="D544" t="n">
-        <v>1.49830167027952</v>
-      </c>
-      <c r="E544"/>
+        <v>1.48874997334319</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.927128508637468</v>
+      </c>
       <c r="F544" t="s">
         <v>38</v>
       </c>
@@ -11318,11 +11346,15 @@
       <c r="B545" t="s">
         <v>11</v>
       </c>
-      <c r="C545"/>
+      <c r="C545" t="n">
+        <v>0.108657261565402</v>
+      </c>
       <c r="D545" t="n">
-        <v>0.601082594727207</v>
-      </c>
-      <c r="E545"/>
+        <v>0.597924138854607</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.137952763647747</v>
+      </c>
       <c r="F545" t="s">
         <v>38</v>
       </c>
@@ -11335,13 +11367,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>16.7891106930119</v>
+        <v>16.8145722325058</v>
       </c>
       <c r="D546" t="n">
-        <v>32.4043402351626</v>
+        <v>31.4957370054169</v>
       </c>
       <c r="E546" t="n">
-        <v>19.6282433370393</v>
+        <v>19.4838749184897</v>
       </c>
       <c r="F546" t="s">
         <v>38</v>
@@ -11355,13 +11387,13 @@
         <v>9</v>
       </c>
       <c r="C547" t="n">
-        <v>35.8088200155798</v>
+        <v>35.8576479825716</v>
       </c>
       <c r="D547" t="n">
-        <v>30.421364514585</v>
+        <v>29.7852433713519</v>
       </c>
       <c r="E547" t="n">
-        <v>34.8912116520534</v>
+        <v>34.8324035593812</v>
       </c>
       <c r="F547" t="s">
         <v>38</v>
@@ -11375,13 +11407,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="n">
-        <v>0.701518228472045</v>
+        <v>0.702440386305538</v>
       </c>
       <c r="D548" t="n">
-        <v>1.45206235022788</v>
+        <v>1.41937903246862</v>
       </c>
       <c r="E548" t="n">
-        <v>0.741176778123363</v>
+        <v>0.738904429112853</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -11395,13 +11427,13 @@
         <v>11</v>
       </c>
       <c r="C549" t="n">
-        <v>0.802801274719705</v>
+        <v>0.802360419633442</v>
       </c>
       <c r="D549" t="n">
-        <v>0.788043156309898</v>
+        <v>0.790575996328751</v>
       </c>
       <c r="E549" t="n">
-        <v>0.815122703296273</v>
+        <v>0.815290079116985</v>
       </c>
       <c r="F549" t="s">
         <v>38</v>
@@ -11415,13 +11447,13 @@
         <v>7</v>
       </c>
       <c r="C550" t="n">
-        <v>39.5328394144882</v>
+        <v>39.3310906593608</v>
       </c>
       <c r="D550" t="n">
-        <v>83.9189724247635</v>
+        <v>131.586932706809</v>
       </c>
       <c r="E550" t="n">
-        <v>46.9305282495341</v>
+        <v>54.7070643339355</v>
       </c>
       <c r="F550" t="s">
         <v>38</v>
@@ -11435,13 +11467,13 @@
         <v>9</v>
       </c>
       <c r="C551" t="n">
-        <v>99.9490772837268</v>
+        <v>99.9907643449832</v>
       </c>
       <c r="D551" t="n">
-        <v>43.441073210506</v>
+        <v>85.3175489939454</v>
       </c>
       <c r="E551" t="n">
-        <v>92.9482087787087</v>
+        <v>97.6983870028945</v>
       </c>
       <c r="F551" t="s">
         <v>38</v>
@@ -11455,13 +11487,13 @@
         <v>10</v>
       </c>
       <c r="C552" t="n">
-        <v>1.2645474574448</v>
+        <v>1.25940261265524</v>
       </c>
       <c r="D552" t="n">
-        <v>0.979551142881965</v>
+        <v>1.83495266801778</v>
       </c>
       <c r="E552" t="n">
-        <v>0.940214620827125</v>
+        <v>1.03438792179664</v>
       </c>
       <c r="F552" t="s">
         <v>38</v>
@@ -11475,13 +11507,13 @@
         <v>11</v>
       </c>
       <c r="C553" t="n">
-        <v>0.406306829165699</v>
+        <v>0.397547754791258</v>
       </c>
       <c r="D553" t="n">
-        <v>0.836691938860018</v>
+        <v>0.542128202090197</v>
       </c>
       <c r="E553" t="n">
-        <v>0.459827217877876</v>
+        <v>0.444769212946733</v>
       </c>
       <c r="F553" t="s">
         <v>38</v>
@@ -11495,13 +11527,13 @@
         <v>7</v>
       </c>
       <c r="C554" t="n">
-        <v>199.859552007587</v>
+        <v>199.135606320767</v>
       </c>
       <c r="D554" t="n">
         <v>200</v>
       </c>
       <c r="E554" t="n">
-        <v>199.885088006208</v>
+        <v>199.2927688079</v>
       </c>
       <c r="F554" t="s">
         <v>39</v>
@@ -11515,13 +11547,13 @@
         <v>9</v>
       </c>
       <c r="C555" t="n">
-        <v>7899871681535720554496</v>
+        <v>2263490629032368384</v>
       </c>
       <c r="D555" t="n">
         <v>227.454116252048</v>
       </c>
       <c r="E555" t="n">
-        <v>7145702798074901954560</v>
+        <v>2047404308996152064</v>
       </c>
       <c r="F555" t="s">
         <v>39</v>
@@ -11535,10 +11567,10 @@
         <v>10</v>
       </c>
       <c r="C556" t="n">
-        <v>0.49537037037037</v>
+        <v>0.495370370370371</v>
       </c>
       <c r="D556" t="n">
-        <v>544223834967595840554067041774302885102889381920768</v>
+        <v>9772155347242877072260202282422668082266204228220648660028404084</v>
       </c>
       <c r="E556" t="n">
         <v>0.496212121212121</v>
@@ -11555,13 +11587,13 @@
         <v>11</v>
       </c>
       <c r="C557" t="n">
-        <v>0.124917573182091</v>
+        <v>0.124917575264331</v>
       </c>
       <c r="D557" t="n">
-        <v>0.192863830882626</v>
+        <v>0.190831107146928</v>
       </c>
       <c r="E557" t="n">
-        <v>0.11532646596369</v>
+        <v>0.11532646787645</v>
       </c>
       <c r="F557" t="s">
         <v>39</v>
@@ -11575,13 +11607,13 @@
         <v>7</v>
       </c>
       <c r="C558" t="n">
-        <v>115.30718091532</v>
+        <v>115.307421703094</v>
       </c>
       <c r="D558" t="n">
-        <v>165.905813236947</v>
+        <v>165.90584617255</v>
       </c>
       <c r="E558" t="n">
-        <v>123.740286302258</v>
+        <v>123.740492448003</v>
       </c>
       <c r="F558" t="s">
         <v>39</v>
@@ -11595,13 +11627,13 @@
         <v>9</v>
       </c>
       <c r="C559" t="n">
-        <v>173.929538041243</v>
+        <v>173.929475518668</v>
       </c>
       <c r="D559" t="n">
-        <v>182.4036648442</v>
+        <v>182.402899290238</v>
       </c>
       <c r="E559" t="n">
-        <v>175.370330997386</v>
+        <v>175.370146613993</v>
       </c>
       <c r="F559" t="s">
         <v>39</v>
@@ -11615,13 +11647,13 @@
         <v>10</v>
       </c>
       <c r="C560" t="n">
-        <v>0.660192660179805</v>
+        <v>0.660190855039774</v>
       </c>
       <c r="D560" t="n">
-        <v>0.950829501881197</v>
+        <v>0.950820072477353</v>
       </c>
       <c r="E560" t="n">
-        <v>0.717826336287547</v>
+        <v>0.717823571069248</v>
       </c>
       <c r="F560" t="s">
         <v>39</v>
@@ -11635,13 +11667,13 @@
         <v>11</v>
       </c>
       <c r="C561" t="n">
-        <v>0.720981448122034</v>
+        <v>0.720981655718986</v>
       </c>
       <c r="D561" t="n">
-        <v>0.62630881436945</v>
+        <v>0.62630774844497</v>
       </c>
       <c r="E561" t="n">
-        <v>0.693508679955591</v>
+        <v>0.693509350520777</v>
       </c>
       <c r="F561" t="s">
         <v>39</v>
@@ -11701,7 +11733,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E564" t="n">
-        <v>10065725515648874609584631781473758280105886905569180770700210295278127360140966558221467648</v>
+        <v>10065725515648874619624846864280000248826224400248002804082286644624006220044664644088044228</v>
       </c>
       <c r="F564" t="s">
         <v>39</v>
@@ -11807,13 +11839,13 @@
         <v>7</v>
       </c>
       <c r="C570" t="n">
-        <v>82.3943527709693</v>
+        <v>82.7212962627105</v>
       </c>
       <c r="D570" t="n">
-        <v>76.12621495176</v>
+        <v>82.3729597840787</v>
       </c>
       <c r="E570" t="n">
-        <v>81.2546913492949</v>
+        <v>82.6579623575047</v>
       </c>
       <c r="F570" t="s">
         <v>39</v>
@@ -11827,13 +11859,13 @@
         <v>9</v>
       </c>
       <c r="C571" t="n">
-        <v>102.42222195297</v>
+        <v>102.435939746477</v>
       </c>
       <c r="D571" t="n">
-        <v>136.915127657188</v>
+        <v>133.950712103951</v>
       </c>
       <c r="E571" t="n">
-        <v>109.50479786534</v>
+        <v>108.8467155357</v>
       </c>
       <c r="F571" t="s">
         <v>39</v>
@@ -11847,13 +11879,13 @@
         <v>10</v>
       </c>
       <c r="C572" t="n">
-        <v>0.373666524783914</v>
+        <v>0.373871180605575</v>
       </c>
       <c r="D572" t="n">
-        <v>0.786258096345821</v>
+        <v>0.785617317794289</v>
       </c>
       <c r="E572" t="n">
-        <v>0.397660330989475</v>
+        <v>0.396409760698374</v>
       </c>
       <c r="F572" t="s">
         <v>39</v>
@@ -11867,13 +11899,13 @@
         <v>11</v>
       </c>
       <c r="C573" t="n">
-        <v>0.893075851215782</v>
+        <v>0.893005205941279</v>
       </c>
       <c r="D573" t="n">
-        <v>0.55778215746297</v>
+        <v>0.572966821081664</v>
       </c>
       <c r="E573" t="n">
-        <v>0.864507610377615</v>
+        <v>0.865927006257824</v>
       </c>
       <c r="F573" t="s">
         <v>39</v>
@@ -11887,13 +11919,13 @@
         <v>7</v>
       </c>
       <c r="C574" t="n">
-        <v>122.14634233587</v>
+        <v>120.673547680536</v>
       </c>
       <c r="D574" t="n">
-        <v>128.800533065954</v>
+        <v>116.214501253</v>
       </c>
       <c r="E574" t="n">
-        <v>123.255374124217</v>
+        <v>119.930373275947</v>
       </c>
       <c r="F574" t="s">
         <v>39</v>
@@ -11907,13 +11939,13 @@
         <v>9</v>
       </c>
       <c r="C575" t="n">
-        <v>240.705112838073</v>
+        <v>239.905488083767</v>
       </c>
       <c r="D575" t="n">
-        <v>184.144479750771</v>
+        <v>150.994225142412</v>
       </c>
       <c r="E575" t="n">
-        <v>232.236928643512</v>
+        <v>227.512809928697</v>
       </c>
       <c r="F575" t="s">
         <v>39</v>
@@ -11927,13 +11959,13 @@
         <v>10</v>
       </c>
       <c r="C576" t="n">
-        <v>0.890644804443528</v>
+        <v>0.87678851472316</v>
       </c>
       <c r="D576" t="n">
-        <v>1.06864473126481</v>
+        <v>0.641923309939057</v>
       </c>
       <c r="E576" t="n">
-        <v>0.767674596248358</v>
+        <v>0.702743568520654</v>
       </c>
       <c r="F576" t="s">
         <v>39</v>
@@ -11947,13 +11979,13 @@
         <v>11</v>
       </c>
       <c r="C577" t="n">
-        <v>0.56257212213799</v>
+        <v>0.562675673634933</v>
       </c>
       <c r="D577" t="n">
-        <v>0.53178849457924</v>
+        <v>0.611861105272254</v>
       </c>
       <c r="E577" t="n">
-        <v>0.553028362849715</v>
+        <v>0.565525853916328</v>
       </c>
       <c r="F577" t="s">
         <v>39</v>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>18.6647469328998</v>
+        <v>16.0780150564974</v>
       </c>
       <c r="D18" t="n">
-        <v>36.0477177718934</v>
+        <v>32.8619936713916</v>
       </c>
       <c r="E18" t="n">
-        <v>21.8252870854441</v>
+        <v>19.1296475319327</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>36930.5010869094</v>
+        <v>33623.9492554707</v>
       </c>
       <c r="D19" t="n">
-        <v>52741.388982845</v>
+        <v>48913.7001912689</v>
       </c>
       <c r="E19" t="n">
-        <v>40269.6201964746</v>
+        <v>36878.4610759241</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.406170666925393</v>
+        <v>0.378383947294246</v>
       </c>
       <c r="D20" t="n">
-        <v>0.926080716236071</v>
+        <v>0.841635701923002</v>
       </c>
       <c r="E20" t="n">
-        <v>0.510871576956314</v>
+        <v>0.465297083038966</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.896797497240655</v>
+        <v>0.915113441837072</v>
       </c>
       <c r="D21" t="n">
-        <v>0.834499793045689</v>
+        <v>0.879993807714243</v>
       </c>
       <c r="E21" t="n">
-        <v>0.880600439752209</v>
+        <v>0.899364297739192</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.47032937860337</v>
+        <v>9.37626630539793</v>
       </c>
       <c r="D42" t="n">
-        <v>12.7397815916647</v>
+        <v>29.3955896682415</v>
       </c>
       <c r="E42" t="n">
-        <v>10.0647752355236</v>
+        <v>13.0161432804604</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10423.6232454695</v>
+        <v>10831.0529686758</v>
       </c>
       <c r="D43" t="n">
-        <v>19375.838488545</v>
+        <v>38817.7868219481</v>
       </c>
       <c r="E43" t="n">
-        <v>12536.1786563377</v>
+        <v>19234.0761131733</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.48960775426915</v>
+        <v>0.489586789648248</v>
       </c>
       <c r="D44" t="n">
-        <v>0.93663499600851</v>
+        <v>2.44563663332154</v>
       </c>
       <c r="E44" t="n">
-        <v>0.663749167411825</v>
+        <v>0.960673322303642</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.841560171710211</v>
+        <v>0.828439997142365</v>
       </c>
       <c r="D45" t="n">
-        <v>0.475219246745935</v>
+        <v>0.394172009219285</v>
       </c>
       <c r="E45" t="n">
-        <v>0.815899643528054</v>
+        <v>0.717421250263122</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>5.12950128701695</v>
+        <v>4.53131815716746</v>
       </c>
       <c r="D66" t="n">
-        <v>13.1427859743345</v>
+        <v>6.33967366400724</v>
       </c>
       <c r="E66" t="n">
-        <v>6.58646213925651</v>
+        <v>4.86011006750196</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1067.09068207993</v>
+        <v>1138.59963248511</v>
       </c>
       <c r="D67" t="n">
-        <v>1794.60572238571</v>
+        <v>516.645765833161</v>
       </c>
       <c r="E67" t="n">
-        <v>1231.75270952616</v>
+        <v>1053.19979122342</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.212235789551058</v>
+        <v>0.20120399759669</v>
       </c>
       <c r="D68" t="n">
-        <v>0.609800789356968</v>
+        <v>0.30366714546351</v>
       </c>
       <c r="E68" t="n">
-        <v>0.255135203262699</v>
+        <v>0.21612738260011</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.986943093319962</v>
+        <v>0.985267417420854</v>
       </c>
       <c r="D69" t="n">
-        <v>0.976890277772616</v>
+        <v>0.989604611172834</v>
       </c>
       <c r="E69" t="n">
-        <v>0.982525041869737</v>
+        <v>0.987025623163525</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>32.2053978544294</v>
+        <v>14.0364126814304</v>
       </c>
       <c r="D90" t="n">
-        <v>57.7451745827542</v>
+        <v>13.5685772895892</v>
       </c>
       <c r="E90" t="n">
-        <v>36.8489936232157</v>
+        <v>13.950702380635</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>16067.5334723152</v>
+        <v>15799.0729563447</v>
       </c>
       <c r="D91" t="n">
-        <v>7487.56624918127</v>
+        <v>779.980281617965</v>
       </c>
       <c r="E91" t="n">
-        <v>14880.1820114341</v>
+        <v>14282.5753108177</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.665272709602981</v>
+        <v>0.455216247312323</v>
       </c>
       <c r="D92" t="n">
-        <v>1.29170113324158</v>
+        <v>0.877149557073744</v>
       </c>
       <c r="E92" t="n">
-        <v>1.05390094159976</v>
+        <v>1.23896067150969</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.67818988448979</v>
+        <v>0.936684475676843</v>
       </c>
       <c r="D93" t="n">
-        <v>0.172285115133304</v>
+        <v>0.663401842938592</v>
       </c>
       <c r="E93" t="n">
-        <v>0.567291771475916</v>
+        <v>0.930454343723809</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2731,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.097191398718</v>
+        <v>5.07089180825413</v>
       </c>
       <c r="D114" t="n">
-        <v>7.11835462241237</v>
+        <v>6.45272810622678</v>
       </c>
       <c r="E114" t="n">
-        <v>5.46467562120789</v>
+        <v>5.32213477152188</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -2751,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>167.258510706784</v>
+        <v>167.095400844018</v>
       </c>
       <c r="D115" t="n">
-        <v>220.742322220622</v>
+        <v>207.626824112366</v>
       </c>
       <c r="E115" t="n">
-        <v>178.180967832086</v>
+        <v>175.163729389751</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -2771,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>0.353813686502574</v>
+        <v>0.352547254806449</v>
       </c>
       <c r="D116" t="n">
-        <v>0.713002036359962</v>
+        <v>0.657666529495074</v>
       </c>
       <c r="E116" t="n">
-        <v>0.442118507323346</v>
+        <v>0.426911727539713</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.91446162051889</v>
+        <v>0.915075154368433</v>
       </c>
       <c r="D117" t="n">
-        <v>0.753994095963811</v>
+        <v>0.782359263762496</v>
       </c>
       <c r="E117" t="n">
-        <v>0.89513782903613</v>
+        <v>0.899243397964756</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>5.80882907330204</v>
+        <v>6.45839843204516</v>
       </c>
       <c r="D138" t="n">
-        <v>15.1742113520435</v>
+        <v>13.986913149536</v>
       </c>
       <c r="E138" t="n">
-        <v>7.51162585125504</v>
+        <v>7.82721928977076</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>187.7709095373</v>
+        <v>209.294926022273</v>
       </c>
       <c r="D139" t="n">
-        <v>332.380314458608</v>
+        <v>314.210406105617</v>
       </c>
       <c r="E139" t="n">
-        <v>221.21042575615</v>
+        <v>231.9278204995</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.569359078027702</v>
+        <v>0.646831999546933</v>
       </c>
       <c r="D140" t="n">
-        <v>2.34385203173424</v>
+        <v>3.44602713355322</v>
       </c>
       <c r="E140" t="n">
-        <v>0.870924958139888</v>
+        <v>1.02474990715812</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.935018094702464</v>
+        <v>0.919554894098626</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00557988532418443</v>
+        <v>0.00111550188242118</v>
       </c>
       <c r="E141" t="n">
-        <v>0.916953896671213</v>
+        <v>0.908160432276663</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>7.22174167475994</v>
+        <v>6.8276280543933</v>
       </c>
       <c r="D162" t="n">
-        <v>12.8070274596593</v>
+        <v>13.2528624679762</v>
       </c>
       <c r="E162" t="n">
-        <v>8.23724818110528</v>
+        <v>7.99585249322655</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>94.1460553496573</v>
+        <v>91.1703188828413</v>
       </c>
       <c r="D163" t="n">
-        <v>145.595901881643</v>
+        <v>137.496463142915</v>
       </c>
       <c r="E163" t="n">
-        <v>105.385720496644</v>
+        <v>101.183361082925</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.42879166559448</v>
+        <v>0.415063071621698</v>
       </c>
       <c r="D164" t="n">
-        <v>0.885587653546739</v>
+        <v>0.972231460942441</v>
       </c>
       <c r="E164" t="n">
-        <v>0.513092979738163</v>
+        <v>0.511922160396744</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.93404524993158</v>
+        <v>0.938152982496327</v>
       </c>
       <c r="D165" t="n">
-        <v>0.700490989279469</v>
+        <v>0.717354849256814</v>
       </c>
       <c r="E165" t="n">
-        <v>0.914289879796763</v>
+        <v>0.920914093561535</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -4169,13 +4169,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>3.22606257821903</v>
+        <v>3.72741833231512</v>
       </c>
       <c r="D186" t="n">
-        <v>6.08193879165204</v>
+        <v>6.67476757049609</v>
       </c>
       <c r="E186" t="n">
-        <v>3.74531279884321</v>
+        <v>4.26330001198439</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>4831.46846452479</v>
+        <v>5483.07096162511</v>
       </c>
       <c r="D187" t="n">
-        <v>7696.12784392601</v>
+        <v>8521.06707994849</v>
       </c>
       <c r="E187" t="n">
-        <v>5465.16701311284</v>
+        <v>6148.12442127244</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
@@ -4209,13 +4209,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0.398370130374461</v>
+        <v>0.460687355818529</v>
       </c>
       <c r="D188" t="n">
-        <v>1.30996682068308</v>
+        <v>1.94229840997219</v>
       </c>
       <c r="E188" t="n">
-        <v>0.793243736997084</v>
+        <v>1.02206074416203</v>
       </c>
       <c r="F188" t="s">
         <v>23</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0.797251346317149</v>
+        <v>0.736573973769731</v>
       </c>
       <c r="D189" t="n">
-        <v>0.527926522908445</v>
+        <v>0.505899810829501</v>
       </c>
       <c r="E189" t="n">
-        <v>0.729798381821381</v>
+        <v>0.657159792659876</v>
       </c>
       <c r="F189" t="s">
         <v>23</v>
@@ -4649,13 +4649,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.23165876451634</v>
+        <v>4.19200847100418</v>
       </c>
       <c r="D210" t="n">
-        <v>5.04812666276106</v>
+        <v>4.93289985700081</v>
       </c>
       <c r="E210" t="n">
-        <v>4.3801074732881</v>
+        <v>4.32671599573084</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4669,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1851.98258725082</v>
+        <v>1826.05722908471</v>
       </c>
       <c r="D211" t="n">
-        <v>2809.73071565427</v>
+        <v>2747.84415000112</v>
       </c>
       <c r="E211" t="n">
-        <v>2059.51735123248</v>
+        <v>2025.10740411967</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4689,13 +4689,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.441385745238136</v>
+        <v>0.437845747939069</v>
       </c>
       <c r="D212" t="n">
-        <v>1.03956439498212</v>
+        <v>0.945612299472551</v>
       </c>
       <c r="E212" t="n">
-        <v>0.717066460564372</v>
+        <v>0.690830650880103</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.897963697505588</v>
+        <v>0.900748636898263</v>
       </c>
       <c r="D213" t="n">
-        <v>0.751070948369159</v>
+        <v>0.759871335189021</v>
       </c>
       <c r="E213" t="n">
-        <v>0.917136003965508</v>
+        <v>0.919870586423524</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -5129,13 +5129,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>4.55177314874862</v>
+        <v>4.3866374267974</v>
       </c>
       <c r="D234" t="n">
-        <v>4.5057141185544</v>
+        <v>4.63642057288882</v>
       </c>
       <c r="E234" t="n">
-        <v>4.5433987796224</v>
+        <v>4.43205254426857</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -5149,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1052.63585889239</v>
+        <v>1021.0686166066</v>
       </c>
       <c r="D235" t="n">
-        <v>1286.40358364318</v>
+        <v>1239.53983504432</v>
       </c>
       <c r="E235" t="n">
-        <v>1098.84437738658</v>
+        <v>1064.13208696928</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -5169,13 +5169,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>0.446986071797718</v>
+        <v>0.429705520333813</v>
       </c>
       <c r="D236" t="n">
-        <v>0.792321231555124</v>
+        <v>0.675393735614359</v>
       </c>
       <c r="E236" t="n">
-        <v>0.757754035006981</v>
+        <v>0.651560015557757</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -5189,13 +5189,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0.892800058092655</v>
+        <v>0.899210573905469</v>
       </c>
       <c r="D237" t="n">
-        <v>0.64510085291507</v>
+        <v>0.677348337621064</v>
       </c>
       <c r="E237" t="n">
-        <v>0.897317344545277</v>
+        <v>0.904352780495533</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -5609,13 +5609,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>3.94241348218251</v>
+        <v>4.27701901071817</v>
       </c>
       <c r="D258" t="n">
-        <v>15.280361703537</v>
+        <v>11.3226531091821</v>
       </c>
       <c r="E258" t="n">
-        <v>6.00385861333788</v>
+        <v>5.55804339225707</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>453.946608184271</v>
+        <v>512.259642459433</v>
       </c>
       <c r="D259" t="n">
-        <v>1957.94332216834</v>
+        <v>1421.88841325747</v>
       </c>
       <c r="E259" t="n">
-        <v>930.380753601118</v>
+        <v>763.081241424035</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5649,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.479872666981619</v>
+        <v>0.521011613057574</v>
       </c>
       <c r="D260" t="n">
-        <v>3.64106963381711</v>
+        <v>2.04062016425673</v>
       </c>
       <c r="E260" t="n">
-        <v>1.03756098947897</v>
+        <v>0.884192330694562</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.919875634679029</v>
+        <v>0.897162164797027</v>
       </c>
       <c r="D261" t="n">
-        <v>0.278224462159447</v>
+        <v>0.508394154427668</v>
       </c>
       <c r="E261" t="n">
-        <v>0.771822810687581</v>
+        <v>0.818471727826759</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
-        <v>10.7610853539534</v>
+        <v>10.1733380835902</v>
       </c>
       <c r="D282" t="n">
-        <v>10.3319804007076</v>
+        <v>11.9759024560728</v>
       </c>
       <c r="E282" t="n">
-        <v>10.6830662715451</v>
+        <v>10.5010770604052</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -6109,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>490.375725100816</v>
+        <v>495.41165818844</v>
       </c>
       <c r="D283" t="n">
-        <v>719.343819144711</v>
+        <v>794.688804631857</v>
       </c>
       <c r="E283" t="n">
-        <v>539.286247670917</v>
+        <v>561.811598316763</v>
       </c>
       <c r="F283" t="s">
         <v>27</v>
@@ -6129,13 +6129,13 @@
         <v>10</v>
       </c>
       <c r="C284" t="n">
-        <v>0.393573371403374</v>
+        <v>0.385273003071962</v>
       </c>
       <c r="D284" t="n">
-        <v>0.782654995029804</v>
+        <v>0.877408062831466</v>
       </c>
       <c r="E284" t="n">
-        <v>0.533937640881359</v>
+        <v>0.568576231480436</v>
       </c>
       <c r="F284" t="s">
         <v>27</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="n">
-        <v>0.872716294830806</v>
+        <v>0.871865008071598</v>
       </c>
       <c r="D285" t="n">
-        <v>0.824659677139631</v>
+        <v>0.827637074786855</v>
       </c>
       <c r="E285" t="n">
-        <v>0.888096852530873</v>
+        <v>0.88469199377788</v>
       </c>
       <c r="F285" t="s">
         <v>27</v>
@@ -6569,13 +6569,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.11066135577775</v>
+        <v>3.84386699002479</v>
       </c>
       <c r="D306" t="n">
-        <v>5.84832796956775</v>
+        <v>6.23910450120514</v>
       </c>
       <c r="E306" t="n">
-        <v>3.60841892192139</v>
+        <v>4.27936471933031</v>
       </c>
       <c r="F306" t="s">
         <v>28</v>
@@ -6589,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>4737.3966124833</v>
+        <v>5965.29488229414</v>
       </c>
       <c r="D307" t="n">
-        <v>6294.68606441401</v>
+        <v>6643.4801083814</v>
       </c>
       <c r="E307" t="n">
-        <v>5056.34152035181</v>
+        <v>6094.21740218053</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>10</v>
       </c>
       <c r="C308" t="n">
-        <v>0.372508100214999</v>
+        <v>0.462776041771475</v>
       </c>
       <c r="D308" t="n">
-        <v>0.869312908425409</v>
+        <v>1.30631821503491</v>
       </c>
       <c r="E308" t="n">
-        <v>0.563652145105536</v>
+        <v>0.725900043328649</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -6629,13 +6629,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.908508269425044</v>
+        <v>0.85312269641414</v>
       </c>
       <c r="D309" t="n">
-        <v>0.629538337621719</v>
+        <v>0.625529108111896</v>
       </c>
       <c r="E309" t="n">
-        <v>0.902818192636364</v>
+        <v>0.857528755729717</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -7049,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>10.0434848607599</v>
+        <v>10.1680873710804</v>
       </c>
       <c r="D330" t="n">
-        <v>12.1950621866232</v>
+        <v>8.97888717862725</v>
       </c>
       <c r="E330" t="n">
-        <v>10.4346807381896</v>
+        <v>9.95186915427073</v>
       </c>
       <c r="F330" t="s">
         <v>29</v>
@@ -7069,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>2709.07061707289</v>
+        <v>3622.74285867549</v>
       </c>
       <c r="D331" t="n">
-        <v>3190.21990407904</v>
+        <v>2517.6194936419</v>
       </c>
       <c r="E331" t="n">
-        <v>2802.70289262077</v>
+        <v>3448.25658466169</v>
       </c>
       <c r="F331" t="s">
         <v>29</v>
@@ -7089,13 +7089,13 @@
         <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.341090508896476</v>
+        <v>0.411051878230571</v>
       </c>
       <c r="D332" t="n">
-        <v>0.58690700104904</v>
+        <v>0.374533434223719</v>
       </c>
       <c r="E332" t="n">
-        <v>0.36688872070541</v>
+        <v>0.417687922017616</v>
       </c>
       <c r="F332" t="s">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="C333" t="n">
-        <v>0.961056650157613</v>
+        <v>0.933790035478854</v>
       </c>
       <c r="D333" t="n">
-        <v>0.818238110193003</v>
+        <v>0.89835560516415</v>
       </c>
       <c r="E333" t="n">
-        <v>0.952180105952989</v>
+        <v>0.930856725449002</v>
       </c>
       <c r="F333" t="s">
         <v>29</v>
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>12.9908488122027</v>
+        <v>13.0760898751992</v>
       </c>
       <c r="D354" t="n">
-        <v>18.3493673860336</v>
+        <v>18.9065364848188</v>
       </c>
       <c r="E354" t="n">
-        <v>13.9801137796792</v>
+        <v>14.1361710769482</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -7549,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>509.769249488013</v>
+        <v>680.751612241798</v>
       </c>
       <c r="D355" t="n">
-        <v>1466.81140130247</v>
+        <v>1240.45461185913</v>
       </c>
       <c r="E355" t="n">
-        <v>780.446190854362</v>
+        <v>811.746719695109</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -7569,13 +7569,13 @@
         <v>10</v>
       </c>
       <c r="C356" t="n">
-        <v>0.217470909541856</v>
+        <v>0.283468415358345</v>
       </c>
       <c r="D356" t="n">
-        <v>0.482735453202014</v>
+        <v>0.450162521394026</v>
       </c>
       <c r="E356" t="n">
-        <v>0.284467159853197</v>
+        <v>0.346030756301494</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -7589,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="C357" t="n">
-        <v>0.96550812335551</v>
+        <v>0.943540081199644</v>
       </c>
       <c r="D357" t="n">
-        <v>0.831909921339055</v>
+        <v>0.894943343513438</v>
       </c>
       <c r="E357" t="n">
-        <v>0.93514521675096</v>
+        <v>0.930592725072908</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -8009,13 +8009,13 @@
         <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>45.4684283741638</v>
+        <v>13.880823752845</v>
       </c>
       <c r="D378" t="n">
-        <v>134.491363699794</v>
+        <v>62.2485125001926</v>
       </c>
       <c r="E378" t="n">
-        <v>54.3707219067268</v>
+        <v>18.7175926275798</v>
       </c>
       <c r="F378" t="s">
         <v>31</v>
@@ -8029,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>901.629921660943</v>
+        <v>987.490639906611</v>
       </c>
       <c r="D379" t="n">
-        <v>430.45216917463</v>
+        <v>246.66381840774</v>
       </c>
       <c r="E379" t="n">
-        <v>866.124570177755</v>
+        <v>940.057600067144</v>
       </c>
       <c r="F379" t="s">
         <v>31</v>
@@ -8049,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>0.400594251903166</v>
+        <v>0.33134199672264</v>
       </c>
       <c r="D380" t="n">
-        <v>1.47565944630191</v>
+        <v>2.99942130740006</v>
       </c>
       <c r="E380" t="n">
-        <v>0.372574616179063</v>
+        <v>0.343984935661943</v>
       </c>
       <c r="F380" t="s">
         <v>31</v>
@@ -8069,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="C381" t="n">
-        <v>0.951607643313927</v>
+        <v>0.941781576790865</v>
       </c>
       <c r="D381" t="n">
-        <v>0.245911484660137</v>
+        <v>0.22420117544306</v>
       </c>
       <c r="E381" t="n">
-        <v>0.952083040663351</v>
+        <v>0.943084094028953</v>
       </c>
       <c r="F381" t="s">
         <v>31</v>
@@ -8489,13 +8489,13 @@
         <v>7</v>
       </c>
       <c r="C402" t="n">
-        <v>14.8271597209622</v>
+        <v>11.5260091817122</v>
       </c>
       <c r="D402" t="n">
-        <v>67.0848213942963</v>
+        <v>71.1500034571175</v>
       </c>
       <c r="E402" t="n">
-        <v>24.3285527524775</v>
+        <v>22.3667354136041</v>
       </c>
       <c r="F402" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="n">
-        <v>55.4619158149276</v>
+        <v>51.3886692094166</v>
       </c>
       <c r="D403" t="n">
-        <v>1462.71065993304</v>
+        <v>1486.54394018185</v>
       </c>
       <c r="E403" t="n">
-        <v>625.716256222802</v>
+        <v>635.566528245813</v>
       </c>
       <c r="F403" t="s">
         <v>32</v>
@@ -8529,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="C404" t="n">
-        <v>0.511975984342482</v>
+        <v>0.446355574979316</v>
       </c>
       <c r="D404" t="n">
-        <v>8.62465975625513</v>
+        <v>9.06136146275696</v>
       </c>
       <c r="E404" t="n">
-        <v>3.24812629327412</v>
+        <v>3.34516206150357</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -8549,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="C405" t="n">
-        <v>0.963789375087691</v>
+        <v>0.971818899583866</v>
       </c>
       <c r="D405" t="n">
-        <v>0.666256568790227</v>
+        <v>0.91482745877103</v>
       </c>
       <c r="E405" t="n">
-        <v>0.768485576092935</v>
+        <v>0.784988339210618</v>
       </c>
       <c r="F405" t="s">
         <v>32</v>
@@ -8969,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>9.94655322692042</v>
+        <v>8.91093361485745</v>
       </c>
       <c r="D426" t="n">
-        <v>12.9341513041469</v>
+        <v>10.6494765024785</v>
       </c>
       <c r="E426" t="n">
-        <v>10.4897528773252</v>
+        <v>9.22703232169765</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8989,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>427.310323018879</v>
+        <v>386.668217192072</v>
       </c>
       <c r="D427" t="n">
-        <v>490.535292397219</v>
+        <v>428.764981701424</v>
       </c>
       <c r="E427" t="n">
-        <v>439.482831974226</v>
+        <v>394.656307407909</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9009,13 +9009,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.394957234367547</v>
+        <v>0.347310957312554</v>
       </c>
       <c r="D428" t="n">
-        <v>0.574887335966932</v>
+        <v>0.531389754310072</v>
       </c>
       <c r="E428" t="n">
-        <v>0.452151874886782</v>
+        <v>0.398621484297059</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9029,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.942718116089072</v>
+        <v>0.953337879218696</v>
       </c>
       <c r="D429" t="n">
-        <v>0.88834492649676</v>
+        <v>0.918326998455434</v>
       </c>
       <c r="E429" t="n">
-        <v>0.933715425129327</v>
+        <v>0.947141562849918</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9449,13 +9449,13 @@
         <v>7</v>
       </c>
       <c r="C450" t="n">
-        <v>8.11013204331137</v>
+        <v>7.98276272414451</v>
       </c>
       <c r="D450" t="n">
-        <v>22.9109597680512</v>
+        <v>15.6015371768747</v>
       </c>
       <c r="E450" t="n">
-        <v>10.8011916296277</v>
+        <v>9.36799444282272</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -9469,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>119.112778530128</v>
+        <v>129.515128702638</v>
       </c>
       <c r="D451" t="n">
-        <v>240.591473891816</v>
+        <v>198.706435252731</v>
       </c>
       <c r="E451" t="n">
-        <v>148.770476268701</v>
+        <v>144.579645206196</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -9489,13 +9489,13 @@
         <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>0.25223749060451</v>
+        <v>0.260949395695949</v>
       </c>
       <c r="D452" t="n">
-        <v>0.72935769896615</v>
+        <v>0.486477117066668</v>
       </c>
       <c r="E452" t="n">
-        <v>0.330123576720652</v>
+        <v>0.301771480266884</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -9509,13 +9509,13 @@
         <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>0.943764902170537</v>
+        <v>0.934254441862418</v>
       </c>
       <c r="D453" t="n">
-        <v>0.882413969612342</v>
+        <v>0.885494610094402</v>
       </c>
       <c r="E453" t="n">
-        <v>0.911311719379384</v>
+        <v>0.913297996967829</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -9926,14 +9926,14 @@
       <c r="B474" t="s">
         <v>7</v>
       </c>
-      <c r="C474" t="n">
-        <v>135.696076072863</v>
-      </c>
-      <c r="D474" t="n">
-        <v>112.271685034716</v>
-      </c>
-      <c r="E474" t="n">
-        <v>131.437095884109</v>
+      <c r="C474" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D474" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E474" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="F474" t="s">
         <v>35</v>
@@ -9946,14 +9946,14 @@
       <c r="B475" t="s">
         <v>9</v>
       </c>
-      <c r="C475" t="n">
-        <v>2132.96077420263</v>
-      </c>
-      <c r="D475" t="n">
-        <v>2714.90017868588</v>
-      </c>
-      <c r="E475" t="n">
-        <v>2249.99113006416</v>
+      <c r="C475" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D475" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E475" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="F475" t="s">
         <v>35</v>
@@ -9967,13 +9967,13 @@
         <v>10</v>
       </c>
       <c r="C476" t="n">
-        <v>0.880618135587242</v>
-      </c>
-      <c r="D476" t="n">
-        <v>0.757686484629272</v>
-      </c>
-      <c r="E476" t="n">
-        <v>1.02589002437908</v>
+        <v>3.37191940041109e+275</v>
+      </c>
+      <c r="D476" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E476" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="F476" t="s">
         <v>35</v>
@@ -9987,13 +9987,13 @@
         <v>11</v>
       </c>
       <c r="C477" t="n">
-        <v>0.667958856592423</v>
-      </c>
-      <c r="D477" t="n">
-        <v>0.254443669069998</v>
-      </c>
-      <c r="E477" t="n">
-        <v>0.412114348683349</v>
+        <v>0.000344636519649258</v>
+      </c>
+      <c r="D477" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E477" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="F477" t="s">
         <v>35</v>
@@ -10407,13 +10407,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="n">
-        <v>14.0373798163983</v>
+        <v>11.5136663987347</v>
       </c>
       <c r="D498" t="n">
-        <v>20.2887098657312</v>
+        <v>12.3354919844093</v>
       </c>
       <c r="E498" t="n">
-        <v>15.1739852799134</v>
+        <v>11.6630892324937</v>
       </c>
       <c r="F498" t="s">
         <v>36</v>
@@ -10427,13 +10427,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="n">
-        <v>89.0622678063459</v>
+        <v>123.306169303198</v>
       </c>
       <c r="D499" t="n">
-        <v>61.7986644355611</v>
+        <v>36.8259154310135</v>
       </c>
       <c r="E499" t="n">
-        <v>84.7600558653778</v>
+        <v>112.634565415097</v>
       </c>
       <c r="F499" t="s">
         <v>36</v>
@@ -10447,13 +10447,13 @@
         <v>10</v>
       </c>
       <c r="C500" t="n">
-        <v>0.55743820250091</v>
+        <v>0.57104255402222</v>
       </c>
       <c r="D500" t="n">
-        <v>1.53479698620006</v>
+        <v>1.41917595476625</v>
       </c>
       <c r="E500" t="n">
-        <v>0.558558477432275</v>
+        <v>0.701919397727834</v>
       </c>
       <c r="F500" t="s">
         <v>36</v>
@@ -10467,13 +10467,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="n">
-        <v>0.957806812662914</v>
+        <v>0.924900780740058</v>
       </c>
       <c r="D501" t="n">
-        <v>0.0676766361476914</v>
+        <v>0.0928695671623479</v>
       </c>
       <c r="E501" t="n">
-        <v>0.955517070822774</v>
+        <v>0.92610352137743</v>
       </c>
       <c r="F501" t="s">
         <v>36</v>
@@ -10887,13 +10887,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>16.8118632744348</v>
+        <v>15.4327747699942</v>
       </c>
       <c r="D522" t="n">
-        <v>38.2726418686083</v>
+        <v>33.4422703668985</v>
       </c>
       <c r="E522" t="n">
-        <v>20.71382301883</v>
+        <v>18.7072285148859</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10907,13 +10907,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>94.8405077474057</v>
+        <v>97.3037196148625</v>
       </c>
       <c r="D523" t="n">
-        <v>200.781102878659</v>
+        <v>182.860192199602</v>
       </c>
       <c r="E523" t="n">
-        <v>121.198034687941</v>
+        <v>117.584717792028</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10927,13 +10927,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.622447027575266</v>
+        <v>0.583459204460619</v>
       </c>
       <c r="D524" t="n">
-        <v>2.89873026219227</v>
+        <v>1.80493097553185</v>
       </c>
       <c r="E524" t="n">
-        <v>1.49825951132238</v>
+        <v>1.26246932620162</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10947,13 +10947,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.615275387893379</v>
+        <v>0.630544659150437</v>
       </c>
       <c r="D525" t="n">
-        <v>0.318474419146804</v>
+        <v>0.331627708439924</v>
       </c>
       <c r="E525" t="n">
-        <v>0.428936865886444</v>
+        <v>0.411366092293048</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -11367,13 +11367,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>16.8145722325058</v>
+        <v>26.4961423040533</v>
       </c>
       <c r="D546" t="n">
-        <v>31.4957370054169</v>
+        <v>25.0430193268668</v>
       </c>
       <c r="E546" t="n">
-        <v>19.4838749184897</v>
+        <v>26.2278734467265</v>
       </c>
       <c r="F546" t="s">
         <v>38</v>
@@ -11387,13 +11387,13 @@
         <v>9</v>
       </c>
       <c r="C547" t="n">
-        <v>35.8576479825716</v>
+        <v>167.266687551694</v>
       </c>
       <c r="D547" t="n">
-        <v>29.7852433713519</v>
+        <v>27.0792925242422</v>
       </c>
       <c r="E547" t="n">
-        <v>34.8324035593812</v>
+        <v>151.487045880433</v>
       </c>
       <c r="F547" t="s">
         <v>38</v>
@@ -11407,13 +11407,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="n">
-        <v>0.702440386305538</v>
+        <v>1.96523400730023</v>
       </c>
       <c r="D548" t="n">
-        <v>1.41937903246862</v>
+        <v>2.0855354826771</v>
       </c>
       <c r="E548" t="n">
-        <v>0.738904429112853</v>
+        <v>0.950886358692002</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -11427,13 +11427,13 @@
         <v>11</v>
       </c>
       <c r="C549" t="n">
-        <v>0.802360419633442</v>
+        <v>0.49611095914542</v>
       </c>
       <c r="D549" t="n">
-        <v>0.790575996328751</v>
+        <v>0.824160301841306</v>
       </c>
       <c r="E549" t="n">
-        <v>0.815290079116985</v>
+        <v>0.514187119450767</v>
       </c>
       <c r="F549" t="s">
         <v>38</v>
@@ -11839,13 +11839,13 @@
         <v>7</v>
       </c>
       <c r="C570" t="n">
-        <v>82.7212962627105</v>
+        <v>195.831605800822</v>
       </c>
       <c r="D570" t="n">
-        <v>82.3729597840787</v>
+        <v>190.001062843838</v>
       </c>
       <c r="E570" t="n">
-        <v>82.6579623575047</v>
+        <v>194.77150708137</v>
       </c>
       <c r="F570" t="s">
         <v>39</v>
@@ -11859,13 +11859,13 @@
         <v>9</v>
       </c>
       <c r="C571" t="n">
-        <v>102.435939746477</v>
+        <v>25132812280289396716428264408820206848622622268684800882466444088644</v>
       </c>
       <c r="D571" t="n">
-        <v>133.950712103951</v>
+        <v>258860.033042724</v>
       </c>
       <c r="E571" t="n">
-        <v>108.8467155357</v>
+        <v>22733484070951756822468260806062644006666008808806004028880406020220</v>
       </c>
       <c r="F571" t="s">
         <v>39</v>
@@ -11879,13 +11879,13 @@
         <v>10</v>
       </c>
       <c r="C572" t="n">
-        <v>0.373871180605575</v>
+        <v>26462841879519101242624800460440060280020446608280480248200646882</v>
       </c>
       <c r="D572" t="n">
-        <v>0.785617317794289</v>
+        <v>0.667112969825098</v>
       </c>
       <c r="E572" t="n">
-        <v>0.396409760698374</v>
+        <v>0.806073420216093</v>
       </c>
       <c r="F572" t="s">
         <v>39</v>
@@ -11899,13 +11899,13 @@
         <v>11</v>
       </c>
       <c r="C573" t="n">
-        <v>0.893005205941279</v>
+        <v>0.00616259450187614</v>
       </c>
       <c r="D573" t="n">
-        <v>0.572966821081664</v>
+        <v>0.0120462641081948</v>
       </c>
       <c r="E573" t="n">
-        <v>0.865927006257824</v>
+        <v>0.00476649395764625</v>
       </c>
       <c r="F573" t="s">
         <v>39</v>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>16.0780150564974</v>
+        <v>15.7314716337961</v>
       </c>
       <c r="D18" t="n">
-        <v>32.8619936713916</v>
+        <v>31.4269267484058</v>
       </c>
       <c r="E18" t="n">
-        <v>19.1296475319327</v>
+        <v>18.5851907455434</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>33623.9492554707</v>
+        <v>33158.5553213541</v>
       </c>
       <c r="D19" t="n">
-        <v>48913.7001912689</v>
+        <v>49550.544357256</v>
       </c>
       <c r="E19" t="n">
-        <v>36878.4610759241</v>
+        <v>36687.7747921497</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.378383947294246</v>
+        <v>0.370763179282585</v>
       </c>
       <c r="D20" t="n">
-        <v>0.841635701923002</v>
+        <v>0.859068104020242</v>
       </c>
       <c r="E20" t="n">
-        <v>0.465297083038966</v>
+        <v>0.459043550285663</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.915113441837072</v>
+        <v>0.917226965477708</v>
       </c>
       <c r="D21" t="n">
-        <v>0.879993807714243</v>
+        <v>0.89261480279655</v>
       </c>
       <c r="E21" t="n">
-        <v>0.899364297739192</v>
+        <v>0.900620245361819</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.37626630539793</v>
+        <v>9.49656519990927</v>
       </c>
       <c r="D42" t="n">
-        <v>29.3955896682415</v>
+        <v>24.2123675868813</v>
       </c>
       <c r="E42" t="n">
-        <v>13.0161432804604</v>
+        <v>12.1721656339042</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10831.0529686758</v>
+        <v>10917.8494223707</v>
       </c>
       <c r="D43" t="n">
-        <v>38817.7868219481</v>
+        <v>33062.9623364052</v>
       </c>
       <c r="E43" t="n">
-        <v>19234.0761131733</v>
+        <v>17212.8754161295</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.489586789648248</v>
+        <v>0.495655526001452</v>
       </c>
       <c r="D44" t="n">
-        <v>2.44563663332154</v>
+        <v>1.83275001495256</v>
       </c>
       <c r="E44" t="n">
-        <v>0.960673322303642</v>
+        <v>0.858332094027611</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.828439997142365</v>
+        <v>0.82559437704227</v>
       </c>
       <c r="D45" t="n">
-        <v>0.394172009219285</v>
+        <v>0.32447328796934</v>
       </c>
       <c r="E45" t="n">
-        <v>0.717421250263122</v>
+        <v>0.736339630779885</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>4.53131815716746</v>
+        <v>4.52934434120734</v>
       </c>
       <c r="D66" t="n">
-        <v>6.33967366400724</v>
+        <v>6.36090007387906</v>
       </c>
       <c r="E66" t="n">
-        <v>4.86011006750196</v>
+        <v>4.86235447442038</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1138.59963248511</v>
+        <v>1138.03149670935</v>
       </c>
       <c r="D67" t="n">
-        <v>516.645765833161</v>
+        <v>518.977842254676</v>
       </c>
       <c r="E67" t="n">
-        <v>1053.19979122342</v>
+        <v>1052.90581418651</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.20120399759669</v>
+        <v>0.201037629089976</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30366714546351</v>
+        <v>0.305245673121726</v>
       </c>
       <c r="E68" t="n">
-        <v>0.21612738260011</v>
+        <v>0.216016656358734</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.985267417420854</v>
+        <v>0.985280355891996</v>
       </c>
       <c r="D69" t="n">
-        <v>0.989604611172834</v>
+        <v>0.989545323466472</v>
       </c>
       <c r="E69" t="n">
-        <v>0.987025623163525</v>
+        <v>0.987032771474078</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>14.0364126814304</v>
+        <v>13.9563900239351</v>
       </c>
       <c r="D90" t="n">
-        <v>13.5685772895892</v>
+        <v>13.5514164764936</v>
       </c>
       <c r="E90" t="n">
-        <v>13.950702380635</v>
+        <v>13.8821963969229</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>15799.0729563447</v>
+        <v>15721.4354404347</v>
       </c>
       <c r="D91" t="n">
-        <v>779.980281617965</v>
+        <v>786.961719803881</v>
       </c>
       <c r="E91" t="n">
-        <v>14282.5753108177</v>
+        <v>14212.4988984383</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.455216247312323</v>
+        <v>0.453214902596133</v>
       </c>
       <c r="D92" t="n">
-        <v>0.877149557073744</v>
+        <v>0.872614038598659</v>
       </c>
       <c r="E92" t="n">
-        <v>1.23896067150969</v>
+        <v>1.22497923846568</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.936684475676843</v>
+        <v>0.939857959248328</v>
       </c>
       <c r="D93" t="n">
-        <v>0.663401842938592</v>
+        <v>0.66478544343219</v>
       </c>
       <c r="E93" t="n">
-        <v>0.930454343723809</v>
+        <v>0.933649759243093</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2731,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.07089180825413</v>
+        <v>5.11997931692691</v>
       </c>
       <c r="D114" t="n">
-        <v>6.45272810622678</v>
+        <v>6.28865647487668</v>
       </c>
       <c r="E114" t="n">
-        <v>5.32213477152188</v>
+        <v>5.33246607291778</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -2751,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>167.095400844018</v>
+        <v>169.12594756774</v>
       </c>
       <c r="D115" t="n">
-        <v>207.626824112366</v>
+        <v>199.46318821461</v>
       </c>
       <c r="E115" t="n">
-        <v>175.163729389751</v>
+        <v>175.03334803601</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -2771,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>0.352547254806449</v>
+        <v>0.3562029411275</v>
       </c>
       <c r="D116" t="n">
-        <v>0.657666529495074</v>
+        <v>0.637210605771501</v>
       </c>
       <c r="E116" t="n">
-        <v>0.426911727539713</v>
+        <v>0.42784574163839</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.915075154368433</v>
+        <v>0.913018414970292</v>
       </c>
       <c r="D117" t="n">
-        <v>0.782359263762496</v>
+        <v>0.775359263430835</v>
       </c>
       <c r="E117" t="n">
-        <v>0.899243397964756</v>
+        <v>0.898705434323225</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>6.45839843204516</v>
+        <v>6.46301650292259</v>
       </c>
       <c r="D138" t="n">
-        <v>13.986913149536</v>
+        <v>13.990630143338</v>
       </c>
       <c r="E138" t="n">
-        <v>7.82721928977076</v>
+        <v>7.83167352845266</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>209.294926022273</v>
+        <v>209.814365794915</v>
       </c>
       <c r="D139" t="n">
-        <v>314.210406105617</v>
+        <v>313.799479508498</v>
       </c>
       <c r="E139" t="n">
-        <v>231.9278204995</v>
+        <v>232.210492192069</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.646831999546933</v>
+        <v>0.646099579803371</v>
       </c>
       <c r="D140" t="n">
-        <v>3.44602713355322</v>
+        <v>3.48314067810235</v>
       </c>
       <c r="E140" t="n">
-        <v>1.02474990715812</v>
+        <v>1.03570523860152</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.919554894098626</v>
+        <v>0.91912930474006</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00111550188242118</v>
+        <v>0.00110251658606073</v>
       </c>
       <c r="E141" t="n">
-        <v>0.908160432276663</v>
+        <v>0.907815307330008</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>6.8276280543933</v>
+        <v>6.82675538633342</v>
       </c>
       <c r="D162" t="n">
-        <v>13.2528624679762</v>
+        <v>13.3141172672645</v>
       </c>
       <c r="E162" t="n">
-        <v>7.99585249322655</v>
+        <v>8.00627572832089</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>91.1703188828413</v>
+        <v>90.8727348214579</v>
       </c>
       <c r="D163" t="n">
-        <v>137.496463142915</v>
+        <v>140.820137658493</v>
       </c>
       <c r="E163" t="n">
-        <v>101.183361082925</v>
+        <v>101.793600328264</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.415063071621698</v>
+        <v>0.415451075735873</v>
       </c>
       <c r="D164" t="n">
-        <v>0.972231460942441</v>
+        <v>0.973230273947713</v>
       </c>
       <c r="E164" t="n">
-        <v>0.511922160396744</v>
+        <v>0.514863406197701</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.938152982496327</v>
+        <v>0.938593488698184</v>
       </c>
       <c r="D165" t="n">
-        <v>0.717354849256814</v>
+        <v>0.704234178534523</v>
       </c>
       <c r="E165" t="n">
-        <v>0.920914093561535</v>
+        <v>0.919935354490327</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -4169,13 +4169,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>3.72741833231512</v>
+        <v>3.72755203261455</v>
       </c>
       <c r="D186" t="n">
-        <v>6.67476757049609</v>
+        <v>6.69149919341081</v>
       </c>
       <c r="E186" t="n">
-        <v>4.26330001198439</v>
+        <v>4.26645151639569</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>5483.07096162511</v>
+        <v>5459.33903592214</v>
       </c>
       <c r="D187" t="n">
-        <v>8521.06707994849</v>
+        <v>8509.97018793116</v>
       </c>
       <c r="E187" t="n">
-        <v>6148.12442127244</v>
+        <v>6128.0178434143</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
@@ -4209,13 +4209,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0.460687355818529</v>
+        <v>0.460733990738179</v>
       </c>
       <c r="D188" t="n">
-        <v>1.94229840997219</v>
+        <v>1.99165962839902</v>
       </c>
       <c r="E188" t="n">
-        <v>1.02206074416203</v>
+        <v>1.03092063781415</v>
       </c>
       <c r="F188" t="s">
         <v>23</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0.736573973769731</v>
+        <v>0.738910699998749</v>
       </c>
       <c r="D189" t="n">
-        <v>0.505899810829501</v>
+        <v>0.490764100739083</v>
       </c>
       <c r="E189" t="n">
-        <v>0.657159792659876</v>
+        <v>0.6591772602565</v>
       </c>
       <c r="F189" t="s">
         <v>23</v>
@@ -4649,13 +4649,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.19200847100418</v>
+        <v>4.17935549221474</v>
       </c>
       <c r="D210" t="n">
-        <v>4.93289985700081</v>
+        <v>4.91759730239689</v>
       </c>
       <c r="E210" t="n">
-        <v>4.32671599573084</v>
+        <v>4.31358127588422</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4669,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1826.05722908471</v>
+        <v>1816.71609322167</v>
       </c>
       <c r="D211" t="n">
-        <v>2747.84415000112</v>
+        <v>2758.49613365937</v>
       </c>
       <c r="E211" t="n">
-        <v>2025.10740411967</v>
+        <v>2020.86205973326</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4689,13 +4689,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.437845747939069</v>
+        <v>0.437070033924799</v>
       </c>
       <c r="D212" t="n">
-        <v>0.945612299472551</v>
+        <v>0.951089091013132</v>
       </c>
       <c r="E212" t="n">
-        <v>0.690830650880103</v>
+        <v>0.694787092572362</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.900748636898263</v>
+        <v>0.901775256236565</v>
       </c>
       <c r="D213" t="n">
-        <v>0.759871335189021</v>
+        <v>0.757563364173112</v>
       </c>
       <c r="E213" t="n">
-        <v>0.919870586423524</v>
+        <v>0.92016291169018</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -5129,13 +5129,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>4.3866374267974</v>
+        <v>4.39075832620909</v>
       </c>
       <c r="D234" t="n">
-        <v>4.63642057288882</v>
+        <v>4.65164829031781</v>
       </c>
       <c r="E234" t="n">
-        <v>4.43205254426857</v>
+        <v>4.43819286513795</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -5149,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1021.0686166066</v>
+        <v>1020.20324651761</v>
       </c>
       <c r="D235" t="n">
-        <v>1239.53983504432</v>
+        <v>1240.2440377546</v>
       </c>
       <c r="E235" t="n">
-        <v>1064.13208696928</v>
+        <v>1063.60204982098</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -5169,13 +5169,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>0.429705520333813</v>
+        <v>0.430536571993816</v>
       </c>
       <c r="D236" t="n">
-        <v>0.675393735614359</v>
+        <v>0.677736317998024</v>
       </c>
       <c r="E236" t="n">
-        <v>0.651560015557757</v>
+        <v>0.653411010606952</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -5189,13 +5189,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0.899210573905469</v>
+        <v>0.899396182648545</v>
       </c>
       <c r="D237" t="n">
-        <v>0.677348337621064</v>
+        <v>0.674050418023188</v>
       </c>
       <c r="E237" t="n">
-        <v>0.904352780495533</v>
+        <v>0.904428634536546</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -5609,13 +5609,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>4.27701901071817</v>
+        <v>4.32049397637046</v>
       </c>
       <c r="D258" t="n">
-        <v>11.3226531091821</v>
+        <v>11.4673743578008</v>
       </c>
       <c r="E258" t="n">
-        <v>5.55804339225707</v>
+        <v>5.61992677299415</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>512.259642459433</v>
+        <v>515.032710440191</v>
       </c>
       <c r="D259" t="n">
-        <v>1421.88841325747</v>
+        <v>1440.97295772061</v>
       </c>
       <c r="E259" t="n">
-        <v>763.081241424035</v>
+        <v>771.075657482011</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5649,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.521011613057574</v>
+        <v>0.526787667483806</v>
       </c>
       <c r="D260" t="n">
-        <v>2.04062016425673</v>
+        <v>2.05740909857915</v>
       </c>
       <c r="E260" t="n">
-        <v>0.884192330694562</v>
+        <v>0.900797339217041</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.897162164797027</v>
+        <v>0.896045080796709</v>
       </c>
       <c r="D261" t="n">
-        <v>0.508394154427668</v>
+        <v>0.517369326321569</v>
       </c>
       <c r="E261" t="n">
-        <v>0.818471727826759</v>
+        <v>0.816541176989824</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
-        <v>10.1733380835902</v>
+        <v>10.2002818056502</v>
       </c>
       <c r="D282" t="n">
-        <v>11.9759024560728</v>
+        <v>11.9900126642425</v>
       </c>
       <c r="E282" t="n">
-        <v>10.5010770604052</v>
+        <v>10.5256874163033</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -6109,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>495.41165818844</v>
+        <v>494.890011595361</v>
       </c>
       <c r="D283" t="n">
-        <v>794.688804631857</v>
+        <v>801.769594686913</v>
       </c>
       <c r="E283" t="n">
-        <v>561.811598316763</v>
+        <v>563.262741704772</v>
       </c>
       <c r="F283" t="s">
         <v>27</v>
@@ -6129,13 +6129,13 @@
         <v>10</v>
       </c>
       <c r="C284" t="n">
-        <v>0.385273003071962</v>
+        <v>0.385704231638264</v>
       </c>
       <c r="D284" t="n">
-        <v>0.877408062831466</v>
+        <v>0.90026340684733</v>
       </c>
       <c r="E284" t="n">
-        <v>0.568576231480436</v>
+        <v>0.57311424232967</v>
       </c>
       <c r="F284" t="s">
         <v>27</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="n">
-        <v>0.871865008071598</v>
+        <v>0.872114977386787</v>
       </c>
       <c r="D285" t="n">
-        <v>0.827637074786855</v>
+        <v>0.828825387447952</v>
       </c>
       <c r="E285" t="n">
-        <v>0.88469199377788</v>
+        <v>0.884428322299961</v>
       </c>
       <c r="F285" t="s">
         <v>27</v>
@@ -6569,13 +6569,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.84386699002479</v>
+        <v>3.84611250391164</v>
       </c>
       <c r="D306" t="n">
-        <v>6.23910450120514</v>
+        <v>6.26017576645651</v>
       </c>
       <c r="E306" t="n">
-        <v>4.27936471933031</v>
+        <v>4.28503309710162</v>
       </c>
       <c r="F306" t="s">
         <v>28</v>
@@ -6589,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>5965.29488229414</v>
+        <v>5941.7236918642</v>
       </c>
       <c r="D307" t="n">
-        <v>6643.4801083814</v>
+        <v>6645.4580008437</v>
       </c>
       <c r="E307" t="n">
-        <v>6094.21740218053</v>
+        <v>6075.74124139373</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>10</v>
       </c>
       <c r="C308" t="n">
-        <v>0.462776041771475</v>
+        <v>0.46281225122396</v>
       </c>
       <c r="D308" t="n">
-        <v>1.30631821503491</v>
+        <v>1.38114252500657</v>
       </c>
       <c r="E308" t="n">
-        <v>0.725900043328649</v>
+        <v>0.73293927614407</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -6629,13 +6629,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.85312269641414</v>
+        <v>0.854288767887082</v>
       </c>
       <c r="D309" t="n">
-        <v>0.625529108111896</v>
+        <v>0.63223079229217</v>
       </c>
       <c r="E309" t="n">
-        <v>0.857528755729717</v>
+        <v>0.858421965337092</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -7049,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>10.1680873710804</v>
+        <v>10.2650538842734</v>
       </c>
       <c r="D330" t="n">
-        <v>8.97888717862725</v>
+        <v>9.3107550325988</v>
       </c>
       <c r="E330" t="n">
-        <v>9.95186915427073</v>
+        <v>10.0915450021507</v>
       </c>
       <c r="F330" t="s">
         <v>29</v>
@@ -7069,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>3622.74285867549</v>
+        <v>3664.45163073257</v>
       </c>
       <c r="D331" t="n">
-        <v>2517.6194936419</v>
+        <v>2565.46686657043</v>
       </c>
       <c r="E331" t="n">
-        <v>3448.25658466169</v>
+        <v>3490.46873998254</v>
       </c>
       <c r="F331" t="s">
         <v>29</v>
@@ -7089,13 +7089,13 @@
         <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.411051878230571</v>
+        <v>0.416295794609993</v>
       </c>
       <c r="D332" t="n">
-        <v>0.374533434223719</v>
+        <v>0.390112402864677</v>
       </c>
       <c r="E332" t="n">
-        <v>0.417687922017616</v>
+        <v>0.424610436347336</v>
       </c>
       <c r="F332" t="s">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="C333" t="n">
-        <v>0.933790035478854</v>
+        <v>0.932560783613068</v>
       </c>
       <c r="D333" t="n">
-        <v>0.89835560516415</v>
+        <v>0.891470385818266</v>
       </c>
       <c r="E333" t="n">
-        <v>0.930856725449002</v>
+        <v>0.92944095522944</v>
       </c>
       <c r="F333" t="s">
         <v>29</v>
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>13.0760898751992</v>
+        <v>13.0066849691155</v>
       </c>
       <c r="D354" t="n">
-        <v>18.9065364848188</v>
+        <v>18.6983989584106</v>
       </c>
       <c r="E354" t="n">
-        <v>14.1361710769482</v>
+        <v>14.0415420580782</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -7549,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>680.751612241798</v>
+        <v>681.014100050169</v>
       </c>
       <c r="D355" t="n">
-        <v>1240.45461185913</v>
+        <v>1230.64336759402</v>
       </c>
       <c r="E355" t="n">
-        <v>811.746719695109</v>
+        <v>809.207695364622</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -7569,13 +7569,13 @@
         <v>10</v>
       </c>
       <c r="C356" t="n">
-        <v>0.283468415358345</v>
+        <v>0.28255833721676</v>
       </c>
       <c r="D356" t="n">
-        <v>0.450162521394026</v>
+        <v>0.444244896040816</v>
       </c>
       <c r="E356" t="n">
-        <v>0.346030756301494</v>
+        <v>0.343859969591151</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -7589,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="C357" t="n">
-        <v>0.943540081199644</v>
+        <v>0.943424047181299</v>
       </c>
       <c r="D357" t="n">
-        <v>0.894943343513438</v>
+        <v>0.895161955697343</v>
       </c>
       <c r="E357" t="n">
-        <v>0.930592725072908</v>
+        <v>0.930864531644386</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -8009,13 +8009,13 @@
         <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>13.880823752845</v>
+        <v>13.7962490316934</v>
       </c>
       <c r="D378" t="n">
-        <v>62.2485125001926</v>
+        <v>62.1288533556115</v>
       </c>
       <c r="E378" t="n">
-        <v>18.7175926275798</v>
+        <v>18.6295094640852</v>
       </c>
       <c r="F378" t="s">
         <v>31</v>
@@ -8029,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>987.490639906611</v>
+        <v>974.579442907406</v>
       </c>
       <c r="D379" t="n">
-        <v>246.66381840774</v>
+        <v>246.591038882144</v>
       </c>
       <c r="E379" t="n">
-        <v>940.057600067144</v>
+        <v>927.849823802126</v>
       </c>
       <c r="F379" t="s">
         <v>31</v>
@@ -8049,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>0.33134199672264</v>
+        <v>0.326996754069183</v>
       </c>
       <c r="D380" t="n">
-        <v>2.99942130740006</v>
+        <v>3.01407985058063</v>
       </c>
       <c r="E380" t="n">
-        <v>0.343984935661943</v>
+        <v>0.339959938043589</v>
       </c>
       <c r="F380" t="s">
         <v>31</v>
@@ -8069,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="C381" t="n">
-        <v>0.941781576790865</v>
+        <v>0.943375416389556</v>
       </c>
       <c r="D381" t="n">
-        <v>0.22420117544306</v>
+        <v>0.223437128683397</v>
       </c>
       <c r="E381" t="n">
-        <v>0.943084094028953</v>
+        <v>0.944626860698182</v>
       </c>
       <c r="F381" t="s">
         <v>31</v>
@@ -8489,13 +8489,13 @@
         <v>7</v>
       </c>
       <c r="C402" t="n">
-        <v>11.5260091817122</v>
+        <v>11.4810162664318</v>
       </c>
       <c r="D402" t="n">
-        <v>71.1500034571175</v>
+        <v>73.2043687969849</v>
       </c>
       <c r="E402" t="n">
-        <v>22.3667354136041</v>
+        <v>22.7034439992596</v>
       </c>
       <c r="F402" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="n">
-        <v>51.3886692094166</v>
+        <v>50.7545645204228</v>
       </c>
       <c r="D403" t="n">
-        <v>1486.54394018185</v>
+        <v>1507.58248252815</v>
       </c>
       <c r="E403" t="n">
-        <v>635.566528245813</v>
+        <v>644.472590264769</v>
       </c>
       <c r="F403" t="s">
         <v>32</v>
@@ -8529,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="C404" t="n">
-        <v>0.446355574979316</v>
+        <v>0.444817263340806</v>
       </c>
       <c r="D404" t="n">
-        <v>9.06136146275696</v>
+        <v>9.1138699975391</v>
       </c>
       <c r="E404" t="n">
-        <v>3.34516206150357</v>
+        <v>3.37336339117863</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -8549,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="C405" t="n">
-        <v>0.971818899583866</v>
+        <v>0.972623093249174</v>
       </c>
       <c r="D405" t="n">
-        <v>0.91482745877103</v>
+        <v>0.891652376582186</v>
       </c>
       <c r="E405" t="n">
-        <v>0.784988339210618</v>
+        <v>0.772028809425855</v>
       </c>
       <c r="F405" t="s">
         <v>32</v>
@@ -8969,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>8.91093361485745</v>
+        <v>8.8805546786844</v>
       </c>
       <c r="D426" t="n">
-        <v>10.6494765024785</v>
+        <v>10.9844966135855</v>
       </c>
       <c r="E426" t="n">
-        <v>9.22703232169765</v>
+        <v>9.26308957593914</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8989,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>386.668217192072</v>
+        <v>384.230739631946</v>
       </c>
       <c r="D427" t="n">
-        <v>428.764981701424</v>
+        <v>445.411202621117</v>
       </c>
       <c r="E427" t="n">
-        <v>394.656307407909</v>
+        <v>396.058034124912</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9009,13 +9009,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.347310957312554</v>
+        <v>0.346010889398621</v>
       </c>
       <c r="D428" t="n">
-        <v>0.531389754310072</v>
+        <v>0.550204749203288</v>
       </c>
       <c r="E428" t="n">
-        <v>0.398621484297059</v>
+        <v>0.400690919559581</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9029,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.953337879218696</v>
+        <v>0.953955146308695</v>
       </c>
       <c r="D429" t="n">
-        <v>0.918326998455434</v>
+        <v>0.918883246423675</v>
       </c>
       <c r="E429" t="n">
-        <v>0.947141562849918</v>
+        <v>0.947023320688933</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9449,13 +9449,13 @@
         <v>7</v>
       </c>
       <c r="C450" t="n">
-        <v>7.98276272414451</v>
+        <v>7.95962935753965</v>
       </c>
       <c r="D450" t="n">
-        <v>15.6015371768747</v>
+        <v>15.8847591538447</v>
       </c>
       <c r="E450" t="n">
-        <v>9.36799444282272</v>
+        <v>9.40056204777694</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -9469,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>129.515128702638</v>
+        <v>128.088615275662</v>
       </c>
       <c r="D451" t="n">
-        <v>198.706435252731</v>
+        <v>204.681077883589</v>
       </c>
       <c r="E451" t="n">
-        <v>144.579645206196</v>
+        <v>145.054512497984</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -9489,13 +9489,13 @@
         <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>0.260949395695949</v>
+        <v>0.258641565592348</v>
       </c>
       <c r="D452" t="n">
-        <v>0.486477117066668</v>
+        <v>0.510980706462894</v>
       </c>
       <c r="E452" t="n">
-        <v>0.301771480266884</v>
+        <v>0.3026145444449</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -9509,13 +9509,13 @@
         <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>0.934254441862418</v>
+        <v>0.935503351971273</v>
       </c>
       <c r="D453" t="n">
-        <v>0.885494610094402</v>
+        <v>0.880753433193581</v>
       </c>
       <c r="E453" t="n">
-        <v>0.913297996967829</v>
+        <v>0.912948434586898</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -10407,13 +10407,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="n">
-        <v>11.5136663987347</v>
+        <v>11.5118636338513</v>
       </c>
       <c r="D498" t="n">
-        <v>12.3354919844093</v>
+        <v>12.320606957324</v>
       </c>
       <c r="E498" t="n">
-        <v>11.6630892324937</v>
+        <v>11.6589078744827</v>
       </c>
       <c r="F498" t="s">
         <v>36</v>
@@ -10427,13 +10427,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="n">
-        <v>123.306169303198</v>
+        <v>123.265125478098</v>
       </c>
       <c r="D499" t="n">
-        <v>36.8259154310135</v>
+        <v>36.8098636130192</v>
       </c>
       <c r="E499" t="n">
-        <v>112.634565415097</v>
+        <v>112.596848232412</v>
       </c>
       <c r="F499" t="s">
         <v>36</v>
@@ -10447,13 +10447,13 @@
         <v>10</v>
       </c>
       <c r="C500" t="n">
-        <v>0.57104255402222</v>
+        <v>0.570863553351305</v>
       </c>
       <c r="D500" t="n">
-        <v>1.41917595476625</v>
+        <v>1.41957627703398</v>
       </c>
       <c r="E500" t="n">
-        <v>0.701919397727834</v>
+        <v>0.700109050464733</v>
       </c>
       <c r="F500" t="s">
         <v>36</v>
@@ -10467,13 +10467,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="n">
-        <v>0.924900780740058</v>
+        <v>0.924890598095241</v>
       </c>
       <c r="D501" t="n">
-        <v>0.0928695671623479</v>
+        <v>0.0927847455092315</v>
       </c>
       <c r="E501" t="n">
-        <v>0.92610352137743</v>
+        <v>0.926098002005184</v>
       </c>
       <c r="F501" t="s">
         <v>36</v>
@@ -10887,13 +10887,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>15.4327747699942</v>
+        <v>15.4583269400086</v>
       </c>
       <c r="D522" t="n">
-        <v>33.4422703668985</v>
+        <v>37.2483192598949</v>
       </c>
       <c r="E522" t="n">
-        <v>18.7072285148859</v>
+        <v>19.4201437254425</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10907,13 +10907,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>97.3037196148625</v>
+        <v>97.5064351241187</v>
       </c>
       <c r="D523" t="n">
-        <v>182.860192199602</v>
+        <v>240.976736909673</v>
       </c>
       <c r="E523" t="n">
-        <v>117.584717792028</v>
+        <v>135.414219569839</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10927,13 +10927,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.583459204460619</v>
+        <v>0.584958908300005</v>
       </c>
       <c r="D524" t="n">
-        <v>1.80493097553185</v>
+        <v>1.72178260528996</v>
       </c>
       <c r="E524" t="n">
-        <v>1.26246932620162</v>
+        <v>1.30206843026573</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10947,13 +10947,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.630544659150437</v>
+        <v>0.630536868640848</v>
       </c>
       <c r="D525" t="n">
-        <v>0.331627708439924</v>
+        <v>0.156443329340927</v>
       </c>
       <c r="E525" t="n">
-        <v>0.411366092293048</v>
+        <v>0.336542938619707</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -11367,13 +11367,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>26.4961423040533</v>
+        <v>26.4872211677876</v>
       </c>
       <c r="D546" t="n">
-        <v>25.0430193268668</v>
+        <v>25.0879857859072</v>
       </c>
       <c r="E546" t="n">
-        <v>26.2278734467265</v>
+        <v>26.2289007895943</v>
       </c>
       <c r="F546" t="s">
         <v>38</v>
@@ -11387,13 +11387,13 @@
         <v>9</v>
       </c>
       <c r="C547" t="n">
-        <v>167.266687551694</v>
+        <v>167.273588655033</v>
       </c>
       <c r="D547" t="n">
-        <v>27.0792925242422</v>
+        <v>27.1048427243835</v>
       </c>
       <c r="E547" t="n">
-        <v>151.487045880433</v>
+        <v>151.494102624523</v>
       </c>
       <c r="F547" t="s">
         <v>38</v>
@@ -11407,13 +11407,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="n">
-        <v>1.96523400730023</v>
+        <v>1.9652658992505</v>
       </c>
       <c r="D548" t="n">
-        <v>2.0855354826771</v>
+        <v>2.08463424708161</v>
       </c>
       <c r="E548" t="n">
-        <v>0.950886358692002</v>
+        <v>0.951150604519869</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -11427,13 +11427,13 @@
         <v>11</v>
       </c>
       <c r="C549" t="n">
-        <v>0.49611095914542</v>
+        <v>0.496021688917284</v>
       </c>
       <c r="D549" t="n">
-        <v>0.824160301841306</v>
+        <v>0.821979052998212</v>
       </c>
       <c r="E549" t="n">
-        <v>0.514187119450767</v>
+        <v>0.514087191993393</v>
       </c>
       <c r="F549" t="s">
         <v>38</v>
@@ -11839,13 +11839,13 @@
         <v>7</v>
       </c>
       <c r="C570" t="n">
-        <v>195.831605800822</v>
+        <v>195.831605799949</v>
       </c>
       <c r="D570" t="n">
         <v>190.001062843838</v>
       </c>
       <c r="E570" t="n">
-        <v>194.77150708137</v>
+        <v>194.771507080656</v>
       </c>
       <c r="F570" t="s">
         <v>39</v>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>15.7314716337961</v>
+        <v>15.8705226595673</v>
       </c>
       <c r="D18" t="n">
-        <v>31.4269267484058</v>
+        <v>30.2250172150362</v>
       </c>
       <c r="E18" t="n">
-        <v>18.5851907455434</v>
+        <v>18.4804307605616</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>33158.5553213541</v>
+        <v>33197.9387944567</v>
       </c>
       <c r="D19" t="n">
-        <v>49550.544357256</v>
+        <v>48437.1448554761</v>
       </c>
       <c r="E19" t="n">
-        <v>36687.7747921497</v>
+        <v>36445.7782382456</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.370763179282585</v>
+        <v>0.374570349686956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.859068104020242</v>
+        <v>0.84271204034063</v>
       </c>
       <c r="E20" t="n">
-        <v>0.459043550285663</v>
+        <v>0.458087913526195</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.917226965477708</v>
+        <v>0.917269257173336</v>
       </c>
       <c r="D21" t="n">
-        <v>0.89261480279655</v>
+        <v>0.906722568622087</v>
       </c>
       <c r="E21" t="n">
-        <v>0.900620245361819</v>
+        <v>0.901796647231621</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.49656519990927</v>
+        <v>9.35858355983097</v>
       </c>
       <c r="D42" t="n">
-        <v>24.2123675868813</v>
+        <v>18.3424029599034</v>
       </c>
       <c r="E42" t="n">
-        <v>12.1721656339042</v>
+        <v>10.9920052689351</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10917.8494223707</v>
+        <v>10763.6163758607</v>
       </c>
       <c r="D43" t="n">
-        <v>33062.9623364052</v>
+        <v>25400.6279185913</v>
       </c>
       <c r="E43" t="n">
-        <v>17212.8754161295</v>
+        <v>14563.5995010528</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.495655526001452</v>
+        <v>0.488332595705126</v>
       </c>
       <c r="D44" t="n">
-        <v>1.83275001495256</v>
+        <v>1.34652725641658</v>
       </c>
       <c r="E44" t="n">
-        <v>0.858332094027611</v>
+        <v>0.747601374196447</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.82559437704227</v>
+        <v>0.83069215892437</v>
       </c>
       <c r="D45" t="n">
-        <v>0.32447328796934</v>
+        <v>0.399203645137364</v>
       </c>
       <c r="E45" t="n">
-        <v>0.736339630779885</v>
+        <v>0.777595105203805</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>4.52934434120734</v>
+        <v>4.52683450335614</v>
       </c>
       <c r="D66" t="n">
-        <v>6.36090007387906</v>
+        <v>6.36739012862946</v>
       </c>
       <c r="E66" t="n">
-        <v>4.86235447442038</v>
+        <v>4.86148098067856</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1138.03149670935</v>
+        <v>1135.44018192737</v>
       </c>
       <c r="D67" t="n">
-        <v>518.977842254676</v>
+        <v>518.878125438241</v>
       </c>
       <c r="E67" t="n">
-        <v>1052.90581418651</v>
+        <v>1050.60539598211</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.201037629089976</v>
+        <v>0.200814310429492</v>
       </c>
       <c r="D68" t="n">
-        <v>0.305245673121726</v>
+        <v>0.304803029321035</v>
       </c>
       <c r="E68" t="n">
-        <v>0.216016656358734</v>
+        <v>0.215879036625511</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.985280355891996</v>
+        <v>0.985355545086778</v>
       </c>
       <c r="D69" t="n">
-        <v>0.989545323466472</v>
+        <v>0.989376405210882</v>
       </c>
       <c r="E69" t="n">
-        <v>0.987032771474078</v>
+        <v>0.987099415584087</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>13.9563900239351</v>
+        <v>14.0319527747094</v>
       </c>
       <c r="D90" t="n">
-        <v>13.5514164764936</v>
+        <v>13.6990189503591</v>
       </c>
       <c r="E90" t="n">
-        <v>13.8821963969229</v>
+        <v>13.9709572649047</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>15721.4354404347</v>
+        <v>15692.9535245895</v>
       </c>
       <c r="D91" t="n">
-        <v>786.961719803881</v>
+        <v>793.507267856936</v>
       </c>
       <c r="E91" t="n">
-        <v>14212.4988984383</v>
+        <v>14186.8319375513</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.453214902596133</v>
+        <v>0.453252429150406</v>
       </c>
       <c r="D92" t="n">
-        <v>0.872614038598659</v>
+        <v>0.871469323001886</v>
       </c>
       <c r="E92" t="n">
-        <v>1.22497923846568</v>
+        <v>1.21892335323411</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.939857959248328</v>
+        <v>0.940466194627946</v>
       </c>
       <c r="D93" t="n">
-        <v>0.66478544343219</v>
+        <v>0.658562137486986</v>
       </c>
       <c r="E93" t="n">
-        <v>0.933649759243093</v>
+        <v>0.93427012110279</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2731,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.11997931692691</v>
+        <v>5.10235558813753</v>
       </c>
       <c r="D114" t="n">
-        <v>6.28865647487668</v>
+        <v>7.46468317969866</v>
       </c>
       <c r="E114" t="n">
-        <v>5.33246607291778</v>
+        <v>5.5318696956941</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -2751,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>169.12594756774</v>
+        <v>168.066823465031</v>
       </c>
       <c r="D115" t="n">
-        <v>199.46318821461</v>
+        <v>235.45804205491</v>
       </c>
       <c r="E115" t="n">
-        <v>175.03334803601</v>
+        <v>182.183497277607</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -2771,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3562029411275</v>
+        <v>0.35462511030836</v>
       </c>
       <c r="D116" t="n">
-        <v>0.637210605771501</v>
+        <v>0.682417834898501</v>
       </c>
       <c r="E116" t="n">
-        <v>0.42784574163839</v>
+        <v>0.436814627605003</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.913018414970292</v>
+        <v>0.914115910849279</v>
       </c>
       <c r="D117" t="n">
-        <v>0.775359263430835</v>
+        <v>0.696970254006972</v>
       </c>
       <c r="E117" t="n">
-        <v>0.898705434323225</v>
+        <v>0.890798139451365</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>6.46301650292259</v>
+        <v>6.46540775527287</v>
       </c>
       <c r="D138" t="n">
-        <v>13.990630143338</v>
+        <v>13.9483942572092</v>
       </c>
       <c r="E138" t="n">
-        <v>7.83167352845266</v>
+        <v>7.82595075562494</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>209.814365794915</v>
+        <v>210.319106945759</v>
       </c>
       <c r="D139" t="n">
-        <v>313.799479508498</v>
+        <v>311.282434827205</v>
       </c>
       <c r="E139" t="n">
-        <v>232.210492192069</v>
+        <v>231.967993321583</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.646099579803371</v>
+        <v>0.647207495709582</v>
       </c>
       <c r="D140" t="n">
-        <v>3.48314067810235</v>
+        <v>3.49781043202088</v>
       </c>
       <c r="E140" t="n">
-        <v>1.03570523860152</v>
+        <v>1.03360561836416</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.91912930474006</v>
+        <v>0.918755417125219</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00110251658606073</v>
+        <v>0.00142057533885205</v>
       </c>
       <c r="E141" t="n">
-        <v>0.907815307330008</v>
+        <v>0.907848331728415</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>6.82675538633342</v>
+        <v>6.81666934642373</v>
       </c>
       <c r="D162" t="n">
-        <v>13.3141172672645</v>
+        <v>13.3313928415434</v>
       </c>
       <c r="E162" t="n">
-        <v>8.00627572832089</v>
+        <v>8.00116452735459</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>90.8727348214579</v>
+        <v>90.9578181980932</v>
       </c>
       <c r="D163" t="n">
-        <v>140.820137658493</v>
+        <v>140.409786154982</v>
       </c>
       <c r="E163" t="n">
-        <v>101.793600328264</v>
+        <v>101.752703032397</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.415451075735873</v>
+        <v>0.414217545506825</v>
       </c>
       <c r="D164" t="n">
-        <v>0.973230273947713</v>
+        <v>0.980528162647307</v>
       </c>
       <c r="E164" t="n">
-        <v>0.514863406197701</v>
+        <v>0.51426883241514</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.938593488698184</v>
+        <v>0.93845759931025</v>
       </c>
       <c r="D165" t="n">
-        <v>0.704234178534523</v>
+        <v>0.704336177057731</v>
       </c>
       <c r="E165" t="n">
-        <v>0.919935354490327</v>
+        <v>0.919989977875627</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -4169,13 +4169,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>3.72755203261455</v>
+        <v>3.74969838221615</v>
       </c>
       <c r="D186" t="n">
-        <v>6.69149919341081</v>
+        <v>6.64215647180378</v>
       </c>
       <c r="E186" t="n">
-        <v>4.26645151639569</v>
+        <v>4.27559985305027</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>5459.33903592214</v>
+        <v>5464.76897846366</v>
       </c>
       <c r="D187" t="n">
-        <v>8509.97018793116</v>
+        <v>8431.17966973205</v>
       </c>
       <c r="E187" t="n">
-        <v>6128.0178434143</v>
+        <v>6112.15540867998</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
@@ -4209,13 +4209,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0.460733990738179</v>
+        <v>0.463242473711191</v>
       </c>
       <c r="D188" t="n">
-        <v>1.99165962839902</v>
+        <v>2.09092739818855</v>
       </c>
       <c r="E188" t="n">
-        <v>1.03092063781415</v>
+        <v>1.04817335061506</v>
       </c>
       <c r="F188" t="s">
         <v>23</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0.738910699998749</v>
+        <v>0.738511890801533</v>
       </c>
       <c r="D189" t="n">
-        <v>0.490764100739083</v>
+        <v>0.527644641096595</v>
       </c>
       <c r="E189" t="n">
-        <v>0.6591772602565</v>
+        <v>0.661290099037432</v>
       </c>
       <c r="F189" t="s">
         <v>23</v>
@@ -4649,13 +4649,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.17935549221474</v>
+        <v>4.17887028378284</v>
       </c>
       <c r="D210" t="n">
-        <v>4.91759730239689</v>
+        <v>4.89111043811059</v>
       </c>
       <c r="E210" t="n">
-        <v>4.31358127588422</v>
+        <v>4.30836849366061</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4669,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1816.71609322167</v>
+        <v>1817.9887847296</v>
       </c>
       <c r="D211" t="n">
-        <v>2758.49613365937</v>
+        <v>2746.23417646958</v>
       </c>
       <c r="E211" t="n">
-        <v>2020.86205973326</v>
+        <v>2018.76094529299</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4689,13 +4689,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.437070033924799</v>
+        <v>0.436771554241875</v>
       </c>
       <c r="D212" t="n">
-        <v>0.951089091013132</v>
+        <v>0.954021159869693</v>
       </c>
       <c r="E212" t="n">
-        <v>0.694787092572362</v>
+        <v>0.695587853971113</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.901775256236565</v>
+        <v>0.901615056145743</v>
       </c>
       <c r="D213" t="n">
-        <v>0.757563364173112</v>
+        <v>0.760005990178941</v>
       </c>
       <c r="E213" t="n">
-        <v>0.92016291169018</v>
+        <v>0.920319330649439</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -5129,13 +5129,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>4.39075832620909</v>
+        <v>4.38856253791944</v>
       </c>
       <c r="D234" t="n">
-        <v>4.65164829031781</v>
+        <v>4.74106567387365</v>
       </c>
       <c r="E234" t="n">
-        <v>4.43819286513795</v>
+        <v>4.45265401718384</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -5149,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1020.20324651761</v>
+        <v>1020.7133140349</v>
       </c>
       <c r="D235" t="n">
-        <v>1240.2440377546</v>
+        <v>1259.32566919052</v>
       </c>
       <c r="E235" t="n">
-        <v>1063.60204982098</v>
+        <v>1068.06976734997</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -5169,13 +5169,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>0.430536571993816</v>
+        <v>0.430174547051443</v>
       </c>
       <c r="D236" t="n">
-        <v>0.677736317998024</v>
+        <v>0.678764423088216</v>
       </c>
       <c r="E236" t="n">
-        <v>0.653411010606952</v>
+        <v>0.652392237362871</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -5189,13 +5189,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0.899396182648545</v>
+        <v>0.899289009284492</v>
       </c>
       <c r="D237" t="n">
-        <v>0.674050418023188</v>
+        <v>0.670379255848841</v>
       </c>
       <c r="E237" t="n">
-        <v>0.904428634536546</v>
+        <v>0.903949589561958</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -5609,13 +5609,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>4.32049397637046</v>
+        <v>4.25918809900031</v>
       </c>
       <c r="D258" t="n">
-        <v>11.4673743578008</v>
+        <v>11.2555183702175</v>
       </c>
       <c r="E258" t="n">
-        <v>5.61992677299415</v>
+        <v>5.53124814831253</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>515.032710440191</v>
+        <v>512.209541419964</v>
       </c>
       <c r="D259" t="n">
-        <v>1440.97295772061</v>
+        <v>1417.63588835102</v>
       </c>
       <c r="E259" t="n">
-        <v>771.075657482011</v>
+        <v>761.613750399672</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5649,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.526787667483806</v>
+        <v>0.518909150841684</v>
       </c>
       <c r="D260" t="n">
-        <v>2.05740909857915</v>
+        <v>2.0228928169268</v>
       </c>
       <c r="E260" t="n">
-        <v>0.900797339217041</v>
+        <v>0.876732513462016</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.896045080796709</v>
+        <v>0.897160927589365</v>
       </c>
       <c r="D261" t="n">
-        <v>0.517369326321569</v>
+        <v>0.496329167757443</v>
       </c>
       <c r="E261" t="n">
-        <v>0.816541176989824</v>
+        <v>0.818469871082719</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
-        <v>10.2002818056502</v>
+        <v>10.2382061469463</v>
       </c>
       <c r="D282" t="n">
-        <v>11.9900126642425</v>
+        <v>12.1850666100869</v>
       </c>
       <c r="E282" t="n">
-        <v>10.5256874163033</v>
+        <v>10.5921807766083</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -6109,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>494.890011595361</v>
+        <v>494.520378206217</v>
       </c>
       <c r="D283" t="n">
-        <v>801.769594686913</v>
+        <v>817.603083712159</v>
       </c>
       <c r="E283" t="n">
-        <v>563.262741704772</v>
+        <v>567.12218061032</v>
       </c>
       <c r="F283" t="s">
         <v>27</v>
@@ -6129,13 +6129,13 @@
         <v>10</v>
       </c>
       <c r="C284" t="n">
-        <v>0.385704231638264</v>
+        <v>0.386167710613365</v>
       </c>
       <c r="D284" t="n">
-        <v>0.90026340684733</v>
+        <v>0.92426913232554</v>
       </c>
       <c r="E284" t="n">
-        <v>0.57311424232967</v>
+        <v>0.580055886011816</v>
       </c>
       <c r="F284" t="s">
         <v>27</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="n">
-        <v>0.872114977386787</v>
+        <v>0.87230400734409</v>
       </c>
       <c r="D285" t="n">
-        <v>0.828825387447952</v>
+        <v>0.82719836139745</v>
       </c>
       <c r="E285" t="n">
-        <v>0.884428322299961</v>
+        <v>0.883404114500737</v>
       </c>
       <c r="F285" t="s">
         <v>27</v>
@@ -6569,13 +6569,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.84611250391164</v>
+        <v>3.83904025850607</v>
       </c>
       <c r="D306" t="n">
-        <v>6.26017576645651</v>
+        <v>6.26941386294742</v>
       </c>
       <c r="E306" t="n">
-        <v>4.28503309710162</v>
+        <v>4.28092636840449</v>
       </c>
       <c r="F306" t="s">
         <v>28</v>
@@ -6589,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>5941.7236918642</v>
+        <v>5963.18384173097</v>
       </c>
       <c r="D307" t="n">
-        <v>6645.4580008437</v>
+        <v>6663.53722344375</v>
       </c>
       <c r="E307" t="n">
-        <v>6075.74124139373</v>
+        <v>6096.50802008802</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>10</v>
       </c>
       <c r="C308" t="n">
-        <v>0.46281225122396</v>
+        <v>0.461553183200293</v>
       </c>
       <c r="D308" t="n">
-        <v>1.38114252500657</v>
+        <v>1.31831269175444</v>
       </c>
       <c r="E308" t="n">
-        <v>0.73293927614407</v>
+        <v>0.724937861340933</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -6629,13 +6629,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.854288767887082</v>
+        <v>0.853218542249421</v>
       </c>
       <c r="D309" t="n">
-        <v>0.63223079229217</v>
+        <v>0.622951751181034</v>
       </c>
       <c r="E309" t="n">
-        <v>0.858421965337092</v>
+        <v>0.857436574480081</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -7049,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>10.2650538842734</v>
+        <v>10.1874290985205</v>
       </c>
       <c r="D330" t="n">
-        <v>9.3107550325988</v>
+        <v>9.05810146895132</v>
       </c>
       <c r="E330" t="n">
-        <v>10.0915450021507</v>
+        <v>9.98209680223518</v>
       </c>
       <c r="F330" t="s">
         <v>29</v>
@@ -7069,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>3664.45163073257</v>
+        <v>3633.89021332067</v>
       </c>
       <c r="D331" t="n">
-        <v>2565.46686657043</v>
+        <v>2527.56228009827</v>
       </c>
       <c r="E331" t="n">
-        <v>3490.46873998254</v>
+        <v>3459.15865889854</v>
       </c>
       <c r="F331" t="s">
         <v>29</v>
@@ -7089,13 +7089,13 @@
         <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.416295794609993</v>
+        <v>0.412135808346968</v>
       </c>
       <c r="D332" t="n">
-        <v>0.390112402864677</v>
+        <v>0.378474869140422</v>
       </c>
       <c r="E332" t="n">
-        <v>0.424610436347336</v>
+        <v>0.418302686706668</v>
       </c>
       <c r="F332" t="s">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="C333" t="n">
-        <v>0.932560783613068</v>
+        <v>0.933526880802745</v>
       </c>
       <c r="D333" t="n">
-        <v>0.891470385818266</v>
+        <v>0.897146999090857</v>
       </c>
       <c r="E333" t="n">
-        <v>0.92944095522944</v>
+        <v>0.930575300983992</v>
       </c>
       <c r="F333" t="s">
         <v>29</v>
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>13.0066849691155</v>
+        <v>13.0832333018711</v>
       </c>
       <c r="D354" t="n">
-        <v>18.6983989584106</v>
+        <v>18.4379658522306</v>
       </c>
       <c r="E354" t="n">
-        <v>14.0415420580782</v>
+        <v>14.0568210383001</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -7549,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>681.014100050169</v>
+        <v>683.50698342015</v>
       </c>
       <c r="D355" t="n">
-        <v>1230.64336759402</v>
+        <v>1226.49254920145</v>
       </c>
       <c r="E355" t="n">
-        <v>809.207695364622</v>
+        <v>809.781346130512</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -7569,13 +7569,13 @@
         <v>10</v>
       </c>
       <c r="C356" t="n">
-        <v>0.28255833721676</v>
+        <v>0.283571321136167</v>
       </c>
       <c r="D356" t="n">
-        <v>0.444244896040816</v>
+        <v>0.436185400997627</v>
       </c>
       <c r="E356" t="n">
-        <v>0.343859969591151</v>
+        <v>0.342847539472671</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -7589,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="C357" t="n">
-        <v>0.943424047181299</v>
+        <v>0.942885287434032</v>
       </c>
       <c r="D357" t="n">
-        <v>0.895161955697343</v>
+        <v>0.893029719762454</v>
       </c>
       <c r="E357" t="n">
-        <v>0.930864531644386</v>
+        <v>0.930581555794123</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -8009,13 +8009,13 @@
         <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>13.7962490316934</v>
+        <v>13.8135714726981</v>
       </c>
       <c r="D378" t="n">
-        <v>62.1288533556115</v>
+        <v>62.0261243656654</v>
       </c>
       <c r="E378" t="n">
-        <v>18.6295094640852</v>
+        <v>18.6348267619948</v>
       </c>
       <c r="F378" t="s">
         <v>31</v>
@@ -8029,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>974.579442907406</v>
+        <v>945.231298377945</v>
       </c>
       <c r="D379" t="n">
-        <v>246.591038882144</v>
+        <v>246.50273955281</v>
       </c>
       <c r="E379" t="n">
-        <v>927.849823802126</v>
+        <v>900.106852962821</v>
       </c>
       <c r="F379" t="s">
         <v>31</v>
@@ -8049,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>0.326996754069183</v>
+        <v>0.321577682305177</v>
       </c>
       <c r="D380" t="n">
-        <v>3.01407985058063</v>
+        <v>3.02371355266397</v>
       </c>
       <c r="E380" t="n">
-        <v>0.339959938043589</v>
+        <v>0.336126135080439</v>
       </c>
       <c r="F380" t="s">
         <v>31</v>
@@ -8069,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="C381" t="n">
-        <v>0.943375416389556</v>
+        <v>0.947465266403085</v>
       </c>
       <c r="D381" t="n">
-        <v>0.223437128683397</v>
+        <v>0.223890729192593</v>
       </c>
       <c r="E381" t="n">
-        <v>0.944626860698182</v>
+        <v>0.948567882667318</v>
       </c>
       <c r="F381" t="s">
         <v>31</v>
@@ -8489,13 +8489,13 @@
         <v>7</v>
       </c>
       <c r="C402" t="n">
-        <v>11.4810162664318</v>
+        <v>11.4436764100048</v>
       </c>
       <c r="D402" t="n">
-        <v>73.2043687969849</v>
+        <v>71.0504599994024</v>
       </c>
       <c r="E402" t="n">
-        <v>22.7034439992596</v>
+        <v>22.2812734262589</v>
       </c>
       <c r="F402" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="n">
-        <v>50.7545645204228</v>
+        <v>50.8293490004144</v>
       </c>
       <c r="D403" t="n">
-        <v>1507.58248252815</v>
+        <v>1483.8289258379</v>
       </c>
       <c r="E403" t="n">
-        <v>644.472590264769</v>
+        <v>634.375080244312</v>
       </c>
       <c r="F403" t="s">
         <v>32</v>
@@ -8529,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="C404" t="n">
-        <v>0.444817263340806</v>
+        <v>0.442680466235467</v>
       </c>
       <c r="D404" t="n">
-        <v>9.1138699975391</v>
+        <v>8.86850544487931</v>
       </c>
       <c r="E404" t="n">
-        <v>3.37336339117863</v>
+        <v>3.30522737736347</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -8549,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="C405" t="n">
-        <v>0.972623093249174</v>
+        <v>0.972308479871156</v>
       </c>
       <c r="D405" t="n">
-        <v>0.891652376582186</v>
+        <v>0.891751614803997</v>
       </c>
       <c r="E405" t="n">
-        <v>0.772028809425855</v>
+        <v>0.78488252939918</v>
       </c>
       <c r="F405" t="s">
         <v>32</v>
@@ -8969,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>8.8805546786844</v>
+        <v>8.89054629845585</v>
       </c>
       <c r="D426" t="n">
-        <v>10.9844966135855</v>
+        <v>10.8272426981119</v>
       </c>
       <c r="E426" t="n">
-        <v>9.26308957593914</v>
+        <v>9.24267291657513</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8989,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>384.230739631946</v>
+        <v>384.529833508332</v>
       </c>
       <c r="D427" t="n">
-        <v>445.411202621117</v>
+        <v>435.392196069364</v>
       </c>
       <c r="E427" t="n">
-        <v>396.058034124912</v>
+        <v>394.265884503629</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9009,13 +9009,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.346010889398621</v>
+        <v>0.346617217489045</v>
       </c>
       <c r="D428" t="n">
-        <v>0.550204749203288</v>
+        <v>0.541891583789667</v>
       </c>
       <c r="E428" t="n">
-        <v>0.400690919559581</v>
+        <v>0.399503934510299</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9029,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.953955146308695</v>
+        <v>0.953882158431923</v>
       </c>
       <c r="D429" t="n">
-        <v>0.918883246423675</v>
+        <v>0.917670785498296</v>
       </c>
       <c r="E429" t="n">
-        <v>0.947023320688933</v>
+        <v>0.94736745696249</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9449,13 +9449,13 @@
         <v>7</v>
       </c>
       <c r="C450" t="n">
-        <v>7.95962935753965</v>
+        <v>8.07484110644686</v>
       </c>
       <c r="D450" t="n">
-        <v>15.8847591538447</v>
+        <v>15.609713303931</v>
       </c>
       <c r="E450" t="n">
-        <v>9.40056204777694</v>
+        <v>9.44481786962579</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -9469,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>128.088615275662</v>
+        <v>130.964360091095</v>
       </c>
       <c r="D451" t="n">
-        <v>204.681077883589</v>
+        <v>197.250394254872</v>
       </c>
       <c r="E451" t="n">
-        <v>145.054512497984</v>
+        <v>145.2835499022</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -9489,13 +9489,13 @@
         <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>0.258641565592348</v>
+        <v>0.265037994005903</v>
       </c>
       <c r="D452" t="n">
-        <v>0.510980706462894</v>
+        <v>0.489153912302366</v>
       </c>
       <c r="E452" t="n">
-        <v>0.3026145444449</v>
+        <v>0.304382274983817</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -9509,13 +9509,13 @@
         <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>0.935503351971273</v>
+        <v>0.932679780511926</v>
       </c>
       <c r="D453" t="n">
-        <v>0.880753433193581</v>
+        <v>0.884482678486641</v>
       </c>
       <c r="E453" t="n">
-        <v>0.912948434586898</v>
+        <v>0.912392216847283</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -10407,13 +10407,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="n">
-        <v>11.5118636338513</v>
+        <v>11.5402043939942</v>
       </c>
       <c r="D498" t="n">
-        <v>12.320606957324</v>
+        <v>12.3372135031449</v>
       </c>
       <c r="E498" t="n">
-        <v>11.6589078744827</v>
+        <v>11.6851151411125</v>
       </c>
       <c r="F498" t="s">
         <v>36</v>
@@ -10427,13 +10427,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="n">
-        <v>123.265125478098</v>
+        <v>123.513889802446</v>
       </c>
       <c r="D499" t="n">
-        <v>36.8098636130192</v>
+        <v>36.8342078472381</v>
       </c>
       <c r="E499" t="n">
-        <v>112.596848232412</v>
+        <v>112.821116053304</v>
       </c>
       <c r="F499" t="s">
         <v>36</v>
@@ -10447,13 +10447,13 @@
         <v>10</v>
       </c>
       <c r="C500" t="n">
-        <v>0.570863553351305</v>
+        <v>0.573020531448394</v>
       </c>
       <c r="D500" t="n">
-        <v>1.41957627703398</v>
+        <v>1.41963323060682</v>
       </c>
       <c r="E500" t="n">
-        <v>0.700109050464733</v>
+        <v>0.705271041997237</v>
       </c>
       <c r="F500" t="s">
         <v>36</v>
@@ -10467,13 +10467,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="n">
-        <v>0.924890598095241</v>
+        <v>0.924656203854558</v>
       </c>
       <c r="D501" t="n">
-        <v>0.0927847455092315</v>
+        <v>0.0928125145728037</v>
       </c>
       <c r="E501" t="n">
-        <v>0.926098002005184</v>
+        <v>0.925870765516999</v>
       </c>
       <c r="F501" t="s">
         <v>36</v>
@@ -10887,13 +10887,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>15.4583269400086</v>
+        <v>15.5057573343159</v>
       </c>
       <c r="D522" t="n">
-        <v>37.2483192598949</v>
+        <v>33.0257850606751</v>
       </c>
       <c r="E522" t="n">
-        <v>19.4201437254425</v>
+        <v>18.6912169209266</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10907,13 +10907,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>97.5064351241187</v>
+        <v>96.8298986108803</v>
       </c>
       <c r="D523" t="n">
-        <v>240.976736909673</v>
+        <v>172.130218689253</v>
       </c>
       <c r="E523" t="n">
-        <v>135.414219569839</v>
+        <v>114.273152719486</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10927,13 +10927,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.584958908300005</v>
+        <v>0.584983480475892</v>
       </c>
       <c r="D524" t="n">
-        <v>1.72178260528996</v>
+        <v>1.81989468349285</v>
       </c>
       <c r="E524" t="n">
-        <v>1.30206843026573</v>
+        <v>1.25944394873944</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10947,13 +10947,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.630536868640848</v>
+        <v>0.636430891430796</v>
       </c>
       <c r="D525" t="n">
-        <v>0.156443329340927</v>
+        <v>0.452461802473708</v>
       </c>
       <c r="E525" t="n">
-        <v>0.336542938619707</v>
+        <v>0.428923788038609</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -11367,13 +11367,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>26.4872211677876</v>
+        <v>26.597603247784</v>
       </c>
       <c r="D546" t="n">
-        <v>25.0879857859072</v>
+        <v>25.2964451008744</v>
       </c>
       <c r="E546" t="n">
-        <v>26.2289007895943</v>
+        <v>26.3573894360468</v>
       </c>
       <c r="F546" t="s">
         <v>38</v>
@@ -11387,13 +11387,13 @@
         <v>9</v>
       </c>
       <c r="C547" t="n">
-        <v>167.273588655033</v>
+        <v>167.585748671841</v>
       </c>
       <c r="D547" t="n">
-        <v>27.1048427243835</v>
+        <v>27.6942418319273</v>
       </c>
       <c r="E547" t="n">
-        <v>151.494102624523</v>
+        <v>151.794788586764</v>
       </c>
       <c r="F547" t="s">
         <v>38</v>
@@ -11407,13 +11407,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="n">
-        <v>1.9652658992505</v>
+        <v>1.97500718001604</v>
       </c>
       <c r="D548" t="n">
-        <v>2.08463424708161</v>
+        <v>2.15365049713792</v>
       </c>
       <c r="E548" t="n">
-        <v>0.951150604519869</v>
+        <v>0.956205242607875</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -11427,13 +11427,13 @@
         <v>11</v>
       </c>
       <c r="C549" t="n">
-        <v>0.496021688917284</v>
+        <v>0.496472468309792</v>
       </c>
       <c r="D549" t="n">
-        <v>0.821979052998212</v>
+        <v>0.811084257908216</v>
       </c>
       <c r="E549" t="n">
-        <v>0.514087191993393</v>
+        <v>0.514402348358882</v>
       </c>
       <c r="F549" t="s">
         <v>38</v>
@@ -11839,13 +11839,13 @@
         <v>7</v>
       </c>
       <c r="C570" t="n">
-        <v>195.831605799949</v>
+        <v>194.935430053206</v>
       </c>
       <c r="D570" t="n">
         <v>190.001062843838</v>
       </c>
       <c r="E570" t="n">
-        <v>194.771507080656</v>
+        <v>194.038272378776</v>
       </c>
       <c r="F570" t="s">
         <v>39</v>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -491,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1283241780761</v>
+        <v>13.1345456589146</v>
       </c>
       <c r="D2" t="n">
-        <v>38.8320668970215</v>
+        <v>39.6364857486458</v>
       </c>
       <c r="E2" t="n">
-        <v>17.8017319451571</v>
+        <v>17.9530802206839</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>23166.2947929067</v>
+        <v>23176.1647732118</v>
       </c>
       <c r="D3" t="n">
-        <v>70971.6575192442</v>
+        <v>73219.5012978525</v>
       </c>
       <c r="E3" t="n">
-        <v>36809.1481612736</v>
+        <v>37606.0950850065</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.29362797149107</v>
+        <v>0.29405565834849</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07081284392489</v>
+        <v>1.10676994227236</v>
       </c>
       <c r="E4" t="n">
-        <v>0.419524557032948</v>
+        <v>0.425904305018963</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -551,13 +551,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.960072538527291</v>
+        <v>0.960030494106792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.661543782351705</v>
+        <v>0.64036676133052</v>
       </c>
       <c r="E5" t="n">
-        <v>0.899692712591748</v>
+        <v>0.895133710123894</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -571,13 +571,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>37.3484409880238</v>
+        <v>37.1808202331087</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8657672967679</v>
+        <v>42.6524253759616</v>
       </c>
       <c r="E6" t="n">
-        <v>38.2679953728145</v>
+        <v>38.0927544235842</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -591,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>54896.0555609153</v>
+        <v>54483.4734230314</v>
       </c>
       <c r="D7" t="n">
-        <v>63577.4404628668</v>
+        <v>62728.7055195929</v>
       </c>
       <c r="E7" t="n">
-        <v>56435.7680857109</v>
+        <v>55942.1351001113</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -611,13 +611,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.650820849148826</v>
+        <v>0.649829772902768</v>
       </c>
       <c r="D8" t="n">
-        <v>1.07970189791137</v>
+        <v>1.07164921826171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.831388338624533</v>
+        <v>0.828352826961571</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -631,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.77681246370738</v>
+        <v>0.780123958309334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.79120859756396</v>
+        <v>0.791869099138444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.770638158476929</v>
+        <v>0.774629867932271</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -651,13 +651,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>22.6296673431877</v>
+        <v>22.633161784555</v>
       </c>
       <c r="D10" t="n">
-        <v>35.1231509529454</v>
+        <v>35.1231392055348</v>
       </c>
       <c r="E10" t="n">
-        <v>24.7119146114806</v>
+        <v>24.7148246880517</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -671,13 +671,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40789.017598553</v>
+        <v>40787.003914242</v>
       </c>
       <c r="D11" t="n">
-        <v>63654.8438797004</v>
+        <v>63654.1852940461</v>
       </c>
       <c r="E11" t="n">
-        <v>45406.7890162994</v>
+        <v>45405.1277334596</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -691,13 +691,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.469435256687262</v>
+        <v>0.469468435217764</v>
       </c>
       <c r="D12" t="n">
-        <v>1.07215580972521</v>
+        <v>1.07210939128241</v>
       </c>
       <c r="E12" t="n">
-        <v>0.563720957439695</v>
+        <v>0.563804282487984</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -711,13 +711,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.883085922735867</v>
+        <v>0.883090648590171</v>
       </c>
       <c r="D13" t="n">
-        <v>0.812855347982129</v>
+        <v>0.812840294921709</v>
       </c>
       <c r="E13" t="n">
-        <v>0.856124918827375</v>
+        <v>0.856132292539139</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -731,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8302564479997</v>
+        <v>18.8304580752035</v>
       </c>
       <c r="D14" t="n">
-        <v>33.318092448616</v>
+        <v>33.3179184200663</v>
       </c>
       <c r="E14" t="n">
-        <v>21.2448957814357</v>
+        <v>21.2450347993473</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -751,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>41585.4976358661</v>
+        <v>41584.9894099372</v>
       </c>
       <c r="D15" t="n">
-        <v>53910.6373925925</v>
+        <v>53909.9259810358</v>
       </c>
       <c r="E15" t="n">
-        <v>43880.7567774849</v>
+        <v>43880.2097389466</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -771,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.44375590440276</v>
+        <v>0.443757826972645</v>
       </c>
       <c r="D16" t="n">
-        <v>0.710119470064664</v>
+        <v>0.710113229351847</v>
       </c>
       <c r="E16" t="n">
-        <v>0.489758760249556</v>
+        <v>0.489759557678703</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -791,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>0.877534759740472</v>
+        <v>0.8775367937918</v>
       </c>
       <c r="D17" t="n">
-        <v>0.809872286943975</v>
+        <v>0.809876369777469</v>
       </c>
       <c r="E17" t="n">
-        <v>0.866100481455231</v>
+        <v>0.866102846749141</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>15.8705226595673</v>
+        <v>15.9252916788844</v>
       </c>
       <c r="D18" t="n">
-        <v>30.2250172150362</v>
+        <v>32.1956443037476</v>
       </c>
       <c r="E18" t="n">
-        <v>18.4804307605616</v>
+        <v>18.8835376106777</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>33197.9387944567</v>
+        <v>33238.4794814658</v>
       </c>
       <c r="D19" t="n">
-        <v>48437.1448554761</v>
+        <v>51273.4353138532</v>
       </c>
       <c r="E19" t="n">
-        <v>36445.7782382456</v>
+        <v>37174.1589156258</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.374570349686956</v>
+        <v>0.375327867559914</v>
       </c>
       <c r="D20" t="n">
-        <v>0.84271204034063</v>
+        <v>0.929040295777704</v>
       </c>
       <c r="E20" t="n">
-        <v>0.458087913526195</v>
+        <v>0.468956882541654</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.917269257173336</v>
+        <v>0.917011353402086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.906722568622087</v>
+        <v>0.897915286472791</v>
       </c>
       <c r="E21" t="n">
-        <v>0.901796647231621</v>
+        <v>0.897967346036694</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -971,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>6.55439238661371</v>
+        <v>6.55507611146669</v>
       </c>
       <c r="D26" t="n">
-        <v>23.0868607233375</v>
+        <v>22.9494160869112</v>
       </c>
       <c r="E26" t="n">
-        <v>9.56029572056349</v>
+        <v>9.53586519791114</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -991,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>6985.44190310258</v>
+        <v>6977.19600037649</v>
       </c>
       <c r="D27" t="n">
-        <v>32542.3712429969</v>
+        <v>32417.5684484967</v>
       </c>
       <c r="E27" t="n">
-        <v>15246.9950525838</v>
+        <v>15195.4803821129</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1011,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>0.390049881780331</v>
+        <v>0.390140457471353</v>
       </c>
       <c r="D28" t="n">
-        <v>1.76364650569467</v>
+        <v>1.73910634551488</v>
       </c>
       <c r="E28" t="n">
-        <v>0.690671776728275</v>
+        <v>0.688299830455608</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1031,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>0.931265937364164</v>
+        <v>0.931486844098505</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211850042163499</v>
+        <v>0.235425917147202</v>
       </c>
       <c r="E29" t="n">
-        <v>0.791140725665705</v>
+        <v>0.794038299861714</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1051,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.1306196141532</v>
+        <v>15.1914971629877</v>
       </c>
       <c r="D30" t="n">
-        <v>16.0171668787124</v>
+        <v>15.8385155147408</v>
       </c>
       <c r="E30" t="n">
-        <v>15.2783774915797</v>
+        <v>15.2993335549465</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1071,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>15061.2224569675</v>
+        <v>15066.4266476454</v>
       </c>
       <c r="D31" t="n">
-        <v>26530.7202650591</v>
+        <v>26355.6265435138</v>
       </c>
       <c r="E31" t="n">
-        <v>17502.7675300895</v>
+        <v>17462.3648176374</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1091,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.757632369459625</v>
+        <v>0.761591639361867</v>
       </c>
       <c r="D32" t="n">
-        <v>1.56319226456649</v>
+        <v>1.55148034781749</v>
       </c>
       <c r="E32" t="n">
-        <v>1.05462583971718</v>
+        <v>1.05791244044827</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1111,13 +1111,13 @@
         <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>0.66741036880016</v>
+        <v>0.667251694680368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0509411061001936</v>
+        <v>0.0511656478265946</v>
       </c>
       <c r="E33" t="n">
-        <v>0.630280215913968</v>
+        <v>0.632237377069466</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1131,13 +1131,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>13.2570710092446</v>
+        <v>13.2570971403645</v>
       </c>
       <c r="D34" t="n">
-        <v>36.5914100090657</v>
+        <v>36.5912815316904</v>
       </c>
       <c r="E34" t="n">
-        <v>17.1461275092148</v>
+        <v>17.1461278722521</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -1151,13 +1151,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>14680.6455369309</v>
+        <v>14680.6562294153</v>
       </c>
       <c r="D35" t="n">
-        <v>52087.52185127</v>
+        <v>52087.2799233662</v>
       </c>
       <c r="E35" t="n">
-        <v>25135.3559072726</v>
+        <v>25135.2775544865</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.655074133576487</v>
+        <v>0.655075040792069</v>
       </c>
       <c r="D36" t="n">
-        <v>4.02021457438444</v>
+        <v>4.02019900095344</v>
       </c>
       <c r="E36" t="n">
-        <v>1.16566254100677</v>
+        <v>1.16566316727703</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1191,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>0.694808515341403</v>
+        <v>0.694808163241152</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0615567937210561</v>
+        <v>0.0615574354899502</v>
       </c>
       <c r="E37" t="n">
-        <v>0.605046598086422</v>
+        <v>0.60504735164368</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -1211,13 +1211,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>10.3710731301461</v>
+        <v>10.3710735766079</v>
       </c>
       <c r="D38" t="n">
-        <v>9.04555838792873</v>
+        <v>9.04555793767464</v>
       </c>
       <c r="E38" t="n">
-        <v>10.1501540064432</v>
+        <v>10.1501543034523</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>12083.4912200585</v>
+        <v>12083.4912050354</v>
       </c>
       <c r="D39" t="n">
-        <v>15076.3483417645</v>
+        <v>15076.3479070246</v>
       </c>
       <c r="E39" t="n">
-        <v>12631.6406934358</v>
+        <v>12631.64059498</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -1251,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.585971909024129</v>
+        <v>0.585971920881539</v>
       </c>
       <c r="D40" t="n">
-        <v>0.501656941993601</v>
+        <v>0.501656927357469</v>
       </c>
       <c r="E40" t="n">
-        <v>0.563490713517815</v>
+        <v>0.563490723027476</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -1271,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>0.785940402576688</v>
+        <v>0.785940402750409</v>
       </c>
       <c r="D41" t="n">
-        <v>0.631796652813638</v>
+        <v>0.631796638895495</v>
       </c>
       <c r="E41" t="n">
-        <v>0.807134545372922</v>
+        <v>0.807134544967027</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.35858355983097</v>
+        <v>9.45396052320635</v>
       </c>
       <c r="D42" t="n">
-        <v>18.3424029599034</v>
+        <v>24.7389720685978</v>
       </c>
       <c r="E42" t="n">
-        <v>10.9920052689351</v>
+        <v>12.2330535314593</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10763.6163758607</v>
+        <v>10859.5153768239</v>
       </c>
       <c r="D43" t="n">
-        <v>25400.6279185913</v>
+        <v>33000.4693138521</v>
       </c>
       <c r="E43" t="n">
-        <v>14563.5995010528</v>
+        <v>17160.7999862378</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.488332595705126</v>
+        <v>0.49240238946121</v>
       </c>
       <c r="D44" t="n">
-        <v>1.34652725641658</v>
+        <v>2.06816138134079</v>
       </c>
       <c r="E44" t="n">
-        <v>0.747601374196447</v>
+        <v>0.879062739812718</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.83069215892437</v>
+        <v>0.827467080152369</v>
       </c>
       <c r="D45" t="n">
-        <v>0.399203645137364</v>
+        <v>0.348980972446593</v>
       </c>
       <c r="E45" t="n">
-        <v>0.777595105203805</v>
+        <v>0.73876022868641</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1374,7 +1374,7 @@
         <v>15.323872805703</v>
       </c>
       <c r="D46" t="n">
-        <v>52.148692686561</v>
+        <v>52.1486926865615</v>
       </c>
       <c r="E46" t="n">
         <v>21.461342785846</v>
@@ -1394,10 +1394,10 @@
         <v>16986.5406593124</v>
       </c>
       <c r="D47" t="n">
-        <v>80925.4179569499</v>
+        <v>80925.4179569508</v>
       </c>
       <c r="E47" t="n">
-        <v>36495.7442481526</v>
+        <v>36495.744248153</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -1411,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>0.799734736207509</v>
+        <v>0.799734736207508</v>
       </c>
       <c r="D48" t="n">
-        <v>6.23970788024277</v>
+        <v>6.23970788024284</v>
       </c>
       <c r="E48" t="n">
         <v>1.79013235771872</v>
@@ -1431,13 +1431,13 @@
         <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>0.588203940438076</v>
+        <v>0.588203940438077</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0236944566401056</v>
+        <v>0.0236944566401047</v>
       </c>
       <c r="E49" t="n">
-        <v>0.47370851844627</v>
+        <v>0.473708518446269</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -1451,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>5.96612150320673</v>
+        <v>5.96022948670344</v>
       </c>
       <c r="D50" t="n">
-        <v>12.0650357737712</v>
+        <v>12.0786756724391</v>
       </c>
       <c r="E50" t="n">
-        <v>7.07501500694572</v>
+        <v>7.07267424774628</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -1471,13 +1471,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>1341.81057863601</v>
+        <v>1341.67653095435</v>
       </c>
       <c r="D51" t="n">
-        <v>1165.41559402518</v>
+        <v>1162.82787327986</v>
       </c>
       <c r="E51" t="n">
-        <v>1311.50460693225</v>
+        <v>1310.97467381322</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -1491,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258505789495154</v>
+        <v>0.258587571460824</v>
       </c>
       <c r="D52" t="n">
-        <v>0.550339743131557</v>
+        <v>0.550435088930486</v>
       </c>
       <c r="E52" t="n">
-        <v>0.28700657757612</v>
+        <v>0.287085172843244</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -1511,13 +1511,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>0.979255869961295</v>
+        <v>0.979238153618986</v>
       </c>
       <c r="D53" t="n">
-        <v>0.979105405266156</v>
+        <v>0.979219929658413</v>
       </c>
       <c r="E53" t="n">
-        <v>0.979750756527463</v>
+        <v>0.979755309360136</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -1531,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>25.9014609074869</v>
+        <v>25.400907293106</v>
       </c>
       <c r="D54" t="n">
-        <v>108.655514765514</v>
+        <v>107.970788340588</v>
       </c>
       <c r="E54" t="n">
-        <v>39.693803217158</v>
+        <v>39.162554134353</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -1551,13 +1551,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>3405.67494324724</v>
+        <v>3405.22994667097</v>
       </c>
       <c r="D55" t="n">
-        <v>5471.87297722535</v>
+        <v>5416.5893277317</v>
       </c>
       <c r="E55" t="n">
-        <v>3828.28296964839</v>
+        <v>3814.82622788642</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -1571,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>0.685110902253993</v>
+        <v>0.682503764348225</v>
       </c>
       <c r="D56" t="n">
-        <v>1.27172084471108</v>
+        <v>1.25775029613539</v>
       </c>
       <c r="E56" t="n">
-        <v>0.793389788448982</v>
+        <v>0.788659688716588</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -1591,13 +1591,13 @@
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>0.890777593585843</v>
+        <v>0.890808751759351</v>
       </c>
       <c r="D57" t="n">
-        <v>0.974595111242064</v>
+        <v>0.973452085039943</v>
       </c>
       <c r="E57" t="n">
-        <v>0.867487196789009</v>
+        <v>0.867300357359856</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -1611,13 +1611,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>4.49978093731095</v>
+        <v>4.49396688259298</v>
       </c>
       <c r="D58" t="n">
-        <v>4.48410381480368</v>
+        <v>4.42332309855842</v>
       </c>
       <c r="E58" t="n">
-        <v>4.49716808355974</v>
+        <v>4.48219291858722</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -1631,13 +1631,13 @@
         <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>1253.258478701</v>
+        <v>1256.33992362296</v>
       </c>
       <c r="D59" t="n">
-        <v>425.255658898937</v>
+        <v>418.502231465115</v>
       </c>
       <c r="E59" t="n">
-        <v>1157.1607816552</v>
+        <v>1159.53253053303</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -1651,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.198384932382305</v>
+        <v>0.197954421170426</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24636658138684</v>
+        <v>0.243385264391381</v>
       </c>
       <c r="E60" t="n">
-        <v>0.210725219467906</v>
+        <v>0.211026348975091</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -1671,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>0.985611337895217</v>
+        <v>0.985657019278592</v>
       </c>
       <c r="D61" t="n">
-        <v>0.981650185993087</v>
+        <v>0.982198079604025</v>
       </c>
       <c r="E61" t="n">
-        <v>0.987294682562374</v>
+        <v>0.987338892508908</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -1691,13 +1691,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>4.92255109845518</v>
+        <v>4.92281275663725</v>
       </c>
       <c r="D62" t="n">
-        <v>8.69595307973058</v>
+        <v>8.69574351582509</v>
       </c>
       <c r="E62" t="n">
-        <v>5.55145142866774</v>
+        <v>5.55163454983522</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -1711,13 +1711,13 @@
         <v>9</v>
       </c>
       <c r="C63" t="n">
-        <v>1202.90683422761</v>
+        <v>1202.98563206859</v>
       </c>
       <c r="D63" t="n">
-        <v>776.691139432709</v>
+        <v>776.713614212004</v>
       </c>
       <c r="E63" t="n">
-        <v>1142.96204262074</v>
+        <v>1143.03369688734</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -1731,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217094003675794</v>
+        <v>0.217112306453048</v>
       </c>
       <c r="D64" t="n">
-        <v>0.427319225703538</v>
+        <v>0.427315118650958</v>
       </c>
       <c r="E64" t="n">
-        <v>0.233285348846284</v>
+        <v>0.233302338872667</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -1751,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>0.987262230096519</v>
+        <v>0.987261184686606</v>
       </c>
       <c r="D65" t="n">
-        <v>0.989222200266557</v>
+        <v>0.989223198241759</v>
       </c>
       <c r="E65" t="n">
-        <v>0.988224315559102</v>
+        <v>0.988223343409787</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>4.52683450335614</v>
+        <v>4.51860387886891</v>
       </c>
       <c r="D66" t="n">
-        <v>6.36739012862946</v>
+        <v>6.32409177316618</v>
       </c>
       <c r="E66" t="n">
-        <v>4.86148098067856</v>
+        <v>4.84687440510478</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1135.44018192737</v>
+        <v>1128.40272294822</v>
       </c>
       <c r="D67" t="n">
-        <v>518.878125438241</v>
+        <v>518.204749542008</v>
       </c>
       <c r="E67" t="n">
-        <v>1050.60539598211</v>
+        <v>1044.32260216452</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.200814310429492</v>
+        <v>0.199931754176702</v>
       </c>
       <c r="D68" t="n">
-        <v>0.304803029321035</v>
+        <v>0.303601067573753</v>
       </c>
       <c r="E68" t="n">
-        <v>0.215879036625511</v>
+        <v>0.215037294744935</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.985355545086778</v>
+        <v>0.985551255251151</v>
       </c>
       <c r="D69" t="n">
-        <v>0.989376405210882</v>
+        <v>0.989709232625003</v>
       </c>
       <c r="E69" t="n">
-        <v>0.987099415584087</v>
+        <v>0.98726523724406</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>17.8291025623218</v>
+        <v>17.829102562322</v>
       </c>
       <c r="D70" t="n">
         <v>123.021388679522</v>
       </c>
       <c r="E70" t="n">
-        <v>35.3611502485218</v>
+        <v>35.361150248522</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -1871,13 +1871,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>4875.0231429054</v>
+        <v>4875.02314290544</v>
       </c>
       <c r="D71" t="n">
-        <v>32607.3104825472</v>
+        <v>32607.3104825475</v>
       </c>
       <c r="E71" t="n">
-        <v>14036.0604048082</v>
+        <v>14036.0604048083</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -1891,13 +1891,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.711712001056447</v>
+        <v>0.711712001056451</v>
       </c>
       <c r="D72" t="n">
-        <v>6.97832542523075</v>
+        <v>6.9783254252308</v>
       </c>
       <c r="E72" t="n">
-        <v>1.66216025477497</v>
+        <v>1.66216025477499</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -1911,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>0.812476183813466</v>
+        <v>0.812476183813462</v>
       </c>
       <c r="D73" t="n">
-        <v>0.203048518168104</v>
+        <v>0.2030485181681</v>
       </c>
       <c r="E73" t="n">
-        <v>0.209394242318273</v>
+        <v>0.209394242318267</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -1931,13 +1931,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>2.31409196873631</v>
+        <v>2.33937958447245</v>
       </c>
       <c r="D74" t="n">
-        <v>16.002218112422</v>
+        <v>15.580093281613</v>
       </c>
       <c r="E74" t="n">
-        <v>4.82184026986956</v>
+        <v>4.76515919310889</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -1951,13 +1951,13 @@
         <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>543.351489760836</v>
+        <v>446.548257373722</v>
       </c>
       <c r="D75" t="n">
-        <v>681.982512076643</v>
+        <v>656.282789907691</v>
       </c>
       <c r="E75" t="n">
-        <v>571.272207914758</v>
+        <v>491.712558367616</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -1971,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0292450085719206</v>
+        <v>0.0272923185694777</v>
       </c>
       <c r="D76" t="n">
-        <v>2.00587274784148</v>
+        <v>1.82778824399456</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0545135226051104</v>
+        <v>0.0516502216060126</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -1991,13 +1991,13 @@
         <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>0.999833059484233</v>
+        <v>0.999825163028751</v>
       </c>
       <c r="D77" t="n">
-        <v>0.691226626695986</v>
+        <v>0.698795845613291</v>
       </c>
       <c r="E77" t="n">
-        <v>0.999641576775113</v>
+        <v>0.999648479258241</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2011,13 +2011,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>83.0428580598454</v>
+        <v>81.2611942326208</v>
       </c>
       <c r="D78" t="n">
-        <v>168.502493760253</v>
+        <v>165.304906232363</v>
       </c>
       <c r="E78" t="n">
-        <v>97.28613067658</v>
+        <v>95.2684795659111</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2031,13 +2031,13 @@
         <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>19467.7474683953</v>
+        <v>19473.9930043879</v>
       </c>
       <c r="D79" t="n">
-        <v>6906.04544989655</v>
+        <v>6946.19406056526</v>
       </c>
       <c r="E79" t="n">
-        <v>17993.7925464223</v>
+        <v>18001.998174285</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2051,13 +2051,13 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>1.21749623723667</v>
+        <v>1.22165528357395</v>
       </c>
       <c r="D80" t="n">
-        <v>1.07936711431003</v>
+        <v>1.05358116253649</v>
       </c>
       <c r="E80" t="n">
-        <v>1.20927938605373</v>
+        <v>1.20832340578219</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2071,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>0.113919432838802</v>
+        <v>0.113333755920684</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0102082037319277</v>
+        <v>0.00906131359341041</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0959209021756579</v>
+        <v>0.0952390043049617</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2091,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>22.7619460526528</v>
+        <v>24.0111596511084</v>
       </c>
       <c r="D82" t="n">
-        <v>30.1535213033783</v>
+        <v>35.4630254690065</v>
       </c>
       <c r="E82" t="n">
-        <v>23.9938752611071</v>
+        <v>25.9198039540914</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2111,13 +2111,13 @@
         <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>20016.5644520722</v>
+        <v>20195.9835109662</v>
       </c>
       <c r="D83" t="n">
-        <v>2443.01385982774</v>
+        <v>2775.09329101667</v>
       </c>
       <c r="E83" t="n">
-        <v>18299.7385183465</v>
+        <v>18471.1030741261</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -2131,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>0.629354604213268</v>
+        <v>0.640629756009895</v>
       </c>
       <c r="D84" t="n">
-        <v>1.07675930519517</v>
+        <v>1.23454947154309</v>
       </c>
       <c r="E84" t="n">
-        <v>2.22451637077711</v>
+        <v>2.54328777408371</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -2151,13 +2151,13 @@
         <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0897512138427897</v>
+        <v>0.0741677501422208</v>
       </c>
       <c r="D85" t="n">
-        <v>0.430144765421159</v>
+        <v>0.422474282736407</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0767079908466726</v>
+        <v>0.0558487752276089</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -2171,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>20.5495833840905</v>
+        <v>20.5494211381358</v>
       </c>
       <c r="D86" t="n">
-        <v>18.7872106353941</v>
+        <v>18.7760161387249</v>
       </c>
       <c r="E86" t="n">
-        <v>20.2558545926411</v>
+        <v>20.253853638234</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -2191,13 +2191,13 @@
         <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>19596.5023202209</v>
+        <v>19596.5402726489</v>
       </c>
       <c r="D87" t="n">
-        <v>750.754421466596</v>
+        <v>750.260035034905</v>
       </c>
       <c r="E87" t="n">
-        <v>17891.7026771884</v>
+        <v>17891.7338614229</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -2211,13 +2211,13 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>2.39161927196005</v>
+        <v>2.39196742634486</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37764519816664</v>
+        <v>1.37694090189236</v>
       </c>
       <c r="E88" t="n">
-        <v>2.31150290723116</v>
+        <v>2.31176837193726</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -2231,13 +2231,13 @@
         <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>0.371910675357318</v>
+        <v>0.371913495853291</v>
       </c>
       <c r="D89" t="n">
-        <v>0.90706288844803</v>
+        <v>0.907052942150828</v>
       </c>
       <c r="E89" t="n">
-        <v>0.33531802798723</v>
+        <v>0.335337040643338</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>14.0319527747094</v>
+        <v>14.255609743448</v>
       </c>
       <c r="D90" t="n">
-        <v>13.6990189503591</v>
+        <v>15.0390566876115</v>
       </c>
       <c r="E90" t="n">
-        <v>13.9709572649047</v>
+        <v>14.3991420080275</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>15692.9535245895</v>
+        <v>16043.6402756433</v>
       </c>
       <c r="D91" t="n">
-        <v>793.507267856936</v>
+        <v>880.384526248305</v>
       </c>
       <c r="E91" t="n">
-        <v>14186.8319375513</v>
+        <v>14504.6004622017</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.453252429150406</v>
+        <v>0.461751314568036</v>
       </c>
       <c r="D92" t="n">
-        <v>0.871469323001886</v>
+        <v>0.914569022795996</v>
       </c>
       <c r="E92" t="n">
-        <v>1.21892335323411</v>
+        <v>1.28915565865127</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.940466194627946</v>
+        <v>0.940843992169008</v>
       </c>
       <c r="D93" t="n">
-        <v>0.658562137486986</v>
+        <v>0.64724969258174</v>
       </c>
       <c r="E93" t="n">
-        <v>0.93427012110279</v>
+        <v>0.932361045517682</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2331,13 +2331,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>119.921898327384</v>
+        <v>119.921898327383</v>
       </c>
       <c r="D94" t="n">
         <v>145.031967246838</v>
       </c>
       <c r="E94" t="n">
-        <v>124.10690981396</v>
+        <v>124.106909813959</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -2354,7 +2354,7 @@
         <v>23230.5284978359</v>
       </c>
       <c r="D95" t="n">
-        <v>7742.52363893271</v>
+        <v>7742.5236389327</v>
       </c>
       <c r="E95" t="n">
         <v>21440.7475916896</v>
@@ -2374,7 +2374,7 @@
         <v>1.82248385450416</v>
       </c>
       <c r="D96" t="n">
-        <v>0.808526779578453</v>
+        <v>0.808526779578451</v>
       </c>
       <c r="E96" t="n">
         <v>1.37135075623412</v>
@@ -2391,13 +2391,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>0.00146001108544047</v>
+        <v>0.0014600110854405</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0217967914342895</v>
+        <v>0.0217967914342891</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00172468353970069</v>
+        <v>0.00172468353970072</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -2411,13 +2411,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>0.981010172166566</v>
+        <v>0.982696042462441</v>
       </c>
       <c r="D98" t="n">
-        <v>11.4691534918662</v>
+        <v>12.8637307736466</v>
       </c>
       <c r="E98" t="n">
-        <v>2.88794532120287</v>
+        <v>3.14288417540501</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -2431,13 +2431,13 @@
         <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>30.9562023266075</v>
+        <v>30.9746312222889</v>
       </c>
       <c r="D99" t="n">
-        <v>322.843358588286</v>
+        <v>367.424319096956</v>
       </c>
       <c r="E99" t="n">
-        <v>140.479777428996</v>
+        <v>159.155758625983</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -2451,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0679217600242411</v>
+        <v>0.0681632541523845</v>
       </c>
       <c r="D100" t="n">
-        <v>1.03404290405461</v>
+        <v>1.19532172842963</v>
       </c>
       <c r="E100" t="n">
-        <v>0.21893675284298</v>
+        <v>0.241393140353701</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
@@ -2471,13 +2471,13 @@
         <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>0.997199306891788</v>
+        <v>0.997199859932395</v>
       </c>
       <c r="D101" t="n">
-        <v>0.42412565380898</v>
+        <v>0.335633918711219</v>
       </c>
       <c r="E101" t="n">
-        <v>0.934899770750161</v>
+        <v>0.917670485125645</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
@@ -2491,13 +2491,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>7.39417150355755</v>
+        <v>7.33170439604985</v>
       </c>
       <c r="D102" t="n">
-        <v>7.72192702108494</v>
+        <v>7.97981926920657</v>
       </c>
       <c r="E102" t="n">
-        <v>7.44879742314545</v>
+        <v>7.43972354157597</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
@@ -2511,13 +2511,13 @@
         <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>223.622384921337</v>
+        <v>220.787889271125</v>
       </c>
       <c r="D103" t="n">
-        <v>254.143117979431</v>
+        <v>257.901505482627</v>
       </c>
       <c r="E103" t="n">
-        <v>228.991841050375</v>
+        <v>227.394534812001</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -2531,13 +2531,13 @@
         <v>10</v>
       </c>
       <c r="C104" t="n">
-        <v>0.51086321902928</v>
+        <v>0.506220967723691</v>
       </c>
       <c r="D104" t="n">
-        <v>0.649760742396729</v>
+        <v>0.668300307402329</v>
       </c>
       <c r="E104" t="n">
-        <v>0.583161174941603</v>
+        <v>0.580316250407316</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
@@ -2551,13 +2551,13 @@
         <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>0.857852970153896</v>
+        <v>0.861318798653373</v>
       </c>
       <c r="D105" t="n">
-        <v>0.750593107816147</v>
+        <v>0.74674909101264</v>
       </c>
       <c r="E105" t="n">
-        <v>0.83936919672567</v>
+        <v>0.841909780189068</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -2571,13 +2571,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>6.96404300815188</v>
+        <v>6.99396795427434</v>
       </c>
       <c r="D106" t="n">
-        <v>7.95300738770776</v>
+        <v>8.02936301564036</v>
       </c>
       <c r="E106" t="n">
-        <v>7.12887040474452</v>
+        <v>7.16653379783535</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -2591,13 +2591,13 @@
         <v>9</v>
       </c>
       <c r="C107" t="n">
-        <v>222.310331124117</v>
+        <v>222.77192013947</v>
       </c>
       <c r="D107" t="n">
-        <v>277.304215847563</v>
+        <v>288.914732159381</v>
       </c>
       <c r="E107" t="n">
-        <v>232.381527073261</v>
+        <v>235.091600754493</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
@@ -2611,13 +2611,13 @@
         <v>10</v>
       </c>
       <c r="C108" t="n">
-        <v>0.483217774691027</v>
+        <v>0.48491094037781</v>
       </c>
       <c r="D108" t="n">
-        <v>0.654003112691983</v>
+        <v>0.654810682876471</v>
       </c>
       <c r="E108" t="n">
-        <v>0.550584029086828</v>
+        <v>0.552206905000674</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
@@ -2631,13 +2631,13 @@
         <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>0.86177425496765</v>
+        <v>0.861081144679056</v>
       </c>
       <c r="D109" t="n">
-        <v>0.746201645728779</v>
+        <v>0.744167084274545</v>
       </c>
       <c r="E109" t="n">
-        <v>0.843320790168804</v>
+        <v>0.840473894024501</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
@@ -2651,13 +2651,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>6.42671016215826</v>
+        <v>6.42671602356362</v>
       </c>
       <c r="D110" t="n">
-        <v>8.25600825572309</v>
+        <v>8.25603499557108</v>
       </c>
       <c r="E110" t="n">
-        <v>6.7315931777524</v>
+        <v>6.73160251889819</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
@@ -2671,13 +2671,13 @@
         <v>9</v>
       </c>
       <c r="C111" t="n">
-        <v>230.763378013902</v>
+        <v>230.763832234107</v>
       </c>
       <c r="D111" t="n">
-        <v>273.787121281211</v>
+        <v>273.788281475486</v>
       </c>
       <c r="E111" t="n">
-        <v>238.473643177252</v>
+        <v>238.474231455642</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
@@ -2691,13 +2691,13 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.470236567335689</v>
+        <v>0.470236725622675</v>
       </c>
       <c r="D112" t="n">
-        <v>0.714027873351681</v>
+        <v>0.714028341946097</v>
       </c>
       <c r="E112" t="n">
-        <v>0.508966462825322</v>
+        <v>0.508966742895671</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -2711,13 +2711,13 @@
         <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>0.864722266955154</v>
+        <v>0.864722036839581</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740890614328872</v>
+        <v>0.740890330544624</v>
       </c>
       <c r="E113" t="n">
-        <v>0.852100152278524</v>
+        <v>0.852099888291127</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -2731,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.10235558813753</v>
+        <v>5.11422269491584</v>
       </c>
       <c r="D114" t="n">
-        <v>7.46468317969866</v>
+        <v>7.24348056305527</v>
       </c>
       <c r="E114" t="n">
-        <v>5.5318696956941</v>
+        <v>5.50136048912301</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -2751,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>168.066823465031</v>
+        <v>168.344854956273</v>
       </c>
       <c r="D115" t="n">
-        <v>235.45804205491</v>
+        <v>227.567057704382</v>
       </c>
       <c r="E115" t="n">
-        <v>182.183497277607</v>
+        <v>180.563119967581</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -2771,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>0.35462511030836</v>
+        <v>0.355213478686235</v>
       </c>
       <c r="D116" t="n">
-        <v>0.682417834898501</v>
+        <v>0.707488477021379</v>
       </c>
       <c r="E116" t="n">
-        <v>0.436814627605003</v>
+        <v>0.438659023592348</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.914115910849279</v>
+        <v>0.913814878087152</v>
       </c>
       <c r="D117" t="n">
-        <v>0.696970254006972</v>
+        <v>0.759143834697646</v>
       </c>
       <c r="E117" t="n">
-        <v>0.890798139451365</v>
+        <v>0.893909497662592</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -2811,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>10.0337035658491</v>
+        <v>10.0337035658492</v>
       </c>
       <c r="D118" t="n">
-        <v>8.67653125460299</v>
+        <v>8.6765312546033</v>
       </c>
       <c r="E118" t="n">
-        <v>9.80750818064143</v>
+        <v>9.80750818064158</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
@@ -2831,13 +2831,13 @@
         <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>308.887982064409</v>
+        <v>308.887982064411</v>
       </c>
       <c r="D119" t="n">
-        <v>301.301215912224</v>
+        <v>301.301215912237</v>
       </c>
       <c r="E119" t="n">
-        <v>307.636514420644</v>
+        <v>307.636514420647</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
@@ -2851,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="C120" t="n">
-        <v>0.65962282770886</v>
+        <v>0.659622827708869</v>
       </c>
       <c r="D120" t="n">
-        <v>0.750184226087751</v>
+        <v>0.750184226087784</v>
       </c>
       <c r="E120" t="n">
-        <v>0.698401156077226</v>
+        <v>0.698401156077255</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
@@ -2871,13 +2871,13 @@
         <v>11</v>
       </c>
       <c r="C121" t="n">
-        <v>0.757749998003069</v>
+        <v>0.757749998003067</v>
       </c>
       <c r="D121" t="n">
-        <v>0.723692209112963</v>
+        <v>0.723692209112975</v>
       </c>
       <c r="E121" t="n">
-        <v>0.754181058493619</v>
+        <v>0.754181058493616</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -2891,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>8.39027955964933</v>
+        <v>8.37496627187801</v>
       </c>
       <c r="D122" t="n">
-        <v>14.4372774231928</v>
+        <v>14.4803931499981</v>
       </c>
       <c r="E122" t="n">
-        <v>9.48973371665724</v>
+        <v>9.48504388608165</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
@@ -2911,13 +2911,13 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>263.664374301903</v>
+        <v>263.001402370648</v>
       </c>
       <c r="D123" t="n">
-        <v>270.955705470455</v>
+        <v>271.431952821774</v>
       </c>
       <c r="E123" t="n">
-        <v>265.004992944063</v>
+        <v>264.554213187122</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29440111571537</v>
+        <v>1.29154606267152</v>
       </c>
       <c r="D124" t="n">
-        <v>8.51888035163761</v>
+        <v>8.65969467282252</v>
       </c>
       <c r="E124" t="n">
-        <v>1.55681485567161</v>
+        <v>1.55575651070029</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
@@ -2951,13 +2951,13 @@
         <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>0.872784279219149</v>
+        <v>0.873470096231961</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00157390471826995</v>
+        <v>0.00300003387955847</v>
       </c>
       <c r="E125" t="n">
-        <v>0.874741406968688</v>
+        <v>0.875256181808086</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
@@ -2971,13 +2971,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>10.6305878461296</v>
+        <v>10.6847658020886</v>
       </c>
       <c r="D126" t="n">
-        <v>15.6606030715951</v>
+        <v>15.5369277521842</v>
       </c>
       <c r="E126" t="n">
-        <v>11.4689237170405</v>
+        <v>11.4934594604378</v>
       </c>
       <c r="F126" t="s">
         <v>21</v>
@@ -2991,13 +2991,13 @@
         <v>9</v>
       </c>
       <c r="C127" t="n">
-        <v>357.824937832704</v>
+        <v>359.57242905139</v>
       </c>
       <c r="D127" t="n">
-        <v>287.413776937276</v>
+        <v>290.524767997189</v>
       </c>
       <c r="E127" t="n">
-        <v>347.083109607349</v>
+        <v>349.014397861895</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
@@ -3011,13 +3011,13 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>1.00789474288422</v>
+        <v>1.0147499969149</v>
       </c>
       <c r="D128" t="n">
-        <v>1.51846826592802</v>
+        <v>1.49388975879038</v>
       </c>
       <c r="E128" t="n">
-        <v>1.46304151718104</v>
+        <v>1.46883026310945</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -3031,13 +3031,13 @@
         <v>11</v>
       </c>
       <c r="C129" t="n">
-        <v>0.886386893483781</v>
+        <v>0.885590652711481</v>
       </c>
       <c r="D129" t="n">
-        <v>0.136555661006709</v>
+        <v>0.132026541299535</v>
       </c>
       <c r="E129" t="n">
-        <v>0.89136257757607</v>
+        <v>0.890211287866745</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
@@ -3051,13 +3051,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>6.94116082996718</v>
+        <v>7.18971269862244</v>
       </c>
       <c r="D130" t="n">
-        <v>13.4657343225172</v>
+        <v>13.2417268102839</v>
       </c>
       <c r="E130" t="n">
-        <v>8.02858974539219</v>
+        <v>8.19838171723267</v>
       </c>
       <c r="F130" t="s">
         <v>21</v>
@@ -3071,13 +3071,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>264.304416984321</v>
+        <v>279.293370798409</v>
       </c>
       <c r="D131" t="n">
-        <v>292.02656643926</v>
+        <v>273.893638651594</v>
       </c>
       <c r="E131" t="n">
-        <v>269.123156347118</v>
+        <v>278.400688502949</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
@@ -3091,13 +3091,13 @@
         <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>0.705055090562599</v>
+        <v>0.744708232555061</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72052461055445</v>
+        <v>2.68453867034741</v>
       </c>
       <c r="E132" t="n">
-        <v>0.857857120014631</v>
+        <v>0.926201368290155</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -3111,13 +3111,13 @@
         <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>0.937897868672108</v>
+        <v>0.935845644473806</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0599827335312671</v>
+        <v>0.0755620545654345</v>
       </c>
       <c r="E133" t="n">
-        <v>0.93624695196891</v>
+        <v>0.935687231490189</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
@@ -3131,13 +3131,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>6.79942109120896</v>
+        <v>6.80143892669249</v>
       </c>
       <c r="D134" t="n">
-        <v>18.5737958381289</v>
+        <v>18.5753170339769</v>
       </c>
       <c r="E134" t="n">
-        <v>8.76181688236227</v>
+        <v>8.76375194457323</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -3151,13 +3151,13 @@
         <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>252.13222631895</v>
+        <v>252.424213278333</v>
       </c>
       <c r="D135" t="n">
-        <v>388.661624575887</v>
+        <v>388.679965697051</v>
       </c>
       <c r="E135" t="n">
-        <v>279.556540542553</v>
+        <v>279.780280750267</v>
       </c>
       <c r="F135" t="s">
         <v>21</v>
@@ -3171,13 +3171,13 @@
         <v>10</v>
       </c>
       <c r="C136" t="n">
-        <v>0.728918520021612</v>
+        <v>0.729277637274964</v>
       </c>
       <c r="D136" t="n">
-        <v>3.81488308083222</v>
+        <v>3.81461666767568</v>
       </c>
       <c r="E136" t="n">
-        <v>0.906114137706993</v>
+        <v>0.906448908448864</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
@@ -3191,13 +3191,13 @@
         <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>0.943838585385532</v>
+        <v>0.943709624067753</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00195289482737922</v>
+        <v>0.0019519966989442</v>
       </c>
       <c r="E137" t="n">
-        <v>0.935582055361075</v>
+        <v>0.935476429040778</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>6.46540775527287</v>
+        <v>6.52534919522629</v>
       </c>
       <c r="D138" t="n">
-        <v>13.9483942572092</v>
+        <v>13.9527604001783</v>
       </c>
       <c r="E138" t="n">
-        <v>7.82595075562494</v>
+        <v>7.87578759612665</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>210.319106945759</v>
+        <v>210.430330622737</v>
       </c>
       <c r="D139" t="n">
-        <v>311.282434827205</v>
+        <v>309.210630626838</v>
       </c>
       <c r="E139" t="n">
-        <v>231.967993321583</v>
+        <v>231.546332414221</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.647207495709582</v>
+        <v>0.655617239940207</v>
       </c>
       <c r="D140" t="n">
-        <v>3.49781043202088</v>
+        <v>3.45575658854532</v>
       </c>
       <c r="E140" t="n">
-        <v>1.03360561836416</v>
+        <v>1.05124070592961</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.918755417125219</v>
+        <v>0.918689709622719</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00142057533885205</v>
+        <v>0.00215495160126611</v>
       </c>
       <c r="E141" t="n">
-        <v>0.907848331728415</v>
+        <v>0.908091010398784</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3294,10 +3294,10 @@
         <v>10.8290099400941</v>
       </c>
       <c r="D142" t="n">
-        <v>20.471550373075</v>
+        <v>20.4715503730842</v>
       </c>
       <c r="E142" t="n">
-        <v>12.4361000122576</v>
+        <v>12.4361000122592</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -3311,13 +3311,13 @@
         <v>9</v>
       </c>
       <c r="C143" t="n">
-        <v>408.826842225962</v>
+        <v>408.826842225961</v>
       </c>
       <c r="D143" t="n">
-        <v>398.945718376541</v>
+        <v>398.945718376644</v>
       </c>
       <c r="E143" t="n">
-        <v>407.19663980957</v>
+        <v>407.196639809587</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -3334,10 +3334,10 @@
         <v>1.04726496232252</v>
       </c>
       <c r="D144" t="n">
-        <v>1.77628815379407</v>
+        <v>1.77628815379474</v>
       </c>
       <c r="E144" t="n">
-        <v>0.876937290322865</v>
+        <v>0.876937290322926</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -3354,10 +3354,10 @@
         <v>0.879254671074142</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0638645778586714</v>
+        <v>0.0638645778586695</v>
       </c>
       <c r="E145" t="n">
-        <v>0.885159769400674</v>
+        <v>0.885159769400672</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -3371,13 +3371,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>8.50769429179373</v>
+        <v>8.46353714831692</v>
       </c>
       <c r="D146" t="n">
-        <v>12.7608136173166</v>
+        <v>12.7625867272184</v>
       </c>
       <c r="E146" t="n">
-        <v>9.28098871461606</v>
+        <v>9.24518252629901</v>
       </c>
       <c r="F146" t="s">
         <v>22</v>
@@ -3391,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>118.600729098456</v>
+        <v>118.032254045722</v>
       </c>
       <c r="D147" t="n">
-        <v>142.537925952914</v>
+        <v>141.952533381403</v>
       </c>
       <c r="E147" t="n">
-        <v>123.299088381974</v>
+        <v>122.728658734632</v>
       </c>
       <c r="F147" t="s">
         <v>22</v>
@@ -3411,13 +3411,13 @@
         <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>0.57072365542926</v>
+        <v>0.567131692130773</v>
       </c>
       <c r="D148" t="n">
-        <v>0.893016652070549</v>
+        <v>0.893405085171715</v>
       </c>
       <c r="E148" t="n">
-        <v>0.62087844950034</v>
+        <v>0.617831219756162</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
@@ -3431,13 +3431,13 @@
         <v>11</v>
       </c>
       <c r="C149" t="n">
-        <v>0.897613413109337</v>
+        <v>0.898516019179347</v>
       </c>
       <c r="D149" t="n">
-        <v>0.722294437609753</v>
+        <v>0.724246182185143</v>
       </c>
       <c r="E149" t="n">
-        <v>0.882582682112442</v>
+        <v>0.883625616678189</v>
       </c>
       <c r="F149" t="s">
         <v>22</v>
@@ -3451,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>12.0379196898419</v>
+        <v>12.0556551549797</v>
       </c>
       <c r="D150" t="n">
-        <v>18.8933188108265</v>
+        <v>18.9834548210993</v>
       </c>
       <c r="E150" t="n">
-        <v>13.180486210006</v>
+        <v>13.2102884326663</v>
       </c>
       <c r="F150" t="s">
         <v>22</v>
@@ -3471,13 +3471,13 @@
         <v>9</v>
       </c>
       <c r="C151" t="n">
-        <v>156.9977378848</v>
+        <v>157.133686649909</v>
       </c>
       <c r="D151" t="n">
-        <v>180.269706420155</v>
+        <v>180.500455401592</v>
       </c>
       <c r="E151" t="n">
-        <v>161.110011874666</v>
+        <v>161.263444814761</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -3491,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>0.704012523862613</v>
+        <v>0.704539459416467</v>
       </c>
       <c r="D152" t="n">
-        <v>0.853095211739721</v>
+        <v>0.853570267435481</v>
       </c>
       <c r="E152" t="n">
-        <v>0.76928727012971</v>
+        <v>0.769840175657722</v>
       </c>
       <c r="F152" t="s">
         <v>22</v>
@@ -3511,13 +3511,13 @@
         <v>11</v>
       </c>
       <c r="C153" t="n">
-        <v>0.835255812806831</v>
+        <v>0.834971779714353</v>
       </c>
       <c r="D153" t="n">
-        <v>0.707953644621593</v>
+        <v>0.708299802043448</v>
       </c>
       <c r="E153" t="n">
-        <v>0.822441011978446</v>
+        <v>0.822259075906007</v>
       </c>
       <c r="F153" t="s">
         <v>22</v>
@@ -3531,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>8.19765218636578</v>
+        <v>8.23298340951247</v>
       </c>
       <c r="D154" t="n">
-        <v>13.6442568884627</v>
+        <v>13.5824867286767</v>
       </c>
       <c r="E154" t="n">
-        <v>9.10541963671527</v>
+        <v>9.12456729603985</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -3551,13 +3551,13 @@
         <v>9</v>
       </c>
       <c r="C155" t="n">
-        <v>114.481260666375</v>
+        <v>114.568400280262</v>
       </c>
       <c r="D155" t="n">
-        <v>146.080117241549</v>
+        <v>145.921719810877</v>
       </c>
       <c r="E155" t="n">
-        <v>120.325389307575</v>
+        <v>120.362466482466</v>
       </c>
       <c r="F155" t="s">
         <v>22</v>
@@ -3571,13 +3571,13 @@
         <v>10</v>
       </c>
       <c r="C156" t="n">
-        <v>0.48319270617681</v>
+        <v>0.484568854925523</v>
       </c>
       <c r="D156" t="n">
-        <v>1.04232082731086</v>
+        <v>1.03335542169108</v>
       </c>
       <c r="E156" t="n">
-        <v>0.590827839794466</v>
+        <v>0.590568986882709</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -3591,13 +3591,13 @@
         <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>0.912886965919689</v>
+        <v>0.912907753056021</v>
       </c>
       <c r="D157" t="n">
-        <v>0.674760541735437</v>
+        <v>0.676034232844521</v>
       </c>
       <c r="E157" t="n">
-        <v>0.899884468858711</v>
+        <v>0.899946327541907</v>
       </c>
       <c r="F157" t="s">
         <v>22</v>
@@ -3611,13 +3611,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>9.42874513615647</v>
+        <v>9.45081987285483</v>
       </c>
       <c r="D158" t="n">
-        <v>12.7477803537015</v>
+        <v>12.7476014988105</v>
       </c>
       <c r="E158" t="n">
-        <v>9.98191767241398</v>
+        <v>10.0002834771808</v>
       </c>
       <c r="F158" t="s">
         <v>22</v>
@@ -3631,13 +3631,13 @@
         <v>9</v>
       </c>
       <c r="C159" t="n">
-        <v>148.397422447356</v>
+        <v>149.056638966957</v>
       </c>
       <c r="D159" t="n">
-        <v>131.316941247514</v>
+        <v>131.315911815855</v>
       </c>
       <c r="E159" t="n">
-        <v>145.689804037951</v>
+        <v>146.249374241771</v>
       </c>
       <c r="F159" t="s">
         <v>22</v>
@@ -3651,13 +3651,13 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.611938475306052</v>
+        <v>0.613665347173949</v>
       </c>
       <c r="D160" t="n">
-        <v>0.958324446292938</v>
+        <v>0.958293938244188</v>
       </c>
       <c r="E160" t="n">
-        <v>0.652421487782511</v>
+        <v>0.653957664268937</v>
       </c>
       <c r="F160" t="s">
         <v>22</v>
@@ -3671,13 +3671,13 @@
         <v>11</v>
       </c>
       <c r="C161" t="n">
-        <v>0.857926815344758</v>
+        <v>0.856710642091367</v>
       </c>
       <c r="D161" t="n">
-        <v>0.726418524544251</v>
+        <v>0.726422085060254</v>
       </c>
       <c r="E161" t="n">
-        <v>0.855472396131257</v>
+        <v>0.854393530168404</v>
       </c>
       <c r="F161" t="s">
         <v>22</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>6.81666934642373</v>
+        <v>6.82054668929007</v>
       </c>
       <c r="D162" t="n">
-        <v>13.3313928415434</v>
+        <v>13.2566731673194</v>
       </c>
       <c r="E162" t="n">
-        <v>8.00116452735459</v>
+        <v>7.99075150347722</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>90.9578181980932</v>
+        <v>90.7924118130654</v>
       </c>
       <c r="D163" t="n">
-        <v>140.409786154982</v>
+        <v>138.739641062696</v>
       </c>
       <c r="E163" t="n">
-        <v>101.752703032397</v>
+        <v>101.213875436627</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.414217545506825</v>
+        <v>0.414078416244065</v>
       </c>
       <c r="D164" t="n">
-        <v>0.980528162647307</v>
+        <v>0.978636120958603</v>
       </c>
       <c r="E164" t="n">
-        <v>0.51426883241514</v>
+        <v>0.512086160996099</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.93845759931025</v>
+        <v>0.938679486225745</v>
       </c>
       <c r="D165" t="n">
-        <v>0.704336177057731</v>
+        <v>0.709783733007702</v>
       </c>
       <c r="E165" t="n">
-        <v>0.919989977875627</v>
+        <v>0.920859085847311</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -3771,7 +3771,7 @@
         <v>7</v>
       </c>
       <c r="C166" t="n">
-        <v>12.7435513642867</v>
+        <v>12.7435513642868</v>
       </c>
       <c r="D166" t="n">
         <v>17.6241512131018</v>
@@ -3794,7 +3794,7 @@
         <v>205.333415235662</v>
       </c>
       <c r="D167" t="n">
-        <v>203.742297474827</v>
+        <v>203.742297474825</v>
       </c>
       <c r="E167" t="n">
         <v>205.069086262014</v>
@@ -3811,13 +3811,13 @@
         <v>10</v>
       </c>
       <c r="C168" t="n">
-        <v>0.739389089150135</v>
+        <v>0.739389089150136</v>
       </c>
       <c r="D168" t="n">
-        <v>0.95600535051495</v>
+        <v>0.956005350514935</v>
       </c>
       <c r="E168" t="n">
-        <v>0.715576323016741</v>
+        <v>0.71557632301674</v>
       </c>
       <c r="F168" t="s">
         <v>22</v>
@@ -3834,7 +3834,7 @@
         <v>0.778868282354185</v>
       </c>
       <c r="D169" t="n">
-        <v>0.648802616181464</v>
+        <v>0.648802616181465</v>
       </c>
       <c r="E169" t="n">
         <v>0.771099244166617</v>
@@ -3851,13 +3851,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="n">
-        <v>0.710744831186639</v>
+        <v>0.714239485283132</v>
       </c>
       <c r="D170" t="n">
-        <v>10.5476736664067</v>
+        <v>10.6648379605946</v>
       </c>
       <c r="E170" t="n">
-        <v>2.49927734668119</v>
+        <v>2.52343920806704</v>
       </c>
       <c r="F170" t="s">
         <v>23</v>
@@ -3871,13 +3871,13 @@
         <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>1042.84980524364</v>
+        <v>1043.60985531733</v>
       </c>
       <c r="D171" t="n">
-        <v>12621.773052878</v>
+        <v>12781.7571334567</v>
       </c>
       <c r="E171" t="n">
-        <v>5463.98232596788</v>
+        <v>5531.30532521594</v>
       </c>
       <c r="F171" t="s">
         <v>23</v>
@@ -3891,13 +3891,13 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0977265220463755</v>
+        <v>0.0981743451919994</v>
       </c>
       <c r="D172" t="n">
-        <v>1.61182249166592</v>
+        <v>1.65354565222971</v>
       </c>
       <c r="E172" t="n">
-        <v>0.346424089284516</v>
+        <v>0.350133711803183</v>
       </c>
       <c r="F172" t="s">
         <v>23</v>
@@ -3911,13 +3911,13 @@
         <v>11</v>
       </c>
       <c r="C173" t="n">
-        <v>0.992421285169717</v>
+        <v>0.992412077647499</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0215708513680655</v>
+        <v>0.0176492522624122</v>
       </c>
       <c r="E173" t="n">
-        <v>0.753507894961158</v>
+        <v>0.748073855653093</v>
       </c>
       <c r="F173" t="s">
         <v>23</v>
@@ -3931,13 +3931,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>4.50886443175681</v>
+        <v>4.5140734100239</v>
       </c>
       <c r="D174" t="n">
-        <v>5.58965935854699</v>
+        <v>5.67389232480993</v>
       </c>
       <c r="E174" t="n">
-        <v>4.68899691955518</v>
+        <v>4.70737656248824</v>
       </c>
       <c r="F174" t="s">
         <v>23</v>
@@ -3951,13 +3951,13 @@
         <v>9</v>
       </c>
       <c r="C175" t="n">
-        <v>6373.59204234111</v>
+        <v>6379.44848649793</v>
       </c>
       <c r="D175" t="n">
-        <v>7132.89891731115</v>
+        <v>7203.73009511947</v>
       </c>
       <c r="E175" t="n">
-        <v>6506.29982626516</v>
+        <v>6524.06496803353</v>
       </c>
       <c r="F175" t="s">
         <v>23</v>
@@ -3971,13 +3971,13 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.54326506511005</v>
+        <v>0.543903743604827</v>
       </c>
       <c r="D176" t="n">
-        <v>1.05751815718681</v>
+        <v>1.07249776492406</v>
       </c>
       <c r="E176" t="n">
-        <v>0.87091197648653</v>
+        <v>0.87368696673668</v>
       </c>
       <c r="F176" t="s">
         <v>23</v>
@@ -3991,13 +3991,13 @@
         <v>11</v>
       </c>
       <c r="C177" t="n">
-        <v>0.674652487023776</v>
+        <v>0.674027560921881</v>
       </c>
       <c r="D177" t="n">
-        <v>0.672807451798318</v>
+        <v>0.67283829872913</v>
       </c>
       <c r="E177" t="n">
-        <v>0.640910764722278</v>
+        <v>0.639322495895215</v>
       </c>
       <c r="F177" t="s">
         <v>23</v>
@@ -4011,13 +4011,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>4.23425202248764</v>
+        <v>4.23425415131635</v>
       </c>
       <c r="D178" t="n">
-        <v>5.28620321687342</v>
+        <v>5.28620479246009</v>
       </c>
       <c r="E178" t="n">
-        <v>4.40957722155194</v>
+        <v>4.40957925817364</v>
       </c>
       <c r="F178" t="s">
         <v>23</v>
@@ -4031,13 +4031,13 @@
         <v>9</v>
       </c>
       <c r="C179" t="n">
-        <v>6186.50676253961</v>
+        <v>6186.50757103765</v>
       </c>
       <c r="D179" t="n">
-        <v>6740.76024469666</v>
+        <v>6740.76352105229</v>
       </c>
       <c r="E179" t="n">
-        <v>6282.2790223934</v>
+        <v>6282.28027178137</v>
       </c>
       <c r="F179" t="s">
         <v>23</v>
@@ -4051,13 +4051,13 @@
         <v>10</v>
       </c>
       <c r="C180" t="n">
-        <v>0.509485194084341</v>
+        <v>0.509485439710404</v>
       </c>
       <c r="D180" t="n">
-        <v>0.976144958626489</v>
+        <v>0.976146043356016</v>
       </c>
       <c r="E180" t="n">
-        <v>0.775889143350523</v>
+        <v>0.775890283630303</v>
       </c>
       <c r="F180" t="s">
         <v>23</v>
@@ -4071,13 +4071,13 @@
         <v>11</v>
       </c>
       <c r="C181" t="n">
-        <v>0.697375917533315</v>
+        <v>0.697375810396053</v>
       </c>
       <c r="D181" t="n">
-        <v>0.705790569937886</v>
+        <v>0.705790170049253</v>
       </c>
       <c r="E181" t="n">
-        <v>0.665183890778296</v>
+        <v>0.665183692333017</v>
       </c>
       <c r="F181" t="s">
         <v>23</v>
@@ -4091,13 +4091,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="n">
-        <v>9.8600032927692</v>
+        <v>9.86003291424551</v>
       </c>
       <c r="D182" t="n">
-        <v>7.33454407662589</v>
+        <v>7.33454407676525</v>
       </c>
       <c r="E182" t="n">
-        <v>9.43909342341198</v>
+        <v>9.4391181079988</v>
       </c>
       <c r="F182" t="s">
         <v>23</v>
@@ -4111,13 +4111,13 @@
         <v>9</v>
       </c>
       <c r="C183" t="n">
-        <v>15019.020815717</v>
+        <v>15019.0796907028</v>
       </c>
       <c r="D183" t="n">
-        <v>9396.49451696165</v>
+        <v>9396.49451712075</v>
       </c>
       <c r="E183" t="n">
-        <v>14236.9767420497</v>
+        <v>14237.0284995892</v>
       </c>
       <c r="F183" t="s">
         <v>23</v>
@@ -4131,13 +4131,13 @@
         <v>10</v>
       </c>
       <c r="C184" t="n">
-        <v>0.991788830762114</v>
+        <v>0.991788830641351</v>
       </c>
       <c r="D184" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E184" t="n">
-        <v>1.15741454709455</v>
+        <v>1.15741439608795</v>
       </c>
       <c r="F184" t="s">
         <v>23</v>
@@ -4151,11 +4151,11 @@
         <v>11</v>
       </c>
       <c r="C185" t="n">
-        <v>0.103976421978669</v>
+        <v>0.103975299045317</v>
       </c>
       <c r="D185"/>
       <c r="E185" t="n">
-        <v>0.0911797081634487</v>
+        <v>0.0911787402611963</v>
       </c>
       <c r="F185" t="s">
         <v>23</v>
@@ -4169,13 +4169,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>3.74969838221615</v>
+        <v>3.7270417403051</v>
       </c>
       <c r="D186" t="n">
-        <v>6.64215647180378</v>
+        <v>6.84043014883942</v>
       </c>
       <c r="E186" t="n">
-        <v>4.27559985305027</v>
+        <v>4.29311236003861</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>5464.76897846366</v>
+        <v>5457.38552011294</v>
       </c>
       <c r="D187" t="n">
-        <v>8431.17966973205</v>
+        <v>8429.22877895414</v>
       </c>
       <c r="E187" t="n">
-        <v>6112.15540867998</v>
+        <v>6106.26582850572</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
@@ -4209,13 +4209,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0.463242473711191</v>
+        <v>0.460559223662712</v>
       </c>
       <c r="D188" t="n">
-        <v>2.09092739818855</v>
+        <v>2.03669109473135</v>
       </c>
       <c r="E188" t="n">
-        <v>1.04817335061506</v>
+        <v>1.0390159409218</v>
       </c>
       <c r="F188" t="s">
         <v>23</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0.738511890801533</v>
+        <v>0.739104452986559</v>
       </c>
       <c r="D189" t="n">
-        <v>0.527644641096595</v>
+        <v>0.643918228820083</v>
       </c>
       <c r="E189" t="n">
-        <v>0.661290099037432</v>
+        <v>0.662652643349303</v>
       </c>
       <c r="F189" t="s">
         <v>23</v>
@@ -4252,10 +4252,10 @@
         <v>5.35496029334089</v>
       </c>
       <c r="D190" t="n">
-        <v>4.51986871541602</v>
+        <v>4.51986871541586</v>
       </c>
       <c r="E190" t="n">
-        <v>5.21577836368674</v>
+        <v>5.21577836368672</v>
       </c>
       <c r="F190" t="s">
         <v>23</v>
@@ -4272,10 +4272,10 @@
         <v>8381.14849161211</v>
       </c>
       <c r="D191" t="n">
-        <v>5365.90542425014</v>
+        <v>5365.90542425</v>
       </c>
       <c r="E191" t="n">
-        <v>7958.34144377517</v>
+        <v>7958.34144377515</v>
       </c>
       <c r="F191" t="s">
         <v>23</v>
@@ -4292,10 +4292,10 @@
         <v>0.645342211079142</v>
       </c>
       <c r="D192" t="n">
-        <v>0.910845675021037</v>
+        <v>0.910845675021002</v>
       </c>
       <c r="E192" t="n">
-        <v>0.834759539182961</v>
+        <v>0.834759539182957</v>
       </c>
       <c r="F192" t="s">
         <v>23</v>
@@ -4309,10 +4309,10 @@
         <v>11</v>
       </c>
       <c r="C193" t="n">
-        <v>0.542534522416014</v>
+        <v>0.542534522416015</v>
       </c>
       <c r="D193" t="n">
-        <v>0.583831665275599</v>
+        <v>0.583831665275602</v>
       </c>
       <c r="E193" t="n">
         <v>0.54946129008426</v>
@@ -4329,13 +4329,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>5.12592749008773</v>
+        <v>5.11486252705956</v>
       </c>
       <c r="D194" t="n">
-        <v>8.43181091550925</v>
+        <v>8.48823983900841</v>
       </c>
       <c r="E194" t="n">
-        <v>5.72699720380073</v>
+        <v>5.72820385650481</v>
       </c>
       <c r="F194" t="s">
         <v>24</v>
@@ -4349,13 +4349,13 @@
         <v>9</v>
       </c>
       <c r="C195" t="n">
-        <v>2281.2920419054</v>
+        <v>2278.7543692794</v>
       </c>
       <c r="D195" t="n">
-        <v>4500.73988889213</v>
+        <v>4532.96101676727</v>
       </c>
       <c r="E195" t="n">
-        <v>2817.99347568568</v>
+        <v>2825.69322851858</v>
       </c>
       <c r="F195" t="s">
         <v>24</v>
@@ -4369,13 +4369,13 @@
         <v>10</v>
       </c>
       <c r="C196" t="n">
-        <v>0.789972429127839</v>
+        <v>0.788391983114911</v>
       </c>
       <c r="D196" t="n">
-        <v>1.63203881117623</v>
+        <v>1.66383669269765</v>
       </c>
       <c r="E196" t="n">
-        <v>0.939437538465427</v>
+        <v>0.942624461941981</v>
       </c>
       <c r="F196" t="s">
         <v>24</v>
@@ -4389,13 +4389,13 @@
         <v>11</v>
       </c>
       <c r="C197" t="n">
-        <v>0.844701286032304</v>
+        <v>0.845066474454194</v>
       </c>
       <c r="D197" t="n">
-        <v>0.417877399887763</v>
+        <v>0.414527581825925</v>
       </c>
       <c r="E197" t="n">
-        <v>0.849921727067796</v>
+        <v>0.849532206618244</v>
       </c>
       <c r="F197" t="s">
         <v>24</v>
@@ -4409,13 +4409,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="n">
-        <v>4.0459468774387</v>
+        <v>4.01723781384302</v>
       </c>
       <c r="D198" t="n">
-        <v>8.0221353822427</v>
+        <v>8.01382553101845</v>
       </c>
       <c r="E198" t="n">
-        <v>4.7086449615727</v>
+        <v>4.68333576670559</v>
       </c>
       <c r="F198" t="s">
         <v>24</v>
@@ -4429,13 +4429,13 @@
         <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>1746.37457724283</v>
+        <v>1738.57775656181</v>
       </c>
       <c r="D199" t="n">
-        <v>4223.23578599983</v>
+        <v>4219.9832806471</v>
       </c>
       <c r="E199" t="n">
-        <v>2348.22064992304</v>
+        <v>2342.41762455654</v>
       </c>
       <c r="F199" t="s">
         <v>24</v>
@@ -4449,13 +4449,13 @@
         <v>10</v>
       </c>
       <c r="C200" t="n">
-        <v>0.411891378963103</v>
+        <v>0.408111670215084</v>
       </c>
       <c r="D200" t="n">
-        <v>1.65144502877476</v>
+        <v>1.64518623147191</v>
       </c>
       <c r="E200" t="n">
-        <v>0.742682089928564</v>
+        <v>0.736602039850967</v>
       </c>
       <c r="F200" t="s">
         <v>24</v>
@@ -4469,13 +4469,13 @@
         <v>11</v>
       </c>
       <c r="C201" t="n">
-        <v>0.934151019887513</v>
+        <v>0.934706547656285</v>
       </c>
       <c r="D201" t="n">
-        <v>0.760910476175683</v>
+        <v>0.760462750267101</v>
       </c>
       <c r="E201" t="n">
-        <v>0.926758172754067</v>
+        <v>0.926935674073667</v>
       </c>
       <c r="F201" t="s">
         <v>24</v>
@@ -4489,13 +4489,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="n">
-        <v>4.45464501715062</v>
+        <v>4.45414397185296</v>
       </c>
       <c r="D202" t="n">
-        <v>5.23526564552834</v>
+        <v>5.23745477288842</v>
       </c>
       <c r="E202" t="n">
-        <v>4.58474845521357</v>
+        <v>4.58469577202554</v>
       </c>
       <c r="F202" t="s">
         <v>24</v>
@@ -4509,13 +4509,13 @@
         <v>9</v>
       </c>
       <c r="C203" t="n">
-        <v>1865.63767289353</v>
+        <v>1865.53843832581</v>
       </c>
       <c r="D203" t="n">
-        <v>2945.74979218901</v>
+        <v>2948.84268840676</v>
       </c>
       <c r="E203" t="n">
-        <v>2084.88454799379</v>
+        <v>2085.53915991867</v>
       </c>
       <c r="F203" t="s">
         <v>24</v>
@@ -4529,13 +4529,13 @@
         <v>10</v>
       </c>
       <c r="C204" t="n">
-        <v>0.453201060760559</v>
+        <v>0.453028600457402</v>
       </c>
       <c r="D204" t="n">
-        <v>0.974242872791813</v>
+        <v>0.972832751639018</v>
       </c>
       <c r="E204" t="n">
-        <v>0.69786096379924</v>
+        <v>0.696453432622756</v>
       </c>
       <c r="F204" t="s">
         <v>24</v>
@@ -4549,13 +4549,13 @@
         <v>11</v>
       </c>
       <c r="C205" t="n">
-        <v>0.92504913585936</v>
+        <v>0.925078347188218</v>
       </c>
       <c r="D205" t="n">
-        <v>0.780823317286304</v>
+        <v>0.781049624974758</v>
       </c>
       <c r="E205" t="n">
-        <v>0.935035198609832</v>
+        <v>0.9350074773289</v>
       </c>
       <c r="F205" t="s">
         <v>24</v>
@@ -4569,13 +4569,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>4.29744186144488</v>
+        <v>4.29744284542408</v>
       </c>
       <c r="D206" t="n">
-        <v>5.3989327573107</v>
+        <v>5.39893125768019</v>
       </c>
       <c r="E206" t="n">
-        <v>4.48102367742251</v>
+        <v>4.48102424746677</v>
       </c>
       <c r="F206" t="s">
         <v>24</v>
@@ -4589,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="C207" t="n">
-        <v>1943.44941688946</v>
+        <v>1943.44969237838</v>
       </c>
       <c r="D207" t="n">
-        <v>2973.29621623438</v>
+        <v>2973.29492561979</v>
       </c>
       <c r="E207" t="n">
-        <v>2149.63053296427</v>
+        <v>2149.63044299652</v>
       </c>
       <c r="F207" t="s">
         <v>24</v>
@@ -4609,13 +4609,13 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.573635610173356</v>
+        <v>0.573635760034681</v>
       </c>
       <c r="D208" t="n">
-        <v>0.840621724628649</v>
+        <v>0.840621183408588</v>
       </c>
       <c r="E208" t="n">
-        <v>0.622224975252291</v>
+        <v>0.622225008928137</v>
       </c>
       <c r="F208" t="s">
         <v>24</v>
@@ -4629,13 +4629,13 @@
         <v>11</v>
       </c>
       <c r="C209" t="n">
-        <v>0.919420745173991</v>
+        <v>0.919420718432066</v>
       </c>
       <c r="D209" t="n">
-        <v>0.78462873207725</v>
+        <v>0.784628667899205</v>
       </c>
       <c r="E209" t="n">
-        <v>0.929758973536246</v>
+        <v>0.929758975388922</v>
       </c>
       <c r="F209" t="s">
         <v>24</v>
@@ -4649,13 +4649,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.17887028378284</v>
+        <v>4.18185946457002</v>
       </c>
       <c r="D210" t="n">
-        <v>4.89111043811059</v>
+        <v>4.92736833225436</v>
       </c>
       <c r="E210" t="n">
-        <v>4.30836849366061</v>
+        <v>4.31740653142172</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4669,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1817.9887847296</v>
+        <v>1822.13369907267</v>
       </c>
       <c r="D211" t="n">
-        <v>2746.23417646958</v>
+        <v>2744.07828751907</v>
       </c>
       <c r="E211" t="n">
-        <v>2018.76094529299</v>
+        <v>2021.28384610406</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4689,13 +4689,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.436771554241875</v>
+        <v>0.436923707535031</v>
       </c>
       <c r="D212" t="n">
-        <v>0.954021159869693</v>
+        <v>0.972429972357418</v>
       </c>
       <c r="E212" t="n">
-        <v>0.695587853971113</v>
+        <v>0.694603248785732</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.901615056145743</v>
+        <v>0.901172460771385</v>
       </c>
       <c r="D213" t="n">
-        <v>0.760005990178941</v>
+        <v>0.758153206355305</v>
       </c>
       <c r="E213" t="n">
-        <v>0.920319330649439</v>
+        <v>0.920081772898432</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -4732,10 +4732,10 @@
         <v>5.84756756992668</v>
       </c>
       <c r="D214" t="n">
-        <v>4.86330066317552</v>
+        <v>4.86330066317573</v>
       </c>
       <c r="E214" t="n">
-        <v>5.68352308546816</v>
+        <v>5.68352308546819</v>
       </c>
       <c r="F214" t="s">
         <v>24</v>
@@ -4752,10 +4752,10 @@
         <v>2469.88521136913</v>
       </c>
       <c r="D215" t="n">
-        <v>2717.46765170006</v>
+        <v>2717.46765170015</v>
       </c>
       <c r="E215" t="n">
-        <v>2512.84351630896</v>
+        <v>2512.84351630898</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
@@ -4772,10 +4772,10 @@
         <v>0.576048117908449</v>
       </c>
       <c r="D216" t="n">
-        <v>0.992121428975884</v>
+        <v>0.992121428975938</v>
       </c>
       <c r="E216" t="n">
-        <v>0.871304753480341</v>
+        <v>0.871304753480348</v>
       </c>
       <c r="F216" t="s">
         <v>24</v>
@@ -4792,7 +4792,7 @@
         <v>0.869012182347133</v>
       </c>
       <c r="D217" t="n">
-        <v>0.802102384037138</v>
+        <v>0.802102384037139</v>
       </c>
       <c r="E217" t="n">
         <v>0.904307501163815</v>
@@ -4809,13 +4809,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="n">
-        <v>5.75154672702801</v>
+        <v>5.74510708565969</v>
       </c>
       <c r="D218" t="n">
-        <v>6.88781442872548</v>
+        <v>6.84249794144881</v>
       </c>
       <c r="E218" t="n">
-        <v>5.95814085460937</v>
+        <v>5.94463269580317</v>
       </c>
       <c r="F218" t="s">
         <v>25</v>
@@ -4829,13 +4829,13 @@
         <v>9</v>
       </c>
       <c r="C219" t="n">
-        <v>1312.88380891231</v>
+        <v>1310.32641310782</v>
       </c>
       <c r="D219" t="n">
-        <v>1933.96644677982</v>
+        <v>1927.80903183402</v>
       </c>
       <c r="E219" t="n">
-        <v>1445.79099130348</v>
+        <v>1442.39362634205</v>
       </c>
       <c r="F219" t="s">
         <v>25</v>
@@ -4849,13 +4849,13 @@
         <v>10</v>
       </c>
       <c r="C220" t="n">
-        <v>0.988858109344305</v>
+        <v>0.987136566752074</v>
       </c>
       <c r="D220" t="n">
-        <v>0.876618744150888</v>
+        <v>0.866641436171542</v>
       </c>
       <c r="E220" t="n">
-        <v>0.957283919305342</v>
+        <v>0.95341474945212</v>
       </c>
       <c r="F220" t="s">
         <v>25</v>
@@ -4869,13 +4869,13 @@
         <v>11</v>
       </c>
       <c r="C221" t="n">
-        <v>0.833618507215234</v>
+        <v>0.834258076895201</v>
       </c>
       <c r="D221" t="n">
-        <v>0.235221188055285</v>
+        <v>0.236477676040291</v>
       </c>
       <c r="E221" t="n">
-        <v>0.824174487859821</v>
+        <v>0.824827311453639</v>
       </c>
       <c r="F221" t="s">
         <v>25</v>
@@ -4889,13 +4889,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="n">
-        <v>4.5008904696669</v>
+        <v>4.4978014612443</v>
       </c>
       <c r="D222" t="n">
-        <v>5.42295243853894</v>
+        <v>5.44582381999005</v>
       </c>
       <c r="E222" t="n">
-        <v>4.65456746447891</v>
+        <v>4.65580518770193</v>
       </c>
       <c r="F222" t="s">
         <v>25</v>
@@ -4909,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="C223" t="n">
-        <v>1006.90756092279</v>
+        <v>1004.82385277333</v>
       </c>
       <c r="D223" t="n">
-        <v>1381.92344968364</v>
+        <v>1385.99708648178</v>
       </c>
       <c r="E223" t="n">
-        <v>1078.50410306768</v>
+        <v>1077.75559994271</v>
       </c>
       <c r="F223" t="s">
         <v>25</v>
@@ -4929,13 +4929,13 @@
         <v>10</v>
       </c>
       <c r="C224" t="n">
-        <v>0.438662258807544</v>
+        <v>0.437707374782293</v>
       </c>
       <c r="D224" t="n">
-        <v>0.935385708643343</v>
+        <v>0.940099342239757</v>
       </c>
       <c r="E224" t="n">
-        <v>0.663530449100956</v>
+        <v>0.663281977907339</v>
       </c>
       <c r="F224" t="s">
         <v>25</v>
@@ -4949,13 +4949,13 @@
         <v>11</v>
       </c>
       <c r="C225" t="n">
-        <v>0.929360124865117</v>
+        <v>0.929607083897931</v>
       </c>
       <c r="D225" t="n">
-        <v>0.691006691381562</v>
+        <v>0.69004893325327</v>
       </c>
       <c r="E225" t="n">
-        <v>0.928906765352787</v>
+        <v>0.928927111724609</v>
       </c>
       <c r="F225" t="s">
         <v>25</v>
@@ -4969,13 +4969,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="n">
-        <v>4.85022743502207</v>
+        <v>4.86669470238647</v>
       </c>
       <c r="D226" t="n">
-        <v>5.73692989345924</v>
+        <v>5.68441749704403</v>
       </c>
       <c r="E226" t="n">
-        <v>4.99801117809493</v>
+        <v>5.0029818348294</v>
       </c>
       <c r="F226" t="s">
         <v>25</v>
@@ -4989,13 +4989,13 @@
         <v>9</v>
       </c>
       <c r="C227" t="n">
-        <v>1062.5798546494</v>
+        <v>1061.90687168077</v>
       </c>
       <c r="D227" t="n">
-        <v>1478.36410990054</v>
+        <v>1460.059699827</v>
       </c>
       <c r="E227" t="n">
-        <v>1142.434548014</v>
+        <v>1137.98105927948</v>
       </c>
       <c r="F227" t="s">
         <v>25</v>
@@ -5009,13 +5009,13 @@
         <v>10</v>
       </c>
       <c r="C228" t="n">
-        <v>0.475930723503653</v>
+        <v>0.477709921584919</v>
       </c>
       <c r="D228" t="n">
-        <v>0.730699557954651</v>
+        <v>0.732098638848705</v>
       </c>
       <c r="E228" t="n">
-        <v>0.6478008620565</v>
+        <v>0.659065377628465</v>
       </c>
       <c r="F228" t="s">
         <v>25</v>
@@ -5029,13 +5029,13 @@
         <v>11</v>
       </c>
       <c r="C229" t="n">
-        <v>0.922262162904773</v>
+        <v>0.922475719560934</v>
       </c>
       <c r="D229" t="n">
-        <v>0.67756026211483</v>
+        <v>0.68965562480023</v>
       </c>
       <c r="E229" t="n">
-        <v>0.922882524272516</v>
+        <v>0.923607828723547</v>
       </c>
       <c r="F229" t="s">
         <v>25</v>
@@ -5049,13 +5049,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="n">
-        <v>4.6117751127961</v>
+        <v>4.61178540677407</v>
       </c>
       <c r="D230" t="n">
-        <v>4.10962687297463</v>
+        <v>4.10966010049122</v>
       </c>
       <c r="E230" t="n">
-        <v>4.52808373949252</v>
+        <v>4.52809785572693</v>
       </c>
       <c r="F230" t="s">
         <v>25</v>
@@ -5069,13 +5069,13 @@
         <v>9</v>
       </c>
       <c r="C231" t="n">
-        <v>1076.3670576048</v>
+        <v>1076.36710203055</v>
       </c>
       <c r="D231" t="n">
-        <v>1059.43886524825</v>
+        <v>1059.44474189493</v>
       </c>
       <c r="E231" t="n">
-        <v>1073.5642289963</v>
+        <v>1073.5652326708</v>
       </c>
       <c r="F231" t="s">
         <v>25</v>
@@ -5089,13 +5089,13 @@
         <v>10</v>
       </c>
       <c r="C232" t="n">
-        <v>0.613661211946842</v>
+        <v>0.613662480759426</v>
       </c>
       <c r="D232" t="n">
-        <v>0.48926386325874</v>
+        <v>0.489267164685756</v>
       </c>
       <c r="E232" t="n">
-        <v>0.590310690103958</v>
+        <v>0.590312383451582</v>
       </c>
       <c r="F232" t="s">
         <v>25</v>
@@ -5109,13 +5109,13 @@
         <v>11</v>
       </c>
       <c r="C233" t="n">
-        <v>0.92977099486963</v>
+        <v>0.929771011776297</v>
       </c>
       <c r="D233" t="n">
-        <v>0.76735957859399</v>
+        <v>0.767359314328352</v>
       </c>
       <c r="E233" t="n">
-        <v>0.936007621015798</v>
+        <v>0.936007687131008</v>
       </c>
       <c r="F233" t="s">
         <v>25</v>
@@ -5129,13 +5129,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>4.38856253791944</v>
+        <v>4.38709675816894</v>
       </c>
       <c r="D234" t="n">
-        <v>4.74106567387365</v>
+        <v>4.46461918592495</v>
       </c>
       <c r="E234" t="n">
-        <v>4.45265401718384</v>
+        <v>4.40119174503367</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -5149,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1020.7133140349</v>
+        <v>1019.9154433965</v>
       </c>
       <c r="D235" t="n">
-        <v>1259.32566919052</v>
+        <v>1213.18509207474</v>
       </c>
       <c r="E235" t="n">
-        <v>1068.06976734997</v>
+        <v>1057.68545506312</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -5169,13 +5169,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>0.430174547051443</v>
+        <v>0.429758690740011</v>
       </c>
       <c r="D236" t="n">
-        <v>0.678764423088216</v>
+        <v>0.673585442917765</v>
       </c>
       <c r="E236" t="n">
-        <v>0.652392237362871</v>
+        <v>0.65560183736559</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -5189,13 +5189,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0.899289009284492</v>
+        <v>0.899432263107659</v>
       </c>
       <c r="D237" t="n">
-        <v>0.670379255848841</v>
+        <v>0.688819809386278</v>
       </c>
       <c r="E237" t="n">
-        <v>0.903949589561958</v>
+        <v>0.905082345165823</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -5255,7 +5255,7 @@
         <v>0.733624723900513</v>
       </c>
       <c r="E240" t="n">
-        <v>0.944745839131332</v>
+        <v>0.944745839131328</v>
       </c>
       <c r="F240" t="s">
         <v>25</v>
@@ -5269,10 +5269,10 @@
         <v>11</v>
       </c>
       <c r="C241" t="n">
-        <v>0.876086148871147</v>
+        <v>0.876086148871148</v>
       </c>
       <c r="D241" t="n">
-        <v>0.697884744849002</v>
+        <v>0.697884744849001</v>
       </c>
       <c r="E241" t="n">
         <v>0.891694908306393</v>
@@ -5289,13 +5289,13 @@
         <v>7</v>
       </c>
       <c r="C242" t="n">
-        <v>6.20951412972645</v>
+        <v>6.2104206525244</v>
       </c>
       <c r="D242" t="n">
-        <v>14.2423232599542</v>
+        <v>14.2706925903567</v>
       </c>
       <c r="E242" t="n">
-        <v>7.67002488067695</v>
+        <v>7.67592464122118</v>
       </c>
       <c r="F242" t="s">
         <v>26</v>
@@ -5309,13 +5309,13 @@
         <v>9</v>
       </c>
       <c r="C243" t="n">
-        <v>768.478421363198</v>
+        <v>767.855896564531</v>
       </c>
       <c r="D243" t="n">
-        <v>1740.43823499733</v>
+        <v>1741.8391158125</v>
       </c>
       <c r="E243" t="n">
-        <v>1016.82582117047</v>
+        <v>1016.8771764462</v>
       </c>
       <c r="F243" t="s">
         <v>26</v>
@@ -5329,13 +5329,13 @@
         <v>10</v>
       </c>
       <c r="C244" t="n">
-        <v>0.921266643673257</v>
+        <v>0.914862698207327</v>
       </c>
       <c r="D244" t="n">
-        <v>11.5561751028255</v>
+        <v>11.3461699630903</v>
       </c>
       <c r="E244" t="n">
-        <v>1.39225742062054</v>
+        <v>1.38276405979036</v>
       </c>
       <c r="F244" t="s">
         <v>26</v>
@@ -5349,13 +5349,13 @@
         <v>11</v>
       </c>
       <c r="C245" t="n">
-        <v>0.764584312593304</v>
+        <v>0.764904717347145</v>
       </c>
       <c r="D245" t="n">
-        <v>0.00204668528239663</v>
+        <v>0.00312595715107108</v>
       </c>
       <c r="E245" t="n">
-        <v>0.631870245181503</v>
+        <v>0.631944223374632</v>
       </c>
       <c r="F245" t="s">
         <v>26</v>
@@ -5369,13 +5369,13 @@
         <v>7</v>
       </c>
       <c r="C246" t="n">
-        <v>4.06061540316126</v>
+        <v>4.06100546158734</v>
       </c>
       <c r="D246" t="n">
-        <v>27.173314016751</v>
+        <v>26.9453617593149</v>
       </c>
       <c r="E246" t="n">
-        <v>7.91273183875955</v>
+        <v>7.87506484454194</v>
       </c>
       <c r="F246" t="s">
         <v>26</v>
@@ -5389,13 +5389,13 @@
         <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>472.500158958166</v>
+        <v>472.690924950701</v>
       </c>
       <c r="D247" t="n">
-        <v>3677.85913472901</v>
+        <v>3643.85834797077</v>
       </c>
       <c r="E247" t="n">
-        <v>1562.20622923624</v>
+        <v>1548.91828990052</v>
       </c>
       <c r="F247" t="s">
         <v>26</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C248" t="n">
-        <v>0.473101466781144</v>
+        <v>0.473525529770996</v>
       </c>
       <c r="D248" t="n">
-        <v>5.14860020600864</v>
+        <v>5.10730374450116</v>
       </c>
       <c r="E248" t="n">
-        <v>1.3748627796634</v>
+        <v>1.36899132483052</v>
       </c>
       <c r="F248" t="s">
         <v>26</v>
@@ -5429,13 +5429,13 @@
         <v>11</v>
       </c>
       <c r="C249" t="n">
-        <v>0.919808708260931</v>
+        <v>0.91981034981499</v>
       </c>
       <c r="D249" t="n">
-        <v>0.085027934611516</v>
+        <v>0.0869637453918864</v>
       </c>
       <c r="E249" t="n">
-        <v>0.601712222887425</v>
+        <v>0.604153844344839</v>
       </c>
       <c r="F249" t="s">
         <v>26</v>
@@ -5449,13 +5449,13 @@
         <v>7</v>
       </c>
       <c r="C250" t="n">
-        <v>4.51284350220558</v>
+        <v>4.4563590991616</v>
       </c>
       <c r="D250" t="n">
-        <v>26.00824884328</v>
+        <v>19.8264152212798</v>
       </c>
       <c r="E250" t="n">
-        <v>8.0954110590513</v>
+        <v>7.01803511951464</v>
       </c>
       <c r="F250" t="s">
         <v>26</v>
@@ -5469,13 +5469,13 @@
         <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>528.791681582357</v>
+        <v>523.486619609419</v>
       </c>
       <c r="D251" t="n">
-        <v>3631.33245209039</v>
+        <v>2581.97296784507</v>
       </c>
       <c r="E251" t="n">
-        <v>1559.09581649954</v>
+        <v>1157.35154636445</v>
       </c>
       <c r="F251" t="s">
         <v>26</v>
@@ -5489,13 +5489,13 @@
         <v>10</v>
       </c>
       <c r="C252" t="n">
-        <v>0.524829813146617</v>
+        <v>0.517764606854225</v>
       </c>
       <c r="D252" t="n">
-        <v>3.44702052401376</v>
+        <v>2.77030763966871</v>
       </c>
       <c r="E252" t="n">
-        <v>1.25835841738594</v>
+        <v>1.06622805266735</v>
       </c>
       <c r="F252" t="s">
         <v>26</v>
@@ -5509,13 +5509,13 @@
         <v>11</v>
       </c>
       <c r="C253" t="n">
-        <v>0.903995642813379</v>
+        <v>0.903528775858355</v>
       </c>
       <c r="D253" t="n">
-        <v>0.167129550729424</v>
+        <v>0.324924920567258</v>
       </c>
       <c r="E253" t="n">
-        <v>0.629655896609753</v>
+        <v>0.72592744964593</v>
       </c>
       <c r="F253" t="s">
         <v>26</v>
@@ -5529,13 +5529,13 @@
         <v>7</v>
       </c>
       <c r="C254" t="n">
-        <v>4.50498003632745</v>
+        <v>4.50501956609692</v>
       </c>
       <c r="D254" t="n">
-        <v>11.0864399399384</v>
+        <v>11.0864591351983</v>
       </c>
       <c r="E254" t="n">
-        <v>5.6018900202626</v>
+        <v>5.60192616094716</v>
       </c>
       <c r="F254" t="s">
         <v>26</v>
@@ -5549,13 +5549,13 @@
         <v>9</v>
       </c>
       <c r="C255" t="n">
-        <v>531.861756714786</v>
+        <v>531.863388227299</v>
       </c>
       <c r="D255" t="n">
-        <v>1435.89420578556</v>
+        <v>1435.89622771338</v>
       </c>
       <c r="E255" t="n">
-        <v>761.158854585915</v>
+        <v>761.160440319542</v>
       </c>
       <c r="F255" t="s">
         <v>26</v>
@@ -5569,13 +5569,13 @@
         <v>10</v>
       </c>
       <c r="C256" t="n">
-        <v>0.583016555474731</v>
+        <v>0.583021631589552</v>
       </c>
       <c r="D256" t="n">
-        <v>1.57718998148954</v>
+        <v>1.57719534582813</v>
       </c>
       <c r="E256" t="n">
-        <v>0.758813031407005</v>
+        <v>0.758817677401486</v>
       </c>
       <c r="F256" t="s">
         <v>26</v>
@@ -5589,13 +5589,13 @@
         <v>11</v>
       </c>
       <c r="C257" t="n">
-        <v>0.905271010779173</v>
+        <v>0.90527011475887</v>
       </c>
       <c r="D257" t="n">
-        <v>0.520629384397755</v>
+        <v>0.520628236458049</v>
       </c>
       <c r="E257" t="n">
-        <v>0.830060757888362</v>
+        <v>0.830059801689051</v>
       </c>
       <c r="F257" t="s">
         <v>26</v>
@@ -5609,13 +5609,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>4.25918809900031</v>
+        <v>4.31039886618737</v>
       </c>
       <c r="D258" t="n">
-        <v>11.2555183702175</v>
+        <v>9.91038073225784</v>
       </c>
       <c r="E258" t="n">
-        <v>5.53124814831253</v>
+        <v>5.32857738729109</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>512.209541419964</v>
+        <v>517.546678233648</v>
       </c>
       <c r="D259" t="n">
-        <v>1417.63588835102</v>
+        <v>1217.50805577915</v>
       </c>
       <c r="E259" t="n">
-        <v>761.613750399672</v>
+        <v>699.047586436548</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5649,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.518909150841684</v>
+        <v>0.526098329438197</v>
       </c>
       <c r="D260" t="n">
-        <v>2.0228928169268</v>
+        <v>1.82266906379943</v>
       </c>
       <c r="E260" t="n">
-        <v>0.876732513462016</v>
+        <v>0.848136836119231</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.897160927589365</v>
+        <v>0.894993339372724</v>
       </c>
       <c r="D261" t="n">
-        <v>0.496329167757443</v>
+        <v>0.610112256706302</v>
       </c>
       <c r="E261" t="n">
-        <v>0.818469871082719</v>
+        <v>0.83709515981859</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -5692,10 +5692,10 @@
         <v>5.78052863817986</v>
       </c>
       <c r="D262" t="n">
-        <v>25.1648973973491</v>
+        <v>25.1648973973492</v>
       </c>
       <c r="E262" t="n">
-        <v>9.01125676470807</v>
+        <v>9.01125676470809</v>
       </c>
       <c r="F262" t="s">
         <v>26</v>
@@ -5712,10 +5712,10 @@
         <v>803.897150011591</v>
       </c>
       <c r="D263" t="n">
-        <v>3352.88107046029</v>
+        <v>3352.8810704603</v>
       </c>
       <c r="E263" t="n">
-        <v>1553.11861596996</v>
+        <v>1553.11861596997</v>
       </c>
       <c r="F263" t="s">
         <v>26</v>
@@ -5732,7 +5732,7 @@
         <v>0.666484137024589</v>
       </c>
       <c r="D264" t="n">
-        <v>4.98604293390558</v>
+        <v>4.98604293390559</v>
       </c>
       <c r="E264" t="n">
         <v>1.36903291860051</v>
@@ -5752,10 +5752,10 @@
         <v>0.783122920289974</v>
       </c>
       <c r="D265" t="n">
-        <v>0.125170729744322</v>
+        <v>0.125170729744321</v>
       </c>
       <c r="E265" t="n">
-        <v>0.59037657570823</v>
+        <v>0.590376575708229</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -5769,13 +5769,13 @@
         <v>7</v>
       </c>
       <c r="C266" t="n">
-        <v>12.6859449493</v>
+        <v>12.6933364608513</v>
       </c>
       <c r="D266" t="n">
-        <v>16.5402998442641</v>
+        <v>16.8693240294345</v>
       </c>
       <c r="E266" t="n">
-        <v>13.3867367483844</v>
+        <v>13.4526069278664</v>
       </c>
       <c r="F266" t="s">
         <v>27</v>
@@ -5789,13 +5789,13 @@
         <v>9</v>
       </c>
       <c r="C267" t="n">
-        <v>596.070155666719</v>
+        <v>596.331819868036</v>
       </c>
       <c r="D267" t="n">
-        <v>1073.55390036624</v>
+        <v>1089.29432888768</v>
       </c>
       <c r="E267" t="n">
-        <v>707.282419371501</v>
+        <v>711.824098826889</v>
       </c>
       <c r="F267" t="s">
         <v>27</v>
@@ -5809,13 +5809,13 @@
         <v>10</v>
       </c>
       <c r="C268" t="n">
-        <v>0.687170798086037</v>
+        <v>0.695653486629062</v>
       </c>
       <c r="D268" t="n">
-        <v>1.55325461101898</v>
+        <v>1.64357573924719</v>
       </c>
       <c r="E268" t="n">
-        <v>0.81019853743968</v>
+        <v>0.828364486287337</v>
       </c>
       <c r="F268" t="s">
         <v>27</v>
@@ -5829,13 +5829,13 @@
         <v>11</v>
       </c>
       <c r="C269" t="n">
-        <v>0.812837485719918</v>
+        <v>0.81267651718967</v>
       </c>
       <c r="D269" t="n">
-        <v>0.813438404172281</v>
+        <v>0.810287772313723</v>
       </c>
       <c r="E269" t="n">
-        <v>0.822365783494852</v>
+        <v>0.820571521877418</v>
       </c>
       <c r="F269" t="s">
         <v>27</v>
@@ -5849,13 +5849,13 @@
         <v>7</v>
       </c>
       <c r="C270" t="n">
-        <v>19.422095112634</v>
+        <v>19.442954181629</v>
       </c>
       <c r="D270" t="n">
-        <v>13.5474555658732</v>
+        <v>13.3708908127185</v>
       </c>
       <c r="E270" t="n">
-        <v>18.4429885215072</v>
+        <v>18.4309436201439</v>
       </c>
       <c r="F270" t="s">
         <v>27</v>
@@ -5869,13 +5869,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="n">
-        <v>573.111130509081</v>
+        <v>575.625859756454</v>
       </c>
       <c r="D271" t="n">
-        <v>895.333797542588</v>
+        <v>881.76403771414</v>
       </c>
       <c r="E271" t="n">
-        <v>638.214233700698</v>
+        <v>636.9502165669</v>
       </c>
       <c r="F271" t="s">
         <v>27</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C272" t="n">
-        <v>0.536721811771442</v>
+        <v>0.538703911349115</v>
       </c>
       <c r="D272" t="n">
-        <v>1.16141230050131</v>
+        <v>1.14920634260082</v>
       </c>
       <c r="E272" t="n">
-        <v>0.699787778886668</v>
+        <v>0.6997053710144</v>
       </c>
       <c r="F272" t="s">
         <v>27</v>
@@ -5909,13 +5909,13 @@
         <v>11</v>
       </c>
       <c r="C273" t="n">
-        <v>0.861400272063226</v>
+        <v>0.860225094417041</v>
       </c>
       <c r="D273" t="n">
-        <v>0.792252112484766</v>
+        <v>0.795199367486446</v>
       </c>
       <c r="E273" t="n">
-        <v>0.873294406243647</v>
+        <v>0.873527653593139</v>
       </c>
       <c r="F273" t="s">
         <v>27</v>
@@ -5929,13 +5929,13 @@
         <v>7</v>
       </c>
       <c r="C274" t="n">
-        <v>11.4971220230756</v>
+        <v>11.4483011316356</v>
       </c>
       <c r="D274" t="n">
-        <v>13.5641322944838</v>
+        <v>13.5141308961242</v>
       </c>
       <c r="E274" t="n">
-        <v>11.8416237349769</v>
+        <v>11.7926060923837</v>
       </c>
       <c r="F274" t="s">
         <v>27</v>
@@ -5949,13 +5949,13 @@
         <v>9</v>
       </c>
       <c r="C275" t="n">
-        <v>495.507153261493</v>
+        <v>494.161656353538</v>
       </c>
       <c r="D275" t="n">
-        <v>902.151674058261</v>
+        <v>896.657599282466</v>
       </c>
       <c r="E275" t="n">
-        <v>583.311571642558</v>
+        <v>580.943709751837</v>
       </c>
       <c r="F275" t="s">
         <v>27</v>
@@ -5969,13 +5969,13 @@
         <v>10</v>
       </c>
       <c r="C276" t="n">
-        <v>0.41749556386745</v>
+        <v>0.415131637069718</v>
       </c>
       <c r="D276" t="n">
-        <v>0.973027060132192</v>
+        <v>0.973069532613216</v>
       </c>
       <c r="E276" t="n">
-        <v>0.59704643642885</v>
+        <v>0.596915194734826</v>
       </c>
       <c r="F276" t="s">
         <v>27</v>
@@ -5989,13 +5989,13 @@
         <v>11</v>
       </c>
       <c r="C277" t="n">
-        <v>0.900310200819315</v>
+        <v>0.900759262199595</v>
       </c>
       <c r="D277" t="n">
-        <v>0.742076766052576</v>
+        <v>0.752750860318601</v>
       </c>
       <c r="E277" t="n">
-        <v>0.89971269682675</v>
+        <v>0.900695626917877</v>
       </c>
       <c r="F277" t="s">
         <v>27</v>
@@ -6009,13 +6009,13 @@
         <v>7</v>
       </c>
       <c r="C278" t="n">
-        <v>10.5594978667003</v>
+        <v>10.5597425921982</v>
       </c>
       <c r="D278" t="n">
-        <v>7.26089758163838</v>
+        <v>7.26167993056094</v>
       </c>
       <c r="E278" t="n">
-        <v>10.0097311525233</v>
+        <v>10.0100654819253</v>
       </c>
       <c r="F278" t="s">
         <v>27</v>
@@ -6029,13 +6029,13 @@
         <v>9</v>
       </c>
       <c r="C279" t="n">
-        <v>551.303027147188</v>
+        <v>551.3123765406</v>
       </c>
       <c r="D279" t="n">
-        <v>518.542084680675</v>
+        <v>518.567640641459</v>
       </c>
       <c r="E279" t="n">
-        <v>545.979400144555</v>
+        <v>545.991312591857</v>
       </c>
       <c r="F279" t="s">
         <v>27</v>
@@ -6049,13 +6049,13 @@
         <v>10</v>
       </c>
       <c r="C280" t="n">
-        <v>0.540653461960028</v>
+        <v>0.540663057778412</v>
       </c>
       <c r="D280" t="n">
-        <v>0.448656639936507</v>
+        <v>0.448684972791831</v>
       </c>
       <c r="E280" t="n">
-        <v>0.507493401127119</v>
+        <v>0.507506078168813</v>
       </c>
       <c r="F280" t="s">
         <v>27</v>
@@ -6069,13 +6069,13 @@
         <v>11</v>
       </c>
       <c r="C281" t="n">
-        <v>0.874535875445931</v>
+        <v>0.87453117401931</v>
       </c>
       <c r="D281" t="n">
-        <v>0.851781569406479</v>
+        <v>0.851777863010396</v>
       </c>
       <c r="E281" t="n">
-        <v>0.90097524633346</v>
+        <v>0.900970123030872</v>
       </c>
       <c r="F281" t="s">
         <v>27</v>
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
-        <v>10.2382061469463</v>
+        <v>10.1513998107656</v>
       </c>
       <c r="D282" t="n">
-        <v>12.1850666100869</v>
+        <v>12.065522013413</v>
       </c>
       <c r="E282" t="n">
-        <v>10.5921807766083</v>
+        <v>10.4994220294288</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -6109,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>494.520378206217</v>
+        <v>491.902580253618</v>
       </c>
       <c r="D283" t="n">
-        <v>817.603083712159</v>
+        <v>803.572578959497</v>
       </c>
       <c r="E283" t="n">
-        <v>567.12218061032</v>
+        <v>561.586317776604</v>
       </c>
       <c r="F283" t="s">
         <v>27</v>
@@ -6129,13 +6129,13 @@
         <v>10</v>
       </c>
       <c r="C284" t="n">
-        <v>0.386167710613365</v>
+        <v>0.383738224622527</v>
       </c>
       <c r="D284" t="n">
-        <v>0.92426913232554</v>
+        <v>0.905570772855271</v>
       </c>
       <c r="E284" t="n">
-        <v>0.580055886011816</v>
+        <v>0.573559443651543</v>
       </c>
       <c r="F284" t="s">
         <v>27</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="n">
-        <v>0.87230400734409</v>
+        <v>0.873628451348912</v>
       </c>
       <c r="D285" t="n">
-        <v>0.82719836139745</v>
+        <v>0.830384782420508</v>
       </c>
       <c r="E285" t="n">
-        <v>0.883404114500737</v>
+        <v>0.8853377506946</v>
       </c>
       <c r="F285" t="s">
         <v>27</v>
@@ -6169,13 +6169,13 @@
         <v>7</v>
       </c>
       <c r="C286" t="n">
-        <v>13.889768968416</v>
+        <v>13.8897689684147</v>
       </c>
       <c r="D286" t="n">
-        <v>9.70553700438712</v>
+        <v>9.70553700438337</v>
       </c>
       <c r="E286" t="n">
-        <v>13.1923969744112</v>
+        <v>13.1923969744094</v>
       </c>
       <c r="F286" t="s">
         <v>27</v>
@@ -6189,13 +6189,13 @@
         <v>9</v>
       </c>
       <c r="C287" t="n">
-        <v>612.217040554994</v>
+        <v>612.21704055497</v>
       </c>
       <c r="D287" t="n">
-        <v>659.407824356978</v>
+        <v>659.407824356879</v>
       </c>
       <c r="E287" t="n">
-        <v>620.3315246104</v>
+        <v>620.331524610363</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -6209,13 +6209,13 @@
         <v>10</v>
       </c>
       <c r="C288" t="n">
-        <v>0.531315127906869</v>
+        <v>0.531315127906809</v>
       </c>
       <c r="D288" t="n">
-        <v>0.510637520105913</v>
+        <v>0.510637520105954</v>
       </c>
       <c r="E288" t="n">
-        <v>0.580024734367635</v>
+        <v>0.580024734367744</v>
       </c>
       <c r="F288" t="s">
         <v>27</v>
@@ -6229,13 +6229,13 @@
         <v>11</v>
       </c>
       <c r="C289" t="n">
-        <v>0.84369319892132</v>
+        <v>0.843693198921325</v>
       </c>
       <c r="D289" t="n">
-        <v>0.780761727747995</v>
+        <v>0.780761727748055</v>
       </c>
       <c r="E289" t="n">
-        <v>0.871575266319556</v>
+        <v>0.871575266319571</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -6249,13 +6249,13 @@
         <v>7</v>
       </c>
       <c r="C290" t="n">
-        <v>3.60020058879081</v>
+        <v>3.58918046722624</v>
       </c>
       <c r="D290" t="n">
-        <v>8.56187119518429</v>
+        <v>8.55466423971444</v>
       </c>
       <c r="E290" t="n">
-        <v>4.50232251722599</v>
+        <v>4.49199569858773</v>
       </c>
       <c r="F290" t="s">
         <v>28</v>
@@ -6269,13 +6269,13 @@
         <v>9</v>
       </c>
       <c r="C291" t="n">
-        <v>5030.28239527659</v>
+        <v>5023.21862866597</v>
       </c>
       <c r="D291" t="n">
-        <v>9071.84497820698</v>
+        <v>9050.78401653233</v>
       </c>
       <c r="E291" t="n">
-        <v>5972.13538331676</v>
+        <v>5961.45125063158</v>
       </c>
       <c r="F291" t="s">
         <v>28</v>
@@ -6289,13 +6289,13 @@
         <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>0.654595377350082</v>
+        <v>0.654424274242838</v>
       </c>
       <c r="D292" t="n">
-        <v>3.27081050546989</v>
+        <v>3.30849445717223</v>
       </c>
       <c r="E292" t="n">
-        <v>0.865785997284643</v>
+        <v>0.866944341029878</v>
       </c>
       <c r="F292" t="s">
         <v>28</v>
@@ -6309,13 +6309,13 @@
         <v>11</v>
       </c>
       <c r="C293" t="n">
-        <v>0.900034265711722</v>
+        <v>0.90018867576327</v>
       </c>
       <c r="D293" t="n">
-        <v>0.368926560098504</v>
+        <v>0.373915424217954</v>
       </c>
       <c r="E293" t="n">
-        <v>0.866472227804252</v>
+        <v>0.866863849806106</v>
       </c>
       <c r="F293" t="s">
         <v>28</v>
@@ -6329,13 +6329,13 @@
         <v>7</v>
       </c>
       <c r="C294" t="n">
-        <v>4.19980427500164</v>
+        <v>4.16979857417767</v>
       </c>
       <c r="D294" t="n">
-        <v>5.91119681407479</v>
+        <v>5.61842066417477</v>
       </c>
       <c r="E294" t="n">
-        <v>4.48503636484717</v>
+        <v>4.41123558917718</v>
       </c>
       <c r="F294" t="s">
         <v>28</v>
@@ -6349,13 +6349,13 @@
         <v>9</v>
       </c>
       <c r="C295" t="n">
-        <v>6212.31024684318</v>
+        <v>6198.51908421205</v>
       </c>
       <c r="D295" t="n">
-        <v>7142.67793940436</v>
+        <v>6883.05212788833</v>
       </c>
       <c r="E295" t="n">
-        <v>6376.80485772744</v>
+        <v>6317.760689542</v>
       </c>
       <c r="F295" t="s">
         <v>28</v>
@@ -6369,13 +6369,13 @@
         <v>10</v>
       </c>
       <c r="C296" t="n">
-        <v>0.483434692639561</v>
+        <v>0.480691427262905</v>
       </c>
       <c r="D296" t="n">
-        <v>0.823700665787516</v>
+        <v>0.785384330860386</v>
       </c>
       <c r="E296" t="n">
-        <v>0.71947561601549</v>
+        <v>0.71002637523835</v>
       </c>
       <c r="F296" t="s">
         <v>28</v>
@@ -6389,13 +6389,13 @@
         <v>11</v>
       </c>
       <c r="C297" t="n">
-        <v>0.864858862366277</v>
+        <v>0.865464166532434</v>
       </c>
       <c r="D297" t="n">
-        <v>0.688396393738673</v>
+        <v>0.684714588122709</v>
       </c>
       <c r="E297" t="n">
-        <v>0.871250166279653</v>
+        <v>0.87248593267274</v>
       </c>
       <c r="F297" t="s">
         <v>28</v>
@@ -6409,13 +6409,13 @@
         <v>7</v>
       </c>
       <c r="C298" t="n">
-        <v>3.72833359461441</v>
+        <v>3.72833313517355</v>
       </c>
       <c r="D298" t="n">
-        <v>5.55239051826224</v>
+        <v>5.55238346198445</v>
       </c>
       <c r="E298" t="n">
-        <v>4.03234308188904</v>
+        <v>4.03234152297537</v>
       </c>
       <c r="F298" t="s">
         <v>28</v>
@@ -6429,13 +6429,13 @@
         <v>9</v>
       </c>
       <c r="C299" t="n">
-        <v>5942.67326899189</v>
+        <v>5942.6749391559</v>
       </c>
       <c r="D299" t="n">
-        <v>5897.20981137682</v>
+        <v>5897.20104489484</v>
       </c>
       <c r="E299" t="n">
-        <v>5935.12021037138</v>
+        <v>5935.12015219948</v>
       </c>
       <c r="F299" t="s">
         <v>28</v>
@@ -6449,13 +6449,13 @@
         <v>10</v>
       </c>
       <c r="C300" t="n">
-        <v>0.432921237251519</v>
+        <v>0.432921241046434</v>
       </c>
       <c r="D300" t="n">
-        <v>1.09617321625802</v>
+        <v>1.09616843708399</v>
       </c>
       <c r="E300" t="n">
-        <v>0.670726404018568</v>
+        <v>0.670726175237543</v>
       </c>
       <c r="F300" t="s">
         <v>28</v>
@@ -6469,13 +6469,13 @@
         <v>11</v>
       </c>
       <c r="C301" t="n">
-        <v>0.876579590474431</v>
+        <v>0.876579552777254</v>
       </c>
       <c r="D301" t="n">
-        <v>0.682808270656113</v>
+        <v>0.682808833718882</v>
       </c>
       <c r="E301" t="n">
-        <v>0.885351792312271</v>
+        <v>0.88535182385142</v>
       </c>
       <c r="F301" t="s">
         <v>28</v>
@@ -6489,13 +6489,13 @@
         <v>7</v>
       </c>
       <c r="C302" t="n">
-        <v>24.5026016909919</v>
+        <v>24.5029111558074</v>
       </c>
       <c r="D302" t="n">
-        <v>7.31300938461897</v>
+        <v>7.31300813208339</v>
       </c>
       <c r="E302" t="n">
-        <v>21.6376696399298</v>
+        <v>21.6379273185201</v>
       </c>
       <c r="F302" t="s">
         <v>28</v>
@@ -6509,13 +6509,13 @@
         <v>9</v>
       </c>
       <c r="C303" t="n">
-        <v>40903.904214588</v>
+        <v>40904.2119163359</v>
       </c>
       <c r="D303" t="n">
-        <v>7918.4503541981</v>
+        <v>7918.44890765915</v>
       </c>
       <c r="E303" t="n">
-        <v>37479.6583851224</v>
+        <v>37479.9381793909</v>
       </c>
       <c r="F303" t="s">
         <v>28</v>
@@ -6529,13 +6529,13 @@
         <v>10</v>
       </c>
       <c r="C304" t="n">
-        <v>2.02881507948137</v>
+        <v>2.02882356733671</v>
       </c>
       <c r="D304" t="n">
-        <v>0.989842157428736</v>
+        <v>0.989841296179555</v>
       </c>
       <c r="E304" t="n">
-        <v>1.89541729207979</v>
+        <v>1.8954246892296</v>
       </c>
       <c r="F304" t="s">
         <v>28</v>
@@ -6549,13 +6549,13 @@
         <v>11</v>
       </c>
       <c r="C305" t="n">
-        <v>0.0004977912330372</v>
+        <v>0.000497920861422758</v>
       </c>
       <c r="D305" t="n">
-        <v>0.412428846340615</v>
+        <v>0.412429008668875</v>
       </c>
       <c r="E305" t="n">
-        <v>0.000588540051303593</v>
+        <v>0.000588380596423216</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -6569,13 +6569,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.83904025850607</v>
+        <v>3.83972310183824</v>
       </c>
       <c r="D306" t="n">
-        <v>6.26941386294742</v>
+        <v>6.2951415432326</v>
       </c>
       <c r="E306" t="n">
-        <v>4.28092636840449</v>
+        <v>4.28616281845539</v>
       </c>
       <c r="F306" t="s">
         <v>28</v>
@@ -6589,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>5963.18384173097</v>
+        <v>5963.86563213844</v>
       </c>
       <c r="D307" t="n">
-        <v>6663.53722344375</v>
+        <v>6701.98233742676</v>
       </c>
       <c r="E307" t="n">
-        <v>6096.50802008802</v>
+        <v>6104.71035725825</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>10</v>
       </c>
       <c r="C308" t="n">
-        <v>0.461553183200293</v>
+        <v>0.46135852980174</v>
       </c>
       <c r="D308" t="n">
-        <v>1.31831269175444</v>
+        <v>1.31503312017238</v>
       </c>
       <c r="E308" t="n">
-        <v>0.724937861340933</v>
+        <v>0.72879266974511</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -6629,13 +6629,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.853218542249421</v>
+        <v>0.853192260329402</v>
       </c>
       <c r="D309" t="n">
-        <v>0.622951751181034</v>
+        <v>0.619433902346351</v>
       </c>
       <c r="E309" t="n">
-        <v>0.857436574480081</v>
+        <v>0.857054998795632</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -6649,13 +6649,13 @@
         <v>7</v>
       </c>
       <c r="C310" t="n">
-        <v>6.3418409033855</v>
+        <v>6.34184090338551</v>
       </c>
       <c r="D310" t="n">
-        <v>5.22486673686394</v>
+        <v>5.224866736864</v>
       </c>
       <c r="E310" t="n">
-        <v>6.15567854229857</v>
+        <v>6.15567854229859</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -6672,7 +6672,7 @@
         <v>10818.7476952589</v>
       </c>
       <c r="D311" t="n">
-        <v>6471.69616203458</v>
+        <v>6471.69616203462</v>
       </c>
       <c r="E311" t="n">
         <v>10223.4156040765</v>
@@ -6689,13 +6689,13 @@
         <v>10</v>
       </c>
       <c r="C312" t="n">
-        <v>0.760574317117922</v>
+        <v>0.760574317117923</v>
       </c>
       <c r="D312" t="n">
-        <v>0.717265900566781</v>
+        <v>0.717265900566787</v>
       </c>
       <c r="E312" t="n">
-        <v>0.789594081313331</v>
+        <v>0.789594081313335</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -6712,10 +6712,10 @@
         <v>0.706721768806432</v>
       </c>
       <c r="D313" t="n">
-        <v>0.654480850158796</v>
+        <v>0.65448085015879</v>
       </c>
       <c r="E313" t="n">
-        <v>0.742505264666877</v>
+        <v>0.742505264666875</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -6729,13 +6729,13 @@
         <v>7</v>
       </c>
       <c r="C314" t="n">
-        <v>17.242986737406</v>
+        <v>17.2035004537633</v>
       </c>
       <c r="D314" t="n">
-        <v>24.8514228928462</v>
+        <v>24.8439872406868</v>
       </c>
       <c r="E314" t="n">
-        <v>18.6263387656678</v>
+        <v>18.5926798695675</v>
       </c>
       <c r="F314" t="s">
         <v>29</v>
@@ -6749,13 +6749,13 @@
         <v>9</v>
       </c>
       <c r="C315" t="n">
-        <v>6262.74158058871</v>
+        <v>6245.29496189964</v>
       </c>
       <c r="D315" t="n">
-        <v>7847.89198905201</v>
+        <v>7846.49199440366</v>
       </c>
       <c r="E315" t="n">
-        <v>6579.41836535976</v>
+        <v>6565.53159023868</v>
       </c>
       <c r="F315" t="s">
         <v>29</v>
@@ -6769,13 +6769,13 @@
         <v>10</v>
       </c>
       <c r="C316" t="n">
-        <v>0.847424716257541</v>
+        <v>0.844210797175526</v>
       </c>
       <c r="D316" t="n">
-        <v>2.93104413331271</v>
+        <v>2.934058394471</v>
       </c>
       <c r="E316" t="n">
-        <v>1.00783053641807</v>
+        <v>1.00431136179066</v>
       </c>
       <c r="F316" t="s">
         <v>29</v>
@@ -6789,13 +6789,13 @@
         <v>11</v>
       </c>
       <c r="C317" t="n">
-        <v>0.803325589707618</v>
+        <v>0.804519233017445</v>
       </c>
       <c r="D317" t="n">
-        <v>0.115233257030642</v>
+        <v>0.112648140419353</v>
       </c>
       <c r="E317" t="n">
-        <v>0.754615300401004</v>
+        <v>0.755658116983068</v>
       </c>
       <c r="F317" t="s">
         <v>29</v>
@@ -6809,13 +6809,13 @@
         <v>7</v>
       </c>
       <c r="C318" t="n">
-        <v>27.5057051283336</v>
+        <v>27.4278322281744</v>
       </c>
       <c r="D318" t="n">
-        <v>72.5562429754194</v>
+        <v>76.9344731900623</v>
       </c>
       <c r="E318" t="n">
-        <v>35.0141281028479</v>
+        <v>35.6789390551557</v>
       </c>
       <c r="F318" t="s">
         <v>29</v>
@@ -6829,13 +6829,13 @@
         <v>9</v>
       </c>
       <c r="C319" t="n">
-        <v>8694.8276315237</v>
+        <v>8593.58222266096</v>
       </c>
       <c r="D319" t="n">
-        <v>11301.7936345991</v>
+        <v>11725.7753244297</v>
       </c>
       <c r="E319" t="n">
-        <v>9180.87393324301</v>
+        <v>9190.04972825843</v>
       </c>
       <c r="F319" t="s">
         <v>29</v>
@@ -6849,13 +6849,13 @@
         <v>10</v>
       </c>
       <c r="C320" t="n">
-        <v>1.01235495358161</v>
+        <v>1.00389475327732</v>
       </c>
       <c r="D320" t="n">
-        <v>1.58147862674886</v>
+        <v>1.64950539959268</v>
       </c>
       <c r="E320" t="n">
-        <v>1.12070271691996</v>
+        <v>1.1248824751639</v>
       </c>
       <c r="F320" t="s">
         <v>29</v>
@@ -6869,13 +6869,13 @@
         <v>11</v>
       </c>
       <c r="C321" t="n">
-        <v>0.584237546470019</v>
+        <v>0.594288040313513</v>
       </c>
       <c r="D321" t="n">
-        <v>0.756452267279381</v>
+        <v>0.753489804039244</v>
       </c>
       <c r="E321" t="n">
-        <v>0.510048483993896</v>
+        <v>0.510987072793567</v>
       </c>
       <c r="F321" t="s">
         <v>29</v>
@@ -6889,13 +6889,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="n">
-        <v>12.8632422009799</v>
+        <v>13.0083375780107</v>
       </c>
       <c r="D322" t="n">
-        <v>21.2994574843673</v>
+        <v>31.4210149875883</v>
       </c>
       <c r="E322" t="n">
-        <v>14.2692780815444</v>
+        <v>16.0771171462737</v>
       </c>
       <c r="F322" t="s">
         <v>29</v>
@@ -6909,13 +6909,13 @@
         <v>9</v>
       </c>
       <c r="C323" t="n">
-        <v>6437.99611270026</v>
+        <v>6659.86476414157</v>
       </c>
       <c r="D323" t="n">
-        <v>8451.66672543682</v>
+        <v>13131.2678247041</v>
       </c>
       <c r="E323" t="n">
-        <v>6815.05245973419</v>
+        <v>8105.54530416659</v>
       </c>
       <c r="F323" t="s">
         <v>29</v>
@@ -6929,13 +6929,13 @@
         <v>10</v>
       </c>
       <c r="C324" t="n">
-        <v>0.564894281585037</v>
+        <v>0.576854790600342</v>
       </c>
       <c r="D324" t="n">
-        <v>0.78766127377429</v>
+        <v>1.04143733823674</v>
       </c>
       <c r="E324" t="n">
-        <v>0.594772032949199</v>
+        <v>0.663710861398781</v>
       </c>
       <c r="F324" t="s">
         <v>29</v>
@@ -6949,13 +6949,13 @@
         <v>11</v>
       </c>
       <c r="C325" t="n">
-        <v>0.861765855803072</v>
+        <v>0.864477276821112</v>
       </c>
       <c r="D325" t="n">
-        <v>0.899065431381687</v>
+        <v>0.886502728362669</v>
       </c>
       <c r="E325" t="n">
-        <v>0.84072316459076</v>
+        <v>0.808382041692002</v>
       </c>
       <c r="F325" t="s">
         <v>29</v>
@@ -6969,13 +6969,13 @@
         <v>7</v>
       </c>
       <c r="C326" t="n">
-        <v>14.0630265904501</v>
+        <v>14.0655596438399</v>
       </c>
       <c r="D326" t="n">
-        <v>11.142243383089</v>
+        <v>11.1422679406202</v>
       </c>
       <c r="E326" t="n">
-        <v>13.5762293892233</v>
+        <v>13.5783443599699</v>
       </c>
       <c r="F326" t="s">
         <v>29</v>
@@ -6989,13 +6989,13 @@
         <v>9</v>
       </c>
       <c r="C327" t="n">
-        <v>5460.19501319189</v>
+        <v>5461.29759684664</v>
       </c>
       <c r="D327" t="n">
-        <v>3226.85072527911</v>
+        <v>3226.83509957677</v>
       </c>
       <c r="E327" t="n">
-        <v>5155.59911671544</v>
+        <v>5156.57059757217</v>
       </c>
       <c r="F327" t="s">
         <v>29</v>
@@ -7009,13 +7009,13 @@
         <v>10</v>
       </c>
       <c r="C328" t="n">
-        <v>0.509584420423662</v>
+        <v>0.509656834304602</v>
       </c>
       <c r="D328" t="n">
-        <v>0.457109652165926</v>
+        <v>0.457112428405935</v>
       </c>
       <c r="E328" t="n">
-        <v>0.50230379768572</v>
+        <v>0.502366234859228</v>
       </c>
       <c r="F328" t="s">
         <v>29</v>
@@ -7029,13 +7029,13 @@
         <v>11</v>
       </c>
       <c r="C329" t="n">
-        <v>0.858399292079164</v>
+        <v>0.85834905619305</v>
       </c>
       <c r="D329" t="n">
-        <v>0.82346272020765</v>
+        <v>0.823462563980584</v>
       </c>
       <c r="E329" t="n">
-        <v>0.856262698006146</v>
+        <v>0.856214846440521</v>
       </c>
       <c r="F329" t="s">
         <v>29</v>
@@ -7049,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>10.1874290985205</v>
+        <v>10.0901112136279</v>
       </c>
       <c r="D330" t="n">
-        <v>9.05810146895132</v>
+        <v>9.76152485937426</v>
       </c>
       <c r="E330" t="n">
-        <v>9.98209680223518</v>
+        <v>10.0303682401272</v>
       </c>
       <c r="F330" t="s">
         <v>29</v>
@@ -7069,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>3633.89021332067</v>
+        <v>3602.26090448054</v>
       </c>
       <c r="D331" t="n">
-        <v>2527.56228009827</v>
+        <v>2991.79250168353</v>
       </c>
       <c r="E331" t="n">
-        <v>3459.15865889854</v>
+        <v>3499.19727628287</v>
       </c>
       <c r="F331" t="s">
         <v>29</v>
@@ -7089,13 +7089,13 @@
         <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.412135808346968</v>
+        <v>0.408575156968868</v>
       </c>
       <c r="D332" t="n">
-        <v>0.378474869140422</v>
+        <v>0.402656475091905</v>
       </c>
       <c r="E332" t="n">
-        <v>0.418302686706668</v>
+        <v>0.419762350938728</v>
       </c>
       <c r="F332" t="s">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="C333" t="n">
-        <v>0.933526880802745</v>
+        <v>0.935204793929027</v>
       </c>
       <c r="D333" t="n">
-        <v>0.897146999090857</v>
+        <v>0.916189295188857</v>
       </c>
       <c r="E333" t="n">
-        <v>0.930575300983992</v>
+        <v>0.930675229382027</v>
       </c>
       <c r="F333" t="s">
         <v>29</v>
@@ -7129,10 +7129,10 @@
         <v>7</v>
       </c>
       <c r="C334" t="n">
-        <v>27.8864058256364</v>
+        <v>27.886405825637</v>
       </c>
       <c r="D334" t="n">
-        <v>14.4864701408381</v>
+        <v>14.4864701408354</v>
       </c>
       <c r="E334" t="n">
         <v>25.6530832115034</v>
@@ -7149,13 +7149,13 @@
         <v>9</v>
       </c>
       <c r="C335" t="n">
-        <v>6631.06983831648</v>
+        <v>6631.06983831654</v>
       </c>
       <c r="D335" t="n">
-        <v>3784.70698659925</v>
+        <v>3784.70698659892</v>
       </c>
       <c r="E335" t="n">
-        <v>6247.39202891316</v>
+        <v>6247.39202891318</v>
       </c>
       <c r="F335" t="s">
         <v>29</v>
@@ -7169,13 +7169,13 @@
         <v>10</v>
       </c>
       <c r="C336" t="n">
-        <v>0.774584362703504</v>
+        <v>0.774584362703513</v>
       </c>
       <c r="D336" t="n">
-        <v>0.486874284815633</v>
+        <v>0.486874284815559</v>
       </c>
       <c r="E336" t="n">
-        <v>0.653320446943171</v>
+        <v>0.653320446943168</v>
       </c>
       <c r="F336" t="s">
         <v>29</v>
@@ -7189,13 +7189,13 @@
         <v>11</v>
       </c>
       <c r="C337" t="n">
-        <v>0.77779018585485</v>
+        <v>0.777790185854845</v>
       </c>
       <c r="D337" t="n">
-        <v>0.782949434881103</v>
+        <v>0.782949434881112</v>
       </c>
       <c r="E337" t="n">
-        <v>0.777821015225084</v>
+        <v>0.777821015225082</v>
       </c>
       <c r="F337" t="s">
         <v>29</v>
@@ -7209,13 +7209,13 @@
         <v>7</v>
       </c>
       <c r="C338" t="n">
-        <v>29.9209431222724</v>
+        <v>29.9505899475772</v>
       </c>
       <c r="D338" t="n">
-        <v>32.5289670669957</v>
+        <v>32.5236026514248</v>
       </c>
       <c r="E338" t="n">
-        <v>30.3951292940403</v>
+        <v>30.4184104391859</v>
       </c>
       <c r="F338" t="s">
         <v>30</v>
@@ -7229,13 +7229,13 @@
         <v>9</v>
       </c>
       <c r="C339" t="n">
-        <v>1558.41903501855</v>
+        <v>1559.71528737751</v>
       </c>
       <c r="D339" t="n">
-        <v>2408.54859622071</v>
+        <v>2410.72633198761</v>
       </c>
       <c r="E339" t="n">
-        <v>1744.08719754612</v>
+        <v>1745.58166639477</v>
       </c>
       <c r="F339" t="s">
         <v>30</v>
@@ -7249,13 +7249,13 @@
         <v>10</v>
       </c>
       <c r="C340" t="n">
-        <v>0.838302965208005</v>
+        <v>0.841262320836915</v>
       </c>
       <c r="D340" t="n">
-        <v>1.61439331738577</v>
+        <v>1.62039913171365</v>
       </c>
       <c r="E340" t="n">
-        <v>0.969020848280954</v>
+        <v>0.972473670064274</v>
       </c>
       <c r="F340" t="s">
         <v>30</v>
@@ -7269,13 +7269,13 @@
         <v>11</v>
       </c>
       <c r="C341" t="n">
-        <v>0.670406522599832</v>
+        <v>0.670196920933496</v>
       </c>
       <c r="D341" t="n">
-        <v>0.606547524216419</v>
+        <v>0.608171311278897</v>
       </c>
       <c r="E341" t="n">
-        <v>0.669959446942578</v>
+        <v>0.670110353986083</v>
       </c>
       <c r="F341" t="s">
         <v>30</v>
@@ -7289,13 +7289,13 @@
         <v>7</v>
       </c>
       <c r="C342" t="n">
-        <v>37.4329219957157</v>
+        <v>37.2715460385779</v>
       </c>
       <c r="D342" t="n">
-        <v>25.2445781878149</v>
+        <v>25.1997171783669</v>
       </c>
       <c r="E342" t="n">
-        <v>35.4015313610656</v>
+        <v>35.259574561876</v>
       </c>
       <c r="F342" t="s">
         <v>30</v>
@@ -7309,13 +7309,13 @@
         <v>9</v>
       </c>
       <c r="C343" t="n">
-        <v>1374.66312487943</v>
+        <v>1374.3607039154</v>
       </c>
       <c r="D343" t="n">
-        <v>1735.93498135188</v>
+        <v>1736.2972711178</v>
       </c>
       <c r="E343" t="n">
-        <v>1441.17797848367</v>
+        <v>1441.01034787086</v>
       </c>
       <c r="F343" t="s">
         <v>30</v>
@@ -7329,13 +7329,13 @@
         <v>10</v>
       </c>
       <c r="C344" t="n">
-        <v>0.634302881401579</v>
+        <v>0.633433475853678</v>
       </c>
       <c r="D344" t="n">
-        <v>0.890382340535954</v>
+        <v>0.888584670315671</v>
       </c>
       <c r="E344" t="n">
-        <v>0.686254377586835</v>
+        <v>0.684865689441749</v>
       </c>
       <c r="F344" t="s">
         <v>30</v>
@@ -7349,13 +7349,13 @@
         <v>11</v>
       </c>
       <c r="C345" t="n">
-        <v>0.725179085055195</v>
+        <v>0.725273364797855</v>
       </c>
       <c r="D345" t="n">
-        <v>0.884388304276112</v>
+        <v>0.883400569867802</v>
       </c>
       <c r="E345" t="n">
-        <v>0.765522328072531</v>
+        <v>0.765640589046385</v>
       </c>
       <c r="F345" t="s">
         <v>30</v>
@@ -7369,13 +7369,13 @@
         <v>7</v>
       </c>
       <c r="C346" t="n">
-        <v>10.9950439586625</v>
+        <v>11.0296414491839</v>
       </c>
       <c r="D346" t="n">
-        <v>18.6920415211192</v>
+        <v>17.8003808135513</v>
       </c>
       <c r="E346" t="n">
-        <v>12.2778768857386</v>
+        <v>12.1580980099118</v>
       </c>
       <c r="F346" t="s">
         <v>30</v>
@@ -7389,13 +7389,13 @@
         <v>9</v>
       </c>
       <c r="C347" t="n">
-        <v>510.894061262302</v>
+        <v>510.500490933117</v>
       </c>
       <c r="D347" t="n">
-        <v>1332.81389502484</v>
+        <v>1260.23502562747</v>
       </c>
       <c r="E347" t="n">
-        <v>716.642238491043</v>
+        <v>694.171697784855</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
@@ -7409,13 +7409,13 @@
         <v>10</v>
       </c>
       <c r="C348" t="n">
-        <v>0.21432419549372</v>
+        <v>0.215825451038262</v>
       </c>
       <c r="D348" t="n">
-        <v>0.418670359761679</v>
+        <v>0.401698462273815</v>
       </c>
       <c r="E348" t="n">
-        <v>0.267139064266601</v>
+        <v>0.263759993043423</v>
       </c>
       <c r="F348" t="s">
         <v>30</v>
@@ -7429,13 +7429,13 @@
         <v>11</v>
       </c>
       <c r="C349" t="n">
-        <v>0.962565843517147</v>
+        <v>0.96266059543034</v>
       </c>
       <c r="D349" t="n">
-        <v>0.870012067864855</v>
+        <v>0.878289628080622</v>
       </c>
       <c r="E349" t="n">
-        <v>0.941973101722306</v>
+        <v>0.945044518495624</v>
       </c>
       <c r="F349" t="s">
         <v>30</v>
@@ -7449,13 +7449,13 @@
         <v>7</v>
       </c>
       <c r="C350" t="n">
-        <v>10.4220708565682</v>
+        <v>10.4231604533981</v>
       </c>
       <c r="D350" t="n">
-        <v>16.3065158056758</v>
+        <v>16.3047714042261</v>
       </c>
       <c r="E350" t="n">
-        <v>11.4028116814194</v>
+        <v>11.4034289452028</v>
       </c>
       <c r="F350" t="s">
         <v>30</v>
@@ -7469,13 +7469,13 @@
         <v>9</v>
       </c>
       <c r="C351" t="n">
-        <v>572.957754100364</v>
+        <v>572.967127455968</v>
       </c>
       <c r="D351" t="n">
-        <v>1233.43324609367</v>
+        <v>1233.44919043694</v>
       </c>
       <c r="E351" t="n">
-        <v>726.03495238267</v>
+        <v>726.045631154963</v>
       </c>
       <c r="F351" t="s">
         <v>30</v>
@@ -7489,13 +7489,13 @@
         <v>10</v>
       </c>
       <c r="C352" t="n">
-        <v>0.23555478164204</v>
+        <v>0.235565259381527</v>
       </c>
       <c r="D352" t="n">
-        <v>0.322803361787258</v>
+        <v>0.322773754251257</v>
       </c>
       <c r="E352" t="n">
-        <v>0.260178834691716</v>
+        <v>0.260178599582446</v>
       </c>
       <c r="F352" t="s">
         <v>30</v>
@@ -7509,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="C353" t="n">
-        <v>0.954793673932119</v>
+        <v>0.954792330011178</v>
       </c>
       <c r="D353" t="n">
-        <v>0.921638955448381</v>
+        <v>0.921627241235745</v>
       </c>
       <c r="E353" t="n">
-        <v>0.941207371833663</v>
+        <v>0.941205502864006</v>
       </c>
       <c r="F353" t="s">
         <v>30</v>
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>13.0832333018711</v>
+        <v>13.0461534744444</v>
       </c>
       <c r="D354" t="n">
-        <v>18.4379658522306</v>
+        <v>18.4549080666996</v>
       </c>
       <c r="E354" t="n">
-        <v>14.0568210383001</v>
+        <v>14.029563400309</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -7549,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>683.50698342015</v>
+        <v>682.855003600333</v>
       </c>
       <c r="D355" t="n">
-        <v>1226.49254920145</v>
+        <v>1223.35109783254</v>
       </c>
       <c r="E355" t="n">
-        <v>809.781346130512</v>
+        <v>808.466248275893</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -7569,13 +7569,13 @@
         <v>10</v>
       </c>
       <c r="C356" t="n">
-        <v>0.283571321136167</v>
+        <v>0.283393478312279</v>
       </c>
       <c r="D356" t="n">
-        <v>0.436185400997627</v>
+        <v>0.439733539349474</v>
       </c>
       <c r="E356" t="n">
-        <v>0.342847539472671</v>
+        <v>0.343508441484297</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -7589,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="C357" t="n">
-        <v>0.942885287434032</v>
+        <v>0.943092202181105</v>
       </c>
       <c r="D357" t="n">
-        <v>0.893029719762454</v>
+        <v>0.897216685216085</v>
       </c>
       <c r="E357" t="n">
-        <v>0.930581555794123</v>
+        <v>0.931397365277163</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -7612,7 +7612,7 @@
         <v>28.9553864991147</v>
       </c>
       <c r="D358" t="n">
-        <v>40.5467492500739</v>
+        <v>40.5467492500738</v>
       </c>
       <c r="E358" t="n">
         <v>30.8872802909412</v>
@@ -7629,13 +7629,13 @@
         <v>9</v>
       </c>
       <c r="C359" t="n">
-        <v>1171.59686189698</v>
+        <v>1171.59686189697</v>
       </c>
       <c r="D359" t="n">
-        <v>2831.51620037302</v>
+        <v>2831.51620037301</v>
       </c>
       <c r="E359" t="n">
-        <v>1574.83755918979</v>
+        <v>1574.83755918978</v>
       </c>
       <c r="F359" t="s">
         <v>30</v>
@@ -7649,13 +7649,13 @@
         <v>10</v>
       </c>
       <c r="C360" t="n">
-        <v>0.515606452789548</v>
+        <v>0.515606452789547</v>
       </c>
       <c r="D360" t="n">
         <v>1.5164390137169</v>
       </c>
       <c r="E360" t="n">
-        <v>0.780455271267611</v>
+        <v>0.780455271267606</v>
       </c>
       <c r="F360" t="s">
         <v>30</v>
@@ -7669,13 +7669,13 @@
         <v>11</v>
       </c>
       <c r="C361" t="n">
-        <v>0.800816674360155</v>
+        <v>0.800816674360156</v>
       </c>
       <c r="D361" t="n">
-        <v>0.917222678462876</v>
+        <v>0.917222678462875</v>
       </c>
       <c r="E361" t="n">
-        <v>0.7516654786348</v>
+        <v>0.751665478634802</v>
       </c>
       <c r="F361" t="s">
         <v>30</v>
@@ -7689,13 +7689,13 @@
         <v>7</v>
       </c>
       <c r="C362" t="n">
-        <v>22.1365994437297</v>
+        <v>22.1362295442538</v>
       </c>
       <c r="D362" t="n">
-        <v>87.3298262387432</v>
+        <v>87.3591364642715</v>
       </c>
       <c r="E362" t="n">
-        <v>28.655922123231</v>
+        <v>28.6585202362555</v>
       </c>
       <c r="F362" t="s">
         <v>31</v>
@@ -7709,13 +7709,13 @@
         <v>9</v>
       </c>
       <c r="C363" t="n">
-        <v>1573.63337746917</v>
+        <v>1574.72929000766</v>
       </c>
       <c r="D363" t="n">
-        <v>316.30656932699</v>
+        <v>316.340595860603</v>
       </c>
       <c r="E363" t="n">
-        <v>1496.22685131515</v>
+        <v>1497.26491990769</v>
       </c>
       <c r="F363" t="s">
         <v>31</v>
@@ -7729,13 +7729,13 @@
         <v>10</v>
       </c>
       <c r="C364" t="n">
-        <v>0.588348903409009</v>
+        <v>0.588848495062796</v>
       </c>
       <c r="D364" t="n">
-        <v>12.6082851496153</v>
+        <v>12.5909088022123</v>
       </c>
       <c r="E364" t="n">
-        <v>0.612696487391582</v>
+        <v>0.613225605125623</v>
       </c>
       <c r="F364" t="s">
         <v>31</v>
@@ -7749,13 +7749,13 @@
         <v>11</v>
       </c>
       <c r="C365" t="n">
-        <v>0.856996507334539</v>
+        <v>0.857045823457014</v>
       </c>
       <c r="D365" t="n">
-        <v>0.285242671734034</v>
+        <v>0.2845725360034</v>
       </c>
       <c r="E365" t="n">
-        <v>0.860493578852857</v>
+        <v>0.860535923965131</v>
       </c>
       <c r="F365" t="s">
         <v>31</v>
@@ -7769,13 +7769,13 @@
         <v>7</v>
       </c>
       <c r="C366" t="n">
-        <v>100.30809052994</v>
+        <v>99.5209011273553</v>
       </c>
       <c r="D366" t="n">
-        <v>184.111554560089</v>
+        <v>184.443955189858</v>
       </c>
       <c r="E366" t="n">
-        <v>107.926587259953</v>
+        <v>107.241178769401</v>
       </c>
       <c r="F366" t="s">
         <v>31</v>
@@ -7789,13 +7789,13 @@
         <v>9</v>
       </c>
       <c r="C367" t="n">
-        <v>3846.06951963402</v>
+        <v>3847.96917054376</v>
       </c>
       <c r="D367" t="n">
-        <v>3976.43140880166</v>
+        <v>3932.05123733905</v>
       </c>
       <c r="E367" t="n">
-        <v>3858.10262184409</v>
+        <v>3855.68876416996</v>
       </c>
       <c r="F367" t="s">
         <v>31</v>
@@ -7809,13 +7809,13 @@
         <v>10</v>
       </c>
       <c r="C368" t="n">
-        <v>1.44543747244537</v>
+        <v>1.43624968957538</v>
       </c>
       <c r="D368" t="n">
-        <v>2.04427588542192</v>
+        <v>2.0259503980493</v>
       </c>
       <c r="E368" t="n">
-        <v>1.51179205344113</v>
+        <v>1.50404665004139</v>
       </c>
       <c r="F368" t="s">
         <v>31</v>
@@ -7829,13 +7829,13 @@
         <v>11</v>
       </c>
       <c r="C369" t="n">
-        <v>0.562215699095901</v>
+        <v>0.561845017406391</v>
       </c>
       <c r="D369" t="n">
-        <v>0.263936075700912</v>
+        <v>0.264513440560176</v>
       </c>
       <c r="E369" t="n">
-        <v>0.533671241126247</v>
+        <v>0.53330243568626</v>
       </c>
       <c r="F369" t="s">
         <v>31</v>
@@ -7849,13 +7849,13 @@
         <v>7</v>
       </c>
       <c r="C370" t="n">
-        <v>15.1006386644619</v>
+        <v>15.1110312536129</v>
       </c>
       <c r="D370" t="n">
-        <v>58.3577854560326</v>
+        <v>57.5587778859278</v>
       </c>
       <c r="E370" t="n">
-        <v>19.0331065546047</v>
+        <v>18.9699173110961</v>
       </c>
       <c r="F370" t="s">
         <v>31</v>
@@ -7869,13 +7869,13 @@
         <v>9</v>
       </c>
       <c r="C371" t="n">
-        <v>1391.54022519969</v>
+        <v>1422.11524023398</v>
       </c>
       <c r="D371" t="n">
-        <v>234.869192035101</v>
+        <v>232.806293717165</v>
       </c>
       <c r="E371" t="n">
-        <v>1328.67006373274</v>
+        <v>1357.74935213495</v>
       </c>
       <c r="F371" t="s">
         <v>31</v>
@@ -7889,13 +7889,13 @@
         <v>10</v>
       </c>
       <c r="C372" t="n">
-        <v>0.331879477176647</v>
+        <v>0.334652824431901</v>
       </c>
       <c r="D372" t="n">
-        <v>2.1257489545032</v>
+        <v>2.16835089577901</v>
       </c>
       <c r="E372" t="n">
-        <v>0.356535898103588</v>
+        <v>0.359674478987172</v>
       </c>
       <c r="F372" t="s">
         <v>31</v>
@@ -7909,13 +7909,13 @@
         <v>11</v>
       </c>
       <c r="C373" t="n">
-        <v>0.943561267243628</v>
+        <v>0.940512744462328</v>
       </c>
       <c r="D373" t="n">
-        <v>0.202726000801501</v>
+        <v>0.207136269456124</v>
       </c>
       <c r="E373" t="n">
-        <v>0.944729031208936</v>
+        <v>0.941752406762271</v>
       </c>
       <c r="F373" t="s">
         <v>31</v>
@@ -7929,13 +7929,13 @@
         <v>7</v>
       </c>
       <c r="C374" t="n">
-        <v>14.7908131546709</v>
+        <v>14.7875115934021</v>
       </c>
       <c r="D374" t="n">
-        <v>62.8657785196361</v>
+        <v>62.8710755832939</v>
       </c>
       <c r="E374" t="n">
-        <v>19.1612645514859</v>
+        <v>19.1587446833923</v>
       </c>
       <c r="F374" t="s">
         <v>31</v>
@@ -7949,13 +7949,13 @@
         <v>9</v>
       </c>
       <c r="C375" t="n">
-        <v>1058.91436256811</v>
+        <v>1058.62382930042</v>
       </c>
       <c r="D375" t="n">
-        <v>243.116190818459</v>
+        <v>243.096269313177</v>
       </c>
       <c r="E375" t="n">
-        <v>1012.2927062667</v>
+        <v>1012.0159860299</v>
       </c>
       <c r="F375" t="s">
         <v>31</v>
@@ -7969,13 +7969,13 @@
         <v>10</v>
       </c>
       <c r="C376" t="n">
-        <v>0.233948127059452</v>
+        <v>0.233882413466398</v>
       </c>
       <c r="D376" t="n">
-        <v>2.55153942563376</v>
+        <v>2.54535768197617</v>
       </c>
       <c r="E376" t="n">
-        <v>0.242755129972914</v>
+        <v>0.242684858766764</v>
       </c>
       <c r="F376" t="s">
         <v>31</v>
@@ -7989,13 +7989,13 @@
         <v>11</v>
       </c>
       <c r="C377" t="n">
-        <v>0.966973024237349</v>
+        <v>0.966989782593748</v>
       </c>
       <c r="D377" t="n">
-        <v>0.197489746569691</v>
+        <v>0.197363372108072</v>
       </c>
       <c r="E377" t="n">
-        <v>0.967592589101964</v>
+        <v>0.96760892963345</v>
       </c>
       <c r="F377" t="s">
         <v>31</v>
@@ -8009,13 +8009,13 @@
         <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>13.8135714726981</v>
+        <v>13.8900957373816</v>
       </c>
       <c r="D378" t="n">
-        <v>62.0261243656654</v>
+        <v>61.9815767276253</v>
       </c>
       <c r="E378" t="n">
-        <v>18.6348267619948</v>
+        <v>18.699243836406</v>
       </c>
       <c r="F378" t="s">
         <v>31</v>
@@ -8029,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>945.231298377945</v>
+        <v>944.809848195</v>
       </c>
       <c r="D379" t="n">
-        <v>246.50273955281</v>
+        <v>246.123304222075</v>
       </c>
       <c r="E379" t="n">
-        <v>900.106852962821</v>
+        <v>899.698145163006</v>
       </c>
       <c r="F379" t="s">
         <v>31</v>
@@ -8049,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>0.321577682305177</v>
+        <v>0.323754745053752</v>
       </c>
       <c r="D380" t="n">
-        <v>3.02371355266397</v>
+        <v>3.02035372510295</v>
       </c>
       <c r="E380" t="n">
-        <v>0.336126135080439</v>
+        <v>0.339627361628531</v>
       </c>
       <c r="F380" t="s">
         <v>31</v>
@@ -8069,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="C381" t="n">
-        <v>0.947465266403085</v>
+        <v>0.947446462506379</v>
       </c>
       <c r="D381" t="n">
-        <v>0.223890729192593</v>
+        <v>0.226454332706823</v>
       </c>
       <c r="E381" t="n">
-        <v>0.948567882667318</v>
+        <v>0.94853876320185</v>
       </c>
       <c r="F381" t="s">
         <v>31</v>
@@ -8089,13 +8089,13 @@
         <v>7</v>
       </c>
       <c r="C382" t="n">
-        <v>111.029964627614</v>
+        <v>111.029964627615</v>
       </c>
       <c r="D382" t="n">
-        <v>176.401352457849</v>
+        <v>176.401352457854</v>
       </c>
       <c r="E382" t="n">
-        <v>116.972818066727</v>
+        <v>116.972818066728</v>
       </c>
       <c r="F382" t="s">
         <v>31</v>
@@ -8109,13 +8109,13 @@
         <v>9</v>
       </c>
       <c r="C383" t="n">
-        <v>5302.93192836449</v>
+        <v>5302.93192836451</v>
       </c>
       <c r="D383" t="n">
-        <v>3056.49235125808</v>
+        <v>3056.4923512582</v>
       </c>
       <c r="E383" t="n">
-        <v>5139.44652009405</v>
+        <v>5139.44652009407</v>
       </c>
       <c r="F383" t="s">
         <v>31</v>
@@ -8129,13 +8129,13 @@
         <v>10</v>
       </c>
       <c r="C384" t="n">
-        <v>1.80456281052753</v>
+        <v>1.80456281052755</v>
       </c>
       <c r="D384" t="n">
-        <v>2.25896788234034</v>
+        <v>2.25896788234035</v>
       </c>
       <c r="E384" t="n">
-        <v>0.957573752965529</v>
+        <v>0.95757375296554</v>
       </c>
       <c r="F384" t="s">
         <v>31</v>
@@ -8149,13 +8149,13 @@
         <v>11</v>
       </c>
       <c r="C385" t="n">
-        <v>0.514555031940437</v>
+        <v>0.514555031940434</v>
       </c>
       <c r="D385" t="n">
-        <v>0.0151159206100066</v>
+        <v>0.0151159206100068</v>
       </c>
       <c r="E385" t="n">
-        <v>0.510891316927365</v>
+        <v>0.51089131692736</v>
       </c>
       <c r="F385" t="s">
         <v>31</v>
@@ -8169,13 +8169,13 @@
         <v>7</v>
       </c>
       <c r="C386" t="n">
-        <v>12.8135181166212</v>
+        <v>13.0363135973184</v>
       </c>
       <c r="D386" t="n">
-        <v>85.940204612145</v>
+        <v>86.7455994477716</v>
       </c>
       <c r="E386" t="n">
-        <v>26.1092792976256</v>
+        <v>26.4380019337644</v>
       </c>
       <c r="F386" t="s">
         <v>32</v>
@@ -8189,13 +8189,13 @@
         <v>9</v>
       </c>
       <c r="C387" t="n">
-        <v>70.7056709950536</v>
+        <v>68.0060811271164</v>
       </c>
       <c r="D387" t="n">
-        <v>1737.34512937095</v>
+        <v>1745.47910987939</v>
       </c>
       <c r="E387" t="n">
-        <v>743.562054896178</v>
+        <v>746.812504745279</v>
       </c>
       <c r="F387" t="s">
         <v>32</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C388" t="n">
-        <v>0.677009915119137</v>
+        <v>0.680930280042914</v>
       </c>
       <c r="D388" t="n">
-        <v>70.4990025436893</v>
+        <v>71.9915990786896</v>
       </c>
       <c r="E388" t="n">
-        <v>5.21519123162381</v>
+        <v>5.2977843689795</v>
       </c>
       <c r="F388" t="s">
         <v>32</v>
@@ -8229,13 +8229,13 @@
         <v>11</v>
       </c>
       <c r="C389" t="n">
-        <v>0.940128322269267</v>
+        <v>0.944794502382123</v>
       </c>
       <c r="D389" t="n">
-        <v>0.205149591044685</v>
+        <v>0.240661201358936</v>
       </c>
       <c r="E389" t="n">
-        <v>0.533625544311352</v>
+        <v>0.527007793753079</v>
       </c>
       <c r="F389" t="s">
         <v>32</v>
@@ -8249,13 +8249,13 @@
         <v>7</v>
       </c>
       <c r="C390" t="n">
-        <v>29.633363775787</v>
+        <v>29.9138496048533</v>
       </c>
       <c r="D390" t="n">
-        <v>65.6253537111077</v>
+        <v>66.3868638730073</v>
       </c>
       <c r="E390" t="n">
-        <v>35.6320287650071</v>
+        <v>35.9926853162123</v>
       </c>
       <c r="F390" t="s">
         <v>32</v>
@@ -8269,13 +8269,13 @@
         <v>9</v>
       </c>
       <c r="C391" t="n">
-        <v>118.779191817113</v>
+        <v>119.392362209289</v>
       </c>
       <c r="D391" t="n">
-        <v>1488.58612332821</v>
+        <v>1497.62840297633</v>
       </c>
       <c r="E391" t="n">
-        <v>617.310177113707</v>
+        <v>621.042606451846</v>
       </c>
       <c r="F391" t="s">
         <v>32</v>
@@ -8289,13 +8289,13 @@
         <v>10</v>
       </c>
       <c r="C392" t="n">
-        <v>1.13923068611736</v>
+        <v>1.14570704489399</v>
       </c>
       <c r="D392" t="n">
-        <v>17.724337274582</v>
+        <v>17.8775963654164</v>
       </c>
       <c r="E392" t="n">
-        <v>4.22983113298807</v>
+        <v>4.25889189250455</v>
       </c>
       <c r="F392" t="s">
         <v>32</v>
@@ -8309,13 +8309,13 @@
         <v>11</v>
       </c>
       <c r="C393" t="n">
-        <v>0.813207711935091</v>
+        <v>0.811637677385897</v>
       </c>
       <c r="D393" t="n">
-        <v>0.84208412065329</v>
+        <v>0.84646799353357</v>
       </c>
       <c r="E393" t="n">
-        <v>0.747029887016989</v>
+        <v>0.745189123752696</v>
       </c>
       <c r="F393" t="s">
         <v>32</v>
@@ -8329,13 +8329,13 @@
         <v>7</v>
       </c>
       <c r="C394" t="n">
-        <v>14.4525100250263</v>
+        <v>14.3955793302704</v>
       </c>
       <c r="D394" t="n">
-        <v>77.6420379969398</v>
+        <v>77.0198148484004</v>
       </c>
       <c r="E394" t="n">
-        <v>24.9840980203453</v>
+        <v>24.8329519166254</v>
       </c>
       <c r="F394" t="s">
         <v>32</v>
@@ -8349,13 +8349,13 @@
         <v>9</v>
       </c>
       <c r="C395" t="n">
-        <v>61.3570431525646</v>
+        <v>62.8866010723826</v>
       </c>
       <c r="D395" t="n">
-        <v>1534.5910347774</v>
+        <v>1530.74310391123</v>
       </c>
       <c r="E395" t="n">
-        <v>628.992988532902</v>
+        <v>627.554522617221</v>
       </c>
       <c r="F395" t="s">
         <v>32</v>
@@ -8369,13 +8369,13 @@
         <v>10</v>
       </c>
       <c r="C396" t="n">
-        <v>0.544539789013478</v>
+        <v>0.553845626641683</v>
       </c>
       <c r="D396" t="n">
-        <v>8.11928879160768</v>
+        <v>8.18890144077009</v>
       </c>
       <c r="E396" t="n">
-        <v>3.09725608099829</v>
+        <v>3.16646315680861</v>
       </c>
       <c r="F396" t="s">
         <v>32</v>
@@ -8389,13 +8389,13 @@
         <v>11</v>
       </c>
       <c r="C397" t="n">
-        <v>0.954984094945423</v>
+        <v>0.953401404417828</v>
       </c>
       <c r="D397" t="n">
-        <v>0.773865704122784</v>
+        <v>0.761711321001055</v>
       </c>
       <c r="E397" t="n">
-        <v>0.757753246948427</v>
+        <v>0.761622438002618</v>
       </c>
       <c r="F397" t="s">
         <v>32</v>
@@ -8409,13 +8409,13 @@
         <v>7</v>
       </c>
       <c r="C398" t="n">
-        <v>13.8554720240299</v>
+        <v>13.8597373462078</v>
       </c>
       <c r="D398" t="n">
-        <v>54.6060861794313</v>
+        <v>54.6064120449758</v>
       </c>
       <c r="E398" t="n">
-        <v>20.6472410499301</v>
+        <v>20.6508497960025</v>
       </c>
       <c r="F398" t="s">
         <v>32</v>
@@ -8429,13 +8429,13 @@
         <v>9</v>
       </c>
       <c r="C399" t="n">
-        <v>59.6321871150697</v>
+        <v>59.6283978230844</v>
       </c>
       <c r="D399" t="n">
-        <v>1221.97482354699</v>
+        <v>1221.68121082905</v>
       </c>
       <c r="E399" t="n">
-        <v>501.83039267654</v>
+        <v>501.710857969585</v>
       </c>
       <c r="F399" t="s">
         <v>32</v>
@@ -8449,13 +8449,13 @@
         <v>10</v>
       </c>
       <c r="C400" t="n">
-        <v>0.542643293538058</v>
+        <v>0.542571026698991</v>
       </c>
       <c r="D400" t="n">
-        <v>4.86819136874354</v>
+        <v>4.86084645095672</v>
       </c>
       <c r="E400" t="n">
-        <v>2.13943309772735</v>
+        <v>2.13806290472458</v>
       </c>
       <c r="F400" t="s">
         <v>32</v>
@@ -8469,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="C401" t="n">
-        <v>0.953382284535659</v>
+        <v>0.953390612958519</v>
       </c>
       <c r="D401" t="n">
-        <v>0.909176497044955</v>
+        <v>0.909160578984882</v>
       </c>
       <c r="E401" t="n">
-        <v>0.887741866638879</v>
+        <v>0.887860770521448</v>
       </c>
       <c r="F401" t="s">
         <v>32</v>
@@ -8489,13 +8489,13 @@
         <v>7</v>
       </c>
       <c r="C402" t="n">
-        <v>11.4436764100048</v>
+        <v>11.5229814912026</v>
       </c>
       <c r="D402" t="n">
-        <v>71.0504599994024</v>
+        <v>69.4764566487175</v>
       </c>
       <c r="E402" t="n">
-        <v>22.2812734262589</v>
+        <v>22.0599769743871</v>
       </c>
       <c r="F402" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="n">
-        <v>50.8293490004144</v>
+        <v>51.5997974775252</v>
       </c>
       <c r="D403" t="n">
-        <v>1483.8289258379</v>
+        <v>1466.90037795008</v>
       </c>
       <c r="E403" t="n">
-        <v>634.375080244312</v>
+        <v>627.22739747368</v>
       </c>
       <c r="F403" t="s">
         <v>32</v>
@@ -8529,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="C404" t="n">
-        <v>0.442680466235467</v>
+        <v>0.449101792927979</v>
       </c>
       <c r="D404" t="n">
-        <v>8.86850544487931</v>
+        <v>8.80124253941221</v>
       </c>
       <c r="E404" t="n">
-        <v>3.30522737736347</v>
+        <v>3.28329944927908</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -8549,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="C405" t="n">
-        <v>0.972308479871156</v>
+        <v>0.971793505120998</v>
       </c>
       <c r="D405" t="n">
-        <v>0.891751614803997</v>
+        <v>0.912897667556305</v>
       </c>
       <c r="E405" t="n">
-        <v>0.78488252939918</v>
+        <v>0.796382624350494</v>
       </c>
       <c r="F405" t="s">
         <v>32</v>
@@ -8589,10 +8589,10 @@
         <v>9</v>
       </c>
       <c r="C407" t="n">
-        <v>90.8431057443971</v>
+        <v>90.8431057443961</v>
       </c>
       <c r="D407" t="n">
-        <v>4006.62059985371</v>
+        <v>4006.62059985369</v>
       </c>
       <c r="E407" t="n">
         <v>1637.79684233009</v>
@@ -8609,13 +8609,13 @@
         <v>10</v>
       </c>
       <c r="C408" t="n">
-        <v>0.77765387748967</v>
+        <v>0.777653877489661</v>
       </c>
       <c r="D408" t="n">
-        <v>19.7828433468603</v>
+        <v>19.7828433468597</v>
       </c>
       <c r="E408" t="n">
-        <v>6.38159304281005</v>
+        <v>6.38159304280992</v>
       </c>
       <c r="F408" t="s">
         <v>32</v>
@@ -8629,13 +8629,13 @@
         <v>11</v>
       </c>
       <c r="C409" t="n">
-        <v>0.904036025042943</v>
+        <v>0.904036025042945</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0876036355789778</v>
+        <v>0.087603635578976</v>
       </c>
       <c r="E409" t="n">
-        <v>0.388831195835004</v>
+        <v>0.388831195835001</v>
       </c>
       <c r="F409" t="s">
         <v>32</v>
@@ -8649,13 +8649,13 @@
         <v>7</v>
       </c>
       <c r="C410" t="n">
-        <v>12.1370066312168</v>
+        <v>12.1045155566807</v>
       </c>
       <c r="D410" t="n">
-        <v>14.4702699293296</v>
+        <v>14.3091222681301</v>
       </c>
       <c r="E410" t="n">
-        <v>12.5612363217828</v>
+        <v>12.5053531405806</v>
       </c>
       <c r="F410" t="s">
         <v>33</v>
@@ -8669,13 +8669,13 @@
         <v>9</v>
       </c>
       <c r="C411" t="n">
-        <v>476.555433975179</v>
+        <v>475.821986554517</v>
       </c>
       <c r="D411" t="n">
-        <v>721.001110982893</v>
+        <v>716.224704241105</v>
       </c>
       <c r="E411" t="n">
-        <v>529.462071689797</v>
+        <v>527.740873047017</v>
       </c>
       <c r="F411" t="s">
         <v>33</v>
@@ -8689,13 +8689,13 @@
         <v>10</v>
       </c>
       <c r="C412" t="n">
-        <v>0.474682436370164</v>
+        <v>0.473832064283184</v>
       </c>
       <c r="D412" t="n">
-        <v>1.289450371421</v>
+        <v>1.25609539234756</v>
       </c>
       <c r="E412" t="n">
-        <v>0.556990309105171</v>
+        <v>0.553865453610222</v>
       </c>
       <c r="F412" t="s">
         <v>33</v>
@@ -8709,13 +8709,13 @@
         <v>11</v>
       </c>
       <c r="C413" t="n">
-        <v>0.928971141555038</v>
+        <v>0.929172866351611</v>
       </c>
       <c r="D413" t="n">
-        <v>0.807599193305181</v>
+        <v>0.813377572359084</v>
       </c>
       <c r="E413" t="n">
-        <v>0.905634395839654</v>
+        <v>0.906222913676209</v>
       </c>
       <c r="F413" t="s">
         <v>33</v>
@@ -8729,13 +8729,13 @@
         <v>7</v>
       </c>
       <c r="C414" t="n">
-        <v>10.8690951460455</v>
+        <v>10.9679666162357</v>
       </c>
       <c r="D414" t="n">
-        <v>28.9385393556268</v>
+        <v>29.075438825556</v>
       </c>
       <c r="E414" t="n">
-        <v>13.8806691809757</v>
+        <v>13.9858786511224</v>
       </c>
       <c r="F414" t="s">
         <v>33</v>
@@ -8749,13 +8749,13 @@
         <v>9</v>
       </c>
       <c r="C415" t="n">
-        <v>502.722715440352</v>
+        <v>502.825455701267</v>
       </c>
       <c r="D415" t="n">
-        <v>895.995632700706</v>
+        <v>899.301372950826</v>
       </c>
       <c r="E415" t="n">
-        <v>586.864381965338</v>
+        <v>587.77974246271</v>
       </c>
       <c r="F415" t="s">
         <v>33</v>
@@ -8769,13 +8769,13 @@
         <v>10</v>
       </c>
       <c r="C416" t="n">
-        <v>0.457619252909675</v>
+        <v>0.459235344158013</v>
       </c>
       <c r="D416" t="n">
-        <v>0.959538349104766</v>
+        <v>0.965044172070221</v>
       </c>
       <c r="E416" t="n">
-        <v>0.571436111974462</v>
+        <v>0.573912580117857</v>
       </c>
       <c r="F416" t="s">
         <v>33</v>
@@ -8789,13 +8789,13 @@
         <v>11</v>
       </c>
       <c r="C417" t="n">
-        <v>0.921223636116575</v>
+        <v>0.92115885483728</v>
       </c>
       <c r="D417" t="n">
-        <v>0.816948904334704</v>
+        <v>0.816323715613226</v>
       </c>
       <c r="E417" t="n">
-        <v>0.886723670707375</v>
+        <v>0.886482211828398</v>
       </c>
       <c r="F417" t="s">
         <v>33</v>
@@ -8809,13 +8809,13 @@
         <v>7</v>
       </c>
       <c r="C418" t="n">
-        <v>9.61318606032757</v>
+        <v>9.62994386597494</v>
       </c>
       <c r="D418" t="n">
-        <v>15.332552667487</v>
+        <v>15.2445888030286</v>
       </c>
       <c r="E418" t="n">
-        <v>10.5664138281875</v>
+        <v>10.5657180221505</v>
       </c>
       <c r="F418" t="s">
         <v>33</v>
@@ -8829,13 +8829,13 @@
         <v>9</v>
       </c>
       <c r="C419" t="n">
-        <v>402.232875009184</v>
+        <v>401.990312170186</v>
       </c>
       <c r="D419" t="n">
-        <v>784.801541498025</v>
+        <v>774.151360821667</v>
       </c>
       <c r="E419" t="n">
-        <v>487.317468089069</v>
+        <v>484.302141377236</v>
       </c>
       <c r="F419" t="s">
         <v>33</v>
@@ -8849,13 +8849,13 @@
         <v>10</v>
       </c>
       <c r="C420" t="n">
-        <v>0.371021080931422</v>
+        <v>0.371471767314319</v>
       </c>
       <c r="D420" t="n">
-        <v>0.779135472820304</v>
+        <v>0.772202321942041</v>
       </c>
       <c r="E420" t="n">
-        <v>0.461676729148049</v>
+        <v>0.461474880784736</v>
       </c>
       <c r="F420" t="s">
         <v>33</v>
@@ -8869,13 +8869,13 @@
         <v>11</v>
       </c>
       <c r="C421" t="n">
-        <v>0.950147092131023</v>
+        <v>0.950095877292078</v>
       </c>
       <c r="D421" t="n">
-        <v>0.939598345752157</v>
+        <v>0.939528978826149</v>
       </c>
       <c r="E421" t="n">
-        <v>0.927399875326155</v>
+        <v>0.927829924837935</v>
       </c>
       <c r="F421" t="s">
         <v>33</v>
@@ -8889,13 +8889,13 @@
         <v>7</v>
       </c>
       <c r="C422" t="n">
-        <v>9.00166431688282</v>
+        <v>9.00132351349731</v>
       </c>
       <c r="D422" t="n">
-        <v>13.3092107284724</v>
+        <v>13.3101389363971</v>
       </c>
       <c r="E422" t="n">
-        <v>9.71958871881442</v>
+        <v>9.71945941731394</v>
       </c>
       <c r="F422" t="s">
         <v>33</v>
@@ -8909,13 +8909,13 @@
         <v>9</v>
       </c>
       <c r="C423" t="n">
-        <v>427.33719389435</v>
+        <v>427.322300881032</v>
       </c>
       <c r="D423" t="n">
-        <v>619.28691467277</v>
+        <v>619.368136062885</v>
       </c>
       <c r="E423" t="n">
-        <v>464.865871177269</v>
+        <v>464.872497236484</v>
       </c>
       <c r="F423" t="s">
         <v>33</v>
@@ -8929,13 +8929,13 @@
         <v>10</v>
       </c>
       <c r="C424" t="n">
-        <v>0.374357639969972</v>
+        <v>0.374349454960561</v>
       </c>
       <c r="D424" t="n">
-        <v>0.65514897808656</v>
+        <v>0.655219929961087</v>
       </c>
       <c r="E424" t="n">
-        <v>0.421494737794705</v>
+        <v>0.421500886891458</v>
       </c>
       <c r="F424" t="s">
         <v>33</v>
@@ -8949,13 +8949,13 @@
         <v>11</v>
       </c>
       <c r="C425" t="n">
-        <v>0.948569775832676</v>
+        <v>0.948572405097885</v>
       </c>
       <c r="D425" t="n">
-        <v>0.929670865166494</v>
+        <v>0.929678541641165</v>
       </c>
       <c r="E425" t="n">
-        <v>0.938770512951152</v>
+        <v>0.938769187079465</v>
       </c>
       <c r="F425" t="s">
         <v>33</v>
@@ -8969,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>8.89054629845585</v>
+        <v>8.86112894351323</v>
       </c>
       <c r="D426" t="n">
-        <v>10.8272426981119</v>
+        <v>10.6928191283852</v>
       </c>
       <c r="E426" t="n">
-        <v>9.24267291657513</v>
+        <v>9.19416352258087</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8989,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>384.529833508332</v>
+        <v>383.2723748372</v>
       </c>
       <c r="D427" t="n">
-        <v>435.392196069364</v>
+        <v>426.836751050701</v>
       </c>
       <c r="E427" t="n">
-        <v>394.265884503629</v>
+        <v>391.553856032737</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9009,13 +9009,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.346617217489045</v>
+        <v>0.345464061849938</v>
       </c>
       <c r="D428" t="n">
-        <v>0.541891583789667</v>
+        <v>0.533496078261247</v>
       </c>
       <c r="E428" t="n">
-        <v>0.399503934510299</v>
+        <v>0.396672822841482</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9029,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.953882158431923</v>
+        <v>0.954168386849936</v>
       </c>
       <c r="D429" t="n">
-        <v>0.917670785498296</v>
+        <v>0.916648206762434</v>
       </c>
       <c r="E429" t="n">
-        <v>0.94736745696249</v>
+        <v>0.94794828281676</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9052,7 +9052,7 @@
         <v>15.361454810332</v>
       </c>
       <c r="D430" t="n">
-        <v>12.6071446911649</v>
+        <v>12.6071446911642</v>
       </c>
       <c r="E430" t="n">
         <v>14.9024031238041</v>
@@ -9069,13 +9069,13 @@
         <v>9</v>
       </c>
       <c r="C431" t="n">
-        <v>683.379940125054</v>
+        <v>683.379940125053</v>
       </c>
       <c r="D431" t="n">
-        <v>583.400130724305</v>
+        <v>583.400130724253</v>
       </c>
       <c r="E431" t="n">
-        <v>667.756994891074</v>
+        <v>667.756994891066</v>
       </c>
       <c r="F431" t="s">
         <v>33</v>
@@ -9089,13 +9089,13 @@
         <v>10</v>
       </c>
       <c r="C432" t="n">
-        <v>0.584939128071854</v>
+        <v>0.584939128071855</v>
       </c>
       <c r="D432" t="n">
-        <v>0.631849384395527</v>
+        <v>0.631849384395469</v>
       </c>
       <c r="E432" t="n">
-        <v>0.5995596934783</v>
+        <v>0.599559693478288</v>
       </c>
       <c r="F432" t="s">
         <v>33</v>
@@ -9109,13 +9109,13 @@
         <v>11</v>
       </c>
       <c r="C433" t="n">
-        <v>0.862000159772345</v>
+        <v>0.862000159772346</v>
       </c>
       <c r="D433" t="n">
-        <v>0.927462755182414</v>
+        <v>0.927462755182415</v>
       </c>
       <c r="E433" t="n">
-        <v>0.861772862726315</v>
+        <v>0.861772862726317</v>
       </c>
       <c r="F433" t="s">
         <v>33</v>
@@ -9129,13 +9129,13 @@
         <v>7</v>
       </c>
       <c r="C434" t="n">
-        <v>9.77600189981752</v>
+        <v>9.72138125548041</v>
       </c>
       <c r="D434" t="n">
-        <v>12.0505454965616</v>
+        <v>11.887039709474</v>
       </c>
       <c r="E434" t="n">
-        <v>10.1895552810437</v>
+        <v>10.1151373380247</v>
       </c>
       <c r="F434" t="s">
         <v>34</v>
@@ -9149,13 +9149,13 @@
         <v>9</v>
       </c>
       <c r="C435" t="n">
-        <v>129.405197277879</v>
+        <v>129.041939037188</v>
       </c>
       <c r="D435" t="n">
-        <v>164.960988489936</v>
+        <v>163.860554293846</v>
       </c>
       <c r="E435" t="n">
-        <v>136.560210227076</v>
+        <v>136.037080767531</v>
       </c>
       <c r="F435" t="s">
         <v>34</v>
@@ -9169,13 +9169,13 @@
         <v>10</v>
       </c>
       <c r="C436" t="n">
-        <v>0.320143195092574</v>
+        <v>0.315871806704994</v>
       </c>
       <c r="D436" t="n">
-        <v>0.424275396941338</v>
+        <v>0.413028031069831</v>
       </c>
       <c r="E436" t="n">
-        <v>0.332657620854723</v>
+        <v>0.328751239076424</v>
       </c>
       <c r="F436" t="s">
         <v>34</v>
@@ -9189,13 +9189,13 @@
         <v>11</v>
       </c>
       <c r="C437" t="n">
-        <v>0.936432434158749</v>
+        <v>0.936404383256178</v>
       </c>
       <c r="D437" t="n">
-        <v>0.866684891543236</v>
+        <v>0.860444188570394</v>
       </c>
       <c r="E437" t="n">
-        <v>0.926038503361938</v>
+        <v>0.925471832287381</v>
       </c>
       <c r="F437" t="s">
         <v>34</v>
@@ -9209,13 +9209,13 @@
         <v>7</v>
       </c>
       <c r="C438" t="n">
-        <v>14.2418036707884</v>
+        <v>14.2226250945315</v>
       </c>
       <c r="D438" t="n">
-        <v>21.8071442798721</v>
+        <v>21.1136433108584</v>
       </c>
       <c r="E438" t="n">
-        <v>15.5026937723023</v>
+        <v>15.371128130586</v>
       </c>
       <c r="F438" t="s">
         <v>34</v>
@@ -9229,13 +9229,13 @@
         <v>9</v>
       </c>
       <c r="C439" t="n">
-        <v>207.634861757464</v>
+        <v>207.858037190031</v>
       </c>
       <c r="D439" t="n">
-        <v>207.665384080188</v>
+        <v>204.732947096432</v>
       </c>
       <c r="E439" t="n">
-        <v>207.639949122826</v>
+        <v>207.340459851766</v>
       </c>
       <c r="F439" t="s">
         <v>34</v>
@@ -9249,13 +9249,13 @@
         <v>10</v>
       </c>
       <c r="C440" t="n">
-        <v>0.453822014036043</v>
+        <v>0.453607044187631</v>
       </c>
       <c r="D440" t="n">
-        <v>0.6178564911514</v>
+        <v>0.605521875801611</v>
       </c>
       <c r="E440" t="n">
-        <v>0.480154505860176</v>
+        <v>0.478129326799035</v>
       </c>
       <c r="F440" t="s">
         <v>34</v>
@@ -9269,13 +9269,13 @@
         <v>11</v>
       </c>
       <c r="C441" t="n">
-        <v>0.822613901950258</v>
+        <v>0.822233063245281</v>
       </c>
       <c r="D441" t="n">
-        <v>0.866536451821337</v>
+        <v>0.865815733862839</v>
       </c>
       <c r="E441" t="n">
-        <v>0.81710998979191</v>
+        <v>0.817681988505381</v>
       </c>
       <c r="F441" t="s">
         <v>34</v>
@@ -9289,13 +9289,13 @@
         <v>7</v>
       </c>
       <c r="C442" t="n">
-        <v>9.00443075598401</v>
+        <v>9.06716623568193</v>
       </c>
       <c r="D442" t="n">
-        <v>20.9082018119438</v>
+        <v>34.9940768676254</v>
       </c>
       <c r="E442" t="n">
-        <v>10.988392598644</v>
+        <v>13.3883180076725</v>
       </c>
       <c r="F442" t="s">
         <v>34</v>
@@ -9309,13 +9309,13 @@
         <v>9</v>
       </c>
       <c r="C443" t="n">
-        <v>140.568298825148</v>
+        <v>138.28596363137</v>
       </c>
       <c r="D443" t="n">
-        <v>300.893275031163</v>
+        <v>573.629301391818</v>
       </c>
       <c r="E443" t="n">
-        <v>177.639145522582</v>
+        <v>266.040602822999</v>
       </c>
       <c r="F443" t="s">
         <v>34</v>
@@ -9329,13 +9329,13 @@
         <v>10</v>
       </c>
       <c r="C444" t="n">
-        <v>0.288936034242561</v>
+        <v>0.291896565141634</v>
       </c>
       <c r="D444" t="n">
-        <v>0.580773883494976</v>
+        <v>0.948540319995693</v>
       </c>
       <c r="E444" t="n">
-        <v>0.341757034310407</v>
+        <v>0.431177984653087</v>
       </c>
       <c r="F444" t="s">
         <v>34</v>
@@ -9349,13 +9349,13 @@
         <v>11</v>
       </c>
       <c r="C445" t="n">
-        <v>0.918998715762213</v>
+        <v>0.922019856372041</v>
       </c>
       <c r="D445" t="n">
-        <v>0.839440226989618</v>
+        <v>0.718043561609144</v>
       </c>
       <c r="E445" t="n">
-        <v>0.874747038420594</v>
+        <v>0.782482346230007</v>
       </c>
       <c r="F445" t="s">
         <v>34</v>
@@ -9369,13 +9369,13 @@
         <v>7</v>
       </c>
       <c r="C446" t="n">
-        <v>8.90447825005608</v>
+        <v>8.90468277540492</v>
       </c>
       <c r="D446" t="n">
-        <v>12.893654267111</v>
+        <v>12.8937451952924</v>
       </c>
       <c r="E446" t="n">
-        <v>9.56934091956523</v>
+        <v>9.56952651205284</v>
       </c>
       <c r="F446" t="s">
         <v>34</v>
@@ -9389,13 +9389,13 @@
         <v>9</v>
       </c>
       <c r="C447" t="n">
-        <v>151.847340138102</v>
+        <v>151.841728854333</v>
       </c>
       <c r="D447" t="n">
-        <v>162.021142911608</v>
+        <v>162.019053435879</v>
       </c>
       <c r="E447" t="n">
-        <v>153.589780630888</v>
+        <v>153.584790253691</v>
       </c>
       <c r="F447" t="s">
         <v>34</v>
@@ -9409,13 +9409,13 @@
         <v>10</v>
       </c>
       <c r="C448" t="n">
-        <v>0.286941498491279</v>
+        <v>0.286944569939982</v>
       </c>
       <c r="D448" t="n">
-        <v>0.437616987571829</v>
+        <v>0.437622161392585</v>
       </c>
       <c r="E448" t="n">
-        <v>0.308330588084538</v>
+        <v>0.308333281571029</v>
       </c>
       <c r="F448" t="s">
         <v>34</v>
@@ -9429,13 +9429,13 @@
         <v>11</v>
       </c>
       <c r="C449" t="n">
-        <v>0.905767626161207</v>
+        <v>0.905775223522256</v>
       </c>
       <c r="D449" t="n">
-        <v>0.883647782502832</v>
+        <v>0.883648068953672</v>
       </c>
       <c r="E449" t="n">
-        <v>0.898880114777478</v>
+        <v>0.898886587482335</v>
       </c>
       <c r="F449" t="s">
         <v>34</v>
@@ -9449,13 +9449,13 @@
         <v>7</v>
       </c>
       <c r="C450" t="n">
-        <v>8.07484110644686</v>
+        <v>7.92957045075975</v>
       </c>
       <c r="D450" t="n">
-        <v>15.609713303931</v>
+        <v>19.151024518238</v>
       </c>
       <c r="E450" t="n">
-        <v>9.44481786962579</v>
+        <v>9.96983482666489</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -9469,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>130.964360091095</v>
+        <v>125.310361796241</v>
       </c>
       <c r="D451" t="n">
-        <v>197.250394254872</v>
+        <v>263.855138573047</v>
       </c>
       <c r="E451" t="n">
-        <v>145.2835499022</v>
+        <v>159.70519695089</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -9489,13 +9489,13 @@
         <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>0.265037994005903</v>
+        <v>0.254335431694519</v>
       </c>
       <c r="D452" t="n">
-        <v>0.489153912302366</v>
+        <v>0.584048083178653</v>
       </c>
       <c r="E452" t="n">
-        <v>0.304382274983817</v>
+        <v>0.315832088878424</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -9509,13 +9509,13 @@
         <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>0.932679780511926</v>
+        <v>0.937857014642208</v>
       </c>
       <c r="D453" t="n">
-        <v>0.884482678486641</v>
+        <v>0.847469802303596</v>
       </c>
       <c r="E453" t="n">
-        <v>0.912392216847283</v>
+        <v>0.898029022007287</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -9532,10 +9532,10 @@
         <v>16.7746335202712</v>
       </c>
       <c r="D454" t="n">
-        <v>47.1585117608577</v>
+        <v>47.1585117608603</v>
       </c>
       <c r="E454" t="n">
-        <v>21.8386132270356</v>
+        <v>21.838613227036</v>
       </c>
       <c r="F454" t="s">
         <v>34</v>
@@ -9552,10 +9552,10 @@
         <v>235.533315585352</v>
       </c>
       <c r="D455" t="n">
-        <v>541.452126285828</v>
+        <v>541.452126285863</v>
       </c>
       <c r="E455" t="n">
-        <v>308.369399371541</v>
+        <v>308.369399371551</v>
       </c>
       <c r="F455" t="s">
         <v>34</v>
@@ -9572,10 +9572,10 @@
         <v>0.502433752538476</v>
       </c>
       <c r="D456" t="n">
-        <v>1.77135911263944</v>
+        <v>1.77135911263958</v>
       </c>
       <c r="E456" t="n">
-        <v>0.654489803781272</v>
+        <v>0.654489803781291</v>
       </c>
       <c r="F456" t="s">
         <v>34</v>
@@ -9589,13 +9589,13 @@
         <v>11</v>
       </c>
       <c r="C457" t="n">
-        <v>0.779157887424662</v>
+        <v>0.779157887424663</v>
       </c>
       <c r="D457" t="n">
         <v>0.791783805852329</v>
       </c>
       <c r="E457" t="n">
-        <v>0.672088499737038</v>
+        <v>0.672088499737024</v>
       </c>
       <c r="F457" t="s">
         <v>34</v>
@@ -9608,14 +9608,14 @@
       <c r="B458" t="s">
         <v>7</v>
       </c>
-      <c r="C458" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D458" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E458" t="e">
-        <v>#NUM!</v>
+      <c r="C458" t="n">
+        <v>13.4693267901395</v>
+      </c>
+      <c r="D458" t="n">
+        <v>101.010599855659</v>
+      </c>
+      <c r="E458" t="n">
+        <v>29.3859218929612</v>
       </c>
       <c r="F458" t="s">
         <v>35</v>
@@ -9629,13 +9629,13 @@
         <v>9</v>
       </c>
       <c r="C459" t="n">
-        <v>444779172856818761728</v>
-      </c>
-      <c r="D459" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E459" t="e">
-        <v>#NUM!</v>
+        <v>588.471674296538</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2016.4995454096</v>
+      </c>
+      <c r="E459" t="n">
+        <v>1011.26523075702</v>
       </c>
       <c r="F459" t="s">
         <v>35</v>
@@ -9649,13 +9649,13 @@
         <v>10</v>
       </c>
       <c r="C460" t="n">
-        <v>0.495328802188667</v>
-      </c>
-      <c r="D460" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E460" t="e">
-        <v>#NUM!</v>
+        <v>0.170082089770673</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2.33769661833399</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.491974907054301</v>
       </c>
       <c r="F460" t="s">
         <v>35</v>
@@ -9669,13 +9669,13 @@
         <v>11</v>
       </c>
       <c r="C461" t="n">
-        <v>0.000672125652083929</v>
-      </c>
-      <c r="D461" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E461" t="e">
-        <v>#NUM!</v>
+        <v>0.998858636552414</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.0725867788584479</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.911785845777734</v>
       </c>
       <c r="F461" t="s">
         <v>35</v>
@@ -9689,13 +9689,13 @@
         <v>7</v>
       </c>
       <c r="C462" t="n">
-        <v>150.378566031339</v>
+        <v>153.039081704231</v>
       </c>
       <c r="D462" t="n">
-        <v>109.439561916806</v>
+        <v>110.227541041741</v>
       </c>
       <c r="E462" t="n">
-        <v>143.555398678917</v>
+        <v>145.903824927149</v>
       </c>
       <c r="F462" t="s">
         <v>35</v>
@@ -9709,13 +9709,13 @@
         <v>9</v>
       </c>
       <c r="C463" t="n">
-        <v>2733.36014895253</v>
+        <v>2733.3183192848</v>
       </c>
       <c r="D463" t="n">
-        <v>1408.81174261536</v>
+        <v>1411.40660030905</v>
       </c>
       <c r="E463" t="n">
-        <v>2560.63270324412</v>
+        <v>2560.83364564762</v>
       </c>
       <c r="F463" t="s">
         <v>35</v>
@@ -9729,13 +9729,13 @@
         <v>10</v>
       </c>
       <c r="C464" t="n">
-        <v>1.48347224618214</v>
+        <v>1.4957676127366</v>
       </c>
       <c r="D464" t="n">
-        <v>1.56922103646721</v>
+        <v>1.5956541835548</v>
       </c>
       <c r="E464" t="n">
-        <v>1.51150415344671</v>
+        <v>1.52677212955637</v>
       </c>
       <c r="F464" t="s">
         <v>35</v>
@@ -9749,13 +9749,13 @@
         <v>11</v>
       </c>
       <c r="C465" t="n">
-        <v>0.135810692757802</v>
+        <v>0.135865363938716</v>
       </c>
       <c r="D465" t="n">
-        <v>0.530271657432086</v>
+        <v>0.530309414615823</v>
       </c>
       <c r="E465" t="n">
-        <v>0.170606442364187</v>
+        <v>0.170569602475813</v>
       </c>
       <c r="F465" t="s">
         <v>35</v>
@@ -9768,14 +9768,14 @@
       <c r="B466" t="s">
         <v>7</v>
       </c>
-      <c r="C466" t="e">
-        <v>#NUM!</v>
+      <c r="C466" t="n">
+        <v>56.4038338642811</v>
       </c>
       <c r="D466" t="n">
-        <v>200</v>
-      </c>
-      <c r="E466" t="e">
-        <v>#NUM!</v>
+        <v>73.9967890321727</v>
+      </c>
+      <c r="E466" t="n">
+        <v>59.3359930589297</v>
       </c>
       <c r="F466" t="s">
         <v>35</v>
@@ -9789,13 +9789,13 @@
         <v>9</v>
       </c>
       <c r="C467" t="n">
-        <v>2990.29077738827</v>
+        <v>2606.23601024029</v>
       </c>
       <c r="D467" t="n">
-        <v>2281.2064973021</v>
+        <v>1602.71777536521</v>
       </c>
       <c r="E467" t="n">
-        <v>2884.24160309084</v>
+        <v>2467.48978291832</v>
       </c>
       <c r="F467" t="s">
         <v>35</v>
@@ -9809,13 +9809,13 @@
         <v>10</v>
       </c>
       <c r="C468" t="n">
-        <v>0.931495693330651</v>
-      </c>
-      <c r="D468" t="e">
-        <v>#NUM!</v>
+        <v>0.671456340103074</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1.93825794758074</v>
       </c>
       <c r="E468" t="n">
-        <v>289128965216678645520640884482444040886240684062</v>
+        <v>2.1334076974352</v>
       </c>
       <c r="F468" t="s">
         <v>35</v>
@@ -9829,11 +9829,13 @@
         <v>11</v>
       </c>
       <c r="C469" t="n">
-        <v>0.000155236380358617</v>
-      </c>
-      <c r="D469"/>
+        <v>0.442712905993113</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.595402403758583</v>
+      </c>
       <c r="E469" t="n">
-        <v>0.00630145295006858</v>
+        <v>0.442306484575497</v>
       </c>
       <c r="F469" t="s">
         <v>35</v>
@@ -9846,14 +9848,14 @@
       <c r="B470" t="s">
         <v>7</v>
       </c>
-      <c r="C470" t="e">
-        <v>#NUM!</v>
+      <c r="C470" t="n">
+        <v>55.3181046776218</v>
       </c>
       <c r="D470" t="n">
-        <v>199.969447638746</v>
-      </c>
-      <c r="E470" t="e">
-        <v>#NUM!</v>
+        <v>74.9857767670214</v>
+      </c>
+      <c r="E470" t="n">
+        <v>58.596050025855</v>
       </c>
       <c r="F470" t="s">
         <v>35</v>
@@ -9866,14 +9868,14 @@
       <c r="B471" t="s">
         <v>9</v>
       </c>
-      <c r="C471" t="e">
-        <v>#NUM!</v>
+      <c r="C471" t="n">
+        <v>2722.23052846169</v>
       </c>
       <c r="D471" t="n">
-        <v>218459382244460</v>
-      </c>
-      <c r="E471" t="e">
-        <v>#NUM!</v>
+        <v>1620.51238516001</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2571.59987948168</v>
       </c>
       <c r="F471" t="s">
         <v>35</v>
@@ -9887,13 +9889,13 @@
         <v>10</v>
       </c>
       <c r="C472" t="n">
-        <v>0.502595907231941</v>
+        <v>2.59755089663169</v>
       </c>
       <c r="D472" t="n">
-        <v>0.975410354303478</v>
+        <v>1.87052235610222</v>
       </c>
       <c r="E472" t="n">
-        <v>0.503299823068401</v>
+        <v>2.36269845749676</v>
       </c>
       <c r="F472" t="s">
         <v>35</v>
@@ -9907,13 +9909,13 @@
         <v>11</v>
       </c>
       <c r="C473" t="n">
-        <v>0.000271909902897107</v>
+        <v>0.305123497685892</v>
       </c>
       <c r="D473" t="n">
-        <v>0.014734510227821</v>
+        <v>0.467008535436617</v>
       </c>
       <c r="E473" t="n">
-        <v>0.000351358441262293</v>
+        <v>0.28984233810129</v>
       </c>
       <c r="F473" t="s">
         <v>35</v>
@@ -9926,14 +9928,14 @@
       <c r="B474" t="s">
         <v>7</v>
       </c>
-      <c r="C474" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D474" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E474" t="e">
-        <v>#NUM!</v>
+      <c r="C474" t="n">
+        <v>42.3243519166153</v>
+      </c>
+      <c r="D474" t="n">
+        <v>81.472126354207</v>
+      </c>
+      <c r="E474" t="n">
+        <v>49.4421290870865</v>
       </c>
       <c r="F474" t="s">
         <v>35</v>
@@ -9946,14 +9948,14 @@
       <c r="B475" t="s">
         <v>9</v>
       </c>
-      <c r="C475" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D475" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E475" t="e">
-        <v>#NUM!</v>
+      <c r="C475" t="n">
+        <v>2179.22537458011</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1915.1606676866</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2133.64583124396</v>
       </c>
       <c r="F475" t="s">
         <v>35</v>
@@ -9967,13 +9969,13 @@
         <v>10</v>
       </c>
       <c r="C476" t="n">
-        <v>3.37191940041109e+275</v>
-      </c>
-      <c r="D476" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E476" t="e">
-        <v>#NUM!</v>
+        <v>0.520153820788073</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1.35464166543291</v>
+      </c>
+      <c r="E476" t="n">
+        <v>1.25919444532905</v>
       </c>
       <c r="F476" t="s">
         <v>35</v>
@@ -9987,13 +9989,13 @@
         <v>11</v>
       </c>
       <c r="C477" t="n">
-        <v>0.000344636519649258</v>
-      </c>
-      <c r="D477" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E477" t="e">
-        <v>#NUM!</v>
+        <v>0.880081606501446</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.186608715879648</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.663389835682976</v>
       </c>
       <c r="F477" t="s">
         <v>35</v>
@@ -10007,13 +10009,13 @@
         <v>7</v>
       </c>
       <c r="C478" t="n">
-        <v>116.217579819072</v>
+        <v>116.217579819073</v>
       </c>
       <c r="D478" t="n">
-        <v>137.741993854922</v>
+        <v>137.741993854918</v>
       </c>
       <c r="E478" t="n">
-        <v>119.804982158381</v>
+        <v>119.80498215838</v>
       </c>
       <c r="F478" t="s">
         <v>35</v>
@@ -10027,10 +10029,10 @@
         <v>9</v>
       </c>
       <c r="C479" t="n">
-        <v>2967.58612827091</v>
+        <v>2967.5861282709</v>
       </c>
       <c r="D479" t="n">
-        <v>1848.96486046378</v>
+        <v>1848.96486046379</v>
       </c>
       <c r="E479" t="n">
         <v>2812.22059941841</v>
@@ -10047,13 +10049,13 @@
         <v>10</v>
       </c>
       <c r="C480" t="n">
-        <v>1.2877381602743</v>
+        <v>1.28773816027431</v>
       </c>
       <c r="D480" t="n">
         <v>1.34446084473301</v>
       </c>
       <c r="E480" t="n">
-        <v>1.17146041342861</v>
+        <v>1.17146041342863</v>
       </c>
       <c r="F480" t="s">
         <v>35</v>
@@ -10067,13 +10069,13 @@
         <v>11</v>
       </c>
       <c r="C481" t="n">
-        <v>0.173386886160865</v>
+        <v>0.173386886160862</v>
       </c>
       <c r="D481" t="n">
-        <v>0.205871354807938</v>
+        <v>0.205871354807944</v>
       </c>
       <c r="E481" t="n">
-        <v>0.172110384343915</v>
+        <v>0.172110384343912</v>
       </c>
       <c r="F481" t="s">
         <v>35</v>
@@ -10087,13 +10089,13 @@
         <v>7</v>
       </c>
       <c r="C482" t="n">
-        <v>15.1800872759773</v>
+        <v>15.1793287518474</v>
       </c>
       <c r="D482" t="n">
-        <v>10.5860999016145</v>
+        <v>10.5703210394578</v>
       </c>
       <c r="E482" t="n">
-        <v>14.3448168442749</v>
+        <v>14.3413273495947</v>
       </c>
       <c r="F482" t="s">
         <v>36</v>
@@ -10107,13 +10109,13 @@
         <v>9</v>
       </c>
       <c r="C483" t="n">
-        <v>143.437389283683</v>
+        <v>143.114105313446</v>
       </c>
       <c r="D483" t="n">
-        <v>28.460883709478</v>
+        <v>28.441372467083</v>
       </c>
       <c r="E483" t="n">
-        <v>130.310330855273</v>
+        <v>130.018406946036</v>
       </c>
       <c r="F483" t="s">
         <v>36</v>
@@ -10127,13 +10129,13 @@
         <v>10</v>
       </c>
       <c r="C484" t="n">
-        <v>0.915017724907726</v>
+        <v>0.914140718316349</v>
       </c>
       <c r="D484" t="n">
-        <v>3.20124713516179</v>
+        <v>3.20852666540121</v>
       </c>
       <c r="E484" t="n">
-        <v>0.960933707136617</v>
+        <v>0.960080419131526</v>
       </c>
       <c r="F484" t="s">
         <v>36</v>
@@ -10147,13 +10149,13 @@
         <v>11</v>
       </c>
       <c r="C485" t="n">
-        <v>0.891835538187489</v>
+        <v>0.892014530954917</v>
       </c>
       <c r="D485" t="n">
-        <v>0.0876113753959687</v>
+        <v>0.087686618221336</v>
       </c>
       <c r="E485" t="n">
-        <v>0.895472459653891</v>
+        <v>0.895642423691117</v>
       </c>
       <c r="F485" t="s">
         <v>36</v>
@@ -10167,13 +10169,13 @@
         <v>7</v>
       </c>
       <c r="C486" t="n">
-        <v>81.5863096711343</v>
+        <v>82.3359689351834</v>
       </c>
       <c r="D486" t="n">
-        <v>136.20090610941</v>
+        <v>126.750852254664</v>
       </c>
       <c r="E486" t="n">
-        <v>90.6887424108469</v>
+        <v>89.7384494884302</v>
       </c>
       <c r="F486" t="s">
         <v>36</v>
@@ -10187,13 +10189,13 @@
         <v>9</v>
       </c>
       <c r="C487" t="n">
-        <v>603.171730139725</v>
+        <v>593.94975864447</v>
       </c>
       <c r="D487" t="n">
-        <v>450.250647005576</v>
+        <v>401.305289946003</v>
       </c>
       <c r="E487" t="n">
-        <v>580.489208244174</v>
+        <v>566.410851283143</v>
       </c>
       <c r="F487" t="s">
         <v>36</v>
@@ -10207,13 +10209,13 @@
         <v>10</v>
       </c>
       <c r="C488" t="n">
-        <v>2.36122410651148</v>
+        <v>2.32206223670228</v>
       </c>
       <c r="D488" t="n">
-        <v>2.53836043111557</v>
+        <v>2.26981467799606</v>
       </c>
       <c r="E488" t="n">
-        <v>2.70177346180746</v>
+        <v>2.63044191544731</v>
       </c>
       <c r="F488" t="s">
         <v>36</v>
@@ -10227,13 +10229,13 @@
         <v>11</v>
       </c>
       <c r="C489" t="n">
-        <v>0.500812962934225</v>
+        <v>0.516891125308692</v>
       </c>
       <c r="D489" t="n">
-        <v>0.0485379133872112</v>
+        <v>0.0464824119514619</v>
       </c>
       <c r="E489" t="n">
-        <v>0.470125413090749</v>
+        <v>0.491633141454707</v>
       </c>
       <c r="F489" t="s">
         <v>36</v>
@@ -10247,13 +10249,13 @@
         <v>7</v>
       </c>
       <c r="C490" t="n">
-        <v>18.0244880932429</v>
+        <v>18.5483461682584</v>
       </c>
       <c r="D490" t="n">
-        <v>17.7349818298601</v>
+        <v>29.1969493068862</v>
       </c>
       <c r="E490" t="n">
-        <v>17.9762370493458</v>
+        <v>20.3231133580297</v>
       </c>
       <c r="F490" t="s">
         <v>36</v>
@@ -10267,13 +10269,13 @@
         <v>9</v>
       </c>
       <c r="C491" t="n">
-        <v>414.036834597017</v>
+        <v>435.545570766965</v>
       </c>
       <c r="D491" t="n">
-        <v>50.2088244671627</v>
+        <v>64.2283885445293</v>
       </c>
       <c r="E491" t="n">
-        <v>378.517597140468</v>
+        <v>398.460580854333</v>
       </c>
       <c r="F491" t="s">
         <v>36</v>
@@ -10287,13 +10289,13 @@
         <v>10</v>
       </c>
       <c r="C492" t="n">
-        <v>0.915157500626713</v>
+        <v>0.990086857098183</v>
       </c>
       <c r="D492" t="n">
-        <v>1.51905845376515</v>
+        <v>3.55928333767878</v>
       </c>
       <c r="E492" t="n">
-        <v>1.14797100651332</v>
+        <v>0.953804927958722</v>
       </c>
       <c r="F492" t="s">
         <v>36</v>
@@ -10307,13 +10309,13 @@
         <v>11</v>
       </c>
       <c r="C493" t="n">
-        <v>0.853014480124248</v>
+        <v>0.758752020356761</v>
       </c>
       <c r="D493" t="n">
-        <v>0.0449009556818084</v>
+        <v>0.135315098539876</v>
       </c>
       <c r="E493" t="n">
-        <v>0.856023180116971</v>
+        <v>0.766672774962646</v>
       </c>
       <c r="F493" t="s">
         <v>36</v>
@@ -10327,13 +10329,13 @@
         <v>7</v>
       </c>
       <c r="C494" t="n">
-        <v>12.4298168873277</v>
+        <v>12.4353154940589</v>
       </c>
       <c r="D494" t="n">
-        <v>15.3174124057162</v>
+        <v>15.3216774209813</v>
       </c>
       <c r="E494" t="n">
-        <v>12.9110828070591</v>
+        <v>12.9163758152126</v>
       </c>
       <c r="F494" t="s">
         <v>36</v>
@@ -10347,13 +10349,13 @@
         <v>9</v>
       </c>
       <c r="C495" t="n">
-        <v>108.421187641585</v>
+        <v>108.418595000074</v>
       </c>
       <c r="D495" t="n">
-        <v>39.9178086853887</v>
+        <v>39.92986162233</v>
       </c>
       <c r="E495" t="n">
-        <v>100.307195735818</v>
+        <v>100.305659991621</v>
       </c>
       <c r="F495" t="s">
         <v>36</v>
@@ -10367,13 +10369,13 @@
         <v>10</v>
       </c>
       <c r="C496" t="n">
-        <v>0.328328919316867</v>
+        <v>0.328609462085385</v>
       </c>
       <c r="D496" t="n">
-        <v>1.53278979871605</v>
+        <v>1.53200616331946</v>
       </c>
       <c r="E496" t="n">
-        <v>0.357342047451744</v>
+        <v>0.357623644013369</v>
       </c>
       <c r="F496" t="s">
         <v>36</v>
@@ -10387,13 +10389,13 @@
         <v>11</v>
       </c>
       <c r="C497" t="n">
-        <v>0.983872465390001</v>
+        <v>0.983869842754209</v>
       </c>
       <c r="D497" t="n">
-        <v>0.108949170990784</v>
+        <v>0.109020160889395</v>
       </c>
       <c r="E497" t="n">
-        <v>0.984017190872208</v>
+        <v>0.984014194624897</v>
       </c>
       <c r="F497" t="s">
         <v>36</v>
@@ -10407,13 +10409,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="n">
-        <v>11.5402043939942</v>
+        <v>11.6561645196184</v>
       </c>
       <c r="D498" t="n">
-        <v>12.3372135031449</v>
+        <v>13.248832699617</v>
       </c>
       <c r="E498" t="n">
-        <v>11.6851151411125</v>
+        <v>11.9457405523455</v>
       </c>
       <c r="F498" t="s">
         <v>36</v>
@@ -10427,13 +10429,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="n">
-        <v>123.513889802446</v>
+        <v>119.808403067712</v>
       </c>
       <c r="D499" t="n">
-        <v>36.8342078472381</v>
+        <v>36.6052266438714</v>
       </c>
       <c r="E499" t="n">
-        <v>112.821116053304</v>
+        <v>109.489047292004</v>
       </c>
       <c r="F499" t="s">
         <v>36</v>
@@ -10447,13 +10449,13 @@
         <v>10</v>
       </c>
       <c r="C500" t="n">
-        <v>0.573020531448394</v>
+        <v>0.563284347714954</v>
       </c>
       <c r="D500" t="n">
-        <v>1.41963323060682</v>
+        <v>1.63796146521866</v>
       </c>
       <c r="E500" t="n">
-        <v>0.705271041997237</v>
+        <v>0.664911514270306</v>
       </c>
       <c r="F500" t="s">
         <v>36</v>
@@ -10467,13 +10469,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="n">
-        <v>0.924656203854558</v>
+        <v>0.922281496319568</v>
       </c>
       <c r="D501" t="n">
-        <v>0.0928125145728037</v>
+        <v>0.123836657162735</v>
       </c>
       <c r="E501" t="n">
-        <v>0.925870765516999</v>
+        <v>0.923748507687298</v>
       </c>
       <c r="F501" t="s">
         <v>36</v>
@@ -10487,13 +10489,13 @@
         <v>7</v>
       </c>
       <c r="C502" t="n">
-        <v>68.7327339567441</v>
+        <v>68.7327339567427</v>
       </c>
       <c r="D502" t="n">
-        <v>153.70223691662</v>
+        <v>153.702236916616</v>
       </c>
       <c r="E502" t="n">
-        <v>82.89431778339</v>
+        <v>82.8943177833882</v>
       </c>
       <c r="F502" t="s">
         <v>36</v>
@@ -10507,13 +10509,13 @@
         <v>9</v>
       </c>
       <c r="C503" t="n">
-        <v>595.78122180774</v>
+        <v>595.781221807735</v>
       </c>
       <c r="D503" t="n">
-        <v>2665.32967295909</v>
+        <v>2665.32967295886</v>
       </c>
       <c r="E503" t="n">
-        <v>1216.46746681048</v>
+        <v>1216.46746681039</v>
       </c>
       <c r="F503" t="s">
         <v>36</v>
@@ -10527,13 +10529,13 @@
         <v>10</v>
       </c>
       <c r="C504" t="n">
-        <v>1.99515600712752</v>
+        <v>1.99515600712749</v>
       </c>
       <c r="D504" t="n">
-        <v>13.0327549229269</v>
+        <v>13.0327549229266</v>
       </c>
       <c r="E504" t="n">
-        <v>1.87771020366452</v>
+        <v>1.87771020366451</v>
       </c>
       <c r="F504" t="s">
         <v>36</v>
@@ -10547,13 +10549,13 @@
         <v>11</v>
       </c>
       <c r="C505" t="n">
-        <v>0.693533938026773</v>
+        <v>0.693533938026777</v>
       </c>
       <c r="D505" t="n">
-        <v>0.0101462573413649</v>
+        <v>0.0101462573413644</v>
       </c>
       <c r="E505" t="n">
-        <v>0.256673889798353</v>
+        <v>0.256673889798388</v>
       </c>
       <c r="F505" t="s">
         <v>36</v>
@@ -10567,13 +10569,13 @@
         <v>7</v>
       </c>
       <c r="C506" t="n">
-        <v>14.4189506071225</v>
+        <v>14.5514494165255</v>
       </c>
       <c r="D506" t="n">
-        <v>60.2199430893855</v>
+        <v>66.4571442905086</v>
       </c>
       <c r="E506" t="n">
-        <v>22.7464037857158</v>
+        <v>23.9888484845224</v>
       </c>
       <c r="F506" t="s">
         <v>37</v>
@@ -10587,13 +10589,13 @@
         <v>9</v>
       </c>
       <c r="C507" t="n">
-        <v>95.4493807733968</v>
+        <v>96.2202582798945</v>
       </c>
       <c r="D507" t="n">
-        <v>478.232510387159</v>
+        <v>433.974998339722</v>
       </c>
       <c r="E507" t="n">
-        <v>221.443185119104</v>
+        <v>204.493529859631</v>
       </c>
       <c r="F507" t="s">
         <v>37</v>
@@ -10607,13 +10609,13 @@
         <v>10</v>
       </c>
       <c r="C508" t="n">
-        <v>1.28784759562273</v>
+        <v>1.33728161403958</v>
       </c>
       <c r="D508" t="n">
-        <v>1.30215522838941</v>
+        <v>3.41364532151091</v>
       </c>
       <c r="E508" t="n">
-        <v>1.2871421150248</v>
+        <v>2.06663607310063</v>
       </c>
       <c r="F508" t="s">
         <v>37</v>
@@ -10627,13 +10629,13 @@
         <v>11</v>
       </c>
       <c r="C509" t="n">
-        <v>0.657515956477429</v>
+        <v>0.656632277322424</v>
       </c>
       <c r="D509" t="n">
-        <v>0.0000110033386371078</v>
+        <v>0.00198353407273546</v>
       </c>
       <c r="E509" t="n">
-        <v>0.157036446291473</v>
+        <v>0.184290987285549</v>
       </c>
       <c r="F509" t="s">
         <v>37</v>
@@ -10647,13 +10649,13 @@
         <v>7</v>
       </c>
       <c r="C510" t="n">
-        <v>19.5829014078623</v>
+        <v>18.94611502143</v>
       </c>
       <c r="D510" t="n">
-        <v>19.147480319054</v>
+        <v>23.3697907127021</v>
       </c>
       <c r="E510" t="n">
-        <v>19.5103312263943</v>
+        <v>19.6833943033087</v>
       </c>
       <c r="F510" t="s">
         <v>37</v>
@@ -10667,13 +10669,13 @@
         <v>9</v>
       </c>
       <c r="C511" t="n">
-        <v>112.236005776844</v>
+        <v>109.850313627224</v>
       </c>
       <c r="D511" t="n">
-        <v>108.464156293255</v>
+        <v>128.517414868988</v>
       </c>
       <c r="E511" t="n">
-        <v>111.616216088961</v>
+        <v>113.175514831761</v>
       </c>
       <c r="F511" t="s">
         <v>37</v>
@@ -10687,13 +10689,13 @@
         <v>10</v>
       </c>
       <c r="C512" t="n">
-        <v>0.733048504063852</v>
+        <v>0.710260039316902</v>
       </c>
       <c r="D512" t="n">
-        <v>1.17527127175553</v>
+        <v>1.45737519501294</v>
       </c>
       <c r="E512" t="n">
-        <v>0.981834171656697</v>
+        <v>1.00520377318826</v>
       </c>
       <c r="F512" t="s">
         <v>37</v>
@@ -10707,13 +10709,13 @@
         <v>11</v>
       </c>
       <c r="C513" t="n">
-        <v>0.44429862547509</v>
+        <v>0.468379522741389</v>
       </c>
       <c r="D513" t="n">
-        <v>0.30335680578873</v>
+        <v>0.279680591261841</v>
       </c>
       <c r="E513" t="n">
-        <v>0.406483406229025</v>
+        <v>0.404887739510753</v>
       </c>
       <c r="F513" t="s">
         <v>37</v>
@@ -10727,13 +10729,13 @@
         <v>7</v>
       </c>
       <c r="C514" t="n">
-        <v>18.0668764067358</v>
+        <v>18.0696069268933</v>
       </c>
       <c r="D514" t="n">
-        <v>20.922945563827</v>
+        <v>20.3347774526267</v>
       </c>
       <c r="E514" t="n">
-        <v>18.5428879329177</v>
+        <v>18.4471353478489</v>
       </c>
       <c r="F514" t="s">
         <v>37</v>
@@ -10747,13 +10749,13 @@
         <v>9</v>
       </c>
       <c r="C515" t="n">
-        <v>109.049215218007</v>
+        <v>108.036897411797</v>
       </c>
       <c r="D515" t="n">
-        <v>142.562048345281</v>
+        <v>138.064216332829</v>
       </c>
       <c r="E515" t="n">
-        <v>115.313048066786</v>
+        <v>113.594002074225</v>
       </c>
       <c r="F515" t="s">
         <v>37</v>
@@ -10767,13 +10769,13 @@
         <v>10</v>
       </c>
       <c r="C516" t="n">
-        <v>0.680199566640624</v>
+        <v>0.679569352527877</v>
       </c>
       <c r="D516" t="n">
-        <v>0.81480197398992</v>
+        <v>0.805521117262659</v>
       </c>
       <c r="E516" t="n">
-        <v>0.92780771292295</v>
+        <v>0.940487304301813</v>
       </c>
       <c r="F516" t="s">
         <v>37</v>
@@ -10787,13 +10789,13 @@
         <v>11</v>
       </c>
       <c r="C517" t="n">
-        <v>0.502252967223708</v>
+        <v>0.510607544087236</v>
       </c>
       <c r="D517" t="n">
-        <v>0.235247718178298</v>
+        <v>0.267100511691464</v>
       </c>
       <c r="E517" t="n">
-        <v>0.414822230439407</v>
+        <v>0.427127506255559</v>
       </c>
       <c r="F517" t="s">
         <v>37</v>
@@ -10807,13 +10809,13 @@
         <v>7</v>
       </c>
       <c r="C518" t="n">
-        <v>19.263411473296</v>
+        <v>19.2648085214805</v>
       </c>
       <c r="D518" t="n">
-        <v>25.0148853266479</v>
+        <v>25.0125134211817</v>
       </c>
       <c r="E518" t="n">
-        <v>20.2219904488546</v>
+        <v>20.2227593380974</v>
       </c>
       <c r="F518" t="s">
         <v>37</v>
@@ -10827,13 +10829,13 @@
         <v>9</v>
       </c>
       <c r="C519" t="n">
-        <v>110.360392231266</v>
+        <v>110.358870288469</v>
       </c>
       <c r="D519" t="n">
-        <v>125.162880456261</v>
+        <v>125.150209037926</v>
       </c>
       <c r="E519" t="n">
-        <v>112.962255872852</v>
+        <v>112.958676868263</v>
       </c>
       <c r="F519" t="s">
         <v>37</v>
@@ -10847,13 +10849,13 @@
         <v>10</v>
       </c>
       <c r="C520" t="n">
-        <v>1.51125230468413</v>
+        <v>1.51133670894026</v>
       </c>
       <c r="D520" t="n">
-        <v>1.54284907477419</v>
+        <v>1.54258153457351</v>
       </c>
       <c r="E520" t="n">
-        <v>1.51668656092782</v>
+        <v>1.5166701625319</v>
       </c>
       <c r="F520" t="s">
         <v>37</v>
@@ -10867,13 +10869,13 @@
         <v>11</v>
       </c>
       <c r="C521" t="n">
-        <v>0.519144913578747</v>
+        <v>0.519174149820808</v>
       </c>
       <c r="D521" t="n">
-        <v>0.509568664942274</v>
+        <v>0.509681893031872</v>
       </c>
       <c r="E521" t="n">
-        <v>0.398277173484392</v>
+        <v>0.398300134909557</v>
       </c>
       <c r="F521" t="s">
         <v>37</v>
@@ -10887,13 +10889,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>15.5057573343159</v>
+        <v>15.4317933097113</v>
       </c>
       <c r="D522" t="n">
-        <v>33.0257850606751</v>
+        <v>54.8003445382579</v>
       </c>
       <c r="E522" t="n">
-        <v>18.6912169209266</v>
+        <v>22.5897117149016</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10907,13 +10909,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>96.8298986108803</v>
+        <v>96.3585172245707</v>
       </c>
       <c r="D523" t="n">
-        <v>172.130218689253</v>
+        <v>2400.20237730771</v>
       </c>
       <c r="E523" t="n">
-        <v>114.273152719486</v>
+        <v>1027.15439127376</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10927,13 +10929,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.584983480475892</v>
+        <v>0.582976158004476</v>
       </c>
       <c r="D524" t="n">
-        <v>1.81989468349285</v>
+        <v>0.645347672244617</v>
       </c>
       <c r="E524" t="n">
-        <v>1.25944394873944</v>
+        <v>0.735941747298316</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10947,13 +10949,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.636430891430796</v>
+        <v>0.639724082648804</v>
       </c>
       <c r="D525" t="n">
-        <v>0.452461802473708</v>
+        <v>0.0867869350544957</v>
       </c>
       <c r="E525" t="n">
-        <v>0.428923788038609</v>
+        <v>0.00330644298982781</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -10970,10 +10972,10 @@
         <v>23.1511675747508</v>
       </c>
       <c r="D526" t="n">
-        <v>20.6915893762286</v>
+        <v>20.6915893762292</v>
       </c>
       <c r="E526" t="n">
-        <v>22.7412378749971</v>
+        <v>22.7412378749972</v>
       </c>
       <c r="F526" t="s">
         <v>37</v>
@@ -10990,10 +10992,10 @@
         <v>119.460082899476</v>
       </c>
       <c r="D527" t="n">
-        <v>117.684845120862</v>
+        <v>117.684845120865</v>
       </c>
       <c r="E527" t="n">
-        <v>119.166046480579</v>
+        <v>119.16604648058</v>
       </c>
       <c r="F527" t="s">
         <v>37</v>
@@ -11007,10 +11009,10 @@
         <v>10</v>
       </c>
       <c r="C528" t="n">
-        <v>0.83308708423553</v>
+        <v>0.833087084235529</v>
       </c>
       <c r="D528" t="n">
-        <v>0.824132404462711</v>
+        <v>0.824132404462734</v>
       </c>
       <c r="E528" t="n">
         <v>1.05779541960556</v>
@@ -11030,10 +11032,10 @@
         <v>0.421641736974602</v>
       </c>
       <c r="D529" t="n">
-        <v>0.451508026482324</v>
+        <v>0.451508026482323</v>
       </c>
       <c r="E529" t="n">
-        <v>0.414436579574068</v>
+        <v>0.414436579574066</v>
       </c>
       <c r="F529" t="s">
         <v>37</v>
@@ -11047,13 +11049,13 @@
         <v>7</v>
       </c>
       <c r="C530" t="n">
-        <v>19.0530190923056</v>
+        <v>18.0348956643146</v>
       </c>
       <c r="D530" t="n">
-        <v>36.5102283948476</v>
+        <v>39.3515730409352</v>
       </c>
       <c r="E530" t="n">
-        <v>22.2270571473133</v>
+        <v>21.9106551873366</v>
       </c>
       <c r="F530" t="s">
         <v>38</v>
@@ -11067,13 +11069,13 @@
         <v>9</v>
       </c>
       <c r="C531" t="n">
-        <v>38.3365421881076</v>
+        <v>39.3532008220975</v>
       </c>
       <c r="D531" t="n">
-        <v>39.9935632779913</v>
+        <v>41.7861180824025</v>
       </c>
       <c r="E531" t="n">
-        <v>38.6431040652868</v>
+        <v>39.8066109896471</v>
       </c>
       <c r="F531" t="s">
         <v>38</v>
@@ -11087,13 +11089,13 @@
         <v>10</v>
       </c>
       <c r="C532" t="n">
-        <v>1.08432708800286</v>
+        <v>0.862932999537535</v>
       </c>
       <c r="D532" t="n">
-        <v>4.03817350574344</v>
+        <v>4.02442795278061</v>
       </c>
       <c r="E532" t="n">
-        <v>1.2586427795935</v>
+        <v>1.02249706409488</v>
       </c>
       <c r="F532" t="s">
         <v>38</v>
@@ -11107,13 +11109,13 @@
         <v>11</v>
       </c>
       <c r="C533" t="n">
-        <v>0.752534575490962</v>
+        <v>0.732409066881635</v>
       </c>
       <c r="D533" t="n">
-        <v>0.501913723841164</v>
+        <v>0.408523115682476</v>
       </c>
       <c r="E533" t="n">
-        <v>0.751503169230305</v>
+        <v>0.73668793782561</v>
       </c>
       <c r="F533" t="s">
         <v>38</v>
@@ -11127,13 +11129,13 @@
         <v>7</v>
       </c>
       <c r="C534" t="n">
-        <v>32.8048787299076</v>
+        <v>31.908627083926</v>
       </c>
       <c r="D534" t="n">
-        <v>73.2555211394176</v>
+        <v>74.1878269145871</v>
       </c>
       <c r="E534" t="n">
-        <v>39.5466524648259</v>
+        <v>38.9551603890362</v>
       </c>
       <c r="F534" t="s">
         <v>38</v>
@@ -11147,13 +11149,13 @@
         <v>9</v>
       </c>
       <c r="C535" t="n">
-        <v>60.2970501304429</v>
+        <v>61.1705828788622</v>
       </c>
       <c r="D535" t="n">
-        <v>41.4638535551466</v>
+        <v>40.5884505724028</v>
       </c>
       <c r="E535" t="n">
-        <v>57.5875021507971</v>
+        <v>58.2474940356051</v>
       </c>
       <c r="F535" t="s">
         <v>38</v>
@@ -11167,13 +11169,13 @@
         <v>10</v>
       </c>
       <c r="C536" t="n">
-        <v>0.824040374002428</v>
+        <v>0.821541082376485</v>
       </c>
       <c r="D536" t="n">
-        <v>1.07455319606991</v>
+        <v>0.959773969681544</v>
       </c>
       <c r="E536" t="n">
-        <v>0.938372279744182</v>
+        <v>0.947610108372697</v>
       </c>
       <c r="F536" t="s">
         <v>38</v>
@@ -11187,13 +11189,13 @@
         <v>11</v>
       </c>
       <c r="C537" t="n">
-        <v>0.639714098562498</v>
+        <v>0.629278072107087</v>
       </c>
       <c r="D537" t="n">
-        <v>0.772627891051758</v>
+        <v>0.801421252416987</v>
       </c>
       <c r="E537" t="n">
-        <v>0.652362353714274</v>
+        <v>0.643470336929879</v>
       </c>
       <c r="F537" t="s">
         <v>38</v>
@@ -11207,13 +11209,13 @@
         <v>7</v>
       </c>
       <c r="C538" t="n">
-        <v>45.2580583183113</v>
+        <v>52.6672886341685</v>
       </c>
       <c r="D538" t="n">
-        <v>26.3195142572595</v>
+        <v>22.1693680171898</v>
       </c>
       <c r="E538" t="n">
-        <v>42.0795614129599</v>
+        <v>47.5843018646721</v>
       </c>
       <c r="F538" t="s">
         <v>38</v>
@@ -11227,13 +11229,13 @@
         <v>9</v>
       </c>
       <c r="C539" t="n">
-        <v>291.559828313115</v>
+        <v>231.62573705367</v>
       </c>
       <c r="D539" t="n">
-        <v>31.6388145872893</v>
+        <v>25.5929463046917</v>
       </c>
       <c r="E539" t="n">
-        <v>266.285944879262</v>
+        <v>211.702389070457</v>
       </c>
       <c r="F539" t="s">
         <v>38</v>
@@ -11247,13 +11249,13 @@
         <v>10</v>
       </c>
       <c r="C540" t="n">
-        <v>2.73913231910392</v>
+        <v>3.01972379757798</v>
       </c>
       <c r="D540" t="n">
-        <v>1.03679180960869</v>
+        <v>0.641764241128563</v>
       </c>
       <c r="E540" t="n">
-        <v>0.781682307348851</v>
+        <v>1.02506264772876</v>
       </c>
       <c r="F540" t="s">
         <v>38</v>
@@ -11267,13 +11269,13 @@
         <v>11</v>
       </c>
       <c r="C541" t="n">
-        <v>0.168327894447247</v>
+        <v>0.204729641162151</v>
       </c>
       <c r="D541" t="n">
-        <v>0.486968497043024</v>
+        <v>0.797037980144364</v>
       </c>
       <c r="E541" t="n">
-        <v>0.195044976898273</v>
+        <v>0.242802506356838</v>
       </c>
       <c r="F541" t="s">
         <v>38</v>
@@ -11287,13 +11289,13 @@
         <v>7</v>
       </c>
       <c r="C542" t="n">
-        <v>42.8113527188474</v>
+        <v>28.7991470856467</v>
       </c>
       <c r="D542" t="n">
-        <v>28.6892394996157</v>
+        <v>27.2824137617774</v>
       </c>
       <c r="E542" t="n">
-        <v>40.390419024122</v>
+        <v>28.5463581983352</v>
       </c>
       <c r="F542" t="s">
         <v>38</v>
@@ -11307,13 +11309,13 @@
         <v>9</v>
       </c>
       <c r="C543" t="n">
-        <v>119.494094586989</v>
+        <v>91.2850709648799</v>
       </c>
       <c r="D543" t="n">
-        <v>28.1211423995311</v>
+        <v>30.1294755550975</v>
       </c>
       <c r="E543" t="n">
-        <v>109.391970519242</v>
+        <v>84.2344013280213</v>
       </c>
       <c r="F543" t="s">
         <v>38</v>
@@ -11327,13 +11329,13 @@
         <v>10</v>
       </c>
       <c r="C544" t="n">
-        <v>0.903809776103341</v>
+        <v>1.08319253646522</v>
       </c>
       <c r="D544" t="n">
-        <v>1.48874997334319</v>
+        <v>2.0918324815175</v>
       </c>
       <c r="E544" t="n">
-        <v>0.927128508637468</v>
+        <v>1.1278712906369</v>
       </c>
       <c r="F544" t="s">
         <v>38</v>
@@ -11347,13 +11349,13 @@
         <v>11</v>
       </c>
       <c r="C545" t="n">
-        <v>0.108657261565402</v>
+        <v>0.296010718785801</v>
       </c>
       <c r="D545" t="n">
-        <v>0.597924138854607</v>
+        <v>0.768472406037844</v>
       </c>
       <c r="E545" t="n">
-        <v>0.137952763647747</v>
+        <v>0.34335692338934</v>
       </c>
       <c r="F545" t="s">
         <v>38</v>
@@ -11367,13 +11369,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>26.597603247784</v>
+        <v>22.6199357388291</v>
       </c>
       <c r="D546" t="n">
-        <v>25.2964451008744</v>
+        <v>20.1562766942861</v>
       </c>
       <c r="E546" t="n">
-        <v>26.3573894360468</v>
+        <v>22.1719977307304</v>
       </c>
       <c r="F546" t="s">
         <v>38</v>
@@ -11387,13 +11389,13 @@
         <v>9</v>
       </c>
       <c r="C547" t="n">
-        <v>167.585748671841</v>
+        <v>65.0463380050965</v>
       </c>
       <c r="D547" t="n">
-        <v>27.6942418319273</v>
+        <v>23.1312502964074</v>
       </c>
       <c r="E547" t="n">
-        <v>151.794788586764</v>
+        <v>59.6576172621808</v>
       </c>
       <c r="F547" t="s">
         <v>38</v>
@@ -11407,13 +11409,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="n">
-        <v>1.97500718001604</v>
+        <v>1.19019589642522</v>
       </c>
       <c r="D548" t="n">
-        <v>2.15365049713792</v>
+        <v>1.22636634317765</v>
       </c>
       <c r="E548" t="n">
-        <v>0.956205242607875</v>
+        <v>0.73707831190326</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -11427,13 +11429,13 @@
         <v>11</v>
       </c>
       <c r="C549" t="n">
-        <v>0.496472468309792</v>
+        <v>0.747125817663086</v>
       </c>
       <c r="D549" t="n">
-        <v>0.811084257908216</v>
+        <v>0.835839434865981</v>
       </c>
       <c r="E549" t="n">
-        <v>0.514402348358882</v>
+        <v>0.764038668627571</v>
       </c>
       <c r="F549" t="s">
         <v>38</v>
@@ -11447,13 +11449,13 @@
         <v>7</v>
       </c>
       <c r="C550" t="n">
-        <v>39.3310906593608</v>
+        <v>39.3310906593613</v>
       </c>
       <c r="D550" t="n">
-        <v>131.586932706809</v>
+        <v>131.586932706795</v>
       </c>
       <c r="E550" t="n">
-        <v>54.7070643339355</v>
+        <v>54.7070643339336</v>
       </c>
       <c r="F550" t="s">
         <v>38</v>
@@ -11467,13 +11469,13 @@
         <v>9</v>
       </c>
       <c r="C551" t="n">
-        <v>99.9907643449832</v>
+        <v>99.990764344983</v>
       </c>
       <c r="D551" t="n">
-        <v>85.3175489939454</v>
+        <v>85.3175489939305</v>
       </c>
       <c r="E551" t="n">
-        <v>97.6983870028945</v>
+        <v>97.6983870028922</v>
       </c>
       <c r="F551" t="s">
         <v>38</v>
@@ -11490,10 +11492,10 @@
         <v>1.25940261265524</v>
       </c>
       <c r="D552" t="n">
-        <v>1.83495266801778</v>
+        <v>1.83495266801741</v>
       </c>
       <c r="E552" t="n">
-        <v>1.03438792179664</v>
+        <v>1.03438792179661</v>
       </c>
       <c r="F552" t="s">
         <v>38</v>
@@ -11507,13 +11509,13 @@
         <v>11</v>
       </c>
       <c r="C553" t="n">
-        <v>0.397547754791258</v>
+        <v>0.397547754791263</v>
       </c>
       <c r="D553" t="n">
-        <v>0.542128202090197</v>
+        <v>0.542128202090211</v>
       </c>
       <c r="E553" t="n">
-        <v>0.444769212946733</v>
+        <v>0.444769212946738</v>
       </c>
       <c r="F553" t="s">
         <v>38</v>
@@ -11527,13 +11529,13 @@
         <v>7</v>
       </c>
       <c r="C554" t="n">
-        <v>199.135606320767</v>
+        <v>53.8781207346775</v>
       </c>
       <c r="D554" t="n">
-        <v>200</v>
+        <v>70.308334057764</v>
       </c>
       <c r="E554" t="n">
-        <v>199.2927688079</v>
+        <v>56.865432247966</v>
       </c>
       <c r="F554" t="s">
         <v>39</v>
@@ -11547,13 +11549,13 @@
         <v>9</v>
       </c>
       <c r="C555" t="n">
-        <v>2263490629032368384</v>
+        <v>175.950967477363</v>
       </c>
       <c r="D555" t="n">
-        <v>227.454116252048</v>
+        <v>128.548553503775</v>
       </c>
       <c r="E555" t="n">
-        <v>2047404308996152064</v>
+        <v>168.32818265136</v>
       </c>
       <c r="F555" t="s">
         <v>39</v>
@@ -11567,13 +11569,13 @@
         <v>10</v>
       </c>
       <c r="C556" t="n">
-        <v>0.495370370370371</v>
+        <v>0.790516696731088</v>
       </c>
       <c r="D556" t="n">
-        <v>9772155347242877072260202282422668082266204228220648660028404084</v>
+        <v>1.08012848999672</v>
       </c>
       <c r="E556" t="n">
-        <v>0.496212121212121</v>
+        <v>0.830475525814139</v>
       </c>
       <c r="F556" t="s">
         <v>39</v>
@@ -11587,13 +11589,13 @@
         <v>11</v>
       </c>
       <c r="C557" t="n">
-        <v>0.124917575264331</v>
+        <v>0.750181930461626</v>
       </c>
       <c r="D557" t="n">
-        <v>0.190831107146928</v>
+        <v>0.710528576640333</v>
       </c>
       <c r="E557" t="n">
-        <v>0.11532646787645</v>
+        <v>0.747495636878372</v>
       </c>
       <c r="F557" t="s">
         <v>39</v>
@@ -11607,13 +11609,13 @@
         <v>7</v>
       </c>
       <c r="C558" t="n">
-        <v>115.307421703094</v>
+        <v>114.513645104946</v>
       </c>
       <c r="D558" t="n">
-        <v>165.90584617255</v>
+        <v>165.912450278924</v>
       </c>
       <c r="E558" t="n">
-        <v>123.740492448003</v>
+        <v>123.080112633942</v>
       </c>
       <c r="F558" t="s">
         <v>39</v>
@@ -11627,13 +11629,13 @@
         <v>9</v>
       </c>
       <c r="C559" t="n">
-        <v>173.929475518668</v>
+        <v>173.929729060141</v>
       </c>
       <c r="D559" t="n">
-        <v>182.402899290238</v>
+        <v>180.528806121858</v>
       </c>
       <c r="E559" t="n">
-        <v>175.370146613993</v>
+        <v>175.046852344571</v>
       </c>
       <c r="F559" t="s">
         <v>39</v>
@@ -11647,13 +11649,13 @@
         <v>10</v>
       </c>
       <c r="C560" t="n">
-        <v>0.660190855039774</v>
+        <v>0.653600743964836</v>
       </c>
       <c r="D560" t="n">
-        <v>0.950820072477353</v>
+        <v>0.93022733817915</v>
       </c>
       <c r="E560" t="n">
-        <v>0.717823571069248</v>
+        <v>0.709101778284212</v>
       </c>
       <c r="F560" t="s">
         <v>39</v>
@@ -11667,13 +11669,13 @@
         <v>11</v>
       </c>
       <c r="C561" t="n">
-        <v>0.720981655718986</v>
+        <v>0.72098344554908</v>
       </c>
       <c r="D561" t="n">
-        <v>0.62630774844497</v>
+        <v>0.625764125109813</v>
       </c>
       <c r="E561" t="n">
-        <v>0.693509350520777</v>
+        <v>0.693980630935857</v>
       </c>
       <c r="F561" t="s">
         <v>39</v>
@@ -11687,13 +11689,13 @@
         <v>7</v>
       </c>
       <c r="C562" t="n">
-        <v>200</v>
+        <v>49.4613860116513</v>
       </c>
       <c r="D562" t="n">
-        <v>200</v>
+        <v>65.6697595457995</v>
       </c>
       <c r="E562" t="n">
-        <v>200</v>
+        <v>52.162781600676</v>
       </c>
       <c r="F562" t="s">
         <v>39</v>
@@ -11707,13 +11709,13 @@
         <v>9</v>
       </c>
       <c r="C563" t="n">
-        <v>372.194707109061</v>
+        <v>166.39281852577</v>
       </c>
       <c r="D563" t="n">
-        <v>227.454116252048</v>
+        <v>128.115622700904</v>
       </c>
       <c r="E563" t="n">
-        <v>352.226223470087</v>
+        <v>160.647887767414</v>
       </c>
       <c r="F563" t="s">
         <v>39</v>
@@ -11727,13 +11729,13 @@
         <v>10</v>
       </c>
       <c r="C564" t="n">
-        <v>1.08453612759774</v>
-      </c>
-      <c r="D564" t="e">
-        <v>#NUM!</v>
+        <v>0.440261772248912</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.696106385269484</v>
       </c>
       <c r="E564" t="n">
-        <v>10065725515648874619624846864280000248826224400248002804082286644624006220044664644088044228</v>
+        <v>0.522357742640297</v>
       </c>
       <c r="F564" t="s">
         <v>39</v>
@@ -11747,11 +11749,13 @@
         <v>11</v>
       </c>
       <c r="C565" t="n">
-        <v>0.00401093803496303</v>
-      </c>
-      <c r="D565"/>
+        <v>0.755930375833346</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.607422696167326</v>
+      </c>
       <c r="E565" t="n">
-        <v>0.00406941706365212</v>
+        <v>0.746590204974498</v>
       </c>
       <c r="F565" t="s">
         <v>39</v>
@@ -11765,13 +11769,13 @@
         <v>7</v>
       </c>
       <c r="C566" t="n">
-        <v>162.16510111568</v>
+        <v>45.7173313001735</v>
       </c>
       <c r="D566" t="n">
-        <v>160.328201319518</v>
+        <v>56.4634009414948</v>
       </c>
       <c r="E566" t="n">
-        <v>161.858951149653</v>
+        <v>47.5083429070604</v>
       </c>
       <c r="F566" t="s">
         <v>39</v>
@@ -11785,13 +11789,13 @@
         <v>9</v>
       </c>
       <c r="C567" t="n">
-        <v>371.729561195591</v>
+        <v>119.2550553323</v>
       </c>
       <c r="D567" t="n">
-        <v>227.016794532916</v>
+        <v>129.372198264873</v>
       </c>
       <c r="E567" t="n">
-        <v>351.769564329959</v>
+        <v>121.000004680052</v>
       </c>
       <c r="F567" t="s">
         <v>39</v>
@@ -11804,14 +11808,14 @@
       <c r="B568" t="s">
         <v>10</v>
       </c>
-      <c r="C568" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D568" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E568" t="e">
-        <v>#NUM!</v>
+      <c r="C568" t="n">
+        <v>0.334319268707077</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.858684466976714</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.374159987165968</v>
       </c>
       <c r="F568" t="s">
         <v>39</v>
@@ -11824,9 +11828,15 @@
       <c r="B569" t="s">
         <v>11</v>
       </c>
-      <c r="C569"/>
-      <c r="D569"/>
-      <c r="E569"/>
+      <c r="C569" t="n">
+        <v>0.872859979394964</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.657996336117894</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.853296127549049</v>
+      </c>
       <c r="F569" t="s">
         <v>39</v>
       </c>
@@ -11839,13 +11849,13 @@
         <v>7</v>
       </c>
       <c r="C570" t="n">
-        <v>194.935430053206</v>
+        <v>46.119559502583</v>
       </c>
       <c r="D570" t="n">
-        <v>190.001062843838</v>
+        <v>56.3638822278905</v>
       </c>
       <c r="E570" t="n">
-        <v>194.038272378776</v>
+        <v>47.9821636344571</v>
       </c>
       <c r="F570" t="s">
         <v>39</v>
@@ -11859,13 +11869,13 @@
         <v>9</v>
       </c>
       <c r="C571" t="n">
-        <v>25132812280289396716428264408820206848622622268684800882466444088644</v>
+        <v>133.455985749016</v>
       </c>
       <c r="D571" t="n">
-        <v>258860.033042724</v>
+        <v>124.677397642786</v>
       </c>
       <c r="E571" t="n">
-        <v>22733484070951756822468260806062644006666008808806004028880406020220</v>
+        <v>131.90334207501</v>
       </c>
       <c r="F571" t="s">
         <v>39</v>
@@ -11879,13 +11889,13 @@
         <v>10</v>
       </c>
       <c r="C572" t="n">
-        <v>26462841879519101242624800460440060280020446608280480248200646882</v>
+        <v>0.373931702485834</v>
       </c>
       <c r="D572" t="n">
-        <v>0.667112969825098</v>
+        <v>0.808586979766106</v>
       </c>
       <c r="E572" t="n">
-        <v>0.806073420216093</v>
+        <v>0.469804198696535</v>
       </c>
       <c r="F572" t="s">
         <v>39</v>
@@ -11899,13 +11909,13 @@
         <v>11</v>
       </c>
       <c r="C573" t="n">
-        <v>0.00616259450187614</v>
+        <v>0.833465341884857</v>
       </c>
       <c r="D573" t="n">
-        <v>0.0120462641081948</v>
+        <v>0.679184491436489</v>
       </c>
       <c r="E573" t="n">
-        <v>0.00476649395764625</v>
+        <v>0.819805320901263</v>
       </c>
       <c r="F573" t="s">
         <v>39</v>
@@ -11919,13 +11929,13 @@
         <v>7</v>
       </c>
       <c r="C574" t="n">
-        <v>120.673547680536</v>
+        <v>120.673547680537</v>
       </c>
       <c r="D574" t="n">
-        <v>116.214501253</v>
+        <v>116.214501253015</v>
       </c>
       <c r="E574" t="n">
-        <v>119.930373275947</v>
+        <v>119.93037327595</v>
       </c>
       <c r="F574" t="s">
         <v>39</v>
@@ -11939,13 +11949,13 @@
         <v>9</v>
       </c>
       <c r="C575" t="n">
-        <v>239.905488083767</v>
+        <v>239.905488083768</v>
       </c>
       <c r="D575" t="n">
-        <v>150.994225142412</v>
+        <v>150.994225142409</v>
       </c>
       <c r="E575" t="n">
-        <v>227.512809928697</v>
+        <v>227.512809928698</v>
       </c>
       <c r="F575" t="s">
         <v>39</v>
@@ -11959,13 +11969,13 @@
         <v>10</v>
       </c>
       <c r="C576" t="n">
-        <v>0.87678851472316</v>
+        <v>0.876788514723164</v>
       </c>
       <c r="D576" t="n">
-        <v>0.641923309939057</v>
+        <v>0.641923309939045</v>
       </c>
       <c r="E576" t="n">
-        <v>0.702743568520654</v>
+        <v>0.702743568520656</v>
       </c>
       <c r="F576" t="s">
         <v>39</v>
@@ -11979,13 +11989,13 @@
         <v>11</v>
       </c>
       <c r="C577" t="n">
-        <v>0.562675673634933</v>
+        <v>0.562675673634931</v>
       </c>
       <c r="D577" t="n">
         <v>0.611861105272254</v>
       </c>
       <c r="E577" t="n">
-        <v>0.565525853916328</v>
+        <v>0.565525853916327</v>
       </c>
       <c r="F577" t="s">
         <v>39</v>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -491,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>13.1345456589146</v>
+        <v>13.1892643190776</v>
       </c>
       <c r="D2" t="n">
-        <v>39.6364857486458</v>
+        <v>39.5390812316325</v>
       </c>
       <c r="E2" t="n">
-        <v>17.9530802206839</v>
+        <v>17.9801401213603</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -511,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>23176.1647732118</v>
+        <v>23323.8987952462</v>
       </c>
       <c r="D3" t="n">
-        <v>73219.5012978525</v>
+        <v>72265.7120603361</v>
       </c>
       <c r="E3" t="n">
-        <v>37606.0950850065</v>
+        <v>37344.4708993456</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.29405565834849</v>
+        <v>0.296845742173588</v>
       </c>
       <c r="D4" t="n">
-        <v>1.10676994227236</v>
+        <v>1.1004949867815</v>
       </c>
       <c r="E4" t="n">
-        <v>0.425904305018963</v>
+        <v>0.426653975369278</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -551,13 +551,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.960030494106792</v>
+        <v>0.959563085678934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64036676133052</v>
+        <v>0.64844517550352</v>
       </c>
       <c r="E5" t="n">
-        <v>0.895133710123894</v>
+        <v>0.896733147572392</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -571,13 +571,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>37.1808202331087</v>
+        <v>37.34745400937</v>
       </c>
       <c r="D6" t="n">
-        <v>42.6524253759616</v>
+        <v>42.5833818674258</v>
       </c>
       <c r="E6" t="n">
-        <v>38.0927544235842</v>
+        <v>38.2201086523793</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -591,13 +591,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>54483.4734230314</v>
+        <v>54513.953441497</v>
       </c>
       <c r="D7" t="n">
-        <v>62728.7055195929</v>
+        <v>62646.4705148777</v>
       </c>
       <c r="E7" t="n">
-        <v>55942.1351001113</v>
+        <v>55951.520484374</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -611,13 +611,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.649829772902768</v>
+        <v>0.650379254088631</v>
       </c>
       <c r="D8" t="n">
-        <v>1.07164921826171</v>
+        <v>1.0684167875397</v>
       </c>
       <c r="E8" t="n">
-        <v>0.828352826961571</v>
+        <v>0.827827541968022</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -631,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.780123958309334</v>
+        <v>0.779813011474885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.791869099138444</v>
+        <v>0.792598828110564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.774629867932271</v>
+        <v>0.774342525480004</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -651,13 +651,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>22.633161784555</v>
+        <v>22.6289683069408</v>
       </c>
       <c r="D10" t="n">
-        <v>35.1231392055348</v>
+        <v>35.1286166596902</v>
       </c>
       <c r="E10" t="n">
-        <v>24.7148246880517</v>
+        <v>24.712243032399</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -671,13 +671,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>40787.003914242</v>
+        <v>40788.1054901599</v>
       </c>
       <c r="D11" t="n">
-        <v>63654.1852940461</v>
+        <v>63677.8441038894</v>
       </c>
       <c r="E11" t="n">
-        <v>45405.1277334596</v>
+        <v>45411.4808851633</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -691,13 +691,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.469468435217764</v>
+        <v>0.46936602868849</v>
       </c>
       <c r="D12" t="n">
-        <v>1.07210939128241</v>
+        <v>1.07249323170763</v>
       </c>
       <c r="E12" t="n">
-        <v>0.563804282487984</v>
+        <v>0.563548266195034</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -711,13 +711,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.883090648590171</v>
+        <v>0.883101710421131</v>
       </c>
       <c r="D13" t="n">
-        <v>0.812840294921709</v>
+        <v>0.812829889340923</v>
       </c>
       <c r="E13" t="n">
-        <v>0.856132292539139</v>
+        <v>0.856102745003704</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -731,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8304580752035</v>
+        <v>18.8302760712154</v>
       </c>
       <c r="D14" t="n">
-        <v>33.3179184200663</v>
+        <v>33.3180821763963</v>
       </c>
       <c r="E14" t="n">
-        <v>21.2450347993473</v>
+        <v>21.2449104220789</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -751,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>41584.9894099372</v>
+        <v>41585.4448309951</v>
       </c>
       <c r="D15" t="n">
-        <v>53909.9259810358</v>
+        <v>53910.5837632044</v>
       </c>
       <c r="E15" t="n">
-        <v>43880.2097389466</v>
+        <v>43880.7040938804</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -771,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.443757826972645</v>
+        <v>0.443756100991268</v>
       </c>
       <c r="D16" t="n">
-        <v>0.710113229351847</v>
+        <v>0.710118969202739</v>
       </c>
       <c r="E16" t="n">
-        <v>0.489759557678703</v>
+        <v>0.489758868552977</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -791,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8775367937918</v>
+        <v>0.877534975333426</v>
       </c>
       <c r="D17" t="n">
-        <v>0.809876369777469</v>
+        <v>0.809872638723279</v>
       </c>
       <c r="E17" t="n">
-        <v>0.866102846749141</v>
+        <v>0.866100716423873</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>15.9252916788844</v>
+        <v>15.8069148820266</v>
       </c>
       <c r="D18" t="n">
-        <v>32.1956443037476</v>
+        <v>31.7454497616368</v>
       </c>
       <c r="E18" t="n">
-        <v>18.8835376106777</v>
+        <v>18.704830314683</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>33238.4794814658</v>
+        <v>33466.6437702654</v>
       </c>
       <c r="D19" t="n">
-        <v>51273.4353138532</v>
+        <v>48262.303736847</v>
       </c>
       <c r="E19" t="n">
-        <v>37174.1589156258</v>
+        <v>36604.3292660457</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.375327867559914</v>
+        <v>0.376348694710122</v>
       </c>
       <c r="D20" t="n">
-        <v>0.929040295777704</v>
+        <v>0.806732459558888</v>
       </c>
       <c r="E20" t="n">
-        <v>0.468956882541654</v>
+        <v>0.459311195904897</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.917011353402086</v>
+        <v>0.915847507290986</v>
       </c>
       <c r="D21" t="n">
-        <v>0.897915286472791</v>
+        <v>0.886780961873427</v>
       </c>
       <c r="E21" t="n">
-        <v>0.897967346036694</v>
+        <v>0.900854879755577</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -891,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5890461592782</v>
+        <v>34.5890461592784</v>
       </c>
       <c r="D22" t="n">
-        <v>64.9800835773157</v>
+        <v>64.9800835773171</v>
       </c>
       <c r="E22" t="n">
-        <v>39.6542190622845</v>
+        <v>39.6542190622849</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -911,13 +911,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>55537.4900432309</v>
+        <v>55537.490043231</v>
       </c>
       <c r="D23" t="n">
-        <v>98552.7460379541</v>
+        <v>98552.7460379564</v>
       </c>
       <c r="E23" t="n">
-        <v>64723.395761156</v>
+        <v>64723.3957611567</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -931,13 +931,13 @@
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>0.673665455194299</v>
+        <v>0.673665455194303</v>
       </c>
       <c r="D24" t="n">
-        <v>1.79949246666767</v>
+        <v>1.79949246666771</v>
       </c>
       <c r="E24" t="n">
-        <v>0.854755712134987</v>
+        <v>0.854755712135008</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -951,13 +951,13 @@
         <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>0.776128141627733</v>
+        <v>0.776128141627731</v>
       </c>
       <c r="D25" t="n">
-        <v>0.808892773963043</v>
+        <v>0.808892773963041</v>
       </c>
       <c r="E25" t="n">
-        <v>0.710153929452941</v>
+        <v>0.710153929452935</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -971,13 +971,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>6.55507611146669</v>
+        <v>6.5586983304267</v>
       </c>
       <c r="D26" t="n">
-        <v>22.9494160869112</v>
+        <v>23.0586467417458</v>
       </c>
       <c r="E26" t="n">
-        <v>9.53586519791114</v>
+        <v>9.55868895066654</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -991,13 +991,13 @@
         <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>6977.19600037649</v>
+        <v>6990.87786664316</v>
       </c>
       <c r="D27" t="n">
-        <v>32417.5684484967</v>
+        <v>32511.7189383041</v>
       </c>
       <c r="E27" t="n">
-        <v>15195.4803821129</v>
+        <v>15237.1409175781</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1011,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>0.390140457471353</v>
+        <v>0.390628872107218</v>
       </c>
       <c r="D28" t="n">
-        <v>1.73910634551488</v>
+        <v>1.76448822363886</v>
       </c>
       <c r="E28" t="n">
-        <v>0.688299830455608</v>
+        <v>0.691425181549122</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1031,13 +1031,13 @@
         <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>0.931486844098505</v>
+        <v>0.931147511281073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235425917147202</v>
+        <v>0.220728509944919</v>
       </c>
       <c r="E29" t="n">
-        <v>0.794038299861714</v>
+        <v>0.7921325051438</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1051,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.1914971629877</v>
+        <v>15.2322824994801</v>
       </c>
       <c r="D30" t="n">
-        <v>15.8385155147408</v>
+        <v>15.6790763818238</v>
       </c>
       <c r="E30" t="n">
-        <v>15.2993335549465</v>
+        <v>15.3067481465374</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1071,13 +1071,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>15066.4266476454</v>
+        <v>15073.9108169439</v>
       </c>
       <c r="D31" t="n">
-        <v>26355.6265435138</v>
+        <v>26207.0287223683</v>
       </c>
       <c r="E31" t="n">
-        <v>17462.3648176374</v>
+        <v>17430.4441090913</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -1091,13 +1091,13 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.761591639361867</v>
+        <v>0.763702470935665</v>
       </c>
       <c r="D32" t="n">
-        <v>1.55148034781749</v>
+        <v>1.54295518018645</v>
       </c>
       <c r="E32" t="n">
-        <v>1.05791244044827</v>
+        <v>1.05953126770038</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -1111,13 +1111,13 @@
         <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>0.667251694680368</v>
+        <v>0.666968557708942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0511656478265946</v>
+        <v>0.051235031889943</v>
       </c>
       <c r="E33" t="n">
-        <v>0.632237377069466</v>
+        <v>0.633153991046543</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1131,13 +1131,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>13.2570971403645</v>
+        <v>13.2570648310659</v>
       </c>
       <c r="D34" t="n">
-        <v>36.5912815316904</v>
+        <v>36.591453832467</v>
       </c>
       <c r="E34" t="n">
-        <v>17.1461278722521</v>
+        <v>17.1461296646327</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -1151,13 +1151,13 @@
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>14680.6562294153</v>
+        <v>14680.6468390657</v>
       </c>
       <c r="D35" t="n">
-        <v>52087.2799233662</v>
+        <v>52087.601447962</v>
       </c>
       <c r="E35" t="n">
-        <v>25135.2775544865</v>
+        <v>25135.3840321719</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0.655075040792069</v>
+        <v>0.655074060757326</v>
       </c>
       <c r="D36" t="n">
-        <v>4.02019900095344</v>
+        <v>4.02022058839152</v>
       </c>
       <c r="E36" t="n">
-        <v>1.16566316727703</v>
+        <v>1.16566208267742</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -1191,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="C37" t="n">
-        <v>0.694808163241152</v>
+        <v>0.694808497054821</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0615574354899502</v>
+        <v>0.0615562429674758</v>
       </c>
       <c r="E37" t="n">
-        <v>0.60504735164368</v>
+        <v>0.605046312077568</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -1211,13 +1211,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>10.3710735766079</v>
+        <v>10.3710731696954</v>
       </c>
       <c r="D38" t="n">
-        <v>9.04555793767464</v>
+        <v>9.04555832410974</v>
       </c>
       <c r="E38" t="n">
-        <v>10.1501543034523</v>
+        <v>10.1501540287645</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -1231,13 +1231,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>12083.4912050354</v>
+        <v>12083.491221765</v>
       </c>
       <c r="D39" t="n">
-        <v>15076.3479070246</v>
+        <v>15076.3483072853</v>
       </c>
       <c r="E39" t="n">
-        <v>12631.64059498</v>
+        <v>12631.6406879375</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -1251,13 +1251,13 @@
         <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.585971920881539</v>
+        <v>0.58597191083456</v>
       </c>
       <c r="D40" t="n">
-        <v>0.501656927357469</v>
+        <v>0.501656940529952</v>
       </c>
       <c r="E40" t="n">
-        <v>0.563490723027476</v>
+        <v>0.563490714925602</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -1271,13 +1271,13 @@
         <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>0.785940402750409</v>
+        <v>0.785940402478168</v>
       </c>
       <c r="D41" t="n">
-        <v>0.631796638895495</v>
+        <v>0.631796650785622</v>
       </c>
       <c r="E41" t="n">
-        <v>0.807134544967027</v>
+        <v>0.807134545206177</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.45396052320635</v>
+        <v>9.35602130044577</v>
       </c>
       <c r="D42" t="n">
-        <v>24.7389720685978</v>
+        <v>21.8838321921029</v>
       </c>
       <c r="E42" t="n">
-        <v>12.2330535314593</v>
+        <v>11.6338050989289</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10859.5153768239</v>
+        <v>10794.3246330104</v>
       </c>
       <c r="D43" t="n">
-        <v>33000.4693138521</v>
+        <v>30106.5185580531</v>
       </c>
       <c r="E43" t="n">
-        <v>17160.7999862378</v>
+        <v>16128.636074663</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.49240238946121</v>
+        <v>0.488863332033784</v>
       </c>
       <c r="D44" t="n">
-        <v>2.06816138134079</v>
+        <v>1.89478718594693</v>
       </c>
       <c r="E44" t="n">
-        <v>0.879062739812718</v>
+        <v>0.835086941135567</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.827467080152369</v>
+        <v>0.829695960207881</v>
       </c>
       <c r="D45" t="n">
-        <v>0.348980972446593</v>
+        <v>0.290506560512735</v>
       </c>
       <c r="E45" t="n">
-        <v>0.73876022868641</v>
+        <v>0.748223488763399</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1371,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>15.323872805703</v>
+        <v>15.3238728057029</v>
       </c>
       <c r="D46" t="n">
-        <v>52.1486926865615</v>
+        <v>52.1486926865622</v>
       </c>
       <c r="E46" t="n">
-        <v>21.461342785846</v>
+        <v>21.4613427858461</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -1394,10 +1394,10 @@
         <v>16986.5406593124</v>
       </c>
       <c r="D47" t="n">
-        <v>80925.4179569508</v>
+        <v>80925.4179569523</v>
       </c>
       <c r="E47" t="n">
-        <v>36495.744248153</v>
+        <v>36495.7442481535</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -1411,10 +1411,10 @@
         <v>10</v>
       </c>
       <c r="C48" t="n">
-        <v>0.799734736207508</v>
+        <v>0.799734736207507</v>
       </c>
       <c r="D48" t="n">
-        <v>6.23970788024284</v>
+        <v>6.23970788024294</v>
       </c>
       <c r="E48" t="n">
         <v>1.79013235771872</v>
@@ -1431,13 +1431,13 @@
         <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>0.588203940438077</v>
+        <v>0.588203940438078</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0236944566401047</v>
+        <v>0.0236944566401049</v>
       </c>
       <c r="E49" t="n">
-        <v>0.473708518446269</v>
+        <v>0.473708518446267</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -1451,13 +1451,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="n">
-        <v>5.96022948670344</v>
+        <v>5.97113316185949</v>
       </c>
       <c r="D50" t="n">
-        <v>12.0786756724391</v>
+        <v>12.0027111944167</v>
       </c>
       <c r="E50" t="n">
-        <v>7.07267424774628</v>
+        <v>7.06778371323354</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -1471,13 +1471,13 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>1341.67653095435</v>
+        <v>1339.95318895306</v>
       </c>
       <c r="D51" t="n">
-        <v>1162.82787327986</v>
+        <v>1163.71491119015</v>
       </c>
       <c r="E51" t="n">
-        <v>1310.97467381322</v>
+        <v>1309.67503694347</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -1491,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>0.258587571460824</v>
+        <v>0.259282770089379</v>
       </c>
       <c r="D52" t="n">
-        <v>0.550435088930486</v>
+        <v>0.54687218039293</v>
       </c>
       <c r="E52" t="n">
-        <v>0.287085172843244</v>
+        <v>0.28748633777332</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -1511,13 +1511,13 @@
         <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>0.979238153618986</v>
+        <v>0.979303525951941</v>
       </c>
       <c r="D53" t="n">
-        <v>0.979219929658413</v>
+        <v>0.979251766145041</v>
       </c>
       <c r="E53" t="n">
-        <v>0.979755309360136</v>
+        <v>0.979802845270528</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -1531,13 +1531,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>25.400907293106</v>
+        <v>25.4960764092238</v>
       </c>
       <c r="D54" t="n">
-        <v>107.970788340588</v>
+        <v>108.093449181215</v>
       </c>
       <c r="E54" t="n">
-        <v>39.162554134353</v>
+        <v>39.2623052045556</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -1551,13 +1551,13 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>3405.22994667097</v>
+        <v>3405.75395248009</v>
       </c>
       <c r="D55" t="n">
-        <v>5416.5893277317</v>
+        <v>5433.7102076898</v>
       </c>
       <c r="E55" t="n">
-        <v>3814.82622788642</v>
+        <v>3819.27145202069</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -1571,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>0.682503764348225</v>
+        <v>0.68277492125108</v>
       </c>
       <c r="D56" t="n">
-        <v>1.25775029613539</v>
+        <v>1.26056964662091</v>
       </c>
       <c r="E56" t="n">
-        <v>0.788659688716588</v>
+        <v>0.788931685296101</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -1591,13 +1591,13 @@
         <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>0.890808751759351</v>
+        <v>0.890768219045552</v>
       </c>
       <c r="D57" t="n">
-        <v>0.973452085039943</v>
+        <v>0.97331453424611</v>
       </c>
       <c r="E57" t="n">
-        <v>0.867300357359856</v>
+        <v>0.867242293491834</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -1611,13 +1611,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>4.49396688259298</v>
+        <v>4.49336985207151</v>
       </c>
       <c r="D58" t="n">
-        <v>4.42332309855842</v>
+        <v>4.43116443395949</v>
       </c>
       <c r="E58" t="n">
-        <v>4.48219291858722</v>
+        <v>4.48300228238617</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -1631,13 +1631,13 @@
         <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>1256.33992362296</v>
+        <v>1258.84917303311</v>
       </c>
       <c r="D59" t="n">
-        <v>418.502231465115</v>
+        <v>417.501132540613</v>
       </c>
       <c r="E59" t="n">
-        <v>1159.53253053303</v>
+        <v>1161.73816598975</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -1651,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>0.197954421170426</v>
+        <v>0.198291601751826</v>
       </c>
       <c r="D60" t="n">
-        <v>0.243385264391381</v>
+        <v>0.242215878815665</v>
       </c>
       <c r="E60" t="n">
-        <v>0.211026348975091</v>
+        <v>0.210751269012677</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -1671,13 +1671,13 @@
         <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>0.985657019278592</v>
+        <v>0.98553702965633</v>
       </c>
       <c r="D61" t="n">
-        <v>0.982198079604025</v>
+        <v>0.982107424515366</v>
       </c>
       <c r="E61" t="n">
-        <v>0.987338892508908</v>
+        <v>0.987239631506002</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -1691,13 +1691,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>4.92281275663725</v>
+        <v>4.92257725994403</v>
       </c>
       <c r="D62" t="n">
-        <v>8.69574351582509</v>
+        <v>8.69593214360633</v>
       </c>
       <c r="E62" t="n">
-        <v>5.55163454983522</v>
+        <v>5.55146974055441</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -1711,13 +1711,13 @@
         <v>9</v>
       </c>
       <c r="C63" t="n">
-        <v>1202.98563206859</v>
+        <v>1202.91470909027</v>
       </c>
       <c r="D63" t="n">
-        <v>776.713614212004</v>
+        <v>776.693389920717</v>
       </c>
       <c r="E63" t="n">
-        <v>1143.03369688734</v>
+        <v>1142.96920406714</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -1731,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>0.217112306453048</v>
+        <v>0.217095833393135</v>
       </c>
       <c r="D64" t="n">
-        <v>0.427315118650958</v>
+        <v>0.427318816078467</v>
       </c>
       <c r="E64" t="n">
-        <v>0.233302338872667</v>
+        <v>0.233287047423587</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -1751,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>0.987261184686606</v>
+        <v>0.98726212564417</v>
       </c>
       <c r="D65" t="n">
-        <v>0.989223198241759</v>
+        <v>0.989222300229322</v>
       </c>
       <c r="E65" t="n">
-        <v>0.988223343409787</v>
+        <v>0.988224218415245</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>4.51860387886891</v>
+        <v>4.52554056738559</v>
       </c>
       <c r="D66" t="n">
-        <v>6.32409177316618</v>
+        <v>6.32948310097892</v>
       </c>
       <c r="E66" t="n">
-        <v>4.84687440510478</v>
+        <v>4.85353011894802</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1128.40272294822</v>
+        <v>1134.12494759647</v>
       </c>
       <c r="D67" t="n">
-        <v>518.204749542008</v>
+        <v>518.888589209821</v>
       </c>
       <c r="E67" t="n">
-        <v>1044.32260216452</v>
+        <v>1049.44337223772</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.199931754176702</v>
+        <v>0.200594855070167</v>
       </c>
       <c r="D68" t="n">
-        <v>0.303601067573753</v>
+        <v>0.30428102219097</v>
       </c>
       <c r="E68" t="n">
-        <v>0.215037294744935</v>
+        <v>0.215716326504225</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.985551255251151</v>
+        <v>0.985396962750903</v>
       </c>
       <c r="D69" t="n">
-        <v>0.989709232625003</v>
+        <v>0.989691836556192</v>
       </c>
       <c r="E69" t="n">
-        <v>0.98726523724406</v>
+        <v>0.987132683140527</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -1851,13 +1851,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="n">
-        <v>17.829102562322</v>
+        <v>17.8291025623223</v>
       </c>
       <c r="D70" t="n">
-        <v>123.021388679522</v>
+        <v>123.021388679527</v>
       </c>
       <c r="E70" t="n">
-        <v>35.361150248522</v>
+        <v>35.3611502485231</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -1871,13 +1871,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>4875.02314290544</v>
+        <v>4875.02314290548</v>
       </c>
       <c r="D71" t="n">
-        <v>32607.3104825475</v>
+        <v>32607.3104825511</v>
       </c>
       <c r="E71" t="n">
-        <v>14036.0604048083</v>
+        <v>14036.0604048097</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -1891,13 +1891,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.711712001056451</v>
+        <v>0.711712001056453</v>
       </c>
       <c r="D72" t="n">
-        <v>6.9783254252308</v>
+        <v>6.97832542523143</v>
       </c>
       <c r="E72" t="n">
-        <v>1.66216025477499</v>
+        <v>1.66216025477513</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -1911,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="C73" t="n">
-        <v>0.812476183813462</v>
+        <v>0.812476183813459</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2030485181681</v>
+        <v>0.203048518168061</v>
       </c>
       <c r="E73" t="n">
-        <v>0.209394242318267</v>
+        <v>0.209394242318212</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -1931,13 +1931,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>2.33937958447245</v>
+        <v>2.32725695327398</v>
       </c>
       <c r="D74" t="n">
-        <v>15.580093281613</v>
+        <v>15.9887946781466</v>
       </c>
       <c r="E74" t="n">
-        <v>4.76515919310889</v>
+        <v>4.83013409370866</v>
       </c>
       <c r="F74" t="s">
         <v>19</v>
@@ -1951,13 +1951,13 @@
         <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>446.548257373722</v>
+        <v>845.235587122785</v>
       </c>
       <c r="D75" t="n">
-        <v>656.282789907691</v>
+        <v>682.797998344869</v>
       </c>
       <c r="E75" t="n">
-        <v>491.712558367616</v>
+        <v>817.893387456489</v>
       </c>
       <c r="F75" t="s">
         <v>19</v>
@@ -1971,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0272923185694777</v>
+        <v>0.0366991149009179</v>
       </c>
       <c r="D76" t="n">
-        <v>1.82778824399456</v>
+        <v>2.03122355362024</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0516502216060126</v>
+        <v>0.0622408897850069</v>
       </c>
       <c r="F76" t="s">
         <v>19</v>
@@ -1991,13 +1991,13 @@
         <v>11</v>
       </c>
       <c r="C77" t="n">
-        <v>0.999825163028751</v>
+        <v>0.999802895163876</v>
       </c>
       <c r="D77" t="n">
-        <v>0.698795845613291</v>
+        <v>0.69534374312359</v>
       </c>
       <c r="E77" t="n">
-        <v>0.999648479258241</v>
+        <v>0.999612518460512</v>
       </c>
       <c r="F77" t="s">
         <v>19</v>
@@ -2011,13 +2011,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>81.2611942326208</v>
+        <v>87.8801760596186</v>
       </c>
       <c r="D78" t="n">
-        <v>165.304906232363</v>
+        <v>175.245895556757</v>
       </c>
       <c r="E78" t="n">
-        <v>95.2684795659111</v>
+        <v>102.441129309142</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -2031,13 +2031,13 @@
         <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>19473.9930043879</v>
+        <v>19461.2364260916</v>
       </c>
       <c r="D79" t="n">
-        <v>6946.19406056526</v>
+        <v>7003.92255695936</v>
       </c>
       <c r="E79" t="n">
-        <v>18001.998174285</v>
+        <v>17994.2284605604</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -2051,13 +2051,13 @@
         <v>10</v>
       </c>
       <c r="C80" t="n">
-        <v>1.22165528357395</v>
+        <v>1.25742335888275</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05358116253649</v>
+        <v>1.13470941048259</v>
       </c>
       <c r="E80" t="n">
-        <v>1.20832340578219</v>
+        <v>1.2493127067533</v>
       </c>
       <c r="F80" t="s">
         <v>19</v>
@@ -2071,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>0.113333755920684</v>
+        <v>0.11451363724079</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00906131359341041</v>
+        <v>0.00911535261847476</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0952390043049617</v>
+        <v>0.0962886627321371</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2091,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>24.0111596511084</v>
+        <v>23.4578320553805</v>
       </c>
       <c r="D82" t="n">
-        <v>35.4630254690065</v>
+        <v>32.2335684208607</v>
       </c>
       <c r="E82" t="n">
-        <v>25.9198039540914</v>
+        <v>24.9204547829605</v>
       </c>
       <c r="F82" t="s">
         <v>19</v>
@@ -2111,13 +2111,13 @@
         <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>20195.9835109662</v>
+        <v>20369.4477873423</v>
       </c>
       <c r="D83" t="n">
-        <v>2775.09329101667</v>
+        <v>2571.36022684752</v>
       </c>
       <c r="E83" t="n">
-        <v>18471.1030741261</v>
+        <v>18624.2848150049</v>
       </c>
       <c r="F83" t="s">
         <v>19</v>
@@ -2131,13 +2131,13 @@
         <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>0.640629756009895</v>
+        <v>0.643712308592047</v>
       </c>
       <c r="D84" t="n">
-        <v>1.23454947154309</v>
+        <v>1.22823487729763</v>
       </c>
       <c r="E84" t="n">
-        <v>2.54328777408371</v>
+        <v>2.94062851528799</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -2151,13 +2151,13 @@
         <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0741677501422208</v>
+        <v>0.0594772398330888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.422474282736407</v>
+        <v>0.475858269039879</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0558487752276089</v>
+        <v>0.0389601824912544</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -2171,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>20.5494211381358</v>
+        <v>20.549592599291</v>
       </c>
       <c r="D86" t="n">
-        <v>18.7760161387249</v>
+        <v>18.7869318847716</v>
       </c>
       <c r="E86" t="n">
-        <v>20.253853638234</v>
+        <v>20.2558158135378</v>
       </c>
       <c r="F86" t="s">
         <v>19</v>
@@ -2191,13 +2191,13 @@
         <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>19596.5402726489</v>
+        <v>19596.4952949176</v>
       </c>
       <c r="D87" t="n">
-        <v>750.260035034905</v>
+        <v>750.741841574434</v>
       </c>
       <c r="E87" t="n">
-        <v>17891.7338614229</v>
+        <v>17891.6961769575</v>
       </c>
       <c r="F87" t="s">
         <v>19</v>
@@ -2211,13 +2211,13 @@
         <v>10</v>
       </c>
       <c r="C88" t="n">
-        <v>2.39196742634486</v>
+        <v>2.39164516560167</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37694090189236</v>
+        <v>1.37762985798724</v>
       </c>
       <c r="E88" t="n">
-        <v>2.31176837193726</v>
+        <v>2.31152509034215</v>
       </c>
       <c r="F88" t="s">
         <v>19</v>
@@ -2231,13 +2231,13 @@
         <v>11</v>
       </c>
       <c r="C89" t="n">
-        <v>0.371913495853291</v>
+        <v>0.37191450190024</v>
       </c>
       <c r="D89" t="n">
-        <v>0.907052942150828</v>
+        <v>0.907061882959573</v>
       </c>
       <c r="E89" t="n">
-        <v>0.335337040643338</v>
+        <v>0.335321906666298</v>
       </c>
       <c r="F89" t="s">
         <v>19</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>14.255609743448</v>
+        <v>14.1119422530774</v>
       </c>
       <c r="D90" t="n">
-        <v>15.0390566876115</v>
+        <v>14.282697003626</v>
       </c>
       <c r="E90" t="n">
-        <v>14.3991420080275</v>
+        <v>14.143225566155</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>16043.6402756433</v>
+        <v>15995.2099507825</v>
       </c>
       <c r="D91" t="n">
-        <v>880.384526248305</v>
+        <v>813.597967445695</v>
       </c>
       <c r="E91" t="n">
-        <v>14504.6004622017</v>
+        <v>14460.1288957258</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.461751314568036</v>
+        <v>0.461197292256706</v>
       </c>
       <c r="D92" t="n">
-        <v>0.914569022795996</v>
+        <v>0.922065372394381</v>
       </c>
       <c r="E92" t="n">
-        <v>1.28915565865127</v>
+        <v>1.28789873901472</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.940843992169008</v>
+        <v>0.952981914372125</v>
       </c>
       <c r="D93" t="n">
-        <v>0.64724969258174</v>
+        <v>0.679472284117093</v>
       </c>
       <c r="E93" t="n">
-        <v>0.932361045517682</v>
+        <v>0.944924380237471</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2334,10 +2334,10 @@
         <v>119.921898327383</v>
       </c>
       <c r="D94" t="n">
-        <v>145.031967246838</v>
+        <v>145.031967246832</v>
       </c>
       <c r="E94" t="n">
-        <v>124.106909813959</v>
+        <v>124.106909813958</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
@@ -2354,7 +2354,7 @@
         <v>23230.5284978359</v>
       </c>
       <c r="D95" t="n">
-        <v>7742.5236389327</v>
+        <v>7742.52363893256</v>
       </c>
       <c r="E95" t="n">
         <v>21440.7475916896</v>
@@ -2374,10 +2374,10 @@
         <v>1.82248385450416</v>
       </c>
       <c r="D96" t="n">
-        <v>0.808526779578451</v>
+        <v>0.808526779578414</v>
       </c>
       <c r="E96" t="n">
-        <v>1.37135075623412</v>
+        <v>1.37135075623411</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -2391,13 +2391,13 @@
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0014600110854405</v>
+        <v>0.00146001108544047</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0217967914342891</v>
+        <v>0.0217967914342896</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00172468353970072</v>
+        <v>0.00172468353970066</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -2411,13 +2411,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>0.982696042462441</v>
+        <v>0.990520941270591</v>
       </c>
       <c r="D98" t="n">
-        <v>12.8637307736466</v>
+        <v>12.2835908549508</v>
       </c>
       <c r="E98" t="n">
-        <v>3.14288417540501</v>
+        <v>3.04380638012153</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -2431,13 +2431,13 @@
         <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>30.9746312222889</v>
+        <v>31.6662125920732</v>
       </c>
       <c r="D99" t="n">
-        <v>367.424319096956</v>
+        <v>346.221316858808</v>
       </c>
       <c r="E99" t="n">
-        <v>159.155758625983</v>
+        <v>150.382283069828</v>
       </c>
       <c r="F99" t="s">
         <v>20</v>
@@ -2451,13 +2451,13 @@
         <v>10</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0681632541523845</v>
+        <v>0.0689205114576072</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19532172842963</v>
+        <v>1.14924444047406</v>
       </c>
       <c r="E100" t="n">
-        <v>0.241393140353701</v>
+        <v>0.232717010526784</v>
       </c>
       <c r="F100" t="s">
         <v>20</v>
@@ -2471,13 +2471,13 @@
         <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>0.997199859932395</v>
+        <v>0.997055262231475</v>
       </c>
       <c r="D101" t="n">
-        <v>0.335633918711219</v>
+        <v>0.382520764667901</v>
       </c>
       <c r="E101" t="n">
-        <v>0.917670485125645</v>
+        <v>0.92621658401848</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
@@ -2491,13 +2491,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="n">
-        <v>7.33170439604985</v>
+        <v>7.36943694810492</v>
       </c>
       <c r="D102" t="n">
-        <v>7.97981926920657</v>
+        <v>7.84966447867248</v>
       </c>
       <c r="E102" t="n">
-        <v>7.43972354157597</v>
+        <v>7.44947486986618</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
@@ -2511,13 +2511,13 @@
         <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>220.787889271125</v>
+        <v>222.358117249073</v>
       </c>
       <c r="D103" t="n">
-        <v>257.901505482627</v>
+        <v>254.259778012813</v>
       </c>
       <c r="E103" t="n">
-        <v>227.394534812001</v>
+        <v>227.985268620543</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
@@ -2531,13 +2531,13 @@
         <v>10</v>
       </c>
       <c r="C104" t="n">
-        <v>0.506220967723691</v>
+        <v>0.509175611400514</v>
       </c>
       <c r="D104" t="n">
-        <v>0.668300307402329</v>
+        <v>0.65765217178896</v>
       </c>
       <c r="E104" t="n">
-        <v>0.580316250407316</v>
+        <v>0.582597545185531</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
@@ -2551,13 +2551,13 @@
         <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>0.861318798653373</v>
+        <v>0.859381353857855</v>
       </c>
       <c r="D105" t="n">
-        <v>0.74674909101264</v>
+        <v>0.750253910179284</v>
       </c>
       <c r="E105" t="n">
-        <v>0.841909780189068</v>
+        <v>0.840868172762152</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -2571,13 +2571,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="n">
-        <v>6.99396795427434</v>
+        <v>6.95861722438233</v>
       </c>
       <c r="D106" t="n">
-        <v>8.02936301564036</v>
+        <v>7.9074224473571</v>
       </c>
       <c r="E106" t="n">
-        <v>7.16653379783535</v>
+        <v>7.11675142821146</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -2591,13 +2591,13 @@
         <v>9</v>
       </c>
       <c r="C107" t="n">
-        <v>222.77192013947</v>
+        <v>222.237860608298</v>
       </c>
       <c r="D107" t="n">
-        <v>288.914732159381</v>
+        <v>275.29009336852</v>
       </c>
       <c r="E107" t="n">
-        <v>235.091600754493</v>
+        <v>231.924186228178</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
@@ -2611,13 +2611,13 @@
         <v>10</v>
       </c>
       <c r="C108" t="n">
-        <v>0.48491094037781</v>
+        <v>0.482775318535674</v>
       </c>
       <c r="D108" t="n">
-        <v>0.654810682876471</v>
+        <v>0.651067727091288</v>
       </c>
       <c r="E108" t="n">
-        <v>0.552206905000674</v>
+        <v>0.550521216372033</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
@@ -2631,13 +2631,13 @@
         <v>11</v>
       </c>
       <c r="C109" t="n">
-        <v>0.861081144679056</v>
+        <v>0.86179760100334</v>
       </c>
       <c r="D109" t="n">
-        <v>0.744167084274545</v>
+        <v>0.746789489534925</v>
       </c>
       <c r="E109" t="n">
-        <v>0.840473894024501</v>
+        <v>0.84366553610061</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
@@ -2651,13 +2651,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>6.42671602356362</v>
+        <v>6.42671074774228</v>
       </c>
       <c r="D110" t="n">
-        <v>8.25603499557108</v>
+        <v>8.25601092948533</v>
       </c>
       <c r="E110" t="n">
-        <v>6.73160251889819</v>
+        <v>6.73159411136612</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
@@ -2671,13 +2671,13 @@
         <v>9</v>
       </c>
       <c r="C111" t="n">
-        <v>230.763832234107</v>
+        <v>230.763423453318</v>
       </c>
       <c r="D111" t="n">
-        <v>273.788281475486</v>
+        <v>273.78723726569</v>
       </c>
       <c r="E111" t="n">
-        <v>238.474231455642</v>
+        <v>238.473702012421</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
@@ -2691,13 +2691,13 @@
         <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.470236725622675</v>
+        <v>0.470236583226799</v>
       </c>
       <c r="D112" t="n">
-        <v>0.714028341946097</v>
+        <v>0.714027920194272</v>
       </c>
       <c r="E112" t="n">
-        <v>0.508966742895671</v>
+        <v>0.508966490890587</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -2711,13 +2711,13 @@
         <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>0.864722036839581</v>
+        <v>0.86472224392557</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740890330544624</v>
+        <v>0.740890586022146</v>
       </c>
       <c r="E113" t="n">
-        <v>0.852099888291127</v>
+        <v>0.852100125869656</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -2731,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.11422269491584</v>
+        <v>5.12466574443463</v>
       </c>
       <c r="D114" t="n">
-        <v>7.24348056305527</v>
+        <v>6.67497173814726</v>
       </c>
       <c r="E114" t="n">
-        <v>5.50136048912301</v>
+        <v>5.40653956147329</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -2751,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>168.344854956273</v>
+        <v>168.655684627378</v>
       </c>
       <c r="D115" t="n">
-        <v>227.567057704382</v>
+        <v>206.594740215794</v>
       </c>
       <c r="E115" t="n">
-        <v>180.563119967581</v>
+        <v>176.162485167382</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -2771,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>0.355213478686235</v>
+        <v>0.356187124399683</v>
       </c>
       <c r="D116" t="n">
-        <v>0.707488477021379</v>
+        <v>0.679548515452107</v>
       </c>
       <c r="E116" t="n">
-        <v>0.438659023592348</v>
+        <v>0.434142227641432</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.913814878087152</v>
+        <v>0.913467940747562</v>
       </c>
       <c r="D117" t="n">
-        <v>0.759143834697646</v>
+        <v>0.773261548891562</v>
       </c>
       <c r="E117" t="n">
-        <v>0.893909497662592</v>
+        <v>0.8977203177995</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -2814,10 +2814,10 @@
         <v>10.0337035658492</v>
       </c>
       <c r="D118" t="n">
-        <v>8.6765312546033</v>
+        <v>8.67653125460301</v>
       </c>
       <c r="E118" t="n">
-        <v>9.80750818064158</v>
+        <v>9.80750818064149</v>
       </c>
       <c r="F118" t="s">
         <v>20</v>
@@ -2834,10 +2834,10 @@
         <v>308.887982064411</v>
       </c>
       <c r="D119" t="n">
-        <v>301.301215912237</v>
+        <v>301.301215912225</v>
       </c>
       <c r="E119" t="n">
-        <v>307.636514420647</v>
+        <v>307.636514420645</v>
       </c>
       <c r="F119" t="s">
         <v>20</v>
@@ -2851,13 +2851,13 @@
         <v>10</v>
       </c>
       <c r="C120" t="n">
-        <v>0.659622827708869</v>
+        <v>0.659622827708865</v>
       </c>
       <c r="D120" t="n">
-        <v>0.750184226087784</v>
+        <v>0.750184226087754</v>
       </c>
       <c r="E120" t="n">
-        <v>0.698401156077255</v>
+        <v>0.698401156077233</v>
       </c>
       <c r="F120" t="s">
         <v>20</v>
@@ -2874,10 +2874,10 @@
         <v>0.757749998003067</v>
       </c>
       <c r="D121" t="n">
-        <v>0.723692209112975</v>
+        <v>0.723692209112971</v>
       </c>
       <c r="E121" t="n">
-        <v>0.754181058493616</v>
+        <v>0.754181058493618</v>
       </c>
       <c r="F121" t="s">
         <v>20</v>
@@ -2891,13 +2891,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="n">
-        <v>8.37496627187801</v>
+        <v>8.38207579372616</v>
       </c>
       <c r="D122" t="n">
-        <v>14.4803931499981</v>
+        <v>14.4787686168413</v>
       </c>
       <c r="E122" t="n">
-        <v>9.48504388608165</v>
+        <v>9.49056539792892</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
@@ -2911,13 +2911,13 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>263.001402370648</v>
+        <v>263.424394916777</v>
       </c>
       <c r="D123" t="n">
-        <v>271.431952821774</v>
+        <v>271.405130708399</v>
       </c>
       <c r="E123" t="n">
-        <v>264.554213187122</v>
+        <v>264.893322693756</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
@@ -2931,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="C124" t="n">
-        <v>1.29154606267152</v>
+        <v>1.29159188667974</v>
       </c>
       <c r="D124" t="n">
-        <v>8.65969467282252</v>
+        <v>8.67275285786783</v>
       </c>
       <c r="E124" t="n">
-        <v>1.55575651070029</v>
+        <v>1.55578841045326</v>
       </c>
       <c r="F124" t="s">
         <v>21</v>
@@ -2951,13 +2951,13 @@
         <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>0.873470096231961</v>
+        <v>0.873040532676708</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00300003387955847</v>
+        <v>0.00278075642757606</v>
       </c>
       <c r="E125" t="n">
-        <v>0.875256181808086</v>
+        <v>0.874902722863564</v>
       </c>
       <c r="F125" t="s">
         <v>21</v>
@@ -2971,13 +2971,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="n">
-        <v>10.6847658020886</v>
+        <v>10.6799477716913</v>
       </c>
       <c r="D126" t="n">
-        <v>15.5369277521842</v>
+        <v>15.5734493928368</v>
       </c>
       <c r="E126" t="n">
-        <v>11.4934594604378</v>
+        <v>11.4955313752156</v>
       </c>
       <c r="F126" t="s">
         <v>21</v>
@@ -2991,13 +2991,13 @@
         <v>9</v>
       </c>
       <c r="C127" t="n">
-        <v>359.57242905139</v>
+        <v>360.642736848432</v>
       </c>
       <c r="D127" t="n">
-        <v>290.524767997189</v>
+        <v>288.370302575844</v>
       </c>
       <c r="E127" t="n">
-        <v>349.014397861895</v>
+        <v>349.636322868806</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
@@ -3011,13 +3011,13 @@
         <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>1.0147499969149</v>
+        <v>1.01555734197629</v>
       </c>
       <c r="D128" t="n">
-        <v>1.49388975879038</v>
+        <v>1.50491778573552</v>
       </c>
       <c r="E128" t="n">
-        <v>1.46883026310945</v>
+        <v>1.47366367318247</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -3031,13 +3031,13 @@
         <v>11</v>
       </c>
       <c r="C129" t="n">
-        <v>0.885590652711481</v>
+        <v>0.884909008805289</v>
       </c>
       <c r="D129" t="n">
-        <v>0.132026541299535</v>
+        <v>0.134372289247524</v>
       </c>
       <c r="E129" t="n">
-        <v>0.890211287866745</v>
+        <v>0.88986911495725</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
@@ -3051,13 +3051,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="n">
-        <v>7.18971269862244</v>
+        <v>6.94238459391544</v>
       </c>
       <c r="D130" t="n">
-        <v>13.2417268102839</v>
+        <v>13.5254169886711</v>
       </c>
       <c r="E130" t="n">
-        <v>8.19838171723267</v>
+        <v>8.03955665970805</v>
       </c>
       <c r="F130" t="s">
         <v>21</v>
@@ -3071,13 +3071,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>279.293370798409</v>
+        <v>264.649600083801</v>
       </c>
       <c r="D131" t="n">
-        <v>273.893638651594</v>
+        <v>293.39726118786</v>
       </c>
       <c r="E131" t="n">
-        <v>278.400688502949</v>
+        <v>269.653792542436</v>
       </c>
       <c r="F131" t="s">
         <v>21</v>
@@ -3091,13 +3091,13 @@
         <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>0.744708232555061</v>
+        <v>0.70556614773249</v>
       </c>
       <c r="D132" t="n">
-        <v>2.68453867034741</v>
+        <v>2.73822853450964</v>
       </c>
       <c r="E132" t="n">
-        <v>0.926201368290155</v>
+        <v>0.856619011630496</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -3111,13 +3111,13 @@
         <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>0.935845644473806</v>
+        <v>0.937739448898837</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0755620545654345</v>
+        <v>0.0574517617573936</v>
       </c>
       <c r="E133" t="n">
-        <v>0.935687231490189</v>
+        <v>0.936035503195498</v>
       </c>
       <c r="F133" t="s">
         <v>21</v>
@@ -3131,13 +3131,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>6.80143892669249</v>
+        <v>6.79962246615107</v>
       </c>
       <c r="D134" t="n">
-        <v>18.5753170339769</v>
+        <v>18.573948023332</v>
       </c>
       <c r="E134" t="n">
-        <v>8.76375194457323</v>
+        <v>8.76201005901456</v>
       </c>
       <c r="F134" t="s">
         <v>21</v>
@@ -3151,13 +3151,13 @@
         <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>252.424213278333</v>
+        <v>252.161295277804</v>
       </c>
       <c r="D135" t="n">
-        <v>388.679965697051</v>
+        <v>388.663459447758</v>
       </c>
       <c r="E135" t="n">
-        <v>279.780280750267</v>
+        <v>279.57881384051</v>
       </c>
       <c r="F135" t="s">
         <v>21</v>
@@ -3171,13 +3171,13 @@
         <v>10</v>
       </c>
       <c r="C136" t="n">
-        <v>0.729277637274964</v>
+        <v>0.728954343829858</v>
       </c>
       <c r="D136" t="n">
-        <v>3.81461666767568</v>
+        <v>3.81485642528188</v>
       </c>
       <c r="E136" t="n">
-        <v>0.906448908448864</v>
+        <v>0.906147534829987</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
@@ -3191,13 +3191,13 @@
         <v>11</v>
       </c>
       <c r="C137" t="n">
-        <v>0.943709624067753</v>
+        <v>0.943825751691883</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0019519966989442</v>
+        <v>0.00195280493596392</v>
       </c>
       <c r="E137" t="n">
-        <v>0.935476429040778</v>
+        <v>0.935571542284987</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>6.52534919522629</v>
+        <v>6.45809429752991</v>
       </c>
       <c r="D138" t="n">
-        <v>13.9527604001783</v>
+        <v>13.9800514101861</v>
       </c>
       <c r="E138" t="n">
-        <v>7.87578759612665</v>
+        <v>7.82572286346739</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>210.430330622737</v>
+        <v>209.645470960285</v>
       </c>
       <c r="D139" t="n">
-        <v>309.210630626838</v>
+        <v>313.413424685176</v>
       </c>
       <c r="E139" t="n">
-        <v>231.546332414221</v>
+        <v>231.990783710595</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.655617239940207</v>
+        <v>0.646668487252434</v>
       </c>
       <c r="D140" t="n">
-        <v>3.45575658854532</v>
+        <v>3.49209354815246</v>
       </c>
       <c r="E140" t="n">
-        <v>1.05124070592961</v>
+        <v>1.0265140325819</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.918689709622719</v>
+        <v>0.919305657870396</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00215495160126611</v>
+        <v>0.00110538363751588</v>
       </c>
       <c r="E141" t="n">
-        <v>0.908091010398784</v>
+        <v>0.908092703641593</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3294,10 +3294,10 @@
         <v>10.8290099400941</v>
       </c>
       <c r="D142" t="n">
-        <v>20.4715503730842</v>
+        <v>20.4715503730803</v>
       </c>
       <c r="E142" t="n">
-        <v>12.4361000122592</v>
+        <v>12.4361000122585</v>
       </c>
       <c r="F142" t="s">
         <v>21</v>
@@ -3314,10 +3314,10 @@
         <v>408.826842225961</v>
       </c>
       <c r="D143" t="n">
-        <v>398.945718376644</v>
+        <v>398.945718376602</v>
       </c>
       <c r="E143" t="n">
-        <v>407.196639809587</v>
+        <v>407.19663980958</v>
       </c>
       <c r="F143" t="s">
         <v>21</v>
@@ -3334,10 +3334,10 @@
         <v>1.04726496232252</v>
       </c>
       <c r="D144" t="n">
-        <v>1.77628815379474</v>
+        <v>1.7762881537945</v>
       </c>
       <c r="E144" t="n">
-        <v>0.876937290322926</v>
+        <v>0.876937290322896</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -3354,10 +3354,10 @@
         <v>0.879254671074142</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0638645778586695</v>
+        <v>0.063864577858662</v>
       </c>
       <c r="E145" t="n">
-        <v>0.885159769400672</v>
+        <v>0.885159769400673</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -3371,13 +3371,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>8.46353714831692</v>
+        <v>8.47602208967038</v>
       </c>
       <c r="D146" t="n">
-        <v>12.7625867272184</v>
+        <v>12.7225592153415</v>
       </c>
       <c r="E146" t="n">
-        <v>9.24518252629901</v>
+        <v>9.2481197488833</v>
       </c>
       <c r="F146" t="s">
         <v>22</v>
@@ -3391,13 +3391,13 @@
         <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>118.032254045722</v>
+        <v>118.270259319505</v>
       </c>
       <c r="D147" t="n">
-        <v>141.952533381403</v>
+        <v>142.289502330431</v>
       </c>
       <c r="E147" t="n">
-        <v>122.728658734632</v>
+        <v>122.986803838465</v>
       </c>
       <c r="F147" t="s">
         <v>22</v>
@@ -3411,13 +3411,13 @@
         <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>0.567131692130773</v>
+        <v>0.566199961427622</v>
       </c>
       <c r="D148" t="n">
-        <v>0.893405085171715</v>
+        <v>0.895090699671712</v>
       </c>
       <c r="E148" t="n">
-        <v>0.617831219756162</v>
+        <v>0.616861199005026</v>
       </c>
       <c r="F148" t="s">
         <v>22</v>
@@ -3431,13 +3431,13 @@
         <v>11</v>
       </c>
       <c r="C149" t="n">
-        <v>0.898516019179347</v>
+        <v>0.897999358090618</v>
       </c>
       <c r="D149" t="n">
-        <v>0.724246182185143</v>
+        <v>0.721066486688711</v>
       </c>
       <c r="E149" t="n">
-        <v>0.883625616678189</v>
+        <v>0.883106546221352</v>
       </c>
       <c r="F149" t="s">
         <v>22</v>
@@ -3451,13 +3451,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="n">
-        <v>12.0556551549797</v>
+        <v>12.0432504332877</v>
       </c>
       <c r="D150" t="n">
-        <v>18.9834548210993</v>
+        <v>18.8786134640892</v>
       </c>
       <c r="E150" t="n">
-        <v>13.2102884326663</v>
+        <v>13.182477605088</v>
       </c>
       <c r="F150" t="s">
         <v>22</v>
@@ -3471,13 +3471,13 @@
         <v>9</v>
       </c>
       <c r="C151" t="n">
-        <v>157.133686649909</v>
+        <v>157.241906232024</v>
       </c>
       <c r="D151" t="n">
-        <v>180.500455401592</v>
+        <v>180.164024238475</v>
       </c>
       <c r="E151" t="n">
-        <v>161.263444814761</v>
+        <v>161.288644468649</v>
       </c>
       <c r="F151" t="s">
         <v>22</v>
@@ -3491,13 +3491,13 @@
         <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>0.704539459416467</v>
+        <v>0.705302008763412</v>
       </c>
       <c r="D152" t="n">
-        <v>0.853570267435481</v>
+        <v>0.852586041757162</v>
       </c>
       <c r="E152" t="n">
-        <v>0.769840175657722</v>
+        <v>0.770636030827973</v>
       </c>
       <c r="F152" t="s">
         <v>22</v>
@@ -3511,13 +3511,13 @@
         <v>11</v>
       </c>
       <c r="C153" t="n">
-        <v>0.834971779714353</v>
+        <v>0.834744681762688</v>
       </c>
       <c r="D153" t="n">
-        <v>0.708299802043448</v>
+        <v>0.708276369340871</v>
       </c>
       <c r="E153" t="n">
-        <v>0.822259075906007</v>
+        <v>0.821987271632346</v>
       </c>
       <c r="F153" t="s">
         <v>22</v>
@@ -3531,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>8.23298340951247</v>
+        <v>8.21492434507166</v>
       </c>
       <c r="D154" t="n">
-        <v>13.5824867286767</v>
+        <v>13.6498505991967</v>
       </c>
       <c r="E154" t="n">
-        <v>9.12456729603985</v>
+        <v>9.12074538742584</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
@@ -3551,13 +3551,13 @@
         <v>9</v>
       </c>
       <c r="C155" t="n">
-        <v>114.568400280262</v>
+        <v>114.555379096116</v>
       </c>
       <c r="D155" t="n">
-        <v>145.921719810877</v>
+        <v>146.42634022327</v>
       </c>
       <c r="E155" t="n">
-        <v>120.362466482466</v>
+        <v>120.454242702679</v>
       </c>
       <c r="F155" t="s">
         <v>22</v>
@@ -3571,13 +3571,13 @@
         <v>10</v>
       </c>
       <c r="C156" t="n">
-        <v>0.484568854925523</v>
+        <v>0.484222611171266</v>
       </c>
       <c r="D156" t="n">
-        <v>1.03335542169108</v>
+        <v>1.04575637199416</v>
       </c>
       <c r="E156" t="n">
-        <v>0.590568986882709</v>
+        <v>0.593128673364</v>
       </c>
       <c r="F156" t="s">
         <v>22</v>
@@ -3591,13 +3591,13 @@
         <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>0.912907753056021</v>
+        <v>0.912779306653359</v>
       </c>
       <c r="D157" t="n">
-        <v>0.676034232844521</v>
+        <v>0.672922581695658</v>
       </c>
       <c r="E157" t="n">
-        <v>0.899946327541907</v>
+        <v>0.899661620548205</v>
       </c>
       <c r="F157" t="s">
         <v>22</v>
@@ -3611,13 +3611,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>9.45081987285483</v>
+        <v>9.43094412957762</v>
       </c>
       <c r="D158" t="n">
-        <v>12.7476014988105</v>
+        <v>12.7477624482361</v>
       </c>
       <c r="E158" t="n">
-        <v>10.0002834771808</v>
+        <v>9.98374718268737</v>
       </c>
       <c r="F158" t="s">
         <v>22</v>
@@ -3631,13 +3631,13 @@
         <v>9</v>
       </c>
       <c r="C159" t="n">
-        <v>149.056638966957</v>
+        <v>148.463061273133</v>
       </c>
       <c r="D159" t="n">
-        <v>131.315911815855</v>
+        <v>131.316838086664</v>
       </c>
       <c r="E159" t="n">
-        <v>146.249374241771</v>
+        <v>145.745505807229</v>
       </c>
       <c r="F159" t="s">
         <v>22</v>
@@ -3651,13 +3651,13 @@
         <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.613665347173949</v>
+        <v>0.612110618355809</v>
       </c>
       <c r="D160" t="n">
-        <v>0.958293938244188</v>
+        <v>0.958321393331583</v>
       </c>
       <c r="E160" t="n">
-        <v>0.653957664268937</v>
+        <v>0.652574629069721</v>
       </c>
       <c r="F160" t="s">
         <v>22</v>
@@ -3671,13 +3671,13 @@
         <v>11</v>
       </c>
       <c r="C161" t="n">
-        <v>0.856710642091367</v>
+        <v>0.857805935764081</v>
       </c>
       <c r="D161" t="n">
-        <v>0.726422085060254</v>
+        <v>0.726418881072182</v>
       </c>
       <c r="E161" t="n">
-        <v>0.854393530168404</v>
+        <v>0.855365172263717</v>
       </c>
       <c r="F161" t="s">
         <v>22</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>6.82054668929007</v>
+        <v>6.81630191086216</v>
       </c>
       <c r="D162" t="n">
-        <v>13.2566731673194</v>
+        <v>13.2804219837909</v>
       </c>
       <c r="E162" t="n">
-        <v>7.99075150347722</v>
+        <v>7.99159646957647</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>90.7924118130654</v>
+        <v>90.9104842447823</v>
       </c>
       <c r="D163" t="n">
-        <v>138.739641062696</v>
+        <v>137.65295785283</v>
       </c>
       <c r="E163" t="n">
-        <v>101.213875436627</v>
+        <v>101.0306519293</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.414078416244065</v>
+        <v>0.414247286872611</v>
       </c>
       <c r="D164" t="n">
-        <v>0.978636120958603</v>
+        <v>0.980289937374787</v>
       </c>
       <c r="E164" t="n">
-        <v>0.512086160996099</v>
+        <v>0.512856715229022</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.938679486225745</v>
+        <v>0.938520830497974</v>
       </c>
       <c r="D165" t="n">
-        <v>0.709783733007702</v>
+        <v>0.715573228590895</v>
       </c>
       <c r="E165" t="n">
-        <v>0.920859085847311</v>
+        <v>0.921170715727065</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -3794,7 +3794,7 @@
         <v>205.333415235662</v>
       </c>
       <c r="D167" t="n">
-        <v>203.742297474825</v>
+        <v>203.742297474827</v>
       </c>
       <c r="E167" t="n">
         <v>205.069086262014</v>
@@ -3811,13 +3811,13 @@
         <v>10</v>
       </c>
       <c r="C168" t="n">
-        <v>0.739389089150136</v>
+        <v>0.739389089150138</v>
       </c>
       <c r="D168" t="n">
-        <v>0.956005350514935</v>
+        <v>0.956005350514949</v>
       </c>
       <c r="E168" t="n">
-        <v>0.71557632301674</v>
+        <v>0.715576323016744</v>
       </c>
       <c r="F168" t="s">
         <v>22</v>
@@ -3831,13 +3831,13 @@
         <v>11</v>
       </c>
       <c r="C169" t="n">
-        <v>0.778868282354185</v>
+        <v>0.778868282354184</v>
       </c>
       <c r="D169" t="n">
-        <v>0.648802616181465</v>
+        <v>0.648802616181466</v>
       </c>
       <c r="E169" t="n">
-        <v>0.771099244166617</v>
+        <v>0.771099244166616</v>
       </c>
       <c r="F169" t="s">
         <v>22</v>
@@ -3851,13 +3851,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="n">
-        <v>0.714239485283132</v>
+        <v>0.710444609137961</v>
       </c>
       <c r="D170" t="n">
-        <v>10.6648379605946</v>
+        <v>10.5792025254653</v>
       </c>
       <c r="E170" t="n">
-        <v>2.52343920806704</v>
+        <v>2.50476423028839</v>
       </c>
       <c r="F170" t="s">
         <v>23</v>
@@ -3871,13 +3871,13 @@
         <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>1043.60985531733</v>
+        <v>1041.08173915575</v>
       </c>
       <c r="D171" t="n">
-        <v>12781.7571334567</v>
+        <v>12656.0508149546</v>
       </c>
       <c r="E171" t="n">
-        <v>5531.30532521594</v>
+        <v>5478.10439302649</v>
       </c>
       <c r="F171" t="s">
         <v>23</v>
@@ -3891,13 +3891,13 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0981743451919994</v>
+        <v>0.0975693610437059</v>
       </c>
       <c r="D172" t="n">
-        <v>1.65354565222971</v>
+        <v>1.62234284241902</v>
       </c>
       <c r="E172" t="n">
-        <v>0.350133711803183</v>
+        <v>0.347052049606138</v>
       </c>
       <c r="F172" t="s">
         <v>23</v>
@@ -3911,13 +3911,13 @@
         <v>11</v>
       </c>
       <c r="C173" t="n">
-        <v>0.992412077647499</v>
+        <v>0.992399625231871</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0176492522624122</v>
+        <v>0.0191257930229099</v>
       </c>
       <c r="E173" t="n">
-        <v>0.748073855653093</v>
+        <v>0.752158697690827</v>
       </c>
       <c r="F173" t="s">
         <v>23</v>
@@ -3931,13 +3931,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="n">
-        <v>4.5140734100239</v>
+        <v>4.53302818567478</v>
       </c>
       <c r="D174" t="n">
-        <v>5.67389232480993</v>
+        <v>5.87790927788588</v>
       </c>
       <c r="E174" t="n">
-        <v>4.70737656248824</v>
+        <v>4.75717503437663</v>
       </c>
       <c r="F174" t="s">
         <v>23</v>
@@ -3951,13 +3951,13 @@
         <v>9</v>
       </c>
       <c r="C175" t="n">
-        <v>6379.44848649793</v>
+        <v>6389.17803944329</v>
       </c>
       <c r="D175" t="n">
-        <v>7203.73009511947</v>
+        <v>7366.70980830921</v>
       </c>
       <c r="E175" t="n">
-        <v>6524.06496803353</v>
+        <v>6562.22007019933</v>
       </c>
       <c r="F175" t="s">
         <v>23</v>
@@ -3971,13 +3971,13 @@
         <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.543903743604827</v>
+        <v>0.546097488318523</v>
       </c>
       <c r="D176" t="n">
-        <v>1.07249776492406</v>
+        <v>1.110402080753</v>
       </c>
       <c r="E176" t="n">
-        <v>0.87368696673668</v>
+        <v>0.883503964699186</v>
       </c>
       <c r="F176" t="s">
         <v>23</v>
@@ -3991,13 +3991,13 @@
         <v>11</v>
       </c>
       <c r="C177" t="n">
-        <v>0.674027560921881</v>
+        <v>0.672985532517698</v>
       </c>
       <c r="D177" t="n">
-        <v>0.67283829872913</v>
+        <v>0.673648212084646</v>
       </c>
       <c r="E177" t="n">
-        <v>0.639322495895215</v>
+        <v>0.635075446218491</v>
       </c>
       <c r="F177" t="s">
         <v>23</v>
@@ -4011,13 +4011,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>4.23425415131635</v>
+        <v>4.23425223570704</v>
       </c>
       <c r="D178" t="n">
-        <v>5.28620479246009</v>
+        <v>5.28620337404257</v>
       </c>
       <c r="E178" t="n">
-        <v>4.40957925817364</v>
+        <v>4.40957742542963</v>
       </c>
       <c r="F178" t="s">
         <v>23</v>
@@ -4031,13 +4031,13 @@
         <v>9</v>
       </c>
       <c r="C179" t="n">
-        <v>6186.50757103765</v>
+        <v>6186.50684312555</v>
       </c>
       <c r="D179" t="n">
-        <v>6740.76352105229</v>
+        <v>6740.76057198015</v>
       </c>
       <c r="E179" t="n">
-        <v>6282.28027178137</v>
+        <v>6282.27914705269</v>
       </c>
       <c r="F179" t="s">
         <v>23</v>
@@ -4051,13 +4051,13 @@
         <v>10</v>
       </c>
       <c r="C180" t="n">
-        <v>0.509485439710404</v>
+        <v>0.50948521871311</v>
       </c>
       <c r="D180" t="n">
-        <v>0.976146043356016</v>
+        <v>0.976145067062634</v>
       </c>
       <c r="E180" t="n">
-        <v>0.775890283630303</v>
+        <v>0.7758892571178</v>
       </c>
       <c r="F180" t="s">
         <v>23</v>
@@ -4071,13 +4071,13 @@
         <v>11</v>
       </c>
       <c r="C181" t="n">
-        <v>0.697375810396053</v>
+        <v>0.697375907138191</v>
       </c>
       <c r="D181" t="n">
-        <v>0.705790170049253</v>
+        <v>0.705790529957629</v>
       </c>
       <c r="E181" t="n">
-        <v>0.665183692333017</v>
+        <v>0.665183871028071</v>
       </c>
       <c r="F181" t="s">
         <v>23</v>
@@ -4091,13 +4091,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="n">
-        <v>9.86003291424551</v>
+        <v>9.86000625491593</v>
       </c>
       <c r="D182" t="n">
-        <v>7.33454407676525</v>
+        <v>7.33454407680251</v>
       </c>
       <c r="E182" t="n">
-        <v>9.4391181079988</v>
+        <v>9.43909589189703</v>
       </c>
       <c r="F182" t="s">
         <v>23</v>
@@ -4111,13 +4111,13 @@
         <v>9</v>
       </c>
       <c r="C183" t="n">
-        <v>15019.0796907028</v>
+        <v>15019.0267032123</v>
       </c>
       <c r="D183" t="n">
-        <v>9396.49451712075</v>
+        <v>9396.4945171633</v>
       </c>
       <c r="E183" t="n">
-        <v>14237.0284995892</v>
+        <v>14236.9819178206</v>
       </c>
       <c r="F183" t="s">
         <v>23</v>
@@ -4131,13 +4131,13 @@
         <v>10</v>
       </c>
       <c r="C184" t="n">
-        <v>0.991788830641351</v>
+        <v>0.991788830749818</v>
       </c>
       <c r="D184" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E184" t="n">
-        <v>1.15741439608795</v>
+        <v>1.15741453199584</v>
       </c>
       <c r="F184" t="s">
         <v>23</v>
@@ -4151,11 +4151,11 @@
         <v>11</v>
       </c>
       <c r="C185" t="n">
-        <v>0.103975299045317</v>
+        <v>0.103976309684312</v>
       </c>
       <c r="D185"/>
       <c r="E185" t="n">
-        <v>0.0911787402611963</v>
+        <v>0.0911796113715836</v>
       </c>
       <c r="F185" t="s">
         <v>23</v>
@@ -4169,13 +4169,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>3.7270417403051</v>
+        <v>3.7152672848147</v>
       </c>
       <c r="D186" t="n">
-        <v>6.84043014883942</v>
+        <v>5.37502979232892</v>
       </c>
       <c r="E186" t="n">
-        <v>4.29311236003861</v>
+        <v>4.01704228618092</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>5457.38552011294</v>
+        <v>5445.77426527144</v>
       </c>
       <c r="D187" t="n">
-        <v>8429.22877895414</v>
+        <v>7184.36099973774</v>
       </c>
       <c r="E187" t="n">
-        <v>6106.26582850572</v>
+        <v>5800.76955775336</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
@@ -4209,13 +4209,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0.460559223662712</v>
+        <v>0.459032329331496</v>
       </c>
       <c r="D188" t="n">
-        <v>2.03669109473135</v>
+        <v>1.52490745428947</v>
       </c>
       <c r="E188" t="n">
-        <v>1.0390159409218</v>
+        <v>0.96159600748183</v>
       </c>
       <c r="F188" t="s">
         <v>23</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0.739104452986559</v>
+        <v>0.740250624789515</v>
       </c>
       <c r="D189" t="n">
-        <v>0.643918228820083</v>
+        <v>0.503965290140048</v>
       </c>
       <c r="E189" t="n">
-        <v>0.662652643349303</v>
+        <v>0.691581164994256</v>
       </c>
       <c r="F189" t="s">
         <v>23</v>
@@ -4252,10 +4252,10 @@
         <v>5.35496029334089</v>
       </c>
       <c r="D190" t="n">
-        <v>4.51986871541586</v>
+        <v>4.51986871541596</v>
       </c>
       <c r="E190" t="n">
-        <v>5.21577836368672</v>
+        <v>5.21577836368673</v>
       </c>
       <c r="F190" t="s">
         <v>23</v>
@@ -4272,10 +4272,10 @@
         <v>8381.14849161211</v>
       </c>
       <c r="D191" t="n">
-        <v>5365.90542425</v>
+        <v>5365.90542425008</v>
       </c>
       <c r="E191" t="n">
-        <v>7958.34144377515</v>
+        <v>7958.34144377516</v>
       </c>
       <c r="F191" t="s">
         <v>23</v>
@@ -4289,13 +4289,13 @@
         <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0.645342211079142</v>
+        <v>0.645342211079143</v>
       </c>
       <c r="D192" t="n">
-        <v>0.910845675021002</v>
+        <v>0.910845675021023</v>
       </c>
       <c r="E192" t="n">
-        <v>0.834759539182957</v>
+        <v>0.83475953918296</v>
       </c>
       <c r="F192" t="s">
         <v>23</v>
@@ -4312,7 +4312,7 @@
         <v>0.542534522416015</v>
       </c>
       <c r="D193" t="n">
-        <v>0.583831665275602</v>
+        <v>0.5838316652756</v>
       </c>
       <c r="E193" t="n">
         <v>0.54946129008426</v>
@@ -4329,13 +4329,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>5.11486252705956</v>
+        <v>5.13023627518711</v>
       </c>
       <c r="D194" t="n">
-        <v>8.48823983900841</v>
+        <v>8.47780062621051</v>
       </c>
       <c r="E194" t="n">
-        <v>5.72820385650481</v>
+        <v>5.73888433900954</v>
       </c>
       <c r="F194" t="s">
         <v>24</v>
@@ -4349,13 +4349,13 @@
         <v>9</v>
       </c>
       <c r="C195" t="n">
-        <v>2278.7543692794</v>
+        <v>2280.48408269057</v>
       </c>
       <c r="D195" t="n">
-        <v>4532.96101676727</v>
+        <v>4523.55431383259</v>
       </c>
       <c r="E195" t="n">
-        <v>2825.69322851858</v>
+        <v>2824.09367799545</v>
       </c>
       <c r="F195" t="s">
         <v>24</v>
@@ -4369,13 +4369,13 @@
         <v>10</v>
       </c>
       <c r="C196" t="n">
-        <v>0.788391983114911</v>
+        <v>0.789397264037196</v>
       </c>
       <c r="D196" t="n">
-        <v>1.66383669269765</v>
+        <v>1.64882559191168</v>
       </c>
       <c r="E196" t="n">
-        <v>0.942624461941981</v>
+        <v>0.941316457645619</v>
       </c>
       <c r="F196" t="s">
         <v>24</v>
@@ -4389,13 +4389,13 @@
         <v>11</v>
       </c>
       <c r="C197" t="n">
-        <v>0.845066474454194</v>
+        <v>0.844819520048173</v>
       </c>
       <c r="D197" t="n">
-        <v>0.414527581825925</v>
+        <v>0.415463013258942</v>
       </c>
       <c r="E197" t="n">
-        <v>0.849532206618244</v>
+        <v>0.849546343449052</v>
       </c>
       <c r="F197" t="s">
         <v>24</v>
@@ -4409,13 +4409,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="n">
-        <v>4.01723781384302</v>
+        <v>4.07755669356656</v>
       </c>
       <c r="D198" t="n">
-        <v>8.01382553101845</v>
+        <v>8.16398003943474</v>
       </c>
       <c r="E198" t="n">
-        <v>4.68333576670559</v>
+        <v>4.75862725121125</v>
       </c>
       <c r="F198" t="s">
         <v>24</v>
@@ -4429,13 +4429,13 @@
         <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>1738.57775656181</v>
+        <v>1755.91107950428</v>
       </c>
       <c r="D199" t="n">
-        <v>4219.9832806471</v>
+        <v>4295.93207191414</v>
       </c>
       <c r="E199" t="n">
-        <v>2342.41762455654</v>
+        <v>2375.96124274401</v>
       </c>
       <c r="F199" t="s">
         <v>24</v>
@@ -4449,13 +4449,13 @@
         <v>10</v>
       </c>
       <c r="C200" t="n">
-        <v>0.408111670215084</v>
+        <v>0.415847657187458</v>
       </c>
       <c r="D200" t="n">
-        <v>1.64518623147191</v>
+        <v>1.68378280428109</v>
       </c>
       <c r="E200" t="n">
-        <v>0.736602039850967</v>
+        <v>0.753026300818012</v>
       </c>
       <c r="F200" t="s">
         <v>24</v>
@@ -4469,13 +4469,13 @@
         <v>11</v>
       </c>
       <c r="C201" t="n">
-        <v>0.934706547656285</v>
+        <v>0.933456591250215</v>
       </c>
       <c r="D201" t="n">
-        <v>0.760462750267101</v>
+        <v>0.759948777345221</v>
       </c>
       <c r="E201" t="n">
-        <v>0.926935674073667</v>
+        <v>0.925464855645987</v>
       </c>
       <c r="F201" t="s">
         <v>24</v>
@@ -4489,13 +4489,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="n">
-        <v>4.45414397185296</v>
+        <v>4.45472365763</v>
       </c>
       <c r="D202" t="n">
-        <v>5.23745477288842</v>
+        <v>5.25949203871202</v>
       </c>
       <c r="E202" t="n">
-        <v>4.58469577202554</v>
+        <v>4.58885172114367</v>
       </c>
       <c r="F202" t="s">
         <v>24</v>
@@ -4509,13 +4509,13 @@
         <v>9</v>
       </c>
       <c r="C203" t="n">
-        <v>1865.53843832581</v>
+        <v>1865.67815760343</v>
       </c>
       <c r="D203" t="n">
-        <v>2948.84268840676</v>
+        <v>2960.58673562564</v>
       </c>
       <c r="E203" t="n">
-        <v>2085.53915991867</v>
+        <v>2088.41442079692</v>
       </c>
       <c r="F203" t="s">
         <v>24</v>
@@ -4529,13 +4529,13 @@
         <v>10</v>
       </c>
       <c r="C204" t="n">
-        <v>0.453028600457402</v>
+        <v>0.453166096624531</v>
       </c>
       <c r="D204" t="n">
-        <v>0.972832751639018</v>
+        <v>0.978505251567487</v>
       </c>
       <c r="E204" t="n">
-        <v>0.696453432622756</v>
+        <v>0.69820294836013</v>
       </c>
       <c r="F204" t="s">
         <v>24</v>
@@ -4549,13 +4549,13 @@
         <v>11</v>
       </c>
       <c r="C205" t="n">
-        <v>0.925078347188218</v>
+        <v>0.925068358991748</v>
       </c>
       <c r="D205" t="n">
-        <v>0.781049624974758</v>
+        <v>0.780790459433311</v>
       </c>
       <c r="E205" t="n">
-        <v>0.9350074773289</v>
+        <v>0.934906038019786</v>
       </c>
       <c r="F205" t="s">
         <v>24</v>
@@ -4569,13 +4569,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>4.29744284542408</v>
+        <v>4.29744196200352</v>
       </c>
       <c r="D206" t="n">
-        <v>5.39893125768019</v>
+        <v>5.3989326042081</v>
       </c>
       <c r="E206" t="n">
-        <v>4.48102424746677</v>
+        <v>4.48102373570428</v>
       </c>
       <c r="F206" t="s">
         <v>24</v>
@@ -4589,13 +4589,13 @@
         <v>9</v>
       </c>
       <c r="C207" t="n">
-        <v>1943.44969237838</v>
+        <v>1943.4494453205</v>
       </c>
       <c r="D207" t="n">
-        <v>2973.29492561979</v>
+        <v>2973.29608369424</v>
       </c>
       <c r="E207" t="n">
-        <v>2149.63044299652</v>
+        <v>2149.63052383018</v>
       </c>
       <c r="F207" t="s">
         <v>24</v>
@@ -4609,13 +4609,13 @@
         <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>0.573635760034681</v>
+        <v>0.573635625279153</v>
       </c>
       <c r="D208" t="n">
-        <v>0.840621183408588</v>
+        <v>0.840621669368566</v>
       </c>
       <c r="E208" t="n">
-        <v>0.622225008928137</v>
+        <v>0.622224978483136</v>
       </c>
       <c r="F208" t="s">
         <v>24</v>
@@ -4629,13 +4629,13 @@
         <v>11</v>
       </c>
       <c r="C209" t="n">
-        <v>0.919420718432066</v>
+        <v>0.919420742427654</v>
       </c>
       <c r="D209" t="n">
-        <v>0.784628667899205</v>
+        <v>0.784628725380339</v>
       </c>
       <c r="E209" t="n">
-        <v>0.929758975388922</v>
+        <v>0.929758973710243</v>
       </c>
       <c r="F209" t="s">
         <v>24</v>
@@ -4649,13 +4649,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.18185946457002</v>
+        <v>4.18324033625409</v>
       </c>
       <c r="D210" t="n">
-        <v>4.92736833225436</v>
+        <v>4.92300197739555</v>
       </c>
       <c r="E210" t="n">
-        <v>4.31740653142172</v>
+        <v>4.31774245282526</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4669,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1822.13369907267</v>
+        <v>1819.1724791864</v>
       </c>
       <c r="D211" t="n">
-        <v>2744.07828751907</v>
+        <v>2746.85890399601</v>
       </c>
       <c r="E211" t="n">
-        <v>2021.28384610406</v>
+        <v>2019.78766341656</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4689,13 +4689,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.436923707535031</v>
+        <v>0.437188607991929</v>
       </c>
       <c r="D212" t="n">
-        <v>0.972429972357418</v>
+        <v>0.969683488473807</v>
       </c>
       <c r="E212" t="n">
-        <v>0.694603248785732</v>
+        <v>0.694772089277699</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.901172460771385</v>
+        <v>0.901491096589321</v>
       </c>
       <c r="D213" t="n">
-        <v>0.758153206355305</v>
+        <v>0.7580144366479</v>
       </c>
       <c r="E213" t="n">
-        <v>0.920081772898432</v>
+        <v>0.920201509323898</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -4732,10 +4732,10 @@
         <v>5.84756756992668</v>
       </c>
       <c r="D214" t="n">
-        <v>4.86330066317573</v>
+        <v>4.8633006631756</v>
       </c>
       <c r="E214" t="n">
-        <v>5.68352308546819</v>
+        <v>5.68352308546817</v>
       </c>
       <c r="F214" t="s">
         <v>24</v>
@@ -4752,10 +4752,10 @@
         <v>2469.88521136913</v>
       </c>
       <c r="D215" t="n">
-        <v>2717.46765170015</v>
+        <v>2717.4676517001</v>
       </c>
       <c r="E215" t="n">
-        <v>2512.84351630898</v>
+        <v>2512.84351630897</v>
       </c>
       <c r="F215" t="s">
         <v>24</v>
@@ -4772,10 +4772,10 @@
         <v>0.576048117908449</v>
       </c>
       <c r="D216" t="n">
-        <v>0.992121428975938</v>
+        <v>0.992121428975902</v>
       </c>
       <c r="E216" t="n">
-        <v>0.871304753480348</v>
+        <v>0.871304753480344</v>
       </c>
       <c r="F216" t="s">
         <v>24</v>
@@ -4792,7 +4792,7 @@
         <v>0.869012182347133</v>
       </c>
       <c r="D217" t="n">
-        <v>0.802102384037139</v>
+        <v>0.802102384037137</v>
       </c>
       <c r="E217" t="n">
         <v>0.904307501163815</v>
@@ -4809,13 +4809,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="n">
-        <v>5.74510708565969</v>
+        <v>5.7549860176908</v>
       </c>
       <c r="D218" t="n">
-        <v>6.84249794144881</v>
+        <v>6.82343011640503</v>
       </c>
       <c r="E218" t="n">
-        <v>5.94463269580317</v>
+        <v>5.94924858109339</v>
       </c>
       <c r="F218" t="s">
         <v>25</v>
@@ -4829,13 +4829,13 @@
         <v>9</v>
       </c>
       <c r="C219" t="n">
-        <v>1310.32641310782</v>
+        <v>1313.60704712227</v>
       </c>
       <c r="D219" t="n">
-        <v>1927.80903183402</v>
+        <v>1921.85279575515</v>
       </c>
       <c r="E219" t="n">
-        <v>1442.39362634205</v>
+        <v>1443.38955887451</v>
       </c>
       <c r="F219" t="s">
         <v>25</v>
@@ -4849,13 +4849,13 @@
         <v>10</v>
       </c>
       <c r="C220" t="n">
-        <v>0.987136566752074</v>
+        <v>0.991681267570276</v>
       </c>
       <c r="D220" t="n">
-        <v>0.866641436171542</v>
+        <v>0.865257771961183</v>
       </c>
       <c r="E220" t="n">
-        <v>0.95341474945212</v>
+        <v>0.956251659958857</v>
       </c>
       <c r="F220" t="s">
         <v>25</v>
@@ -4869,13 +4869,13 @@
         <v>11</v>
       </c>
       <c r="C221" t="n">
-        <v>0.834258076895201</v>
+        <v>0.833393124671183</v>
       </c>
       <c r="D221" t="n">
-        <v>0.236477676040291</v>
+        <v>0.240317659734074</v>
       </c>
       <c r="E221" t="n">
-        <v>0.824827311453639</v>
+        <v>0.824541854306859</v>
       </c>
       <c r="F221" t="s">
         <v>25</v>
@@ -4889,13 +4889,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="n">
-        <v>4.4978014612443</v>
+        <v>4.50324047626317</v>
       </c>
       <c r="D222" t="n">
-        <v>5.44582381999005</v>
+        <v>5.34519538064171</v>
       </c>
       <c r="E222" t="n">
-        <v>4.65580518770193</v>
+        <v>4.64356629365959</v>
       </c>
       <c r="F222" t="s">
         <v>25</v>
@@ -4909,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="C223" t="n">
-        <v>1004.82385277333</v>
+        <v>1008.3145547135</v>
       </c>
       <c r="D223" t="n">
-        <v>1385.99708648178</v>
+        <v>1367.15542829696</v>
       </c>
       <c r="E223" t="n">
-        <v>1077.75559994271</v>
+        <v>1076.46064886718</v>
       </c>
       <c r="F223" t="s">
         <v>25</v>
@@ -4929,13 +4929,13 @@
         <v>10</v>
       </c>
       <c r="C224" t="n">
-        <v>0.437707374782293</v>
+        <v>0.439247620222977</v>
       </c>
       <c r="D224" t="n">
-        <v>0.940099342239757</v>
+        <v>0.921736894681779</v>
       </c>
       <c r="E224" t="n">
-        <v>0.663281977907339</v>
+        <v>0.661869414474877</v>
       </c>
       <c r="F224" t="s">
         <v>25</v>
@@ -4949,13 +4949,13 @@
         <v>11</v>
       </c>
       <c r="C225" t="n">
-        <v>0.929607083897931</v>
+        <v>0.929183362660075</v>
       </c>
       <c r="D225" t="n">
-        <v>0.69004893325327</v>
+        <v>0.691870526610039</v>
       </c>
       <c r="E225" t="n">
-        <v>0.928927111724609</v>
+        <v>0.929092608866962</v>
       </c>
       <c r="F225" t="s">
         <v>25</v>
@@ -4969,13 +4969,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="n">
-        <v>4.86669470238647</v>
+        <v>4.86864466876154</v>
       </c>
       <c r="D226" t="n">
-        <v>5.68441749704403</v>
+        <v>6.22400527815186</v>
       </c>
       <c r="E226" t="n">
-        <v>5.0029818348294</v>
+        <v>5.09453810365992</v>
       </c>
       <c r="F226" t="s">
         <v>25</v>
@@ -4989,13 +4989,13 @@
         <v>9</v>
       </c>
       <c r="C227" t="n">
-        <v>1061.90687168077</v>
+        <v>1062.88665348429</v>
       </c>
       <c r="D227" t="n">
-        <v>1460.059699827</v>
+        <v>1602.85736143692</v>
       </c>
       <c r="E227" t="n">
-        <v>1137.98105927948</v>
+        <v>1170.31277243078</v>
       </c>
       <c r="F227" t="s">
         <v>25</v>
@@ -5009,13 +5009,13 @@
         <v>10</v>
       </c>
       <c r="C228" t="n">
-        <v>0.477709921584919</v>
+        <v>0.477989365590746</v>
       </c>
       <c r="D228" t="n">
-        <v>0.732098638848705</v>
+        <v>0.816616057403922</v>
       </c>
       <c r="E228" t="n">
-        <v>0.659065377628465</v>
+        <v>0.684606517102224</v>
       </c>
       <c r="F228" t="s">
         <v>25</v>
@@ -5029,13 +5029,13 @@
         <v>11</v>
       </c>
       <c r="C229" t="n">
-        <v>0.922475719560934</v>
+        <v>0.922254066405154</v>
       </c>
       <c r="D229" t="n">
-        <v>0.68965562480023</v>
+        <v>0.671775700157639</v>
       </c>
       <c r="E229" t="n">
-        <v>0.923607828723547</v>
+        <v>0.920402222249623</v>
       </c>
       <c r="F229" t="s">
         <v>25</v>
@@ -5049,13 +5049,13 @@
         <v>7</v>
       </c>
       <c r="C230" t="n">
-        <v>4.61178540677407</v>
+        <v>4.61177612989005</v>
       </c>
       <c r="D230" t="n">
-        <v>4.10966010049122</v>
+        <v>4.10963034386083</v>
       </c>
       <c r="E230" t="n">
-        <v>4.52809785572693</v>
+        <v>4.52808516555184</v>
       </c>
       <c r="F230" t="s">
         <v>25</v>
@@ -5069,13 +5069,13 @@
         <v>9</v>
       </c>
       <c r="C231" t="n">
-        <v>1076.36710203055</v>
+        <v>1076.36706044892</v>
       </c>
       <c r="D231" t="n">
-        <v>1059.44474189493</v>
+        <v>1059.43947726019</v>
       </c>
       <c r="E231" t="n">
-        <v>1073.5652326708</v>
+        <v>1073.56433203252</v>
       </c>
       <c r="F231" t="s">
         <v>25</v>
@@ -5089,13 +5089,13 @@
         <v>10</v>
       </c>
       <c r="C232" t="n">
-        <v>0.613662480759426</v>
+        <v>0.613661337617294</v>
       </c>
       <c r="D232" t="n">
-        <v>0.489267164685756</v>
+        <v>0.489264213269334</v>
       </c>
       <c r="E232" t="n">
-        <v>0.590312383451582</v>
+        <v>0.590310862986799</v>
       </c>
       <c r="F232" t="s">
         <v>25</v>
@@ -5109,13 +5109,13 @@
         <v>11</v>
       </c>
       <c r="C233" t="n">
-        <v>0.929771011776297</v>
+        <v>0.929770997091664</v>
       </c>
       <c r="D233" t="n">
-        <v>0.767359314328352</v>
+        <v>0.767359552562405</v>
       </c>
       <c r="E233" t="n">
-        <v>0.936007687131008</v>
+        <v>0.936007628281051</v>
       </c>
       <c r="F233" t="s">
         <v>25</v>
@@ -5129,13 +5129,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>4.38709675816894</v>
+        <v>4.3899345364678</v>
       </c>
       <c r="D234" t="n">
-        <v>4.46461918592495</v>
+        <v>4.73490876542441</v>
       </c>
       <c r="E234" t="n">
-        <v>4.40119174503367</v>
+        <v>4.45265712355082</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -5149,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1019.9154433965</v>
+        <v>1021.78103045286</v>
       </c>
       <c r="D235" t="n">
-        <v>1213.18509207474</v>
+        <v>1264.72599321522</v>
       </c>
       <c r="E235" t="n">
-        <v>1057.68545506312</v>
+        <v>1070.06337720411</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -5169,13 +5169,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>0.429758690740011</v>
+        <v>0.430328999132468</v>
       </c>
       <c r="D236" t="n">
-        <v>0.673585442917765</v>
+        <v>0.690442672171015</v>
       </c>
       <c r="E236" t="n">
-        <v>0.65560183736559</v>
+        <v>0.660009207497868</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -5189,13 +5189,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0.899432263107659</v>
+        <v>0.899042653838304</v>
       </c>
       <c r="D237" t="n">
-        <v>0.688819809386278</v>
+        <v>0.673414558593697</v>
       </c>
       <c r="E237" t="n">
-        <v>0.905082345165823</v>
+        <v>0.903629781420591</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -5212,7 +5212,7 @@
         <v>6.26201093843812</v>
       </c>
       <c r="D238" t="n">
-        <v>4.42075952998143</v>
+        <v>4.42075952998145</v>
       </c>
       <c r="E238" t="n">
         <v>5.95513570369534</v>
@@ -5252,10 +5252,10 @@
         <v>0.592380609883058</v>
       </c>
       <c r="D240" t="n">
-        <v>0.733624723900513</v>
+        <v>0.733624723900517</v>
       </c>
       <c r="E240" t="n">
-        <v>0.944745839131328</v>
+        <v>0.944745839131331</v>
       </c>
       <c r="F240" t="s">
         <v>25</v>
@@ -5269,10 +5269,10 @@
         <v>11</v>
       </c>
       <c r="C241" t="n">
-        <v>0.876086148871148</v>
+        <v>0.876086148871147</v>
       </c>
       <c r="D241" t="n">
-        <v>0.697884744849001</v>
+        <v>0.697884744849</v>
       </c>
       <c r="E241" t="n">
         <v>0.891694908306393</v>
@@ -5289,13 +5289,13 @@
         <v>7</v>
       </c>
       <c r="C242" t="n">
-        <v>6.2104206525244</v>
+        <v>6.21542550058637</v>
       </c>
       <c r="D242" t="n">
-        <v>14.2706925903567</v>
+        <v>14.2856176695126</v>
       </c>
       <c r="E242" t="n">
-        <v>7.67592464122118</v>
+        <v>7.68273316766386</v>
       </c>
       <c r="F242" t="s">
         <v>26</v>
@@ -5309,13 +5309,13 @@
         <v>9</v>
       </c>
       <c r="C243" t="n">
-        <v>767.855896564531</v>
+        <v>768.470502493427</v>
       </c>
       <c r="D243" t="n">
-        <v>1741.8391158125</v>
+        <v>1741.23885776679</v>
       </c>
       <c r="E243" t="n">
-        <v>1016.8771764462</v>
+        <v>1017.07011193099</v>
       </c>
       <c r="F243" t="s">
         <v>26</v>
@@ -5329,13 +5329,13 @@
         <v>10</v>
       </c>
       <c r="C244" t="n">
-        <v>0.914862698207327</v>
+        <v>0.915817041332283</v>
       </c>
       <c r="D244" t="n">
-        <v>11.3461699630903</v>
+        <v>11.2938922732602</v>
       </c>
       <c r="E244" t="n">
-        <v>1.38276405979036</v>
+        <v>1.38387930722556</v>
       </c>
       <c r="F244" t="s">
         <v>26</v>
@@ -5349,13 +5349,13 @@
         <v>11</v>
       </c>
       <c r="C245" t="n">
-        <v>0.764904717347145</v>
+        <v>0.764517294838181</v>
       </c>
       <c r="D245" t="n">
-        <v>0.00312595715107108</v>
+        <v>0.00355677215790192</v>
       </c>
       <c r="E245" t="n">
-        <v>0.631944223374632</v>
+        <v>0.631877242078071</v>
       </c>
       <c r="F245" t="s">
         <v>26</v>
@@ -5369,13 +5369,13 @@
         <v>7</v>
       </c>
       <c r="C246" t="n">
-        <v>4.06100546158734</v>
+        <v>4.06210737837421</v>
       </c>
       <c r="D246" t="n">
-        <v>26.9453617593149</v>
+        <v>27.0898810571594</v>
       </c>
       <c r="E246" t="n">
-        <v>7.87506484454194</v>
+        <v>7.90006965817175</v>
       </c>
       <c r="F246" t="s">
         <v>26</v>
@@ -5389,13 +5389,13 @@
         <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>472.690924950701</v>
+        <v>472.922693740151</v>
       </c>
       <c r="D247" t="n">
-        <v>3643.85834797077</v>
+        <v>3665.30804051486</v>
       </c>
       <c r="E247" t="n">
-        <v>1548.91828990052</v>
+        <v>1557.38896892283</v>
       </c>
       <c r="F247" t="s">
         <v>26</v>
@@ -5409,13 +5409,13 @@
         <v>10</v>
       </c>
       <c r="C248" t="n">
-        <v>0.473525529770996</v>
+        <v>0.473468450576877</v>
       </c>
       <c r="D248" t="n">
-        <v>5.10730374450116</v>
+        <v>5.13351975715567</v>
       </c>
       <c r="E248" t="n">
-        <v>1.36899132483052</v>
+        <v>1.37356047741404</v>
       </c>
       <c r="F248" t="s">
         <v>26</v>
@@ -5429,13 +5429,13 @@
         <v>11</v>
       </c>
       <c r="C249" t="n">
-        <v>0.91981034981499</v>
+        <v>0.919752669499676</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0869637453918864</v>
+        <v>0.0854310267397385</v>
       </c>
       <c r="E249" t="n">
-        <v>0.604153844344839</v>
+        <v>0.602036312612038</v>
       </c>
       <c r="F249" t="s">
         <v>26</v>
@@ -5449,13 +5449,13 @@
         <v>7</v>
       </c>
       <c r="C250" t="n">
-        <v>4.4563590991616</v>
+        <v>4.49456572440946</v>
       </c>
       <c r="D250" t="n">
-        <v>19.8264152212798</v>
+        <v>25.5218626476036</v>
       </c>
       <c r="E250" t="n">
-        <v>7.01803511951464</v>
+        <v>7.99911521160849</v>
       </c>
       <c r="F250" t="s">
         <v>26</v>
@@ -5469,13 +5469,13 @@
         <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>523.486619609419</v>
+        <v>527.637051685049</v>
       </c>
       <c r="D251" t="n">
-        <v>2581.97296784507</v>
+        <v>3552.63865782598</v>
       </c>
       <c r="E251" t="n">
-        <v>1157.35154636445</v>
+        <v>1528.24767433347</v>
       </c>
       <c r="F251" t="s">
         <v>26</v>
@@ -5489,13 +5489,13 @@
         <v>10</v>
       </c>
       <c r="C252" t="n">
-        <v>0.517764606854225</v>
+        <v>0.521839600350959</v>
       </c>
       <c r="D252" t="n">
-        <v>2.77030763966871</v>
+        <v>3.42646714653944</v>
       </c>
       <c r="E252" t="n">
-        <v>1.06622805266735</v>
+        <v>1.25147008625467</v>
       </c>
       <c r="F252" t="s">
         <v>26</v>
@@ -5509,13 +5509,13 @@
         <v>11</v>
       </c>
       <c r="C253" t="n">
-        <v>0.903528775858355</v>
+        <v>0.904218818332491</v>
       </c>
       <c r="D253" t="n">
-        <v>0.324924920567258</v>
+        <v>0.169763549085376</v>
       </c>
       <c r="E253" t="n">
-        <v>0.72592744964593</v>
+        <v>0.636187088810874</v>
       </c>
       <c r="F253" t="s">
         <v>26</v>
@@ -5529,13 +5529,13 @@
         <v>7</v>
       </c>
       <c r="C254" t="n">
-        <v>4.50501956609692</v>
+        <v>4.50498399511324</v>
       </c>
       <c r="D254" t="n">
-        <v>11.0864591351983</v>
+        <v>11.0864419839812</v>
       </c>
       <c r="E254" t="n">
-        <v>5.60192616094716</v>
+        <v>5.60189365992456</v>
       </c>
       <c r="F254" t="s">
         <v>26</v>
@@ -5549,13 +5549,13 @@
         <v>9</v>
       </c>
       <c r="C255" t="n">
-        <v>531.863388227299</v>
+        <v>531.861920597142</v>
       </c>
       <c r="D255" t="n">
-        <v>1435.89622771338</v>
+        <v>1435.89442565672</v>
       </c>
       <c r="E255" t="n">
-        <v>761.160440319542</v>
+        <v>761.159019143224</v>
       </c>
       <c r="F255" t="s">
         <v>26</v>
@@ -5569,13 +5569,13 @@
         <v>10</v>
       </c>
       <c r="C256" t="n">
-        <v>0.583021631589552</v>
+        <v>0.5830170633149</v>
       </c>
       <c r="D256" t="n">
-        <v>1.57719534582813</v>
+        <v>1.57719053321322</v>
       </c>
       <c r="E256" t="n">
-        <v>0.758817677401486</v>
+        <v>0.758813499336488</v>
       </c>
       <c r="F256" t="s">
         <v>26</v>
@@ -5589,13 +5589,13 @@
         <v>11</v>
       </c>
       <c r="C257" t="n">
-        <v>0.90527011475887</v>
+        <v>0.905270920853722</v>
       </c>
       <c r="D257" t="n">
-        <v>0.520628236458049</v>
+        <v>0.520629263198853</v>
       </c>
       <c r="E257" t="n">
-        <v>0.830059801689051</v>
+        <v>0.830060660544877</v>
       </c>
       <c r="F257" t="s">
         <v>26</v>
@@ -5609,13 +5609,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>4.31039886618737</v>
+        <v>4.29418858644219</v>
       </c>
       <c r="D258" t="n">
-        <v>9.91038073225784</v>
+        <v>11.2633403421554</v>
       </c>
       <c r="E258" t="n">
-        <v>5.32857738729109</v>
+        <v>5.56130708748096</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>517.546678233648</v>
+        <v>514.203491884865</v>
       </c>
       <c r="D259" t="n">
-        <v>1217.50805577915</v>
+        <v>1416.42934709051</v>
       </c>
       <c r="E259" t="n">
-        <v>699.047586436548</v>
+        <v>762.304596136419</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5649,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.526098329438197</v>
+        <v>0.523085429722583</v>
       </c>
       <c r="D260" t="n">
-        <v>1.82266906379943</v>
+        <v>2.04006372716702</v>
       </c>
       <c r="E260" t="n">
-        <v>0.848136836119231</v>
+        <v>0.889462424969373</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.894993339372724</v>
+        <v>0.896307481588821</v>
       </c>
       <c r="D261" t="n">
-        <v>0.610112256706302</v>
+        <v>0.502646715175307</v>
       </c>
       <c r="E261" t="n">
-        <v>0.83709515981859</v>
+        <v>0.818573448157546</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -5692,10 +5692,10 @@
         <v>5.78052863817986</v>
       </c>
       <c r="D262" t="n">
-        <v>25.1648973973492</v>
+        <v>25.1648973973491</v>
       </c>
       <c r="E262" t="n">
-        <v>9.01125676470809</v>
+        <v>9.01125676470807</v>
       </c>
       <c r="F262" t="s">
         <v>26</v>
@@ -5712,10 +5712,10 @@
         <v>803.897150011591</v>
       </c>
       <c r="D263" t="n">
-        <v>3352.8810704603</v>
+        <v>3352.88107046029</v>
       </c>
       <c r="E263" t="n">
-        <v>1553.11861596997</v>
+        <v>1553.11861596996</v>
       </c>
       <c r="F263" t="s">
         <v>26</v>
@@ -5732,7 +5732,7 @@
         <v>0.666484137024589</v>
       </c>
       <c r="D264" t="n">
-        <v>4.98604293390559</v>
+        <v>4.98604293390557</v>
       </c>
       <c r="E264" t="n">
         <v>1.36903291860051</v>
@@ -5752,10 +5752,10 @@
         <v>0.783122920289974</v>
       </c>
       <c r="D265" t="n">
-        <v>0.125170729744321</v>
+        <v>0.12517072974432</v>
       </c>
       <c r="E265" t="n">
-        <v>0.590376575708229</v>
+        <v>0.59037657570823</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -5769,13 +5769,13 @@
         <v>7</v>
       </c>
       <c r="C266" t="n">
-        <v>12.6933364608513</v>
+        <v>12.6874843681321</v>
       </c>
       <c r="D266" t="n">
-        <v>16.8693240294345</v>
+        <v>16.5417328401956</v>
       </c>
       <c r="E266" t="n">
-        <v>13.4526069278664</v>
+        <v>13.3882568175982</v>
       </c>
       <c r="F266" t="s">
         <v>27</v>
@@ -5789,13 +5789,13 @@
         <v>9</v>
       </c>
       <c r="C267" t="n">
-        <v>596.331819868036</v>
+        <v>596.101716206538</v>
       </c>
       <c r="D267" t="n">
-        <v>1089.29432888768</v>
+        <v>1073.93221501332</v>
       </c>
       <c r="E267" t="n">
-        <v>711.824098826889</v>
+        <v>707.408594125338</v>
       </c>
       <c r="F267" t="s">
         <v>27</v>
@@ -5809,13 +5809,13 @@
         <v>10</v>
       </c>
       <c r="C268" t="n">
-        <v>0.695653486629062</v>
+        <v>0.687592090403115</v>
       </c>
       <c r="D268" t="n">
-        <v>1.64357573924719</v>
+        <v>1.5517775570621</v>
       </c>
       <c r="E268" t="n">
-        <v>0.828364486287337</v>
+        <v>0.810521230620668</v>
       </c>
       <c r="F268" t="s">
         <v>27</v>
@@ -5829,13 +5829,13 @@
         <v>11</v>
       </c>
       <c r="C269" t="n">
-        <v>0.81267651718967</v>
+        <v>0.812844534766964</v>
       </c>
       <c r="D269" t="n">
-        <v>0.810287772313723</v>
+        <v>0.813225259675313</v>
       </c>
       <c r="E269" t="n">
-        <v>0.820571521877418</v>
+        <v>0.822407036882016</v>
       </c>
       <c r="F269" t="s">
         <v>27</v>
@@ -5849,13 +5849,13 @@
         <v>7</v>
       </c>
       <c r="C270" t="n">
-        <v>19.442954181629</v>
+        <v>19.5414510054551</v>
       </c>
       <c r="D270" t="n">
-        <v>13.3708908127185</v>
+        <v>12.8708847227501</v>
       </c>
       <c r="E270" t="n">
-        <v>18.4309436201439</v>
+        <v>18.4296899583376</v>
       </c>
       <c r="F270" t="s">
         <v>27</v>
@@ -5869,13 +5869,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="n">
-        <v>575.625859756454</v>
+        <v>584.612113491122</v>
       </c>
       <c r="D271" t="n">
-        <v>881.76403771414</v>
+        <v>845.656894081523</v>
       </c>
       <c r="E271" t="n">
-        <v>636.9502165669</v>
+        <v>635.608920473167</v>
       </c>
       <c r="F271" t="s">
         <v>27</v>
@@ -5889,13 +5889,13 @@
         <v>10</v>
       </c>
       <c r="C272" t="n">
-        <v>0.538703911349115</v>
+        <v>0.545528439153994</v>
       </c>
       <c r="D272" t="n">
-        <v>1.14920634260082</v>
+        <v>1.11415456097788</v>
       </c>
       <c r="E272" t="n">
-        <v>0.6997053710144</v>
+        <v>0.699499115124743</v>
       </c>
       <c r="F272" t="s">
         <v>27</v>
@@ -5909,13 +5909,13 @@
         <v>11</v>
       </c>
       <c r="C273" t="n">
-        <v>0.860225094417041</v>
+        <v>0.856066842348128</v>
       </c>
       <c r="D273" t="n">
-        <v>0.795199367486446</v>
+        <v>0.804801462315403</v>
       </c>
       <c r="E273" t="n">
-        <v>0.873527653593139</v>
+        <v>0.873732217181296</v>
       </c>
       <c r="F273" t="s">
         <v>27</v>
@@ -5929,13 +5929,13 @@
         <v>7</v>
       </c>
       <c r="C274" t="n">
-        <v>11.4483011316356</v>
+        <v>11.5752639420169</v>
       </c>
       <c r="D274" t="n">
-        <v>13.5141308961242</v>
+        <v>13.618294755947</v>
       </c>
       <c r="E274" t="n">
-        <v>11.7926060923837</v>
+        <v>11.9157690776719</v>
       </c>
       <c r="F274" t="s">
         <v>27</v>
@@ -5949,13 +5949,13 @@
         <v>9</v>
       </c>
       <c r="C275" t="n">
-        <v>494.161656353538</v>
+        <v>495.773263345894</v>
       </c>
       <c r="D275" t="n">
-        <v>896.657599282466</v>
+        <v>906.908994463016</v>
       </c>
       <c r="E275" t="n">
-        <v>580.943709751837</v>
+        <v>584.727795286135</v>
       </c>
       <c r="F275" t="s">
         <v>27</v>
@@ -5969,13 +5969,13 @@
         <v>10</v>
       </c>
       <c r="C276" t="n">
-        <v>0.415131637069718</v>
+        <v>0.420715282503221</v>
       </c>
       <c r="D276" t="n">
-        <v>0.973069532613216</v>
+        <v>0.956638182718098</v>
       </c>
       <c r="E276" t="n">
-        <v>0.596915194734826</v>
+        <v>0.586046728630431</v>
       </c>
       <c r="F276" t="s">
         <v>27</v>
@@ -5989,13 +5989,13 @@
         <v>11</v>
       </c>
       <c r="C277" t="n">
-        <v>0.900759262199595</v>
+        <v>0.900059505654263</v>
       </c>
       <c r="D277" t="n">
-        <v>0.752750860318601</v>
+        <v>0.73433544215848</v>
       </c>
       <c r="E277" t="n">
-        <v>0.900695626917877</v>
+        <v>0.898723602831414</v>
       </c>
       <c r="F277" t="s">
         <v>27</v>
@@ -6009,13 +6009,13 @@
         <v>7</v>
       </c>
       <c r="C278" t="n">
-        <v>10.5597425921982</v>
+        <v>10.5595223298247</v>
       </c>
       <c r="D278" t="n">
-        <v>7.26167993056094</v>
+        <v>7.26097579212406</v>
       </c>
       <c r="E278" t="n">
-        <v>10.0100654819253</v>
+        <v>10.0097645735413</v>
       </c>
       <c r="F278" t="s">
         <v>27</v>
@@ -6029,13 +6029,13 @@
         <v>9</v>
       </c>
       <c r="C279" t="n">
-        <v>551.3123765406</v>
+        <v>551.303962217134</v>
       </c>
       <c r="D279" t="n">
-        <v>518.567640641459</v>
+        <v>518.544638239365</v>
       </c>
       <c r="E279" t="n">
-        <v>545.991312591857</v>
+        <v>545.980591173402</v>
       </c>
       <c r="F279" t="s">
         <v>27</v>
@@ -6049,13 +6049,13 @@
         <v>10</v>
       </c>
       <c r="C280" t="n">
-        <v>0.540663057778412</v>
+        <v>0.540654423337757</v>
       </c>
       <c r="D280" t="n">
-        <v>0.448684972791831</v>
+        <v>0.44865947289029</v>
       </c>
       <c r="E280" t="n">
-        <v>0.507506078168813</v>
+        <v>0.507494670067677</v>
       </c>
       <c r="F280" t="s">
         <v>27</v>
@@ -6069,13 +6069,13 @@
         <v>11</v>
       </c>
       <c r="C281" t="n">
-        <v>0.87453117401931</v>
+        <v>0.874535405164466</v>
       </c>
       <c r="D281" t="n">
-        <v>0.851777863010396</v>
+        <v>0.851781198895741</v>
       </c>
       <c r="E281" t="n">
-        <v>0.900970123030872</v>
+        <v>0.900974734033691</v>
       </c>
       <c r="F281" t="s">
         <v>27</v>
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
-        <v>10.1513998107656</v>
+        <v>10.1897782718081</v>
       </c>
       <c r="D282" t="n">
-        <v>12.065522013413</v>
+        <v>12.0337009785668</v>
       </c>
       <c r="E282" t="n">
-        <v>10.4994220294288</v>
+        <v>10.5250369457643</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -6109,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>491.902580253618</v>
+        <v>494.451023429092</v>
       </c>
       <c r="D283" t="n">
-        <v>803.572578959497</v>
+        <v>801.511020224345</v>
       </c>
       <c r="E283" t="n">
-        <v>561.586317776604</v>
+        <v>562.880268409546</v>
       </c>
       <c r="F283" t="s">
         <v>27</v>
@@ -6129,13 +6129,13 @@
         <v>10</v>
       </c>
       <c r="C284" t="n">
-        <v>0.383738224622527</v>
+        <v>0.385378223612209</v>
       </c>
       <c r="D284" t="n">
-        <v>0.905570772855271</v>
+        <v>0.891313042444157</v>
       </c>
       <c r="E284" t="n">
-        <v>0.573559443651543</v>
+        <v>0.567902878155753</v>
       </c>
       <c r="F284" t="s">
         <v>27</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="n">
-        <v>0.873628451348912</v>
+        <v>0.872306686429265</v>
       </c>
       <c r="D285" t="n">
-        <v>0.830384782420508</v>
+        <v>0.826729826611942</v>
       </c>
       <c r="E285" t="n">
-        <v>0.8853377506946</v>
+        <v>0.884351847026277</v>
       </c>
       <c r="F285" t="s">
         <v>27</v>
@@ -6169,13 +6169,13 @@
         <v>7</v>
       </c>
       <c r="C286" t="n">
-        <v>13.8897689684147</v>
+        <v>13.8897689684154</v>
       </c>
       <c r="D286" t="n">
-        <v>9.70553700438337</v>
+        <v>9.70553700438487</v>
       </c>
       <c r="E286" t="n">
-        <v>13.1923969744094</v>
+        <v>13.1923969744103</v>
       </c>
       <c r="F286" t="s">
         <v>27</v>
@@ -6189,13 +6189,13 @@
         <v>9</v>
       </c>
       <c r="C287" t="n">
-        <v>612.21704055497</v>
+        <v>612.217040554984</v>
       </c>
       <c r="D287" t="n">
-        <v>659.407824356879</v>
+        <v>659.407824356895</v>
       </c>
       <c r="E287" t="n">
-        <v>620.331524610363</v>
+        <v>620.331524610377</v>
       </c>
       <c r="F287" t="s">
         <v>27</v>
@@ -6209,13 +6209,13 @@
         <v>10</v>
       </c>
       <c r="C288" t="n">
-        <v>0.531315127906809</v>
+        <v>0.531315127906843</v>
       </c>
       <c r="D288" t="n">
-        <v>0.510637520105954</v>
+        <v>0.510637520105899</v>
       </c>
       <c r="E288" t="n">
-        <v>0.580024734367744</v>
+        <v>0.580024734367676</v>
       </c>
       <c r="F288" t="s">
         <v>27</v>
@@ -6229,13 +6229,13 @@
         <v>11</v>
       </c>
       <c r="C289" t="n">
-        <v>0.843693198921325</v>
+        <v>0.843693198921323</v>
       </c>
       <c r="D289" t="n">
-        <v>0.780761727748055</v>
+        <v>0.780761727748023</v>
       </c>
       <c r="E289" t="n">
-        <v>0.871575266319571</v>
+        <v>0.871575266319566</v>
       </c>
       <c r="F289" t="s">
         <v>27</v>
@@ -6249,13 +6249,13 @@
         <v>7</v>
       </c>
       <c r="C290" t="n">
-        <v>3.58918046722624</v>
+        <v>3.61031763644316</v>
       </c>
       <c r="D290" t="n">
-        <v>8.55466423971444</v>
+        <v>8.56351016279324</v>
       </c>
       <c r="E290" t="n">
-        <v>4.49199569858773</v>
+        <v>4.51089809577954</v>
       </c>
       <c r="F290" t="s">
         <v>28</v>
@@ -6269,13 +6269,13 @@
         <v>9</v>
       </c>
       <c r="C291" t="n">
-        <v>5023.21862866597</v>
+        <v>5048.29983359531</v>
       </c>
       <c r="D291" t="n">
-        <v>9050.78401653233</v>
+        <v>9072.42531147397</v>
       </c>
       <c r="E291" t="n">
-        <v>5961.45125063158</v>
+        <v>5984.72132679583</v>
       </c>
       <c r="F291" t="s">
         <v>28</v>
@@ -6289,13 +6289,13 @@
         <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>0.654424274242838</v>
+        <v>0.658603298652731</v>
       </c>
       <c r="D292" t="n">
-        <v>3.30849445717223</v>
+        <v>3.25035194052893</v>
       </c>
       <c r="E292" t="n">
-        <v>0.866944341029878</v>
+        <v>0.86959203973076</v>
       </c>
       <c r="F292" t="s">
         <v>28</v>
@@ -6309,13 +6309,13 @@
         <v>11</v>
       </c>
       <c r="C293" t="n">
-        <v>0.90018867576327</v>
+        <v>0.899213381144739</v>
       </c>
       <c r="D293" t="n">
-        <v>0.373915424217954</v>
+        <v>0.367981325423715</v>
       </c>
       <c r="E293" t="n">
-        <v>0.866863849806106</v>
+        <v>0.865880515609408</v>
       </c>
       <c r="F293" t="s">
         <v>28</v>
@@ -6329,13 +6329,13 @@
         <v>7</v>
       </c>
       <c r="C294" t="n">
-        <v>4.16979857417767</v>
+        <v>4.16943339447454</v>
       </c>
       <c r="D294" t="n">
-        <v>5.61842066417477</v>
+        <v>5.61903577064304</v>
       </c>
       <c r="E294" t="n">
-        <v>4.41123558917718</v>
+        <v>4.41103379050262</v>
       </c>
       <c r="F294" t="s">
         <v>28</v>
@@ -6349,13 +6349,13 @@
         <v>9</v>
       </c>
       <c r="C295" t="n">
-        <v>6198.51908421205</v>
+        <v>6199.41046292253</v>
       </c>
       <c r="D295" t="n">
-        <v>6883.05212788833</v>
+        <v>6882.93233185736</v>
       </c>
       <c r="E295" t="n">
-        <v>6317.760689542</v>
+        <v>6318.46774574203</v>
       </c>
       <c r="F295" t="s">
         <v>28</v>
@@ -6369,13 +6369,13 @@
         <v>10</v>
       </c>
       <c r="C296" t="n">
-        <v>0.480691427262905</v>
+        <v>0.480750766637248</v>
       </c>
       <c r="D296" t="n">
-        <v>0.785384330860386</v>
+        <v>0.785553862412552</v>
       </c>
       <c r="E296" t="n">
-        <v>0.71002637523835</v>
+        <v>0.710250025359765</v>
       </c>
       <c r="F296" t="s">
         <v>28</v>
@@ -6389,13 +6389,13 @@
         <v>11</v>
       </c>
       <c r="C297" t="n">
-        <v>0.865464166532434</v>
+        <v>0.865436280622845</v>
       </c>
       <c r="D297" t="n">
-        <v>0.684714588122709</v>
+        <v>0.684659890537379</v>
       </c>
       <c r="E297" t="n">
-        <v>0.87248593267274</v>
+        <v>0.872451088689627</v>
       </c>
       <c r="F297" t="s">
         <v>28</v>
@@ -6409,13 +6409,13 @@
         <v>7</v>
       </c>
       <c r="C298" t="n">
-        <v>3.72833313517355</v>
+        <v>3.72833353959937</v>
       </c>
       <c r="D298" t="n">
-        <v>5.55238346198445</v>
+        <v>5.55238981226327</v>
       </c>
       <c r="E298" t="n">
-        <v>4.03234152297537</v>
+        <v>4.03234291837669</v>
       </c>
       <c r="F298" t="s">
         <v>28</v>
@@ -6429,13 +6429,13 @@
         <v>9</v>
       </c>
       <c r="C299" t="n">
-        <v>5942.6749391559</v>
+        <v>5942.67342522929</v>
       </c>
       <c r="D299" t="n">
-        <v>5897.20104489484</v>
+        <v>5897.20893405917</v>
       </c>
       <c r="E299" t="n">
-        <v>5935.12015219948</v>
+        <v>5935.12019544928</v>
       </c>
       <c r="F299" t="s">
         <v>28</v>
@@ -6449,13 +6449,13 @@
         <v>10</v>
       </c>
       <c r="C300" t="n">
-        <v>0.432921241046434</v>
+        <v>0.4329212362801</v>
       </c>
       <c r="D300" t="n">
-        <v>1.09616843708399</v>
+        <v>1.09617273833082</v>
       </c>
       <c r="E300" t="n">
-        <v>0.670726175237543</v>
+        <v>0.670726378813802</v>
       </c>
       <c r="F300" t="s">
         <v>28</v>
@@ -6469,13 +6469,13 @@
         <v>11</v>
       </c>
       <c r="C301" t="n">
-        <v>0.876579552777254</v>
+        <v>0.876579587082739</v>
       </c>
       <c r="D301" t="n">
-        <v>0.682808833718882</v>
+        <v>0.682808327045316</v>
       </c>
       <c r="E301" t="n">
-        <v>0.88535182385142</v>
+        <v>0.885351795738135</v>
       </c>
       <c r="F301" t="s">
         <v>28</v>
@@ -6489,13 +6489,13 @@
         <v>7</v>
       </c>
       <c r="C302" t="n">
-        <v>24.5029111558074</v>
+        <v>24.5026326383654</v>
       </c>
       <c r="D302" t="n">
-        <v>7.31300813208339</v>
+        <v>7.31300926430946</v>
       </c>
       <c r="E302" t="n">
-        <v>21.6379273185201</v>
+        <v>21.6376954093561</v>
       </c>
       <c r="F302" t="s">
         <v>28</v>
@@ -6509,13 +6509,13 @@
         <v>9</v>
       </c>
       <c r="C303" t="n">
-        <v>40904.2119163359</v>
+        <v>40903.9349862505</v>
       </c>
       <c r="D303" t="n">
-        <v>7918.44890765915</v>
+        <v>7918.45022068743</v>
       </c>
       <c r="E303" t="n">
-        <v>37479.9381793909</v>
+        <v>37479.6863662939</v>
       </c>
       <c r="F303" t="s">
         <v>28</v>
@@ -6529,13 +6529,13 @@
         <v>10</v>
       </c>
       <c r="C304" t="n">
-        <v>2.02882356733671</v>
+        <v>2.02881592580587</v>
       </c>
       <c r="D304" t="n">
-        <v>0.989841296179555</v>
+        <v>0.989842070345447</v>
       </c>
       <c r="E304" t="n">
-        <v>1.8954246892296</v>
+        <v>1.89541802951654</v>
       </c>
       <c r="F304" t="s">
         <v>28</v>
@@ -6549,13 +6549,13 @@
         <v>11</v>
       </c>
       <c r="C305" t="n">
-        <v>0.000497920861422758</v>
+        <v>0.000497804184903482</v>
       </c>
       <c r="D305" t="n">
-        <v>0.412429008668875</v>
+        <v>0.41242886161281</v>
       </c>
       <c r="E305" t="n">
-        <v>0.000588380596423216</v>
+        <v>0.000588524109374333</v>
       </c>
       <c r="F305" t="s">
         <v>28</v>
@@ -6569,13 +6569,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.83972310183824</v>
+        <v>3.84722049176437</v>
       </c>
       <c r="D306" t="n">
-        <v>6.2951415432326</v>
+        <v>6.17849011317333</v>
       </c>
       <c r="E306" t="n">
-        <v>4.28616281845539</v>
+        <v>4.27108769565691</v>
       </c>
       <c r="F306" t="s">
         <v>28</v>
@@ -6589,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>5963.86563213844</v>
+        <v>5959.7896920006</v>
       </c>
       <c r="D307" t="n">
-        <v>6701.98233742676</v>
+        <v>6581.55414426473</v>
       </c>
       <c r="E307" t="n">
-        <v>6104.71035725825</v>
+        <v>6077.57089980457</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>10</v>
       </c>
       <c r="C308" t="n">
-        <v>0.46135852980174</v>
+        <v>0.4627441979789</v>
       </c>
       <c r="D308" t="n">
-        <v>1.31503312017238</v>
+        <v>1.28496800838478</v>
       </c>
       <c r="E308" t="n">
-        <v>0.72879266974511</v>
+        <v>0.725613305685101</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -6629,13 +6629,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.853192260329402</v>
+        <v>0.853382414733846</v>
       </c>
       <c r="D309" t="n">
-        <v>0.619433902346351</v>
+        <v>0.631835299070564</v>
       </c>
       <c r="E309" t="n">
-        <v>0.857054998795632</v>
+        <v>0.858303929123956</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -6652,7 +6652,7 @@
         <v>6.34184090338551</v>
       </c>
       <c r="D310" t="n">
-        <v>5.224866736864</v>
+        <v>5.22486673686397</v>
       </c>
       <c r="E310" t="n">
         <v>6.15567854229859</v>
@@ -6672,7 +6672,7 @@
         <v>10818.7476952589</v>
       </c>
       <c r="D311" t="n">
-        <v>6471.69616203462</v>
+        <v>6471.69616203463</v>
       </c>
       <c r="E311" t="n">
         <v>10223.4156040765</v>
@@ -6692,10 +6692,10 @@
         <v>0.760574317117923</v>
       </c>
       <c r="D312" t="n">
-        <v>0.717265900566787</v>
+        <v>0.717265900566786</v>
       </c>
       <c r="E312" t="n">
-        <v>0.789594081313335</v>
+        <v>0.789594081313334</v>
       </c>
       <c r="F312" t="s">
         <v>28</v>
@@ -6712,10 +6712,10 @@
         <v>0.706721768806432</v>
       </c>
       <c r="D313" t="n">
-        <v>0.65448085015879</v>
+        <v>0.654480850158793</v>
       </c>
       <c r="E313" t="n">
-        <v>0.742505264666875</v>
+        <v>0.742505264666878</v>
       </c>
       <c r="F313" t="s">
         <v>28</v>
@@ -6729,13 +6729,13 @@
         <v>7</v>
       </c>
       <c r="C314" t="n">
-        <v>17.2035004537633</v>
+        <v>17.2155250901768</v>
       </c>
       <c r="D314" t="n">
-        <v>24.8439872406868</v>
+        <v>24.961410609635</v>
       </c>
       <c r="E314" t="n">
-        <v>18.5926798695675</v>
+        <v>18.6238679118965</v>
       </c>
       <c r="F314" t="s">
         <v>29</v>
@@ -6749,13 +6749,13 @@
         <v>9</v>
       </c>
       <c r="C315" t="n">
-        <v>6245.29496189964</v>
+        <v>6262.35552237704</v>
       </c>
       <c r="D315" t="n">
-        <v>7846.49199440366</v>
+        <v>7883.4681698301</v>
       </c>
       <c r="E315" t="n">
-        <v>6565.53159023868</v>
+        <v>6586.84647244564</v>
       </c>
       <c r="F315" t="s">
         <v>29</v>
@@ -6769,13 +6769,13 @@
         <v>10</v>
       </c>
       <c r="C316" t="n">
-        <v>0.844210797175526</v>
+        <v>0.847553919009242</v>
       </c>
       <c r="D316" t="n">
-        <v>2.934058394471</v>
+        <v>2.96316161766143</v>
       </c>
       <c r="E316" t="n">
-        <v>1.00431136179066</v>
+        <v>1.00871323469666</v>
       </c>
       <c r="F316" t="s">
         <v>29</v>
@@ -6789,13 +6789,13 @@
         <v>11</v>
       </c>
       <c r="C317" t="n">
-        <v>0.804519233017445</v>
+        <v>0.803475570901958</v>
       </c>
       <c r="D317" t="n">
-        <v>0.112648140419353</v>
+        <v>0.107803482386552</v>
       </c>
       <c r="E317" t="n">
-        <v>0.755658116983068</v>
+        <v>0.754061366002518</v>
       </c>
       <c r="F317" t="s">
         <v>29</v>
@@ -6809,13 +6809,13 @@
         <v>7</v>
       </c>
       <c r="C318" t="n">
-        <v>27.4278322281744</v>
+        <v>27.4661058594869</v>
       </c>
       <c r="D318" t="n">
-        <v>76.9344731900623</v>
+        <v>73.7509521076176</v>
       </c>
       <c r="E318" t="n">
-        <v>35.6789390551557</v>
+        <v>35.180246900842</v>
       </c>
       <c r="F318" t="s">
         <v>29</v>
@@ -6829,13 +6829,13 @@
         <v>9</v>
       </c>
       <c r="C319" t="n">
-        <v>8593.58222266096</v>
+        <v>8652.71047348686</v>
       </c>
       <c r="D319" t="n">
-        <v>11725.7753244297</v>
+        <v>11406.8504022772</v>
       </c>
       <c r="E319" t="n">
-        <v>9190.04972825843</v>
+        <v>9169.3622896204</v>
       </c>
       <c r="F319" t="s">
         <v>29</v>
@@ -6849,13 +6849,13 @@
         <v>10</v>
       </c>
       <c r="C320" t="n">
-        <v>1.00389475327732</v>
+        <v>1.00912194227082</v>
       </c>
       <c r="D320" t="n">
-        <v>1.64950539959268</v>
+        <v>1.59294782572941</v>
       </c>
       <c r="E320" t="n">
-        <v>1.1248824751639</v>
+        <v>1.11663270027303</v>
       </c>
       <c r="F320" t="s">
         <v>29</v>
@@ -6869,13 +6869,13 @@
         <v>11</v>
       </c>
       <c r="C321" t="n">
-        <v>0.594288040313513</v>
+        <v>0.58843401609702</v>
       </c>
       <c r="D321" t="n">
-        <v>0.753489804039244</v>
+        <v>0.757214818009306</v>
       </c>
       <c r="E321" t="n">
-        <v>0.510987072793567</v>
+        <v>0.511091385026255</v>
       </c>
       <c r="F321" t="s">
         <v>29</v>
@@ -6889,13 +6889,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="n">
-        <v>13.0083375780107</v>
+        <v>12.9521131198538</v>
       </c>
       <c r="D322" t="n">
-        <v>31.4210149875883</v>
+        <v>31.9734771607945</v>
       </c>
       <c r="E322" t="n">
-        <v>16.0771171462737</v>
+        <v>16.1223404600106</v>
       </c>
       <c r="F322" t="s">
         <v>29</v>
@@ -6909,13 +6909,13 @@
         <v>9</v>
       </c>
       <c r="C323" t="n">
-        <v>6659.86476414157</v>
+        <v>6868.3872278398</v>
       </c>
       <c r="D323" t="n">
-        <v>13131.2678247041</v>
+        <v>13611.0178164937</v>
       </c>
       <c r="E323" t="n">
-        <v>8105.54530416659</v>
+        <v>8377.88280293887</v>
       </c>
       <c r="F323" t="s">
         <v>29</v>
@@ -6929,13 +6929,13 @@
         <v>10</v>
       </c>
       <c r="C324" t="n">
-        <v>0.576854790600342</v>
+        <v>0.578235277960629</v>
       </c>
       <c r="D324" t="n">
-        <v>1.04143733823674</v>
+        <v>1.0874580839524</v>
       </c>
       <c r="E324" t="n">
-        <v>0.663710861398781</v>
+        <v>0.6748554260942</v>
       </c>
       <c r="F324" t="s">
         <v>29</v>
@@ -6949,13 +6949,13 @@
         <v>11</v>
       </c>
       <c r="C325" t="n">
-        <v>0.864477276821112</v>
+        <v>0.857566257071948</v>
       </c>
       <c r="D325" t="n">
-        <v>0.886502728362669</v>
+        <v>0.873479157723998</v>
       </c>
       <c r="E325" t="n">
-        <v>0.808382041692002</v>
+        <v>0.798538568403279</v>
       </c>
       <c r="F325" t="s">
         <v>29</v>
@@ -6969,13 +6969,13 @@
         <v>7</v>
       </c>
       <c r="C326" t="n">
-        <v>14.0655596438399</v>
+        <v>14.0632798485385</v>
       </c>
       <c r="D326" t="n">
-        <v>11.1422679406202</v>
+        <v>11.142245789995</v>
       </c>
       <c r="E326" t="n">
-        <v>13.5783443599699</v>
+        <v>13.5764408387812</v>
       </c>
       <c r="F326" t="s">
         <v>29</v>
@@ -6989,13 +6989,13 @@
         <v>9</v>
       </c>
       <c r="C327" t="n">
-        <v>5461.29759684664</v>
+        <v>5460.30525751352</v>
       </c>
       <c r="D327" t="n">
-        <v>3226.83509957677</v>
+        <v>3226.84916720304</v>
       </c>
       <c r="E327" t="n">
-        <v>5156.57059757217</v>
+        <v>5155.69625227004</v>
       </c>
       <c r="F327" t="s">
         <v>29</v>
@@ -7009,13 +7009,13 @@
         <v>10</v>
       </c>
       <c r="C328" t="n">
-        <v>0.509656834304602</v>
+        <v>0.509591661294708</v>
       </c>
       <c r="D328" t="n">
-        <v>0.457112428405935</v>
+        <v>0.457109926001889</v>
       </c>
       <c r="E328" t="n">
-        <v>0.502366234859228</v>
+        <v>0.50231004041636</v>
       </c>
       <c r="F328" t="s">
         <v>29</v>
@@ -7029,13 +7029,13 @@
         <v>11</v>
       </c>
       <c r="C329" t="n">
-        <v>0.85834905619305</v>
+        <v>0.858394269471054</v>
       </c>
       <c r="D329" t="n">
-        <v>0.823462563980584</v>
+        <v>0.823462705241715</v>
       </c>
       <c r="E329" t="n">
-        <v>0.856214846440521</v>
+        <v>0.856257913755663</v>
       </c>
       <c r="F329" t="s">
         <v>29</v>
@@ -7049,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>10.0901112136279</v>
+        <v>10.152584971192</v>
       </c>
       <c r="D330" t="n">
-        <v>9.76152485937426</v>
+        <v>10.3306442467911</v>
       </c>
       <c r="E330" t="n">
-        <v>10.0303682401272</v>
+        <v>10.1849593849373</v>
       </c>
       <c r="F330" t="s">
         <v>29</v>
@@ -7069,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>3602.26090448054</v>
+        <v>3649.79844357848</v>
       </c>
       <c r="D331" t="n">
-        <v>2991.79250168353</v>
+        <v>3199.75925449507</v>
       </c>
       <c r="E331" t="n">
-        <v>3499.19727628287</v>
+        <v>3572.19281626318</v>
       </c>
       <c r="F331" t="s">
         <v>29</v>
@@ -7089,13 +7089,13 @@
         <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.408575156968868</v>
+        <v>0.412346184721741</v>
       </c>
       <c r="D332" t="n">
-        <v>0.402656475091905</v>
+        <v>0.432501887228862</v>
       </c>
       <c r="E332" t="n">
-        <v>0.419762350938728</v>
+        <v>0.428871192134848</v>
       </c>
       <c r="F332" t="s">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="C333" t="n">
-        <v>0.935204793929027</v>
+        <v>0.933080371215247</v>
       </c>
       <c r="D333" t="n">
-        <v>0.916189295188857</v>
+        <v>0.909366740254397</v>
       </c>
       <c r="E333" t="n">
-        <v>0.930675229382027</v>
+        <v>0.927423524370272</v>
       </c>
       <c r="F333" t="s">
         <v>29</v>
@@ -7129,13 +7129,13 @@
         <v>7</v>
       </c>
       <c r="C334" t="n">
-        <v>27.886405825637</v>
+        <v>27.8864058256367</v>
       </c>
       <c r="D334" t="n">
-        <v>14.4864701408354</v>
+        <v>14.4864701408365</v>
       </c>
       <c r="E334" t="n">
-        <v>25.6530832115034</v>
+        <v>25.6530832115033</v>
       </c>
       <c r="F334" t="s">
         <v>29</v>
@@ -7149,13 +7149,13 @@
         <v>9</v>
       </c>
       <c r="C335" t="n">
-        <v>6631.06983831654</v>
+        <v>6631.06983831651</v>
       </c>
       <c r="D335" t="n">
-        <v>3784.70698659892</v>
+        <v>3784.70698659903</v>
       </c>
       <c r="E335" t="n">
-        <v>6247.39202891318</v>
+        <v>6247.39202891316</v>
       </c>
       <c r="F335" t="s">
         <v>29</v>
@@ -7169,13 +7169,13 @@
         <v>10</v>
       </c>
       <c r="C336" t="n">
-        <v>0.774584362703513</v>
+        <v>0.774584362703509</v>
       </c>
       <c r="D336" t="n">
-        <v>0.486874284815559</v>
+        <v>0.486874284815588</v>
       </c>
       <c r="E336" t="n">
-        <v>0.653320446943168</v>
+        <v>0.653320446943169</v>
       </c>
       <c r="F336" t="s">
         <v>29</v>
@@ -7189,13 +7189,13 @@
         <v>11</v>
       </c>
       <c r="C337" t="n">
-        <v>0.777790185854845</v>
+        <v>0.777790185854847</v>
       </c>
       <c r="D337" t="n">
-        <v>0.782949434881112</v>
+        <v>0.78294943488111</v>
       </c>
       <c r="E337" t="n">
-        <v>0.777821015225082</v>
+        <v>0.777821015225083</v>
       </c>
       <c r="F337" t="s">
         <v>29</v>
@@ -7209,13 +7209,13 @@
         <v>7</v>
       </c>
       <c r="C338" t="n">
-        <v>29.9505899475772</v>
+        <v>29.943695924629</v>
       </c>
       <c r="D338" t="n">
-        <v>32.5236026514248</v>
+        <v>32.5660820821504</v>
       </c>
       <c r="E338" t="n">
-        <v>30.4184104391859</v>
+        <v>30.4204934078147</v>
       </c>
       <c r="F338" t="s">
         <v>30</v>
@@ -7229,13 +7229,13 @@
         <v>9</v>
       </c>
       <c r="C339" t="n">
-        <v>1559.71528737751</v>
+        <v>1559.38489084158</v>
       </c>
       <c r="D339" t="n">
-        <v>2410.72633198761</v>
+        <v>2412.96950997847</v>
       </c>
       <c r="E339" t="n">
-        <v>1745.58166639477</v>
+        <v>1745.90364339545</v>
       </c>
       <c r="F339" t="s">
         <v>30</v>
@@ -7249,13 +7249,13 @@
         <v>10</v>
       </c>
       <c r="C340" t="n">
-        <v>0.841262320836915</v>
+        <v>0.840295682637</v>
       </c>
       <c r="D340" t="n">
-        <v>1.62039913171365</v>
+        <v>1.62324440789297</v>
       </c>
       <c r="E340" t="n">
-        <v>0.972473670064274</v>
+        <v>0.971927294853887</v>
       </c>
       <c r="F340" t="s">
         <v>30</v>
@@ -7269,13 +7269,13 @@
         <v>11</v>
       </c>
       <c r="C341" t="n">
-        <v>0.670196920933496</v>
+        <v>0.670250189227337</v>
       </c>
       <c r="D341" t="n">
-        <v>0.608171311278897</v>
+        <v>0.606664212475335</v>
       </c>
       <c r="E341" t="n">
-        <v>0.670110353986083</v>
+        <v>0.669834848552376</v>
       </c>
       <c r="F341" t="s">
         <v>30</v>
@@ -7289,13 +7289,13 @@
         <v>7</v>
       </c>
       <c r="C342" t="n">
-        <v>37.2715460385779</v>
+        <v>37.3609796554115</v>
       </c>
       <c r="D342" t="n">
-        <v>25.1997171783669</v>
+        <v>25.2283817147748</v>
       </c>
       <c r="E342" t="n">
-        <v>35.259574561876</v>
+        <v>35.3388799986387</v>
       </c>
       <c r="F342" t="s">
         <v>30</v>
@@ -7309,13 +7309,13 @@
         <v>9</v>
       </c>
       <c r="C343" t="n">
-        <v>1374.3607039154</v>
+        <v>1374.5184721854</v>
       </c>
       <c r="D343" t="n">
-        <v>1736.2972711178</v>
+        <v>1738.25049695351</v>
       </c>
       <c r="E343" t="n">
-        <v>1441.01034787086</v>
+        <v>1441.5281210145</v>
       </c>
       <c r="F343" t="s">
         <v>30</v>
@@ -7329,13 +7329,13 @@
         <v>10</v>
       </c>
       <c r="C344" t="n">
-        <v>0.633433475853678</v>
+        <v>0.633351913891664</v>
       </c>
       <c r="D344" t="n">
-        <v>0.888584670315671</v>
+        <v>0.889569237258079</v>
       </c>
       <c r="E344" t="n">
-        <v>0.684865689441749</v>
+        <v>0.685036879628751</v>
       </c>
       <c r="F344" t="s">
         <v>30</v>
@@ -7349,13 +7349,13 @@
         <v>11</v>
       </c>
       <c r="C345" t="n">
-        <v>0.725273364797855</v>
+        <v>0.725229877453191</v>
       </c>
       <c r="D345" t="n">
-        <v>0.883400569867802</v>
+        <v>0.881868741720566</v>
       </c>
       <c r="E345" t="n">
-        <v>0.765640589046385</v>
+        <v>0.765339210843979</v>
       </c>
       <c r="F345" t="s">
         <v>30</v>
@@ -7369,13 +7369,13 @@
         <v>7</v>
       </c>
       <c r="C346" t="n">
-        <v>11.0296414491839</v>
+        <v>10.9445426757134</v>
       </c>
       <c r="D346" t="n">
-        <v>17.8003808135513</v>
+        <v>18.4297386193468</v>
       </c>
       <c r="E346" t="n">
-        <v>12.1580980099118</v>
+        <v>12.1920753329856</v>
       </c>
       <c r="F346" t="s">
         <v>30</v>
@@ -7389,13 +7389,13 @@
         <v>9</v>
       </c>
       <c r="C347" t="n">
-        <v>510.500490933117</v>
+        <v>507.565186693074</v>
       </c>
       <c r="D347" t="n">
-        <v>1260.23502562747</v>
+        <v>1307.01115307619</v>
       </c>
       <c r="E347" t="n">
-        <v>694.171697784855</v>
+        <v>706.681239784415</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
@@ -7409,13 +7409,13 @@
         <v>10</v>
       </c>
       <c r="C348" t="n">
-        <v>0.215825451038262</v>
+        <v>0.212084102490855</v>
       </c>
       <c r="D348" t="n">
-        <v>0.401698462273815</v>
+        <v>0.410839778878353</v>
       </c>
       <c r="E348" t="n">
-        <v>0.263759993043423</v>
+        <v>0.262906668013494</v>
       </c>
       <c r="F348" t="s">
         <v>30</v>
@@ -7429,13 +7429,13 @@
         <v>11</v>
       </c>
       <c r="C349" t="n">
-        <v>0.96266059543034</v>
+        <v>0.962963155835461</v>
       </c>
       <c r="D349" t="n">
-        <v>0.878289628080622</v>
+        <v>0.874801697289812</v>
       </c>
       <c r="E349" t="n">
-        <v>0.945044518495624</v>
+        <v>0.943579941430399</v>
       </c>
       <c r="F349" t="s">
         <v>30</v>
@@ -7449,13 +7449,13 @@
         <v>7</v>
       </c>
       <c r="C350" t="n">
-        <v>10.4231604533981</v>
+        <v>10.4221798923714</v>
       </c>
       <c r="D350" t="n">
-        <v>16.3047714042261</v>
+        <v>16.3063416642596</v>
       </c>
       <c r="E350" t="n">
-        <v>11.4034289452028</v>
+        <v>11.4028735210194</v>
       </c>
       <c r="F350" t="s">
         <v>30</v>
@@ -7469,13 +7469,13 @@
         <v>9</v>
       </c>
       <c r="C351" t="n">
-        <v>572.967127455968</v>
+        <v>572.95869811178</v>
       </c>
       <c r="D351" t="n">
-        <v>1233.44919043694</v>
+        <v>1233.43486398315</v>
       </c>
       <c r="E351" t="n">
-        <v>726.045631154963</v>
+        <v>726.036031291245</v>
       </c>
       <c r="F351" t="s">
         <v>30</v>
@@ -7489,13 +7489,13 @@
         <v>10</v>
       </c>
       <c r="C352" t="n">
-        <v>0.235565259381527</v>
+        <v>0.235555832013129</v>
       </c>
       <c r="D352" t="n">
-        <v>0.322773754251257</v>
+        <v>0.322800403366113</v>
       </c>
       <c r="E352" t="n">
-        <v>0.260178599582446</v>
+        <v>0.260178813976348</v>
       </c>
       <c r="F352" t="s">
         <v>30</v>
@@ -7509,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="C353" t="n">
-        <v>0.954792330011178</v>
+        <v>0.954793538665839</v>
       </c>
       <c r="D353" t="n">
-        <v>0.921627241235745</v>
+        <v>0.921637785145348</v>
       </c>
       <c r="E353" t="n">
-        <v>0.941205502864006</v>
+        <v>0.941207183377886</v>
       </c>
       <c r="F353" t="s">
         <v>30</v>
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>13.0461534744444</v>
+        <v>13.0591749844387</v>
       </c>
       <c r="D354" t="n">
-        <v>18.4549080666996</v>
+        <v>18.7826266664519</v>
       </c>
       <c r="E354" t="n">
-        <v>14.029563400309</v>
+        <v>14.0998025629866</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -7549,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>682.855003600333</v>
+        <v>679.195011601294</v>
       </c>
       <c r="D355" t="n">
-        <v>1223.35109783254</v>
+        <v>1233.04670650479</v>
       </c>
       <c r="E355" t="n">
-        <v>808.466248275893</v>
+        <v>808.621786796485</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -7569,13 +7569,13 @@
         <v>10</v>
       </c>
       <c r="C356" t="n">
-        <v>0.283393478312279</v>
+        <v>0.282838395705402</v>
       </c>
       <c r="D356" t="n">
-        <v>0.439733539349474</v>
+        <v>0.446066399736897</v>
       </c>
       <c r="E356" t="n">
-        <v>0.343508441484297</v>
+        <v>0.344440492252457</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -7589,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="C357" t="n">
-        <v>0.943092202181105</v>
+        <v>0.943804529200853</v>
       </c>
       <c r="D357" t="n">
-        <v>0.897216685216085</v>
+        <v>0.896187489810256</v>
       </c>
       <c r="E357" t="n">
-        <v>0.931397365277163</v>
+        <v>0.931198690726648</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -7612,7 +7612,7 @@
         <v>28.9553864991147</v>
       </c>
       <c r="D358" t="n">
-        <v>40.5467492500738</v>
+        <v>40.5467492500736</v>
       </c>
       <c r="E358" t="n">
         <v>30.8872802909412</v>
@@ -7629,10 +7629,10 @@
         <v>9</v>
       </c>
       <c r="C359" t="n">
-        <v>1171.59686189697</v>
+        <v>1171.59686189698</v>
       </c>
       <c r="D359" t="n">
-        <v>2831.51620037301</v>
+        <v>2831.516200373</v>
       </c>
       <c r="E359" t="n">
         <v>1574.83755918978</v>
@@ -7649,13 +7649,13 @@
         <v>10</v>
       </c>
       <c r="C360" t="n">
-        <v>0.515606452789547</v>
+        <v>0.515606452789548</v>
       </c>
       <c r="D360" t="n">
-        <v>1.5164390137169</v>
+        <v>1.51643901371689</v>
       </c>
       <c r="E360" t="n">
-        <v>0.780455271267606</v>
+        <v>0.780455271267605</v>
       </c>
       <c r="F360" t="s">
         <v>30</v>
@@ -7672,7 +7672,7 @@
         <v>0.800816674360156</v>
       </c>
       <c r="D361" t="n">
-        <v>0.917222678462875</v>
+        <v>0.917222678462876</v>
       </c>
       <c r="E361" t="n">
         <v>0.751665478634802</v>
@@ -7689,13 +7689,13 @@
         <v>7</v>
       </c>
       <c r="C362" t="n">
-        <v>22.1362295442538</v>
+        <v>22.1404879593011</v>
       </c>
       <c r="D362" t="n">
-        <v>87.3591364642715</v>
+        <v>87.3407298992146</v>
       </c>
       <c r="E362" t="n">
-        <v>28.6585202362555</v>
+        <v>28.6605121532925</v>
       </c>
       <c r="F362" t="s">
         <v>31</v>
@@ -7709,13 +7709,13 @@
         <v>9</v>
       </c>
       <c r="C363" t="n">
-        <v>1574.72929000766</v>
+        <v>1574.38441950531</v>
       </c>
       <c r="D363" t="n">
-        <v>316.340595860603</v>
+        <v>316.310265813307</v>
       </c>
       <c r="E363" t="n">
-        <v>1497.26491990769</v>
+        <v>1496.9378373095</v>
       </c>
       <c r="F363" t="s">
         <v>31</v>
@@ -7729,13 +7729,13 @@
         <v>10</v>
       </c>
       <c r="C364" t="n">
-        <v>0.588848495062796</v>
+        <v>0.588751186644932</v>
       </c>
       <c r="D364" t="n">
-        <v>12.5909088022123</v>
+        <v>12.5857916909774</v>
       </c>
       <c r="E364" t="n">
-        <v>0.613225605125623</v>
+        <v>0.613102748177202</v>
       </c>
       <c r="F364" t="s">
         <v>31</v>
@@ -7749,13 +7749,13 @@
         <v>11</v>
       </c>
       <c r="C365" t="n">
-        <v>0.857045823457014</v>
+        <v>0.856949797339575</v>
       </c>
       <c r="D365" t="n">
-        <v>0.2845725360034</v>
+        <v>0.285621356641011</v>
       </c>
       <c r="E365" t="n">
-        <v>0.860535923965131</v>
+        <v>0.860446195459386</v>
       </c>
       <c r="F365" t="s">
         <v>31</v>
@@ -7769,13 +7769,13 @@
         <v>7</v>
       </c>
       <c r="C366" t="n">
-        <v>99.5209011273553</v>
+        <v>98.4021850091123</v>
       </c>
       <c r="D366" t="n">
-        <v>184.443955189858</v>
+        <v>184.969964385953</v>
       </c>
       <c r="E366" t="n">
-        <v>107.241178769401</v>
+        <v>106.27198313428</v>
       </c>
       <c r="F366" t="s">
         <v>31</v>
@@ -7789,13 +7789,13 @@
         <v>9</v>
       </c>
       <c r="C367" t="n">
-        <v>3847.96917054376</v>
+        <v>3850.74504665043</v>
       </c>
       <c r="D367" t="n">
-        <v>3932.05123733905</v>
+        <v>3883.99389069376</v>
       </c>
       <c r="E367" t="n">
-        <v>3855.68876416996</v>
+        <v>3853.77952247088</v>
       </c>
       <c r="F367" t="s">
         <v>31</v>
@@ -7809,13 +7809,13 @@
         <v>10</v>
       </c>
       <c r="C368" t="n">
-        <v>1.43624968957538</v>
+        <v>1.42594649639456</v>
       </c>
       <c r="D368" t="n">
-        <v>2.0259503980493</v>
+        <v>2.00100355991272</v>
       </c>
       <c r="E368" t="n">
-        <v>1.50404665004139</v>
+        <v>1.49309737590873</v>
       </c>
       <c r="F368" t="s">
         <v>31</v>
@@ -7829,13 +7829,13 @@
         <v>11</v>
       </c>
       <c r="C369" t="n">
-        <v>0.561845017406391</v>
+        <v>0.561324571286686</v>
       </c>
       <c r="D369" t="n">
-        <v>0.264513440560176</v>
+        <v>0.263966865285211</v>
       </c>
       <c r="E369" t="n">
-        <v>0.53330243568626</v>
+        <v>0.532853100152763</v>
       </c>
       <c r="F369" t="s">
         <v>31</v>
@@ -7849,13 +7849,13 @@
         <v>7</v>
       </c>
       <c r="C370" t="n">
-        <v>15.1110312536129</v>
+        <v>15.038480906166</v>
       </c>
       <c r="D370" t="n">
-        <v>57.5587778859278</v>
+        <v>58.2096867341919</v>
       </c>
       <c r="E370" t="n">
-        <v>18.9699173110961</v>
+        <v>18.9631359814411</v>
       </c>
       <c r="F370" t="s">
         <v>31</v>
@@ -7869,13 +7869,13 @@
         <v>9</v>
       </c>
       <c r="C371" t="n">
-        <v>1422.11524023398</v>
+        <v>1409.07989170717</v>
       </c>
       <c r="D371" t="n">
-        <v>232.806293717165</v>
+        <v>234.488604707238</v>
       </c>
       <c r="E371" t="n">
-        <v>1357.74935213495</v>
+        <v>1345.36396960662</v>
       </c>
       <c r="F371" t="s">
         <v>31</v>
@@ -7889,13 +7889,13 @@
         <v>10</v>
       </c>
       <c r="C372" t="n">
-        <v>0.334652824431901</v>
+        <v>0.332504526633347</v>
       </c>
       <c r="D372" t="n">
-        <v>2.16835089577901</v>
+        <v>2.09857715277176</v>
       </c>
       <c r="E372" t="n">
-        <v>0.359674478987172</v>
+        <v>0.351351179291892</v>
       </c>
       <c r="F372" t="s">
         <v>31</v>
@@ -7909,13 +7909,13 @@
         <v>11</v>
       </c>
       <c r="C373" t="n">
-        <v>0.940512744462328</v>
+        <v>0.941873650510926</v>
       </c>
       <c r="D373" t="n">
-        <v>0.207136269456124</v>
+        <v>0.204108728628154</v>
       </c>
       <c r="E373" t="n">
-        <v>0.941752406762271</v>
+        <v>0.943078409604154</v>
       </c>
       <c r="F373" t="s">
         <v>31</v>
@@ -7929,13 +7929,13 @@
         <v>7</v>
       </c>
       <c r="C374" t="n">
-        <v>14.7875115934021</v>
+        <v>14.7904756663522</v>
       </c>
       <c r="D374" t="n">
-        <v>62.8710755832939</v>
+        <v>62.8662406374105</v>
       </c>
       <c r="E374" t="n">
-        <v>19.1587446833923</v>
+        <v>19.1609997546302</v>
       </c>
       <c r="F374" t="s">
         <v>31</v>
@@ -7949,13 +7949,13 @@
         <v>9</v>
       </c>
       <c r="C375" t="n">
-        <v>1058.62382930042</v>
+        <v>1058.88446316139</v>
       </c>
       <c r="D375" t="n">
-        <v>243.096269313177</v>
+        <v>243.114058056719</v>
       </c>
       <c r="E375" t="n">
-        <v>1012.0159860299</v>
+        <v>1012.26422657645</v>
       </c>
       <c r="F375" t="s">
         <v>31</v>
@@ -7969,13 +7969,13 @@
         <v>10</v>
       </c>
       <c r="C376" t="n">
-        <v>0.233882413466398</v>
+        <v>0.233941408085588</v>
       </c>
       <c r="D376" t="n">
-        <v>2.54535768197617</v>
+        <v>2.55091434363165</v>
       </c>
       <c r="E376" t="n">
-        <v>0.242684858766764</v>
+        <v>0.242747945769302</v>
       </c>
       <c r="F376" t="s">
         <v>31</v>
@@ -7989,13 +7989,13 @@
         <v>11</v>
       </c>
       <c r="C377" t="n">
-        <v>0.966989782593748</v>
+        <v>0.966974750563907</v>
       </c>
       <c r="D377" t="n">
-        <v>0.197363372108072</v>
+        <v>0.197477146596098</v>
       </c>
       <c r="E377" t="n">
-        <v>0.96760892963345</v>
+        <v>0.967594272521959</v>
       </c>
       <c r="F377" t="s">
         <v>31</v>
@@ -8009,13 +8009,13 @@
         <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>13.8900957373816</v>
+        <v>13.8819379251081</v>
       </c>
       <c r="D378" t="n">
-        <v>61.9815767276253</v>
+        <v>62.1868413459306</v>
       </c>
       <c r="E378" t="n">
-        <v>18.699243836406</v>
+        <v>18.7124282671903</v>
       </c>
       <c r="F378" t="s">
         <v>31</v>
@@ -8029,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>944.809848195</v>
+        <v>977.632699389177</v>
       </c>
       <c r="D379" t="n">
-        <v>246.123304222075</v>
+        <v>246.489335338643</v>
       </c>
       <c r="E379" t="n">
-        <v>899.698145163006</v>
+        <v>930.733487453332</v>
       </c>
       <c r="F379" t="s">
         <v>31</v>
@@ -8049,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>0.323754745053752</v>
+        <v>0.329651854810316</v>
       </c>
       <c r="D380" t="n">
-        <v>3.02035372510295</v>
+        <v>2.98803371137638</v>
       </c>
       <c r="E380" t="n">
-        <v>0.339627361628531</v>
+        <v>0.341392446710587</v>
       </c>
       <c r="F380" t="s">
         <v>31</v>
@@ -8069,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="C381" t="n">
-        <v>0.947446462506379</v>
+        <v>0.94290006558475</v>
       </c>
       <c r="D381" t="n">
-        <v>0.226454332706823</v>
+        <v>0.225287340387993</v>
       </c>
       <c r="E381" t="n">
-        <v>0.94853876320185</v>
+        <v>0.944169090505354</v>
       </c>
       <c r="F381" t="s">
         <v>31</v>
@@ -8092,10 +8092,10 @@
         <v>111.029964627615</v>
       </c>
       <c r="D382" t="n">
-        <v>176.401352457854</v>
+        <v>176.401352457845</v>
       </c>
       <c r="E382" t="n">
-        <v>116.972818066728</v>
+        <v>116.972818066727</v>
       </c>
       <c r="F382" t="s">
         <v>31</v>
@@ -8112,10 +8112,10 @@
         <v>5302.93192836451</v>
       </c>
       <c r="D383" t="n">
-        <v>3056.4923512582</v>
+        <v>3056.49235125812</v>
       </c>
       <c r="E383" t="n">
-        <v>5139.44652009407</v>
+        <v>5139.44652009406</v>
       </c>
       <c r="F383" t="s">
         <v>31</v>
@@ -8132,10 +8132,10 @@
         <v>1.80456281052755</v>
       </c>
       <c r="D384" t="n">
-        <v>2.25896788234035</v>
+        <v>2.25896788234029</v>
       </c>
       <c r="E384" t="n">
-        <v>0.95757375296554</v>
+        <v>0.957573752965541</v>
       </c>
       <c r="F384" t="s">
         <v>31</v>
@@ -8152,10 +8152,10 @@
         <v>0.514555031940434</v>
       </c>
       <c r="D385" t="n">
-        <v>0.0151159206100068</v>
+        <v>0.0151159206100021</v>
       </c>
       <c r="E385" t="n">
-        <v>0.51089131692736</v>
+        <v>0.510891316927363</v>
       </c>
       <c r="F385" t="s">
         <v>31</v>
@@ -8169,13 +8169,13 @@
         <v>7</v>
       </c>
       <c r="C386" t="n">
-        <v>13.0363135973184</v>
+        <v>12.745234459451</v>
       </c>
       <c r="D386" t="n">
-        <v>86.7455994477716</v>
+        <v>83.9880239646669</v>
       </c>
       <c r="E386" t="n">
-        <v>26.4380019337644</v>
+        <v>25.6984689149448</v>
       </c>
       <c r="F386" t="s">
         <v>32</v>
@@ -8189,13 +8189,13 @@
         <v>9</v>
       </c>
       <c r="C387" t="n">
-        <v>68.0060811271164</v>
+        <v>70.0668875946285</v>
       </c>
       <c r="D387" t="n">
-        <v>1745.47910987939</v>
+        <v>1720.43239486459</v>
       </c>
       <c r="E387" t="n">
-        <v>746.812504745279</v>
+        <v>736.327469715492</v>
       </c>
       <c r="F387" t="s">
         <v>32</v>
@@ -8209,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="C388" t="n">
-        <v>0.680930280042914</v>
+        <v>0.670646474071014</v>
       </c>
       <c r="D388" t="n">
-        <v>71.9915990786896</v>
+        <v>55.2909564321908</v>
       </c>
       <c r="E388" t="n">
-        <v>5.2977843689795</v>
+        <v>5.05275306512575</v>
       </c>
       <c r="F388" t="s">
         <v>32</v>
@@ -8229,13 +8229,13 @@
         <v>11</v>
       </c>
       <c r="C389" t="n">
-        <v>0.944794502382123</v>
+        <v>0.941183135823944</v>
       </c>
       <c r="D389" t="n">
-        <v>0.240661201358936</v>
+        <v>0.180992859857298</v>
       </c>
       <c r="E389" t="n">
-        <v>0.527007793753079</v>
+        <v>0.547598697317745</v>
       </c>
       <c r="F389" t="s">
         <v>32</v>
@@ -8249,13 +8249,13 @@
         <v>7</v>
       </c>
       <c r="C390" t="n">
-        <v>29.9138496048533</v>
+        <v>29.5427217968653</v>
       </c>
       <c r="D390" t="n">
-        <v>66.3868638730073</v>
+        <v>65.6726489904689</v>
       </c>
       <c r="E390" t="n">
-        <v>35.9926853162123</v>
+        <v>35.5643763291325</v>
       </c>
       <c r="F390" t="s">
         <v>32</v>
@@ -8269,13 +8269,13 @@
         <v>9</v>
       </c>
       <c r="C391" t="n">
-        <v>119.392362209289</v>
+        <v>118.748278317973</v>
       </c>
       <c r="D391" t="n">
-        <v>1497.62840297633</v>
+        <v>1489.19534888767</v>
       </c>
       <c r="E391" t="n">
-        <v>621.042606451846</v>
+        <v>617.550072891002</v>
       </c>
       <c r="F391" t="s">
         <v>32</v>
@@ -8289,13 +8289,13 @@
         <v>10</v>
       </c>
       <c r="C392" t="n">
-        <v>1.14570704489399</v>
+        <v>1.13797440920665</v>
       </c>
       <c r="D392" t="n">
-        <v>17.8775963654164</v>
+        <v>17.7182102502292</v>
       </c>
       <c r="E392" t="n">
-        <v>4.25889189250455</v>
+        <v>4.22728058491855</v>
       </c>
       <c r="F392" t="s">
         <v>32</v>
@@ -8309,13 +8309,13 @@
         <v>11</v>
       </c>
       <c r="C393" t="n">
-        <v>0.811637677385897</v>
+        <v>0.813381909117664</v>
       </c>
       <c r="D393" t="n">
-        <v>0.84646799353357</v>
+        <v>0.841369139632281</v>
       </c>
       <c r="E393" t="n">
-        <v>0.745189123752696</v>
+        <v>0.747231481215344</v>
       </c>
       <c r="F393" t="s">
         <v>32</v>
@@ -8329,13 +8329,13 @@
         <v>7</v>
       </c>
       <c r="C394" t="n">
-        <v>14.3955793302704</v>
+        <v>14.5979194116903</v>
       </c>
       <c r="D394" t="n">
-        <v>77.0198148484004</v>
+        <v>76.5744179853326</v>
       </c>
       <c r="E394" t="n">
-        <v>24.8329519166254</v>
+        <v>24.9273358406307</v>
       </c>
       <c r="F394" t="s">
         <v>32</v>
@@ -8349,13 +8349,13 @@
         <v>9</v>
       </c>
       <c r="C395" t="n">
-        <v>62.8866010723826</v>
+        <v>62.6160936429697</v>
       </c>
       <c r="D395" t="n">
-        <v>1530.74310391123</v>
+        <v>1523.4230396648</v>
       </c>
       <c r="E395" t="n">
-        <v>627.554522617221</v>
+        <v>624.556060160211</v>
       </c>
       <c r="F395" t="s">
         <v>32</v>
@@ -8369,13 +8369,13 @@
         <v>10</v>
       </c>
       <c r="C396" t="n">
-        <v>0.553845626641683</v>
+        <v>0.55022262312427</v>
       </c>
       <c r="D396" t="n">
-        <v>8.18890144077009</v>
+        <v>7.90958861270373</v>
       </c>
       <c r="E396" t="n">
-        <v>3.16646315680861</v>
+        <v>3.0503214813975</v>
       </c>
       <c r="F396" t="s">
         <v>32</v>
@@ -8389,13 +8389,13 @@
         <v>11</v>
       </c>
       <c r="C397" t="n">
-        <v>0.953401404417828</v>
+        <v>0.953038378090834</v>
       </c>
       <c r="D397" t="n">
-        <v>0.761711321001055</v>
+        <v>0.76687122530409</v>
       </c>
       <c r="E397" t="n">
-        <v>0.761622438002618</v>
+        <v>0.764159445781699</v>
       </c>
       <c r="F397" t="s">
         <v>32</v>
@@ -8409,13 +8409,13 @@
         <v>7</v>
       </c>
       <c r="C398" t="n">
-        <v>13.8597373462078</v>
+        <v>13.8559521192646</v>
       </c>
       <c r="D398" t="n">
-        <v>54.6064120449758</v>
+        <v>54.6047141183902</v>
       </c>
       <c r="E398" t="n">
-        <v>20.6508497960025</v>
+        <v>20.6474124524522</v>
       </c>
       <c r="F398" t="s">
         <v>32</v>
@@ -8429,13 +8429,13 @@
         <v>9</v>
       </c>
       <c r="C399" t="n">
-        <v>59.6283978230844</v>
+        <v>59.6313092604845</v>
       </c>
       <c r="D399" t="n">
-        <v>1221.68121082905</v>
+        <v>1221.92693911248</v>
       </c>
       <c r="E399" t="n">
-        <v>501.710857969585</v>
+        <v>501.810872366173</v>
       </c>
       <c r="F399" t="s">
         <v>32</v>
@@ -8449,13 +8449,13 @@
         <v>10</v>
       </c>
       <c r="C400" t="n">
-        <v>0.542571026698991</v>
+        <v>0.542646971069937</v>
       </c>
       <c r="D400" t="n">
-        <v>4.86084645095672</v>
+        <v>4.86727888610839</v>
       </c>
       <c r="E400" t="n">
-        <v>2.13806290472458</v>
+        <v>2.13928009795912</v>
       </c>
       <c r="F400" t="s">
         <v>32</v>
@@ -8469,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="C401" t="n">
-        <v>0.953390612958519</v>
+        <v>0.953383962346046</v>
       </c>
       <c r="D401" t="n">
-        <v>0.909160578984882</v>
+        <v>0.909173637797395</v>
       </c>
       <c r="E401" t="n">
-        <v>0.887860770521448</v>
+        <v>0.887759105836661</v>
       </c>
       <c r="F401" t="s">
         <v>32</v>
@@ -8489,13 +8489,13 @@
         <v>7</v>
       </c>
       <c r="C402" t="n">
-        <v>11.5229814912026</v>
+        <v>11.5261186161159</v>
       </c>
       <c r="D402" t="n">
-        <v>69.4764566487175</v>
+        <v>73.671807314847</v>
       </c>
       <c r="E402" t="n">
-        <v>22.0599769743871</v>
+        <v>22.8253347431579</v>
       </c>
       <c r="F402" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="n">
-        <v>51.5997974775252</v>
+        <v>50.9110024230448</v>
       </c>
       <c r="D403" t="n">
-        <v>1466.90037795008</v>
+        <v>1510.4536820188</v>
       </c>
       <c r="E403" t="n">
-        <v>627.22739747368</v>
+        <v>645.703845889246</v>
       </c>
       <c r="F403" t="s">
         <v>32</v>
@@ -8529,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="C404" t="n">
-        <v>0.449101792927979</v>
+        <v>0.444214443641825</v>
       </c>
       <c r="D404" t="n">
-        <v>8.80124253941221</v>
+        <v>9.16140114808982</v>
       </c>
       <c r="E404" t="n">
-        <v>3.28329944927908</v>
+        <v>3.36702383075189</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -8549,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="C405" t="n">
-        <v>0.971793505120998</v>
+        <v>0.972318671022811</v>
       </c>
       <c r="D405" t="n">
-        <v>0.912897667556305</v>
+        <v>0.891376600272256</v>
       </c>
       <c r="E405" t="n">
-        <v>0.796382624350494</v>
+        <v>0.770486578279762</v>
       </c>
       <c r="F405" t="s">
         <v>32</v>
@@ -8572,7 +8572,7 @@
         <v>23.5294377810929</v>
       </c>
       <c r="D406" t="n">
-        <v>187.048216533344</v>
+        <v>187.048216533345</v>
       </c>
       <c r="E406" t="n">
         <v>50.7825675731348</v>
@@ -8589,13 +8589,13 @@
         <v>9</v>
       </c>
       <c r="C407" t="n">
-        <v>90.8431057443961</v>
+        <v>90.8431057443958</v>
       </c>
       <c r="D407" t="n">
-        <v>4006.62059985369</v>
+        <v>4006.62059985373</v>
       </c>
       <c r="E407" t="n">
-        <v>1637.79684233009</v>
+        <v>1637.7968423301</v>
       </c>
       <c r="F407" t="s">
         <v>32</v>
@@ -8609,13 +8609,13 @@
         <v>10</v>
       </c>
       <c r="C408" t="n">
-        <v>0.777653877489661</v>
+        <v>0.77765387748966</v>
       </c>
       <c r="D408" t="n">
-        <v>19.7828433468597</v>
+        <v>19.7828433468595</v>
       </c>
       <c r="E408" t="n">
-        <v>6.38159304280992</v>
+        <v>6.38159304280989</v>
       </c>
       <c r="F408" t="s">
         <v>32</v>
@@ -8632,10 +8632,10 @@
         <v>0.904036025042945</v>
       </c>
       <c r="D409" t="n">
-        <v>0.087603635578976</v>
+        <v>0.0876036355789764</v>
       </c>
       <c r="E409" t="n">
-        <v>0.388831195835001</v>
+        <v>0.388831195835006</v>
       </c>
       <c r="F409" t="s">
         <v>32</v>
@@ -8649,13 +8649,13 @@
         <v>7</v>
       </c>
       <c r="C410" t="n">
-        <v>12.1045155566807</v>
+        <v>12.1366535097411</v>
       </c>
       <c r="D410" t="n">
-        <v>14.3091222681301</v>
+        <v>14.4817226488579</v>
       </c>
       <c r="E410" t="n">
-        <v>12.5053531405806</v>
+        <v>12.5630297168533</v>
       </c>
       <c r="F410" t="s">
         <v>33</v>
@@ -8669,13 +8669,13 @@
         <v>9</v>
       </c>
       <c r="C411" t="n">
-        <v>475.821986554517</v>
+        <v>476.316632036285</v>
       </c>
       <c r="D411" t="n">
-        <v>716.224704241105</v>
+        <v>721.750221556977</v>
       </c>
       <c r="E411" t="n">
-        <v>527.740873047017</v>
+        <v>529.471826894466</v>
       </c>
       <c r="F411" t="s">
         <v>33</v>
@@ -8689,13 +8689,13 @@
         <v>10</v>
       </c>
       <c r="C412" t="n">
-        <v>0.473832064283184</v>
+        <v>0.474797549533854</v>
       </c>
       <c r="D412" t="n">
-        <v>1.25609539234756</v>
+        <v>1.28710637110448</v>
       </c>
       <c r="E412" t="n">
-        <v>0.553865453610222</v>
+        <v>0.55709370135796</v>
       </c>
       <c r="F412" t="s">
         <v>33</v>
@@ -8709,13 +8709,13 @@
         <v>11</v>
       </c>
       <c r="C413" t="n">
-        <v>0.929172866351611</v>
+        <v>0.929036286285855</v>
       </c>
       <c r="D413" t="n">
-        <v>0.813377572359084</v>
+        <v>0.807688097111058</v>
       </c>
       <c r="E413" t="n">
-        <v>0.906222913676209</v>
+        <v>0.90563915818985</v>
       </c>
       <c r="F413" t="s">
         <v>33</v>
@@ -8729,13 +8729,13 @@
         <v>7</v>
       </c>
       <c r="C414" t="n">
-        <v>10.9679666162357</v>
+        <v>11.0710676708034</v>
       </c>
       <c r="D414" t="n">
-        <v>29.075438825556</v>
+        <v>28.1876745904154</v>
       </c>
       <c r="E414" t="n">
-        <v>13.9858786511224</v>
+        <v>13.9238354907388</v>
       </c>
       <c r="F414" t="s">
         <v>33</v>
@@ -8749,13 +8749,13 @@
         <v>9</v>
       </c>
       <c r="C415" t="n">
-        <v>502.825455701267</v>
+        <v>509.8614541746</v>
       </c>
       <c r="D415" t="n">
-        <v>899.301372950826</v>
+        <v>879.69819719312</v>
       </c>
       <c r="E415" t="n">
-        <v>587.77974246271</v>
+        <v>587.886387891687</v>
       </c>
       <c r="F415" t="s">
         <v>33</v>
@@ -8769,13 +8769,13 @@
         <v>10</v>
       </c>
       <c r="C416" t="n">
-        <v>0.459235344158013</v>
+        <v>0.465630735592835</v>
       </c>
       <c r="D416" t="n">
-        <v>0.965044172070221</v>
+        <v>0.95617704144022</v>
       </c>
       <c r="E416" t="n">
-        <v>0.573912580117857</v>
+        <v>0.577348324024742</v>
       </c>
       <c r="F416" t="s">
         <v>33</v>
@@ -8789,13 +8789,13 @@
         <v>11</v>
       </c>
       <c r="C417" t="n">
-        <v>0.92115885483728</v>
+        <v>0.918942793526758</v>
       </c>
       <c r="D417" t="n">
-        <v>0.816323715613226</v>
+        <v>0.820091595608998</v>
       </c>
       <c r="E417" t="n">
-        <v>0.886482211828398</v>
+        <v>0.885946972700357</v>
       </c>
       <c r="F417" t="s">
         <v>33</v>
@@ -8809,13 +8809,13 @@
         <v>7</v>
       </c>
       <c r="C418" t="n">
-        <v>9.62994386597494</v>
+        <v>9.61723415910584</v>
       </c>
       <c r="D418" t="n">
-        <v>15.2445888030286</v>
+        <v>15.3799245649325</v>
       </c>
       <c r="E418" t="n">
-        <v>10.5657180221505</v>
+        <v>10.5776825600769</v>
       </c>
       <c r="F418" t="s">
         <v>33</v>
@@ -8829,13 +8829,13 @@
         <v>9</v>
       </c>
       <c r="C419" t="n">
-        <v>401.990312170186</v>
+        <v>402.208633305664</v>
       </c>
       <c r="D419" t="n">
-        <v>774.151360821667</v>
+        <v>796.365028213585</v>
       </c>
       <c r="E419" t="n">
-        <v>484.302141377236</v>
+        <v>490.417540076765</v>
       </c>
       <c r="F419" t="s">
         <v>33</v>
@@ -8849,13 +8849,13 @@
         <v>10</v>
       </c>
       <c r="C420" t="n">
-        <v>0.371471767314319</v>
+        <v>0.371044916664411</v>
       </c>
       <c r="D420" t="n">
-        <v>0.772202321942041</v>
+        <v>0.783876132597242</v>
       </c>
       <c r="E420" t="n">
-        <v>0.461474880784736</v>
+        <v>0.462958779743348</v>
       </c>
       <c r="F420" t="s">
         <v>33</v>
@@ -8869,13 +8869,13 @@
         <v>11</v>
       </c>
       <c r="C421" t="n">
-        <v>0.950095877292078</v>
+        <v>0.950152760335235</v>
       </c>
       <c r="D421" t="n">
-        <v>0.939528978826149</v>
+        <v>0.941211211012741</v>
       </c>
       <c r="E421" t="n">
-        <v>0.927829924837935</v>
+        <v>0.92678198518513</v>
       </c>
       <c r="F421" t="s">
         <v>33</v>
@@ -8889,13 +8889,13 @@
         <v>7</v>
       </c>
       <c r="C422" t="n">
-        <v>9.00132351349731</v>
+        <v>9.00163020859205</v>
       </c>
       <c r="D422" t="n">
-        <v>13.3101389363971</v>
+        <v>13.3093037085573</v>
       </c>
       <c r="E422" t="n">
-        <v>9.71945941731394</v>
+        <v>9.71957579191959</v>
       </c>
       <c r="F422" t="s">
         <v>33</v>
@@ -8909,13 +8909,13 @@
         <v>9</v>
       </c>
       <c r="C423" t="n">
-        <v>427.322300881032</v>
+        <v>427.335703270808</v>
       </c>
       <c r="D423" t="n">
-        <v>619.368136062885</v>
+        <v>619.2950491538</v>
       </c>
       <c r="E423" t="n">
-        <v>464.872497236484</v>
+        <v>464.866535390569</v>
       </c>
       <c r="F423" t="s">
         <v>33</v>
@@ -8929,13 +8929,13 @@
         <v>10</v>
       </c>
       <c r="C424" t="n">
-        <v>0.374349454960561</v>
+        <v>0.374356820876757</v>
       </c>
       <c r="D424" t="n">
-        <v>0.655219929961087</v>
+        <v>0.655156084604525</v>
       </c>
       <c r="E424" t="n">
-        <v>0.421500886891458</v>
+        <v>0.421495354227195</v>
       </c>
       <c r="F424" t="s">
         <v>33</v>
@@ -8949,13 +8949,13 @@
         <v>11</v>
       </c>
       <c r="C425" t="n">
-        <v>0.948572405097885</v>
+        <v>0.948570039018695</v>
       </c>
       <c r="D425" t="n">
-        <v>0.929678541641165</v>
+        <v>0.929671634043451</v>
       </c>
       <c r="E425" t="n">
-        <v>0.938769187079465</v>
+        <v>0.938770380120495</v>
       </c>
       <c r="F425" t="s">
         <v>33</v>
@@ -8969,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>8.86112894351323</v>
+        <v>8.9018695341362</v>
       </c>
       <c r="D426" t="n">
-        <v>10.6928191283852</v>
+        <v>10.7618443559604</v>
       </c>
       <c r="E426" t="n">
-        <v>9.19416352258087</v>
+        <v>9.24004677446788</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8989,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>383.2723748372</v>
+        <v>385.63498920517</v>
       </c>
       <c r="D427" t="n">
-        <v>426.836751050701</v>
+        <v>432.811959665884</v>
       </c>
       <c r="E427" t="n">
-        <v>391.553856032737</v>
+        <v>394.632336249726</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9009,13 +9009,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.345464061849938</v>
+        <v>0.346792637636578</v>
       </c>
       <c r="D428" t="n">
-        <v>0.533496078261247</v>
+        <v>0.541788703774367</v>
       </c>
       <c r="E428" t="n">
-        <v>0.396672822841482</v>
+        <v>0.400066653319385</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9029,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.954168386849936</v>
+        <v>0.953592590039995</v>
       </c>
       <c r="D429" t="n">
-        <v>0.916648206762434</v>
+        <v>0.919349431863047</v>
       </c>
       <c r="E429" t="n">
-        <v>0.94794828281676</v>
+        <v>0.947228069412559</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9052,7 +9052,7 @@
         <v>15.361454810332</v>
       </c>
       <c r="D430" t="n">
-        <v>12.6071446911642</v>
+        <v>12.6071446911647</v>
       </c>
       <c r="E430" t="n">
         <v>14.9024031238041</v>
@@ -9069,13 +9069,13 @@
         <v>9</v>
       </c>
       <c r="C431" t="n">
-        <v>683.379940125053</v>
+        <v>683.379940125055</v>
       </c>
       <c r="D431" t="n">
-        <v>583.400130724253</v>
+        <v>583.40013072428</v>
       </c>
       <c r="E431" t="n">
-        <v>667.756994891066</v>
+        <v>667.756994891071</v>
       </c>
       <c r="F431" t="s">
         <v>33</v>
@@ -9089,13 +9089,13 @@
         <v>10</v>
       </c>
       <c r="C432" t="n">
-        <v>0.584939128071855</v>
+        <v>0.584939128071854</v>
       </c>
       <c r="D432" t="n">
-        <v>0.631849384395469</v>
+        <v>0.631849384395499</v>
       </c>
       <c r="E432" t="n">
-        <v>0.599559693478288</v>
+        <v>0.599559693478295</v>
       </c>
       <c r="F432" t="s">
         <v>33</v>
@@ -9109,13 +9109,13 @@
         <v>11</v>
       </c>
       <c r="C433" t="n">
-        <v>0.862000159772346</v>
+        <v>0.862000159772345</v>
       </c>
       <c r="D433" t="n">
-        <v>0.927462755182415</v>
+        <v>0.92746275518241</v>
       </c>
       <c r="E433" t="n">
-        <v>0.861772862726317</v>
+        <v>0.861772862726315</v>
       </c>
       <c r="F433" t="s">
         <v>33</v>
@@ -9129,13 +9129,13 @@
         <v>7</v>
       </c>
       <c r="C434" t="n">
-        <v>9.72138125548041</v>
+        <v>9.74068950794413</v>
       </c>
       <c r="D434" t="n">
-        <v>11.887039709474</v>
+        <v>12.0182798786562</v>
       </c>
       <c r="E434" t="n">
-        <v>10.1151373380247</v>
+        <v>10.1547968480736</v>
       </c>
       <c r="F434" t="s">
         <v>34</v>
@@ -9149,13 +9149,13 @@
         <v>9</v>
       </c>
       <c r="C435" t="n">
-        <v>129.041939037188</v>
+        <v>129.167862173277</v>
       </c>
       <c r="D435" t="n">
-        <v>163.860554293846</v>
+        <v>165.651992300713</v>
       </c>
       <c r="E435" t="n">
-        <v>136.037080767531</v>
+        <v>136.528450139397</v>
       </c>
       <c r="F435" t="s">
         <v>34</v>
@@ -9169,13 +9169,13 @@
         <v>10</v>
       </c>
       <c r="C436" t="n">
-        <v>0.315871806704994</v>
+        <v>0.31876431545743</v>
       </c>
       <c r="D436" t="n">
-        <v>0.413028031069831</v>
+        <v>0.414486253145951</v>
       </c>
       <c r="E436" t="n">
-        <v>0.328751239076424</v>
+        <v>0.330906307928998</v>
       </c>
       <c r="F436" t="s">
         <v>34</v>
@@ -9189,13 +9189,13 @@
         <v>11</v>
       </c>
       <c r="C437" t="n">
-        <v>0.936404383256178</v>
+        <v>0.936706155441538</v>
       </c>
       <c r="D437" t="n">
-        <v>0.860444188570394</v>
+        <v>0.857929629890498</v>
       </c>
       <c r="E437" t="n">
-        <v>0.925471832287381</v>
+        <v>0.92540333191509</v>
       </c>
       <c r="F437" t="s">
         <v>34</v>
@@ -9209,13 +9209,13 @@
         <v>7</v>
       </c>
       <c r="C438" t="n">
-        <v>14.2226250945315</v>
+        <v>14.2233569494958</v>
       </c>
       <c r="D438" t="n">
-        <v>21.1136433108584</v>
+        <v>21.0936239827095</v>
       </c>
       <c r="E438" t="n">
-        <v>15.371128130586</v>
+        <v>15.3684014550314</v>
       </c>
       <c r="F438" t="s">
         <v>34</v>
@@ -9229,13 +9229,13 @@
         <v>9</v>
       </c>
       <c r="C439" t="n">
-        <v>207.858037190031</v>
+        <v>207.84704039943</v>
       </c>
       <c r="D439" t="n">
-        <v>204.732947096432</v>
+        <v>204.598812381922</v>
       </c>
       <c r="E439" t="n">
-        <v>207.340459851766</v>
+        <v>207.309203462727</v>
       </c>
       <c r="F439" t="s">
         <v>34</v>
@@ -9249,13 +9249,13 @@
         <v>10</v>
       </c>
       <c r="C440" t="n">
-        <v>0.453607044187631</v>
+        <v>0.453694692821514</v>
       </c>
       <c r="D440" t="n">
-        <v>0.605521875801611</v>
+        <v>0.605037107630281</v>
       </c>
       <c r="E440" t="n">
-        <v>0.478129326799035</v>
+        <v>0.478097502430579</v>
       </c>
       <c r="F440" t="s">
         <v>34</v>
@@ -9269,13 +9269,13 @@
         <v>11</v>
       </c>
       <c r="C441" t="n">
-        <v>0.822233063245281</v>
+        <v>0.822251078586819</v>
       </c>
       <c r="D441" t="n">
-        <v>0.865815733862839</v>
+        <v>0.865886040448793</v>
       </c>
       <c r="E441" t="n">
-        <v>0.817681988505381</v>
+        <v>0.817599388380092</v>
       </c>
       <c r="F441" t="s">
         <v>34</v>
@@ -9289,13 +9289,13 @@
         <v>7</v>
       </c>
       <c r="C442" t="n">
-        <v>9.06716623568193</v>
+        <v>9.04851673050478</v>
       </c>
       <c r="D442" t="n">
-        <v>34.9940768676254</v>
+        <v>37.0538416582202</v>
       </c>
       <c r="E442" t="n">
-        <v>13.3883180076725</v>
+        <v>13.716070885124</v>
       </c>
       <c r="F442" t="s">
         <v>34</v>
@@ -9309,13 +9309,13 @@
         <v>9</v>
       </c>
       <c r="C443" t="n">
-        <v>138.28596363137</v>
+        <v>138.602151370729</v>
       </c>
       <c r="D443" t="n">
-        <v>573.629301391818</v>
+        <v>611.144857245527</v>
       </c>
       <c r="E443" t="n">
-        <v>266.040602822999</v>
+        <v>279.747153205839</v>
       </c>
       <c r="F443" t="s">
         <v>34</v>
@@ -9329,13 +9329,13 @@
         <v>10</v>
       </c>
       <c r="C444" t="n">
-        <v>0.291896565141634</v>
+        <v>0.290890411620181</v>
       </c>
       <c r="D444" t="n">
-        <v>0.948540319995693</v>
+        <v>0.984614024486611</v>
       </c>
       <c r="E444" t="n">
-        <v>0.431177984653087</v>
+        <v>0.445619949509579</v>
       </c>
       <c r="F444" t="s">
         <v>34</v>
@@ -9349,13 +9349,13 @@
         <v>11</v>
       </c>
       <c r="C445" t="n">
-        <v>0.922019856372041</v>
+        <v>0.921081852089918</v>
       </c>
       <c r="D445" t="n">
-        <v>0.718043561609144</v>
+        <v>0.703768718801796</v>
       </c>
       <c r="E445" t="n">
-        <v>0.782482346230007</v>
+        <v>0.76175919701593</v>
       </c>
       <c r="F445" t="s">
         <v>34</v>
@@ -9369,13 +9369,13 @@
         <v>7</v>
       </c>
       <c r="C446" t="n">
-        <v>8.90468277540492</v>
+        <v>8.90449845732494</v>
       </c>
       <c r="D446" t="n">
-        <v>12.8937451952924</v>
+        <v>12.8936634728606</v>
       </c>
       <c r="E446" t="n">
-        <v>9.56952651205284</v>
+        <v>9.56935929324755</v>
       </c>
       <c r="F446" t="s">
         <v>34</v>
@@ -9389,13 +9389,13 @@
         <v>9</v>
       </c>
       <c r="C447" t="n">
-        <v>151.841728854333</v>
+        <v>151.846777101865</v>
       </c>
       <c r="D447" t="n">
-        <v>162.019053435879</v>
+        <v>162.020934374652</v>
       </c>
       <c r="E447" t="n">
-        <v>153.584790253691</v>
+        <v>153.589280092911</v>
       </c>
       <c r="F447" t="s">
         <v>34</v>
@@ -9409,13 +9409,13 @@
         <v>10</v>
       </c>
       <c r="C448" t="n">
-        <v>0.286944569939982</v>
+        <v>0.286941798889062</v>
       </c>
       <c r="D448" t="n">
-        <v>0.437622161392585</v>
+        <v>0.437617508168824</v>
       </c>
       <c r="E448" t="n">
-        <v>0.308333281571029</v>
+        <v>0.30833085215162</v>
       </c>
       <c r="F448" t="s">
         <v>34</v>
@@ -9429,13 +9429,13 @@
         <v>11</v>
       </c>
       <c r="C449" t="n">
-        <v>0.905775223522256</v>
+        <v>0.905768388142505</v>
       </c>
       <c r="D449" t="n">
-        <v>0.883648068953672</v>
+        <v>0.883647811598046</v>
       </c>
       <c r="E449" t="n">
-        <v>0.898886587482335</v>
+        <v>0.898880763990999</v>
       </c>
       <c r="F449" t="s">
         <v>34</v>
@@ -9449,13 +9449,13 @@
         <v>7</v>
       </c>
       <c r="C450" t="n">
-        <v>7.92957045075975</v>
+        <v>8.04211178083872</v>
       </c>
       <c r="D450" t="n">
-        <v>19.151024518238</v>
+        <v>20.1067360129613</v>
       </c>
       <c r="E450" t="n">
-        <v>9.96983482666489</v>
+        <v>10.2356798230428</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -9469,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>125.310361796241</v>
+        <v>130.800802855468</v>
       </c>
       <c r="D451" t="n">
-        <v>263.855138573047</v>
+        <v>274.30245801964</v>
       </c>
       <c r="E451" t="n">
-        <v>159.70519695089</v>
+        <v>166.368519530903</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -9489,13 +9489,13 @@
         <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>0.254335431694519</v>
+        <v>0.262321912429379</v>
       </c>
       <c r="D452" t="n">
-        <v>0.584048083178653</v>
+        <v>0.609324616582576</v>
       </c>
       <c r="E452" t="n">
-        <v>0.315832088878424</v>
+        <v>0.328096007075708</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -9509,13 +9509,13 @@
         <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>0.937857014642208</v>
+        <v>0.932532380310407</v>
       </c>
       <c r="D453" t="n">
-        <v>0.847469802303596</v>
+        <v>0.845197762466269</v>
       </c>
       <c r="E453" t="n">
-        <v>0.898029022007287</v>
+        <v>0.889314736995812</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -9529,13 +9529,13 @@
         <v>7</v>
       </c>
       <c r="C454" t="n">
-        <v>16.7746335202712</v>
+        <v>16.7746335202714</v>
       </c>
       <c r="D454" t="n">
-        <v>47.1585117608603</v>
+        <v>47.1585117608571</v>
       </c>
       <c r="E454" t="n">
-        <v>21.838613227036</v>
+        <v>21.8386132270357</v>
       </c>
       <c r="F454" t="s">
         <v>34</v>
@@ -9549,13 +9549,13 @@
         <v>9</v>
       </c>
       <c r="C455" t="n">
-        <v>235.533315585352</v>
+        <v>235.533315585354</v>
       </c>
       <c r="D455" t="n">
-        <v>541.452126285863</v>
+        <v>541.45212628582</v>
       </c>
       <c r="E455" t="n">
-        <v>308.369399371551</v>
+        <v>308.36939937154</v>
       </c>
       <c r="F455" t="s">
         <v>34</v>
@@ -9569,13 +9569,13 @@
         <v>10</v>
       </c>
       <c r="C456" t="n">
-        <v>0.502433752538476</v>
+        <v>0.502433752538482</v>
       </c>
       <c r="D456" t="n">
-        <v>1.77135911263958</v>
+        <v>1.77135911263938</v>
       </c>
       <c r="E456" t="n">
-        <v>0.654489803781291</v>
+        <v>0.654489803781284</v>
       </c>
       <c r="F456" t="s">
         <v>34</v>
@@ -9589,13 +9589,13 @@
         <v>11</v>
       </c>
       <c r="C457" t="n">
-        <v>0.779157887424663</v>
+        <v>0.779157887424657</v>
       </c>
       <c r="D457" t="n">
         <v>0.791783805852329</v>
       </c>
       <c r="E457" t="n">
-        <v>0.672088499737024</v>
+        <v>0.672088499737035</v>
       </c>
       <c r="F457" t="s">
         <v>34</v>
@@ -9609,13 +9609,13 @@
         <v>7</v>
       </c>
       <c r="C458" t="n">
-        <v>13.4693267901395</v>
+        <v>32.5454016765791</v>
       </c>
       <c r="D458" t="n">
-        <v>101.010599855659</v>
+        <v>80.3139026767014</v>
       </c>
       <c r="E458" t="n">
-        <v>29.3859218929612</v>
+        <v>41.2305836766013</v>
       </c>
       <c r="F458" t="s">
         <v>35</v>
@@ -9629,13 +9629,13 @@
         <v>9</v>
       </c>
       <c r="C459" t="n">
-        <v>588.471674296538</v>
+        <v>1740.62475719585</v>
       </c>
       <c r="D459" t="n">
-        <v>2016.4995454096</v>
+        <v>1564.41640632746</v>
       </c>
       <c r="E459" t="n">
-        <v>1011.26523075702</v>
+        <v>1709.9380183621</v>
       </c>
       <c r="F459" t="s">
         <v>35</v>
@@ -9649,13 +9649,13 @@
         <v>10</v>
       </c>
       <c r="C460" t="n">
-        <v>0.170082089770673</v>
+        <v>0.740067454111441</v>
       </c>
       <c r="D460" t="n">
-        <v>2.33769661833399</v>
+        <v>1.6979841335477</v>
       </c>
       <c r="E460" t="n">
-        <v>0.491974907054301</v>
+        <v>0.95818238738479</v>
       </c>
       <c r="F460" t="s">
         <v>35</v>
@@ -9669,13 +9669,13 @@
         <v>11</v>
       </c>
       <c r="C461" t="n">
-        <v>0.998858636552414</v>
+        <v>0.861757847745817</v>
       </c>
       <c r="D461" t="n">
-        <v>0.0725867788584479</v>
+        <v>0.575996544822827</v>
       </c>
       <c r="E461" t="n">
-        <v>0.911785845777734</v>
+        <v>0.837672357966604</v>
       </c>
       <c r="F461" t="s">
         <v>35</v>
@@ -9689,13 +9689,13 @@
         <v>7</v>
       </c>
       <c r="C462" t="n">
-        <v>153.039081704231</v>
+        <v>150.987848717469</v>
       </c>
       <c r="D462" t="n">
-        <v>110.227541041741</v>
+        <v>109.973503457234</v>
       </c>
       <c r="E462" t="n">
-        <v>145.903824927149</v>
+        <v>144.15212450743</v>
       </c>
       <c r="F462" t="s">
         <v>35</v>
@@ -9709,13 +9709,13 @@
         <v>9</v>
       </c>
       <c r="C463" t="n">
-        <v>2733.3183192848</v>
+        <v>2733.37347861972</v>
       </c>
       <c r="D463" t="n">
-        <v>1411.40660030905</v>
+        <v>1408.61264625946</v>
       </c>
       <c r="E463" t="n">
-        <v>2560.83364564762</v>
+        <v>2560.62630539583</v>
       </c>
       <c r="F463" t="s">
         <v>35</v>
@@ -9729,13 +9729,13 @@
         <v>10</v>
       </c>
       <c r="C464" t="n">
-        <v>1.4957676127366</v>
+        <v>1.4973539556602</v>
       </c>
       <c r="D464" t="n">
-        <v>1.5956541835548</v>
+        <v>1.57574295843749</v>
       </c>
       <c r="E464" t="n">
-        <v>1.52677212955637</v>
+        <v>1.51517989777433</v>
       </c>
       <c r="F464" t="s">
         <v>35</v>
@@ -9749,13 +9749,13 @@
         <v>11</v>
       </c>
       <c r="C465" t="n">
-        <v>0.135865363938716</v>
+        <v>0.135840994055388</v>
       </c>
       <c r="D465" t="n">
-        <v>0.530309414615823</v>
+        <v>0.53051783904709</v>
       </c>
       <c r="E465" t="n">
-        <v>0.170569602475813</v>
+        <v>0.170548273438669</v>
       </c>
       <c r="F465" t="s">
         <v>35</v>
@@ -9769,13 +9769,13 @@
         <v>7</v>
       </c>
       <c r="C466" t="n">
-        <v>56.4038338642811</v>
+        <v>60.0134617648174</v>
       </c>
       <c r="D466" t="n">
-        <v>73.9967890321727</v>
+        <v>73.8804277941433</v>
       </c>
       <c r="E466" t="n">
-        <v>59.3359930589297</v>
+        <v>62.3246227697051</v>
       </c>
       <c r="F466" t="s">
         <v>35</v>
@@ -9789,13 +9789,13 @@
         <v>9</v>
       </c>
       <c r="C467" t="n">
-        <v>2606.23601024029</v>
+        <v>2773.70494832722</v>
       </c>
       <c r="D467" t="n">
-        <v>1602.71777536521</v>
+        <v>1648.68789611902</v>
       </c>
       <c r="E467" t="n">
-        <v>2467.48978291832</v>
+        <v>2619.96715884901</v>
       </c>
       <c r="F467" t="s">
         <v>35</v>
@@ -9809,13 +9809,13 @@
         <v>10</v>
       </c>
       <c r="C468" t="n">
-        <v>0.671456340103074</v>
+        <v>0.708355391350312</v>
       </c>
       <c r="D468" t="n">
-        <v>1.93825794758074</v>
+        <v>2.1730037016097</v>
       </c>
       <c r="E468" t="n">
-        <v>2.1334076974352</v>
+        <v>2.91908299410721</v>
       </c>
       <c r="F468" t="s">
         <v>35</v>
@@ -9829,13 +9829,13 @@
         <v>11</v>
       </c>
       <c r="C469" t="n">
-        <v>0.442712905993113</v>
+        <v>0.27948579164656</v>
       </c>
       <c r="D469" t="n">
-        <v>0.595402403758583</v>
+        <v>0.592795282899223</v>
       </c>
       <c r="E469" t="n">
-        <v>0.442306484575497</v>
+        <v>0.289707817287275</v>
       </c>
       <c r="F469" t="s">
         <v>35</v>
@@ -9849,13 +9849,13 @@
         <v>7</v>
       </c>
       <c r="C470" t="n">
-        <v>55.3181046776218</v>
+        <v>64.0390696537826</v>
       </c>
       <c r="D470" t="n">
-        <v>74.9857767670214</v>
+        <v>57.2106554911611</v>
       </c>
       <c r="E470" t="n">
-        <v>58.596050025855</v>
+        <v>62.901000626679</v>
       </c>
       <c r="F470" t="s">
         <v>35</v>
@@ -9869,13 +9869,13 @@
         <v>9</v>
       </c>
       <c r="C471" t="n">
-        <v>2722.23052846169</v>
+        <v>2873.25301155098</v>
       </c>
       <c r="D471" t="n">
-        <v>1620.51238516001</v>
+        <v>1225.84090741117</v>
       </c>
       <c r="E471" t="n">
-        <v>2571.59987948168</v>
+        <v>2670.22471814067</v>
       </c>
       <c r="F471" t="s">
         <v>35</v>
@@ -9889,13 +9889,13 @@
         <v>10</v>
       </c>
       <c r="C472" t="n">
-        <v>2.59755089663169</v>
+        <v>1.97861846006827</v>
       </c>
       <c r="D472" t="n">
-        <v>1.87052235610222</v>
+        <v>1.01907849919439</v>
       </c>
       <c r="E472" t="n">
-        <v>2.36269845749676</v>
+        <v>1.6901915062583</v>
       </c>
       <c r="F472" t="s">
         <v>35</v>
@@ -9909,13 +9909,13 @@
         <v>11</v>
       </c>
       <c r="C473" t="n">
-        <v>0.305123497685892</v>
+        <v>0.0573647027009939</v>
       </c>
       <c r="D473" t="n">
-        <v>0.467008535436617</v>
+        <v>0.664079333513994</v>
       </c>
       <c r="E473" t="n">
-        <v>0.28984233810129</v>
+        <v>0.106098144002801</v>
       </c>
       <c r="F473" t="s">
         <v>35</v>
@@ -9929,13 +9929,13 @@
         <v>7</v>
       </c>
       <c r="C474" t="n">
-        <v>42.3243519166153</v>
+        <v>48.8109407496515</v>
       </c>
       <c r="D474" t="n">
-        <v>81.472126354207</v>
+        <v>69.2969787504286</v>
       </c>
       <c r="E474" t="n">
-        <v>49.4421290870865</v>
+        <v>52.5356749316109</v>
       </c>
       <c r="F474" t="s">
         <v>35</v>
@@ -9949,13 +9949,13 @@
         <v>9</v>
       </c>
       <c r="C475" t="n">
-        <v>2179.22537458011</v>
+        <v>2656.66408481891</v>
       </c>
       <c r="D475" t="n">
-        <v>1915.1606676866</v>
+        <v>1488.88298032544</v>
       </c>
       <c r="E475" t="n">
-        <v>2133.64583124396</v>
+        <v>2485.49101778348</v>
       </c>
       <c r="F475" t="s">
         <v>35</v>
@@ -9969,13 +9969,13 @@
         <v>10</v>
       </c>
       <c r="C476" t="n">
-        <v>0.520153820788073</v>
+        <v>0.658032249418159</v>
       </c>
       <c r="D476" t="n">
-        <v>1.35464166543291</v>
+        <v>1.67143781617732</v>
       </c>
       <c r="E476" t="n">
-        <v>1.25919444532905</v>
+        <v>1.86754856184174</v>
       </c>
       <c r="F476" t="s">
         <v>35</v>
@@ -9989,13 +9989,13 @@
         <v>11</v>
       </c>
       <c r="C477" t="n">
-        <v>0.880081606501446</v>
+        <v>0.510418816937303</v>
       </c>
       <c r="D477" t="n">
-        <v>0.186608715879648</v>
+        <v>0.620589260524074</v>
       </c>
       <c r="E477" t="n">
-        <v>0.663389835682976</v>
+        <v>0.496678427831793</v>
       </c>
       <c r="F477" t="s">
         <v>35</v>
@@ -10009,13 +10009,13 @@
         <v>7</v>
       </c>
       <c r="C478" t="n">
-        <v>116.217579819073</v>
+        <v>116.217579819071</v>
       </c>
       <c r="D478" t="n">
-        <v>137.741993854918</v>
+        <v>137.74199385492</v>
       </c>
       <c r="E478" t="n">
-        <v>119.80498215838</v>
+        <v>119.804982158379</v>
       </c>
       <c r="F478" t="s">
         <v>35</v>
@@ -10029,13 +10029,13 @@
         <v>9</v>
       </c>
       <c r="C479" t="n">
-        <v>2967.5861282709</v>
+        <v>2967.58612827091</v>
       </c>
       <c r="D479" t="n">
-        <v>1848.96486046379</v>
+        <v>1848.96486046382</v>
       </c>
       <c r="E479" t="n">
-        <v>2812.22059941841</v>
+        <v>2812.22059941842</v>
       </c>
       <c r="F479" t="s">
         <v>35</v>
@@ -10049,13 +10049,13 @@
         <v>10</v>
       </c>
       <c r="C480" t="n">
-        <v>1.28773816027431</v>
+        <v>1.28773816027429</v>
       </c>
       <c r="D480" t="n">
-        <v>1.34446084473301</v>
+        <v>1.34446084473303</v>
       </c>
       <c r="E480" t="n">
-        <v>1.17146041342863</v>
+        <v>1.1714604134286</v>
       </c>
       <c r="F480" t="s">
         <v>35</v>
@@ -10069,13 +10069,13 @@
         <v>11</v>
       </c>
       <c r="C481" t="n">
-        <v>0.173386886160862</v>
+        <v>0.173386886160867</v>
       </c>
       <c r="D481" t="n">
-        <v>0.205871354807944</v>
+        <v>0.205871354807927</v>
       </c>
       <c r="E481" t="n">
-        <v>0.172110384343912</v>
+        <v>0.172110384343916</v>
       </c>
       <c r="F481" t="s">
         <v>35</v>
@@ -10089,13 +10089,13 @@
         <v>7</v>
       </c>
       <c r="C482" t="n">
-        <v>15.1793287518474</v>
+        <v>15.176569214686</v>
       </c>
       <c r="D482" t="n">
-        <v>10.5703210394578</v>
+        <v>10.5744479519502</v>
       </c>
       <c r="E482" t="n">
-        <v>14.3413273495947</v>
+        <v>14.3398198941886</v>
       </c>
       <c r="F482" t="s">
         <v>36</v>
@@ -10109,13 +10109,13 @@
         <v>9</v>
       </c>
       <c r="C483" t="n">
-        <v>143.114105313446</v>
+        <v>143.366806338728</v>
       </c>
       <c r="D483" t="n">
-        <v>28.441372467083</v>
+        <v>28.4462873649614</v>
       </c>
       <c r="E483" t="n">
-        <v>130.018406946036</v>
+        <v>130.24618401934</v>
       </c>
       <c r="F483" t="s">
         <v>36</v>
@@ -10129,13 +10129,13 @@
         <v>10</v>
       </c>
       <c r="C484" t="n">
-        <v>0.914140718316349</v>
+        <v>0.914487751264741</v>
       </c>
       <c r="D484" t="n">
-        <v>3.20852666540121</v>
+        <v>3.19360021618782</v>
       </c>
       <c r="E484" t="n">
-        <v>0.960080419131526</v>
+        <v>0.960312682632825</v>
       </c>
       <c r="F484" t="s">
         <v>36</v>
@@ -10149,13 +10149,13 @@
         <v>11</v>
       </c>
       <c r="C485" t="n">
-        <v>0.892014530954917</v>
+        <v>0.891855134444857</v>
       </c>
       <c r="D485" t="n">
-        <v>0.087686618221336</v>
+        <v>0.0880279532723169</v>
       </c>
       <c r="E485" t="n">
-        <v>0.895642423691117</v>
+        <v>0.895492448312077</v>
       </c>
       <c r="F485" t="s">
         <v>36</v>
@@ -10169,13 +10169,13 @@
         <v>7</v>
       </c>
       <c r="C486" t="n">
-        <v>82.3359689351834</v>
+        <v>81.6834001791653</v>
       </c>
       <c r="D486" t="n">
-        <v>126.750852254664</v>
+        <v>126.764609406068</v>
       </c>
       <c r="E486" t="n">
-        <v>89.7384494884302</v>
+        <v>89.1969350503156</v>
       </c>
       <c r="F486" t="s">
         <v>36</v>
@@ -10189,13 +10189,13 @@
         <v>9</v>
       </c>
       <c r="C487" t="n">
-        <v>593.94975864447</v>
+        <v>594.279811619063</v>
       </c>
       <c r="D487" t="n">
-        <v>401.305289946003</v>
+        <v>401.525013159404</v>
       </c>
       <c r="E487" t="n">
-        <v>566.410851283143</v>
+        <v>566.725213938613</v>
       </c>
       <c r="F487" t="s">
         <v>36</v>
@@ -10209,13 +10209,13 @@
         <v>10</v>
       </c>
       <c r="C488" t="n">
-        <v>2.32206223670228</v>
+        <v>2.32164255435031</v>
       </c>
       <c r="D488" t="n">
-        <v>2.26981467799606</v>
+        <v>2.26997988326479</v>
       </c>
       <c r="E488" t="n">
-        <v>2.63044191544731</v>
+        <v>2.62787234734593</v>
       </c>
       <c r="F488" t="s">
         <v>36</v>
@@ -10229,13 +10229,13 @@
         <v>11</v>
       </c>
       <c r="C489" t="n">
-        <v>0.516891125308692</v>
+        <v>0.516804620735014</v>
       </c>
       <c r="D489" t="n">
-        <v>0.0464824119514619</v>
+        <v>0.0464803096582996</v>
       </c>
       <c r="E489" t="n">
-        <v>0.491633141454707</v>
+        <v>0.49050009687787</v>
       </c>
       <c r="F489" t="s">
         <v>36</v>
@@ -10249,13 +10249,13 @@
         <v>7</v>
       </c>
       <c r="C490" t="n">
-        <v>18.5483461682584</v>
+        <v>17.9789718527198</v>
       </c>
       <c r="D490" t="n">
-        <v>29.1969493068862</v>
+        <v>27.3044287329917</v>
       </c>
       <c r="E490" t="n">
-        <v>20.3231133580297</v>
+        <v>19.5332146660985</v>
       </c>
       <c r="F490" t="s">
         <v>36</v>
@@ -10269,13 +10269,13 @@
         <v>9</v>
       </c>
       <c r="C491" t="n">
-        <v>435.545570766965</v>
+        <v>404.634282600948</v>
       </c>
       <c r="D491" t="n">
-        <v>64.2283885445293</v>
+        <v>61.4844223528501</v>
       </c>
       <c r="E491" t="n">
-        <v>398.460580854333</v>
+        <v>370.230749549517</v>
       </c>
       <c r="F491" t="s">
         <v>36</v>
@@ -10289,13 +10289,13 @@
         <v>10</v>
       </c>
       <c r="C492" t="n">
-        <v>0.990086857098183</v>
+        <v>0.905188850308488</v>
       </c>
       <c r="D492" t="n">
-        <v>3.55928333767878</v>
+        <v>3.47583363642741</v>
       </c>
       <c r="E492" t="n">
-        <v>0.953804927958722</v>
+        <v>0.884017267102967</v>
       </c>
       <c r="F492" t="s">
         <v>36</v>
@@ -10309,13 +10309,13 @@
         <v>11</v>
       </c>
       <c r="C493" t="n">
-        <v>0.758752020356761</v>
+        <v>0.818361355810657</v>
       </c>
       <c r="D493" t="n">
-        <v>0.135315098539876</v>
+        <v>0.140023305953409</v>
       </c>
       <c r="E493" t="n">
-        <v>0.766672774962646</v>
+        <v>0.824274066170948</v>
       </c>
       <c r="F493" t="s">
         <v>36</v>
@@ -10329,13 +10329,13 @@
         <v>7</v>
       </c>
       <c r="C494" t="n">
-        <v>12.4353154940589</v>
+        <v>12.4304702078374</v>
       </c>
       <c r="D494" t="n">
-        <v>15.3216774209813</v>
+        <v>15.3177428519555</v>
       </c>
       <c r="E494" t="n">
-        <v>12.9163758152126</v>
+        <v>12.9116823151904</v>
       </c>
       <c r="F494" t="s">
         <v>36</v>
@@ -10349,13 +10349,13 @@
         <v>9</v>
       </c>
       <c r="C495" t="n">
-        <v>108.418595000074</v>
+        <v>108.419236892851</v>
       </c>
       <c r="D495" t="n">
-        <v>39.92986162233</v>
+        <v>39.9186558779978</v>
       </c>
       <c r="E495" t="n">
-        <v>100.305659991621</v>
+        <v>100.305494805657</v>
       </c>
       <c r="F495" t="s">
         <v>36</v>
@@ -10369,13 +10369,13 @@
         <v>10</v>
       </c>
       <c r="C496" t="n">
-        <v>0.328609462085385</v>
+        <v>0.328353058433552</v>
       </c>
       <c r="D496" t="n">
-        <v>1.53200616331946</v>
+        <v>1.53271927405305</v>
       </c>
       <c r="E496" t="n">
-        <v>0.357623644013369</v>
+        <v>0.357365860445827</v>
       </c>
       <c r="F496" t="s">
         <v>36</v>
@@ -10389,13 +10389,13 @@
         <v>11</v>
       </c>
       <c r="C497" t="n">
-        <v>0.983869842754209</v>
+        <v>0.983872754422238</v>
       </c>
       <c r="D497" t="n">
-        <v>0.109020160889395</v>
+        <v>0.108960148267474</v>
       </c>
       <c r="E497" t="n">
-        <v>0.984014194624897</v>
+        <v>0.984017443243669</v>
       </c>
       <c r="F497" t="s">
         <v>36</v>
@@ -10409,13 +10409,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="n">
-        <v>11.6561645196184</v>
+        <v>11.4855068134705</v>
       </c>
       <c r="D498" t="n">
-        <v>13.248832699617</v>
+        <v>13.07450475908</v>
       </c>
       <c r="E498" t="n">
-        <v>11.9457405523455</v>
+        <v>11.7744155308541</v>
       </c>
       <c r="F498" t="s">
         <v>36</v>
@@ -10429,13 +10429,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="n">
-        <v>119.808403067712</v>
+        <v>118.635182900952</v>
       </c>
       <c r="D499" t="n">
-        <v>36.6052266438714</v>
+        <v>36.2854915244338</v>
       </c>
       <c r="E499" t="n">
-        <v>109.489047292004</v>
+        <v>108.41923403153</v>
       </c>
       <c r="F499" t="s">
         <v>36</v>
@@ -10449,13 +10449,13 @@
         <v>10</v>
       </c>
       <c r="C500" t="n">
-        <v>0.563284347714954</v>
+        <v>0.559273498545576</v>
       </c>
       <c r="D500" t="n">
-        <v>1.63796146521866</v>
+        <v>1.62778915380305</v>
       </c>
       <c r="E500" t="n">
-        <v>0.664911514270306</v>
+        <v>0.662232602329305</v>
       </c>
       <c r="F500" t="s">
         <v>36</v>
@@ -10469,13 +10469,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="n">
-        <v>0.922281496319568</v>
+        <v>0.923168502036821</v>
       </c>
       <c r="D501" t="n">
-        <v>0.123836657162735</v>
+        <v>0.124496577916704</v>
       </c>
       <c r="E501" t="n">
-        <v>0.923748507687298</v>
+        <v>0.924664873876299</v>
       </c>
       <c r="F501" t="s">
         <v>36</v>
@@ -10489,13 +10489,13 @@
         <v>7</v>
       </c>
       <c r="C502" t="n">
-        <v>68.7327339567427</v>
+        <v>68.7327339567436</v>
       </c>
       <c r="D502" t="n">
-        <v>153.702236916616</v>
+        <v>153.702236916617</v>
       </c>
       <c r="E502" t="n">
-        <v>82.8943177833882</v>
+        <v>82.8943177833892</v>
       </c>
       <c r="F502" t="s">
         <v>36</v>
@@ -10509,13 +10509,13 @@
         <v>9</v>
       </c>
       <c r="C503" t="n">
-        <v>595.781221807735</v>
+        <v>595.781221807737</v>
       </c>
       <c r="D503" t="n">
-        <v>2665.32967295886</v>
+        <v>2665.32967295889</v>
       </c>
       <c r="E503" t="n">
-        <v>1216.46746681039</v>
+        <v>1216.46746681041</v>
       </c>
       <c r="F503" t="s">
         <v>36</v>
@@ -10529,13 +10529,13 @@
         <v>10</v>
       </c>
       <c r="C504" t="n">
-        <v>1.99515600712749</v>
+        <v>1.99515600712751</v>
       </c>
       <c r="D504" t="n">
-        <v>13.0327549229266</v>
+        <v>13.0327549229267</v>
       </c>
       <c r="E504" t="n">
-        <v>1.87771020366451</v>
+        <v>1.87771020366448</v>
       </c>
       <c r="F504" t="s">
         <v>36</v>
@@ -10549,13 +10549,13 @@
         <v>11</v>
       </c>
       <c r="C505" t="n">
-        <v>0.693533938026777</v>
+        <v>0.693533938026776</v>
       </c>
       <c r="D505" t="n">
         <v>0.0101462573413644</v>
       </c>
       <c r="E505" t="n">
-        <v>0.256673889798388</v>
+        <v>0.256673889798383</v>
       </c>
       <c r="F505" t="s">
         <v>36</v>
@@ -10569,13 +10569,13 @@
         <v>7</v>
       </c>
       <c r="C506" t="n">
-        <v>14.5514494165255</v>
+        <v>14.3902424203138</v>
       </c>
       <c r="D506" t="n">
-        <v>66.4571442905086</v>
+        <v>56.8648464803837</v>
       </c>
       <c r="E506" t="n">
-        <v>23.9888484845224</v>
+        <v>22.1128977039629</v>
       </c>
       <c r="F506" t="s">
         <v>37</v>
@@ -10589,13 +10589,13 @@
         <v>9</v>
       </c>
       <c r="C507" t="n">
-        <v>96.2202582798945</v>
+        <v>95.9567844795102</v>
       </c>
       <c r="D507" t="n">
-        <v>433.974998339722</v>
+        <v>433.609158408345</v>
       </c>
       <c r="E507" t="n">
-        <v>204.493529859631</v>
+        <v>204.250991963767</v>
       </c>
       <c r="F507" t="s">
         <v>37</v>
@@ -10609,13 +10609,13 @@
         <v>10</v>
       </c>
       <c r="C508" t="n">
-        <v>1.33728161403958</v>
+        <v>1.31411700926353</v>
       </c>
       <c r="D508" t="n">
-        <v>3.41364532151091</v>
+        <v>1.34989612648871</v>
       </c>
       <c r="E508" t="n">
-        <v>2.06663607310063</v>
+        <v>1.32355735728485</v>
       </c>
       <c r="F508" t="s">
         <v>37</v>
@@ -10629,13 +10629,13 @@
         <v>11</v>
       </c>
       <c r="C509" t="n">
-        <v>0.656632277322424</v>
+        <v>0.659223850877088</v>
       </c>
       <c r="D509" t="n">
-        <v>0.00198353407273546</v>
+        <v>0.00399517990433425</v>
       </c>
       <c r="E509" t="n">
-        <v>0.184290987285549</v>
+        <v>0.168352416105014</v>
       </c>
       <c r="F509" t="s">
         <v>37</v>
@@ -10649,13 +10649,13 @@
         <v>7</v>
       </c>
       <c r="C510" t="n">
-        <v>18.94611502143</v>
+        <v>19.6696985376473</v>
       </c>
       <c r="D510" t="n">
-        <v>23.3697907127021</v>
+        <v>20.2750389029801</v>
       </c>
       <c r="E510" t="n">
-        <v>19.6833943033087</v>
+        <v>19.7705885985361</v>
       </c>
       <c r="F510" t="s">
         <v>37</v>
@@ -10669,13 +10669,13 @@
         <v>9</v>
       </c>
       <c r="C511" t="n">
-        <v>109.850313627224</v>
+        <v>112.345682814845</v>
       </c>
       <c r="D511" t="n">
-        <v>128.517414868988</v>
+        <v>113.360853006564</v>
       </c>
       <c r="E511" t="n">
-        <v>113.175514831761</v>
+        <v>112.515513915522</v>
       </c>
       <c r="F511" t="s">
         <v>37</v>
@@ -10689,13 +10689,13 @@
         <v>10</v>
       </c>
       <c r="C512" t="n">
-        <v>0.710260039316902</v>
+        <v>0.73345942301964</v>
       </c>
       <c r="D512" t="n">
-        <v>1.45737519501294</v>
+        <v>1.25449413619835</v>
       </c>
       <c r="E512" t="n">
-        <v>1.00520377318826</v>
+        <v>0.996011048171222</v>
       </c>
       <c r="F512" t="s">
         <v>37</v>
@@ -10709,13 +10709,13 @@
         <v>11</v>
       </c>
       <c r="C513" t="n">
-        <v>0.468379522741389</v>
+        <v>0.443327029867849</v>
       </c>
       <c r="D513" t="n">
-        <v>0.279680591261841</v>
+        <v>0.303161831096567</v>
       </c>
       <c r="E513" t="n">
-        <v>0.404887739510753</v>
+        <v>0.403887464636326</v>
       </c>
       <c r="F513" t="s">
         <v>37</v>
@@ -10729,13 +10729,13 @@
         <v>7</v>
       </c>
       <c r="C514" t="n">
-        <v>18.0696069268933</v>
+        <v>18.027291591697</v>
       </c>
       <c r="D514" t="n">
-        <v>20.3347774526267</v>
+        <v>20.3903481957335</v>
       </c>
       <c r="E514" t="n">
-        <v>18.4471353478489</v>
+        <v>18.4211343590364</v>
       </c>
       <c r="F514" t="s">
         <v>37</v>
@@ -10749,13 +10749,13 @@
         <v>9</v>
       </c>
       <c r="C515" t="n">
-        <v>108.036897411797</v>
+        <v>109.019877718579</v>
       </c>
       <c r="D515" t="n">
-        <v>138.064216332829</v>
+        <v>139.096960504021</v>
       </c>
       <c r="E515" t="n">
-        <v>113.594002074225</v>
+        <v>114.582308924143</v>
       </c>
       <c r="F515" t="s">
         <v>37</v>
@@ -10769,13 +10769,13 @@
         <v>10</v>
       </c>
       <c r="C516" t="n">
-        <v>0.679569352527877</v>
+        <v>0.678856143455555</v>
       </c>
       <c r="D516" t="n">
-        <v>0.805521117262659</v>
+        <v>0.819902863155725</v>
       </c>
       <c r="E516" t="n">
-        <v>0.940487304301813</v>
+        <v>0.952080701876287</v>
       </c>
       <c r="F516" t="s">
         <v>37</v>
@@ -10789,13 +10789,13 @@
         <v>11</v>
       </c>
       <c r="C517" t="n">
-        <v>0.510607544087236</v>
+        <v>0.502235230330026</v>
       </c>
       <c r="D517" t="n">
-        <v>0.267100511691464</v>
+        <v>0.246495079564485</v>
       </c>
       <c r="E517" t="n">
-        <v>0.427127506255559</v>
+        <v>0.41774082411868</v>
       </c>
       <c r="F517" t="s">
         <v>37</v>
@@ -10809,13 +10809,13 @@
         <v>7</v>
       </c>
       <c r="C518" t="n">
-        <v>19.2648085214805</v>
+        <v>19.2635456872901</v>
       </c>
       <c r="D518" t="n">
-        <v>25.0125134211817</v>
+        <v>25.0178105935994</v>
       </c>
       <c r="E518" t="n">
-        <v>20.2227593380974</v>
+        <v>20.2225898383417</v>
       </c>
       <c r="F518" t="s">
         <v>37</v>
@@ -10829,13 +10829,13 @@
         <v>9</v>
       </c>
       <c r="C519" t="n">
-        <v>110.358870288469</v>
+        <v>110.359356274526</v>
       </c>
       <c r="D519" t="n">
-        <v>125.150209037926</v>
+        <v>125.178957667035</v>
       </c>
       <c r="E519" t="n">
-        <v>112.958676868263</v>
+        <v>112.964381576115</v>
       </c>
       <c r="F519" t="s">
         <v>37</v>
@@ -10849,13 +10849,13 @@
         <v>10</v>
       </c>
       <c r="C520" t="n">
-        <v>1.51133670894026</v>
+        <v>1.51118393885107</v>
       </c>
       <c r="D520" t="n">
-        <v>1.54258153457351</v>
+        <v>1.54289914598142</v>
       </c>
       <c r="E520" t="n">
-        <v>1.5166701625319</v>
+        <v>1.51664552155739</v>
       </c>
       <c r="F520" t="s">
         <v>37</v>
@@ -10869,13 +10869,13 @@
         <v>11</v>
       </c>
       <c r="C521" t="n">
-        <v>0.519174149820808</v>
+        <v>0.519148255955119</v>
       </c>
       <c r="D521" t="n">
-        <v>0.509681893031872</v>
+        <v>0.509570311307756</v>
       </c>
       <c r="E521" t="n">
-        <v>0.398300134909557</v>
+        <v>0.398267761689857</v>
       </c>
       <c r="F521" t="s">
         <v>37</v>
@@ -10889,13 +10889,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>15.4317933097113</v>
+        <v>15.3676415562319</v>
       </c>
       <c r="D522" t="n">
-        <v>54.8003445382579</v>
+        <v>35.5256150681048</v>
       </c>
       <c r="E522" t="n">
-        <v>22.5897117149016</v>
+        <v>19.0327276492997</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10909,13 +10909,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>96.3585172245707</v>
+        <v>96.4262403912887</v>
       </c>
       <c r="D523" t="n">
-        <v>2400.20237730771</v>
+        <v>185.265139224012</v>
       </c>
       <c r="E523" t="n">
-        <v>1027.15439127376</v>
+        <v>117.6777271532</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10929,13 +10929,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.582976158004476</v>
+        <v>0.580536306930052</v>
       </c>
       <c r="D524" t="n">
-        <v>0.645347672244617</v>
+        <v>2.06210681634611</v>
       </c>
       <c r="E524" t="n">
-        <v>0.735941747298316</v>
+        <v>1.33403114737609</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10949,13 +10949,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.639724082648804</v>
+        <v>0.641395055335802</v>
       </c>
       <c r="D525" t="n">
-        <v>0.0867869350544957</v>
+        <v>0.437847748787848</v>
       </c>
       <c r="E525" t="n">
-        <v>0.00330644298982781</v>
+        <v>0.412755091376162</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -10972,10 +10972,10 @@
         <v>23.1511675747508</v>
       </c>
       <c r="D526" t="n">
-        <v>20.6915893762292</v>
+        <v>20.6915893762289</v>
       </c>
       <c r="E526" t="n">
-        <v>22.7412378749972</v>
+        <v>22.7412378749971</v>
       </c>
       <c r="F526" t="s">
         <v>37</v>
@@ -10992,10 +10992,10 @@
         <v>119.460082899476</v>
       </c>
       <c r="D527" t="n">
-        <v>117.684845120865</v>
+        <v>117.684845120864</v>
       </c>
       <c r="E527" t="n">
-        <v>119.16604648058</v>
+        <v>119.166046480579</v>
       </c>
       <c r="F527" t="s">
         <v>37</v>
@@ -11012,7 +11012,7 @@
         <v>0.833087084235529</v>
       </c>
       <c r="D528" t="n">
-        <v>0.824132404462734</v>
+        <v>0.824132404462723</v>
       </c>
       <c r="E528" t="n">
         <v>1.05779541960556</v>
@@ -11029,13 +11029,13 @@
         <v>11</v>
       </c>
       <c r="C529" t="n">
-        <v>0.421641736974602</v>
+        <v>0.421641736974603</v>
       </c>
       <c r="D529" t="n">
         <v>0.451508026482323</v>
       </c>
       <c r="E529" t="n">
-        <v>0.414436579574066</v>
+        <v>0.414436579574067</v>
       </c>
       <c r="F529" t="s">
         <v>37</v>
@@ -11049,13 +11049,13 @@
         <v>7</v>
       </c>
       <c r="C530" t="n">
-        <v>18.0348956643146</v>
+        <v>19.0584891801731</v>
       </c>
       <c r="D530" t="n">
-        <v>39.3515730409352</v>
+        <v>40.0504745556833</v>
       </c>
       <c r="E530" t="n">
-        <v>21.9106551873366</v>
+        <v>22.8752137939022</v>
       </c>
       <c r="F530" t="s">
         <v>38</v>
@@ -11069,13 +11069,13 @@
         <v>9</v>
       </c>
       <c r="C531" t="n">
-        <v>39.3532008220975</v>
+        <v>38.5026499941365</v>
       </c>
       <c r="D531" t="n">
-        <v>41.7861180824025</v>
+        <v>43.5187085814874</v>
       </c>
       <c r="E531" t="n">
-        <v>39.8066109896471</v>
+        <v>39.4621135939727</v>
       </c>
       <c r="F531" t="s">
         <v>38</v>
@@ -11089,13 +11089,13 @@
         <v>10</v>
       </c>
       <c r="C532" t="n">
-        <v>0.862932999537535</v>
+        <v>1.08732189814273</v>
       </c>
       <c r="D532" t="n">
-        <v>4.02442795278061</v>
+        <v>5.404732747542</v>
       </c>
       <c r="E532" t="n">
-        <v>1.02249706409488</v>
+        <v>1.29668046598236</v>
       </c>
       <c r="F532" t="s">
         <v>38</v>
@@ -11109,13 +11109,13 @@
         <v>11</v>
       </c>
       <c r="C533" t="n">
-        <v>0.732409066881635</v>
+        <v>0.751042781247013</v>
       </c>
       <c r="D533" t="n">
-        <v>0.408523115682476</v>
+        <v>0.3791622218272</v>
       </c>
       <c r="E533" t="n">
-        <v>0.73668793782561</v>
+        <v>0.743253104389945</v>
       </c>
       <c r="F533" t="s">
         <v>38</v>
@@ -11129,13 +11129,13 @@
         <v>7</v>
       </c>
       <c r="C534" t="n">
-        <v>31.908627083926</v>
+        <v>32.3437914379403</v>
       </c>
       <c r="D534" t="n">
-        <v>74.1878269145871</v>
+        <v>74.1286612275238</v>
       </c>
       <c r="E534" t="n">
-        <v>38.9551603890362</v>
+        <v>39.3079364028709</v>
       </c>
       <c r="F534" t="s">
         <v>38</v>
@@ -11149,13 +11149,13 @@
         <v>9</v>
       </c>
       <c r="C535" t="n">
-        <v>61.1705828788622</v>
+        <v>61.0641902966548</v>
       </c>
       <c r="D535" t="n">
-        <v>40.5884505724028</v>
+        <v>40.8495357367502</v>
       </c>
       <c r="E535" t="n">
-        <v>58.2474940356051</v>
+        <v>58.1848509104652</v>
       </c>
       <c r="F535" t="s">
         <v>38</v>
@@ -11169,13 +11169,13 @@
         <v>10</v>
       </c>
       <c r="C536" t="n">
-        <v>0.821541082376485</v>
+        <v>0.823162768413779</v>
       </c>
       <c r="D536" t="n">
-        <v>0.959773969681544</v>
+        <v>0.99408922946998</v>
       </c>
       <c r="E536" t="n">
-        <v>0.947610108372697</v>
+        <v>0.949735577405195</v>
       </c>
       <c r="F536" t="s">
         <v>38</v>
@@ -11189,13 +11189,13 @@
         <v>11</v>
       </c>
       <c r="C537" t="n">
-        <v>0.629278072107087</v>
+        <v>0.630470424113769</v>
       </c>
       <c r="D537" t="n">
-        <v>0.801421252416987</v>
+        <v>0.796830086470708</v>
       </c>
       <c r="E537" t="n">
-        <v>0.643470336929879</v>
+        <v>0.645034799856664</v>
       </c>
       <c r="F537" t="s">
         <v>38</v>
@@ -11209,13 +11209,13 @@
         <v>7</v>
       </c>
       <c r="C538" t="n">
-        <v>52.6672886341685</v>
+        <v>43.259824556866</v>
       </c>
       <c r="D538" t="n">
-        <v>22.1693680171898</v>
+        <v>42.2208460972735</v>
       </c>
       <c r="E538" t="n">
-        <v>47.5843018646721</v>
+        <v>43.0866614802673</v>
       </c>
       <c r="F538" t="s">
         <v>38</v>
@@ -11229,13 +11229,13 @@
         <v>9</v>
       </c>
       <c r="C539" t="n">
-        <v>231.62573705367</v>
+        <v>103.905238906269</v>
       </c>
       <c r="D539" t="n">
-        <v>25.5929463046917</v>
+        <v>40.1175758872217</v>
       </c>
       <c r="E539" t="n">
-        <v>211.702389070457</v>
+        <v>96.2556606611716</v>
       </c>
       <c r="F539" t="s">
         <v>38</v>
@@ -11249,13 +11249,13 @@
         <v>10</v>
       </c>
       <c r="C540" t="n">
-        <v>3.01972379757798</v>
+        <v>1.41941667135652</v>
       </c>
       <c r="D540" t="n">
-        <v>0.641764241128563</v>
+        <v>37811.261944993</v>
       </c>
       <c r="E540" t="n">
-        <v>1.02506264772876</v>
+        <v>16.1033851471593</v>
       </c>
       <c r="F540" t="s">
         <v>38</v>
@@ -11269,13 +11269,13 @@
         <v>11</v>
       </c>
       <c r="C541" t="n">
-        <v>0.204729641162151</v>
+        <v>0.0462702793514471</v>
       </c>
       <c r="D541" t="n">
-        <v>0.797037980144364</v>
+        <v>0.294967000434219</v>
       </c>
       <c r="E541" t="n">
-        <v>0.242802506356838</v>
+        <v>0.0885234779444839</v>
       </c>
       <c r="F541" t="s">
         <v>38</v>
@@ -11289,13 +11289,13 @@
         <v>7</v>
       </c>
       <c r="C542" t="n">
-        <v>28.7991470856467</v>
+        <v>42.2502979023653</v>
       </c>
       <c r="D542" t="n">
-        <v>27.2824137617774</v>
+        <v>28.2775479796803</v>
       </c>
       <c r="E542" t="n">
-        <v>28.5463581983352</v>
+        <v>39.8549693441907</v>
       </c>
       <c r="F542" t="s">
         <v>38</v>
@@ -11309,13 +11309,13 @@
         <v>9</v>
       </c>
       <c r="C543" t="n">
-        <v>91.2850709648799</v>
+        <v>116.519616334593</v>
       </c>
       <c r="D543" t="n">
-        <v>30.1294755550975</v>
+        <v>27.7316497244848</v>
       </c>
       <c r="E543" t="n">
-        <v>84.2344013280213</v>
+        <v>106.682717185213</v>
       </c>
       <c r="F543" t="s">
         <v>38</v>
@@ -11329,13 +11329,13 @@
         <v>10</v>
       </c>
       <c r="C544" t="n">
-        <v>1.08319253646522</v>
+        <v>0.919412375998667</v>
       </c>
       <c r="D544" t="n">
-        <v>2.0918324815175</v>
+        <v>1.58524365220486</v>
       </c>
       <c r="E544" t="n">
-        <v>1.1278712906369</v>
+        <v>0.944764083243156</v>
       </c>
       <c r="F544" t="s">
         <v>38</v>
@@ -11349,13 +11349,13 @@
         <v>11</v>
       </c>
       <c r="C545" t="n">
-        <v>0.296010718785801</v>
+        <v>0.111805354513837</v>
       </c>
       <c r="D545" t="n">
-        <v>0.768472406037844</v>
+        <v>0.639647345195754</v>
       </c>
       <c r="E545" t="n">
-        <v>0.34335692338934</v>
+        <v>0.142292466057511</v>
       </c>
       <c r="F545" t="s">
         <v>38</v>
@@ -11369,13 +11369,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>22.6199357388291</v>
+        <v>23.2293682400492</v>
       </c>
       <c r="D546" t="n">
-        <v>20.1562766942861</v>
+        <v>30.6058094547877</v>
       </c>
       <c r="E546" t="n">
-        <v>22.1719977307304</v>
+        <v>24.5807773175585</v>
       </c>
       <c r="F546" t="s">
         <v>38</v>
@@ -11389,13 +11389,13 @@
         <v>9</v>
       </c>
       <c r="C547" t="n">
-        <v>65.0463380050965</v>
+        <v>78.1791479621222</v>
       </c>
       <c r="D547" t="n">
-        <v>23.1312502964074</v>
+        <v>29.8533281304284</v>
       </c>
       <c r="E547" t="n">
-        <v>59.6576172621808</v>
+        <v>71.8018414280462</v>
       </c>
       <c r="F547" t="s">
         <v>38</v>
@@ -11409,13 +11409,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="n">
-        <v>1.19019589642522</v>
+        <v>1.18801207953708</v>
       </c>
       <c r="D548" t="n">
-        <v>1.22636634317765</v>
+        <v>3.28224193855798</v>
       </c>
       <c r="E548" t="n">
-        <v>0.73707831190326</v>
+        <v>1.19206501719413</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -11429,13 +11429,13 @@
         <v>11</v>
       </c>
       <c r="C549" t="n">
-        <v>0.747125817663086</v>
+        <v>0.567408680857042</v>
       </c>
       <c r="D549" t="n">
-        <v>0.835839434865981</v>
+        <v>0.816952079645919</v>
       </c>
       <c r="E549" t="n">
-        <v>0.764038668627571</v>
+        <v>0.594480447242449</v>
       </c>
       <c r="F549" t="s">
         <v>38</v>
@@ -11449,13 +11449,13 @@
         <v>7</v>
       </c>
       <c r="C550" t="n">
-        <v>39.3310906593613</v>
+        <v>39.3310906593614</v>
       </c>
       <c r="D550" t="n">
-        <v>131.586932706795</v>
+        <v>131.586932706803</v>
       </c>
       <c r="E550" t="n">
-        <v>54.7070643339336</v>
+        <v>54.7070643339349</v>
       </c>
       <c r="F550" t="s">
         <v>38</v>
@@ -11472,10 +11472,10 @@
         <v>99.990764344983</v>
       </c>
       <c r="D551" t="n">
-        <v>85.3175489939305</v>
+        <v>85.3175489939385</v>
       </c>
       <c r="E551" t="n">
-        <v>97.6983870028922</v>
+        <v>97.6983870028933</v>
       </c>
       <c r="F551" t="s">
         <v>38</v>
@@ -11492,10 +11492,10 @@
         <v>1.25940261265524</v>
       </c>
       <c r="D552" t="n">
-        <v>1.83495266801741</v>
+        <v>1.83495266801761</v>
       </c>
       <c r="E552" t="n">
-        <v>1.03438792179661</v>
+        <v>1.03438792179663</v>
       </c>
       <c r="F552" t="s">
         <v>38</v>
@@ -11512,7 +11512,7 @@
         <v>0.397547754791263</v>
       </c>
       <c r="D553" t="n">
-        <v>0.542128202090211</v>
+        <v>0.542128202090209</v>
       </c>
       <c r="E553" t="n">
         <v>0.444769212946738</v>
@@ -11529,13 +11529,13 @@
         <v>7</v>
       </c>
       <c r="C554" t="n">
-        <v>53.8781207346775</v>
+        <v>56.4747927013024</v>
       </c>
       <c r="D554" t="n">
-        <v>70.308334057764</v>
+        <v>71.4367519084413</v>
       </c>
       <c r="E554" t="n">
-        <v>56.865432247966</v>
+        <v>59.1951489207822</v>
       </c>
       <c r="F554" t="s">
         <v>39</v>
@@ -11549,13 +11549,13 @@
         <v>9</v>
       </c>
       <c r="C555" t="n">
-        <v>175.950967477363</v>
+        <v>186.425482053011</v>
       </c>
       <c r="D555" t="n">
-        <v>128.548553503775</v>
+        <v>142.455173518127</v>
       </c>
       <c r="E555" t="n">
-        <v>168.32818265136</v>
+        <v>179.235014880777</v>
       </c>
       <c r="F555" t="s">
         <v>39</v>
@@ -11569,13 +11569,13 @@
         <v>10</v>
       </c>
       <c r="C556" t="n">
-        <v>0.790516696731088</v>
+        <v>0.893750184362253</v>
       </c>
       <c r="D556" t="n">
-        <v>1.08012848999672</v>
+        <v>1.24965695859803</v>
       </c>
       <c r="E556" t="n">
-        <v>0.830475525814139</v>
+        <v>0.93970140451979</v>
       </c>
       <c r="F556" t="s">
         <v>39</v>
@@ -11589,13 +11589,13 @@
         <v>11</v>
       </c>
       <c r="C557" t="n">
-        <v>0.750181930461626</v>
+        <v>0.738030797447411</v>
       </c>
       <c r="D557" t="n">
-        <v>0.710528576640333</v>
+        <v>0.638107168740669</v>
       </c>
       <c r="E557" t="n">
-        <v>0.747495636878372</v>
+        <v>0.72996546501902</v>
       </c>
       <c r="F557" t="s">
         <v>39</v>
@@ -11609,13 +11609,13 @@
         <v>7</v>
       </c>
       <c r="C558" t="n">
-        <v>114.513645104946</v>
+        <v>114.709558625115</v>
       </c>
       <c r="D558" t="n">
-        <v>165.912450278924</v>
+        <v>165.907302353688</v>
       </c>
       <c r="E558" t="n">
-        <v>123.080112633942</v>
+        <v>123.24251591321</v>
       </c>
       <c r="F558" t="s">
         <v>39</v>
@@ -11629,13 +11629,13 @@
         <v>9</v>
       </c>
       <c r="C559" t="n">
-        <v>173.929729060141</v>
+        <v>173.934808819629</v>
       </c>
       <c r="D559" t="n">
-        <v>180.528806121858</v>
+        <v>180.990231041936</v>
       </c>
       <c r="E559" t="n">
-        <v>175.046852344571</v>
+        <v>175.130452486243</v>
       </c>
       <c r="F559" t="s">
         <v>39</v>
@@ -11649,13 +11649,13 @@
         <v>10</v>
       </c>
       <c r="C560" t="n">
-        <v>0.653600743964836</v>
+        <v>0.656219680007505</v>
       </c>
       <c r="D560" t="n">
-        <v>0.93022733817915</v>
+        <v>0.934192607821782</v>
       </c>
       <c r="E560" t="n">
-        <v>0.709101778284212</v>
+        <v>0.711633903771126</v>
       </c>
       <c r="F560" t="s">
         <v>39</v>
@@ -11669,13 +11669,13 @@
         <v>11</v>
       </c>
       <c r="C561" t="n">
-        <v>0.72098344554908</v>
+        <v>0.720969256486155</v>
       </c>
       <c r="D561" t="n">
-        <v>0.625764125109813</v>
+        <v>0.625907427833868</v>
       </c>
       <c r="E561" t="n">
-        <v>0.693980630935857</v>
+        <v>0.693800914867636</v>
       </c>
       <c r="F561" t="s">
         <v>39</v>
@@ -11689,13 +11689,13 @@
         <v>7</v>
       </c>
       <c r="C562" t="n">
-        <v>49.4613860116513</v>
+        <v>45.0967367354488</v>
       </c>
       <c r="D562" t="n">
-        <v>65.6697595457995</v>
+        <v>66.283001884972</v>
       </c>
       <c r="E562" t="n">
-        <v>52.162781600676</v>
+        <v>48.627780927036</v>
       </c>
       <c r="F562" t="s">
         <v>39</v>
@@ -11709,13 +11709,13 @@
         <v>9</v>
       </c>
       <c r="C563" t="n">
-        <v>166.39281852577</v>
+        <v>155.977242506023</v>
       </c>
       <c r="D563" t="n">
-        <v>128.115622700904</v>
+        <v>123.145274612298</v>
       </c>
       <c r="E563" t="n">
-        <v>160.647887767414</v>
+        <v>151.001798862492</v>
       </c>
       <c r="F563" t="s">
         <v>39</v>
@@ -11729,13 +11729,13 @@
         <v>10</v>
       </c>
       <c r="C564" t="n">
-        <v>0.440261772248912</v>
+        <v>0.396073516063573</v>
       </c>
       <c r="D564" t="n">
-        <v>0.696106385269484</v>
+        <v>0.700405272030395</v>
       </c>
       <c r="E564" t="n">
-        <v>0.522357742640297</v>
+        <v>0.509879128855568</v>
       </c>
       <c r="F564" t="s">
         <v>39</v>
@@ -11749,13 +11749,13 @@
         <v>11</v>
       </c>
       <c r="C565" t="n">
-        <v>0.755930375833346</v>
+        <v>0.819807372168947</v>
       </c>
       <c r="D565" t="n">
-        <v>0.607422696167326</v>
+        <v>0.643471362177354</v>
       </c>
       <c r="E565" t="n">
-        <v>0.746590204974498</v>
+        <v>0.807590445540203</v>
       </c>
       <c r="F565" t="s">
         <v>39</v>
@@ -11769,13 +11769,13 @@
         <v>7</v>
       </c>
       <c r="C566" t="n">
-        <v>45.7173313001735</v>
+        <v>50.2885078479146</v>
       </c>
       <c r="D566" t="n">
-        <v>56.4634009414948</v>
+        <v>66.3579894351781</v>
       </c>
       <c r="E566" t="n">
-        <v>47.5083429070604</v>
+        <v>52.9667547791252</v>
       </c>
       <c r="F566" t="s">
         <v>39</v>
@@ -11789,13 +11789,13 @@
         <v>9</v>
       </c>
       <c r="C567" t="n">
-        <v>119.2550553323</v>
+        <v>147.681468189731</v>
       </c>
       <c r="D567" t="n">
-        <v>129.372198264873</v>
+        <v>137.829640245903</v>
       </c>
       <c r="E567" t="n">
-        <v>121.000004680052</v>
+        <v>146.085642668771</v>
       </c>
       <c r="F567" t="s">
         <v>39</v>
@@ -11809,13 +11809,13 @@
         <v>10</v>
       </c>
       <c r="C568" t="n">
-        <v>0.334319268707077</v>
+        <v>0.358195882813789</v>
       </c>
       <c r="D568" t="n">
-        <v>0.858684466976714</v>
+        <v>0.568125447435235</v>
       </c>
       <c r="E568" t="n">
-        <v>0.374159987165968</v>
+        <v>0.381675119059552</v>
       </c>
       <c r="F568" t="s">
         <v>39</v>
@@ -11829,13 +11829,13 @@
         <v>11</v>
       </c>
       <c r="C569" t="n">
-        <v>0.872859979394964</v>
+        <v>0.847930478944758</v>
       </c>
       <c r="D569" t="n">
-        <v>0.657996336117894</v>
+        <v>0.598686700176123</v>
       </c>
       <c r="E569" t="n">
-        <v>0.853296127549049</v>
+        <v>0.8313281523653</v>
       </c>
       <c r="F569" t="s">
         <v>39</v>
@@ -11849,13 +11849,13 @@
         <v>7</v>
       </c>
       <c r="C570" t="n">
-        <v>46.119559502583</v>
+        <v>46.5586180401169</v>
       </c>
       <c r="D570" t="n">
-        <v>56.3638822278905</v>
+        <v>61.2672538764917</v>
       </c>
       <c r="E570" t="n">
-        <v>47.9821636344571</v>
+        <v>49.2329154649123</v>
       </c>
       <c r="F570" t="s">
         <v>39</v>
@@ -11869,13 +11869,13 @@
         <v>9</v>
       </c>
       <c r="C571" t="n">
-        <v>133.455985749016</v>
+        <v>138.320562454644</v>
       </c>
       <c r="D571" t="n">
-        <v>124.677397642786</v>
+        <v>120.482958943772</v>
       </c>
       <c r="E571" t="n">
-        <v>131.90334207501</v>
+        <v>135.252453774284</v>
       </c>
       <c r="F571" t="s">
         <v>39</v>
@@ -11889,13 +11889,13 @@
         <v>10</v>
       </c>
       <c r="C572" t="n">
-        <v>0.373931702485834</v>
+        <v>0.385784031175454</v>
       </c>
       <c r="D572" t="n">
-        <v>0.808586979766106</v>
+        <v>0.687552396690246</v>
       </c>
       <c r="E572" t="n">
-        <v>0.469804198696535</v>
+        <v>0.465231453169028</v>
       </c>
       <c r="F572" t="s">
         <v>39</v>
@@ -11909,13 +11909,13 @@
         <v>11</v>
       </c>
       <c r="C573" t="n">
-        <v>0.833465341884857</v>
+        <v>0.819526120367504</v>
       </c>
       <c r="D573" t="n">
-        <v>0.679184491436489</v>
+        <v>0.656414140311477</v>
       </c>
       <c r="E573" t="n">
-        <v>0.819805320901263</v>
+        <v>0.806267524396406</v>
       </c>
       <c r="F573" t="s">
         <v>39</v>
@@ -11932,10 +11932,10 @@
         <v>120.673547680537</v>
       </c>
       <c r="D574" t="n">
-        <v>116.214501253015</v>
+        <v>116.214501252988</v>
       </c>
       <c r="E574" t="n">
-        <v>119.93037327595</v>
+        <v>119.930373275946</v>
       </c>
       <c r="F574" t="s">
         <v>39</v>
@@ -11952,7 +11952,7 @@
         <v>239.905488083768</v>
       </c>
       <c r="D575" t="n">
-        <v>150.994225142409</v>
+        <v>150.994225142411</v>
       </c>
       <c r="E575" t="n">
         <v>227.512809928698</v>
@@ -11969,13 +11969,13 @@
         <v>10</v>
       </c>
       <c r="C576" t="n">
-        <v>0.876788514723164</v>
+        <v>0.876788514723165</v>
       </c>
       <c r="D576" t="n">
-        <v>0.641923309939045</v>
+        <v>0.641923309939058</v>
       </c>
       <c r="E576" t="n">
-        <v>0.702743568520656</v>
+        <v>0.702743568520658</v>
       </c>
       <c r="F576" t="s">
         <v>39</v>
@@ -11992,10 +11992,10 @@
         <v>0.562675673634931</v>
       </c>
       <c r="D577" t="n">
-        <v>0.611861105272254</v>
+        <v>0.611861105272256</v>
       </c>
       <c r="E577" t="n">
-        <v>0.565525853916327</v>
+        <v>0.565525853916326</v>
       </c>
       <c r="F577" t="s">
         <v>39</v>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>15.8069148820266</v>
+        <v>15.8279997793411</v>
       </c>
       <c r="D18" t="n">
-        <v>31.7454497616368</v>
+        <v>31.7054359476071</v>
       </c>
       <c r="E18" t="n">
-        <v>18.704830314683</v>
+        <v>18.7148063553895</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -831,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>33466.6437702654</v>
+        <v>33188.0427546499</v>
       </c>
       <c r="D19" t="n">
-        <v>48262.303736847</v>
+        <v>48221.1146368995</v>
       </c>
       <c r="E19" t="n">
-        <v>36604.3292660457</v>
+        <v>36386.2704259453</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.376348694710122</v>
+        <v>0.373127877611706</v>
       </c>
       <c r="D20" t="n">
-        <v>0.806732459558888</v>
+        <v>0.829399193959104</v>
       </c>
       <c r="E20" t="n">
-        <v>0.459311195904897</v>
+        <v>0.457389705964409</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>0.915847507290986</v>
+        <v>0.917216266380498</v>
       </c>
       <c r="D21" t="n">
-        <v>0.886780961873427</v>
+        <v>0.891544023606228</v>
       </c>
       <c r="E21" t="n">
-        <v>0.900854879755577</v>
+        <v>0.902081842246152</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1291,13 +1291,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>9.35602130044577</v>
+        <v>9.40683503604907</v>
       </c>
       <c r="D42" t="n">
-        <v>21.8838321921029</v>
+        <v>21.7842850227664</v>
       </c>
       <c r="E42" t="n">
-        <v>11.6338050989289</v>
+        <v>11.6572804881795</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -1311,13 +1311,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>10794.3246330104</v>
+        <v>10773.1868708389</v>
       </c>
       <c r="D43" t="n">
-        <v>30106.5185580531</v>
+        <v>30462.7563480912</v>
       </c>
       <c r="E43" t="n">
-        <v>16128.636074663</v>
+        <v>16238.3190095988</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -1331,13 +1331,13 @@
         <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.488863332033784</v>
+        <v>0.490827025183744</v>
       </c>
       <c r="D44" t="n">
-        <v>1.89478718594693</v>
+        <v>1.80114636151593</v>
       </c>
       <c r="E44" t="n">
-        <v>0.835086941135567</v>
+        <v>0.825552820182809</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -1351,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>0.829695960207881</v>
+        <v>0.830364798749184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.290506560512735</v>
+        <v>0.256658802657282</v>
       </c>
       <c r="E45" t="n">
-        <v>0.748223488763399</v>
+        <v>0.744531492962113</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -1771,13 +1771,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>4.52554056738559</v>
+        <v>4.51819795159588</v>
       </c>
       <c r="D66" t="n">
-        <v>6.32948310097892</v>
+        <v>6.38074627122602</v>
       </c>
       <c r="E66" t="n">
-        <v>4.85353011894802</v>
+        <v>4.85684310061954</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -1791,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>1134.12494759647</v>
+        <v>1132.15602549114</v>
       </c>
       <c r="D67" t="n">
-        <v>518.888589209821</v>
+        <v>520.122113682245</v>
       </c>
       <c r="E67" t="n">
-        <v>1049.44337223772</v>
+        <v>1047.81371612887</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -1811,13 +1811,13 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>0.200594855070167</v>
+        <v>0.200324906269885</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30428102219097</v>
+        <v>0.305584570502664</v>
       </c>
       <c r="E68" t="n">
-        <v>0.215716326504225</v>
+        <v>0.215713386030538</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -1831,13 +1831,13 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>0.985396962750903</v>
+        <v>0.985454876119559</v>
       </c>
       <c r="D69" t="n">
-        <v>0.989691836556192</v>
+        <v>0.989662278439814</v>
       </c>
       <c r="E69" t="n">
-        <v>0.987132683140527</v>
+        <v>0.987180392303521</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -2251,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>14.1119422530774</v>
+        <v>14.0389701042424</v>
       </c>
       <c r="D90" t="n">
-        <v>14.282697003626</v>
+        <v>14.4399194044378</v>
       </c>
       <c r="E90" t="n">
-        <v>14.143225566155</v>
+        <v>14.1124264645836</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -2271,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>15995.2099507825</v>
+        <v>16051.36594804</v>
       </c>
       <c r="D91" t="n">
-        <v>813.597967445695</v>
+        <v>837.242198863882</v>
       </c>
       <c r="E91" t="n">
-        <v>14460.1288957258</v>
+        <v>14511.1125381339</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -2291,13 +2291,13 @@
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>0.461197292256706</v>
+        <v>0.461569992457595</v>
       </c>
       <c r="D92" t="n">
-        <v>0.922065372394381</v>
+        <v>0.915192316487638</v>
       </c>
       <c r="E92" t="n">
-        <v>1.28789873901472</v>
+        <v>1.29737220467359</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.952981914372125</v>
+        <v>0.950894485357686</v>
       </c>
       <c r="D93" t="n">
-        <v>0.679472284117093</v>
+        <v>0.666055314140617</v>
       </c>
       <c r="E93" t="n">
-        <v>0.944924380237471</v>
+        <v>0.942431038566538</v>
       </c>
       <c r="F93" t="s">
         <v>19</v>
@@ -2731,13 +2731,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.12466574443463</v>
+        <v>5.12575995787209</v>
       </c>
       <c r="D114" t="n">
-        <v>6.67497173814726</v>
+        <v>7.15062581406912</v>
       </c>
       <c r="E114" t="n">
-        <v>5.40653956147329</v>
+        <v>5.49391738627155</v>
       </c>
       <c r="F114" t="s">
         <v>20</v>
@@ -2751,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>168.655684627378</v>
+        <v>168.614813758385</v>
       </c>
       <c r="D115" t="n">
-        <v>206.594740215794</v>
+        <v>222.279797791434</v>
       </c>
       <c r="E115" t="n">
-        <v>176.162485167382</v>
+        <v>179.568982890945</v>
       </c>
       <c r="F115" t="s">
         <v>20</v>
@@ -2771,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="C116" t="n">
-        <v>0.356187124399683</v>
+        <v>0.35625581453644</v>
       </c>
       <c r="D116" t="n">
-        <v>0.679548515452107</v>
+        <v>0.719500163094511</v>
       </c>
       <c r="E116" t="n">
-        <v>0.434142227641432</v>
+        <v>0.4413685218806</v>
       </c>
       <c r="F116" t="s">
         <v>20</v>
@@ -2791,13 +2791,13 @@
         <v>11</v>
       </c>
       <c r="C117" t="n">
-        <v>0.913467940747562</v>
+        <v>0.913528722341575</v>
       </c>
       <c r="D117" t="n">
-        <v>0.773261548891562</v>
+        <v>0.780366173125798</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8977203177995</v>
+        <v>0.894987280428809</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -3211,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="n">
-        <v>6.45809429752991</v>
+        <v>6.46440736374732</v>
       </c>
       <c r="D138" t="n">
-        <v>13.9800514101861</v>
+        <v>14.0649213645392</v>
       </c>
       <c r="E138" t="n">
-        <v>7.82572286346739</v>
+        <v>7.84631900025493</v>
       </c>
       <c r="F138" t="s">
         <v>21</v>
@@ -3231,13 +3231,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>209.645470960285</v>
+        <v>209.554829631564</v>
       </c>
       <c r="D139" t="n">
-        <v>313.413424685176</v>
+        <v>316.974513716681</v>
       </c>
       <c r="E139" t="n">
-        <v>231.990783710595</v>
+        <v>232.802047064</v>
       </c>
       <c r="F139" t="s">
         <v>21</v>
@@ -3251,13 +3251,13 @@
         <v>10</v>
       </c>
       <c r="C140" t="n">
-        <v>0.646668487252434</v>
+        <v>0.646745353476032</v>
       </c>
       <c r="D140" t="n">
-        <v>3.49209354815246</v>
+        <v>3.48445480840124</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0265140325819</v>
+        <v>1.02850512666504</v>
       </c>
       <c r="F140" t="s">
         <v>21</v>
@@ -3271,13 +3271,13 @@
         <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>0.919305657870396</v>
+        <v>0.919350704533328</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00110538363751588</v>
+        <v>0.000626052472182116</v>
       </c>
       <c r="E141" t="n">
-        <v>0.908092703641593</v>
+        <v>0.90765409937097</v>
       </c>
       <c r="F141" t="s">
         <v>21</v>
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>6.81630191086216</v>
+        <v>6.85843799067888</v>
       </c>
       <c r="D162" t="n">
-        <v>13.2804219837909</v>
+        <v>13.2265774476503</v>
       </c>
       <c r="E162" t="n">
-        <v>7.99159646957647</v>
+        <v>8.01628152831004</v>
       </c>
       <c r="F162" t="s">
         <v>22</v>
@@ -3711,13 +3711,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>90.9104842447823</v>
+        <v>91.4143112205496</v>
       </c>
       <c r="D163" t="n">
-        <v>137.65295785283</v>
+        <v>138.175161521617</v>
       </c>
       <c r="E163" t="n">
-        <v>101.0306519293</v>
+        <v>101.530979234015</v>
       </c>
       <c r="F163" t="s">
         <v>22</v>
@@ -3731,13 +3731,13 @@
         <v>10</v>
       </c>
       <c r="C164" t="n">
-        <v>0.414247286872611</v>
+        <v>0.417510436563724</v>
       </c>
       <c r="D164" t="n">
-        <v>0.980289937374787</v>
+        <v>0.97371820644347</v>
       </c>
       <c r="E164" t="n">
-        <v>0.512856715229022</v>
+        <v>0.516967449341973</v>
       </c>
       <c r="F164" t="s">
         <v>22</v>
@@ -3751,13 +3751,13 @@
         <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0.938520830497974</v>
+        <v>0.937870369419022</v>
       </c>
       <c r="D165" t="n">
-        <v>0.715573228590895</v>
+        <v>0.711468957505098</v>
       </c>
       <c r="E165" t="n">
-        <v>0.921170715727065</v>
+        <v>0.920333021383944</v>
       </c>
       <c r="F165" t="s">
         <v>22</v>
@@ -4169,13 +4169,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="n">
-        <v>3.7152672848147</v>
+        <v>3.75793823572553</v>
       </c>
       <c r="D186" t="n">
-        <v>5.37502979232892</v>
+        <v>6.81037257757037</v>
       </c>
       <c r="E186" t="n">
-        <v>4.01704228618092</v>
+        <v>4.31292629787913</v>
       </c>
       <c r="F186" t="s">
         <v>23</v>
@@ -4189,13 +4189,13 @@
         <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>5445.77426527144</v>
+        <v>5523.44070609562</v>
       </c>
       <c r="D187" t="n">
-        <v>7184.36099973774</v>
+        <v>8479.68229193366</v>
       </c>
       <c r="E187" t="n">
-        <v>5800.76955775336</v>
+        <v>6167.25663667002</v>
       </c>
       <c r="F187" t="s">
         <v>23</v>
@@ -4209,13 +4209,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="n">
-        <v>0.459032329331496</v>
+        <v>0.464302131211335</v>
       </c>
       <c r="D188" t="n">
-        <v>1.52490745428947</v>
+        <v>1.72022168299808</v>
       </c>
       <c r="E188" t="n">
-        <v>0.96159600748183</v>
+        <v>1.01738170932585</v>
       </c>
       <c r="F188" t="s">
         <v>23</v>
@@ -4229,13 +4229,13 @@
         <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0.740250624789515</v>
+        <v>0.732646252762437</v>
       </c>
       <c r="D189" t="n">
-        <v>0.503965290140048</v>
+        <v>0.475810721965655</v>
       </c>
       <c r="E189" t="n">
-        <v>0.691581164994256</v>
+        <v>0.654721558310345</v>
       </c>
       <c r="F189" t="s">
         <v>23</v>
@@ -4649,13 +4649,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>4.18324033625409</v>
+        <v>4.17745266139074</v>
       </c>
       <c r="D210" t="n">
-        <v>4.92300197739555</v>
+        <v>4.89900665116372</v>
       </c>
       <c r="E210" t="n">
-        <v>4.31774245282526</v>
+        <v>4.30864429589492</v>
       </c>
       <c r="F210" t="s">
         <v>24</v>
@@ -4669,13 +4669,13 @@
         <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>1819.1724791864</v>
+        <v>1821.54418110653</v>
       </c>
       <c r="D211" t="n">
-        <v>2746.85890399601</v>
+        <v>2743.40748917713</v>
       </c>
       <c r="E211" t="n">
-        <v>2019.78766341656</v>
+        <v>2020.68346081342</v>
       </c>
       <c r="F211" t="s">
         <v>24</v>
@@ -4689,13 +4689,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="n">
-        <v>0.437188607991929</v>
+        <v>0.436278936549262</v>
       </c>
       <c r="D212" t="n">
-        <v>0.969683488473807</v>
+        <v>0.941437173896676</v>
       </c>
       <c r="E212" t="n">
-        <v>0.694772089277699</v>
+        <v>0.68584533697595</v>
       </c>
       <c r="F212" t="s">
         <v>24</v>
@@ -4709,13 +4709,13 @@
         <v>11</v>
       </c>
       <c r="C213" t="n">
-        <v>0.901491096589321</v>
+        <v>0.901243923699735</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7580144366479</v>
+        <v>0.759885195529122</v>
       </c>
       <c r="E213" t="n">
-        <v>0.920201509323898</v>
+        <v>0.920166510703013</v>
       </c>
       <c r="F213" t="s">
         <v>24</v>
@@ -5129,13 +5129,13 @@
         <v>7</v>
       </c>
       <c r="C234" t="n">
-        <v>4.3899345364678</v>
+        <v>4.41260444060722</v>
       </c>
       <c r="D234" t="n">
-        <v>4.73490876542441</v>
+        <v>4.62874215299889</v>
       </c>
       <c r="E234" t="n">
-        <v>4.45265712355082</v>
+        <v>4.45190220649661</v>
       </c>
       <c r="F234" t="s">
         <v>25</v>
@@ -5149,13 +5149,13 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1021.78103045286</v>
+        <v>1026.21271913968</v>
       </c>
       <c r="D235" t="n">
-        <v>1264.72599321522</v>
+        <v>1245.37833565097</v>
       </c>
       <c r="E235" t="n">
-        <v>1070.06337720411</v>
+        <v>1069.40711280657</v>
       </c>
       <c r="F235" t="s">
         <v>25</v>
@@ -5169,13 +5169,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>0.430328999132468</v>
+        <v>0.432919662638173</v>
       </c>
       <c r="D236" t="n">
-        <v>0.690442672171015</v>
+        <v>0.68265346327874</v>
       </c>
       <c r="E236" t="n">
-        <v>0.660009207497868</v>
+        <v>0.662176749270587</v>
       </c>
       <c r="F236" t="s">
         <v>25</v>
@@ -5189,13 +5189,13 @@
         <v>11</v>
       </c>
       <c r="C237" t="n">
-        <v>0.899042653838304</v>
+        <v>0.898138681975664</v>
       </c>
       <c r="D237" t="n">
-        <v>0.673414558593697</v>
+        <v>0.684090233404781</v>
       </c>
       <c r="E237" t="n">
-        <v>0.903629781420591</v>
+        <v>0.90349136262403</v>
       </c>
       <c r="F237" t="s">
         <v>25</v>
@@ -5609,13 +5609,13 @@
         <v>7</v>
       </c>
       <c r="C258" t="n">
-        <v>4.29418858644219</v>
+        <v>4.28803775045835</v>
       </c>
       <c r="D258" t="n">
-        <v>11.2633403421554</v>
+        <v>11.4550322085943</v>
       </c>
       <c r="E258" t="n">
-        <v>5.56130708748096</v>
+        <v>5.59112765193761</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -5629,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>514.203491884865</v>
+        <v>512.795368283362</v>
       </c>
       <c r="D259" t="n">
-        <v>1416.42934709051</v>
+        <v>1436.89247065329</v>
       </c>
       <c r="E259" t="n">
-        <v>762.304596136419</v>
+        <v>768.466699582299</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -5649,13 +5649,13 @@
         <v>10</v>
       </c>
       <c r="C260" t="n">
-        <v>0.523085429722583</v>
+        <v>0.522858750507962</v>
       </c>
       <c r="D260" t="n">
-        <v>2.04006372716702</v>
+        <v>2.06590494794599</v>
       </c>
       <c r="E260" t="n">
-        <v>0.889462424969373</v>
+        <v>0.896014205887285</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -5669,13 +5669,13 @@
         <v>11</v>
       </c>
       <c r="C261" t="n">
-        <v>0.896307481588821</v>
+        <v>0.896929178797</v>
       </c>
       <c r="D261" t="n">
-        <v>0.502646715175307</v>
+        <v>0.505888596291599</v>
       </c>
       <c r="E261" t="n">
-        <v>0.818573448157546</v>
+        <v>0.816767201002728</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -6089,13 +6089,13 @@
         <v>7</v>
       </c>
       <c r="C282" t="n">
-        <v>10.1897782718081</v>
+        <v>10.2545774854029</v>
       </c>
       <c r="D282" t="n">
-        <v>12.0337009785668</v>
+        <v>12.1659170570115</v>
       </c>
       <c r="E282" t="n">
-        <v>10.5250369457643</v>
+        <v>10.6020937711499</v>
       </c>
       <c r="F282" t="s">
         <v>27</v>
@@ -6109,13 +6109,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="n">
-        <v>494.451023429092</v>
+        <v>495.90855205515</v>
       </c>
       <c r="D283" t="n">
-        <v>801.511020224345</v>
+        <v>817.698009625812</v>
       </c>
       <c r="E283" t="n">
-        <v>562.880268409546</v>
+        <v>568.13792322775</v>
       </c>
       <c r="F283" t="s">
         <v>27</v>
@@ -6129,13 +6129,13 @@
         <v>10</v>
       </c>
       <c r="C284" t="n">
-        <v>0.385378223612209</v>
+        <v>0.386771870913903</v>
       </c>
       <c r="D284" t="n">
-        <v>0.891313042444157</v>
+        <v>0.920256546667657</v>
       </c>
       <c r="E284" t="n">
-        <v>0.567902878155753</v>
+        <v>0.57725136162019</v>
       </c>
       <c r="F284" t="s">
         <v>27</v>
@@ -6149,13 +6149,13 @@
         <v>11</v>
       </c>
       <c r="C285" t="n">
-        <v>0.872306686429265</v>
+        <v>0.871572375036141</v>
       </c>
       <c r="D285" t="n">
-        <v>0.826729826611942</v>
+        <v>0.826389004681899</v>
       </c>
       <c r="E285" t="n">
-        <v>0.884351847026277</v>
+        <v>0.88284349080833</v>
       </c>
       <c r="F285" t="s">
         <v>27</v>
@@ -6569,13 +6569,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="n">
-        <v>3.84722049176437</v>
+        <v>3.85006847506265</v>
       </c>
       <c r="D306" t="n">
-        <v>6.17849011317333</v>
+        <v>6.24084288493096</v>
       </c>
       <c r="E306" t="n">
-        <v>4.27108769565691</v>
+        <v>4.28475473140234</v>
       </c>
       <c r="F306" t="s">
         <v>28</v>
@@ -6589,13 +6589,13 @@
         <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>5959.7896920006</v>
+        <v>5951.85288625601</v>
       </c>
       <c r="D307" t="n">
-        <v>6581.55414426473</v>
+        <v>6656.22687305444</v>
       </c>
       <c r="E307" t="n">
-        <v>6077.57089980457</v>
+        <v>6085.98753761346</v>
       </c>
       <c r="F307" t="s">
         <v>28</v>
@@ -6609,13 +6609,13 @@
         <v>10</v>
       </c>
       <c r="C308" t="n">
-        <v>0.4627441979789</v>
+        <v>0.463083564522251</v>
       </c>
       <c r="D308" t="n">
-        <v>1.28496800838478</v>
+        <v>1.33081282527377</v>
       </c>
       <c r="E308" t="n">
-        <v>0.725613305685101</v>
+        <v>0.730144448650522</v>
       </c>
       <c r="F308" t="s">
         <v>28</v>
@@ -6629,13 +6629,13 @@
         <v>11</v>
       </c>
       <c r="C309" t="n">
-        <v>0.853382414733846</v>
+        <v>0.853789542419559</v>
       </c>
       <c r="D309" t="n">
-        <v>0.631835299070564</v>
+        <v>0.627151870828764</v>
       </c>
       <c r="E309" t="n">
-        <v>0.858303929123956</v>
+        <v>0.857963988958584</v>
       </c>
       <c r="F309" t="s">
         <v>28</v>
@@ -7049,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>10.152584971192</v>
+        <v>10.1885224086692</v>
       </c>
       <c r="D330" t="n">
-        <v>10.3306442467911</v>
+        <v>10.1467545406083</v>
       </c>
       <c r="E330" t="n">
-        <v>10.1849593849373</v>
+        <v>10.1809282508399</v>
       </c>
       <c r="F330" t="s">
         <v>29</v>
@@ -7069,13 +7069,13 @@
         <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>3649.79844357848</v>
+        <v>3679.00825690806</v>
       </c>
       <c r="D331" t="n">
-        <v>3199.75925449507</v>
+        <v>3132.44217616292</v>
       </c>
       <c r="E331" t="n">
-        <v>3572.19281626318</v>
+        <v>3585.8345518238</v>
       </c>
       <c r="F331" t="s">
         <v>29</v>
@@ -7089,13 +7089,13 @@
         <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.412346184721741</v>
+        <v>0.415574731943501</v>
       </c>
       <c r="D332" t="n">
-        <v>0.432501887228862</v>
+        <v>0.424965954297891</v>
       </c>
       <c r="E332" t="n">
-        <v>0.428871192134848</v>
+        <v>0.428339456811304</v>
       </c>
       <c r="F332" t="s">
         <v>29</v>
@@ -7109,13 +7109,13 @@
         <v>11</v>
       </c>
       <c r="C333" t="n">
-        <v>0.933080371215247</v>
+        <v>0.933037315827638</v>
       </c>
       <c r="D333" t="n">
-        <v>0.909366740254397</v>
+        <v>0.908964146277047</v>
       </c>
       <c r="E333" t="n">
-        <v>0.927423524370272</v>
+        <v>0.927985750209156</v>
       </c>
       <c r="F333" t="s">
         <v>29</v>
@@ -7529,13 +7529,13 @@
         <v>7</v>
       </c>
       <c r="C354" t="n">
-        <v>13.0591749844387</v>
+        <v>13.0693892064486</v>
       </c>
       <c r="D354" t="n">
-        <v>18.7826266664519</v>
+        <v>18.7072801912613</v>
       </c>
       <c r="E354" t="n">
-        <v>14.0998025629866</v>
+        <v>14.0944602945963</v>
       </c>
       <c r="F354" t="s">
         <v>30</v>
@@ -7549,13 +7549,13 @@
         <v>9</v>
       </c>
       <c r="C355" t="n">
-        <v>679.195011601294</v>
+        <v>680.147240278445</v>
       </c>
       <c r="D355" t="n">
-        <v>1233.04670650479</v>
+        <v>1231.46051081753</v>
       </c>
       <c r="E355" t="n">
-        <v>808.621786796485</v>
+        <v>808.837122357065</v>
       </c>
       <c r="F355" t="s">
         <v>30</v>
@@ -7569,13 +7569,13 @@
         <v>10</v>
       </c>
       <c r="C356" t="n">
-        <v>0.282838395705402</v>
+        <v>0.282982825321461</v>
       </c>
       <c r="D356" t="n">
-        <v>0.446066399736897</v>
+        <v>0.443082027329783</v>
       </c>
       <c r="E356" t="n">
-        <v>0.344440492252457</v>
+        <v>0.343642004377709</v>
       </c>
       <c r="F356" t="s">
         <v>30</v>
@@ -7589,13 +7589,13 @@
         <v>11</v>
       </c>
       <c r="C357" t="n">
-        <v>0.943804529200853</v>
+        <v>0.943421440221012</v>
       </c>
       <c r="D357" t="n">
-        <v>0.896187489810256</v>
+        <v>0.89488606687564</v>
       </c>
       <c r="E357" t="n">
-        <v>0.931198690726648</v>
+        <v>0.930878210925794</v>
       </c>
       <c r="F357" t="s">
         <v>30</v>
@@ -8009,13 +8009,13 @@
         <v>7</v>
       </c>
       <c r="C378" t="n">
-        <v>13.8819379251081</v>
+        <v>13.8676596659512</v>
       </c>
       <c r="D378" t="n">
-        <v>62.1868413459306</v>
+        <v>62.1439595731077</v>
       </c>
       <c r="E378" t="n">
-        <v>18.7124282671903</v>
+        <v>18.6952896566669</v>
       </c>
       <c r="F378" t="s">
         <v>31</v>
@@ -8029,13 +8029,13 @@
         <v>9</v>
       </c>
       <c r="C379" t="n">
-        <v>977.632699389177</v>
+        <v>962.138963049277</v>
       </c>
       <c r="D379" t="n">
-        <v>246.489335338643</v>
+        <v>246.444890319307</v>
       </c>
       <c r="E379" t="n">
-        <v>930.733487453332</v>
+        <v>916.086106319834</v>
       </c>
       <c r="F379" t="s">
         <v>31</v>
@@ -8049,13 +8049,13 @@
         <v>10</v>
       </c>
       <c r="C380" t="n">
-        <v>0.329651854810316</v>
+        <v>0.32656102032301</v>
       </c>
       <c r="D380" t="n">
-        <v>2.98803371137638</v>
+        <v>2.99190455029875</v>
       </c>
       <c r="E380" t="n">
-        <v>0.341392446710587</v>
+        <v>0.338998399788357</v>
       </c>
       <c r="F380" t="s">
         <v>31</v>
@@ -8069,13 +8069,13 @@
         <v>11</v>
       </c>
       <c r="C381" t="n">
-        <v>0.94290006558475</v>
+        <v>0.945030354494546</v>
       </c>
       <c r="D381" t="n">
-        <v>0.225287340387993</v>
+        <v>0.225265140076411</v>
       </c>
       <c r="E381" t="n">
-        <v>0.944169090505354</v>
+        <v>0.946223137072844</v>
       </c>
       <c r="F381" t="s">
         <v>31</v>
@@ -8489,13 +8489,13 @@
         <v>7</v>
       </c>
       <c r="C402" t="n">
-        <v>11.5261186161159</v>
+        <v>11.4375163674871</v>
       </c>
       <c r="D402" t="n">
-        <v>73.671807314847</v>
+        <v>69.5465182339915</v>
       </c>
       <c r="E402" t="n">
-        <v>22.8253347431579</v>
+        <v>22.0027894341243</v>
       </c>
       <c r="F402" t="s">
         <v>32</v>
@@ -8509,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="C403" t="n">
-        <v>50.9110024230448</v>
+        <v>50.9466847199395</v>
       </c>
       <c r="D403" t="n">
-        <v>1510.4536820188</v>
+        <v>1470.03465693591</v>
       </c>
       <c r="E403" t="n">
-        <v>645.703845889246</v>
+        <v>628.516570067309</v>
       </c>
       <c r="F403" t="s">
         <v>32</v>
@@ -8529,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="C404" t="n">
-        <v>0.444214443641825</v>
+        <v>0.442857046990862</v>
       </c>
       <c r="D404" t="n">
-        <v>9.16140114808982</v>
+        <v>8.94288791877283</v>
       </c>
       <c r="E404" t="n">
-        <v>3.36702383075189</v>
+        <v>3.26392763993683</v>
       </c>
       <c r="F404" t="s">
         <v>32</v>
@@ -8549,13 +8549,13 @@
         <v>11</v>
       </c>
       <c r="C405" t="n">
-        <v>0.972318671022811</v>
+        <v>0.972285339425594</v>
       </c>
       <c r="D405" t="n">
-        <v>0.891376600272256</v>
+        <v>0.919371302741958</v>
       </c>
       <c r="E405" t="n">
-        <v>0.770486578279762</v>
+        <v>0.793532491182378</v>
       </c>
       <c r="F405" t="s">
         <v>32</v>
@@ -8969,13 +8969,13 @@
         <v>7</v>
       </c>
       <c r="C426" t="n">
-        <v>8.9018695341362</v>
+        <v>8.87115871681131</v>
       </c>
       <c r="D426" t="n">
-        <v>10.7618443559604</v>
+        <v>10.6969919209429</v>
       </c>
       <c r="E426" t="n">
-        <v>9.24004677446788</v>
+        <v>9.20312839028978</v>
       </c>
       <c r="F426" t="s">
         <v>33</v>
@@ -8989,13 +8989,13 @@
         <v>9</v>
       </c>
       <c r="C427" t="n">
-        <v>385.63498920517</v>
+        <v>383.886206762591</v>
       </c>
       <c r="D427" t="n">
-        <v>432.811959665884</v>
+        <v>431.130245684975</v>
       </c>
       <c r="E427" t="n">
-        <v>394.632336249726</v>
+        <v>392.898802049576</v>
       </c>
       <c r="F427" t="s">
         <v>33</v>
@@ -9009,13 +9009,13 @@
         <v>10</v>
       </c>
       <c r="C428" t="n">
-        <v>0.346792637636578</v>
+        <v>0.345944587031996</v>
       </c>
       <c r="D428" t="n">
-        <v>0.541788703774367</v>
+        <v>0.537102560694727</v>
       </c>
       <c r="E428" t="n">
-        <v>0.400066653319385</v>
+        <v>0.398085784574452</v>
       </c>
       <c r="F428" t="s">
         <v>33</v>
@@ -9029,13 +9029,13 @@
         <v>11</v>
       </c>
       <c r="C429" t="n">
-        <v>0.953592590039995</v>
+        <v>0.954018962773489</v>
       </c>
       <c r="D429" t="n">
-        <v>0.919349431863047</v>
+        <v>0.918529988013806</v>
       </c>
       <c r="E429" t="n">
-        <v>0.947228069412559</v>
+        <v>0.947681291846598</v>
       </c>
       <c r="F429" t="s">
         <v>33</v>
@@ -9449,13 +9449,13 @@
         <v>7</v>
       </c>
       <c r="C450" t="n">
-        <v>8.04211178083872</v>
+        <v>7.92168834940828</v>
       </c>
       <c r="D450" t="n">
-        <v>20.1067360129613</v>
+        <v>19.7214630415733</v>
       </c>
       <c r="E450" t="n">
-        <v>10.2356798230428</v>
+        <v>10.0671019298019</v>
       </c>
       <c r="F450" t="s">
         <v>34</v>
@@ -9469,13 +9469,13 @@
         <v>9</v>
       </c>
       <c r="C451" t="n">
-        <v>130.800802855468</v>
+        <v>127.493421743306</v>
       </c>
       <c r="D451" t="n">
-        <v>274.30245801964</v>
+        <v>266.810545308376</v>
       </c>
       <c r="E451" t="n">
-        <v>166.368519530903</v>
+        <v>161.995198432169</v>
       </c>
       <c r="F451" t="s">
         <v>34</v>
@@ -9489,13 +9489,13 @@
         <v>10</v>
       </c>
       <c r="C452" t="n">
-        <v>0.262321912429379</v>
+        <v>0.257441257007976</v>
       </c>
       <c r="D452" t="n">
-        <v>0.609324616582576</v>
+        <v>0.601725506637445</v>
       </c>
       <c r="E452" t="n">
-        <v>0.328096007075708</v>
+        <v>0.321787344559026</v>
       </c>
       <c r="F452" t="s">
         <v>34</v>
@@ -9509,13 +9509,13 @@
         <v>11</v>
       </c>
       <c r="C453" t="n">
-        <v>0.932532380310407</v>
+        <v>0.936035848454535</v>
       </c>
       <c r="D453" t="n">
-        <v>0.845197762466269</v>
+        <v>0.844188875605634</v>
       </c>
       <c r="E453" t="n">
-        <v>0.889314736995812</v>
+        <v>0.894469855888337</v>
       </c>
       <c r="F453" t="s">
         <v>34</v>
@@ -9929,13 +9929,13 @@
         <v>7</v>
       </c>
       <c r="C474" t="n">
-        <v>48.8109407496515</v>
+        <v>48.6207152592807</v>
       </c>
       <c r="D474" t="n">
-        <v>69.2969787504286</v>
+        <v>69.7793723612427</v>
       </c>
       <c r="E474" t="n">
-        <v>52.5356749316109</v>
+        <v>52.4677438232738</v>
       </c>
       <c r="F474" t="s">
         <v>35</v>
@@ -9949,13 +9949,13 @@
         <v>9</v>
       </c>
       <c r="C475" t="n">
-        <v>2656.66408481891</v>
+        <v>2582.23125246828</v>
       </c>
       <c r="D475" t="n">
-        <v>1488.88298032544</v>
+        <v>1474.06653848564</v>
       </c>
       <c r="E475" t="n">
-        <v>2485.49101778348</v>
+        <v>2418.8090324632</v>
       </c>
       <c r="F475" t="s">
         <v>35</v>
@@ -9969,13 +9969,13 @@
         <v>10</v>
       </c>
       <c r="C476" t="n">
-        <v>0.658032249418159</v>
+        <v>0.650895632283853</v>
       </c>
       <c r="D476" t="n">
-        <v>1.67143781617732</v>
+        <v>1.60189121556182</v>
       </c>
       <c r="E476" t="n">
-        <v>1.86754856184174</v>
+        <v>1.73271875370555</v>
       </c>
       <c r="F476" t="s">
         <v>35</v>
@@ -9989,13 +9989,13 @@
         <v>11</v>
       </c>
       <c r="C477" t="n">
-        <v>0.510418816937303</v>
+        <v>0.60363636604293</v>
       </c>
       <c r="D477" t="n">
-        <v>0.620589260524074</v>
+        <v>0.624871624043263</v>
       </c>
       <c r="E477" t="n">
-        <v>0.496678427831793</v>
+        <v>0.574768585081503</v>
       </c>
       <c r="F477" t="s">
         <v>35</v>
@@ -10409,13 +10409,13 @@
         <v>7</v>
       </c>
       <c r="C498" t="n">
-        <v>11.4855068134705</v>
+        <v>11.5192308069688</v>
       </c>
       <c r="D498" t="n">
-        <v>13.07450475908</v>
+        <v>13.113237331868</v>
       </c>
       <c r="E498" t="n">
-        <v>11.7744155308541</v>
+        <v>11.8090501751323</v>
       </c>
       <c r="F498" t="s">
         <v>36</v>
@@ -10429,13 +10429,13 @@
         <v>9</v>
       </c>
       <c r="C499" t="n">
-        <v>118.635182900952</v>
+        <v>118.883326659732</v>
       </c>
       <c r="D499" t="n">
-        <v>36.2854915244338</v>
+        <v>36.3926399230503</v>
       </c>
       <c r="E499" t="n">
-        <v>108.41923403153</v>
+        <v>108.64791204131</v>
       </c>
       <c r="F499" t="s">
         <v>36</v>
@@ -10449,13 +10449,13 @@
         <v>10</v>
       </c>
       <c r="C500" t="n">
-        <v>0.559273498545576</v>
+        <v>0.562213914503551</v>
       </c>
       <c r="D500" t="n">
-        <v>1.62778915380305</v>
+        <v>1.61743042574082</v>
       </c>
       <c r="E500" t="n">
-        <v>0.662232602329305</v>
+        <v>0.667546333587222</v>
       </c>
       <c r="F500" t="s">
         <v>36</v>
@@ -10469,13 +10469,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="n">
-        <v>0.923168502036821</v>
+        <v>0.922951990321312</v>
       </c>
       <c r="D501" t="n">
-        <v>0.124496577916704</v>
+        <v>0.125560492491965</v>
       </c>
       <c r="E501" t="n">
-        <v>0.924664873876299</v>
+        <v>0.924437513536638</v>
       </c>
       <c r="F501" t="s">
         <v>36</v>
@@ -10889,13 +10889,13 @@
         <v>7</v>
       </c>
       <c r="C522" t="n">
-        <v>15.3676415562319</v>
+        <v>15.3646403644961</v>
       </c>
       <c r="D522" t="n">
-        <v>35.5256150681048</v>
+        <v>36.3325705799699</v>
       </c>
       <c r="E522" t="n">
-        <v>19.0327276492997</v>
+        <v>19.176991312764</v>
       </c>
       <c r="F522" t="s">
         <v>37</v>
@@ -10909,13 +10909,13 @@
         <v>9</v>
       </c>
       <c r="C523" t="n">
-        <v>96.4262403912887</v>
+        <v>96.6287809362075</v>
       </c>
       <c r="D523" t="n">
-        <v>185.265139224012</v>
+        <v>193.75431062179</v>
       </c>
       <c r="E523" t="n">
-        <v>117.6777271532</v>
+        <v>120.270739098392</v>
       </c>
       <c r="F523" t="s">
         <v>37</v>
@@ -10929,13 +10929,13 @@
         <v>10</v>
       </c>
       <c r="C524" t="n">
-        <v>0.580536306930052</v>
+        <v>0.581217201144713</v>
       </c>
       <c r="D524" t="n">
-        <v>2.06210681634611</v>
+        <v>2.09107132872877</v>
       </c>
       <c r="E524" t="n">
-        <v>1.33403114737609</v>
+        <v>1.33923791384149</v>
       </c>
       <c r="F524" t="s">
         <v>37</v>
@@ -10949,13 +10949,13 @@
         <v>11</v>
       </c>
       <c r="C525" t="n">
-        <v>0.641395055335802</v>
+        <v>0.638160255485203</v>
       </c>
       <c r="D525" t="n">
-        <v>0.437847748787848</v>
+        <v>0.337250295587432</v>
       </c>
       <c r="E525" t="n">
-        <v>0.412755091376162</v>
+        <v>0.400089863781883</v>
       </c>
       <c r="F525" t="s">
         <v>37</v>
@@ -11369,13 +11369,13 @@
         <v>7</v>
       </c>
       <c r="C546" t="n">
-        <v>23.2293682400492</v>
+        <v>23.2308703243434</v>
       </c>
       <c r="D546" t="n">
-        <v>30.6058094547877</v>
+        <v>30.5348693712824</v>
       </c>
       <c r="E546" t="n">
-        <v>24.5807773175585</v>
+        <v>24.569007554317</v>
       </c>
       <c r="F546" t="s">
         <v>38</v>
@@ -11389,13 +11389,13 @@
         <v>9</v>
       </c>
       <c r="C547" t="n">
-        <v>78.1791479621222</v>
+        <v>78.3017759436758</v>
       </c>
       <c r="D547" t="n">
-        <v>29.8533281304284</v>
+        <v>30.2064422149379</v>
       </c>
       <c r="E547" t="n">
-        <v>71.8018414280462</v>
+        <v>71.9379125875101</v>
       </c>
       <c r="F547" t="s">
         <v>38</v>
@@ -11409,13 +11409,13 @@
         <v>10</v>
       </c>
       <c r="C548" t="n">
-        <v>1.18801207953708</v>
+        <v>1.18894413390044</v>
       </c>
       <c r="D548" t="n">
-        <v>3.28224193855798</v>
+        <v>3.31391470392036</v>
       </c>
       <c r="E548" t="n">
-        <v>1.19206501719413</v>
+        <v>1.19047634435539</v>
       </c>
       <c r="F548" t="s">
         <v>38</v>
@@ -11429,13 +11429,13 @@
         <v>11</v>
       </c>
       <c r="C549" t="n">
-        <v>0.567408680857042</v>
+        <v>0.567440001333048</v>
       </c>
       <c r="D549" t="n">
-        <v>0.816952079645919</v>
+        <v>0.796712708852678</v>
       </c>
       <c r="E549" t="n">
-        <v>0.594480447242449</v>
+        <v>0.594773217013729</v>
       </c>
       <c r="F549" t="s">
         <v>38</v>
@@ -11849,13 +11849,13 @@
         <v>7</v>
       </c>
       <c r="C570" t="n">
-        <v>46.5586180401169</v>
+        <v>46.6695363588063</v>
       </c>
       <c r="D570" t="n">
-        <v>61.2672538764917</v>
+        <v>61.365706406569</v>
       </c>
       <c r="E570" t="n">
-        <v>49.2329154649123</v>
+        <v>49.3415672765813</v>
       </c>
       <c r="F570" t="s">
         <v>39</v>
@@ -11869,13 +11869,13 @@
         <v>9</v>
       </c>
       <c r="C571" t="n">
-        <v>138.320562454644</v>
+        <v>138.154235063287</v>
       </c>
       <c r="D571" t="n">
-        <v>120.482958943772</v>
+        <v>120.424794450005</v>
       </c>
       <c r="E571" t="n">
-        <v>135.252453774284</v>
+        <v>135.103864499587</v>
       </c>
       <c r="F571" t="s">
         <v>39</v>
@@ -11889,13 +11889,13 @@
         <v>10</v>
       </c>
       <c r="C572" t="n">
-        <v>0.385784031175454</v>
+        <v>0.386095472885672</v>
       </c>
       <c r="D572" t="n">
-        <v>0.687552396690246</v>
+        <v>0.69010741115372</v>
       </c>
       <c r="E572" t="n">
-        <v>0.465231453169028</v>
+        <v>0.464347935097108</v>
       </c>
       <c r="F572" t="s">
         <v>39</v>
@@ -11909,13 +11909,13 @@
         <v>11</v>
       </c>
       <c r="C573" t="n">
-        <v>0.819526120367504</v>
+        <v>0.819549951488473</v>
       </c>
       <c r="D573" t="n">
-        <v>0.656414140311477</v>
+        <v>0.656872924944683</v>
       </c>
       <c r="E573" t="n">
-        <v>0.806267524396406</v>
+        <v>0.80635294857139</v>
       </c>
       <c r="F573" t="s">
         <v>39</v>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuxmueducn-my.sharepoint.com/personal/kanggle_stu_xmu_edu_cn/Documents/XMU/likangguo/2022/11 COVID_impact_luoli/code_PHSM/outcome/appendix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C4CDBFBB4646B645A825414B885FFFCA974779B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF86A58-800D-440B-ADD1-01EA7DC37514}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_83355CB94646B645A825410C301FFDC09747C93D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3813C44-6539-4B26-8AE3-9F86F6445231}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table 2'!$A$1:$AH$385</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Table 3'!$A$1:$J$97</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -258,7 +258,7 @@
     <t>forecast</t>
   </si>
   <si>
-    <t>value</t>
+    <t>actual</t>
   </si>
   <si>
     <t>diff</t>
@@ -12216,12 +12216,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:XFD267"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -12329,7 +12326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -12537,7 +12534,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -12641,7 +12638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -12745,7 +12742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -12849,7 +12846,7 @@
         <v>12901</v>
       </c>
     </row>
-    <row r="7" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -12953,7 +12950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -13057,7 +13054,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="9" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -13161,7 +13158,7 @@
         <v>21608</v>
       </c>
     </row>
-    <row r="10" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -13265,7 +13262,7 @@
         <v>36720</v>
       </c>
     </row>
-    <row r="11" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -13369,7 +13366,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2008</v>
       </c>
@@ -13473,7 +13470,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="13" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -13577,7 +13574,7 @@
         <v>34301</v>
       </c>
     </row>
-    <row r="14" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -13681,7 +13678,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="15" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -13785,7 +13782,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="16" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -13889,7 +13886,7 @@
         <v>100470</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -13993,7 +13990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2008</v>
       </c>
@@ -14097,7 +14094,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2008</v>
       </c>
@@ -14201,7 +14198,7 @@
         <v>28248</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -14305,7 +14302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -14409,7 +14406,7 @@
         <v>19164</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2008</v>
       </c>
@@ -14513,7 +14510,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2008</v>
       </c>
@@ -14617,7 +14614,7 @@
         <v>35008</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -14721,7 +14718,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2008</v>
       </c>
@@ -14825,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2009</v>
       </c>
@@ -15033,7 +15030,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2009</v>
       </c>
@@ -15137,7 +15134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2009</v>
       </c>
@@ -15241,7 +15238,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2009</v>
       </c>
@@ -15345,7 +15342,7 @@
         <v>6731</v>
       </c>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2009</v>
       </c>
@@ -15449,7 +15446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -15553,7 +15550,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2009</v>
       </c>
@@ -15657,7 +15654,7 @@
         <v>19736</v>
       </c>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -15761,7 +15758,7 @@
         <v>69501</v>
       </c>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2009</v>
       </c>
@@ -15865,7 +15862,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>2009</v>
       </c>
@@ -15969,7 +15966,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2009</v>
       </c>
@@ -16073,7 +16070,7 @@
         <v>33193</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2009</v>
       </c>
@@ -16177,7 +16174,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2009</v>
       </c>
@@ -16281,7 +16278,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -16385,7 +16382,7 @@
         <v>80104</v>
       </c>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2009</v>
       </c>
@@ -16489,7 +16486,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2009</v>
       </c>
@@ -16593,7 +16590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2009</v>
       </c>
@@ -16697,7 +16694,7 @@
         <v>22629</v>
       </c>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>2009</v>
       </c>
@@ -16801,7 +16798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2009</v>
       </c>
@@ -16905,7 +16902,7 @@
         <v>8203</v>
       </c>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2009</v>
       </c>
@@ -17009,7 +17006,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2009</v>
       </c>
@@ -17113,7 +17110,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>2009</v>
       </c>
@@ -17217,7 +17214,7 @@
         <v>36560</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2009</v>
       </c>
@@ -17321,7 +17318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>2010</v>
       </c>
@@ -17529,7 +17526,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>2010</v>
       </c>
@@ -17633,7 +17630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -17737,7 +17734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -17841,7 +17838,7 @@
         <v>6859</v>
       </c>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -17945,7 +17942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>2010</v>
       </c>
@@ -18049,7 +18046,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>2010</v>
       </c>
@@ -18153,7 +18150,7 @@
         <v>17712</v>
       </c>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>2010</v>
       </c>
@@ -18257,7 +18254,7 @@
         <v>113444</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>2010</v>
       </c>
@@ -18361,7 +18358,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>2010</v>
       </c>
@@ -18465,7 +18462,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>2010</v>
       </c>
@@ -18569,7 +18566,7 @@
         <v>33838</v>
       </c>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>2010</v>
       </c>
@@ -18673,7 +18670,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>2010</v>
       </c>
@@ -18777,7 +18774,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>2010</v>
       </c>
@@ -18881,7 +18878,7 @@
         <v>98386</v>
       </c>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>2010</v>
       </c>
@@ -18985,7 +18982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>2010</v>
       </c>
@@ -19089,7 +19086,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>2010</v>
       </c>
@@ -19193,7 +19190,7 @@
         <v>21081</v>
       </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>2010</v>
       </c>
@@ -19297,7 +19294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>2010</v>
       </c>
@@ -19401,7 +19398,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2010</v>
       </c>
@@ -19505,7 +19502,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>2010</v>
       </c>
@@ -19609,7 +19606,7 @@
         <v>49156</v>
       </c>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>2010</v>
       </c>
@@ -19713,7 +19710,7 @@
         <v>33093</v>
       </c>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2010</v>
       </c>
@@ -19817,7 +19814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>2011</v>
       </c>
@@ -20025,7 +20022,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2011</v>
       </c>
@@ -20129,7 +20126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>2011</v>
       </c>
@@ -20233,7 +20230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -20337,7 +20334,7 @@
         <v>5783</v>
       </c>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2011</v>
       </c>
@@ -20441,7 +20438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>2011</v>
       </c>
@@ -20545,7 +20542,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>2011</v>
       </c>
@@ -20649,7 +20646,7 @@
         <v>15640</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2011</v>
       </c>
@@ -20753,7 +20750,7 @@
         <v>87153</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>2011</v>
       </c>
@@ -20857,7 +20854,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>2011</v>
       </c>
@@ -20961,7 +20958,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2011</v>
       </c>
@@ -21065,7 +21062,7 @@
         <v>30454</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>2011</v>
       </c>
@@ -21169,7 +21166,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>2011</v>
       </c>
@@ -21273,7 +21270,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2011</v>
       </c>
@@ -21377,7 +21374,7 @@
         <v>111257</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>2011</v>
       </c>
@@ -21481,7 +21478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>2011</v>
       </c>
@@ -21585,7 +21582,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2011</v>
       </c>
@@ -21689,7 +21686,7 @@
         <v>19423</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>2011</v>
       </c>
@@ -21793,7 +21790,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>2011</v>
       </c>
@@ -21897,7 +21894,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2011</v>
       </c>
@@ -22001,7 +21998,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>2011</v>
       </c>
@@ -22105,7 +22102,7 @@
         <v>43514</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>2011</v>
       </c>
@@ -22209,7 +22206,7 @@
         <v>32414</v>
       </c>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2011</v>
       </c>
@@ -22313,7 +22310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>2012</v>
       </c>
@@ -22521,7 +22518,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2012</v>
       </c>
@@ -22625,7 +22622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>2012</v>
       </c>
@@ -22729,7 +22726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>2012</v>
       </c>
@@ -22833,7 +22830,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>2012</v>
       </c>
@@ -22937,7 +22934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>2012</v>
       </c>
@@ -23041,7 +23038,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>2012</v>
       </c>
@@ -23145,7 +23142,7 @@
         <v>13938</v>
       </c>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>2012</v>
       </c>
@@ -23249,7 +23246,7 @@
         <v>147841</v>
       </c>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>2012</v>
       </c>
@@ -23353,7 +23350,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>2012</v>
       </c>
@@ -23457,7 +23454,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>2012</v>
       </c>
@@ -23561,7 +23558,7 @@
         <v>18129</v>
       </c>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>2012</v>
       </c>
@@ -23665,7 +23662,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>2012</v>
       </c>
@@ -23769,7 +23766,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>2012</v>
       </c>
@@ -23873,7 +23870,7 @@
         <v>106023</v>
       </c>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -23977,7 +23974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>2012</v>
       </c>
@@ -24081,7 +24078,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>2012</v>
       </c>
@@ -24185,7 +24182,7 @@
         <v>19742</v>
       </c>
     </row>
-    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>2012</v>
       </c>
@@ -24289,7 +24286,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>2012</v>
       </c>
@@ -24393,7 +24390,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>2012</v>
       </c>
@@ -24497,7 +24494,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>2012</v>
       </c>
@@ -24601,7 +24598,7 @@
         <v>34168</v>
       </c>
     </row>
-    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>2012</v>
       </c>
@@ -24705,7 +24702,7 @@
         <v>32154</v>
       </c>
     </row>
-    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>2012</v>
       </c>
@@ -24809,7 +24806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>2013</v>
       </c>
@@ -25017,7 +25014,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>2013</v>
       </c>
@@ -25121,7 +25118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>2013</v>
       </c>
@@ -25225,7 +25222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>2013</v>
       </c>
@@ -25329,7 +25326,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>2013</v>
       </c>
@@ -25433,7 +25430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>2013</v>
       </c>
@@ -25537,7 +25534,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>2013</v>
       </c>
@@ -25641,7 +25638,7 @@
         <v>15182</v>
       </c>
     </row>
-    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>2013</v>
       </c>
@@ -25745,7 +25742,7 @@
         <v>108532</v>
       </c>
     </row>
-    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>2013</v>
       </c>
@@ -25849,7 +25846,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>2013</v>
       </c>
@@ -25953,7 +25950,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>2013</v>
       </c>
@@ -26057,7 +26054,7 @@
         <v>13962</v>
       </c>
     </row>
-    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>2013</v>
       </c>
@@ -26161,7 +26158,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>2013</v>
       </c>
@@ -26265,7 +26262,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>2013</v>
       </c>
@@ -26369,7 +26366,7 @@
         <v>118939</v>
       </c>
     </row>
-    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>2013</v>
       </c>
@@ -26473,7 +26470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>2013</v>
       </c>
@@ -26577,7 +26574,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>2013</v>
       </c>
@@ -26681,7 +26678,7 @@
         <v>13651</v>
       </c>
     </row>
-    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>2013</v>
       </c>
@@ -26785,7 +26782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>2013</v>
       </c>
@@ -26889,7 +26886,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>2013</v>
       </c>
@@ -26993,7 +26990,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>2013</v>
       </c>
@@ -27097,7 +27094,7 @@
         <v>31821</v>
       </c>
     </row>
-    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>2013</v>
       </c>
@@ -27201,7 +27198,7 @@
         <v>29027</v>
       </c>
     </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>2013</v>
       </c>
@@ -27305,7 +27302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>2014</v>
       </c>
@@ -27513,7 +27510,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>2014</v>
       </c>
@@ -27617,7 +27614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>2014</v>
       </c>
@@ -27721,7 +27718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>2014</v>
       </c>
@@ -27825,7 +27822,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>2014</v>
       </c>
@@ -27929,7 +27926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>2014</v>
       </c>
@@ -28033,7 +28030,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>2014</v>
       </c>
@@ -28137,7 +28134,7 @@
         <v>15279</v>
       </c>
     </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>2014</v>
       </c>
@@ -28241,7 +28238,7 @@
         <v>212536</v>
       </c>
     </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>2014</v>
       </c>
@@ -28345,7 +28342,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>2014</v>
       </c>
@@ -28449,7 +28446,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>2014</v>
       </c>
@@ -28553,7 +28550,7 @@
         <v>13734</v>
       </c>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>2014</v>
       </c>
@@ -28657,7 +28654,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>2014</v>
       </c>
@@ -28761,7 +28758,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>2014</v>
       </c>
@@ -28865,7 +28862,7 @@
         <v>102623</v>
       </c>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>2014</v>
       </c>
@@ -28969,7 +28966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>2014</v>
       </c>
@@ -29073,7 +29070,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -29177,7 +29174,7 @@
         <v>8922</v>
       </c>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>2014</v>
       </c>
@@ -29281,7 +29278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>2014</v>
       </c>
@@ -29385,7 +29382,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>2014</v>
       </c>
@@ -29489,7 +29486,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>2014</v>
       </c>
@@ -29593,7 +29590,7 @@
         <v>33257</v>
       </c>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>2014</v>
       </c>
@@ -29697,7 +29694,7 @@
         <v>29717</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>2014</v>
       </c>
@@ -29801,7 +29798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>2015</v>
       </c>
@@ -30009,7 +30006,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>2015</v>
       </c>
@@ -30113,7 +30110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>2015</v>
       </c>
@@ -30217,7 +30214,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>2015</v>
       </c>
@@ -30321,7 +30318,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>2015</v>
       </c>
@@ -30425,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>2015</v>
       </c>
@@ -30529,7 +30526,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>2015</v>
       </c>
@@ -30633,7 +30630,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>2015</v>
       </c>
@@ -30737,7 +30734,7 @@
         <v>100218</v>
       </c>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>2015</v>
       </c>
@@ -30841,7 +30838,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>2015</v>
       </c>
@@ -30945,7 +30942,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>2015</v>
       </c>
@@ -31049,7 +31046,7 @@
         <v>12980</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>2015</v>
       </c>
@@ -31153,7 +31150,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>2015</v>
       </c>
@@ -31257,7 +31254,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>2015</v>
       </c>
@@ -31361,7 +31358,7 @@
         <v>96157</v>
       </c>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>2015</v>
       </c>
@@ -31465,7 +31462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>2015</v>
       </c>
@@ -31569,7 +31566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>2015</v>
       </c>
@@ -31673,7 +31670,7 @@
         <v>7485</v>
       </c>
     </row>
-    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>2015</v>
       </c>
@@ -31777,7 +31774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>2015</v>
       </c>
@@ -31881,7 +31878,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>2015</v>
       </c>
@@ -31985,7 +31982,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>2015</v>
       </c>
@@ -32089,7 +32086,7 @@
         <v>32693</v>
       </c>
     </row>
-    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>2015</v>
       </c>
@@ -32193,7 +32190,7 @@
         <v>27982</v>
       </c>
     </row>
-    <row r="193" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>2015</v>
       </c>
@@ -32297,7 +32294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -32505,7 +32502,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="196" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -32609,7 +32606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -32713,7 +32710,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -32817,7 +32814,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="199" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -32921,7 +32918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -33025,7 +33022,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="201" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>2016</v>
       </c>
@@ -33129,7 +33126,7 @@
         <v>18141</v>
       </c>
     </row>
-    <row r="202" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>2016</v>
       </c>
@@ -33233,7 +33230,7 @@
         <v>186022</v>
       </c>
     </row>
-    <row r="203" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>2016</v>
       </c>
@@ -33337,7 +33334,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="204" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>2016</v>
       </c>
@@ -33441,7 +33438,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="205" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>2016</v>
       </c>
@@ -33545,7 +33542,7 @@
         <v>13869</v>
       </c>
     </row>
-    <row r="206" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>2016</v>
       </c>
@@ -33649,7 +33646,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="207" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>2016</v>
       </c>
@@ -33753,7 +33750,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="208" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>2016</v>
       </c>
@@ -33857,7 +33854,7 @@
         <v>102689</v>
       </c>
     </row>
-    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>2016</v>
       </c>
@@ -33961,7 +33958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>2016</v>
       </c>
@@ -34065,7 +34062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>2016</v>
       </c>
@@ -34169,7 +34166,7 @@
         <v>7034</v>
       </c>
     </row>
-    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>2016</v>
       </c>
@@ -34273,7 +34270,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>2016</v>
       </c>
@@ -34377,7 +34374,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>2016</v>
       </c>
@@ -34481,7 +34478,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>2016</v>
       </c>
@@ -34585,7 +34582,7 @@
         <v>34432</v>
       </c>
     </row>
-    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>2016</v>
       </c>
@@ -34689,7 +34686,7 @@
         <v>27018</v>
       </c>
     </row>
-    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>2016</v>
       </c>
@@ -34793,7 +34790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>2017</v>
       </c>
@@ -35001,7 +34998,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>2017</v>
       </c>
@@ -35105,7 +35102,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>2017</v>
       </c>
@@ -35209,7 +35206,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>2017</v>
       </c>
@@ -35313,7 +35310,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>2017</v>
       </c>
@@ -35417,7 +35414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>2017</v>
       </c>
@@ -35521,7 +35518,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>2017</v>
       </c>
@@ -35625,7 +35622,7 @@
         <v>21906</v>
       </c>
     </row>
-    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>2017</v>
       </c>
@@ -35729,7 +35726,7 @@
         <v>82416</v>
       </c>
     </row>
-    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>2017</v>
       </c>
@@ -35833,7 +35830,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>2017</v>
       </c>
@@ -35937,7 +35934,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>2017</v>
       </c>
@@ -36041,7 +36038,7 @@
         <v>15429</v>
       </c>
     </row>
-    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>2017</v>
       </c>
@@ -36145,7 +36142,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>2017</v>
       </c>
@@ -36249,7 +36246,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>2017</v>
       </c>
@@ -36353,7 +36350,7 @@
         <v>134842</v>
       </c>
     </row>
-    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>2017</v>
       </c>
@@ -36457,7 +36454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>2017</v>
       </c>
@@ -36561,7 +36558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>2017</v>
       </c>
@@ -36665,7 +36662,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>2017</v>
       </c>
@@ -36769,7 +36766,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>2017</v>
       </c>
@@ -36873,7 +36870,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>2017</v>
       </c>
@@ -36977,7 +36974,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>2017</v>
       </c>
@@ -37081,7 +37078,7 @@
         <v>35813</v>
       </c>
     </row>
-    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>2017</v>
       </c>
@@ -37185,7 +37182,7 @@
         <v>26575</v>
       </c>
     </row>
-    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>2017</v>
       </c>
@@ -37289,7 +37286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>2018</v>
       </c>
@@ -37497,7 +37494,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>2018</v>
       </c>
@@ -37601,7 +37598,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>2018</v>
       </c>
@@ -37705,7 +37702,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>2018</v>
       </c>
@@ -37809,7 +37806,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>2018</v>
       </c>
@@ -37913,7 +37910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>2018</v>
       </c>
@@ -38017,7 +38014,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>2018</v>
       </c>
@@ -38121,7 +38118,7 @@
         <v>17880</v>
       </c>
     </row>
-    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>2018</v>
       </c>
@@ -38225,7 +38222,7 @@
         <v>246659</v>
       </c>
     </row>
-    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>2018</v>
       </c>
@@ -38329,7 +38326,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>2018</v>
       </c>
@@ -38433,7 +38430,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="253" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>2018</v>
       </c>
@@ -38537,7 +38534,7 @@
         <v>14543</v>
       </c>
     </row>
-    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>2018</v>
       </c>
@@ -38641,7 +38638,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>2018</v>
       </c>
@@ -38745,7 +38742,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>2018</v>
       </c>
@@ -38849,7 +38846,7 @@
         <v>108079</v>
       </c>
     </row>
-    <row r="257" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>2018</v>
       </c>
@@ -38953,7 +38950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>2018</v>
       </c>
@@ -39057,7 +39054,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="259" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>2018</v>
       </c>
@@ -39161,7 +39158,7 @@
         <v>5657</v>
       </c>
     </row>
-    <row r="260" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>2018</v>
       </c>
@@ -39265,7 +39262,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="261" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>2018</v>
       </c>
@@ -39369,7 +39366,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="262" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>2018</v>
       </c>
@@ -39473,7 +39470,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="263" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>2018</v>
       </c>
@@ -39577,7 +39574,7 @@
         <v>31049</v>
       </c>
     </row>
-    <row r="264" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>2018</v>
       </c>
@@ -39681,7 +39678,7 @@
         <v>25601</v>
       </c>
     </row>
-    <row r="265" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>2018</v>
       </c>
@@ -39785,7 +39782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>2019</v>
       </c>
@@ -39993,7 +39990,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="268" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>2019</v>
       </c>
@@ -40097,7 +40094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>2019</v>
       </c>
@@ -40201,7 +40198,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="270" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>2019</v>
       </c>
@@ -40305,7 +40302,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="271" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>2019</v>
       </c>
@@ -40409,7 +40406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>2019</v>
       </c>
@@ -40513,7 +40510,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>2019</v>
       </c>
@@ -40617,7 +40614,7 @@
         <v>14271</v>
       </c>
     </row>
-    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>2019</v>
       </c>
@@ -40721,7 +40718,7 @@
         <v>126466</v>
       </c>
     </row>
-    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>2019</v>
       </c>
@@ -40825,7 +40822,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>2019</v>
       </c>
@@ -40929,7 +40926,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>2019</v>
       </c>
@@ -41033,7 +41030,7 @@
         <v>14225</v>
       </c>
     </row>
-    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>2019</v>
       </c>
@@ -41137,7 +41134,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>2019</v>
       </c>
@@ -41241,7 +41238,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>2019</v>
       </c>
@@ -41345,7 +41342,7 @@
         <v>121541</v>
       </c>
     </row>
-    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>2019</v>
       </c>
@@ -41449,7 +41446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>2019</v>
       </c>
@@ -41553,7 +41550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>2019</v>
       </c>
@@ -41657,7 +41654,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>2019</v>
       </c>
@@ -41761,7 +41758,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>2019</v>
       </c>
@@ -41865,7 +41862,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>2019</v>
       </c>
@@ -41969,7 +41966,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>2019</v>
       </c>
@@ -42073,7 +42070,7 @@
         <v>30708</v>
       </c>
     </row>
-    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>2019</v>
       </c>
@@ -42177,7 +42174,7 @@
         <v>26270</v>
       </c>
     </row>
-    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>2019</v>
       </c>
@@ -42281,7 +42278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>2020</v>
       </c>
@@ -42489,7 +42486,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>2020</v>
       </c>
@@ -42593,7 +42590,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>2020</v>
       </c>
@@ -42697,7 +42694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>2020</v>
       </c>
@@ -42801,7 +42798,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>2020</v>
       </c>
@@ -42905,7 +42902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>2020</v>
       </c>
@@ -43009,7 +43006,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="297" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>2020</v>
       </c>
@@ -43113,7 +43110,7 @@
         <v>13178</v>
       </c>
     </row>
-    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>2020</v>
       </c>
@@ -43217,7 +43214,7 @@
         <v>58288</v>
       </c>
     </row>
-    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>2020</v>
       </c>
@@ -43321,7 +43318,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>2020</v>
       </c>
@@ -43425,7 +43422,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>2020</v>
       </c>
@@ -43529,7 +43526,7 @@
         <v>12631</v>
       </c>
     </row>
-    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>2020</v>
       </c>
@@ -43633,7 +43630,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>2020</v>
       </c>
@@ -43737,7 +43734,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>2020</v>
       </c>
@@ -43841,7 +43838,7 @@
         <v>82067</v>
       </c>
     </row>
-    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>2020</v>
       </c>
@@ -43945,7 +43942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>2020</v>
       </c>
@@ -44049,7 +44046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>2020</v>
       </c>
@@ -44153,7 +44150,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>2020</v>
       </c>
@@ -44257,7 +44254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>2020</v>
       </c>
@@ -44361,7 +44358,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>2020</v>
       </c>
@@ -44465,7 +44462,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>2020</v>
       </c>
@@ -44569,7 +44566,7 @@
         <v>24201</v>
       </c>
     </row>
-    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>2020</v>
       </c>
@@ -44673,7 +44670,7 @@
         <v>24521</v>
       </c>
     </row>
-    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>2020</v>
       </c>
@@ -44777,7 +44774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>2021</v>
       </c>
@@ -44865,7 +44862,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>2021</v>
       </c>
@@ -44909,7 +44906,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>2021</v>
       </c>
@@ -44953,7 +44950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>2021</v>
       </c>
@@ -44997,7 +44994,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="319" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>2021</v>
       </c>
@@ -45041,7 +45038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>2021</v>
       </c>
@@ -45085,7 +45082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="321" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>2021</v>
       </c>
@@ -45129,7 +45126,7 @@
         <v>8011</v>
       </c>
     </row>
-    <row r="322" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>2021</v>
       </c>
@@ -45173,7 +45170,7 @@
         <v>66177</v>
       </c>
     </row>
-    <row r="323" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>2021</v>
       </c>
@@ -45217,7 +45214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="324" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>2021</v>
       </c>
@@ -45261,7 +45258,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="325" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>2021</v>
       </c>
@@ -45305,7 +45302,7 @@
         <v>9036</v>
       </c>
     </row>
-    <row r="326" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>2021</v>
       </c>
@@ -45349,7 +45346,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="327" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>2021</v>
       </c>
@@ -45393,7 +45390,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="328" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>2021</v>
       </c>
@@ -45437,7 +45434,7 @@
         <v>69333</v>
       </c>
     </row>
-    <row r="329" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>2021</v>
       </c>
@@ -45481,7 +45478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>2021</v>
       </c>
@@ -45525,7 +45522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>2021</v>
       </c>
@@ -45569,7 +45566,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="332" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>2021</v>
       </c>
@@ -45613,7 +45610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>2021</v>
       </c>
@@ -45657,7 +45654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>2021</v>
       </c>
@@ -45701,7 +45698,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="335" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>2021</v>
       </c>
@@ -45745,7 +45742,7 @@
         <v>15469</v>
       </c>
     </row>
-    <row r="336" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>2021</v>
       </c>
@@ -45789,7 +45786,7 @@
         <v>14953</v>
       </c>
     </row>
-    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>2021</v>
       </c>
@@ -45833,7 +45830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -45921,7 +45918,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="340" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -45965,7 +45962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="341" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -46009,7 +46006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -46053,7 +46050,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="343" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -46097,7 +46094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -46141,7 +46138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -46185,7 +46182,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="346" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -46229,7 +46226,7 @@
         <v>16461</v>
       </c>
     </row>
-    <row r="347" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -46273,7 +46270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="348" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -46317,7 +46314,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="349" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -46361,7 +46358,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="350" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -46405,7 +46402,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="351" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -46449,7 +46446,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="352" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -46493,7 +46490,7 @@
         <v>21389</v>
       </c>
     </row>
-    <row r="353" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -46537,7 +46534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -46581,7 +46578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -46625,7 +46622,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="356" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -46669,7 +46666,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="357" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -46713,7 +46710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -46757,7 +46754,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="359" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -46801,7 +46798,7 @@
         <v>7334</v>
       </c>
     </row>
-    <row r="360" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -46845,7 +46842,7 @@
         <v>6803</v>
       </c>
     </row>
-    <row r="361" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -46889,7 +46886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>2023</v>
       </c>
@@ -46977,7 +46974,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="364" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>2023</v>
       </c>
@@ -47021,7 +47018,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="365" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>2023</v>
       </c>
@@ -47065,7 +47062,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="366" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>2023</v>
       </c>
@@ -47109,7 +47106,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="367" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>2023</v>
       </c>
@@ -47153,7 +47150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>2023</v>
       </c>
@@ -47197,7 +47194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="369" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>2023</v>
       </c>
@@ -47241,7 +47238,7 @@
         <v>7921</v>
       </c>
     </row>
-    <row r="370" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>2023</v>
       </c>
@@ -47285,7 +47282,7 @@
         <v>104002</v>
       </c>
     </row>
-    <row r="371" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>2023</v>
       </c>
@@ -47329,7 +47326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="372" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>2023</v>
       </c>
@@ -47373,7 +47370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="373" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>2023</v>
       </c>
@@ -47417,7 +47414,7 @@
         <v>9262</v>
       </c>
     </row>
-    <row r="374" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>2023</v>
       </c>
@@ -47461,7 +47458,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="375" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>2023</v>
       </c>
@@ -47505,7 +47502,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="376" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>2023</v>
       </c>
@@ -47549,7 +47546,7 @@
         <v>50778</v>
       </c>
     </row>
-    <row r="377" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>2023</v>
       </c>
@@ -47593,7 +47590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>2023</v>
       </c>
@@ -47637,7 +47634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="379" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>2023</v>
       </c>
@@ -47681,7 +47678,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="380" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>2023</v>
       </c>
@@ -47725,7 +47722,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="381" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>2023</v>
       </c>
@@ -47769,7 +47766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>2023</v>
       </c>
@@ -47813,7 +47810,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="383" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>2023</v>
       </c>
@@ -47857,7 +47854,7 @@
         <v>14697</v>
       </c>
     </row>
-    <row r="384" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>2023</v>
       </c>
@@ -47901,7 +47898,7 @@
         <v>14167</v>
       </c>
     </row>
-    <row r="385" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>2023</v>
       </c>
@@ -47946,13 +47943,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH385" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AIDS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -47960,9 +47950,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -47998,7 +47991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -48030,7 +48023,7 @@
         <v>0.3926</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -48062,7 +48055,7 @@
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -48094,7 +48087,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -48126,7 +48119,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -48158,7 +48151,7 @@
         <v>0.64439999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -48190,7 +48183,7 @@
         <v>0.61609999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -48222,7 +48215,7 @@
         <v>0.54239999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -48286,7 +48279,7 @@
         <v>0.2893</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -48318,7 +48311,7 @@
         <v>0.65390000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -48350,7 +48343,7 @@
         <v>0.52680000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -48382,7 +48375,7 @@
         <v>0.72629999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -48414,7 +48407,7 @@
         <v>0.58840000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -48446,7 +48439,7 @@
         <v>0.71650000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -48478,7 +48471,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -48510,7 +48503,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -48542,7 +48535,7 @@
         <v>0.50860000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -48574,7 +48567,7 @@
         <v>0.2374</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -48606,7 +48599,7 @@
         <v>0.46870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -48638,7 +48631,7 @@
         <v>5.8599999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -48670,7 +48663,7 @@
         <v>9.3700000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -48702,7 +48695,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -48734,7 +48727,7 @@
         <v>0.79179999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -48766,7 +48759,7 @@
         <v>0.83020000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -48798,7 +48791,7 @@
         <v>0.85840000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -48830,7 +48823,7 @@
         <v>0.73980000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -48862,7 +48855,7 @@
         <v>0.85750000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -48894,7 +48887,7 @@
         <v>0.31819999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -48926,7 +48919,7 @@
         <v>0.87339999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -48958,7 +48951,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -48990,7 +48983,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -49054,7 +49047,7 @@
         <v>0.39789999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -49086,7 +49079,7 @@
         <v>0.58750000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -49118,7 +49111,7 @@
         <v>1.1733</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -49150,7 +49143,7 @@
         <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -49182,7 +49175,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -49214,7 +49207,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -49246,7 +49239,7 @@
         <v>0.65490000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -49278,7 +49271,7 @@
         <v>0.85680000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -49310,7 +49303,7 @@
         <v>0.88129999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -49342,7 +49335,7 @@
         <v>0.6421</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -49374,7 +49367,7 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -49406,7 +49399,7 @@
         <v>0.73409999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -49438,7 +49431,7 @@
         <v>0.45079999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -49470,7 +49463,7 @@
         <v>0.80089999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -49502,7 +49495,7 @@
         <v>0.81330000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -49534,7 +49527,7 @@
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -49566,7 +49559,7 @@
         <v>0.64349999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -49598,7 +49591,7 @@
         <v>0.81950000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -49630,7 +49623,7 @@
         <v>1.4209000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -49662,7 +49655,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -49694,7 +49687,7 @@
         <v>0.84660000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -49726,7 +49719,7 @@
         <v>1.0401</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -49758,7 +49751,7 @@
         <v>0.84230000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -49822,7 +49815,7 @@
         <v>0.80640000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -49854,7 +49847,7 @@
         <v>0.85919999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -49886,7 +49879,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -49918,7 +49911,7 @@
         <v>0.97189999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -49950,7 +49943,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -49982,7 +49975,7 @@
         <v>0.99780000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -50014,7 +50007,7 @@
         <v>0.9194</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -50046,7 +50039,7 @@
         <v>0.67449999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -50078,7 +50071,7 @@
         <v>0.3639</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -50110,7 +50103,7 @@
         <v>0.49070000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>32</v>
       </c>
@@ -50142,7 +50135,7 @@
         <v>0.6038</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -50174,7 +50167,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -50206,7 +50199,7 @@
         <v>0.26550000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -50238,7 +50231,7 @@
         <v>0.83950000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -50270,7 +50263,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -50302,7 +50295,7 @@
         <v>1.4975000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -50334,7 +50327,7 @@
         <v>1.2824</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -50366,7 +50359,7 @@
         <v>0.65990000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -50398,7 +50391,7 @@
         <v>1.4111</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -50430,7 +50423,7 @@
         <v>0.16439999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -50462,7 +50455,7 @@
         <v>0.75049999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -50494,7 +50487,7 @@
         <v>1.6116999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -50526,7 +50519,7 @@
         <v>0.7056</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -50590,7 +50583,7 @@
         <v>0.8962</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -50622,7 +50615,7 @@
         <v>0.70309999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -50654,7 +50647,7 @@
         <v>0.84970000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -50686,7 +50679,7 @@
         <v>1.1361000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -50718,7 +50711,7 @@
         <v>0.87880000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -50750,7 +50743,7 @@
         <v>1.2774000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -50782,7 +50775,7 @@
         <v>0.88780000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>39</v>
       </c>
@@ -50814,7 +50807,7 @@
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -50846,7 +50839,7 @@
         <v>1.0994999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -50878,7 +50871,7 @@
         <v>0.35849999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -50910,7 +50903,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -50942,7 +50935,7 @@
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -50974,7 +50967,7 @@
         <v>0.27779999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -51006,7 +50999,7 @@
         <v>0.87460000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -51038,7 +51031,7 @@
         <v>0.95220000000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -51071,6 +51064,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J97" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HFMD"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuxmueducn-my.sharepoint.com/personal/kanggle_stu_xmu_edu_cn/Documents/XMU/likangguo/2022/11 COVID_impact_luoli/code_PHSM/outcome/appendix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_83355CB94646B645A825410C301FFDC09747C93D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3813C44-6539-4B26-8AE3-9F86F6445231}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_83355CB94646B645A825410C301FFDC09747C93D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77879326-1399-447A-A448-A1376FD3144A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,6 +383,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -47958,6 +47962,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">

--- a/outcome/appendix/Supplementary Appendix 2.xlsx
+++ b/outcome/appendix/Supplementary Appendix 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuxmueducn-my.sharepoint.com/personal/kanggle_stu_xmu_edu_cn/Documents/XMU/likangguo/2022/11 COVID_impact_luoli/code_PHSM/outcome/appendix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_83355CB94646B645A825410C301FFDC09747C93D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77879326-1399-447A-A448-A1376FD3144A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_83355CB94646B645A825410C301FFDC09747C93D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD636C48-12B9-4744-A591-A8ED4D11674B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Table 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table 2'!$A$1:$AH$385</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Table 3'!$A$1:$J$97</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -12222,7 +12223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH385"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -47947,6 +47950,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH385" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -47954,11 +47958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -47998,7 +48001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -48030,7 +48033,7 @@
         <v>0.3926</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -48062,7 +48065,7 @@
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -48094,7 +48097,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -48126,7 +48129,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -48158,7 +48161,7 @@
         <v>0.64439999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -48190,7 +48193,7 @@
         <v>0.61609999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -48222,7 +48225,7 @@
         <v>0.54239999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -48286,7 +48289,7 @@
         <v>0.2893</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -48318,7 +48321,7 @@
         <v>0.65390000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -48350,7 +48353,7 @@
         <v>0.52680000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -48382,7 +48385,7 @@
         <v>0.72629999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -48414,7 +48417,7 @@
         <v>0.58840000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -48446,7 +48449,7 @@
         <v>0.71650000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -48478,7 +48481,7 @@
         <v>0.36480000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -48510,7 +48513,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -48542,7 +48545,7 @@
         <v>0.50860000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -48574,7 +48577,7 @@
         <v>0.2374</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -48606,7 +48609,7 @@
         <v>0.46870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -48638,7 +48641,7 @@
         <v>5.8599999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -48670,7 +48673,7 @@
         <v>9.3700000000000006E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -48702,7 +48705,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -48734,7 +48737,7 @@
         <v>0.79179999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -48766,7 +48769,7 @@
         <v>0.83020000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -48798,7 +48801,7 @@
         <v>0.85840000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -48830,7 +48833,7 @@
         <v>0.73980000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -48862,7 +48865,7 @@
         <v>0.85750000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -48894,7 +48897,7 @@
         <v>0.31819999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -48926,7 +48929,7 @@
         <v>0.87339999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -48958,7 +48961,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -48990,7 +48993,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -49054,7 +49057,7 @@
         <v>0.39789999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -49086,7 +49089,7 @@
         <v>0.58750000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -49118,7 +49121,7 @@
         <v>1.1733</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -49150,7 +49153,7 @@
         <v>0.81310000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -49182,7 +49185,7 @@
         <v>0.72699999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -49214,7 +49217,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -49246,7 +49249,7 @@
         <v>0.65490000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -49278,7 +49281,7 @@
         <v>0.85680000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -49310,7 +49313,7 @@
         <v>0.88129999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -49342,7 +49345,7 @@
         <v>0.6421</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -49374,7 +49377,7 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -49406,7 +49409,7 @@
         <v>0.73409999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -49438,7 +49441,7 @@
         <v>0.45079999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -49470,7 +49473,7 @@
         <v>0.80089999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -49502,7 +49505,7 @@
         <v>0.81330000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -49534,7 +49537,7 @@
         <v>0.86229999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -49566,7 +49569,7 @@
         <v>0.64349999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -49598,7 +49601,7 @@
         <v>0.81950000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -49630,7 +49633,7 @@
         <v>1.4209000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -49662,7 +49665,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -49694,7 +49697,7 @@
         <v>0.84660000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -49726,7 +49729,7 @@
         <v>1.0401</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -49758,7 +49761,7 @@
         <v>0.84230000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -49822,7 +49825,7 @@
         <v>0.80640000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -49854,7 +49857,7 @@
         <v>0.85919999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -49886,7 +49889,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -49918,7 +49921,7 @@
         <v>0.97189999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -49950,7 +49953,7 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -49982,7 +49985,7 @@
         <v>0.99780000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -50014,7 +50017,7 @@
         <v>0.9194</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -50046,7 +50049,7 @@
         <v>0.67449999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -50078,7 +50081,7 @@
         <v>0.3639</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>29</v>
       </c>
@@ -50110,7 +50113,7 @@
         <v>0.49070000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>32</v>
       </c>
@@ -50142,7 +50145,7 @@
         <v>0.6038</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -50174,7 +50177,7 @@
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -50206,7 +50209,7 @@
         <v>0.26550000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -50238,7 +50241,7 @@
         <v>0.83950000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -50270,7 +50273,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -50302,7 +50305,7 @@
         <v>1.4975000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -50334,7 +50337,7 @@
         <v>1.2824</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -50366,7 +50369,7 @@
         <v>0.65990000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -50398,7 +50401,7 @@
         <v>1.4111</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -50430,7 +50433,7 @@
         <v>0.16439999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -50462,7 +50465,7 @@
         <v>0.75049999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -50494,7 +50497,7 @@
         <v>1.6116999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -50526,7 +50529,7 @@
         <v>0.7056</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -50590,7 +50593,7 @@
         <v>0.8962</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>34</v>
       </c>
@@ -50622,7 +50625,7 @@
         <v>0.70309999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -50654,7 +50657,7 @@
         <v>0.84970000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -50686,7 +50689,7 @@
         <v>1.1361000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -50718,7 +50721,7 @@
         <v>0.87880000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -50750,7 +50753,7 @@
         <v>1.2774000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -50782,7 +50785,7 @@
         <v>0.88780000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>39</v>
       </c>
@@ -50814,7 +50817,7 @@
         <v>0.70040000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -50846,7 +50849,7 @@
         <v>1.0994999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>29</v>
       </c>
@@ -50878,7 +50881,7 @@
         <v>0.35849999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>32</v>
       </c>
@@ -50910,7 +50913,7 @@
         <v>0.64700000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -50942,7 +50945,7 @@
         <v>5.8099999999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -50974,7 +50977,7 @@
         <v>0.27779999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -51006,7 +51009,7 @@
         <v>0.87460000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -51038,7 +51041,7 @@
         <v>0.95220000000000005</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>38</v>
       </c>
@@ -51071,13 +51074,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J97" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="HFMD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J97" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
